--- a/Altium/DB.xlsx
+++ b/Altium/DB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Repos\LIBS\Altium\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4999505-930B-4F99-BE88-39683F317279}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CEEC62F-B780-4992-BA3D-15E961495520}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="15960" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="C" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5705" uniqueCount="1907">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6056" uniqueCount="2021">
   <si>
     <t>Part Number</t>
   </si>
@@ -5760,6 +5760,348 @@
   </si>
   <si>
     <t>Manufacturer Part Number 1</t>
+  </si>
+  <si>
+    <t>PXIe_EHM</t>
+  </si>
+  <si>
+    <t>PXIE_ADF</t>
+  </si>
+  <si>
+    <t>ERNI Electronics, Inc.</t>
+  </si>
+  <si>
+    <t>ZD F 3-10 30POS</t>
+  </si>
+  <si>
+    <t>973028</t>
+  </si>
+  <si>
+    <t>2684-973028-ND</t>
+  </si>
+  <si>
+    <t>214443</t>
+  </si>
+  <si>
+    <t>2684-214443-ND</t>
+  </si>
+  <si>
+    <t>2MM HM B8 40POS F SHLD</t>
+  </si>
+  <si>
+    <t>CONN SMA RCPT R/A 50 OHM PCB</t>
+  </si>
+  <si>
+    <t>WM5525-ND</t>
+  </si>
+  <si>
+    <t>0731000114</t>
+  </si>
+  <si>
+    <t>73100-2</t>
+  </si>
+  <si>
+    <t>CONN RCPT USB3.0 TYPEB 9POS R/A</t>
+  </si>
+  <si>
+    <t>Connector-10-USBB_3V0</t>
+  </si>
+  <si>
+    <t>692221030100</t>
+  </si>
+  <si>
+    <t>732-3158-ND</t>
+  </si>
+  <si>
+    <t>WURTH_692221030100</t>
+  </si>
+  <si>
+    <t>AD9230</t>
+  </si>
+  <si>
+    <t>IC ADC 11BIT PIPELINED 56LFCSP</t>
+  </si>
+  <si>
+    <t>AD9230BCPZ-250-ND</t>
+  </si>
+  <si>
+    <t>AD9230BCPZ-250</t>
+  </si>
+  <si>
+    <t>AD8138ARZ-R7CT-ND</t>
+  </si>
+  <si>
+    <t>AD8138ARZ-R7</t>
+  </si>
+  <si>
+    <t>AD8138</t>
+  </si>
+  <si>
+    <t>IC ADC DRIVER 8SOIC</t>
+  </si>
+  <si>
+    <t>YAG1440CT-ND</t>
+  </si>
+  <si>
+    <t>499</t>
+  </si>
+  <si>
+    <t>523</t>
+  </si>
+  <si>
+    <t>RT0402BRD07499RL</t>
+  </si>
+  <si>
+    <t>RES SMD 499 OHM 0.1% 1/16W 0402</t>
+  </si>
+  <si>
+    <t>YAG4278CT-ND</t>
+  </si>
+  <si>
+    <t>RES SMD 523 OHM 0.1% 1/16W 0402</t>
+  </si>
+  <si>
+    <t>RT0402BRD07523RL</t>
+  </si>
+  <si>
+    <t>CPF0402B33RE</t>
+  </si>
+  <si>
+    <t>TE Connectivity Passive Product</t>
+  </si>
+  <si>
+    <t>RES SMD 33 OHM 0.1% 1/16W 0402</t>
+  </si>
+  <si>
+    <t>A119938CT-ND</t>
+  </si>
+  <si>
+    <t>490-3120-1-ND</t>
+  </si>
+  <si>
+    <t>20pF</t>
+  </si>
+  <si>
+    <t>CAP CER 20PF 50V C0G/NP0 0402</t>
+  </si>
+  <si>
+    <t>GJM1555C1H200JB01D</t>
+  </si>
+  <si>
+    <t>LTC1550LCMS8#TRPBFCT-ND</t>
+  </si>
+  <si>
+    <t>LTC1550LCMS8#TRPBF</t>
+  </si>
+  <si>
+    <t>LTC1550LCxS8</t>
+  </si>
+  <si>
+    <t>IC REG CHARG PUMP ADJ 20MA 8MSOP</t>
+  </si>
+  <si>
+    <t>478-3471-1-ND</t>
+  </si>
+  <si>
+    <t>TCJR106M006R0500</t>
+  </si>
+  <si>
+    <t>CAP TANT POLY 10UF 6.3V 0805</t>
+  </si>
+  <si>
+    <t>ADP1740ACPZ-1.8-R7CT-ND</t>
+  </si>
+  <si>
+    <t>ADP1740</t>
+  </si>
+  <si>
+    <t>IC REG LINEAR 1.8V 2A 16LFCSP</t>
+  </si>
+  <si>
+    <t>ADP1740ACPZ-1.8-R7</t>
+  </si>
+  <si>
+    <t>ULP-120+</t>
+  </si>
+  <si>
+    <t>Mini-Circuits</t>
+  </si>
+  <si>
+    <t>QFN50P800X800X100_HS-57N</t>
+  </si>
+  <si>
+    <t>QFN65P400X400X80_HS-17N</t>
+  </si>
+  <si>
+    <t>FIL_ULP-120+</t>
+  </si>
+  <si>
+    <t>FT601Q</t>
+  </si>
+  <si>
+    <t>768-1311-ND</t>
+  </si>
+  <si>
+    <t>IC USB3-32BIT SYNC FIFO 76QFN</t>
+  </si>
+  <si>
+    <t>FT601Q-B-T</t>
+  </si>
+  <si>
+    <t>Samsung Electro-Mechanics</t>
+  </si>
+  <si>
+    <t>CL05B682KB5VPNC</t>
+  </si>
+  <si>
+    <t>1276-CL05B682KB5VPNCCT-ND</t>
+  </si>
+  <si>
+    <t>CAP CER 6800PF 50V X7R 0402</t>
+  </si>
+  <si>
+    <t>535-ABM3B-30.000MHZ-D2X-TCT-ND</t>
+  </si>
+  <si>
+    <t>30MHz</t>
+  </si>
+  <si>
+    <t>CRYSTAL 30.0000MHZ 18PF SMD</t>
+  </si>
+  <si>
+    <t>ABM3B-30.000MHZ-D2X-T</t>
+  </si>
+  <si>
+    <t>541-4091-1-ND</t>
+  </si>
+  <si>
+    <t>RES 1.6K OHM 1% 1/16W 0402</t>
+  </si>
+  <si>
+    <t>1.6k</t>
+  </si>
+  <si>
+    <t>CRCW04021K60FKEDC</t>
+  </si>
+  <si>
+    <t>311-1415-1-ND</t>
+  </si>
+  <si>
+    <t>CAP CER 18PF 50V C0G/NPO 0402</t>
+  </si>
+  <si>
+    <t>18pF</t>
+  </si>
+  <si>
+    <t>CC0402JRNPO9BN180</t>
+  </si>
+  <si>
+    <t>535-9097-1-ND</t>
+  </si>
+  <si>
+    <t>ABM10-30.000MHZ-E20-T</t>
+  </si>
+  <si>
+    <t>CRYSTAL 30.0000MHZ 10PF SMD</t>
+  </si>
+  <si>
+    <t>1292-1262-1-ND</t>
+  </si>
+  <si>
+    <t>Walsin Technology Corporation</t>
+  </si>
+  <si>
+    <t>16pF</t>
+  </si>
+  <si>
+    <t>CAP CER 16PF 50V C0G/NP0 0402</t>
+  </si>
+  <si>
+    <t>0402N160J500CT</t>
+  </si>
+  <si>
+    <t>LMK04208NKDT</t>
+  </si>
+  <si>
+    <t>LMK04208</t>
+  </si>
+  <si>
+    <t>IC CLOCK DUAL PLL 64WQFN</t>
+  </si>
+  <si>
+    <t>296-44915-1-ND</t>
+  </si>
+  <si>
+    <t>XTAL OSC VCXO 100.0000MHZ CMOS</t>
+  </si>
+  <si>
+    <t>Crystek Corporation</t>
+  </si>
+  <si>
+    <t>CVHD-950X-100</t>
+  </si>
+  <si>
+    <t>744-1468-ND</t>
+  </si>
+  <si>
+    <t>CVHD-950</t>
+  </si>
+  <si>
+    <t>490-1297-1-ND</t>
+  </si>
+  <si>
+    <t>GRM1555C1H471JA01D</t>
+  </si>
+  <si>
+    <t>GRM155R71C223KA01D</t>
+  </si>
+  <si>
+    <t>CAP CER 470PF 50V C0G/NP0 0402</t>
+  </si>
+  <si>
+    <t>490-3256-1-ND</t>
+  </si>
+  <si>
+    <t>CAP CER 0.022UF 16V X7R 0402</t>
+  </si>
+  <si>
+    <t>P2.70KLCT-ND</t>
+  </si>
+  <si>
+    <t>2.7k</t>
+  </si>
+  <si>
+    <t>RES SMD 2.7K OHM 1% 1/10W 0402</t>
+  </si>
+  <si>
+    <t>ERJ-2RKF2701X</t>
+  </si>
+  <si>
+    <t>336-2430-ND</t>
+  </si>
+  <si>
+    <t>511BBA200M000BAG</t>
+  </si>
+  <si>
+    <t>Si511</t>
+  </si>
+  <si>
+    <t>XTAL OSC XO 200.0000MHZ LVDS SMD</t>
+  </si>
+  <si>
+    <t>5CEFA7F27</t>
+  </si>
+  <si>
+    <t>5CEFA7F27C8N</t>
+  </si>
+  <si>
+    <t>989-5CEFA7F27C8N</t>
+  </si>
+  <si>
+    <t>706-1727-ND</t>
+  </si>
+  <si>
+    <t>IS43TR16256B-125KBL</t>
   </si>
 </sst>
 </file>
@@ -24009,10 +24351,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:P90"/>
+  <dimension ref="A1:P97"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+    <sheetView topLeftCell="A49" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K102" sqref="K102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -28288,6 +28630,329 @@
         <v>1884</v>
       </c>
     </row>
+    <row r="91" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A91" s="6" t="s">
+        <v>1948</v>
+      </c>
+      <c r="B91" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C91" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D91" s="6" t="s">
+        <v>531</v>
+      </c>
+      <c r="E91" s="6" t="s">
+        <v>1947</v>
+      </c>
+      <c r="F91" s="6" t="s">
+        <v>835</v>
+      </c>
+      <c r="H91" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I91" s="6" t="s">
+        <v>1946</v>
+      </c>
+      <c r="J91" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="K91" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="L91" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="M91" s="6" t="s">
+        <v>503</v>
+      </c>
+      <c r="N91" s="17" t="s">
+        <v>1948</v>
+      </c>
+      <c r="O91" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="P91" s="6" t="s">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A92" s="6" t="s">
+        <v>1954</v>
+      </c>
+      <c r="B92" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C92" s="6" t="s">
+        <v>1462</v>
+      </c>
+      <c r="D92" s="6" t="s">
+        <v>531</v>
+      </c>
+      <c r="E92" s="6" t="s">
+        <v>1955</v>
+      </c>
+      <c r="F92" s="6" t="s">
+        <v>1461</v>
+      </c>
+      <c r="H92" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I92" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="K92" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="M92" s="6" t="s">
+        <v>995</v>
+      </c>
+      <c r="N92" s="17" t="s">
+        <v>1954</v>
+      </c>
+      <c r="O92" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="P92" s="6" t="s">
+        <v>1953</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A93" s="6" t="s">
+        <v>1970</v>
+      </c>
+      <c r="B93" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C93" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D93" s="6" t="s">
+        <v>531</v>
+      </c>
+      <c r="E93" s="6" t="s">
+        <v>1972</v>
+      </c>
+      <c r="F93" s="6" t="s">
+        <v>835</v>
+      </c>
+      <c r="H93" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I93" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="J93" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="K93" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="L93" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="M93" s="6" t="s">
+        <v>1969</v>
+      </c>
+      <c r="N93" s="17" t="s">
+        <v>1970</v>
+      </c>
+      <c r="O93" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="P93" s="6" t="s">
+        <v>1971</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A94" s="6" t="s">
+        <v>1984</v>
+      </c>
+      <c r="B94" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C94" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D94" s="6" t="s">
+        <v>531</v>
+      </c>
+      <c r="E94" s="6" t="s">
+        <v>1982</v>
+      </c>
+      <c r="F94" s="6" t="s">
+        <v>835</v>
+      </c>
+      <c r="H94" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I94" s="6" t="s">
+        <v>1983</v>
+      </c>
+      <c r="J94" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="K94" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="L94" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="M94" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="N94" s="17" t="s">
+        <v>1984</v>
+      </c>
+      <c r="O94" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="P94" s="6" t="s">
+        <v>1981</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A95" s="6" t="s">
+        <v>1992</v>
+      </c>
+      <c r="B95" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C95" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D95" s="6" t="s">
+        <v>531</v>
+      </c>
+      <c r="E95" s="6" t="s">
+        <v>1991</v>
+      </c>
+      <c r="F95" s="6" t="s">
+        <v>835</v>
+      </c>
+      <c r="H95" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I95" s="6" t="s">
+        <v>1990</v>
+      </c>
+      <c r="J95" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="K95" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="L95" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="M95" s="6" t="s">
+        <v>1989</v>
+      </c>
+      <c r="N95" s="17" t="s">
+        <v>1992</v>
+      </c>
+      <c r="O95" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="P95" s="6" t="s">
+        <v>1988</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A96" s="6" t="s">
+        <v>2003</v>
+      </c>
+      <c r="B96" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C96" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D96" s="6" t="s">
+        <v>531</v>
+      </c>
+      <c r="E96" s="6" t="s">
+        <v>2005</v>
+      </c>
+      <c r="F96" s="6" t="s">
+        <v>835</v>
+      </c>
+      <c r="H96" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I96" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="J96" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="K96" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="L96" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="M96" s="6" t="s">
+        <v>503</v>
+      </c>
+      <c r="N96" s="17" t="s">
+        <v>2003</v>
+      </c>
+      <c r="O96" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="P96" s="6" t="s">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A97" s="6" t="s">
+        <v>2004</v>
+      </c>
+      <c r="B97" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C97" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D97" s="6" t="s">
+        <v>531</v>
+      </c>
+      <c r="E97" s="6" t="s">
+        <v>2007</v>
+      </c>
+      <c r="F97" s="6" t="s">
+        <v>835</v>
+      </c>
+      <c r="H97" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I97" s="6" t="s">
+        <v>1458</v>
+      </c>
+      <c r="J97" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="K97" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="L97" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="M97" s="6" t="s">
+        <v>503</v>
+      </c>
+      <c r="N97" s="6" t="s">
+        <v>2004</v>
+      </c>
+      <c r="O97" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="P97" s="6" t="s">
+        <v>2006</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P43">
     <sortCondition ref="F2:F43"/>
@@ -28304,11 +28969,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N129"/>
+  <dimension ref="A1:N134"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L97" sqref="L97"/>
+      <pane ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K138" sqref="K138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -33615,6 +34280,211 @@
       </c>
       <c r="N129" s="2" t="s">
         <v>1902</v>
+      </c>
+    </row>
+    <row r="130" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A130" s="2" t="s">
+        <v>1936</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>1937</v>
+      </c>
+      <c r="F130" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="H130" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I130" s="6" t="s">
+        <v>1934</v>
+      </c>
+      <c r="J130" s="4" t="s">
+        <v>1558</v>
+      </c>
+      <c r="K130" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="L130" s="2" t="s">
+        <v>1936</v>
+      </c>
+      <c r="M130" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N130" s="2" t="s">
+        <v>1933</v>
+      </c>
+    </row>
+    <row r="131" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A131" s="2" t="s">
+        <v>1940</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>1939</v>
+      </c>
+      <c r="F131" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="H131" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I131" s="6" t="s">
+        <v>1935</v>
+      </c>
+      <c r="J131" s="4" t="s">
+        <v>1558</v>
+      </c>
+      <c r="K131" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="L131" s="2" t="s">
+        <v>1940</v>
+      </c>
+      <c r="M131" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N131" s="2" t="s">
+        <v>1938</v>
+      </c>
+    </row>
+    <row r="132" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A132" s="2" t="s">
+        <v>1941</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>1943</v>
+      </c>
+      <c r="F132" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="H132" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I132" s="6" t="s">
+        <v>900</v>
+      </c>
+      <c r="J132" s="4" t="s">
+        <v>1558</v>
+      </c>
+      <c r="K132" s="19" t="s">
+        <v>1942</v>
+      </c>
+      <c r="L132" s="2" t="s">
+        <v>1941</v>
+      </c>
+      <c r="M132" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N132" s="2" t="s">
+        <v>1944</v>
+      </c>
+    </row>
+    <row r="133" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A133" s="2" t="s">
+        <v>1980</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>1978</v>
+      </c>
+      <c r="F133" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="H133" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I133" s="6" t="s">
+        <v>1979</v>
+      </c>
+      <c r="J133" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K133" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="L133" s="2" t="s">
+        <v>1980</v>
+      </c>
+      <c r="M133" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N133" s="2" t="s">
+        <v>1977</v>
+      </c>
+    </row>
+    <row r="134" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A134" s="2" t="s">
+        <v>2011</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>2010</v>
+      </c>
+      <c r="F134" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="H134" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I134" s="6" t="s">
+        <v>2009</v>
+      </c>
+      <c r="J134" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K134" s="2" t="s">
+        <v>662</v>
+      </c>
+      <c r="L134" s="2" t="s">
+        <v>2011</v>
+      </c>
+      <c r="M134" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N134" s="2" t="s">
+        <v>2008</v>
       </c>
     </row>
   </sheetData>
@@ -34671,10 +35541,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12:K13"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -34691,7 +35561,7 @@
     <col min="10" max="10" width="9.453125" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="30.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="22.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="31.90625" style="2" bestFit="1" customWidth="1"/>
     <col min="14" max="1025" width="9" style="23" customWidth="1"/>
     <col min="1026" max="16384" width="8.81640625" style="23"/>
   </cols>
@@ -35001,6 +35871,111 @@
       </c>
       <c r="M8" s="20" t="s">
         <v>1493</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
+        <v>1976</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>1975</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>1974</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>1976</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>1973</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>1986</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>1987</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>1974</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>1986</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>1985</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
+        <v>1999</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>2001</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>1997</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>1998</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>1052</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>1999</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>2000</v>
       </c>
     </row>
   </sheetData>
@@ -36687,11 +37662,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N108"/>
+  <dimension ref="A1:N118"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N14" sqref="N14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I85" sqref="I85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -40523,6 +41498,346 @@
         <v>1877</v>
       </c>
     </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A109" s="2" t="s">
+        <v>1928</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>1928</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>1925</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>1926</v>
+      </c>
+      <c r="F109" t="s">
+        <v>1962</v>
+      </c>
+      <c r="H109" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I109" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="J109" s="2" t="s">
+        <v>1928</v>
+      </c>
+      <c r="K109" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L109" s="2" t="s">
+        <v>1927</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A110" s="2" t="s">
+        <v>1930</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>1930</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>1931</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>1932</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="H110" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I110" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="J110" s="2" t="s">
+        <v>1930</v>
+      </c>
+      <c r="K110" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L110" s="2" t="s">
+        <v>1929</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A111" s="2" t="s">
+        <v>1950</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>1950</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>1951</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>1952</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>859</v>
+      </c>
+      <c r="H111" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I111" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="J111" s="2" t="s">
+        <v>1950</v>
+      </c>
+      <c r="K111" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L111" s="2" t="s">
+        <v>1949</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A112" s="2" t="s">
+        <v>1959</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>1959</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>1957</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>1958</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>1963</v>
+      </c>
+      <c r="H112" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I112" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="J112" s="2" t="s">
+        <v>1959</v>
+      </c>
+      <c r="K112" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L112" s="2" t="s">
+        <v>1956</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A113" s="2" t="s">
+        <v>1960</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>1960</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>1960</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>1964</v>
+      </c>
+      <c r="H113" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I113" s="2" t="s">
+        <v>1961</v>
+      </c>
+      <c r="J113" s="2" t="s">
+        <v>1960</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A114" s="2" t="s">
+        <v>1968</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>1968</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>1965</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>1967</v>
+      </c>
+      <c r="H114" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I114" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="J114" s="2" t="s">
+        <v>1968</v>
+      </c>
+      <c r="K114" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L114" s="2" t="s">
+        <v>1966</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A115" t="s">
+        <v>1993</v>
+      </c>
+      <c r="B115" t="s">
+        <v>1993</v>
+      </c>
+      <c r="C115" t="s">
+        <v>1994</v>
+      </c>
+      <c r="D115" t="s">
+        <v>19</v>
+      </c>
+      <c r="E115" t="s">
+        <v>1995</v>
+      </c>
+      <c r="F115"/>
+      <c r="G115"/>
+      <c r="H115" t="s">
+        <v>20</v>
+      </c>
+      <c r="I115" t="s">
+        <v>67</v>
+      </c>
+      <c r="J115" t="s">
+        <v>1993</v>
+      </c>
+      <c r="K115" t="s">
+        <v>17</v>
+      </c>
+      <c r="L115" t="s">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A116" s="2" t="s">
+        <v>2013</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>2013</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>2014</v>
+      </c>
+      <c r="D116" t="s">
+        <v>19</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>2015</v>
+      </c>
+      <c r="H116" t="s">
+        <v>20</v>
+      </c>
+      <c r="I116" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="J116" s="2" t="s">
+        <v>2013</v>
+      </c>
+      <c r="K116" t="s">
+        <v>17</v>
+      </c>
+      <c r="L116" s="2" t="s">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A117" s="2" t="s">
+        <v>2017</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>2017</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>2016</v>
+      </c>
+      <c r="D117" t="s">
+        <v>19</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>847</v>
+      </c>
+      <c r="H117" t="s">
+        <v>20</v>
+      </c>
+      <c r="I117" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="J117" s="2" t="s">
+        <v>2017</v>
+      </c>
+      <c r="K117" t="s">
+        <v>17</v>
+      </c>
+      <c r="L117" s="2" t="s">
+        <v>2017</v>
+      </c>
+      <c r="M117" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N117" s="2" t="s">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A118" s="2" t="s">
+        <v>2020</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>2020</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>2020</v>
+      </c>
+      <c r="D118" t="s">
+        <v>19</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>1430</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>860</v>
+      </c>
+      <c r="H118" t="s">
+        <v>20</v>
+      </c>
+      <c r="I118" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="J118" s="2" t="s">
+        <v>2020</v>
+      </c>
+      <c r="K118" t="s">
+        <v>17</v>
+      </c>
+      <c r="L118" s="2" t="s">
+        <v>2019</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -40536,11 +41851,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N33"/>
+  <dimension ref="A1:N37"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J14" sqref="J14"/>
+    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -41637,6 +42952,146 @@
       </c>
       <c r="L33" s="2" t="s">
         <v>1829</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A34" s="2" t="s">
+        <v>1913</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>1913</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>1907</v>
+      </c>
+      <c r="D34" t="s">
+        <v>100</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>1915</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>1907</v>
+      </c>
+      <c r="H34" t="s">
+        <v>99</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>1909</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>1913</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>1914</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A35" s="2" t="s">
+        <v>1911</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>1911</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>1908</v>
+      </c>
+      <c r="D35" t="s">
+        <v>100</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>1910</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>1908</v>
+      </c>
+      <c r="H35" t="s">
+        <v>99</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>1909</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>1911</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L35" s="2" t="s">
+        <v>1912</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A36" s="2" t="s">
+        <v>1918</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>1918</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>979</v>
+      </c>
+      <c r="D36" t="s">
+        <v>100</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>1916</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>1919</v>
+      </c>
+      <c r="H36" t="s">
+        <v>99</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>1918</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L36" s="2" t="s">
+        <v>1917</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A37" s="2" t="s">
+        <v>1922</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>1922</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>1921</v>
+      </c>
+      <c r="D37" t="s">
+        <v>100</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>1920</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>1924</v>
+      </c>
+      <c r="H37" t="s">
+        <v>99</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>1922</v>
+      </c>
+      <c r="K37" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L37" s="2" t="s">
+        <v>1923</v>
       </c>
     </row>
   </sheetData>
@@ -42164,8 +43619,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11:H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Altium/DB.xlsx
+++ b/Altium/DB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Repos\LIBS\Altium\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CEEC62F-B780-4992-BA3D-15E961495520}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A22170D9-FD31-49FA-B091-F78A9E3703AB}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="15960" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="38625" windowHeight="21225" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="C" sheetId="2" r:id="rId1"/>
@@ -23,14 +23,8 @@
     <sheet name="Other" sheetId="14" r:id="rId8"/>
     <sheet name="Mech" sheetId="11" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="179021"/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
     </ext>
@@ -39,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6056" uniqueCount="2021">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6533" uniqueCount="2193">
   <si>
     <t>Part Number</t>
   </si>
@@ -5762,31 +5756,70 @@
     <t>Manufacturer Part Number 1</t>
   </si>
   <si>
-    <t>PXIe_EHM</t>
-  </si>
-  <si>
-    <t>PXIE_ADF</t>
-  </si>
-  <si>
-    <t>ERNI Electronics, Inc.</t>
-  </si>
-  <si>
-    <t>ZD F 3-10 30POS</t>
-  </si>
-  <si>
-    <t>973028</t>
-  </si>
-  <si>
-    <t>2684-973028-ND</t>
-  </si>
-  <si>
-    <t>214443</t>
-  </si>
-  <si>
-    <t>2684-214443-ND</t>
-  </si>
-  <si>
-    <t>2MM HM B8 40POS F SHLD</t>
+    <t>31-PI6C49CB02Q3WEXCT-ND</t>
+  </si>
+  <si>
+    <t>PI6C49CB02Q3WEX</t>
+  </si>
+  <si>
+    <t>CLOCK BUFFER SO-8</t>
+  </si>
+  <si>
+    <t>296-25244-1-ND</t>
+  </si>
+  <si>
+    <t>IC CLK BUFFER 2:4 2GHZ 16QFN</t>
+  </si>
+  <si>
+    <t>CDCLVP1204RGTT</t>
+  </si>
+  <si>
+    <t>478-3471-1-ND</t>
+  </si>
+  <si>
+    <t>CAP TANT POLY 10UF 6.3V 0805</t>
+  </si>
+  <si>
+    <t>TCJR106M006R0500</t>
+  </si>
+  <si>
+    <t>1276-CL05B682KB5VPNCCT-ND</t>
+  </si>
+  <si>
+    <t>CAP CER 6800PF 50V X7R 0402</t>
+  </si>
+  <si>
+    <t>Samsung Electro-Mechanics</t>
+  </si>
+  <si>
+    <t>CL05B682KB5VPNC</t>
+  </si>
+  <si>
+    <t>1292-1262-1-ND</t>
+  </si>
+  <si>
+    <t>0402N160J500CT</t>
+  </si>
+  <si>
+    <t>CAP CER 16PF 50V C0G/NP0 0402</t>
+  </si>
+  <si>
+    <t>16pF</t>
+  </si>
+  <si>
+    <t>Walsin Technology Corporation</t>
+  </si>
+  <si>
+    <t>490-1297-1-ND</t>
+  </si>
+  <si>
+    <t>CAP CER 470PF 50V C0G/NP0 0402</t>
+  </si>
+  <si>
+    <t>GRM1555C1H471JA01D</t>
+  </si>
+  <si>
+    <t>0731000114</t>
   </si>
   <si>
     <t>CONN SMA RCPT R/A 50 OHM PCB</t>
@@ -5795,313 +5828,790 @@
     <t>WM5525-ND</t>
   </si>
   <si>
-    <t>0731000114</t>
+    <t>P86.6LCT-ND</t>
+  </si>
+  <si>
+    <t>86.6</t>
+  </si>
+  <si>
+    <t>RES SMD 86.6 OHM 1% 1/10W 0402</t>
+  </si>
+  <si>
+    <t>ERJ-2RKF86R6X</t>
+  </si>
+  <si>
+    <t>CRCW0402249RFKEDC</t>
+  </si>
+  <si>
+    <t>RES 249 OHM 1% 1/16W 0402</t>
+  </si>
+  <si>
+    <t>249</t>
+  </si>
+  <si>
+    <t>541-4112-1-ND</t>
+  </si>
+  <si>
+    <t>Stackpole Electronics Inc</t>
+  </si>
+  <si>
+    <t>RES 62 OHM 1% 1/16W 0402</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>RMCF0402FT62R0CT-ND</t>
+  </si>
+  <si>
+    <t>RMCF0402FT62R0</t>
+  </si>
+  <si>
+    <t>490-3120-1-ND</t>
+  </si>
+  <si>
+    <t>CAP CER 20PF 50V C0G/NP0 0402</t>
+  </si>
+  <si>
+    <t>20pF</t>
+  </si>
+  <si>
+    <t>GJM1555C1H200JB01D</t>
+  </si>
+  <si>
+    <t>490-3256-1-ND</t>
+  </si>
+  <si>
+    <t>CAP CER 0.022UF 16V X7R 0402</t>
+  </si>
+  <si>
+    <t>GRM155R71C223KA01D</t>
+  </si>
+  <si>
+    <t>YAG1440CT-ND</t>
+  </si>
+  <si>
+    <t>RES SMD 499 OHM 0.1% 1/16W 0402</t>
+  </si>
+  <si>
+    <t>499</t>
+  </si>
+  <si>
+    <t>RT0402BRD07499RL</t>
+  </si>
+  <si>
+    <t>YAG4278CT-ND</t>
+  </si>
+  <si>
+    <t>RES SMD 523 OHM 0.1% 1/16W 0402</t>
+  </si>
+  <si>
+    <t>523</t>
+  </si>
+  <si>
+    <t>RT0402BRD07523RL</t>
+  </si>
+  <si>
+    <t>541-4091-1-ND</t>
+  </si>
+  <si>
+    <t>1.6k</t>
+  </si>
+  <si>
+    <t>RES 1.6K OHM 1% 1/16W 0402</t>
+  </si>
+  <si>
+    <t>CRCW04021K60FKEDC</t>
+  </si>
+  <si>
+    <t>A119938CT-ND</t>
+  </si>
+  <si>
+    <t>TE Connectivity Passive Product</t>
+  </si>
+  <si>
+    <t>RES SMD 33 OHM 0.1% 1/16W 0402</t>
+  </si>
+  <si>
+    <t>CPF0402B33RE</t>
+  </si>
+  <si>
+    <t>P2.70KLCT-ND</t>
+  </si>
+  <si>
+    <t>RES SMD 2.7K OHM 1% 1/10W 0402</t>
+  </si>
+  <si>
+    <t>2.7k</t>
+  </si>
+  <si>
+    <t>ERJ-2RKF2701X</t>
+  </si>
+  <si>
+    <t>5CEFA7F27C8N</t>
+  </si>
+  <si>
+    <t>544-3350-ND</t>
+  </si>
+  <si>
+    <t>LMK04208</t>
+  </si>
+  <si>
+    <t>296-44915-1-ND</t>
+  </si>
+  <si>
+    <t>IC CLOCK DUAL PLL 64WQFN</t>
+  </si>
+  <si>
+    <t>LMK04208NKDT</t>
+  </si>
+  <si>
+    <t>IS43TR16256B-125KBL</t>
+  </si>
+  <si>
+    <t>AD8138</t>
+  </si>
+  <si>
+    <t>706-1727-ND</t>
+  </si>
+  <si>
+    <t>AD8138ARZ-R7CT-ND</t>
+  </si>
+  <si>
+    <t>AD8138ARZ-R7</t>
+  </si>
+  <si>
+    <t>IC ADC DRIVER 8SOIC</t>
+  </si>
+  <si>
+    <t>AD9230</t>
+  </si>
+  <si>
+    <t>AD9230BCPZ-250-ND</t>
+  </si>
+  <si>
+    <t>IC ADC 11BIT PIPELINED 56LFCSP</t>
+  </si>
+  <si>
+    <t>AD9230BCPZ-250</t>
+  </si>
+  <si>
+    <t>IC USB3-32BIT SYNC FIFO 76QFN</t>
+  </si>
+  <si>
+    <t>FT601Q</t>
+  </si>
+  <si>
+    <t>768-1311-ND</t>
+  </si>
+  <si>
+    <t>FT601Q-B-T</t>
+  </si>
+  <si>
+    <t>IC REG CHARG PUMP ADJ 20MA 8MSOP</t>
+  </si>
+  <si>
+    <t>LTC1550LCxS8</t>
+  </si>
+  <si>
+    <t>LTC1550LCMS8#TRPBFCT-ND</t>
+  </si>
+  <si>
+    <t>LTC1550LCMS8#TRPBF</t>
+  </si>
+  <si>
+    <t>ULP-120+</t>
+  </si>
+  <si>
+    <t>Mini-Circuits</t>
+  </si>
+  <si>
+    <t>LOW PASS FILTER</t>
+  </si>
+  <si>
+    <t>ABM10-30.000MHZ-E20-T</t>
+  </si>
+  <si>
+    <t>30MHz</t>
+  </si>
+  <si>
+    <t>535-9097-1-ND</t>
+  </si>
+  <si>
+    <t>CRYSTAL 30.0000MHZ 10PF SMD</t>
+  </si>
+  <si>
+    <t>336-2430-ND</t>
+  </si>
+  <si>
+    <t>Si511</t>
+  </si>
+  <si>
+    <t>XTAL OSC XO 200.0000MHZ LVDS SMD</t>
+  </si>
+  <si>
+    <t>511BBA200M000BAG</t>
+  </si>
+  <si>
+    <t>744-1213-ND</t>
+  </si>
+  <si>
+    <t>XTAL OSC VCXO 100.0000MHZ CMOS</t>
+  </si>
+  <si>
+    <t>CVHD-950-100.000</t>
+  </si>
+  <si>
+    <t>Crystek Corporation</t>
+  </si>
+  <si>
+    <t>CVHD-950</t>
+  </si>
+  <si>
+    <t>IC REG LINEAR 1.8V 2A 16LFCSP</t>
+  </si>
+  <si>
+    <t>ADP1740ACPZ-1.8-R7</t>
+  </si>
+  <si>
+    <t>ADP1740</t>
+  </si>
+  <si>
+    <t>ADP1740ACPZ-1.8-R7CT-ND</t>
+  </si>
+  <si>
+    <t>QFN50P800X800X100_HS-57N</t>
+  </si>
+  <si>
+    <t>QFN40P900X900X100_HS-77N</t>
+  </si>
+  <si>
+    <t>FIL_ULP-120+</t>
+  </si>
+  <si>
+    <t>QFN65P400X400X80_HS-17N</t>
+  </si>
+  <si>
+    <t>VCO_CVHD-950</t>
   </si>
   <si>
     <t>73100-2</t>
   </si>
   <si>
-    <t>CONN RCPT USB3.0 TYPEB 9POS R/A</t>
-  </si>
-  <si>
-    <t>Connector-10-USBB_3V0</t>
-  </si>
-  <si>
-    <t>692221030100</t>
-  </si>
-  <si>
-    <t>732-3158-ND</t>
-  </si>
-  <si>
-    <t>WURTH_692221030100</t>
-  </si>
-  <si>
-    <t>AD9230</t>
-  </si>
-  <si>
-    <t>IC ADC 11BIT PIPELINED 56LFCSP</t>
-  </si>
-  <si>
-    <t>AD9230BCPZ-250-ND</t>
-  </si>
-  <si>
-    <t>AD9230BCPZ-250</t>
-  </si>
-  <si>
-    <t>AD8138ARZ-R7CT-ND</t>
-  </si>
-  <si>
-    <t>AD8138ARZ-R7</t>
-  </si>
-  <si>
-    <t>AD8138</t>
-  </si>
-  <si>
-    <t>IC ADC DRIVER 8SOIC</t>
-  </si>
-  <si>
-    <t>YAG1440CT-ND</t>
-  </si>
-  <si>
-    <t>499</t>
-  </si>
-  <si>
-    <t>523</t>
-  </si>
-  <si>
-    <t>RT0402BRD07499RL</t>
-  </si>
-  <si>
-    <t>RES SMD 499 OHM 0.1% 1/16W 0402</t>
-  </si>
-  <si>
-    <t>YAG4278CT-ND</t>
-  </si>
-  <si>
-    <t>RES SMD 523 OHM 0.1% 1/16W 0402</t>
-  </si>
-  <si>
-    <t>RT0402BRD07523RL</t>
-  </si>
-  <si>
-    <t>CPF0402B33RE</t>
-  </si>
-  <si>
-    <t>TE Connectivity Passive Product</t>
-  </si>
-  <si>
-    <t>RES SMD 33 OHM 0.1% 1/16W 0402</t>
-  </si>
-  <si>
-    <t>A119938CT-ND</t>
-  </si>
-  <si>
-    <t>490-3120-1-ND</t>
-  </si>
-  <si>
-    <t>20pF</t>
-  </si>
-  <si>
-    <t>CAP CER 20PF 50V C0G/NP0 0402</t>
-  </si>
-  <si>
-    <t>GJM1555C1H200JB01D</t>
-  </si>
-  <si>
-    <t>LTC1550LCMS8#TRPBFCT-ND</t>
-  </si>
-  <si>
-    <t>LTC1550LCMS8#TRPBF</t>
-  </si>
-  <si>
-    <t>LTC1550LCxS8</t>
-  </si>
-  <si>
-    <t>IC REG CHARG PUMP ADJ 20MA 8MSOP</t>
-  </si>
-  <si>
-    <t>478-3471-1-ND</t>
-  </si>
-  <si>
-    <t>TCJR106M006R0500</t>
-  </si>
-  <si>
-    <t>CAP TANT POLY 10UF 6.3V 0805</t>
-  </si>
-  <si>
-    <t>ADP1740ACPZ-1.8-R7CT-ND</t>
-  </si>
-  <si>
-    <t>ADP1740</t>
-  </si>
-  <si>
-    <t>IC REG LINEAR 1.8V 2A 16LFCSP</t>
-  </si>
-  <si>
-    <t>ADP1740ACPZ-1.8-R7</t>
-  </si>
-  <si>
-    <t>ULP-120+</t>
-  </si>
-  <si>
-    <t>Mini-Circuits</t>
-  </si>
-  <si>
-    <t>QFN50P800X800X100_HS-57N</t>
-  </si>
-  <si>
-    <t>QFN65P400X400X80_HS-17N</t>
-  </si>
-  <si>
-    <t>FIL_ULP-120+</t>
-  </si>
-  <si>
-    <t>FT601Q</t>
-  </si>
-  <si>
-    <t>768-1311-ND</t>
-  </si>
-  <si>
-    <t>IC USB3-32BIT SYNC FIFO 76QFN</t>
-  </si>
-  <si>
-    <t>FT601Q-B-T</t>
-  </si>
-  <si>
-    <t>Samsung Electro-Mechanics</t>
-  </si>
-  <si>
-    <t>CL05B682KB5VPNC</t>
-  </si>
-  <si>
-    <t>1276-CL05B682KB5VPNCCT-ND</t>
-  </si>
-  <si>
-    <t>CAP CER 6800PF 50V X7R 0402</t>
-  </si>
-  <si>
-    <t>535-ABM3B-30.000MHZ-D2X-TCT-ND</t>
-  </si>
-  <si>
-    <t>30MHz</t>
-  </si>
-  <si>
-    <t>CRYSTAL 30.0000MHZ 18PF SMD</t>
-  </si>
-  <si>
-    <t>ABM3B-30.000MHZ-D2X-T</t>
-  </si>
-  <si>
-    <t>541-4091-1-ND</t>
-  </si>
-  <si>
-    <t>RES 1.6K OHM 1% 1/16W 0402</t>
-  </si>
-  <si>
-    <t>1.6k</t>
-  </si>
-  <si>
-    <t>CRCW04021K60FKEDC</t>
-  </si>
-  <si>
-    <t>311-1415-1-ND</t>
-  </si>
-  <si>
-    <t>CAP CER 18PF 50V C0G/NPO 0402</t>
-  </si>
-  <si>
-    <t>18pF</t>
-  </si>
-  <si>
-    <t>CC0402JRNPO9BN180</t>
-  </si>
-  <si>
-    <t>535-9097-1-ND</t>
-  </si>
-  <si>
-    <t>ABM10-30.000MHZ-E20-T</t>
-  </si>
-  <si>
-    <t>CRYSTAL 30.0000MHZ 10PF SMD</t>
-  </si>
-  <si>
-    <t>1292-1262-1-ND</t>
-  </si>
-  <si>
-    <t>Walsin Technology Corporation</t>
-  </si>
-  <si>
-    <t>16pF</t>
-  </si>
-  <si>
-    <t>CAP CER 16PF 50V C0G/NP0 0402</t>
-  </si>
-  <si>
-    <t>0402N160J500CT</t>
-  </si>
-  <si>
-    <t>LMK04208NKDT</t>
-  </si>
-  <si>
-    <t>LMK04208</t>
-  </si>
-  <si>
-    <t>IC CLOCK DUAL PLL 64WQFN</t>
-  </si>
-  <si>
-    <t>296-44915-1-ND</t>
-  </si>
-  <si>
-    <t>XTAL OSC VCXO 100.0000MHZ CMOS</t>
-  </si>
-  <si>
-    <t>Crystek Corporation</t>
-  </si>
-  <si>
-    <t>CVHD-950X-100</t>
-  </si>
-  <si>
-    <t>744-1468-ND</t>
-  </si>
-  <si>
-    <t>CVHD-950</t>
-  </si>
-  <si>
-    <t>490-1297-1-ND</t>
-  </si>
-  <si>
-    <t>GRM1555C1H471JA01D</t>
-  </si>
-  <si>
-    <t>GRM155R71C223KA01D</t>
-  </si>
-  <si>
-    <t>CAP CER 470PF 50V C0G/NP0 0402</t>
-  </si>
-  <si>
-    <t>490-3256-1-ND</t>
-  </si>
-  <si>
-    <t>CAP CER 0.022UF 16V X7R 0402</t>
-  </si>
-  <si>
-    <t>P2.70KLCT-ND</t>
-  </si>
-  <si>
-    <t>2.7k</t>
-  </si>
-  <si>
-    <t>RES SMD 2.7K OHM 1% 1/10W 0402</t>
-  </si>
-  <si>
-    <t>ERJ-2RKF2701X</t>
-  </si>
-  <si>
-    <t>336-2430-ND</t>
-  </si>
-  <si>
-    <t>511BBA200M000BAG</t>
-  </si>
-  <si>
-    <t>Si511</t>
-  </si>
-  <si>
-    <t>XTAL OSC XO 200.0000MHZ LVDS SMD</t>
-  </si>
-  <si>
-    <t>5CEFA7F27</t>
-  </si>
-  <si>
-    <t>5CEFA7F27C8N</t>
-  </si>
-  <si>
-    <t>989-5CEFA7F27C8N</t>
-  </si>
-  <si>
-    <t>706-1727-ND</t>
-  </si>
-  <si>
-    <t>IS43TR16256B-125KBL</t>
+    <t>XTAL_2520</t>
+  </si>
+  <si>
+    <t>FXLA104UM12XCT-ND</t>
+  </si>
+  <si>
+    <t>IC TRNSLTR BIDIRECTIONAL 12MLP</t>
+  </si>
+  <si>
+    <t>FXLA104</t>
+  </si>
+  <si>
+    <t>FXLA104UM12X</t>
+  </si>
+  <si>
+    <t>QFN40P180X180X55-12N</t>
+  </si>
+  <si>
+    <t>497-17414-ND</t>
+  </si>
+  <si>
+    <t>STM32F302CBT6</t>
+  </si>
+  <si>
+    <t>IC MCU 32BIT 128KB FLASH 48LQFP</t>
+  </si>
+  <si>
+    <t>STM32F302CB</t>
+  </si>
+  <si>
+    <t>TSQFP50P900X900X160-48N</t>
+  </si>
+  <si>
+    <t>MCP2551-I/SN-ND</t>
+  </si>
+  <si>
+    <t>MCP2551-I/SN</t>
+  </si>
+  <si>
+    <t>MCP2551</t>
+  </si>
+  <si>
+    <t>Connector Cortex Debug</t>
+  </si>
+  <si>
+    <t>FTSH-105-01-L-DV-007-K</t>
+  </si>
+  <si>
+    <t>SAMTEC_FTSH-105-01-L-DV-007-K</t>
+  </si>
+  <si>
+    <t>Samtec Inc.</t>
+  </si>
+  <si>
+    <t>SAM9438-ND</t>
+  </si>
+  <si>
+    <t>CONN HEADER SMD 10POS 1.27MM</t>
+  </si>
+  <si>
+    <t>455-3978-ND</t>
+  </si>
+  <si>
+    <t>B3P-VH-FB-B(LF)(SN)</t>
+  </si>
+  <si>
+    <t>CONN HEADER VERT 3POS 3.96MM</t>
+  </si>
+  <si>
+    <t>JST_B3P-VH</t>
+  </si>
+  <si>
+    <t>JST Sales America Inc.</t>
+  </si>
+  <si>
+    <t>311-59.0HRCT-ND</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>RES SMD 59 OHM 1% 1/10W 0603</t>
+  </si>
+  <si>
+    <t>RC0603FR-0759RL</t>
+  </si>
+  <si>
+    <t>1589-1955-1-ND</t>
+  </si>
+  <si>
+    <t>Monolithic Power Systems Inc.</t>
+  </si>
+  <si>
+    <t>MPM3632C</t>
+  </si>
+  <si>
+    <t>MPM3632CGQV-Z</t>
+  </si>
+  <si>
+    <t>IC REG BUCK ADJUSTABLE 3A 20QFN</t>
+  </si>
+  <si>
+    <t>BD3539NUX-TRCT-ND</t>
+  </si>
+  <si>
+    <t>Rohm Semiconductor</t>
+  </si>
+  <si>
+    <t>BD3539NUX-TR</t>
+  </si>
+  <si>
+    <t>BD3539NUX</t>
+  </si>
+  <si>
+    <t>IC REG CONV DDR SDRAM 1OUT 8VSON</t>
+  </si>
+  <si>
+    <t>LM3880MF-1AE/NOPB</t>
+  </si>
+  <si>
+    <t>LM3880MF-1AE/NOPBCT-ND</t>
+  </si>
+  <si>
+    <t>IC PWR SUPPLY SEQUENCER SOT23-6</t>
+  </si>
+  <si>
+    <t>LM3880</t>
+  </si>
+  <si>
+    <t>2037-PFR05S-153-FNHCT-ND</t>
+  </si>
+  <si>
+    <t>Delta Electronics/Cyntec</t>
+  </si>
+  <si>
+    <t>PFR05S-153-FNH</t>
+  </si>
+  <si>
+    <t>RES SMD 15 KOHM 1% 1/16W 0402</t>
+  </si>
+  <si>
+    <t>RES SMD 46.4K OHM 1% 1/16W 0402</t>
+  </si>
+  <si>
+    <t>46.4k</t>
+  </si>
+  <si>
+    <t>RC0402FR-0746K4L</t>
+  </si>
+  <si>
+    <t>311-46.4KLRCT-ND</t>
+  </si>
+  <si>
+    <t>311-53.6KLRCT-ND</t>
+  </si>
+  <si>
+    <t>53.6k</t>
+  </si>
+  <si>
+    <t>RES SMD 53.6K OHM 1% 1/16W 0402</t>
+  </si>
+  <si>
+    <t>RC0402FR-0753K6L</t>
+  </si>
+  <si>
+    <t>RMCF0402FT17K4CT-ND</t>
+  </si>
+  <si>
+    <t>RES 17.4K OHM 1% 1/16W 0402</t>
+  </si>
+  <si>
+    <t>17.4k</t>
+  </si>
+  <si>
+    <t>RMCF0402FT17K4</t>
+  </si>
+  <si>
+    <t>311-22.0KLRCT-ND</t>
+  </si>
+  <si>
+    <t>RES SMD 22K OHM 1% 1/16W 0402</t>
+  </si>
+  <si>
+    <t>22k</t>
+  </si>
+  <si>
+    <t>RC0402FR-0722KL</t>
+  </si>
+  <si>
+    <t>SSC53L-E3/57TGICT-ND</t>
+  </si>
+  <si>
+    <t>DIODE SCHOTTKY 30V 5A DO214AB</t>
+  </si>
+  <si>
+    <t>SSC53L-E3/57T</t>
+  </si>
+  <si>
+    <t>P2.55KLCT-ND</t>
+  </si>
+  <si>
+    <t>ERJ-2RKF2551X</t>
+  </si>
+  <si>
+    <t>RES SMD 2.55K OHM 1% 1/10W 0402</t>
+  </si>
+  <si>
+    <t>2.55k</t>
+  </si>
+  <si>
+    <t>RMCF0402FT20K0CT-ND</t>
+  </si>
+  <si>
+    <t>RMCF0402FT20K0</t>
+  </si>
+  <si>
+    <t>RES 20K OHM 1% 1/16W 0402</t>
+  </si>
+  <si>
+    <t>20k</t>
+  </si>
+  <si>
+    <t>1589-MPM3650GQW-ZCT-ND</t>
+  </si>
+  <si>
+    <t>1.2MHZ, SYNCHRONOUS, 2.75V TO 17</t>
+  </si>
+  <si>
+    <t>MPM3650GQW-Z</t>
+  </si>
+  <si>
+    <t>MPM3650</t>
+  </si>
+  <si>
+    <t>SON50P300X60_HS-9N</t>
+  </si>
+  <si>
+    <t>296-40362-1-ND</t>
+  </si>
+  <si>
+    <t>LP5907QMFX-2.5Q1</t>
+  </si>
+  <si>
+    <t>LP5907QMFX</t>
+  </si>
+  <si>
+    <t>IC REG LINEAR 2.5V 250MA SOT23-5</t>
+  </si>
+  <si>
+    <t>BD4xExxG</t>
+  </si>
+  <si>
+    <t>IC SUPERVISOR 1 CHANNEL 5SSOP</t>
+  </si>
+  <si>
+    <t>BD4842G-TR</t>
+  </si>
+  <si>
+    <t>BD4842GCT-ND</t>
+  </si>
+  <si>
+    <t>74LVC1G07W5-7DICT-ND</t>
+  </si>
+  <si>
+    <t>IC BUFFER NON-INVERT 5.5V SOT25</t>
+  </si>
+  <si>
+    <t>74LVC1G07W5-7</t>
+  </si>
+  <si>
+    <t>74LVC1G07_SOT</t>
+  </si>
+  <si>
+    <t>1586038-4</t>
+  </si>
+  <si>
+    <t>A114894-ND</t>
+  </si>
+  <si>
+    <t>CONN HEADER VERT 4POS 4.2MM</t>
+  </si>
+  <si>
+    <t>399-8410-1-ND</t>
+  </si>
+  <si>
+    <t>CAP TANT 100UF 10% 25V 2917</t>
+  </si>
+  <si>
+    <t>KEMET</t>
+  </si>
+  <si>
+    <t>T491X107K025AT</t>
+  </si>
+  <si>
+    <t>DIOM6959X26N</t>
+  </si>
+  <si>
+    <t>CAPMP7343X43N</t>
+  </si>
+  <si>
+    <t>IC CLOCK BUFFER SO-8</t>
+  </si>
+  <si>
+    <t>PI6C49CB04AQ</t>
+  </si>
+  <si>
+    <t>31-PI6C49CB04AQ2WEXCT-ND</t>
+  </si>
+  <si>
+    <t>544-3441-ND</t>
+  </si>
+  <si>
+    <t>IC CONFIG DEVICE 32MBIT 8SOIC</t>
+  </si>
+  <si>
+    <t>EPCQ32ASI8N</t>
+  </si>
+  <si>
+    <t>EPCQxxA_SOIC</t>
+  </si>
+  <si>
+    <t>TPS3840</t>
+  </si>
+  <si>
+    <t>296-TPS3840DL20DBVRCT-ND</t>
+  </si>
+  <si>
+    <t>TPS3840DL20DBVR</t>
+  </si>
+  <si>
+    <t>24AA02UIDT-I/OTCT-ND</t>
+  </si>
+  <si>
+    <t>24AA02UIDT-I/OT</t>
+  </si>
+  <si>
+    <t>24AA02UID_SOT</t>
+  </si>
+  <si>
+    <t>IC EEPROM 2KBIT I2C SOT23-5</t>
+  </si>
+  <si>
+    <t>SOT65P205X110-3N</t>
+  </si>
+  <si>
+    <t>SOT65P205X100-3N</t>
+  </si>
+  <si>
+    <t>497-17304-1-ND</t>
+  </si>
+  <si>
+    <t>TVS DIODE 35VWM 59VC SOT323-3</t>
+  </si>
+  <si>
+    <t>ESDCAN06-2BWY</t>
+  </si>
+  <si>
+    <t>BSS138W-FDICT-ND</t>
+  </si>
+  <si>
+    <t>MOSFET N-CH 50V 200MA SOT323</t>
+  </si>
+  <si>
+    <t>BSS138W-7-F</t>
+  </si>
+  <si>
+    <t>568-3351-1-ND</t>
+  </si>
+  <si>
+    <t>NXP USA Inc.</t>
+  </si>
+  <si>
+    <t>IC I/O EXPANDER I2C 8B 16HVQFN</t>
+  </si>
+  <si>
+    <t>PCA9500BS</t>
+  </si>
+  <si>
+    <t>PCA9500BS,118</t>
+  </si>
+  <si>
+    <t>QFN65P400X400X100_HS-17N</t>
+  </si>
+  <si>
+    <t>631-1156-1-ND</t>
+  </si>
+  <si>
+    <t>Renesas Electronics America Inc</t>
+  </si>
+  <si>
+    <t>XTAL OSC XO 25.0000MHZ HCMOS SMD</t>
+  </si>
+  <si>
+    <t>XLH536025.000000I</t>
+  </si>
+  <si>
+    <t>_TESTPOINT_BOM</t>
+  </si>
+  <si>
+    <t>HIROSE_U.FL-R-SMT-1</t>
+  </si>
+  <si>
+    <t>26-U.FL-R-SMT-1(80)CT-ND</t>
+  </si>
+  <si>
+    <t>U.FL-R-SMT-1(80)</t>
+  </si>
+  <si>
+    <t>CONN U.FL RCPT STR 50 OHM SMD</t>
+  </si>
+  <si>
+    <t>544-3438-ND</t>
+  </si>
+  <si>
+    <t>EPCQ64ASI16N</t>
+  </si>
+  <si>
+    <t>IC CONFIG DEVICE 64MBIT 16SOIC</t>
+  </si>
+  <si>
+    <t>EPCQxxA_SOIC16</t>
+  </si>
+  <si>
+    <t>SOIC127P1030X265-16N</t>
+  </si>
+  <si>
+    <t>CYUSB301x</t>
+  </si>
+  <si>
+    <t>IC ARM9 USB3 CONTROLLER 121FBGA</t>
+  </si>
+  <si>
+    <t>CYUSB3014-BZXC</t>
+  </si>
+  <si>
+    <t>BGA121C80P11X11_1000X1000X120</t>
+  </si>
+  <si>
+    <t>6.04k</t>
+  </si>
+  <si>
+    <t>YAG2293CT-ND</t>
+  </si>
+  <si>
+    <t>RC0402FR-076K04L</t>
+  </si>
+  <si>
+    <t>RES 6.04K OHM 1% 1/16W 0402</t>
+  </si>
+  <si>
+    <t>IC REG LINEAR 1.2V 2A 16LFCSP</t>
+  </si>
+  <si>
+    <t>ADP1740ACPZ-1.2-R7</t>
+  </si>
+  <si>
+    <t>ADP1740ACPZ-1.2-R7CT-ND</t>
+  </si>
+  <si>
+    <t>RES SMD 200 OHM 1% 1/16W 0402</t>
+  </si>
+  <si>
+    <t>2037-PFR05S-201-FNHCT-ND</t>
+  </si>
+  <si>
+    <t>PFR05S-201-FNH</t>
+  </si>
+  <si>
+    <t>IC EEPROM 1MBIT I2C 400KHZ 8SOIC</t>
+  </si>
+  <si>
+    <t>24XX1025</t>
+  </si>
+  <si>
+    <t>24AA1025T-I/SN</t>
+  </si>
+  <si>
+    <t>24AA1025T-I/SNCT-ND</t>
+  </si>
+  <si>
+    <t>887-7V-19.200MDDQ-TCT-ND</t>
+  </si>
+  <si>
+    <t>19.2MHz</t>
+  </si>
+  <si>
+    <t>TXC CORPORATION</t>
+  </si>
+  <si>
+    <t>7V-19.200MDDQ-T</t>
+  </si>
+  <si>
+    <t>CRYSTAL 19.2000MHZ 10PF SMD</t>
+  </si>
+  <si>
+    <t>ACX1234-ND</t>
+  </si>
+  <si>
+    <t>CONN SMA JACK R/A 50 OHM PCB</t>
+  </si>
+  <si>
+    <t>132203</t>
+  </si>
+  <si>
+    <t>AMPHENOL_132203</t>
+  </si>
+  <si>
+    <t>CEM_X8_EDGE_CONN</t>
+  </si>
+  <si>
+    <t>CEM X8 EDGE FINGERS</t>
+  </si>
+  <si>
+    <t>PCIe CEM x8 Edge Fingers</t>
   </si>
 </sst>
 </file>
@@ -24353,33 +24863,33 @@
   </sheetPr>
   <dimension ref="A1:P97"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K102" sqref="K102"/>
+    <sheetView topLeftCell="A52" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F104" sqref="F104"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.453125" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.08984375" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.26953125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="53.81640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.1796875" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.7265625" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.1796875" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.81640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.36328125" style="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.7265625" style="6" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.26953125" style="6" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="29.26953125" style="6" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="27.7265625" style="17" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.90625" style="6" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="30" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="56.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="31.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="30.28515625" style="17" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="31.140625" style="6" bestFit="1" customWidth="1"/>
     <col min="17" max="1026" width="9" style="23" customWidth="1"/>
-    <col min="1027" max="16384" width="8.81640625" style="23"/>
+    <col min="1027" max="16384" width="8.85546875" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="32" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" s="32" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -24429,7 +24939,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="11" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" s="11" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>653</v>
       </c>
@@ -24479,7 +24989,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>722</v>
       </c>
@@ -24529,7 +25039,7 @@
         <v>1659</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>40</v>
       </c>
@@ -24579,7 +25089,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>29</v>
       </c>
@@ -24629,7 +25139,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>36</v>
       </c>
@@ -24679,7 +25189,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>690</v>
       </c>
@@ -24729,7 +25239,7 @@
         <v>1658</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>883</v>
       </c>
@@ -24779,7 +25289,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>810</v>
       </c>
@@ -24829,7 +25339,7 @@
         <v>1657</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>687</v>
       </c>
@@ -24879,7 +25389,7 @@
         <v>1656</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>694</v>
       </c>
@@ -24929,7 +25439,7 @@
         <v>1585</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>607</v>
       </c>
@@ -24979,7 +25489,7 @@
         <v>1655</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>642</v>
       </c>
@@ -25029,7 +25539,7 @@
         <v>1654</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>425</v>
       </c>
@@ -25076,7 +25586,7 @@
         <v>1653</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>791</v>
       </c>
@@ -25123,7 +25633,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>337</v>
       </c>
@@ -25170,7 +25680,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>709</v>
       </c>
@@ -25217,7 +25727,7 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>217</v>
       </c>
@@ -25264,7 +25774,7 @@
         <v>1649</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>639</v>
       </c>
@@ -25311,7 +25821,7 @@
         <v>1648</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>398</v>
       </c>
@@ -25358,7 +25868,7 @@
         <v>1584</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>622</v>
       </c>
@@ -25405,7 +25915,7 @@
         <v>1647</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>420</v>
       </c>
@@ -25452,7 +25962,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>358</v>
       </c>
@@ -25499,7 +26009,7 @@
         <v>1646</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>315</v>
       </c>
@@ -25546,7 +26056,7 @@
         <v>1645</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>336</v>
       </c>
@@ -25593,7 +26103,7 @@
         <v>1644</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>330</v>
       </c>
@@ -25640,7 +26150,7 @@
         <v>1643</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>210</v>
       </c>
@@ -25687,7 +26197,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>215</v>
       </c>
@@ -25734,7 +26244,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>212</v>
       </c>
@@ -25781,7 +26291,7 @@
         <v>1640</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>209</v>
       </c>
@@ -25828,7 +26338,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>213</v>
       </c>
@@ -25875,7 +26385,7 @@
         <v>1638</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>211</v>
       </c>
@@ -25922,7 +26432,7 @@
         <v>1637</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>214</v>
       </c>
@@ -25969,7 +26479,7 @@
         <v>1636</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>360</v>
       </c>
@@ -26016,7 +26526,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>208</v>
       </c>
@@ -26063,7 +26573,7 @@
         <v>1635</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
         <v>679</v>
       </c>
@@ -26110,7 +26620,7 @@
         <v>1634</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>710</v>
       </c>
@@ -26157,7 +26667,7 @@
         <v>1633</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>206</v>
       </c>
@@ -26204,7 +26714,7 @@
         <v>1632</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
         <v>218</v>
       </c>
@@ -26251,7 +26761,7 @@
         <v>1631</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
         <v>207</v>
       </c>
@@ -26298,7 +26808,7 @@
         <v>1630</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="17" t="s">
         <v>769</v>
       </c>
@@ -26345,7 +26855,7 @@
         <v>1629</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
         <v>216</v>
       </c>
@@ -26392,7 +26902,7 @@
         <v>1628</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="24" t="s">
         <v>191</v>
       </c>
@@ -26439,7 +26949,7 @@
         <v>1627</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
         <v>889</v>
       </c>
@@ -26486,7 +26996,7 @@
         <v>1626</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
         <v>902</v>
       </c>
@@ -26536,7 +27046,7 @@
         <v>1625</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
         <v>905</v>
       </c>
@@ -26586,7 +27096,7 @@
         <v>1624</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
         <v>954</v>
       </c>
@@ -26633,7 +27143,7 @@
         <v>1623</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
         <v>994</v>
       </c>
@@ -26680,7 +27190,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" s="17" t="s">
         <v>1027</v>
       </c>
@@ -26727,7 +27237,7 @@
         <v>1594</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
         <v>1031</v>
       </c>
@@ -26774,7 +27284,7 @@
         <v>1622</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
         <v>1035</v>
       </c>
@@ -26821,7 +27331,7 @@
         <v>1621</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
         <v>1040</v>
       </c>
@@ -26868,7 +27378,7 @@
         <v>1620</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
         <v>1108</v>
       </c>
@@ -26912,7 +27422,7 @@
         <v>1619</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
         <v>1129</v>
       </c>
@@ -26959,7 +27469,7 @@
         <v>1618</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
         <v>1194</v>
       </c>
@@ -27006,7 +27516,7 @@
         <v>1193</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" s="17" t="s">
         <v>1307</v>
       </c>
@@ -27053,7 +27563,7 @@
         <v>1617</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
         <v>1311</v>
       </c>
@@ -27100,7 +27610,7 @@
         <v>1616</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
         <v>1325</v>
       </c>
@@ -27147,7 +27657,7 @@
         <v>1588</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
         <v>1365</v>
       </c>
@@ -27194,7 +27704,7 @@
         <v>1364</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
         <v>1367</v>
       </c>
@@ -27241,7 +27751,7 @@
         <v>1615</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
         <v>1369</v>
       </c>
@@ -27288,7 +27798,7 @@
         <v>1591</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62" s="17" t="s">
         <v>1383</v>
       </c>
@@ -27335,7 +27845,7 @@
         <v>1614</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
         <v>1387</v>
       </c>
@@ -27382,7 +27892,7 @@
         <v>1613</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
         <v>1403</v>
       </c>
@@ -27429,7 +27939,7 @@
         <v>1612</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65" s="17" t="s">
         <v>1416</v>
       </c>
@@ -27476,7 +27986,7 @@
         <v>1611</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
         <v>1418</v>
       </c>
@@ -27523,7 +28033,7 @@
         <v>1610</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
         <v>1434</v>
       </c>
@@ -27567,7 +28077,7 @@
         <v>1609</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
         <v>1439</v>
       </c>
@@ -27614,7 +28124,7 @@
         <v>1608</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A69" s="6" t="s">
         <v>1442</v>
       </c>
@@ -27661,7 +28171,7 @@
         <v>1598</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A70" s="17" t="s">
         <v>1444</v>
       </c>
@@ -27708,7 +28218,7 @@
         <v>1599</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A71" s="17" t="s">
         <v>1445</v>
       </c>
@@ -27755,7 +28265,7 @@
         <v>1597</v>
       </c>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A72" s="17" t="s">
         <v>1446</v>
       </c>
@@ -27802,7 +28312,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A73" s="17" t="s">
         <v>1447</v>
       </c>
@@ -27849,7 +28359,7 @@
         <v>1601</v>
       </c>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A74" s="17" t="s">
         <v>1448</v>
       </c>
@@ -27896,7 +28406,7 @@
         <v>1602</v>
       </c>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A75" s="17" t="s">
         <v>1449</v>
       </c>
@@ -27943,7 +28453,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A76" s="17" t="s">
         <v>1450</v>
       </c>
@@ -27990,7 +28500,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A77" s="6" t="s">
         <v>1460</v>
       </c>
@@ -28037,7 +28547,7 @@
         <v>1605</v>
       </c>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A78" s="6" t="s">
         <v>1463</v>
       </c>
@@ -28078,7 +28588,7 @@
         <v>1661</v>
       </c>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A79" s="6" t="s">
         <v>1466</v>
       </c>
@@ -28119,7 +28629,7 @@
         <v>1660</v>
       </c>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A80" s="17" t="s">
         <v>1470</v>
       </c>
@@ -28160,7 +28670,7 @@
         <v>1662</v>
       </c>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A81" s="17" t="s">
         <v>1514</v>
       </c>
@@ -28207,7 +28717,7 @@
         <v>1606</v>
       </c>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A82" s="6" t="s">
         <v>1517</v>
       </c>
@@ -28254,7 +28764,7 @@
         <v>1607</v>
       </c>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A83" s="6" t="s">
         <v>1581</v>
       </c>
@@ -28301,7 +28811,7 @@
         <v>1580</v>
       </c>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A84" s="6" t="s">
         <v>1583</v>
       </c>
@@ -28348,7 +28858,7 @@
         <v>1582</v>
       </c>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A85" s="6" t="s">
         <v>1587</v>
       </c>
@@ -28395,7 +28905,7 @@
         <v>1586</v>
       </c>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A86" s="6" t="s">
         <v>1590</v>
       </c>
@@ -28442,7 +28952,7 @@
         <v>1589</v>
       </c>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A87" s="6" t="s">
         <v>1592</v>
       </c>
@@ -28489,7 +28999,7 @@
         <v>1593</v>
       </c>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A88" s="6" t="s">
         <v>1596</v>
       </c>
@@ -28536,7 +29046,7 @@
         <v>1595</v>
       </c>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A89" s="6" t="s">
         <v>1881</v>
       </c>
@@ -28583,7 +29093,7 @@
         <v>1880</v>
       </c>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A90" s="6" t="s">
         <v>1885</v>
       </c>
@@ -28630,97 +29140,100 @@
         <v>1884</v>
       </c>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A91" s="6" t="s">
-        <v>1948</v>
+        <v>1915</v>
       </c>
       <c r="B91" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>21</v>
+        <v>1462</v>
       </c>
       <c r="D91" s="6" t="s">
         <v>531</v>
       </c>
       <c r="E91" s="6" t="s">
-        <v>1947</v>
+        <v>1914</v>
       </c>
       <c r="F91" s="6" t="s">
-        <v>835</v>
+        <v>1461</v>
       </c>
       <c r="H91" s="6" t="s">
         <v>20</v>
       </c>
       <c r="I91" s="6" t="s">
-        <v>1946</v>
+        <v>230</v>
       </c>
       <c r="J91" s="6" t="s">
-        <v>129</v>
+        <v>32</v>
       </c>
       <c r="K91" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="L91" s="6" t="s">
-        <v>226</v>
+        <v>33</v>
       </c>
       <c r="M91" s="6" t="s">
-        <v>503</v>
+        <v>995</v>
       </c>
       <c r="N91" s="17" t="s">
-        <v>1948</v>
+        <v>1915</v>
       </c>
       <c r="O91" s="6" t="s">
         <v>17</v>
       </c>
       <c r="P91" s="6" t="s">
-        <v>1945</v>
-      </c>
-    </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.35">
+        <v>1913</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A92" s="6" t="s">
-        <v>1954</v>
+        <v>1919</v>
       </c>
       <c r="B92" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>1462</v>
+        <v>21</v>
       </c>
       <c r="D92" s="6" t="s">
         <v>531</v>
       </c>
       <c r="E92" s="6" t="s">
-        <v>1955</v>
+        <v>1917</v>
       </c>
       <c r="F92" s="6" t="s">
-        <v>1461</v>
+        <v>835</v>
       </c>
       <c r="H92" s="6" t="s">
         <v>20</v>
       </c>
       <c r="I92" s="6" t="s">
-        <v>230</v>
+        <v>233</v>
+      </c>
+      <c r="J92" s="6" t="s">
+        <v>227</v>
       </c>
       <c r="K92" s="6" t="s">
-        <v>33</v>
+        <v>222</v>
+      </c>
+      <c r="L92" s="6" t="s">
+        <v>224</v>
       </c>
       <c r="M92" s="6" t="s">
-        <v>995</v>
+        <v>1918</v>
       </c>
       <c r="N92" s="17" t="s">
-        <v>1954</v>
+        <v>1919</v>
       </c>
       <c r="O92" s="6" t="s">
         <v>17</v>
       </c>
       <c r="P92" s="6" t="s">
-        <v>1953</v>
-      </c>
-    </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.35">
+        <v>1916</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A93" s="6" t="s">
-        <v>1970</v>
+        <v>1921</v>
       </c>
       <c r="B93" s="6" t="s">
         <v>11</v>
@@ -28732,7 +29245,7 @@
         <v>531</v>
       </c>
       <c r="E93" s="6" t="s">
-        <v>1972</v>
+        <v>1922</v>
       </c>
       <c r="F93" s="6" t="s">
         <v>835</v>
@@ -28741,33 +29254,33 @@
         <v>20</v>
       </c>
       <c r="I93" s="6" t="s">
-        <v>233</v>
+        <v>1923</v>
       </c>
       <c r="J93" s="6" t="s">
-        <v>227</v>
+        <v>129</v>
       </c>
       <c r="K93" s="6" t="s">
         <v>222</v>
       </c>
       <c r="L93" s="6" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="M93" s="6" t="s">
-        <v>1969</v>
+        <v>1924</v>
       </c>
       <c r="N93" s="17" t="s">
-        <v>1970</v>
+        <v>1921</v>
       </c>
       <c r="O93" s="6" t="s">
         <v>17</v>
       </c>
       <c r="P93" s="6" t="s">
-        <v>1971</v>
-      </c>
-    </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.35">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
-        <v>1984</v>
+        <v>1927</v>
       </c>
       <c r="B94" s="6" t="s">
         <v>11</v>
@@ -28779,7 +29292,7 @@
         <v>531</v>
       </c>
       <c r="E94" s="6" t="s">
-        <v>1982</v>
+        <v>1926</v>
       </c>
       <c r="F94" s="6" t="s">
         <v>835</v>
@@ -28788,7 +29301,7 @@
         <v>20</v>
       </c>
       <c r="I94" s="6" t="s">
-        <v>1983</v>
+        <v>357</v>
       </c>
       <c r="J94" s="6" t="s">
         <v>129</v>
@@ -28800,21 +29313,21 @@
         <v>226</v>
       </c>
       <c r="M94" s="6" t="s">
-        <v>55</v>
+        <v>503</v>
       </c>
       <c r="N94" s="17" t="s">
-        <v>1984</v>
+        <v>1927</v>
       </c>
       <c r="O94" s="6" t="s">
         <v>17</v>
       </c>
       <c r="P94" s="6" t="s">
-        <v>1981</v>
-      </c>
-    </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.35">
+        <v>1925</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A95" s="6" t="s">
-        <v>1992</v>
+        <v>1947</v>
       </c>
       <c r="B95" s="6" t="s">
         <v>11</v>
@@ -28826,7 +29339,7 @@
         <v>531</v>
       </c>
       <c r="E95" s="6" t="s">
-        <v>1991</v>
+        <v>1945</v>
       </c>
       <c r="F95" s="6" t="s">
         <v>835</v>
@@ -28835,7 +29348,7 @@
         <v>20</v>
       </c>
       <c r="I95" s="6" t="s">
-        <v>1990</v>
+        <v>1946</v>
       </c>
       <c r="J95" s="6" t="s">
         <v>129</v>
@@ -28847,21 +29360,21 @@
         <v>226</v>
       </c>
       <c r="M95" s="6" t="s">
-        <v>1989</v>
+        <v>503</v>
       </c>
       <c r="N95" s="17" t="s">
-        <v>1992</v>
+        <v>1947</v>
       </c>
       <c r="O95" s="6" t="s">
         <v>17</v>
       </c>
       <c r="P95" s="6" t="s">
-        <v>1988</v>
-      </c>
-    </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.35">
+        <v>1944</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A96" s="6" t="s">
-        <v>2003</v>
+        <v>1950</v>
       </c>
       <c r="B96" s="6" t="s">
         <v>11</v>
@@ -28873,7 +29386,7 @@
         <v>531</v>
       </c>
       <c r="E96" s="6" t="s">
-        <v>2005</v>
+        <v>1949</v>
       </c>
       <c r="F96" s="6" t="s">
         <v>835</v>
@@ -28882,79 +29395,73 @@
         <v>20</v>
       </c>
       <c r="I96" s="6" t="s">
-        <v>357</v>
+        <v>1458</v>
       </c>
       <c r="J96" s="6" t="s">
-        <v>129</v>
+        <v>227</v>
       </c>
       <c r="K96" s="6" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="L96" s="6" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="M96" s="6" t="s">
         <v>503</v>
       </c>
       <c r="N96" s="17" t="s">
-        <v>2003</v>
+        <v>1950</v>
       </c>
       <c r="O96" s="6" t="s">
         <v>17</v>
       </c>
       <c r="P96" s="6" t="s">
-        <v>2002</v>
-      </c>
-    </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.35">
+        <v>1948</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A97" s="6" t="s">
-        <v>2004</v>
+        <v>2118</v>
       </c>
       <c r="B97" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C97" s="6" t="s">
-        <v>21</v>
+        <v>1462</v>
       </c>
       <c r="D97" s="6" t="s">
         <v>531</v>
       </c>
       <c r="E97" s="6" t="s">
-        <v>2007</v>
+        <v>2116</v>
       </c>
       <c r="F97" s="6" t="s">
-        <v>835</v>
+        <v>2120</v>
       </c>
       <c r="H97" s="6" t="s">
         <v>20</v>
       </c>
       <c r="I97" s="6" t="s">
-        <v>1458</v>
-      </c>
-      <c r="J97" s="6" t="s">
-        <v>227</v>
+        <v>1465</v>
       </c>
       <c r="K97" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="L97" s="6" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="M97" s="6" t="s">
-        <v>503</v>
-      </c>
-      <c r="N97" s="6" t="s">
-        <v>2004</v>
+        <v>2117</v>
+      </c>
+      <c r="N97" s="17" t="s">
+        <v>2118</v>
       </c>
       <c r="O97" s="6" t="s">
         <v>17</v>
       </c>
       <c r="P97" s="6" t="s">
-        <v>2006</v>
+        <v>2115</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P43">
+  <sortState ref="A2:P43">
     <sortCondition ref="F2:F43"/>
   </sortState>
   <printOptions gridLines="1"/>
@@ -28969,34 +29476,34 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N134"/>
+  <dimension ref="A1:N147"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K138" sqref="K138"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A111" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C154" sqref="C154"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.1796875" style="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.81640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="29.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="27.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="24.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="31.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="30.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="25.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="15" max="1025" width="9" style="23" customWidth="1"/>
-    <col min="1026" max="16384" width="8.81640625" style="23"/>
+    <col min="1026" max="16384" width="8.85546875" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="11" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" s="11" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -29040,7 +29547,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>54</v>
       </c>
@@ -29081,7 +29588,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>126</v>
       </c>
@@ -29122,7 +29629,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>130</v>
       </c>
@@ -29163,7 +29670,7 @@
         <v>1666</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>139</v>
       </c>
@@ -29204,7 +29711,7 @@
         <v>1667</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>140</v>
       </c>
@@ -29245,7 +29752,7 @@
         <v>1668</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>145</v>
       </c>
@@ -29286,7 +29793,7 @@
         <v>1669</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>147</v>
       </c>
@@ -29327,7 +29834,7 @@
         <v>1670</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>149</v>
       </c>
@@ -29368,7 +29875,7 @@
         <v>1671</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>151</v>
       </c>
@@ -29409,7 +29916,7 @@
         <v>1672</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>153</v>
       </c>
@@ -29450,7 +29957,7 @@
         <v>1673</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>155</v>
       </c>
@@ -29491,7 +29998,7 @@
         <v>1674</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>157</v>
       </c>
@@ -29532,7 +30039,7 @@
         <v>1675</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>159</v>
       </c>
@@ -29573,7 +30080,7 @@
         <v>1676</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>161</v>
       </c>
@@ -29614,7 +30121,7 @@
         <v>1677</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>163</v>
       </c>
@@ -29655,7 +30162,7 @@
         <v>1678</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>165</v>
       </c>
@@ -29696,7 +30203,7 @@
         <v>1679</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>167</v>
       </c>
@@ -29737,7 +30244,7 @@
         <v>1680</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>169</v>
       </c>
@@ -29778,7 +30285,7 @@
         <v>1681</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>171</v>
       </c>
@@ -29819,7 +30326,7 @@
         <v>1682</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>181</v>
       </c>
@@ -29860,7 +30367,7 @@
         <v>1683</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>186</v>
       </c>
@@ -29901,7 +30408,7 @@
         <v>1684</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>303</v>
       </c>
@@ -29942,7 +30449,7 @@
         <v>1685</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>306</v>
       </c>
@@ -29983,7 +30490,7 @@
         <v>1686</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>312</v>
       </c>
@@ -30024,7 +30531,7 @@
         <v>1687</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>320</v>
       </c>
@@ -30065,7 +30572,7 @@
         <v>1688</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>323</v>
       </c>
@@ -30106,7 +30613,7 @@
         <v>1689</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>327</v>
       </c>
@@ -30147,7 +30654,7 @@
         <v>1690</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>340</v>
       </c>
@@ -30188,7 +30695,7 @@
         <v>1691</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>355</v>
       </c>
@@ -30229,7 +30736,7 @@
         <v>1692</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>371</v>
       </c>
@@ -30270,7 +30777,7 @@
         <v>1693</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>370</v>
       </c>
@@ -30311,7 +30818,7 @@
         <v>1694</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>368</v>
       </c>
@@ -30352,7 +30859,7 @@
         <v>1695</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>365</v>
       </c>
@@ -30393,7 +30900,7 @@
         <v>1696</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>387</v>
       </c>
@@ -30434,7 +30941,7 @@
         <v>1697</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>392</v>
       </c>
@@ -30475,7 +30982,7 @@
         <v>1698</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>397</v>
       </c>
@@ -30516,7 +31023,7 @@
         <v>1699</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>407</v>
       </c>
@@ -30557,7 +31064,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>446</v>
       </c>
@@ -30598,7 +31105,7 @@
         <v>1701</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>451</v>
       </c>
@@ -30639,7 +31146,7 @@
         <v>1702</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>609</v>
       </c>
@@ -30680,7 +31187,7 @@
         <v>1703</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>613</v>
       </c>
@@ -30721,7 +31228,7 @@
         <v>1704</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>620</v>
       </c>
@@ -30762,7 +31269,7 @@
         <v>1705</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>54</v>
       </c>
@@ -30800,7 +31307,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>631</v>
       </c>
@@ -30841,7 +31348,7 @@
         <v>1706</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>637</v>
       </c>
@@ -30882,7 +31389,7 @@
         <v>1707</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>649</v>
       </c>
@@ -30923,7 +31430,7 @@
         <v>1708</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>655</v>
       </c>
@@ -30964,7 +31471,7 @@
         <v>1709</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>658</v>
       </c>
@@ -31005,7 +31512,7 @@
         <v>1710</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>663</v>
       </c>
@@ -31046,7 +31553,7 @@
         <v>1711</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>666</v>
       </c>
@@ -31087,7 +31594,7 @@
         <v>1712</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>668</v>
       </c>
@@ -31128,7 +31635,7 @@
         <v>1713</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>673</v>
       </c>
@@ -31169,7 +31676,7 @@
         <v>1714</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>676</v>
       </c>
@@ -31210,7 +31717,7 @@
         <v>1715</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>693</v>
       </c>
@@ -31251,7 +31758,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>696</v>
       </c>
@@ -31292,7 +31799,7 @@
         <v>1717</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>701</v>
       </c>
@@ -31333,7 +31840,7 @@
         <v>1718</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>702</v>
       </c>
@@ -31374,7 +31881,7 @@
         <v>1719</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>706</v>
       </c>
@@ -31415,7 +31922,7 @@
         <v>1720</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>718</v>
       </c>
@@ -31456,7 +31963,7 @@
         <v>1721</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>750</v>
       </c>
@@ -31497,7 +32004,7 @@
         <v>1722</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>613</v>
       </c>
@@ -31538,7 +32045,7 @@
         <v>1704</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>762</v>
       </c>
@@ -31579,7 +32086,7 @@
         <v>1723</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>397</v>
       </c>
@@ -31620,7 +32127,7 @@
         <v>1699</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>787</v>
       </c>
@@ -31661,7 +32168,7 @@
         <v>1724</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>807</v>
       </c>
@@ -31702,7 +32209,7 @@
         <v>1725</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>813</v>
       </c>
@@ -31743,7 +32250,7 @@
         <v>1726</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>891</v>
       </c>
@@ -31784,7 +32291,7 @@
         <v>1727</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>894</v>
       </c>
@@ -31825,7 +32332,7 @@
         <v>1728</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>896</v>
       </c>
@@ -31866,7 +32373,7 @@
         <v>1729</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>899</v>
       </c>
@@ -31907,7 +32414,7 @@
         <v>1730</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>908</v>
       </c>
@@ -31948,7 +32455,7 @@
         <v>1731</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>909</v>
       </c>
@@ -31989,7 +32496,7 @@
         <v>1732</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>912</v>
       </c>
@@ -32030,7 +32537,7 @@
         <v>1733</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>916</v>
       </c>
@@ -32071,7 +32578,7 @@
         <v>1734</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>919</v>
       </c>
@@ -32112,7 +32619,7 @@
         <v>1735</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>980</v>
       </c>
@@ -32153,7 +32660,7 @@
         <v>1736</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>983</v>
       </c>
@@ -32194,7 +32701,7 @@
         <v>1737</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>1006</v>
       </c>
@@ -32235,7 +32742,7 @@
         <v>1738</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>1009</v>
       </c>
@@ -32276,7 +32783,7 @@
         <v>1739</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>1012</v>
       </c>
@@ -32317,7 +32824,7 @@
         <v>1740</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>1033</v>
       </c>
@@ -32358,7 +32865,7 @@
         <v>1741</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>1042</v>
       </c>
@@ -32399,7 +32906,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>1045</v>
       </c>
@@ -32440,7 +32947,7 @@
         <v>1743</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>1078</v>
       </c>
@@ -32481,7 +32988,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>1081</v>
       </c>
@@ -32522,7 +33029,7 @@
         <v>1745</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>1084</v>
       </c>
@@ -32563,7 +33070,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>1085</v>
       </c>
@@ -32604,7 +33111,7 @@
         <v>1747</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>1088</v>
       </c>
@@ -32645,7 +33152,7 @@
         <v>1748</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>1091</v>
       </c>
@@ -32686,7 +33193,7 @@
         <v>1749</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>1094</v>
       </c>
@@ -32727,7 +33234,7 @@
         <v>1750</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>1126</v>
       </c>
@@ -32768,7 +33275,7 @@
         <v>1751</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>1147</v>
       </c>
@@ -32809,7 +33316,7 @@
         <v>1752</v>
       </c>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>1149</v>
       </c>
@@ -32850,7 +33357,7 @@
         <v>1753</v>
       </c>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>1184</v>
       </c>
@@ -32891,7 +33398,7 @@
         <v>1754</v>
       </c>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>1189</v>
       </c>
@@ -32932,7 +33439,7 @@
         <v>1755</v>
       </c>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>1190</v>
       </c>
@@ -32973,7 +33480,7 @@
         <v>1756</v>
       </c>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>1316</v>
       </c>
@@ -33014,7 +33521,7 @@
         <v>1757</v>
       </c>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>1318</v>
       </c>
@@ -33055,7 +33562,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>1319</v>
       </c>
@@ -33096,7 +33603,7 @@
         <v>1759</v>
       </c>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>1322</v>
       </c>
@@ -33137,7 +33644,7 @@
         <v>1760</v>
       </c>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>1344</v>
       </c>
@@ -33178,7 +33685,7 @@
         <v>1761</v>
       </c>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>1348</v>
       </c>
@@ -33219,7 +33726,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>1350</v>
       </c>
@@ -33260,7 +33767,7 @@
         <v>1763</v>
       </c>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>1353</v>
       </c>
@@ -33301,7 +33808,7 @@
         <v>1764</v>
       </c>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>1354</v>
       </c>
@@ -33342,7 +33849,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>1357</v>
       </c>
@@ -33383,7 +33890,7 @@
         <v>1766</v>
       </c>
     </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>1400</v>
       </c>
@@ -33424,7 +33931,7 @@
         <v>1767</v>
       </c>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>1405</v>
       </c>
@@ -33465,7 +33972,7 @@
         <v>1768</v>
       </c>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>1408</v>
       </c>
@@ -33506,7 +34013,7 @@
         <v>1769</v>
       </c>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>1411</v>
       </c>
@@ -33547,7 +34054,7 @@
         <v>1770</v>
       </c>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
         <v>1427</v>
       </c>
@@ -33588,7 +34095,7 @@
         <v>1771</v>
       </c>
     </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>1477</v>
       </c>
@@ -33629,7 +34136,7 @@
         <v>1772</v>
       </c>
     </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>1489</v>
       </c>
@@ -33670,7 +34177,7 @@
         <v>1773</v>
       </c>
     </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
         <v>1521</v>
       </c>
@@ -33711,7 +34218,7 @@
         <v>1774</v>
       </c>
     </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
         <v>1520</v>
       </c>
@@ -33752,7 +34259,7 @@
         <v>1775</v>
       </c>
     </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>1561</v>
       </c>
@@ -33793,7 +34300,7 @@
         <v>1560</v>
       </c>
     </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
         <v>1563</v>
       </c>
@@ -33834,7 +34341,7 @@
         <v>1562</v>
       </c>
     </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
         <v>1795</v>
       </c>
@@ -33875,7 +34382,7 @@
         <v>1796</v>
       </c>
     </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
         <v>1797</v>
       </c>
@@ -33916,7 +34423,7 @@
         <v>1799</v>
       </c>
     </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
         <v>1849</v>
       </c>
@@ -33957,7 +34464,7 @@
         <v>1841</v>
       </c>
     </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
         <v>1850</v>
       </c>
@@ -33998,7 +34505,7 @@
         <v>1842</v>
       </c>
     </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
         <v>1851</v>
       </c>
@@ -34039,7 +34546,7 @@
         <v>1843</v>
       </c>
     </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
         <v>1852</v>
       </c>
@@ -34080,7 +34587,7 @@
         <v>1844</v>
       </c>
     </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
         <v>1853</v>
       </c>
@@ -34121,7 +34628,7 @@
         <v>1845</v>
       </c>
     </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
         <v>1854</v>
       </c>
@@ -34162,7 +34669,7 @@
         <v>1846</v>
       </c>
     </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
         <v>1855</v>
       </c>
@@ -34203,7 +34710,7 @@
         <v>1847</v>
       </c>
     </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
         <v>1856</v>
       </c>
@@ -34244,7 +34751,7 @@
         <v>1848</v>
       </c>
     </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
         <v>1903</v>
       </c>
@@ -34282,9 +34789,9 @@
         <v>1902</v>
       </c>
     </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
-        <v>1936</v>
+        <v>1934</v>
       </c>
       <c r="B130" s="2" t="s">
         <v>11</v>
@@ -34296,7 +34803,7 @@
         <v>531</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>1937</v>
+        <v>1933</v>
       </c>
       <c r="F130" s="18" t="s">
         <v>59</v>
@@ -34305,27 +34812,27 @@
         <v>20</v>
       </c>
       <c r="I130" s="6" t="s">
+        <v>1932</v>
+      </c>
+      <c r="J130" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K130" s="2" t="s">
+        <v>662</v>
+      </c>
+      <c r="L130" s="2" t="s">
         <v>1934</v>
       </c>
-      <c r="J130" s="4" t="s">
-        <v>1558</v>
-      </c>
-      <c r="K130" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="L130" s="2" t="s">
-        <v>1936</v>
-      </c>
       <c r="M130" s="2" t="s">
         <v>17</v>
       </c>
       <c r="N130" s="2" t="s">
-        <v>1933</v>
-      </c>
-    </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.35">
+        <v>1931</v>
+      </c>
+    </row>
+    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
-        <v>1940</v>
+        <v>1935</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>11</v>
@@ -34337,7 +34844,7 @@
         <v>531</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>1939</v>
+        <v>1936</v>
       </c>
       <c r="F131" s="18" t="s">
         <v>59</v>
@@ -34346,16 +34853,16 @@
         <v>20</v>
       </c>
       <c r="I131" s="6" t="s">
+        <v>1937</v>
+      </c>
+      <c r="J131" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K131" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="L131" s="2" t="s">
         <v>1935</v>
-      </c>
-      <c r="J131" s="4" t="s">
-        <v>1558</v>
-      </c>
-      <c r="K131" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="L131" s="2" t="s">
-        <v>1940</v>
       </c>
       <c r="M131" s="2" t="s">
         <v>17</v>
@@ -34364,9 +34871,9 @@
         <v>1938</v>
       </c>
     </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
-        <v>1941</v>
+        <v>1943</v>
       </c>
       <c r="B132" s="2" t="s">
         <v>11</v>
@@ -34378,7 +34885,7 @@
         <v>531</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>1943</v>
+        <v>1940</v>
       </c>
       <c r="F132" s="18" t="s">
         <v>59</v>
@@ -34387,27 +34894,27 @@
         <v>20</v>
       </c>
       <c r="I132" s="6" t="s">
-        <v>900</v>
+        <v>1941</v>
       </c>
       <c r="J132" s="4" t="s">
-        <v>1558</v>
-      </c>
-      <c r="K132" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="K132" s="2" t="s">
+        <v>1939</v>
+      </c>
+      <c r="L132" s="2" t="s">
+        <v>1943</v>
+      </c>
+      <c r="M132" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N132" s="2" t="s">
         <v>1942</v>
       </c>
-      <c r="L132" s="2" t="s">
-        <v>1941</v>
-      </c>
-      <c r="M132" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="N132" s="2" t="s">
-        <v>1944</v>
-      </c>
-    </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
-        <v>1980</v>
+        <v>1954</v>
       </c>
       <c r="B133" s="2" t="s">
         <v>11</v>
@@ -34419,7 +34926,7 @@
         <v>531</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>1978</v>
+        <v>1952</v>
       </c>
       <c r="F133" s="18" t="s">
         <v>59</v>
@@ -34428,27 +34935,27 @@
         <v>20</v>
       </c>
       <c r="I133" s="6" t="s">
-        <v>1979</v>
+        <v>1953</v>
       </c>
       <c r="J133" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="K133" s="2" t="s">
-        <v>183</v>
+        <v>1558</v>
+      </c>
+      <c r="K133" s="19" t="s">
+        <v>55</v>
       </c>
       <c r="L133" s="2" t="s">
-        <v>1980</v>
+        <v>1954</v>
       </c>
       <c r="M133" s="2" t="s">
         <v>17</v>
       </c>
       <c r="N133" s="2" t="s">
-        <v>1977</v>
-      </c>
-    </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.35">
+        <v>1951</v>
+      </c>
+    </row>
+    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
-        <v>2011</v>
+        <v>1958</v>
       </c>
       <c r="B134" s="2" t="s">
         <v>11</v>
@@ -34460,7 +34967,7 @@
         <v>531</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>2010</v>
+        <v>1956</v>
       </c>
       <c r="F134" s="18" t="s">
         <v>59</v>
@@ -34469,22 +34976,555 @@
         <v>20</v>
       </c>
       <c r="I134" s="6" t="s">
-        <v>2009</v>
+        <v>1957</v>
       </c>
       <c r="J134" s="4" t="s">
+        <v>1558</v>
+      </c>
+      <c r="K134" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="L134" s="2" t="s">
+        <v>1958</v>
+      </c>
+      <c r="M134" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N134" s="2" t="s">
+        <v>1955</v>
+      </c>
+    </row>
+    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A135" s="2" t="s">
+        <v>1962</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>1961</v>
+      </c>
+      <c r="F135" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="H135" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I135" s="6" t="s">
+        <v>1960</v>
+      </c>
+      <c r="J135" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="K134" s="2" t="s">
+      <c r="K135" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="L135" s="2" t="s">
+        <v>1962</v>
+      </c>
+      <c r="M135" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N135" s="2" t="s">
+        <v>1959</v>
+      </c>
+    </row>
+    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A136" s="2" t="s">
+        <v>1966</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>1965</v>
+      </c>
+      <c r="F136" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="H136" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I136" s="6" t="s">
+        <v>900</v>
+      </c>
+      <c r="J136" s="4" t="s">
+        <v>1558</v>
+      </c>
+      <c r="K136" s="2" t="s">
+        <v>1964</v>
+      </c>
+      <c r="L136" s="2" t="s">
+        <v>1966</v>
+      </c>
+      <c r="M136" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N136" s="2" t="s">
+        <v>1963</v>
+      </c>
+    </row>
+    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A137" s="2" t="s">
+        <v>1970</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>1968</v>
+      </c>
+      <c r="F137" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="H137" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I137" s="6" t="s">
+        <v>1969</v>
+      </c>
+      <c r="J137" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K137" s="2" t="s">
         <v>662</v>
       </c>
-      <c r="L134" s="2" t="s">
-        <v>2011</v>
-      </c>
-      <c r="M134" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="N134" s="2" t="s">
-        <v>2008</v>
+      <c r="L137" s="2" t="s">
+        <v>1970</v>
+      </c>
+      <c r="M137" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N137" s="2" t="s">
+        <v>1967</v>
+      </c>
+    </row>
+    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A138" s="2" t="s">
+        <v>2049</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>2048</v>
+      </c>
+      <c r="F138" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="H138" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I138" s="6" t="s">
+        <v>2047</v>
+      </c>
+      <c r="J138" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K138" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="L138" s="2" t="s">
+        <v>2049</v>
+      </c>
+      <c r="M138" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N138" s="2" t="s">
+        <v>2046</v>
+      </c>
+    </row>
+    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A139" s="2" t="s">
+        <v>2066</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>2067</v>
+      </c>
+      <c r="F139" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="H139" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I139" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="J139" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K139" s="2" t="s">
+        <v>2065</v>
+      </c>
+      <c r="L139" s="2" t="s">
+        <v>2066</v>
+      </c>
+      <c r="M139" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N139" s="2" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="140" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A140" s="2" t="s">
+        <v>2070</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>2068</v>
+      </c>
+      <c r="F140" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="H140" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I140" s="6" t="s">
+        <v>2069</v>
+      </c>
+      <c r="J140" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K140" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="L140" s="2" t="s">
+        <v>2070</v>
+      </c>
+      <c r="M140" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N140" s="2" t="s">
+        <v>2071</v>
+      </c>
+    </row>
+    <row r="141" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A141" s="2" t="s">
+        <v>2075</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="E141" s="2" t="s">
+        <v>2074</v>
+      </c>
+      <c r="F141" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="H141" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I141" s="6" t="s">
+        <v>2073</v>
+      </c>
+      <c r="J141" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K141" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="L141" s="2" t="s">
+        <v>2075</v>
+      </c>
+      <c r="M141" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N141" s="2" t="s">
+        <v>2072</v>
+      </c>
+    </row>
+    <row r="142" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A142" s="2" t="s">
+        <v>2079</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="E142" s="2" t="s">
+        <v>2077</v>
+      </c>
+      <c r="F142" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="H142" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I142" s="6" t="s">
+        <v>2078</v>
+      </c>
+      <c r="J142" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K142" s="2" t="s">
+        <v>1939</v>
+      </c>
+      <c r="L142" s="2" t="s">
+        <v>2079</v>
+      </c>
+      <c r="M142" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N142" s="2" t="s">
+        <v>2076</v>
+      </c>
+    </row>
+    <row r="143" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A143" s="2" t="s">
+        <v>2083</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="E143" s="2" t="s">
+        <v>2081</v>
+      </c>
+      <c r="F143" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="H143" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I143" s="6" t="s">
+        <v>2082</v>
+      </c>
+      <c r="J143" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K143" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="L143" s="2" t="s">
+        <v>2083</v>
+      </c>
+      <c r="M143" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N143" s="2" t="s">
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="144" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A144" s="2" t="s">
+        <v>2088</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>2089</v>
+      </c>
+      <c r="F144" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="H144" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I144" s="6" t="s">
+        <v>2090</v>
+      </c>
+      <c r="J144" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K144" s="2" t="s">
+        <v>662</v>
+      </c>
+      <c r="L144" s="2" t="s">
+        <v>2088</v>
+      </c>
+      <c r="M144" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N144" s="2" t="s">
+        <v>2087</v>
+      </c>
+    </row>
+    <row r="145" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A145" s="2" t="s">
+        <v>2092</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>2093</v>
+      </c>
+      <c r="F145" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="H145" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I145" s="6" t="s">
+        <v>2094</v>
+      </c>
+      <c r="J145" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K145" s="2" t="s">
+        <v>1939</v>
+      </c>
+      <c r="L145" s="2" t="s">
+        <v>2092</v>
+      </c>
+      <c r="M145" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N145" s="2" t="s">
+        <v>2091</v>
+      </c>
+    </row>
+    <row r="146" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A146" s="2" t="s">
+        <v>2169</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>2170</v>
+      </c>
+      <c r="F146" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="H146" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I146" s="6" t="s">
+        <v>2167</v>
+      </c>
+      <c r="J146" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K146" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="L146" s="2" t="s">
+        <v>2169</v>
+      </c>
+      <c r="M146" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N146" s="2" t="s">
+        <v>2168</v>
+      </c>
+    </row>
+    <row r="147" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A147" s="2" t="s">
+        <v>2176</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="E147" s="2" t="s">
+        <v>2174</v>
+      </c>
+      <c r="F147" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="H147" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I147" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="J147" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K147" s="2" t="s">
+        <v>2065</v>
+      </c>
+      <c r="L147" s="2" t="s">
+        <v>2176</v>
+      </c>
+      <c r="M147" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N147" s="2" t="s">
+        <v>2175</v>
       </c>
     </row>
   </sheetData>
@@ -34506,28 +35546,28 @@
       <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="47.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="29.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="27.7265625" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="22.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="47.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="29.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="27.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="22.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="16" max="1025" width="9" style="23" customWidth="1"/>
-    <col min="1026" max="16384" width="8.81640625" style="23"/>
+    <col min="1026" max="16384" width="8.85546875" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="11" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" s="11" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -34574,7 +35614,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>44</v>
       </c>
@@ -34618,7 +35658,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>61</v>
       </c>
@@ -34662,7 +35702,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>249</v>
       </c>
@@ -34706,7 +35746,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>251</v>
       </c>
@@ -34750,7 +35790,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>252</v>
       </c>
@@ -34794,7 +35834,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>353</v>
       </c>
@@ -34838,7 +35878,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>501</v>
       </c>
@@ -34877,7 +35917,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>625</v>
       </c>
@@ -34918,7 +35958,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>681</v>
       </c>
@@ -34959,7 +35999,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>716</v>
       </c>
@@ -35003,7 +36043,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>779</v>
       </c>
@@ -35047,7 +36087,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>785</v>
       </c>
@@ -35088,7 +36128,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>986</v>
       </c>
@@ -35132,7 +36172,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>1005</v>
       </c>
@@ -35176,7 +36216,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>1120</v>
       </c>
@@ -35220,7 +36260,7 @@
         <v>1119</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>1285</v>
       </c>
@@ -35264,7 +36304,7 @@
         <v>1782</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>1286</v>
       </c>
@@ -35308,7 +36348,7 @@
         <v>1781</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>1291</v>
       </c>
@@ -35352,7 +36392,7 @@
         <v>1780</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>1297</v>
       </c>
@@ -35396,7 +36436,7 @@
         <v>1779</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>1361</v>
       </c>
@@ -35440,7 +36480,7 @@
         <v>1783</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>1509</v>
       </c>
@@ -35484,7 +36524,7 @@
         <v>1507</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>1787</v>
       </c>
@@ -35543,30 +36583,30 @@
   </sheetPr>
   <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="42.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="30.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="31.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="45.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="32" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="26.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="14" max="1025" width="9" style="23" customWidth="1"/>
-    <col min="1026" max="16384" width="8.81640625" style="23"/>
+    <col min="1026" max="16384" width="8.85546875" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="11" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" s="11" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -35607,7 +36647,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>413</v>
       </c>
@@ -35645,7 +36685,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>417</v>
       </c>
@@ -35683,7 +36723,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>618</v>
       </c>
@@ -35721,7 +36761,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>1201</v>
       </c>
@@ -35759,7 +36799,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>1397</v>
       </c>
@@ -35797,7 +36837,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>1426</v>
       </c>
@@ -35835,7 +36875,7 @@
         <v>1822</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>1491</v>
       </c>
@@ -35873,9 +36913,9 @@
         <v>1493</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>1976</v>
+        <v>1998</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>11</v>
@@ -35887,7 +36927,10 @@
         <v>531</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>1975</v>
+        <v>2001</v>
+      </c>
+      <c r="F9" s="22" t="s">
+        <v>2021</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>20</v>
@@ -35896,86 +36939,92 @@
         <v>563</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>1974</v>
+        <v>1999</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>1976</v>
+        <v>1998</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>1973</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>1986</v>
+        <v>2008</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>415</v>
+        <v>2010</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>531</v>
+        <v>19</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>1987</v>
+        <v>2007</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>2019</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>20</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>563</v>
+        <v>2009</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>1974</v>
+        <v>1052</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>1986</v>
+        <v>2008</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>1985</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>1999</v>
+        <v>2184</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>2001</v>
+        <v>415</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>19</v>
+        <v>531</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>1997</v>
+        <v>2185</v>
+      </c>
+      <c r="F11" t="s">
+        <v>840</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>20</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>1998</v>
+        <v>2183</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>1052</v>
+        <v>2182</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>1999</v>
+        <v>2184</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>2000</v>
+        <v>2181</v>
       </c>
     </row>
   </sheetData>
@@ -35991,32 +37040,32 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L48"/>
+  <dimension ref="A1:L51"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView topLeftCell="A8" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I54" sqref="I54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="33.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="41" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="27.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="29.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="8.81640625" style="23"/>
+    <col min="1" max="1" width="25.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="44.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="30.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="31.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="8.85546875" style="23"/>
     <col min="16" max="1025" width="9" style="23" customWidth="1"/>
-    <col min="1026" max="16384" width="8.81640625" style="23"/>
+    <col min="1026" max="16384" width="8.85546875" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="11" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" s="11" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -36054,7 +37103,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>253</v>
       </c>
@@ -36089,7 +37138,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>254</v>
       </c>
@@ -36124,7 +37173,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>275</v>
       </c>
@@ -36159,7 +37208,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>282</v>
       </c>
@@ -36194,7 +37243,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>285</v>
       </c>
@@ -36229,7 +37278,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>301</v>
       </c>
@@ -36264,7 +37313,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>289</v>
       </c>
@@ -36299,7 +37348,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>291</v>
       </c>
@@ -36334,7 +37383,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>345</v>
       </c>
@@ -36369,7 +37418,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>382</v>
       </c>
@@ -36404,7 +37453,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>437</v>
       </c>
@@ -36439,7 +37488,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>480</v>
       </c>
@@ -36465,7 +37514,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>484</v>
       </c>
@@ -36491,7 +37540,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>485</v>
       </c>
@@ -36517,7 +37566,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>614</v>
       </c>
@@ -36543,7 +37592,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>733</v>
       </c>
@@ -36578,7 +37627,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>738</v>
       </c>
@@ -36613,7 +37662,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>747</v>
       </c>
@@ -36648,7 +37697,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>754</v>
       </c>
@@ -36681,7 +37730,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>760</v>
       </c>
@@ -36716,7 +37765,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>806</v>
       </c>
@@ -36751,7 +37800,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>821</v>
       </c>
@@ -36786,7 +37835,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>933</v>
       </c>
@@ -36821,7 +37870,7 @@
         <v>1812</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>936</v>
       </c>
@@ -36856,7 +37905,7 @@
         <v>1813</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>950</v>
       </c>
@@ -36891,7 +37940,7 @@
         <v>1814</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>952</v>
       </c>
@@ -36926,7 +37975,7 @@
         <v>1815</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>961</v>
       </c>
@@ -36961,7 +38010,7 @@
         <v>1816</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>1136</v>
       </c>
@@ -36996,7 +38045,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>1158</v>
       </c>
@@ -37031,7 +38080,7 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="20" t="s">
         <v>1178</v>
       </c>
@@ -37066,7 +38115,7 @@
         <v>1177</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>1183</v>
       </c>
@@ -37101,7 +38150,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>1226</v>
       </c>
@@ -37136,7 +38185,7 @@
         <v>1225</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>1229</v>
       </c>
@@ -37171,7 +38220,7 @@
         <v>1228</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>1236</v>
       </c>
@@ -37206,7 +38255,7 @@
         <v>1237</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>1333</v>
       </c>
@@ -37241,7 +38290,7 @@
         <v>1335</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>1342</v>
       </c>
@@ -37276,7 +38325,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>1373</v>
       </c>
@@ -37311,7 +38360,7 @@
         <v>1371</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>1505</v>
       </c>
@@ -37346,7 +38395,7 @@
         <v>1504</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>1567</v>
       </c>
@@ -37381,7 +38430,7 @@
         <v>1565</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>1576</v>
       </c>
@@ -37416,7 +38465,7 @@
         <v>1575</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>1665</v>
       </c>
@@ -37451,7 +38500,7 @@
         <v>1663</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>1777</v>
       </c>
@@ -37486,7 +38535,7 @@
         <v>1776</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>1790</v>
       </c>
@@ -37521,7 +38570,7 @@
         <v>1789</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>1794</v>
       </c>
@@ -37556,7 +38605,7 @@
         <v>1793</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>1831</v>
       </c>
@@ -37591,7 +38640,7 @@
         <v>1830</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>1874</v>
       </c>
@@ -37626,7 +38675,7 @@
         <v>1873</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>1876</v>
       </c>
@@ -37647,6 +38696,111 @@
       </c>
       <c r="J48" t="s">
         <v>1876</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>2086</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>2086</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>2085</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>2119</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>1334</v>
+      </c>
+      <c r="J49" s="2" t="s">
+        <v>2086</v>
+      </c>
+      <c r="K49" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L49" s="2" t="s">
+        <v>2084</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>2139</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>2139</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>819</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>2138</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>2135</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J50" s="2" t="s">
+        <v>2139</v>
+      </c>
+      <c r="K50" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L50" s="2" t="s">
+        <v>2137</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>2142</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>2142</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>2141</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>2136</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="J51" s="2" t="s">
+        <v>2142</v>
+      </c>
+      <c r="K51" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L51" s="2" t="s">
+        <v>2140</v>
       </c>
     </row>
   </sheetData>
@@ -37662,33 +38816,33 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N118"/>
+  <dimension ref="A1:N140"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I85" sqref="I85"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K144" sqref="K144"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="26" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="42.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="31.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="42.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="27.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="26.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="22.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="27.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="46.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="47.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="30.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="27.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="24.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="15" max="1025" width="9" style="23" customWidth="1"/>
-    <col min="1026" max="16384" width="8.81640625" style="23"/>
+    <col min="1026" max="16384" width="8.85546875" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="11" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" s="11" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -37732,7 +38886,7 @@
         <v>1833</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>25</v>
       </c>
@@ -37769,7 +38923,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
         <v>68</v>
       </c>
@@ -37806,7 +38960,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="24" t="s">
         <v>74</v>
       </c>
@@ -37843,7 +38997,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="24" t="s">
         <v>79</v>
       </c>
@@ -37880,7 +39034,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="24" t="s">
         <v>80</v>
       </c>
@@ -37917,7 +39071,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="24" t="s">
         <v>93</v>
       </c>
@@ -37954,7 +39108,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="24" t="s">
         <v>95</v>
       </c>
@@ -37991,7 +39145,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="24" t="s">
         <v>102</v>
       </c>
@@ -38027,7 +39181,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="24" t="s">
         <v>105</v>
       </c>
@@ -38064,7 +39218,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>309</v>
       </c>
@@ -38099,7 +39253,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>318</v>
       </c>
@@ -38134,7 +39288,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>378</v>
       </c>
@@ -38169,7 +39323,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>403</v>
       </c>
@@ -38204,7 +39358,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>433</v>
       </c>
@@ -38239,7 +39393,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>442</v>
       </c>
@@ -38274,7 +39428,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>448</v>
       </c>
@@ -38309,7 +39463,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>471</v>
       </c>
@@ -38344,7 +39498,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>476</v>
       </c>
@@ -38379,7 +39533,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>489</v>
       </c>
@@ -38414,7 +39568,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>492</v>
       </c>
@@ -38449,7 +39603,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>496</v>
       </c>
@@ -38484,7 +39638,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>508</v>
       </c>
@@ -38519,7 +39673,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>511</v>
       </c>
@@ -38554,7 +39708,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>532</v>
       </c>
@@ -38589,7 +39743,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>537</v>
       </c>
@@ -38624,7 +39778,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>560</v>
       </c>
@@ -38659,7 +39813,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>540</v>
       </c>
@@ -38694,7 +39848,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>541</v>
       </c>
@@ -38729,7 +39883,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>542</v>
       </c>
@@ -38764,7 +39918,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>573</v>
       </c>
@@ -38799,7 +39953,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>577</v>
       </c>
@@ -38834,7 +39988,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>580</v>
       </c>
@@ -38869,7 +40023,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>583</v>
       </c>
@@ -38904,7 +40058,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>586</v>
       </c>
@@ -38939,7 +40093,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>590</v>
       </c>
@@ -38974,7 +40128,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>594</v>
       </c>
@@ -39009,7 +40163,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>595</v>
       </c>
@@ -39044,7 +40198,7 @@
         <v>1817</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>552</v>
       </c>
@@ -39079,7 +40233,7 @@
         <v>1818</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>599</v>
       </c>
@@ -39114,7 +40268,7 @@
         <v>1803</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>600</v>
       </c>
@@ -39149,7 +40303,7 @@
         <v>1819</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>602</v>
       </c>
@@ -39184,7 +40338,7 @@
         <v>1820</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>605</v>
       </c>
@@ -39219,7 +40373,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>635</v>
       </c>
@@ -39254,7 +40408,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>539</v>
       </c>
@@ -39289,7 +40443,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>670</v>
       </c>
@@ -39324,7 +40478,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>886</v>
       </c>
@@ -39359,7 +40513,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>903</v>
       </c>
@@ -39394,7 +40548,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>920</v>
       </c>
@@ -39429,7 +40583,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>923</v>
       </c>
@@ -39464,7 +40618,7 @@
         <v>1835</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>924</v>
       </c>
@@ -39499,7 +40653,7 @@
         <v>1836</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>925</v>
       </c>
@@ -39534,7 +40688,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>939</v>
       </c>
@@ -39569,7 +40723,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>945</v>
       </c>
@@ -39604,7 +40758,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>943</v>
       </c>
@@ -39639,7 +40793,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>1016</v>
       </c>
@@ -39674,7 +40828,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>1020</v>
       </c>
@@ -39709,7 +40863,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>1024</v>
       </c>
@@ -39744,7 +40898,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>1051</v>
       </c>
@@ -39777,7 +40931,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>1053</v>
       </c>
@@ -39812,7 +40966,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>1057</v>
       </c>
@@ -39847,7 +41001,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>1061</v>
       </c>
@@ -39882,7 +41036,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>1067</v>
       </c>
@@ -39917,7 +41071,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>1072</v>
       </c>
@@ -39952,7 +41106,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>1098</v>
       </c>
@@ -39987,7 +41141,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>1102</v>
       </c>
@@ -40022,7 +41176,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>1104</v>
       </c>
@@ -40057,7 +41211,7 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>1113</v>
       </c>
@@ -40092,7 +41246,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>1132</v>
       </c>
@@ -40127,7 +41281,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>1138</v>
       </c>
@@ -40162,7 +41316,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>1144</v>
       </c>
@@ -40197,7 +41351,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>1152</v>
       </c>
@@ -40232,7 +41386,7 @@
         <v>1151</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>1174</v>
       </c>
@@ -40267,7 +41421,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>1199</v>
       </c>
@@ -40302,7 +41456,7 @@
         <v>1198</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>1209</v>
       </c>
@@ -40337,7 +41491,7 @@
         <v>1206</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>1218</v>
       </c>
@@ -40372,7 +41526,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>1233</v>
       </c>
@@ -40407,7 +41561,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>1248</v>
       </c>
@@ -40442,7 +41596,7 @@
         <v>1248</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>1249</v>
       </c>
@@ -40477,7 +41631,7 @@
         <v>1249</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>1250</v>
       </c>
@@ -40512,7 +41666,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>1253</v>
       </c>
@@ -40547,7 +41701,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>1264</v>
       </c>
@@ -40582,7 +41736,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>1247</v>
       </c>
@@ -40623,7 +41777,7 @@
         <v>1834</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>1800</v>
       </c>
@@ -40658,7 +41812,7 @@
         <v>1801</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>1306</v>
       </c>
@@ -40693,7 +41847,7 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>1336</v>
       </c>
@@ -40728,7 +41882,7 @@
         <v>1802</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>1376</v>
       </c>
@@ -40763,7 +41917,7 @@
         <v>1804</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>1380</v>
       </c>
@@ -40798,7 +41952,7 @@
         <v>1824</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>1389</v>
       </c>
@@ -40833,7 +41987,7 @@
         <v>1388</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>1399</v>
       </c>
@@ -40868,7 +42022,7 @@
         <v>1825</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>1421</v>
       </c>
@@ -40903,7 +42057,7 @@
         <v>1805</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>1432</v>
       </c>
@@ -40938,7 +42092,7 @@
         <v>1431</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>1475</v>
       </c>
@@ -40973,7 +42127,7 @@
         <v>1474</v>
       </c>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>1481</v>
       </c>
@@ -41008,7 +42162,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>1486</v>
       </c>
@@ -41043,7 +42197,7 @@
         <v>1484</v>
       </c>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>1502</v>
       </c>
@@ -41078,7 +42232,7 @@
         <v>1501</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>1524</v>
       </c>
@@ -41113,7 +42267,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>1530</v>
       </c>
@@ -41148,7 +42302,7 @@
         <v>1529</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>1535</v>
       </c>
@@ -41183,7 +42337,7 @@
         <v>1534</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>1540</v>
       </c>
@@ -41218,7 +42372,7 @@
         <v>1539</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>1542</v>
       </c>
@@ -41253,7 +42407,7 @@
         <v>1544</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>1547</v>
       </c>
@@ -41288,7 +42442,7 @@
         <v>1546</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>1551</v>
       </c>
@@ -41323,7 +42477,7 @@
         <v>1550</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>1555</v>
       </c>
@@ -41358,7 +42512,7 @@
         <v>1554</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>1573</v>
       </c>
@@ -41393,7 +42547,7 @@
         <v>1570</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>1806</v>
       </c>
@@ -41428,7 +42582,7 @@
         <v>1807</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>1810</v>
       </c>
@@ -41463,7 +42617,7 @@
         <v>1809</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>1879</v>
       </c>
@@ -41498,344 +42652,1118 @@
         <v>1877</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>1928</v>
+        <v>1908</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>1928</v>
+        <v>1908</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>1925</v>
+        <v>1908</v>
       </c>
       <c r="D109" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>1926</v>
-      </c>
-      <c r="F109" t="s">
-        <v>1962</v>
+        <v>1909</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>311</v>
       </c>
       <c r="H109" s="2" t="s">
         <v>20</v>
       </c>
       <c r="I109" s="2" t="s">
-        <v>493</v>
+        <v>278</v>
       </c>
       <c r="J109" s="2" t="s">
-        <v>1928</v>
+        <v>1908</v>
       </c>
       <c r="K109" s="2" t="s">
         <v>17</v>
       </c>
       <c r="L109" s="2" t="s">
-        <v>1927</v>
-      </c>
-    </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1907</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>1930</v>
+        <v>1912</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>1930</v>
+        <v>1912</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>1931</v>
+        <v>1912</v>
       </c>
       <c r="D110" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>1932</v>
+        <v>1911</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>311</v>
+        <v>513</v>
       </c>
       <c r="H110" s="2" t="s">
         <v>20</v>
       </c>
       <c r="I110" s="2" t="s">
-        <v>493</v>
+        <v>67</v>
       </c>
       <c r="J110" s="2" t="s">
-        <v>1930</v>
+        <v>1912</v>
       </c>
       <c r="K110" s="2" t="s">
         <v>17</v>
       </c>
       <c r="L110" s="2" t="s">
-        <v>1929</v>
-      </c>
-    </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1910</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>1950</v>
+        <v>1971</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>1950</v>
+        <v>1971</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>1951</v>
+        <v>1971</v>
       </c>
       <c r="D111" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>1952</v>
+        <v>535</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>859</v>
+        <v>847</v>
       </c>
       <c r="H111" s="2" t="s">
         <v>20</v>
       </c>
       <c r="I111" s="2" t="s">
-        <v>493</v>
+        <v>534</v>
       </c>
       <c r="J111" s="2" t="s">
-        <v>1950</v>
+        <v>1971</v>
       </c>
       <c r="K111" s="2" t="s">
         <v>17</v>
       </c>
       <c r="L111" s="2" t="s">
-        <v>1949</v>
-      </c>
-    </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1972</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>1959</v>
+        <v>1976</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>1959</v>
+        <v>1976</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>1957</v>
+        <v>1973</v>
       </c>
       <c r="D112" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>1958</v>
+        <v>1975</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>1963</v>
+        <v>1022</v>
       </c>
       <c r="H112" s="2" t="s">
         <v>20</v>
       </c>
       <c r="I112" s="2" t="s">
-        <v>493</v>
+        <v>67</v>
       </c>
       <c r="J112" s="2" t="s">
-        <v>1959</v>
+        <v>1976</v>
       </c>
       <c r="K112" s="2" t="s">
         <v>17</v>
       </c>
       <c r="L112" s="2" t="s">
-        <v>1956</v>
-      </c>
-    </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.35">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>1960</v>
+        <v>1977</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>1960</v>
+        <v>1977</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>1960</v>
+        <v>1977</v>
       </c>
       <c r="D113" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="E113" s="2" t="s">
+        <v>1430</v>
+      </c>
       <c r="F113" s="2" t="s">
-        <v>1964</v>
+        <v>860</v>
       </c>
       <c r="H113" s="2" t="s">
         <v>20</v>
       </c>
       <c r="I113" s="2" t="s">
-        <v>1961</v>
+        <v>576</v>
       </c>
       <c r="J113" s="2" t="s">
-        <v>1960</v>
-      </c>
-    </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.35">
+        <v>1977</v>
+      </c>
+      <c r="K113" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L113" s="2" t="s">
+        <v>1979</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
-        <v>1968</v>
+        <v>1981</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>1968</v>
+        <v>1981</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>1965</v>
+        <v>1978</v>
       </c>
       <c r="D114" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>1967</v>
+        <v>1982</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>311</v>
       </c>
       <c r="H114" s="2" t="s">
         <v>20</v>
       </c>
       <c r="I114" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="J114" s="2" t="s">
+        <v>1981</v>
+      </c>
+      <c r="K114" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L114" s="2" t="s">
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A115" s="2" t="s">
+        <v>1986</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>1986</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>1983</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>1985</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>2015</v>
+      </c>
+      <c r="H115" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I115" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="J115" s="2" t="s">
+        <v>1986</v>
+      </c>
+      <c r="K115" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L115" s="2" t="s">
+        <v>1984</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A116" s="2" t="s">
+        <v>1990</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>1990</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>1988</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>1987</v>
+      </c>
+      <c r="F116" s="2" t="s">
+        <v>2016</v>
+      </c>
+      <c r="H116" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I116" s="2" t="s">
         <v>572</v>
       </c>
-      <c r="J114" s="2" t="s">
-        <v>1968</v>
-      </c>
-      <c r="K114" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L114" s="2" t="s">
-        <v>1966</v>
-      </c>
-    </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A115" t="s">
+      <c r="J116" s="2" t="s">
+        <v>1990</v>
+      </c>
+      <c r="K116" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L116" s="2" t="s">
+        <v>1989</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A117" s="2" t="s">
+        <v>1994</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>1994</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>1992</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>1991</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>859</v>
+      </c>
+      <c r="H117" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I117" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="J117" s="2" t="s">
+        <v>1994</v>
+      </c>
+      <c r="K117" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L117" s="2" t="s">
         <v>1993</v>
       </c>
-      <c r="B115" t="s">
-        <v>1993</v>
-      </c>
-      <c r="C115" t="s">
-        <v>1994</v>
-      </c>
-      <c r="D115" t="s">
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A118" s="2" t="s">
+        <v>1995</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>1995</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>1995</v>
+      </c>
+      <c r="D118" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E115" t="s">
+      <c r="E118" s="2" t="s">
+        <v>1997</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>2017</v>
+      </c>
+      <c r="H118" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I118" s="2" t="s">
+        <v>1996</v>
+      </c>
+      <c r="J118" s="2" t="s">
         <v>1995</v>
       </c>
-      <c r="F115"/>
-      <c r="G115"/>
-      <c r="H115" t="s">
-        <v>20</v>
-      </c>
-      <c r="I115" t="s">
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A119" s="2" t="s">
+        <v>2005</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>2005</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>2003</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>2004</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>1064</v>
+      </c>
+      <c r="H119" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I119" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="J119" s="2" t="s">
+        <v>2005</v>
+      </c>
+      <c r="K119" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L119" s="2" t="s">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A120" s="2" t="s">
+        <v>2012</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>2012</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>2013</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>2011</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>2018</v>
+      </c>
+      <c r="H120" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I120" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="J120" s="2" t="s">
+        <v>2012</v>
+      </c>
+      <c r="K120" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L120" s="2" t="s">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A121" s="2" t="s">
+        <v>2025</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>2025</v>
+      </c>
+      <c r="C121" t="s">
+        <v>2024</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>2023</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>2026</v>
+      </c>
+      <c r="H121" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I121" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="J121" s="2" t="s">
+        <v>2025</v>
+      </c>
+      <c r="K121" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L121" s="2" t="s">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A122" s="2" t="s">
+        <v>2028</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>2028</v>
+      </c>
+      <c r="C122" t="s">
+        <v>2030</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>2029</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>2031</v>
+      </c>
+      <c r="H122" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I122" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J122" s="2" t="s">
+        <v>2028</v>
+      </c>
+      <c r="K122" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L122" s="2" t="s">
+        <v>2027</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A123" s="2" t="s">
+        <v>2033</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>2033</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>2034</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="H123" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I123" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="J123" s="2" t="s">
+        <v>2033</v>
+      </c>
+      <c r="K123" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L123" s="2" t="s">
+        <v>2032</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A124" s="2" t="s">
+        <v>2053</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>2053</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>2052</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>2054</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>2052</v>
+      </c>
+      <c r="H124" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I124" s="2" t="s">
+        <v>2051</v>
+      </c>
+      <c r="J124" s="2" t="s">
+        <v>2053</v>
+      </c>
+      <c r="K124" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L124" s="2" t="s">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A125" s="2" t="s">
+        <v>2057</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>2057</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>2058</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>2059</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>2099</v>
+      </c>
+      <c r="H125" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I125" s="2" t="s">
+        <v>2056</v>
+      </c>
+      <c r="J125" s="2" t="s">
+        <v>2057</v>
+      </c>
+      <c r="K125" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L125" s="2" t="s">
+        <v>2055</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A126" s="2" t="s">
+        <v>2060</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>2060</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>2063</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>2062</v>
+      </c>
+      <c r="F126" s="2" t="s">
+        <v>1571</v>
+      </c>
+      <c r="H126" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I126" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="J115" t="s">
-        <v>1993</v>
-      </c>
-      <c r="K115" t="s">
-        <v>17</v>
-      </c>
-      <c r="L115" t="s">
-        <v>1996</v>
-      </c>
-    </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A116" s="2" t="s">
+      <c r="J126" s="2" t="s">
+        <v>2060</v>
+      </c>
+      <c r="K126" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L126" s="2" t="s">
+        <v>2061</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A127" s="2" t="s">
+        <v>2097</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>2097</v>
+      </c>
+      <c r="C127" t="s">
+        <v>2098</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>2096</v>
+      </c>
+      <c r="F127" t="s">
+        <v>2098</v>
+      </c>
+      <c r="H127" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I127" s="2" t="s">
+        <v>2051</v>
+      </c>
+      <c r="J127" s="2" t="s">
+        <v>2097</v>
+      </c>
+      <c r="K127" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L127" s="2" t="s">
+        <v>2095</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A128" s="2" t="s">
+        <v>2101</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>2101</v>
+      </c>
+      <c r="C128" t="s">
+        <v>2102</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>2103</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="H128" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I128" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="J128" s="2" t="s">
+        <v>2101</v>
+      </c>
+      <c r="K128" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L128" s="2" t="s">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A129" s="2" t="s">
+        <v>2106</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>2106</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>2104</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>2105</v>
+      </c>
+      <c r="F129" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="H129" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I129" s="2" t="s">
+        <v>2056</v>
+      </c>
+      <c r="J129" s="2" t="s">
+        <v>2106</v>
+      </c>
+      <c r="K129" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L129" s="2" t="s">
+        <v>2107</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A130" s="2" t="s">
+        <v>2110</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>2110</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>2111</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>2109</v>
+      </c>
+      <c r="F130" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="H130" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I130" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="J130" s="2" t="s">
+        <v>2110</v>
+      </c>
+      <c r="K130" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L130" s="2" t="s">
+        <v>2108</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>2122</v>
+      </c>
+      <c r="B131" t="s">
+        <v>2122</v>
+      </c>
+      <c r="C131" t="s">
+        <v>2122</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>2121</v>
+      </c>
+      <c r="F131" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="H131" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I131" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="J131" t="s">
+        <v>2122</v>
+      </c>
+      <c r="K131" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L131" s="2" t="s">
+        <v>2123</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A132" s="2" t="s">
+        <v>2126</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>2126</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>2127</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>2125</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="H132" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I132" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="J132" s="2" t="s">
+        <v>2126</v>
+      </c>
+      <c r="K132" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L132" s="2" t="s">
+        <v>2124</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A133" s="2" t="s">
+        <v>2130</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>2130</v>
+      </c>
+      <c r="C133" t="s">
+        <v>2128</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="F133" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="H133" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I133" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="J133" s="2" t="s">
+        <v>2130</v>
+      </c>
+      <c r="K133" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L133" s="2" t="s">
+        <v>2129</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A134" s="2" t="s">
+        <v>2132</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>2132</v>
+      </c>
+      <c r="C134" t="s">
+        <v>2133</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>2134</v>
+      </c>
+      <c r="F134" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="H134" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I134" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="J134" s="2" t="s">
+        <v>2132</v>
+      </c>
+      <c r="K134" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L134" s="2" t="s">
+        <v>2131</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A135" s="2" t="s">
+        <v>2147</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>2147</v>
+      </c>
+      <c r="C135" t="s">
+        <v>2146</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>2145</v>
+      </c>
+      <c r="F135" s="2" t="s">
+        <v>2148</v>
+      </c>
+      <c r="H135" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I135" s="2" t="s">
+        <v>2144</v>
+      </c>
+      <c r="J135" s="2" t="s">
+        <v>2147</v>
+      </c>
+      <c r="K135" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L135" s="2" t="s">
+        <v>2143</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A136" s="2" t="s">
+        <v>2152</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>2152</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>2152</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>2151</v>
+      </c>
+      <c r="F136" s="2" t="s">
+        <v>1064</v>
+      </c>
+      <c r="H136" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I136" s="2" t="s">
+        <v>2150</v>
+      </c>
+      <c r="J136" s="2" t="s">
+        <v>2152</v>
+      </c>
+      <c r="K136" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L136" s="2" t="s">
+        <v>2149</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A137" s="2" t="s">
+        <v>2159</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>2159</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>2161</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>2160</v>
+      </c>
+      <c r="F137" s="24" t="s">
+        <v>2162</v>
+      </c>
+      <c r="H137" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I137" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="J137" s="2" t="s">
+        <v>2159</v>
+      </c>
+      <c r="K137" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L137" s="2" t="s">
+        <v>2158</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A138" s="2" t="s">
+        <v>2165</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>2165</v>
+      </c>
+      <c r="C138" t="s">
+        <v>2163</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>2164</v>
+      </c>
+      <c r="F138" s="2" t="s">
+        <v>2166</v>
+      </c>
+      <c r="H138" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I138" s="2" t="s">
+        <v>1808</v>
+      </c>
+      <c r="J138" s="2" t="s">
+        <v>2165</v>
+      </c>
+      <c r="K138" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L138" s="2" t="s">
+        <v>2165</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A139" s="2" t="s">
+        <v>2172</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>2172</v>
+      </c>
+      <c r="C139" s="2" t="s">
         <v>2013</v>
       </c>
-      <c r="B116" s="2" t="s">
-        <v>2013</v>
-      </c>
-      <c r="C116" s="2" t="s">
-        <v>2014</v>
-      </c>
-      <c r="D116" t="s">
+      <c r="D139" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E116" s="2" t="s">
-        <v>2015</v>
-      </c>
-      <c r="H116" t="s">
-        <v>20</v>
-      </c>
-      <c r="I116" s="2" t="s">
-        <v>488</v>
-      </c>
-      <c r="J116" s="2" t="s">
-        <v>2013</v>
-      </c>
-      <c r="K116" t="s">
-        <v>17</v>
-      </c>
-      <c r="L116" s="2" t="s">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A117" s="2" t="s">
-        <v>2017</v>
-      </c>
-      <c r="B117" s="2" t="s">
-        <v>2017</v>
-      </c>
-      <c r="C117" s="2" t="s">
-        <v>2016</v>
-      </c>
-      <c r="D117" t="s">
+      <c r="E139" s="2" t="s">
+        <v>2171</v>
+      </c>
+      <c r="F139" s="2" t="s">
+        <v>2018</v>
+      </c>
+      <c r="H139" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I139" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="J139" s="2" t="s">
+        <v>2172</v>
+      </c>
+      <c r="K139" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L139" s="2" t="s">
+        <v>2173</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A140" s="2" t="s">
+        <v>2179</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>2179</v>
+      </c>
+      <c r="C140" t="s">
+        <v>2178</v>
+      </c>
+      <c r="D140" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E117" s="2" t="s">
-        <v>535</v>
-      </c>
-      <c r="F117" s="2" t="s">
-        <v>847</v>
-      </c>
-      <c r="H117" t="s">
-        <v>20</v>
-      </c>
-      <c r="I117" s="2" t="s">
-        <v>534</v>
-      </c>
-      <c r="J117" s="2" t="s">
-        <v>2017</v>
-      </c>
-      <c r="K117" t="s">
-        <v>17</v>
-      </c>
-      <c r="L117" s="2" t="s">
-        <v>2017</v>
-      </c>
-      <c r="M117" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="N117" s="2" t="s">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A118" s="2" t="s">
-        <v>2020</v>
-      </c>
-      <c r="B118" s="2" t="s">
-        <v>2020</v>
-      </c>
-      <c r="C118" s="2" t="s">
-        <v>2020</v>
-      </c>
-      <c r="D118" t="s">
-        <v>19</v>
-      </c>
-      <c r="E118" s="2" t="s">
-        <v>1430</v>
-      </c>
-      <c r="F118" s="2" t="s">
-        <v>860</v>
-      </c>
-      <c r="H118" t="s">
-        <v>20</v>
-      </c>
-      <c r="I118" s="2" t="s">
-        <v>576</v>
-      </c>
-      <c r="J118" s="2" t="s">
-        <v>2020</v>
-      </c>
-      <c r="K118" t="s">
-        <v>17</v>
-      </c>
-      <c r="L118" s="2" t="s">
-        <v>2019</v>
+      <c r="E140" s="2" t="s">
+        <v>2177</v>
+      </c>
+      <c r="F140" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="H140" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I140" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="J140" s="2" t="s">
+        <v>2179</v>
+      </c>
+      <c r="K140" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L140" s="2" t="s">
+        <v>2180</v>
       </c>
     </row>
   </sheetData>
@@ -41851,33 +43779,33 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N37"/>
+  <dimension ref="A1:N40"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F37" sqref="F37"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="30.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="75.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="28.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="27.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="22.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="32.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="81.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="30.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="24.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="15" max="1025" width="9" style="23" customWidth="1"/>
-    <col min="1026" max="16384" width="8.81640625" style="23"/>
+    <col min="1026" max="16384" width="8.85546875" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="10" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" s="10" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -41921,7 +43849,7 @@
         <v>1833</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
         <v>84</v>
       </c>
@@ -41956,7 +43884,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>122</v>
       </c>
@@ -41982,7 +43910,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>430</v>
       </c>
@@ -42017,7 +43945,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>518</v>
       </c>
@@ -42043,7 +43971,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>457</v>
       </c>
@@ -42069,7 +43997,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>463</v>
       </c>
@@ -42104,7 +44032,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>468</v>
       </c>
@@ -42139,7 +44067,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>766</v>
       </c>
@@ -42174,7 +44102,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>646</v>
       </c>
@@ -42209,7 +44137,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>741</v>
       </c>
@@ -42239,7 +44167,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>744</v>
       </c>
@@ -42274,7 +44202,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>755</v>
       </c>
@@ -42309,7 +44237,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>772</v>
       </c>
@@ -42344,7 +44272,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>796</v>
       </c>
@@ -42379,7 +44307,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>797</v>
       </c>
@@ -42414,7 +44342,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>818</v>
       </c>
@@ -42455,7 +44383,7 @@
         <v>1840</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>827</v>
       </c>
@@ -42490,7 +44418,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>828</v>
       </c>
@@ -42525,7 +44453,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>832</v>
       </c>
@@ -42560,7 +44488,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>976</v>
       </c>
@@ -42595,7 +44523,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>1167</v>
       </c>
@@ -42630,7 +44558,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>1215</v>
       </c>
@@ -42660,7 +44588,7 @@
       <c r="K23"/>
       <c r="L23"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>1216</v>
       </c>
@@ -42690,7 +44618,7 @@
       <c r="K24"/>
       <c r="L24"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>1494</v>
       </c>
@@ -42716,7 +44644,7 @@
         <v>1494</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>1268</v>
       </c>
@@ -42736,7 +44664,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>1271</v>
       </c>
@@ -42771,7 +44699,7 @@
         <v>1270</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>1276</v>
       </c>
@@ -42806,7 +44734,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>1441</v>
       </c>
@@ -42832,7 +44760,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>1496</v>
       </c>
@@ -42858,7 +44786,7 @@
         <v>1496</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>1579</v>
       </c>
@@ -42884,7 +44812,7 @@
         <v>1579</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>1826</v>
       </c>
@@ -42919,7 +44847,7 @@
         <v>1827</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>1828</v>
       </c>
@@ -42954,144 +44882,237 @@
         <v>1829</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>1913</v>
+        <v>1928</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>1913</v>
+        <v>1928</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>1907</v>
+        <v>979</v>
       </c>
       <c r="D34" t="s">
         <v>100</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>1915</v>
+        <v>1929</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>1907</v>
+        <v>2020</v>
       </c>
       <c r="H34" t="s">
         <v>99</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>1909</v>
+        <v>454</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>1913</v>
+        <v>1928</v>
       </c>
       <c r="K34" s="2" t="s">
         <v>17</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>1914</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1930</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>1911</v>
+        <v>2036</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>1911</v>
+        <v>2036</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>1908</v>
+        <v>2035</v>
       </c>
       <c r="D35" t="s">
         <v>100</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>1910</v>
+        <v>2040</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>1908</v>
+        <v>2037</v>
       </c>
       <c r="H35" t="s">
         <v>99</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>1909</v>
+        <v>2038</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>1911</v>
+        <v>2036</v>
       </c>
       <c r="K35" s="2" t="s">
         <v>17</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>1912</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+        <v>2039</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>1918</v>
+        <v>2042</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>1918</v>
+        <v>2042</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>979</v>
+        <v>121</v>
       </c>
       <c r="D36" t="s">
         <v>100</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>1916</v>
+        <v>2043</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>1919</v>
+        <v>2044</v>
       </c>
       <c r="H36" t="s">
         <v>99</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>454</v>
+        <v>2045</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>1918</v>
+        <v>2042</v>
       </c>
       <c r="K36" s="2" t="s">
         <v>17</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>1917</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>1922</v>
+        <v>2112</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>1922</v>
+        <v>2112</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>1921</v>
+        <v>1166</v>
       </c>
       <c r="D37" t="s">
         <v>100</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>1920</v>
+        <v>2114</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>1924</v>
+        <v>2112</v>
       </c>
       <c r="H37" t="s">
         <v>99</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>1922</v>
+        <v>2112</v>
       </c>
       <c r="K37" s="2" t="s">
         <v>17</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>1923</v>
+        <v>2113</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>2156</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>2156</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>979</v>
+      </c>
+      <c r="D38" t="s">
+        <v>100</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>2157</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>2154</v>
+      </c>
+      <c r="H38" t="s">
+        <v>99</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>799</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>2156</v>
+      </c>
+      <c r="K38" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L38" s="2" t="s">
+        <v>2155</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>2188</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>2188</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>979</v>
+      </c>
+      <c r="D39" t="s">
+        <v>100</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>2187</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>2189</v>
+      </c>
+      <c r="H39" t="s">
+        <v>99</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>975</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>2188</v>
+      </c>
+      <c r="K39" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L39" s="2" t="s">
+        <v>2186</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>2192</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>2192</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>2192</v>
+      </c>
+      <c r="D40" t="s">
+        <v>100</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>2191</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>2190</v>
+      </c>
+      <c r="H40" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -43122,26 +45143,26 @@
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="48.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="48.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="24.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.81640625" style="23"/>
+    <col min="1" max="2" width="49.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="49.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.85546875" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="10" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" s="10" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -43179,7 +45200,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
         <v>71</v>
       </c>
@@ -43214,7 +45235,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
         <v>91</v>
       </c>
@@ -43249,7 +45270,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>724</v>
       </c>
@@ -43284,7 +45305,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>730</v>
       </c>
@@ -43319,7 +45340,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>803</v>
       </c>
@@ -43345,7 +45366,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>966</v>
       </c>
@@ -43380,7 +45401,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>970</v>
       </c>
@@ -43415,7 +45436,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>1161</v>
       </c>
@@ -43450,7 +45471,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>1222</v>
       </c>
@@ -43485,7 +45506,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>1330</v>
       </c>
@@ -43520,7 +45541,7 @@
         <v>1823</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>1892</v>
       </c>
@@ -43548,7 +45569,7 @@
         <v>1892</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>1896</v>
       </c>
@@ -43574,7 +45595,7 @@
         <v>1896</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>1898</v>
       </c>
@@ -43620,27 +45641,27 @@
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11:H12"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="33" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="27" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="27.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.81640625" style="23"/>
+    <col min="10" max="10" width="27.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.85546875" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="11" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" s="11" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -43678,7 +45699,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
         <v>117</v>
       </c>
@@ -43696,7 +45717,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
         <v>118</v>
       </c>
@@ -43714,7 +45735,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="24" t="s">
         <v>119</v>
       </c>
@@ -43732,7 +45753,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>522</v>
       </c>
@@ -43767,7 +45788,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>528</v>
       </c>
@@ -43802,7 +45823,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>959</v>
       </c>
@@ -43837,7 +45858,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>1170</v>
       </c>
@@ -43872,12 +45893,12 @@
         <v>1821</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>1238</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>117</v>
+        <v>2153</v>
       </c>
       <c r="D9" s="24" t="s">
         <v>531</v>
@@ -43904,7 +45925,7 @@
         <v>1241</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>1889</v>
       </c>
@@ -43939,13 +45960,13 @@
         <v>1888</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11"/>
       <c r="B11"/>
       <c r="C11"/>
       <c r="D11"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12"/>
       <c r="B12"/>
       <c r="C12"/>

--- a/Altium/DB.xlsx
+++ b/Altium/DB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Repos\LIBS\Altium\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A22170D9-FD31-49FA-B091-F78A9E3703AB}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{767A7A25-CB28-466B-8EB3-F338BB416F73}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="38625" windowHeight="21225" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="38625" windowHeight="21225" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="C" sheetId="2" r:id="rId1"/>
@@ -38818,9 +38818,9 @@
   </sheetPr>
   <dimension ref="A1:N140"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K144" sqref="K144"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E127" sqref="E127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -43781,8 +43781,8 @@
   </sheetPr>
   <dimension ref="A1:N40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>

--- a/Altium/DB.xlsx
+++ b/Altium/DB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Repos\LIBS\Altium\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{767A7A25-CB28-466B-8EB3-F338BB416F73}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04036488-53D2-4D74-BCF1-A2019A6044F0}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="38625" windowHeight="21225" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38819,8 +38819,8 @@
   <dimension ref="A1:N140"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E127" sqref="E127"/>
+      <pane ySplit="1" topLeftCell="A88" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E119" sqref="E119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Altium/DB.xlsx
+++ b/Altium/DB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Repos\LIBS\Altium\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04036488-53D2-4D74-BCF1-A2019A6044F0}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F93477B3-FB50-4B33-9EB7-2D8195C492B9}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="38625" windowHeight="21225" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Altium/DB.xlsx
+++ b/Altium/DB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Repos\LIBS\Altium\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F93477B3-FB50-4B33-9EB7-2D8195C492B9}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD1CE056-B605-408F-9225-5BF21D9CF228}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="38625" windowHeight="21225" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6533" uniqueCount="2193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6544" uniqueCount="2199">
   <si>
     <t>Part Number</t>
   </si>
@@ -6612,6 +6612,24 @@
   </si>
   <si>
     <t>PCIe CEM x8 Edge Fingers</t>
+  </si>
+  <si>
+    <t>BGA225C65P15X15_1000X1000X100</t>
+  </si>
+  <si>
+    <t>Efinix, Inc.</t>
+  </si>
+  <si>
+    <t>2134-TI60F225C4-ND</t>
+  </si>
+  <si>
+    <t>FPGA TITAN 140HSIO 4PLL 225BGA</t>
+  </si>
+  <si>
+    <t>Ti60F225</t>
+  </si>
+  <si>
+    <t>TI60F225C4</t>
   </si>
 </sst>
 </file>
@@ -38816,11 +38834,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N140"/>
+  <dimension ref="A1:N141"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A88" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E119" sqref="E119"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A118" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F145" sqref="F145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -43764,6 +43782,41 @@
       </c>
       <c r="L140" s="2" t="s">
         <v>2180</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A141" s="2" t="s">
+        <v>2198</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>2198</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>2197</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E141" s="2" t="s">
+        <v>2196</v>
+      </c>
+      <c r="F141" s="2" t="s">
+        <v>2193</v>
+      </c>
+      <c r="H141" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I141" s="2" t="s">
+        <v>2194</v>
+      </c>
+      <c r="J141" s="2" t="s">
+        <v>2198</v>
+      </c>
+      <c r="K141" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L141" s="2" t="s">
+        <v>2195</v>
       </c>
     </row>
   </sheetData>

--- a/Altium/DB.xlsx
+++ b/Altium/DB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Repos\LIBS\Altium\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD1CE056-B605-408F-9225-5BF21D9CF228}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A067DA39-8702-42BD-890A-A1019D6FC1DB}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="38625" windowHeight="21225" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6544" uniqueCount="2199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6582" uniqueCount="2211">
   <si>
     <t>Part Number</t>
   </si>
@@ -6630,6 +6630,42 @@
   </si>
   <si>
     <t>TI60F225C4</t>
+  </si>
+  <si>
+    <t>YAG1346CT-ND</t>
+  </si>
+  <si>
+    <t>RT0402BRD0710KL</t>
+  </si>
+  <si>
+    <t>RES SMD 10K OHM 0.1% 1/16W 0402</t>
+  </si>
+  <si>
+    <t>256-W958D8NBYA5ITRCT-ND</t>
+  </si>
+  <si>
+    <t>Winbond Electronics</t>
+  </si>
+  <si>
+    <t>W958D8NBYA5I TR</t>
+  </si>
+  <si>
+    <t>256MB HYPERRAM X8, 200MHZ, IND T</t>
+  </si>
+  <si>
+    <t>W958D8NBYAxx</t>
+  </si>
+  <si>
+    <t>256-W25Q64JWSSIQ-ND</t>
+  </si>
+  <si>
+    <t>W25Q64JWSSIQ</t>
+  </si>
+  <si>
+    <t>IC FLASH 64MBIT SPI/QUAD 8SOIC</t>
+  </si>
+  <si>
+    <t>BGA24C100P5X5_600X800X120</t>
   </si>
 </sst>
 </file>
@@ -29494,11 +29530,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N147"/>
+  <dimension ref="A1:N148"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A111" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C154" sqref="C154"/>
+      <pane ySplit="1" topLeftCell="A105" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E152" sqref="E152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -35543,6 +35579,47 @@
       </c>
       <c r="N147" s="2" t="s">
         <v>2175</v>
+      </c>
+    </row>
+    <row r="148" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A148" s="2" t="s">
+        <v>2200</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>2201</v>
+      </c>
+      <c r="F148" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="H148" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I148" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="J148" s="4" t="s">
+        <v>1558</v>
+      </c>
+      <c r="K148" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="L148" s="2" t="s">
+        <v>2200</v>
+      </c>
+      <c r="M148" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N148" s="2" t="s">
+        <v>2199</v>
       </c>
     </row>
   </sheetData>
@@ -38834,11 +38911,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N141"/>
+  <dimension ref="A1:N144"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A118" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F145" sqref="F145"/>
+      <selection pane="bottomLeft" activeCell="E151" sqref="E151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -43817,6 +43894,87 @@
       </c>
       <c r="L141" s="2" t="s">
         <v>2195</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A142" s="2" t="s">
+        <v>2204</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>2204</v>
+      </c>
+      <c r="C142" t="s">
+        <v>2206</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E142" s="2" t="s">
+        <v>2205</v>
+      </c>
+      <c r="F142" s="2" t="s">
+        <v>2210</v>
+      </c>
+      <c r="H142" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I142" s="2" t="s">
+        <v>2203</v>
+      </c>
+      <c r="J142" s="2" t="s">
+        <v>2204</v>
+      </c>
+      <c r="K142" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L142" s="2" t="s">
+        <v>2202</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A143" s="2" t="s">
+        <v>2208</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>2208</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>2208</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E143" s="2" t="s">
+        <v>2209</v>
+      </c>
+      <c r="F143" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="H143" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I143" s="2" t="s">
+        <v>2203</v>
+      </c>
+      <c r="J143" s="2" t="s">
+        <v>2208</v>
+      </c>
+      <c r="K143" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L143" s="2" t="s">
+        <v>2207</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D144" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H144" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K144" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/Altium/DB.xlsx
+++ b/Altium/DB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Repos\LIBS\Altium\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A067DA39-8702-42BD-890A-A1019D6FC1DB}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6873351A-1191-4BB9-9B29-D0798B3E6B3F}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="38625" windowHeight="21225" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="38625" windowHeight="21225" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="C" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6582" uniqueCount="2211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6668" uniqueCount="2244">
   <si>
     <t>Part Number</t>
   </si>
@@ -6666,6 +6666,105 @@
   </si>
   <si>
     <t>BGA24C100P5X5_600X800X120</t>
+  </si>
+  <si>
+    <t>RTL8211F</t>
+  </si>
+  <si>
+    <t>RTL8211F-CG</t>
+  </si>
+  <si>
+    <t>Phy 1-CH 10MBPS/100MBPS/1GBPS 3.3V 40-PIN QFN Ep</t>
+  </si>
+  <si>
+    <t>Realtek</t>
+  </si>
+  <si>
+    <t>QFN40P500X500X90_HS-41N</t>
+  </si>
+  <si>
+    <t>553-1852-ND</t>
+  </si>
+  <si>
+    <t>J0G-0003NL</t>
+  </si>
+  <si>
+    <t>PULSE_J0G-0003NL</t>
+  </si>
+  <si>
+    <t>311-510JRCT-ND</t>
+  </si>
+  <si>
+    <t>510</t>
+  </si>
+  <si>
+    <t>RC0402JR-07510RL</t>
+  </si>
+  <si>
+    <t>RES 510 OHM 5% 1/16W 0402</t>
+  </si>
+  <si>
+    <t>490-5203-1-ND</t>
+  </si>
+  <si>
+    <t>1.3A</t>
+  </si>
+  <si>
+    <t>120 Ohms @ 100 MHz</t>
+  </si>
+  <si>
+    <t>Bead</t>
+  </si>
+  <si>
+    <t>FERRITE BEAD 120 OHM 0402 1LN</t>
+  </si>
+  <si>
+    <t>BLM15PD121SN1D</t>
+  </si>
+  <si>
+    <t>INDC1005X05N</t>
+  </si>
+  <si>
+    <t>490-6700-1-ND</t>
+  </si>
+  <si>
+    <t>1 A</t>
+  </si>
+  <si>
+    <t>LQM2HPN2R2MJ0L</t>
+  </si>
+  <si>
+    <t>150mOhm</t>
+  </si>
+  <si>
+    <t>FIXED IND 2.2UH 1A 150 MOHM SMD</t>
+  </si>
+  <si>
+    <t>INDC2520X12N</t>
+  </si>
+  <si>
+    <t>27pF</t>
+  </si>
+  <si>
+    <t>311-1019-1-ND</t>
+  </si>
+  <si>
+    <t>CC0402JRNPO9BN270</t>
+  </si>
+  <si>
+    <t>CAP CER 27PF 50V C0G/NPO 0402</t>
+  </si>
+  <si>
+    <t>311-1.50KLRCT-ND</t>
+  </si>
+  <si>
+    <t>RC0402FR-071K5L</t>
+  </si>
+  <si>
+    <t>RES 1.5K OHM 1% 1/16W 0402</t>
+  </si>
+  <si>
+    <t>1.5k</t>
   </si>
 </sst>
 </file>
@@ -24915,10 +25014,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:P97"/>
+  <dimension ref="A1:P98"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F104" sqref="F104"/>
+    <sheetView topLeftCell="A42" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E98" sqref="E98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29514,6 +29613,53 @@
         <v>2115</v>
       </c>
     </row>
+    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A98" s="6" t="s">
+        <v>2238</v>
+      </c>
+      <c r="B98" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C98" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D98" s="6" t="s">
+        <v>531</v>
+      </c>
+      <c r="E98" s="6" t="s">
+        <v>2239</v>
+      </c>
+      <c r="F98" s="6" t="s">
+        <v>835</v>
+      </c>
+      <c r="H98" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I98" s="6" t="s">
+        <v>2236</v>
+      </c>
+      <c r="J98" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="K98" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="L98" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="M98" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="N98" s="17" t="s">
+        <v>2238</v>
+      </c>
+      <c r="O98" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="P98" s="6" t="s">
+        <v>2237</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:P43">
     <sortCondition ref="F2:F43"/>
@@ -29530,11 +29676,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N148"/>
+  <dimension ref="A1:N150"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A105" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E152" sqref="E152"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A111" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L153" sqref="L153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -35622,6 +35768,88 @@
         <v>2199</v>
       </c>
     </row>
+    <row r="149" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A149" s="2" t="s">
+        <v>2221</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>2222</v>
+      </c>
+      <c r="F149" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="H149" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I149" s="6" t="s">
+        <v>2220</v>
+      </c>
+      <c r="J149" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K149" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="L149" s="2" t="s">
+        <v>2221</v>
+      </c>
+      <c r="M149" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N149" s="2" t="s">
+        <v>2219</v>
+      </c>
+    </row>
+    <row r="150" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A150" s="2" t="s">
+        <v>2241</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="E150" s="2" t="s">
+        <v>2242</v>
+      </c>
+      <c r="F150" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="H150" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I150" s="6" t="s">
+        <v>2243</v>
+      </c>
+      <c r="J150" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K150" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="L150" s="2" t="s">
+        <v>2241</v>
+      </c>
+      <c r="M150" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N150" s="2" t="s">
+        <v>2240</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -35635,29 +35863,29 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O23"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="47.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="29.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="27.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="22.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="50.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="31.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="30.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="24.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="16" max="1025" width="9" style="23" customWidth="1"/>
     <col min="1026" max="16384" width="8.85546875" style="23"/>
   </cols>
@@ -35805,7 +36033,7 @@
         <v>11</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>50</v>
+        <v>2226</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>531</v>
@@ -36020,7 +36248,7 @@
         <v>11</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>50</v>
+        <v>2226</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>531</v>
@@ -36061,7 +36289,7 @@
         <v>11</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>50</v>
+        <v>2226</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>531</v>
@@ -36190,7 +36418,7 @@
         <v>11</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>50</v>
+        <v>2226</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>531</v>
@@ -36663,11 +36891,99 @@
         <v>1788</v>
       </c>
     </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>2228</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>2226</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>2227</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>2229</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>2225</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>2224</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>2228</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O24" s="2" t="s">
+        <v>2223</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>2232</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>2234</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>2235</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>1287</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>2233</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>2231</v>
+      </c>
+      <c r="M25" s="4" t="s">
+        <v>2232</v>
+      </c>
+      <c r="N25" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O25" s="2" t="s">
+        <v>2230</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" firstPageNumber="0" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -38913,9 +39229,9 @@
   </sheetPr>
   <dimension ref="A1:N144"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A118" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E151" sqref="E151"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A134" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F150" sqref="F150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -38923,7 +39239,7 @@
     <col min="1" max="2" width="27.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="46.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="50.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="33.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
@@ -43967,14 +44283,32 @@
       </c>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>2212</v>
+      </c>
+      <c r="B144" t="s">
+        <v>2212</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>2211</v>
+      </c>
       <c r="D144" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="E144" s="2" t="s">
+        <v>2213</v>
+      </c>
+      <c r="F144" s="2" t="s">
+        <v>2215</v>
+      </c>
       <c r="H144" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K144" s="2" t="s">
-        <v>17</v>
+      <c r="I144" s="2" t="s">
+        <v>2214</v>
+      </c>
+      <c r="J144" t="s">
+        <v>2212</v>
       </c>
     </row>
   </sheetData>
@@ -43990,11 +44324,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N40"/>
+  <dimension ref="A1:N41"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C44" sqref="C44"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -45324,6 +45658,41 @@
       </c>
       <c r="H40" t="s">
         <v>99</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>2217</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>2217</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>2217</v>
+      </c>
+      <c r="D41" t="s">
+        <v>100</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>1278</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>2218</v>
+      </c>
+      <c r="H41" t="s">
+        <v>99</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>2217</v>
+      </c>
+      <c r="K41" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L41" s="2" t="s">
+        <v>2216</v>
       </c>
     </row>
   </sheetData>

--- a/Altium/DB.xlsx
+++ b/Altium/DB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Repos\LIBS\Altium\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6873351A-1191-4BB9-9B29-D0798B3E6B3F}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E97ABAB1-5D0A-4A85-883D-4AFBC5144118}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="38625" windowHeight="21225" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="38625" windowHeight="21225" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="C" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6668" uniqueCount="2244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6679" uniqueCount="2249">
   <si>
     <t>Part Number</t>
   </si>
@@ -6765,6 +6765,21 @@
   </si>
   <si>
     <t>1.5k</t>
+  </si>
+  <si>
+    <t>BGA25C127P5X5_625X625X521</t>
+  </si>
+  <si>
+    <t>505-LTM4625EY#PBF-ND</t>
+  </si>
+  <si>
+    <t>DC DC CONVERTER 0.6-5.5V</t>
+  </si>
+  <si>
+    <t>LTM4625</t>
+  </si>
+  <si>
+    <t>LTM4625EY#PBF</t>
   </si>
 </sst>
 </file>
@@ -29678,7 +29693,7 @@
   </sheetPr>
   <dimension ref="A1:N150"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A111" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="L153" sqref="L153"/>
     </sheetView>
@@ -39227,11 +39242,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N144"/>
+  <dimension ref="A1:N145"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A134" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F150" sqref="F150"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A128" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J154" sqref="J154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -44309,6 +44324,41 @@
       </c>
       <c r="J144" t="s">
         <v>2212</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A145" s="2" t="s">
+        <v>2248</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>2248</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>2247</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>2246</v>
+      </c>
+      <c r="F145" s="2" t="s">
+        <v>2244</v>
+      </c>
+      <c r="H145" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I145" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="J145" s="2" t="s">
+        <v>2248</v>
+      </c>
+      <c r="K145" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L145" s="2" t="s">
+        <v>2245</v>
       </c>
     </row>
   </sheetData>

--- a/Altium/DB.xlsx
+++ b/Altium/DB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Repos\LIBS\Altium\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E97ABAB1-5D0A-4A85-883D-4AFBC5144118}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E5EB917-4E4D-4C1A-9BF0-9798CBDB16C0}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="38625" windowHeight="21225" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6679" uniqueCount="2249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6690" uniqueCount="2255">
   <si>
     <t>Part Number</t>
   </si>
@@ -6780,6 +6780,24 @@
   </si>
   <si>
     <t>LTM4625EY#PBF</t>
+  </si>
+  <si>
+    <t>JEDEC_DDR3_78_PIN</t>
+  </si>
+  <si>
+    <t>1450-1447-ND</t>
+  </si>
+  <si>
+    <t>AS4C128M8D3B-12BCN</t>
+  </si>
+  <si>
+    <t>IC DRAM 1GBIT PARALLEL 78FBGA</t>
+  </si>
+  <si>
+    <t>Alliance Memory, Inc.</t>
+  </si>
+  <si>
+    <t>BGA78C80P9X13_800X1050X100</t>
   </si>
 </sst>
 </file>
@@ -29695,7 +29713,7 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A111" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L153" sqref="L153"/>
+      <selection pane="bottomLeft" activeCell="D150" sqref="D150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -39242,11 +39260,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N145"/>
+  <dimension ref="A1:N146"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A128" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J154" sqref="J154"/>
+      <selection pane="bottomLeft" activeCell="F156" sqref="F156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -44359,6 +44377,41 @@
       </c>
       <c r="L145" s="2" t="s">
         <v>2245</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A146" s="2" t="s">
+        <v>2251</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>2251</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>2249</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>2252</v>
+      </c>
+      <c r="F146" s="2" t="s">
+        <v>2254</v>
+      </c>
+      <c r="H146" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I146" s="2" t="s">
+        <v>2253</v>
+      </c>
+      <c r="J146" s="2" t="s">
+        <v>2251</v>
+      </c>
+      <c r="K146" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L146" s="2" t="s">
+        <v>2250</v>
       </c>
     </row>
   </sheetData>

--- a/Altium/DB.xlsx
+++ b/Altium/DB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Repos\LIBS\Altium\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E5EB917-4E4D-4C1A-9BF0-9798CBDB16C0}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{014CC8C9-FBC6-459E-A207-7569C7FEB675}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="38625" windowHeight="21225" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6690" uniqueCount="2255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6874" uniqueCount="2321">
   <si>
     <t>Part Number</t>
   </si>
@@ -6798,6 +6798,204 @@
   </si>
   <si>
     <t>BGA78C80P9X13_800X1050X100</t>
+  </si>
+  <si>
+    <t>RES 102K OHM 1% 1/16W 0402</t>
+  </si>
+  <si>
+    <t>YAG2974CT-ND</t>
+  </si>
+  <si>
+    <t>RC0402FR-0713K3L</t>
+  </si>
+  <si>
+    <t>RES 13.3K OHM 1% 1/16W 0402</t>
+  </si>
+  <si>
+    <t>311-30.1KLRCT-ND</t>
+  </si>
+  <si>
+    <t>RC0402FR-0730K1L</t>
+  </si>
+  <si>
+    <t>RES 30.1K OHM 1% 1/16W 0402</t>
+  </si>
+  <si>
+    <t>311-40.2KLRCT-ND</t>
+  </si>
+  <si>
+    <t>40.2k</t>
+  </si>
+  <si>
+    <t>30.1k</t>
+  </si>
+  <si>
+    <t>RC0402FR-0740K2L</t>
+  </si>
+  <si>
+    <t>RES 40.2K OHM 1% 1/16W 0402</t>
+  </si>
+  <si>
+    <t>LTC215x</t>
+  </si>
+  <si>
+    <t>LTC2151IUJ-14#PBF-ND</t>
+  </si>
+  <si>
+    <t>LTC2151IUJ-14#PBF</t>
+  </si>
+  <si>
+    <t>IC ADC 14BIT PIPELINED 40QFN</t>
+  </si>
+  <si>
+    <t>QFN50P600X600X80_HS-41N</t>
+  </si>
+  <si>
+    <t>MOLEX_5051102291</t>
+  </si>
+  <si>
+    <t>CONN FFC/FPC BOTTOM 22P .5MM R/A</t>
+  </si>
+  <si>
+    <t>5051102291</t>
+  </si>
+  <si>
+    <t>WM11288CT-ND</t>
+  </si>
+  <si>
+    <t>MOLEX_0733910060</t>
+  </si>
+  <si>
+    <t>0733910060</t>
+  </si>
+  <si>
+    <t>CONN SMA RCPT STR 50 OHM PCB</t>
+  </si>
+  <si>
+    <t>WM5543-ND</t>
+  </si>
+  <si>
+    <t>Si5351_GT</t>
+  </si>
+  <si>
+    <t>336-3908-1-ND</t>
+  </si>
+  <si>
+    <t>SI5351A-B-GTR</t>
+  </si>
+  <si>
+    <t>Skyworks Solutions Inc.</t>
+  </si>
+  <si>
+    <t>IC CLK GENERATOR 200MHZ 10MSOP</t>
+  </si>
+  <si>
+    <t>Oscillator 4T</t>
+  </si>
+  <si>
+    <t>ECS-2033-250-BN</t>
+  </si>
+  <si>
+    <t>XC1433CT-ND</t>
+  </si>
+  <si>
+    <t>ECS Inc.</t>
+  </si>
+  <si>
+    <t>XTAL OSC XO 25.0000MHZ CMOS SMD</t>
+  </si>
+  <si>
+    <t>Connector Type-C USB2</t>
+  </si>
+  <si>
+    <t>GCT_USB4110-GF-A</t>
+  </si>
+  <si>
+    <t>GCT</t>
+  </si>
+  <si>
+    <t>2073-USB4110-GF-A-1-ND</t>
+  </si>
+  <si>
+    <t>USB4110-GF-A</t>
+  </si>
+  <si>
+    <t>CONN RCP USB2.0 TYP C 24P SMD RA</t>
+  </si>
+  <si>
+    <t>12MHz</t>
+  </si>
+  <si>
+    <t>887-7V-12.000MDDJ-TCT-ND</t>
+  </si>
+  <si>
+    <t>7V-12.000MDDJ-T</t>
+  </si>
+  <si>
+    <t>CRYSTAL 12.0000MHZ 18PF SMD</t>
+  </si>
+  <si>
+    <t>FT4232H-56Q</t>
+  </si>
+  <si>
+    <t>FT4232H-56Q-REEL</t>
+  </si>
+  <si>
+    <t>768-1378-1-ND</t>
+  </si>
+  <si>
+    <t>QFN50P800X800X90_HS-57N</t>
+  </si>
+  <si>
+    <t>IC USB TO UART/MPSSE QUAD 56VQFN</t>
+  </si>
+  <si>
+    <t>SO-8 EEPROM</t>
+  </si>
+  <si>
+    <t>IC EEPROM 1KBIT SPI 2MHZ 8SOIC</t>
+  </si>
+  <si>
+    <t>93LC46B-I/SN-ND</t>
+  </si>
+  <si>
+    <t>93LC46B-I/SN</t>
+  </si>
+  <si>
+    <t>1028-1020-1-ND</t>
+  </si>
+  <si>
+    <t>Richtek USA Inc.</t>
+  </si>
+  <si>
+    <t>IC SUPERVISOR 1 CHANNEL SOT23-3</t>
+  </si>
+  <si>
+    <t>RT9818C-29GV</t>
+  </si>
+  <si>
+    <t>AUTOMOTIVE 4-BIT DUAL-SUPPLY BUS</t>
+  </si>
+  <si>
+    <t>CAXC4T245_BQB/WBQB</t>
+  </si>
+  <si>
+    <t>CAXC4T245QBQBRQ1</t>
+  </si>
+  <si>
+    <t>296-CAXC4T245QBQBRQ1CT-ND</t>
+  </si>
+  <si>
+    <t>296-CAXC4T774QBQBRQ1CT-ND</t>
+  </si>
+  <si>
+    <t>CAXC4T774QBQBRQ1</t>
+  </si>
+  <si>
+    <t>SN74AXC4T774_BQB</t>
+  </si>
+  <si>
+    <t>AUTOMOTIVE 4-BIT 2-SUPPLY BUS TR</t>
   </si>
 </sst>
 </file>
@@ -29709,11 +29907,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N150"/>
+  <dimension ref="A1:N154"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A111" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D150" sqref="D150"/>
+      <selection pane="bottomLeft" activeCell="E157" sqref="E157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -35881,6 +36079,170 @@
       </c>
       <c r="N150" s="2" t="s">
         <v>2240</v>
+      </c>
+    </row>
+    <row r="151" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A151" s="2" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="E151" s="2" t="s">
+        <v>2255</v>
+      </c>
+      <c r="F151" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="H151" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I151" s="6" t="s">
+        <v>1356</v>
+      </c>
+      <c r="J151" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K151" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="L151" s="2" t="s">
+        <v>1354</v>
+      </c>
+      <c r="M151" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N151" s="2" t="s">
+        <v>1765</v>
+      </c>
+    </row>
+    <row r="152" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A152" s="2" t="s">
+        <v>2257</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="E152" s="2" t="s">
+        <v>2258</v>
+      </c>
+      <c r="F152" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="H152" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I152" s="6" t="s">
+        <v>1522</v>
+      </c>
+      <c r="J152" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K152" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="L152" s="2" t="s">
+        <v>2257</v>
+      </c>
+      <c r="M152" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N152" s="2" t="s">
+        <v>2256</v>
+      </c>
+    </row>
+    <row r="153" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A153" s="2" t="s">
+        <v>2260</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="E153" s="2" t="s">
+        <v>2261</v>
+      </c>
+      <c r="F153" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="H153" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I153" s="6" t="s">
+        <v>2264</v>
+      </c>
+      <c r="J153" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K153" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="L153" s="2" t="s">
+        <v>2260</v>
+      </c>
+      <c r="M153" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N153" s="2" t="s">
+        <v>2259</v>
+      </c>
+    </row>
+    <row r="154" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A154" s="2" t="s">
+        <v>2265</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="E154" s="2" t="s">
+        <v>2266</v>
+      </c>
+      <c r="F154" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="H154" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I154" s="6" t="s">
+        <v>2263</v>
+      </c>
+      <c r="J154" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K154" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="L154" s="2" t="s">
+        <v>2265</v>
+      </c>
+      <c r="M154" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N154" s="2" t="s">
+        <v>2262</v>
       </c>
     </row>
   </sheetData>
@@ -37025,10 +37387,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -37469,6 +37831,82 @@
       </c>
       <c r="M11" s="2" t="s">
         <v>2181</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>2286</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>2285</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>2289</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>2021</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>2288</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>2286</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>2287</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>2298</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>2299</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>840</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>2183</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>2296</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>2298</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>2297</v>
       </c>
     </row>
   </sheetData>
@@ -39260,11 +39698,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N146"/>
+  <dimension ref="A1:N153"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A128" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F156" sqref="F156"/>
+      <pane ySplit="1" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E153" sqref="E153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -44414,6 +44852,245 @@
         <v>2250</v>
       </c>
     </row>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A147" s="2" t="s">
+        <v>2269</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>2269</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>2267</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E147" s="2" t="s">
+        <v>2270</v>
+      </c>
+      <c r="F147" s="2" t="s">
+        <v>2271</v>
+      </c>
+      <c r="H147" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I147" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="J147" s="2" t="s">
+        <v>2269</v>
+      </c>
+      <c r="K147" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L147" s="2" t="s">
+        <v>2268</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A148" s="2" t="s">
+        <v>2282</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>2282</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>2280</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>2284</v>
+      </c>
+      <c r="F148" s="2" t="s">
+        <v>1075</v>
+      </c>
+      <c r="H148" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I148" s="2" t="s">
+        <v>2283</v>
+      </c>
+      <c r="J148" s="2" t="s">
+        <v>2282</v>
+      </c>
+      <c r="K148" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L148" s="2" t="s">
+        <v>2281</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A149" s="2" t="s">
+        <v>2301</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>2301</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>2300</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>2304</v>
+      </c>
+      <c r="F149" s="2" t="s">
+        <v>2303</v>
+      </c>
+      <c r="H149" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I149" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="J149" s="2" t="s">
+        <v>2301</v>
+      </c>
+      <c r="K149" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L149" s="2" t="s">
+        <v>2302</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A150" s="2" t="s">
+        <v>2308</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>2308</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>2305</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="E150" s="2" t="s">
+        <v>2306</v>
+      </c>
+      <c r="F150" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="H150" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I150" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="J150" s="2" t="s">
+        <v>2308</v>
+      </c>
+      <c r="K150" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L150" s="2" t="s">
+        <v>2307</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A151" s="2" t="s">
+        <v>2312</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>2312</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>2312</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E151" s="2" t="s">
+        <v>2311</v>
+      </c>
+      <c r="F151" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="H151" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I151" s="2" t="s">
+        <v>2310</v>
+      </c>
+      <c r="J151" s="2" t="s">
+        <v>2312</v>
+      </c>
+      <c r="K151" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L151" s="2" t="s">
+        <v>2309</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A152" s="2" t="s">
+        <v>2315</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>2315</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>2314</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E152" s="2" t="s">
+        <v>2313</v>
+      </c>
+      <c r="H152" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I152" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="J152" s="2" t="s">
+        <v>2315</v>
+      </c>
+      <c r="K152" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L152" s="2" t="s">
+        <v>2316</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A153" s="2" t="s">
+        <v>2318</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>2318</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>2319</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E153" s="2" t="s">
+        <v>2320</v>
+      </c>
+      <c r="H153" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I153" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="J153" s="2" t="s">
+        <v>2318</v>
+      </c>
+      <c r="K153" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L153" s="2" t="s">
+        <v>2317</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -44427,11 +45104,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N41"/>
+  <dimension ref="A1:N44"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F49" sqref="F49"/>
+      <selection pane="bottomLeft" activeCell="H45" sqref="H45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -45796,6 +46473,111 @@
       </c>
       <c r="L41" s="2" t="s">
         <v>2216</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>2274</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>2274</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>1498</v>
+      </c>
+      <c r="D42" t="s">
+        <v>100</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>2273</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>2272</v>
+      </c>
+      <c r="H42" t="s">
+        <v>99</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>2274</v>
+      </c>
+      <c r="K42" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L42" s="2" t="s">
+        <v>2275</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>2277</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>2277</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>979</v>
+      </c>
+      <c r="D43" t="s">
+        <v>100</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>2278</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>2276</v>
+      </c>
+      <c r="H43" t="s">
+        <v>99</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="J43" s="2" t="s">
+        <v>2277</v>
+      </c>
+      <c r="K43" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L43" s="2" t="s">
+        <v>2279</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>2294</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>2294</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>2290</v>
+      </c>
+      <c r="D44" t="s">
+        <v>100</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>2295</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>2291</v>
+      </c>
+      <c r="H44" t="s">
+        <v>99</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>2292</v>
+      </c>
+      <c r="J44" s="2" t="s">
+        <v>2294</v>
+      </c>
+      <c r="K44" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L44" s="2" t="s">
+        <v>2293</v>
       </c>
     </row>
   </sheetData>

--- a/Altium/DB.xlsx
+++ b/Altium/DB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Repos\LIBS\Altium\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C924DA24-152C-4AC0-BFC5-05A91450E7B8}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18ECDAD7-1714-49FA-8600-963C56AC4499}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="38625" windowHeight="21225" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6900" uniqueCount="2332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6988" uniqueCount="2369">
   <si>
     <t>Part Number</t>
   </si>
@@ -7029,6 +7029,117 @@
   </si>
   <si>
     <t>CONN FFC/FPC BOTTOM 40P .5MM R/A</t>
+  </si>
+  <si>
+    <t>9774040360</t>
+  </si>
+  <si>
+    <t>Standoff</t>
+  </si>
+  <si>
+    <t>ROUND STANDOFF M3X0.5 STEEL 4MM</t>
+  </si>
+  <si>
+    <t>9774040360R</t>
+  </si>
+  <si>
+    <t>732-5271-1-ND</t>
+  </si>
+  <si>
+    <t>JEDEC_DDR4_SODIMM_SKT_STD_H5.2</t>
+  </si>
+  <si>
+    <t>DDR4 SODIMM 260P 5.2H STD</t>
+  </si>
+  <si>
+    <t>Connector P260 MH</t>
+  </si>
+  <si>
+    <t>2309409-2</t>
+  </si>
+  <si>
+    <t>A141326CT-ND</t>
+  </si>
+  <si>
+    <t>Connector NGFF M.2 Key E</t>
+  </si>
+  <si>
+    <t>Connector NGFF M.2 Key B</t>
+  </si>
+  <si>
+    <t>PCI Express/PCI Connectors M.2 0.5PITCH 4.2H KEY E 10U AU</t>
+  </si>
+  <si>
+    <t>571-1-2199230-1</t>
+  </si>
+  <si>
+    <t>1-2199230-1</t>
+  </si>
+  <si>
+    <t>TE_1-2199230-1</t>
+  </si>
+  <si>
+    <t>TE_1-2199230-0</t>
+  </si>
+  <si>
+    <t>PCI Express/PCI Connectors M.2 0.5PITCH 4.2H KEY B 10U AU</t>
+  </si>
+  <si>
+    <t>1-2199230-0</t>
+  </si>
+  <si>
+    <t>571-1-2199230-0</t>
+  </si>
+  <si>
+    <t>Connector P50</t>
+  </si>
+  <si>
+    <t>26-DF12NB(4.0)-50DP-0.5V(51)CT-ND</t>
+  </si>
+  <si>
+    <t>DF12NB(4.0)-50DP-0.5V(51)</t>
+  </si>
+  <si>
+    <t>HIROSE_DF12NB(4.0)-50DP-0.5V</t>
+  </si>
+  <si>
+    <t>HIROSE_DF12NB-50DS-0.5V</t>
+  </si>
+  <si>
+    <t>DF12NB-50DS-0.5V(51)</t>
+  </si>
+  <si>
+    <t>CONN RCPT 50POS SMD GOLD</t>
+  </si>
+  <si>
+    <t>CONN HDR 50POS SMD GOLD</t>
+  </si>
+  <si>
+    <t>26-DF12NB-50DS-0.5V(51)CT-ND</t>
+  </si>
+  <si>
+    <t>MOLEX_430451027</t>
+  </si>
+  <si>
+    <t>WM7488-ND</t>
+  </si>
+  <si>
+    <t>0430451027</t>
+  </si>
+  <si>
+    <t>CONN HEADER VERT 10POS 3MM</t>
+  </si>
+  <si>
+    <t>AMPHENOL_94152-088LF</t>
+  </si>
+  <si>
+    <t>94152-088LF</t>
+  </si>
+  <si>
+    <t>CONN MOD JACK 8P8C VERT SHIELDED</t>
+  </si>
+  <si>
+    <t>609-1072-ND</t>
   </si>
 </sst>
 </file>
@@ -45143,28 +45254,27 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N46"/>
+  <dimension ref="A1:N53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E55" sqref="E55"/>
+      <selection pane="bottomLeft" activeCell="C62" sqref="C62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="32.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="81.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="31" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="30.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="30.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="79.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="30.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="24.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="34.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="24.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="24.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="15" max="1025" width="9" style="23" customWidth="1"/>
     <col min="1026" max="16384" width="8.85546875" style="23"/>
   </cols>
@@ -46693,6 +46803,251 @@
       </c>
       <c r="L46" s="2" t="s">
         <v>2326</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>2340</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>2340</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>2339</v>
+      </c>
+      <c r="D47" t="s">
+        <v>100</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>2338</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>2337</v>
+      </c>
+      <c r="H47" t="s">
+        <v>99</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J47" s="2" t="s">
+        <v>2340</v>
+      </c>
+      <c r="K47" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L47" s="2" t="s">
+        <v>2341</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>2346</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>2342</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>2342</v>
+      </c>
+      <c r="D48" t="s">
+        <v>100</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>2344</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>2347</v>
+      </c>
+      <c r="H48" t="s">
+        <v>99</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J48" s="2" t="s">
+        <v>2346</v>
+      </c>
+      <c r="K48" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L48" s="2" t="s">
+        <v>2345</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>2350</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>2343</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>2343</v>
+      </c>
+      <c r="D49" t="s">
+        <v>100</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>2349</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>2348</v>
+      </c>
+      <c r="H49" t="s">
+        <v>99</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J49" s="2" t="s">
+        <v>2350</v>
+      </c>
+      <c r="K49" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L49" s="2" t="s">
+        <v>2351</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>2354</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>2354</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>2352</v>
+      </c>
+      <c r="D50" t="s">
+        <v>100</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>2359</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>2355</v>
+      </c>
+      <c r="H50" t="s">
+        <v>99</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>799</v>
+      </c>
+      <c r="J50" s="2" t="s">
+        <v>2354</v>
+      </c>
+      <c r="K50" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L50" s="2" t="s">
+        <v>2353</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>2357</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>2357</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>2352</v>
+      </c>
+      <c r="D51" t="s">
+        <v>100</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>2358</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>2356</v>
+      </c>
+      <c r="H51" t="s">
+        <v>99</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>799</v>
+      </c>
+      <c r="J51" s="2" t="s">
+        <v>2357</v>
+      </c>
+      <c r="K51" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L51" s="2" t="s">
+        <v>2360</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>2363</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>2363</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="D52" t="s">
+        <v>100</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>2364</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>2361</v>
+      </c>
+      <c r="H52" t="s">
+        <v>99</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="J52" s="2" t="s">
+        <v>2363</v>
+      </c>
+      <c r="K52" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L52" s="2" t="s">
+        <v>2362</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>2366</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>2366</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D53" t="s">
+        <v>100</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>2367</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>2365</v>
+      </c>
+      <c r="H53" t="s">
+        <v>99</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>825</v>
+      </c>
+      <c r="J53" s="2" t="s">
+        <v>2366</v>
+      </c>
+      <c r="K53" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L53" s="2" t="s">
+        <v>2368</v>
       </c>
     </row>
   </sheetData>
@@ -46723,7 +47078,7 @@
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -47221,23 +47576,23 @@
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="33" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="27" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="27.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="29.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="30.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="8.85546875" style="23"/>
   </cols>
   <sheetData>
@@ -47541,10 +47896,39 @@
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11"/>
-      <c r="B11"/>
-      <c r="C11"/>
-      <c r="D11"/>
+      <c r="A11" t="s">
+        <v>2335</v>
+      </c>
+      <c r="B11" t="s">
+        <v>2335</v>
+      </c>
+      <c r="C11" t="s">
+        <v>2333</v>
+      </c>
+      <c r="D11" s="24" t="s">
+        <v>531</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>2334</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>2332</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>2335</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>2336</v>
+      </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12"/>

--- a/Altium/DB.xlsx
+++ b/Altium/DB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Repos\LIBS\Altium\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18ECDAD7-1714-49FA-8600-963C56AC4499}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86293328-F1F1-4680-A2F9-77C23B99F146}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="38625" windowHeight="21225" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6988" uniqueCount="2369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7325" uniqueCount="2487">
   <si>
     <t>Part Number</t>
   </si>
@@ -7140,6 +7140,360 @@
   </si>
   <si>
     <t>609-1072-ND</t>
+  </si>
+  <si>
+    <t>GST612C0</t>
+  </si>
+  <si>
+    <t>GST817ME</t>
+  </si>
+  <si>
+    <t>GST1212M</t>
+  </si>
+  <si>
+    <t>Global Sensor Technology</t>
+  </si>
+  <si>
+    <t>Uncooled Micro bolometer</t>
+  </si>
+  <si>
+    <t>SFF-TA-1002 2C Card Edge</t>
+  </si>
+  <si>
+    <t>PNM0603-25KBCT-ND</t>
+  </si>
+  <si>
+    <t>Vishay Dale Thin Film</t>
+  </si>
+  <si>
+    <t>RES SMD 25K OHM 0.1% 0.15W 0603</t>
+  </si>
+  <si>
+    <t>25k</t>
+  </si>
+  <si>
+    <t>PNM0603E2502BST5</t>
+  </si>
+  <si>
+    <t>YAG2318CT-ND</t>
+  </si>
+  <si>
+    <t>RES SMD 10K OHM 0.5% 1/10W 0603</t>
+  </si>
+  <si>
+    <t>RT0603DRE0710KL</t>
+  </si>
+  <si>
+    <t>YAG1632CT-ND</t>
+  </si>
+  <si>
+    <t>RT0603BRD0730KL</t>
+  </si>
+  <si>
+    <t>30k</t>
+  </si>
+  <si>
+    <t>RES SMD 30K OHM 0.1% 1/10W 0603</t>
+  </si>
+  <si>
+    <t>0.5%</t>
+  </si>
+  <si>
+    <t>Connector P40 GND Bars</t>
+  </si>
+  <si>
+    <t>SFF-TA-1002 2C</t>
+  </si>
+  <si>
+    <t>CONN HDR 40POS SMD GOLD</t>
+  </si>
+  <si>
+    <t>CONN EDGE DUAL FMALE 84P 0.024</t>
+  </si>
+  <si>
+    <t>ME1008410101011</t>
+  </si>
+  <si>
+    <t>ME1008410101011CT-ND</t>
+  </si>
+  <si>
+    <t>SAM8130-ND</t>
+  </si>
+  <si>
+    <t>QTE-020-03-L-D-A</t>
+  </si>
+  <si>
+    <t>SAMTEC_QTE-020-03-X-D-A</t>
+  </si>
+  <si>
+    <t>ED90415-ND</t>
+  </si>
+  <si>
+    <t>9265-0-00-15-00-00-38-0</t>
+  </si>
+  <si>
+    <t>Mill-Max Manufacturing Corp.</t>
+  </si>
+  <si>
+    <t>MILLMAX_9265-0-00-XX-00-00-38-0</t>
+  </si>
+  <si>
+    <t>CONN PC PIN CIRC 0.059DIA GOLD</t>
+  </si>
+  <si>
+    <t>9265</t>
+  </si>
+  <si>
+    <t>505-LT3042IMSE#PBF-ND</t>
+  </si>
+  <si>
+    <t>IC REG LIN POS ADJ 200MA 10MSOP</t>
+  </si>
+  <si>
+    <t>LT3042</t>
+  </si>
+  <si>
+    <t>LT3042IMSE#PBF</t>
+  </si>
+  <si>
+    <t>OP777</t>
+  </si>
+  <si>
+    <t>OP777ARZ</t>
+  </si>
+  <si>
+    <t>505-OP777ARZ-ND</t>
+  </si>
+  <si>
+    <t>MCP4726_CH</t>
+  </si>
+  <si>
+    <t>MCP4726A0T-E/CHCT-ND</t>
+  </si>
+  <si>
+    <t>MCP4726A0T-E/CH</t>
+  </si>
+  <si>
+    <t>IC OPAMP GP 1 CIRCUIT 8SOIC</t>
+  </si>
+  <si>
+    <t>IC DAC 12BIT V-OUT SOT23-6</t>
+  </si>
+  <si>
+    <t>MCP3421_CH</t>
+  </si>
+  <si>
+    <t>MCP3421A0T-E/CH</t>
+  </si>
+  <si>
+    <t>IC ADC 18BIT SIGMA-DELTA SOT23-6</t>
+  </si>
+  <si>
+    <t>MCP3421A0T-E/CHCT-ND</t>
+  </si>
+  <si>
+    <t>ADR44x</t>
+  </si>
+  <si>
+    <t>IC VREF SERIES 0.04% 8SOIC</t>
+  </si>
+  <si>
+    <t>ADR441BRZ-REEL7</t>
+  </si>
+  <si>
+    <t>ADR441BRZ-REEL7CT-ND</t>
+  </si>
+  <si>
+    <t>DRV595</t>
+  </si>
+  <si>
+    <t>296-38931-5-ND</t>
+  </si>
+  <si>
+    <t>IC PWM PWR DRVR HI-EFF 32HTSSOP</t>
+  </si>
+  <si>
+    <t>DRV595DAP</t>
+  </si>
+  <si>
+    <t>490-1041-1-ND</t>
+  </si>
+  <si>
+    <t>BLM21AG102SN1D</t>
+  </si>
+  <si>
+    <t>FERRITE BEAD 1 KOHM 0805 1LN</t>
+  </si>
+  <si>
+    <t>1 kOhms @ 100 MHz</t>
+  </si>
+  <si>
+    <t>280mOhm</t>
+  </si>
+  <si>
+    <t>600mA</t>
+  </si>
+  <si>
+    <t>RES 9.76K OHM 1% 1/10W 0603</t>
+  </si>
+  <si>
+    <t>RC0603FR-079K76L</t>
+  </si>
+  <si>
+    <t>311-9.76KHRCT-ND</t>
+  </si>
+  <si>
+    <t>311-18.0KHRCT-ND</t>
+  </si>
+  <si>
+    <t>RES 18K OHM 1% 1/10W 0603</t>
+  </si>
+  <si>
+    <t>RC0603FR-0718KL</t>
+  </si>
+  <si>
+    <t>18k</t>
+  </si>
+  <si>
+    <t>RES 36K OHM 1% 1/10W 0603</t>
+  </si>
+  <si>
+    <t>RC0603FR-0736KL</t>
+  </si>
+  <si>
+    <t>311-36.0KHRCT-ND</t>
+  </si>
+  <si>
+    <t>36k</t>
+  </si>
+  <si>
+    <t>311-215KHRCT-ND</t>
+  </si>
+  <si>
+    <t>RC0603FR-07215KL</t>
+  </si>
+  <si>
+    <t>RES 215K OHM 1% 1/10W 0603</t>
+  </si>
+  <si>
+    <t>215k</t>
+  </si>
+  <si>
+    <t>568-1061-1-ND</t>
+  </si>
+  <si>
+    <t>PCA9557PW,118</t>
+  </si>
+  <si>
+    <t>PCA9557_D/PW</t>
+  </si>
+  <si>
+    <t>IC I/O EXPANDER I2C 8B 16TSSOP</t>
+  </si>
+  <si>
+    <t>Connector P8/2</t>
+  </si>
+  <si>
+    <t>Header 2x4 2.54mm</t>
+  </si>
+  <si>
+    <t>609-3235-ND</t>
+  </si>
+  <si>
+    <t>67997-208HLF</t>
+  </si>
+  <si>
+    <t>CONN HEADER VERT 8POS 2.54MM</t>
+  </si>
+  <si>
+    <t>311-20.0KHRCT-ND</t>
+  </si>
+  <si>
+    <t>RC0603FR-0720KL</t>
+  </si>
+  <si>
+    <t>RES 20K OHM 1% 1/10W 0603</t>
+  </si>
+  <si>
+    <t>311-100KHRCT-ND</t>
+  </si>
+  <si>
+    <t>RC0603FR-07100KL</t>
+  </si>
+  <si>
+    <t>RES 100K OHM 1% 1/10W 0603</t>
+  </si>
+  <si>
+    <t>FIXED IND 10UH 7A 34 MOHM SMD</t>
+  </si>
+  <si>
+    <t>IHLP5050CEER100M01</t>
+  </si>
+  <si>
+    <t>541-1024-1-ND</t>
+  </si>
+  <si>
+    <t>34mOhm</t>
+  </si>
+  <si>
+    <t>445-6966-1-ND</t>
+  </si>
+  <si>
+    <t>CGA4J1X7R1E335K125AC</t>
+  </si>
+  <si>
+    <t>CAP CER 3.3UF 25V X7R 0805</t>
+  </si>
+  <si>
+    <t>3.3uF</t>
+  </si>
+  <si>
+    <t>TME</t>
+  </si>
+  <si>
+    <t>15EDGRC-3.5/2P</t>
+  </si>
+  <si>
+    <t>DEGSON ELECTRONICS</t>
+  </si>
+  <si>
+    <t>15EDGRC-3.5-02P-14</t>
+  </si>
+  <si>
+    <t>Pluggable terminal block; 3.5mm; ways: 2; angled 90°; socket; male</t>
+  </si>
+  <si>
+    <t>AO4407AL-ND</t>
+  </si>
+  <si>
+    <t>AO4407AL</t>
+  </si>
+  <si>
+    <t>MOSFET P-CH 30V 12A 8SOIC</t>
+  </si>
+  <si>
+    <t>Alpha &amp; Omega Semiconductor Inc.</t>
+  </si>
+  <si>
+    <t>Transistor MOSFET-P (4DG3S)</t>
+  </si>
+  <si>
+    <t>TSOP65P490X110_HS-11N</t>
+  </si>
+  <si>
+    <t>TSOP65P810X120_HS-33N</t>
+  </si>
+  <si>
+    <t>IND_IHLP-5050CE-01</t>
+  </si>
+  <si>
+    <t>HDR2X4_M</t>
+  </si>
+  <si>
+    <t>DEG_15EDGRC-3.5-02P</t>
+  </si>
+  <si>
+    <t>AMPHENOL_ME1008410101011</t>
   </si>
 </sst>
 </file>
@@ -25389,10 +25743,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:P98"/>
+  <dimension ref="A1:P99"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+    <sheetView topLeftCell="A58" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G107" sqref="G107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30035,6 +30389,53 @@
         <v>2235</v>
       </c>
     </row>
+    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A99" s="6" t="s">
+        <v>2468</v>
+      </c>
+      <c r="B99" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C99" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D99" s="6" t="s">
+        <v>531</v>
+      </c>
+      <c r="E99" s="6" t="s">
+        <v>2469</v>
+      </c>
+      <c r="F99" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="H99" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I99" s="6" t="s">
+        <v>2470</v>
+      </c>
+      <c r="J99" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="K99" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="L99" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="M99" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="N99" s="17" t="s">
+        <v>2468</v>
+      </c>
+      <c r="O99" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="P99" s="6" t="s">
+        <v>2467</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:P43">
     <sortCondition ref="F2:F43"/>
@@ -30051,29 +30452,29 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N154"/>
+  <dimension ref="A1:N163"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A111" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E157" sqref="E157"/>
+      <pane ySplit="1" topLeftCell="A126" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E163" sqref="E163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" style="6" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="5.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="31.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="30.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="25.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="32.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="30.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="26.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="15" max="1025" width="9" style="23" customWidth="1"/>
     <col min="1026" max="16384" width="8.85546875" style="23"/>
   </cols>
@@ -36387,6 +36788,375 @@
       </c>
       <c r="N154" s="2" t="s">
         <v>2260</v>
+      </c>
+    </row>
+    <row r="155" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A155" s="2" t="s">
+        <v>2379</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="E155" s="2" t="s">
+        <v>2377</v>
+      </c>
+      <c r="F155" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="H155" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I155" s="6" t="s">
+        <v>2378</v>
+      </c>
+      <c r="J155" s="4" t="s">
+        <v>1556</v>
+      </c>
+      <c r="K155" s="2" t="s">
+        <v>2376</v>
+      </c>
+      <c r="L155" s="2" t="s">
+        <v>2379</v>
+      </c>
+      <c r="M155" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N155" s="2" t="s">
+        <v>2375</v>
+      </c>
+    </row>
+    <row r="156" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A156" s="2" t="s">
+        <v>2382</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="E156" s="2" t="s">
+        <v>2381</v>
+      </c>
+      <c r="F156" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="H156" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I156" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="J156" s="4" t="s">
+        <v>2387</v>
+      </c>
+      <c r="K156" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="L156" s="2" t="s">
+        <v>2382</v>
+      </c>
+      <c r="M156" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N156" s="2" t="s">
+        <v>2380</v>
+      </c>
+    </row>
+    <row r="157" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A157" s="2" t="s">
+        <v>2384</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="E157" s="2" t="s">
+        <v>2386</v>
+      </c>
+      <c r="F157" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="H157" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I157" s="6" t="s">
+        <v>2385</v>
+      </c>
+      <c r="J157" s="4" t="s">
+        <v>1556</v>
+      </c>
+      <c r="K157" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="L157" s="2" t="s">
+        <v>2384</v>
+      </c>
+      <c r="M157" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N157" s="2" t="s">
+        <v>2383</v>
+      </c>
+    </row>
+    <row r="158" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A158" s="2" t="s">
+        <v>2434</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="E158" s="2" t="s">
+        <v>2433</v>
+      </c>
+      <c r="F158" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="H158" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I158" s="6" t="s">
+        <v>1008</v>
+      </c>
+      <c r="J158" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K158" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="L158" s="2" t="s">
+        <v>2434</v>
+      </c>
+      <c r="M158" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N158" s="2" t="s">
+        <v>2435</v>
+      </c>
+    </row>
+    <row r="159" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A159" s="2" t="s">
+        <v>2438</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="E159" s="2" t="s">
+        <v>2437</v>
+      </c>
+      <c r="F159" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="H159" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I159" s="6" t="s">
+        <v>2439</v>
+      </c>
+      <c r="J159" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K159" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="L159" s="2" t="s">
+        <v>2438</v>
+      </c>
+      <c r="M159" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N159" s="2" t="s">
+        <v>2436</v>
+      </c>
+    </row>
+    <row r="160" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A160" s="2" t="s">
+        <v>2441</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="E160" s="2" t="s">
+        <v>2440</v>
+      </c>
+      <c r="F160" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="H160" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I160" s="6" t="s">
+        <v>2443</v>
+      </c>
+      <c r="J160" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K160" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="L160" s="2" t="s">
+        <v>2441</v>
+      </c>
+      <c r="M160" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N160" s="2" t="s">
+        <v>2442</v>
+      </c>
+    </row>
+    <row r="161" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A161" s="2" t="s">
+        <v>2445</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="E161" s="2" t="s">
+        <v>2446</v>
+      </c>
+      <c r="F161" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="H161" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I161" s="6" t="s">
+        <v>2447</v>
+      </c>
+      <c r="J161" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K161" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="L161" s="2" t="s">
+        <v>2445</v>
+      </c>
+      <c r="M161" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N161" s="2" t="s">
+        <v>2444</v>
+      </c>
+    </row>
+    <row r="162" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A162" s="2" t="s">
+        <v>2458</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="E162" s="2" t="s">
+        <v>2459</v>
+      </c>
+      <c r="F162" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="H162" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I162" s="6" t="s">
+        <v>2092</v>
+      </c>
+      <c r="J162" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K162" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="L162" s="2" t="s">
+        <v>2458</v>
+      </c>
+      <c r="M162" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N162" s="2" t="s">
+        <v>2457</v>
+      </c>
+    </row>
+    <row r="163" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A163" s="2" t="s">
+        <v>2461</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="E163" s="2" t="s">
+        <v>2462</v>
+      </c>
+      <c r="F163" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="H163" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I163" s="6" t="s">
+        <v>705</v>
+      </c>
+      <c r="J163" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K163" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="L163" s="2" t="s">
+        <v>2461</v>
+      </c>
+      <c r="M163" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N163" s="2" t="s">
+        <v>2460</v>
       </c>
     </row>
   </sheetData>
@@ -36402,10 +37172,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:O27"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -37516,6 +38286,94 @@
       </c>
       <c r="O25" s="2" t="s">
         <v>2228</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>2428</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>2224</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>2429</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>836</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>2430</v>
+      </c>
+      <c r="K26" s="20" t="s">
+        <v>2431</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>2432</v>
+      </c>
+      <c r="M26" s="4" t="s">
+        <v>2428</v>
+      </c>
+      <c r="N26" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O26" s="2" t="s">
+        <v>2427</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>2464</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>2463</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>2483</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>2466</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="M27" s="4" t="s">
+        <v>2464</v>
+      </c>
+      <c r="N27" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O27" s="2" t="s">
+        <v>2465</v>
       </c>
     </row>
   </sheetData>
@@ -38066,10 +38924,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L51"/>
+  <dimension ref="A1:L52"/>
   <sheetViews>
     <sheetView topLeftCell="A8" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I54" sqref="I54"/>
+      <selection activeCell="F57" sqref="F57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -39829,6 +40687,41 @@
         <v>2138</v>
       </c>
     </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>2477</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>2477</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>2480</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>2478</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>2479</v>
+      </c>
+      <c r="J52" s="2" t="s">
+        <v>2477</v>
+      </c>
+      <c r="K52" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L52" s="2" t="s">
+        <v>2476</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -39842,11 +40735,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N153"/>
+  <dimension ref="A1:N163"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N150" sqref="N150"/>
+      <pane ySplit="1" topLeftCell="A121" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F158" sqref="F158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -45241,6 +46134,338 @@
         <v>2315</v>
       </c>
     </row>
+    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A154" s="2" t="s">
+        <v>2369</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>2369</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>2369</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E154" s="2" t="s">
+        <v>2373</v>
+      </c>
+      <c r="F154" s="2" t="s">
+        <v>2369</v>
+      </c>
+      <c r="H154" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I154" s="2" t="s">
+        <v>2372</v>
+      </c>
+      <c r="J154" s="2" t="s">
+        <v>2369</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A155" s="2" t="s">
+        <v>2370</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>2370</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>2370</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E155" s="2" t="s">
+        <v>2373</v>
+      </c>
+      <c r="F155" s="2" t="s">
+        <v>2370</v>
+      </c>
+      <c r="H155" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I155" s="2" t="s">
+        <v>2372</v>
+      </c>
+      <c r="J155" s="2" t="s">
+        <v>2370</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A156" s="2" t="s">
+        <v>2371</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>2371</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>2371</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E156" s="2" t="s">
+        <v>2373</v>
+      </c>
+      <c r="F156" s="2" t="s">
+        <v>2371</v>
+      </c>
+      <c r="H156" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I156" s="2" t="s">
+        <v>2372</v>
+      </c>
+      <c r="J156" s="2" t="s">
+        <v>2371</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A157" s="2" t="s">
+        <v>2406</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>2405</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>2405</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E157" s="2" t="s">
+        <v>2404</v>
+      </c>
+      <c r="F157" s="2" t="s">
+        <v>2481</v>
+      </c>
+      <c r="H157" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I157" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="J157" s="2" t="s">
+        <v>2406</v>
+      </c>
+      <c r="K157" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L157" s="2" t="s">
+        <v>2403</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A158" s="2" t="s">
+        <v>2408</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>2408</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>2407</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E158" s="2" t="s">
+        <v>2413</v>
+      </c>
+      <c r="F158" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="H158" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I158" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="J158" s="2" t="s">
+        <v>2408</v>
+      </c>
+      <c r="K158" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L158" s="2" t="s">
+        <v>2409</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A159" s="2" t="s">
+        <v>2412</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>2412</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>2410</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E159" s="2" t="s">
+        <v>2414</v>
+      </c>
+      <c r="F159" s="2" t="s">
+        <v>1569</v>
+      </c>
+      <c r="H159" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I159" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="J159" s="2" t="s">
+        <v>2412</v>
+      </c>
+      <c r="K159" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L159" s="2" t="s">
+        <v>2411</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A160" s="2" t="s">
+        <v>2416</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>2416</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>2415</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E160" s="2" t="s">
+        <v>2417</v>
+      </c>
+      <c r="F160" s="2" t="s">
+        <v>1569</v>
+      </c>
+      <c r="H160" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I160" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="J160" s="2" t="s">
+        <v>2416</v>
+      </c>
+      <c r="K160" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L160" s="2" t="s">
+        <v>2418</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A161" s="2" t="s">
+        <v>2421</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>2421</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>2419</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E161" s="2" t="s">
+        <v>2420</v>
+      </c>
+      <c r="F161" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="H161" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I161" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="J161" s="2" t="s">
+        <v>2421</v>
+      </c>
+      <c r="K161" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L161" s="2" t="s">
+        <v>2422</v>
+      </c>
+    </row>
+    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A162" s="2" t="s">
+        <v>2426</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>2426</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>2423</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E162" s="2" t="s">
+        <v>2425</v>
+      </c>
+      <c r="F162" s="2" t="s">
+        <v>2482</v>
+      </c>
+      <c r="H162" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I162" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="J162" s="2" t="s">
+        <v>2426</v>
+      </c>
+      <c r="K162" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L162" s="2" t="s">
+        <v>2424</v>
+      </c>
+    </row>
+    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A163" s="2" t="s">
+        <v>2449</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>2449</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>2450</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E163" s="2" t="s">
+        <v>2451</v>
+      </c>
+      <c r="F163" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="H163" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I163" s="2" t="s">
+        <v>2142</v>
+      </c>
+      <c r="J163" s="2" t="s">
+        <v>2449</v>
+      </c>
+      <c r="K163" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L163" s="2" t="s">
+        <v>2448</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -45254,11 +46479,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N53"/>
+  <dimension ref="A1:N59"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C62" sqref="C62"/>
+      <selection pane="bottomLeft" activeCell="F64" sqref="F64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -47049,6 +48274,172 @@
       <c r="L53" s="2" t="s">
         <v>2368</v>
       </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>2374</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>2374</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>2374</v>
+      </c>
+      <c r="D54" t="s">
+        <v>100</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>2374</v>
+      </c>
+      <c r="H54" t="s">
+        <v>99</v>
+      </c>
+      <c r="J54" s="2" t="s">
+        <v>2374</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>2392</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>2389</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>2389</v>
+      </c>
+      <c r="D55" t="s">
+        <v>100</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>2391</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>2486</v>
+      </c>
+      <c r="H55" t="s">
+        <v>99</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>825</v>
+      </c>
+      <c r="J55" s="2" t="s">
+        <v>2392</v>
+      </c>
+      <c r="K55" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L55" s="2" t="s">
+        <v>2393</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>2395</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>2395</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>2388</v>
+      </c>
+      <c r="D56" t="s">
+        <v>100</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>2390</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>2396</v>
+      </c>
+      <c r="H56" t="s">
+        <v>99</v>
+      </c>
+      <c r="I56" s="2" t="s">
+        <v>2036</v>
+      </c>
+      <c r="J56" s="2" t="s">
+        <v>2395</v>
+      </c>
+      <c r="K56" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L56" s="2" t="s">
+        <v>2394</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>2455</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>2453</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>2452</v>
+      </c>
+      <c r="D57" t="s">
+        <v>100</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>2456</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>2484</v>
+      </c>
+      <c r="H57" t="s">
+        <v>99</v>
+      </c>
+      <c r="I57" s="2" t="s">
+        <v>825</v>
+      </c>
+      <c r="J57" s="2" t="s">
+        <v>2455</v>
+      </c>
+      <c r="K57" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L57" s="2" t="s">
+        <v>2454</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>2474</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>2474</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="D58" t="s">
+        <v>100</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>2475</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>2485</v>
+      </c>
+      <c r="H58" t="s">
+        <v>99</v>
+      </c>
+      <c r="I58" s="2" t="s">
+        <v>2473</v>
+      </c>
+      <c r="J58" s="2" t="s">
+        <v>2474</v>
+      </c>
+      <c r="K58" s="2" t="s">
+        <v>2471</v>
+      </c>
+      <c r="L58" s="2" t="s">
+        <v>2472</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H59"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A11">
@@ -47573,20 +48964,20 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="35.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="29.28515625" style="2" bestFit="1" customWidth="1"/>
@@ -47931,10 +49322,42 @@
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12"/>
-      <c r="B12"/>
-      <c r="C12"/>
-      <c r="D12"/>
+      <c r="A12" s="2" t="s">
+        <v>2398</v>
+      </c>
+      <c r="B12" t="s">
+        <v>2402</v>
+      </c>
+      <c r="C12" s="24" t="s">
+        <v>2151</v>
+      </c>
+      <c r="D12" s="24" t="s">
+        <v>531</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>2401</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>2400</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>2399</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>2398</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>2397</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D13" s="24"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Altium/DB.xlsx
+++ b/Altium/DB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Repos\LIBS\Altium\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86293328-F1F1-4680-A2F9-77C23B99F146}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{870BB0A8-4709-4922-8D95-318258574924}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="38625" windowHeight="21225" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7325" uniqueCount="2487">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7449" uniqueCount="2534">
   <si>
     <t>Part Number</t>
   </si>
@@ -7494,6 +7494,147 @@
   </si>
   <si>
     <t>AMPHENOL_ME1008410101011</t>
+  </si>
+  <si>
+    <t>SW SPST</t>
+  </si>
+  <si>
+    <t>E-Switch</t>
+  </si>
+  <si>
+    <t>TL1105VF160Q</t>
+  </si>
+  <si>
+    <t>EG2508-ND</t>
+  </si>
+  <si>
+    <t>EG5384CT-ND</t>
+  </si>
+  <si>
+    <t>TL3365AF180QG</t>
+  </si>
+  <si>
+    <t>SD05DICT-ND</t>
+  </si>
+  <si>
+    <t>TVS DIODE 5VWM 14.5VC SOD323</t>
+  </si>
+  <si>
+    <t>SD05-7</t>
+  </si>
+  <si>
+    <t>Connector Type-C USB3</t>
+  </si>
+  <si>
+    <t>USB VERTICAL TYPE C 3.1</t>
+  </si>
+  <si>
+    <t>2047110001</t>
+  </si>
+  <si>
+    <t>900-2047110001CT-ND</t>
+  </si>
+  <si>
+    <t>CP2102N_QFN24</t>
+  </si>
+  <si>
+    <t>CP2102N-A02-GQFN24</t>
+  </si>
+  <si>
+    <t>336-5887-ND</t>
+  </si>
+  <si>
+    <t>IC USB TO UART BRIDGE QFN24</t>
+  </si>
+  <si>
+    <t>PUSB3AB4Z</t>
+  </si>
+  <si>
+    <t>TVS DIODE 3.3VWM 5VC DFN2510A-10</t>
+  </si>
+  <si>
+    <t>1727-2741-1-ND</t>
+  </si>
+  <si>
+    <t>SY7200A</t>
+  </si>
+  <si>
+    <t>SY7200AABC</t>
+  </si>
+  <si>
+    <t>Silergy Corp</t>
+  </si>
+  <si>
+    <t>SOT-23-6 LED Drivers ROHS</t>
+  </si>
+  <si>
+    <t>C107309</t>
+  </si>
+  <si>
+    <t>LCSC</t>
+  </si>
+  <si>
+    <t>FIXED IND 4.7UH 650MA 195MOHM SM</t>
+  </si>
+  <si>
+    <t>4.7uH</t>
+  </si>
+  <si>
+    <t>490-6619-1-ND</t>
+  </si>
+  <si>
+    <t>LQH32CN4R7M33L</t>
+  </si>
+  <si>
+    <t>195mOhm</t>
+  </si>
+  <si>
+    <t>650mA</t>
+  </si>
+  <si>
+    <t>2.55</t>
+  </si>
+  <si>
+    <t>RES 2.55 OHM 1% 1/10W 0603</t>
+  </si>
+  <si>
+    <t>RC0603FR-072R55L</t>
+  </si>
+  <si>
+    <t>13-RC0603FR-072R55LCT-ND</t>
+  </si>
+  <si>
+    <t>5051100692</t>
+  </si>
+  <si>
+    <t>CONN FPC BOTTOM 6POS .5MM R/A</t>
+  </si>
+  <si>
+    <t>WM12362CT-ND</t>
+  </si>
+  <si>
+    <t>Connector SIM 6P With Shell</t>
+  </si>
+  <si>
+    <t>Connector SIM 6P CD Pins</t>
+  </si>
+  <si>
+    <t>NANOSIM SOCKET 1.11H P/PULL TYPE</t>
+  </si>
+  <si>
+    <t>1042240820</t>
+  </si>
+  <si>
+    <t>WM23749CT-ND</t>
+  </si>
+  <si>
+    <t>SIM Card Socket Hinge Type, 6+2 Pin w/Peg, w/switch, GF</t>
+  </si>
+  <si>
+    <t>ATTEND Technology</t>
+  </si>
+  <si>
+    <t>115F-AAA2</t>
   </si>
 </sst>
 </file>
@@ -30452,11 +30593,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N163"/>
+  <dimension ref="A1:N164"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A126" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E163" sqref="E163"/>
+      <selection pane="bottomLeft" activeCell="M167" sqref="M167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -37159,6 +37300,44 @@
         <v>2460</v>
       </c>
     </row>
+    <row r="164" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A164" s="2" t="s">
+        <v>2521</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="E164" s="2" t="s">
+        <v>2520</v>
+      </c>
+      <c r="F164" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="H164" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I164" s="6" t="s">
+        <v>2519</v>
+      </c>
+      <c r="K164" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="L164" s="2" t="s">
+        <v>2521</v>
+      </c>
+      <c r="M164" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N164" s="2" t="s">
+        <v>2522</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -37172,10 +37351,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O27"/>
+  <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -38374,6 +38553,50 @@
       </c>
       <c r="O27" s="2" t="s">
         <v>2465</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>2516</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>2513</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>996</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>2514</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>2517</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>2518</v>
+      </c>
+      <c r="M28" s="4" t="s">
+        <v>2516</v>
+      </c>
+      <c r="N28" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O28" s="2" t="s">
+        <v>2515</v>
       </c>
     </row>
   </sheetData>
@@ -38924,10 +39147,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L52"/>
+  <dimension ref="A1:L53"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F57" sqref="F57"/>
+    <sheetView topLeftCell="A14" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E61" sqref="E61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -40722,6 +40945,38 @@
         <v>2476</v>
       </c>
     </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>2495</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>2495</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>2494</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="J53" s="2" t="s">
+        <v>2495</v>
+      </c>
+      <c r="K53" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L53" s="2" t="s">
+        <v>2493</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -40735,11 +40990,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N163"/>
+  <dimension ref="A1:N166"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A121" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F158" sqref="F158"/>
+      <pane ySplit="1" topLeftCell="A149" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J174" sqref="J174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -46466,6 +46721,103 @@
         <v>2448</v>
       </c>
     </row>
+    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A164" s="2" t="s">
+        <v>2501</v>
+      </c>
+      <c r="B164" s="24" t="s">
+        <v>2500</v>
+      </c>
+      <c r="C164" s="24" t="s">
+        <v>2500</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E164" s="2" t="s">
+        <v>2503</v>
+      </c>
+      <c r="F164" s="24"/>
+      <c r="H164" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I164" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="J164" s="2" t="s">
+        <v>2501</v>
+      </c>
+      <c r="K164" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L164" s="2" t="s">
+        <v>2502</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A165" s="2" t="s">
+        <v>2504</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>2504</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>2504</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E165" s="2" t="s">
+        <v>2505</v>
+      </c>
+      <c r="H165" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I165" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="J165" s="2" t="s">
+        <v>2504</v>
+      </c>
+      <c r="K165" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L165" s="2" t="s">
+        <v>2506</v>
+      </c>
+    </row>
+    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A166" s="2" t="s">
+        <v>2508</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>2508</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>2507</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E166" s="2" t="s">
+        <v>2510</v>
+      </c>
+      <c r="H166" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I166" s="2" t="s">
+        <v>2509</v>
+      </c>
+      <c r="J166" s="2" t="s">
+        <v>2508</v>
+      </c>
+      <c r="K166" s="2" t="s">
+        <v>2512</v>
+      </c>
+      <c r="L166" s="2" t="s">
+        <v>2511</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -46479,11 +46831,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N59"/>
+  <dimension ref="A1:N62"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F64" sqref="F64"/>
+      <selection pane="bottomLeft" activeCell="F66" sqref="F66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -48439,7 +48791,126 @@
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="H59"/>
+      <c r="A59" s="2" t="s">
+        <v>2498</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>2498</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>2496</v>
+      </c>
+      <c r="D59" t="s">
+        <v>100</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>2497</v>
+      </c>
+      <c r="H59" t="s">
+        <v>99</v>
+      </c>
+      <c r="I59" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="J59" s="2" t="s">
+        <v>2498</v>
+      </c>
+      <c r="K59" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L59" s="2" t="s">
+        <v>2499</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>2523</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>2523</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>773</v>
+      </c>
+      <c r="D60" t="s">
+        <v>100</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>2524</v>
+      </c>
+      <c r="H60" t="s">
+        <v>99</v>
+      </c>
+      <c r="I60" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="J60" s="2" t="s">
+        <v>2523</v>
+      </c>
+      <c r="K60" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L60" s="2" t="s">
+        <v>2525</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
+        <v>2529</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>2529</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>2526</v>
+      </c>
+      <c r="D61" t="s">
+        <v>100</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>2528</v>
+      </c>
+      <c r="H61" t="s">
+        <v>99</v>
+      </c>
+      <c r="I61" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="J61" s="2" t="s">
+        <v>2529</v>
+      </c>
+      <c r="K61" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L61" s="2" t="s">
+        <v>2530</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
+        <v>2533</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>2533</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>2527</v>
+      </c>
+      <c r="D62" t="s">
+        <v>100</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>2531</v>
+      </c>
+      <c r="H62" t="s">
+        <v>99</v>
+      </c>
+      <c r="I62" s="2" t="s">
+        <v>2532</v>
+      </c>
+      <c r="J62" s="2" t="s">
+        <v>2533</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A11">
@@ -48964,16 +49435,16 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="35.42578125" style="2" bestFit="1" customWidth="1"/>
@@ -49357,7 +49828,68 @@
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D13" s="24"/>
+      <c r="A13" s="2" t="s">
+        <v>2489</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>2489</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>2487</v>
+      </c>
+      <c r="D13" s="24" t="s">
+        <v>531</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>1170</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>2488</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>2489</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>2490</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>2492</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>2492</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>2487</v>
+      </c>
+      <c r="D14" s="24" t="s">
+        <v>531</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>1170</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>2488</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>2492</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>2491</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Altium/DB.xlsx
+++ b/Altium/DB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Repos\LIBS\Altium\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{870BB0A8-4709-4922-8D95-318258574924}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6F51AED-1E74-43C8-8703-232DD81B977A}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="38625" windowHeight="21225" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="38625" windowHeight="21225" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="C" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7449" uniqueCount="2534">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7473" uniqueCount="2547">
   <si>
     <t>Part Number</t>
   </si>
@@ -7635,6 +7635,45 @@
   </si>
   <si>
     <t>115F-AAA2</t>
+  </si>
+  <si>
+    <t>Connector P30</t>
+  </si>
+  <si>
+    <t>MOLEX_5051100692</t>
+  </si>
+  <si>
+    <t>5051103091</t>
+  </si>
+  <si>
+    <t>WM11291CT-ND</t>
+  </si>
+  <si>
+    <t>MOLEX_5051103091</t>
+  </si>
+  <si>
+    <t>CONN FFC/FPC BOTTOM 30P .5MM R/A</t>
+  </si>
+  <si>
+    <t>SOT230P700X180-4N</t>
+  </si>
+  <si>
+    <t>NCP1117</t>
+  </si>
+  <si>
+    <t>LDO_1117_SOT223</t>
+  </si>
+  <si>
+    <t>NCP1117LPSTADT3GOSCT-ND</t>
+  </si>
+  <si>
+    <t>onsemi</t>
+  </si>
+  <si>
+    <t>IC REG LINEAR POS ADJ 1A SOT223</t>
+  </si>
+  <si>
+    <t>NCP1117LPSTADT3G</t>
   </si>
 </sst>
 </file>
@@ -40990,11 +41029,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N166"/>
+  <dimension ref="A1:N167"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A149" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J174" sqref="J174"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A134" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F171" sqref="F171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -46802,6 +46841,9 @@
       <c r="E166" s="2" t="s">
         <v>2510</v>
       </c>
+      <c r="F166" s="2" t="s">
+        <v>1569</v>
+      </c>
       <c r="H166" s="2" t="s">
         <v>20</v>
       </c>
@@ -46816,6 +46858,41 @@
       </c>
       <c r="L166" s="2" t="s">
         <v>2511</v>
+      </c>
+    </row>
+    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A167" s="2" t="s">
+        <v>2546</v>
+      </c>
+      <c r="B167" t="s">
+        <v>2541</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>2542</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E167" s="2" t="s">
+        <v>2545</v>
+      </c>
+      <c r="F167" s="2" t="s">
+        <v>2540</v>
+      </c>
+      <c r="H167" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I167" s="2" t="s">
+        <v>2544</v>
+      </c>
+      <c r="J167" s="2" t="s">
+        <v>2546</v>
+      </c>
+      <c r="K167" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L167" s="2" t="s">
+        <v>2543</v>
       </c>
     </row>
   </sheetData>
@@ -46831,11 +46908,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N62"/>
+  <dimension ref="A1:N63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F66" sqref="F66"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F67" sqref="F67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -48838,6 +48915,9 @@
       <c r="E60" s="2" t="s">
         <v>2524</v>
       </c>
+      <c r="F60" s="2" t="s">
+        <v>2535</v>
+      </c>
       <c r="H60" t="s">
         <v>99</v>
       </c>
@@ -48910,6 +48990,41 @@
       </c>
       <c r="J62" s="2" t="s">
         <v>2533</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
+        <v>2536</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>2536</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>2534</v>
+      </c>
+      <c r="D63" t="s">
+        <v>100</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>2539</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>2538</v>
+      </c>
+      <c r="H63" t="s">
+        <v>99</v>
+      </c>
+      <c r="I63" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="J63" s="2" t="s">
+        <v>2536</v>
+      </c>
+      <c r="K63" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L63" s="2" t="s">
+        <v>2537</v>
       </c>
     </row>
   </sheetData>

--- a/Altium/DB.xlsx
+++ b/Altium/DB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Repos\LIBS\Altium\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6F51AED-1E74-43C8-8703-232DD81B977A}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{344A2F65-4AFD-4C97-A093-1882656992AC}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="38625" windowHeight="21225" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7473" uniqueCount="2547">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7662" uniqueCount="2612">
   <si>
     <t>Part Number</t>
   </si>
@@ -7674,6 +7674,201 @@
   </si>
   <si>
     <t>NCP1117LPSTADT3G</t>
+  </si>
+  <si>
+    <t>A311D</t>
+  </si>
+  <si>
+    <t>Amlogic A311D 2.2GHz Quad core ARM Cortex-A73 and 1.8GHz dual core Cortex-A53 CPU ARM G52 MP4 GPU</t>
+  </si>
+  <si>
+    <t>JEDEC_EMMC_153-VFBGA</t>
+  </si>
+  <si>
+    <t>JEDEC_LPDDR4</t>
+  </si>
+  <si>
+    <t>GENERIC LPDDR4/LPDDR4X</t>
+  </si>
+  <si>
+    <t>GENERIC EMMC IN 153-BALL VFBGA PACKAGE</t>
+  </si>
+  <si>
+    <t>YAG3199CT-ND</t>
+  </si>
+  <si>
+    <t>RC0402FR-07604RL</t>
+  </si>
+  <si>
+    <t>RES 604 OHM 1% 1/16W 0402</t>
+  </si>
+  <si>
+    <t>604</t>
+  </si>
+  <si>
+    <t>YAG3186CT-ND</t>
+  </si>
+  <si>
+    <t>RC0402FR-07562RL</t>
+  </si>
+  <si>
+    <t>562</t>
+  </si>
+  <si>
+    <t>RES 562 OHM 1% 1/16W 0402</t>
+  </si>
+  <si>
+    <t>TPS659037</t>
+  </si>
+  <si>
+    <t>296-52057-1-ND</t>
+  </si>
+  <si>
+    <t>TPS6590379ZWSR</t>
+  </si>
+  <si>
+    <t>PMU FOR PROCESSOR</t>
+  </si>
+  <si>
+    <t>490-5915-1-ND</t>
+  </si>
+  <si>
+    <t>GRM155R60J475ME47D</t>
+  </si>
+  <si>
+    <t>CAP CER 4.7UF 6.3V X5R 0402</t>
+  </si>
+  <si>
+    <t>490-13040-1-ND</t>
+  </si>
+  <si>
+    <t>48mOhm</t>
+  </si>
+  <si>
+    <t>DFE252010F-1R0M=P2</t>
+  </si>
+  <si>
+    <t>FIXED IND 1UH 3.1A 48 MOHM SMD</t>
+  </si>
+  <si>
+    <t>STM8TL52G4U6</t>
+  </si>
+  <si>
+    <t>IC MCU 8BIT 16KB FLASH 28UFQFPN</t>
+  </si>
+  <si>
+    <t>497-STM8TL52G4U6-ND</t>
+  </si>
+  <si>
+    <t>WM19081CT-ND</t>
+  </si>
+  <si>
+    <t>5009010801</t>
+  </si>
+  <si>
+    <t>Connector SD With Shell</t>
+  </si>
+  <si>
+    <t>CONN MICRO SD CARD HINGED TYPE</t>
+  </si>
+  <si>
+    <t>SY8003</t>
+  </si>
+  <si>
+    <t>SY8003EDFC</t>
+  </si>
+  <si>
+    <t>Yes Step-down type -40℃~+85℃@(Ta) 1 Step-down 3A 2.7V~5V 1MHz DFN-8 DC-DC Converters ROHS</t>
+  </si>
+  <si>
+    <t>40mOhm</t>
+  </si>
+  <si>
+    <t>3.2A</t>
+  </si>
+  <si>
+    <t>TDK</t>
+  </si>
+  <si>
+    <t>3.2A 2.2uH ±30% 40mΩ SMD Power Inductors ROHS</t>
+  </si>
+  <si>
+    <t>LTF5022T-2R2N3R2-LC</t>
+  </si>
+  <si>
+    <t>Connector P12</t>
+  </si>
+  <si>
+    <t>WM12368CT-ND</t>
+  </si>
+  <si>
+    <t>5051101292</t>
+  </si>
+  <si>
+    <t>CONN FPC BOTTOM 12POS .5MM R/A</t>
+  </si>
+  <si>
+    <t>WM1750-ND</t>
+  </si>
+  <si>
+    <t>CONN HEADER R/A 10POS 1.25MM</t>
+  </si>
+  <si>
+    <t>0530481010</t>
+  </si>
+  <si>
+    <t>DFN50P200X65_HS-9N</t>
+  </si>
+  <si>
+    <t>IND_LTF5022</t>
+  </si>
+  <si>
+    <t>18pF</t>
+  </si>
+  <si>
+    <t>CL05C180JB5NNNC</t>
+  </si>
+  <si>
+    <t>CAP CER 18PF 50V C0G/NP0 0402</t>
+  </si>
+  <si>
+    <t>1276-1140-1-ND</t>
+  </si>
+  <si>
+    <t>644-1214-1-ND</t>
+  </si>
+  <si>
+    <t>NX2520SD-24MHZ-EXS00A-CS06352</t>
+  </si>
+  <si>
+    <t>CRYSTAL 24.0000MHZ 12PF SMD</t>
+  </si>
+  <si>
+    <t>505-ADP5080ACBZ-1-RLCT-ND</t>
+  </si>
+  <si>
+    <t>ADP5080</t>
+  </si>
+  <si>
+    <t>ADP5080ACBZ-1-RL</t>
+  </si>
+  <si>
+    <t>IC REG 9OUT BUCK/BST/LNR 72WLCSP</t>
+  </si>
+  <si>
+    <t>MAX2040x</t>
+  </si>
+  <si>
+    <t>MAX20406AFOB/VY+</t>
+  </si>
+  <si>
+    <t>Analog Devices Inc./Maxim Integrated</t>
+  </si>
+  <si>
+    <t>175-MAX20406AFOB/VY+-ND</t>
+  </si>
+  <si>
+    <t>36V 4A/5A/6A SYNC LOW IQ BUCK CO</t>
   </si>
 </sst>
 </file>
@@ -25923,10 +26118,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:P99"/>
+  <dimension ref="A1:P101"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G107" sqref="G107"/>
+    <sheetView topLeftCell="A48" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M107" sqref="M107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30616,6 +30811,94 @@
         <v>2467</v>
       </c>
     </row>
+    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A100" s="6" t="s">
+        <v>2566</v>
+      </c>
+      <c r="B100" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C100" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D100" s="6" t="s">
+        <v>531</v>
+      </c>
+      <c r="E100" s="6" t="s">
+        <v>2567</v>
+      </c>
+      <c r="F100" s="6" t="s">
+        <v>834</v>
+      </c>
+      <c r="H100" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I100" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="K100" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L100" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="M100" s="6" t="s">
+        <v>503</v>
+      </c>
+      <c r="N100" s="17" t="s">
+        <v>2566</v>
+      </c>
+      <c r="O100" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="P100" s="6" t="s">
+        <v>2565</v>
+      </c>
+    </row>
+    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A101" s="6" t="s">
+        <v>2597</v>
+      </c>
+      <c r="B101" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C101" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D101" s="6" t="s">
+        <v>531</v>
+      </c>
+      <c r="E101" s="6" t="s">
+        <v>2598</v>
+      </c>
+      <c r="F101" s="6" t="s">
+        <v>834</v>
+      </c>
+      <c r="H101" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I101" s="6" t="s">
+        <v>2596</v>
+      </c>
+      <c r="K101" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="L101" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="M101" s="6" t="s">
+        <v>1916</v>
+      </c>
+      <c r="N101" s="6" t="s">
+        <v>2597</v>
+      </c>
+      <c r="O101" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="P101" s="6" t="s">
+        <v>2599</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:P43">
     <sortCondition ref="F2:F43"/>
@@ -30632,11 +30915,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N164"/>
+  <dimension ref="A1:N166"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A126" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M167" sqref="M167"/>
+      <selection pane="bottomLeft" activeCell="E170" sqref="E170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -37364,6 +37647,9 @@
       <c r="I164" s="6" t="s">
         <v>2519</v>
       </c>
+      <c r="J164" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="K164" s="19" t="s">
         <v>55</v>
       </c>
@@ -37375,6 +37661,88 @@
       </c>
       <c r="N164" s="2" t="s">
         <v>2522</v>
+      </c>
+    </row>
+    <row r="165" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A165" s="2" t="s">
+        <v>2554</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="E165" s="2" t="s">
+        <v>2555</v>
+      </c>
+      <c r="F165" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="H165" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I165" s="6" t="s">
+        <v>2556</v>
+      </c>
+      <c r="J165" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K165" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="L165" s="2" t="s">
+        <v>2554</v>
+      </c>
+      <c r="M165" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N165" s="2" t="s">
+        <v>2553</v>
+      </c>
+    </row>
+    <row r="166" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A166" s="2" t="s">
+        <v>2558</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="E166" s="2" t="s">
+        <v>2560</v>
+      </c>
+      <c r="F166" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="H166" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I166" s="6" t="s">
+        <v>2559</v>
+      </c>
+      <c r="J166" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K166" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="L166" s="2" t="s">
+        <v>2558</v>
+      </c>
+      <c r="M166" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N166" s="2" t="s">
+        <v>2557</v>
       </c>
     </row>
   </sheetData>
@@ -37390,29 +37758,29 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O28"/>
+  <dimension ref="A1:O30"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L29" sqref="L29"/>
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="50.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="31.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="30.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="51.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="32.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="30.5703125" style="4" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="24.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="24.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="16" max="1025" width="9" style="23" customWidth="1"/>
     <col min="1026" max="16384" width="8.85546875" style="23"/>
   </cols>
@@ -38636,6 +39004,85 @@
       </c>
       <c r="O28" s="2" t="s">
         <v>2515</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>2570</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="E29" s="20" t="s">
+        <v>2571</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>2569</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>778</v>
+      </c>
+      <c r="M29" s="4" t="s">
+        <v>2570</v>
+      </c>
+      <c r="N29" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O29" s="2" t="s">
+        <v>2568</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>2586</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>2585</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>2595</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>2584</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>1285</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>2582</v>
+      </c>
+      <c r="L30" s="2" t="s">
+        <v>2583</v>
+      </c>
+      <c r="M30" s="4" t="s">
+        <v>2586</v>
       </c>
     </row>
   </sheetData>
@@ -38651,10 +39098,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M13"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -39171,6 +39618,44 @@
       </c>
       <c r="M13" s="2" t="s">
         <v>2295</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>2601</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>2602</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>2019</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>1202</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>1422</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>2601</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>2600</v>
       </c>
     </row>
   </sheetData>
@@ -41029,26 +41514,26 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N167"/>
+  <dimension ref="A1:N175"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A134" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F171" sqref="F171"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A142" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E175" sqref="E175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="27.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="50.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="99" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="33.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="47.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="30.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="27.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="29.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11" style="2" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="24.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="15" max="1025" width="9" style="23" customWidth="1"/>
@@ -46893,6 +47378,223 @@
       </c>
       <c r="L167" s="2" t="s">
         <v>2543</v>
+      </c>
+    </row>
+    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A168" s="2" t="s">
+        <v>2547</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>2547</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>2547</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E168" s="2" t="s">
+        <v>2548</v>
+      </c>
+      <c r="H168" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A169" s="2" t="s">
+        <v>2549</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>2549</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>2549</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="E169" s="2" t="s">
+        <v>2552</v>
+      </c>
+      <c r="H169" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A170" s="2" t="s">
+        <v>2550</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>2550</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>2550</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="E170" s="2" t="s">
+        <v>2551</v>
+      </c>
+      <c r="H170" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A171" s="2" t="s">
+        <v>2563</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>2561</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>2561</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E171" s="2" t="s">
+        <v>2564</v>
+      </c>
+      <c r="H171" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I171" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="J171" s="2" t="s">
+        <v>2563</v>
+      </c>
+      <c r="K171" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L171" s="2" t="s">
+        <v>2562</v>
+      </c>
+    </row>
+    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A172" s="2" t="s">
+        <v>2572</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>2572</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>2572</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E172" s="2" t="s">
+        <v>2573</v>
+      </c>
+      <c r="H172" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I172" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J172" s="2" t="s">
+        <v>2572</v>
+      </c>
+      <c r="K172" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L172" s="2" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A173" s="2" t="s">
+        <v>2580</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>2579</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>2579</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E173" s="2" t="s">
+        <v>2581</v>
+      </c>
+      <c r="F173" s="2" t="s">
+        <v>2594</v>
+      </c>
+      <c r="H173" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I173" s="2" t="s">
+        <v>2509</v>
+      </c>
+      <c r="J173" s="2" t="s">
+        <v>2580</v>
+      </c>
+    </row>
+    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A174" s="2" t="s">
+        <v>2605</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>2604</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>2604</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E174" s="2" t="s">
+        <v>2606</v>
+      </c>
+      <c r="H174" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I174" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="J174" s="2" t="s">
+        <v>2605</v>
+      </c>
+      <c r="K174" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L174" s="2" t="s">
+        <v>2603</v>
+      </c>
+    </row>
+    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A175" s="2" t="s">
+        <v>2608</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>2608</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>2607</v>
+      </c>
+      <c r="D175" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E175" s="2" t="s">
+        <v>2611</v>
+      </c>
+      <c r="H175" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I175" s="2" t="s">
+        <v>2609</v>
+      </c>
+      <c r="J175" s="2" t="s">
+        <v>2608</v>
+      </c>
+      <c r="K175" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L175" s="2" t="s">
+        <v>2610</v>
       </c>
     </row>
   </sheetData>
@@ -46908,11 +47610,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N63"/>
+  <dimension ref="A1:N66"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F67" sqref="F67"/>
+      <selection pane="bottomLeft" activeCell="J69" sqref="J69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -49025,6 +49727,102 @@
       </c>
       <c r="L63" s="2" t="s">
         <v>2537</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
+        <v>2576</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>2576</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>2577</v>
+      </c>
+      <c r="D64" t="s">
+        <v>100</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>2578</v>
+      </c>
+      <c r="H64" t="s">
+        <v>99</v>
+      </c>
+      <c r="I64" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="J64" s="2" t="s">
+        <v>2576</v>
+      </c>
+      <c r="K64" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L64" s="2" t="s">
+        <v>2575</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
+        <v>2589</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>2589</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>2587</v>
+      </c>
+      <c r="D65" t="s">
+        <v>100</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>2590</v>
+      </c>
+      <c r="H65" t="s">
+        <v>99</v>
+      </c>
+      <c r="I65" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="J65" s="2" t="s">
+        <v>2589</v>
+      </c>
+      <c r="K65" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L65" s="2" t="s">
+        <v>2588</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
+        <v>2593</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>2593</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="D66" t="s">
+        <v>100</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>2592</v>
+      </c>
+      <c r="H66" t="s">
+        <v>99</v>
+      </c>
+      <c r="I66" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="J66" s="2" t="s">
+        <v>2593</v>
+      </c>
+      <c r="K66" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L66" s="2" t="s">
+        <v>2591</v>
       </c>
     </row>
   </sheetData>

--- a/Altium/DB.xlsx
+++ b/Altium/DB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Repos\LIBS\Altium\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{344A2F65-4AFD-4C97-A093-1882656992AC}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C81E621E-7695-4427-B56C-D050373F64E3}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="38625" windowHeight="21225" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="38625" windowHeight="21225" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="C" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7662" uniqueCount="2612">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7714" uniqueCount="2635">
   <si>
     <t>Part Number</t>
   </si>
@@ -7869,6 +7869,75 @@
   </si>
   <si>
     <t>36V 4A/5A/6A SYNC LOW IQ BUCK CO</t>
+  </si>
+  <si>
+    <t>2457-XGL3515-561MEC-ND</t>
+  </si>
+  <si>
+    <t>10.9 A</t>
+  </si>
+  <si>
+    <t>560nH</t>
+  </si>
+  <si>
+    <t>XGL3515-561MEC</t>
+  </si>
+  <si>
+    <t>FIXED INDUCTOR 0.56UH SMD</t>
+  </si>
+  <si>
+    <t>11.8mOhm</t>
+  </si>
+  <si>
+    <t>490-DFE252012PD-R68M=P2CT-ND</t>
+  </si>
+  <si>
+    <t>DFE252012PD-R68M=P2</t>
+  </si>
+  <si>
+    <t>FIXED IND 680NH 3.5A 37MOHM SMD</t>
+  </si>
+  <si>
+    <t>3.5A</t>
+  </si>
+  <si>
+    <t>680nH</t>
+  </si>
+  <si>
+    <t>37mOhm</t>
+  </si>
+  <si>
+    <t>FIXED IND 1.5UH 2.7A 58MOHM SMD</t>
+  </si>
+  <si>
+    <t>2.7A</t>
+  </si>
+  <si>
+    <t>490-13054-1-ND</t>
+  </si>
+  <si>
+    <t>DFE252012F-1R5M=P2</t>
+  </si>
+  <si>
+    <t>1.5uH</t>
+  </si>
+  <si>
+    <t>58mOhm</t>
+  </si>
+  <si>
+    <t>490-13055-1-ND</t>
+  </si>
+  <si>
+    <t>DFE252012F-2R2M=P2</t>
+  </si>
+  <si>
+    <t>FIXED IND 2.2UH 2.3A 82MOHM SMD</t>
+  </si>
+  <si>
+    <t>82mOhm</t>
+  </si>
+  <si>
+    <t>2.3A</t>
   </si>
 </sst>
 </file>
@@ -37758,10 +37827,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O30"/>
+  <dimension ref="A1:O34"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K39" sqref="K39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -37780,7 +37849,7 @@
     <col min="12" max="12" width="8" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="30.5703125" style="4" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="24.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="31.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="16" max="1025" width="9" style="23" customWidth="1"/>
     <col min="1026" max="16384" width="8.85546875" style="23"/>
   </cols>
@@ -39083,6 +39152,170 @@
       </c>
       <c r="M30" s="4" t="s">
         <v>2586</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>2615</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>2616</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>776</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>2614</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>2617</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>2613</v>
+      </c>
+      <c r="M31" s="2" t="s">
+        <v>2615</v>
+      </c>
+      <c r="N31" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O31" s="2" t="s">
+        <v>2612</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>2619</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>2620</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>2622</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>2623</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>2621</v>
+      </c>
+      <c r="M32" s="4" t="s">
+        <v>2619</v>
+      </c>
+      <c r="N32" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O32" s="2" t="s">
+        <v>2618</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>2627</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>2624</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>2628</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>2629</v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>2625</v>
+      </c>
+      <c r="M33" s="4" t="s">
+        <v>2627</v>
+      </c>
+      <c r="N33" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O33" s="2" t="s">
+        <v>2626</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>2631</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>2632</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>1285</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>2633</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>2634</v>
+      </c>
+      <c r="M34" s="4" t="s">
+        <v>2631</v>
+      </c>
+      <c r="N34" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O34" s="2" t="s">
+        <v>2630</v>
       </c>
     </row>
   </sheetData>
@@ -41516,9 +41749,9 @@
   </sheetPr>
   <dimension ref="A1:N175"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A142" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E175" sqref="E175"/>
+      <selection pane="bottomLeft" activeCell="E178" sqref="E178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Altium/DB.xlsx
+++ b/Altium/DB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Repos\LIBS\Altium\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C81E621E-7695-4427-B56C-D050373F64E3}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8E667D2-37DE-4EF4-9E7D-1757B511942D}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="38625" windowHeight="21225" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="38625" windowHeight="21225" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="C" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7714" uniqueCount="2635">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7747" uniqueCount="2644">
   <si>
     <t>Part Number</t>
   </si>
@@ -7938,6 +7938,33 @@
   </si>
   <si>
     <t>2.3A</t>
+  </si>
+  <si>
+    <t>WM10673-ND</t>
+  </si>
+  <si>
+    <t>WM1790-ND</t>
+  </si>
+  <si>
+    <t>0430450412</t>
+  </si>
+  <si>
+    <t>CONN HEADER VERT 4POS 3MM</t>
+  </si>
+  <si>
+    <t>CONN HEADER VERT 6POS 3MM</t>
+  </si>
+  <si>
+    <t>0430450627</t>
+  </si>
+  <si>
+    <t>RES SMD 75 OHM 1% 0.4W 0805</t>
+  </si>
+  <si>
+    <t>ESR10EZPF75R0</t>
+  </si>
+  <si>
+    <t>RHM75.0AECT-ND</t>
   </si>
 </sst>
 </file>
@@ -30984,11 +31011,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N166"/>
+  <dimension ref="A1:N167"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A126" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E170" sqref="E170"/>
+      <selection pane="bottomLeft" activeCell="L172" sqref="L172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -37814,6 +37841,47 @@
         <v>2557</v>
       </c>
     </row>
+    <row r="167" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A167" s="2" t="s">
+        <v>2642</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="E167" s="2" t="s">
+        <v>2641</v>
+      </c>
+      <c r="F167" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="H167" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I167" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="J167" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K167" s="2" t="s">
+        <v>2054</v>
+      </c>
+      <c r="L167" s="2" t="s">
+        <v>2642</v>
+      </c>
+      <c r="M167" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N167" s="2" t="s">
+        <v>2643</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -37829,7 +37897,7 @@
   </sheetPr>
   <dimension ref="A1:O34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="K39" sqref="K39"/>
     </sheetView>
   </sheetViews>
@@ -47843,11 +47911,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N66"/>
+  <dimension ref="A1:N68"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J69" sqref="J69"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A73" sqref="A73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -50056,6 +50124,70 @@
       </c>
       <c r="L66" s="2" t="s">
         <v>2591</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
+        <v>2637</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>2637</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>1164</v>
+      </c>
+      <c r="D67" t="s">
+        <v>100</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>2638</v>
+      </c>
+      <c r="H67" t="s">
+        <v>99</v>
+      </c>
+      <c r="I67" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="J67" s="2" t="s">
+        <v>2637</v>
+      </c>
+      <c r="K67" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L67" s="2" t="s">
+        <v>2636</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
+        <v>2640</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>2640</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>773</v>
+      </c>
+      <c r="D68" t="s">
+        <v>100</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>2639</v>
+      </c>
+      <c r="H68" t="s">
+        <v>99</v>
+      </c>
+      <c r="I68" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="J68" s="2" t="s">
+        <v>2640</v>
+      </c>
+      <c r="K68" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L68" s="2" t="s">
+        <v>2635</v>
       </c>
     </row>
   </sheetData>

--- a/Altium/DB.xlsx
+++ b/Altium/DB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Repos\LIBS\Altium\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8E667D2-37DE-4EF4-9E7D-1757B511942D}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{619340AE-9D6E-46E4-B9F4-704A9FE69198}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="38625" windowHeight="21225" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="38625" windowHeight="21225" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="C" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7747" uniqueCount="2644">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7872" uniqueCount="2686">
   <si>
     <t>Part Number</t>
   </si>
@@ -7965,6 +7965,132 @@
   </si>
   <si>
     <t>RHM75.0AECT-ND</t>
+  </si>
+  <si>
+    <t>240-2502-1-ND</t>
+  </si>
+  <si>
+    <t>CM2021Y330R-10</t>
+  </si>
+  <si>
+    <t>CMC 15A 2LN 33 OHM SMD</t>
+  </si>
+  <si>
+    <t>33 Ohms @ 100 MHz</t>
+  </si>
+  <si>
+    <t>0.75mOhm</t>
+  </si>
+  <si>
+    <t>15A</t>
+  </si>
+  <si>
+    <t>IXTT16P60P-ND</t>
+  </si>
+  <si>
+    <t>IXTT16P60P</t>
+  </si>
+  <si>
+    <t>MOSFET P-CH 600V 16A TO268</t>
+  </si>
+  <si>
+    <t>IXYS</t>
+  </si>
+  <si>
+    <t>BZT52C9V1-FDICT-ND</t>
+  </si>
+  <si>
+    <t>BZT52C9V1-7-F</t>
+  </si>
+  <si>
+    <t>DIODE ZENER 9.1V 500MW SOD123</t>
+  </si>
+  <si>
+    <t>3372-1N4148WTR-ND</t>
+  </si>
+  <si>
+    <t>1N4148W</t>
+  </si>
+  <si>
+    <t>SWITCHING SOD-123, 100V</t>
+  </si>
+  <si>
+    <t>MDD</t>
+  </si>
+  <si>
+    <t>1276-3078-1-ND</t>
+  </si>
+  <si>
+    <t>CAP CER 10000PF 630V X7R 1206</t>
+  </si>
+  <si>
+    <t>CL31B103KHFNNNE</t>
+  </si>
+  <si>
+    <t>630V</t>
+  </si>
+  <si>
+    <t>2571-RM10J472CTTR-ND</t>
+  </si>
+  <si>
+    <t>RES SMD 4.7K OHM 5% 1/8W 0805</t>
+  </si>
+  <si>
+    <t>RM10J472CT</t>
+  </si>
+  <si>
+    <t>Cal-Chip Electronics, Inc.</t>
+  </si>
+  <si>
+    <t>311-62.0KFRCT-ND</t>
+  </si>
+  <si>
+    <t>RES 62K OHM 1% 1/4W 1206</t>
+  </si>
+  <si>
+    <t>RC1206FR-0762KL</t>
+  </si>
+  <si>
+    <t>MMBT3906-FDICT-ND</t>
+  </si>
+  <si>
+    <t>MMBT3906-7-F</t>
+  </si>
+  <si>
+    <t>TRANS PNP 40V 0.2A SOT23-3</t>
+  </si>
+  <si>
+    <t>WM7664CT-ND</t>
+  </si>
+  <si>
+    <t>0874370443</t>
+  </si>
+  <si>
+    <t>CONN HEADER SMD 4POS 1.5MM</t>
+  </si>
+  <si>
+    <t>Transistor MOSFET-N (4DG3S)</t>
+  </si>
+  <si>
+    <t>800-3749-1-ND</t>
+  </si>
+  <si>
+    <t>AON7262E</t>
+  </si>
+  <si>
+    <t>MOSFET N-CH 60V 21A/34A 8DFN</t>
+  </si>
+  <si>
+    <t>NCP5901BMNTBGOSCT-ND</t>
+  </si>
+  <si>
+    <t>NCP5901B</t>
+  </si>
+  <si>
+    <t>NCP5901BMNTBG</t>
+  </si>
+  <si>
+    <t>IC GATE DRVR HALF-BRIDGE 8DFN</t>
   </si>
 </sst>
 </file>
@@ -8204,7 +8330,7 @@
     <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -8282,6 +8408,7 @@
     <xf numFmtId="49" fontId="14" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Нейтральный" xfId="2" builtinId="28"/>
@@ -26214,10 +26341,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:P101"/>
+  <dimension ref="A1:P102"/>
   <sheetViews>
     <sheetView topLeftCell="A48" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M107" sqref="M107"/>
+      <selection activeCell="I106" sqref="I106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30995,6 +31122,53 @@
         <v>2599</v>
       </c>
     </row>
+    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A102" s="6" t="s">
+        <v>2663</v>
+      </c>
+      <c r="B102" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C102" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D102" s="6" t="s">
+        <v>531</v>
+      </c>
+      <c r="E102" s="6" t="s">
+        <v>2662</v>
+      </c>
+      <c r="F102" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="H102" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I102" s="6" t="s">
+        <v>644</v>
+      </c>
+      <c r="J102" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="K102" s="6" t="s">
+        <v>2664</v>
+      </c>
+      <c r="L102" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="M102" s="6" t="s">
+        <v>1916</v>
+      </c>
+      <c r="N102" s="17" t="s">
+        <v>2663</v>
+      </c>
+      <c r="O102" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="P102" s="6" t="s">
+        <v>2661</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:P43">
     <sortCondition ref="F2:F43"/>
@@ -31011,11 +31185,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N167"/>
+  <dimension ref="A1:N169"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A126" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L172" sqref="L172"/>
+      <selection pane="bottomLeft" activeCell="H173" sqref="H173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -37882,6 +38056,85 @@
         <v>2643</v>
       </c>
     </row>
+    <row r="168" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A168" s="2" t="s">
+        <v>2667</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="E168" s="2" t="s">
+        <v>2666</v>
+      </c>
+      <c r="F168" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="H168" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I168" s="6" t="s">
+        <v>659</v>
+      </c>
+      <c r="J168" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="K168" s="2" t="s">
+        <v>2668</v>
+      </c>
+      <c r="L168" s="2" t="s">
+        <v>2667</v>
+      </c>
+      <c r="M168" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N168" s="2" t="s">
+        <v>2665</v>
+      </c>
+    </row>
+    <row r="169" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A169" s="2" t="s">
+        <v>2671</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="E169" s="2" t="s">
+        <v>2670</v>
+      </c>
+      <c r="H169" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I169" s="6" t="s">
+        <v>1186</v>
+      </c>
+      <c r="J169" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K169" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="L169" s="2" t="s">
+        <v>2671</v>
+      </c>
+      <c r="M169" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N169" s="2" t="s">
+        <v>2669</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -37895,10 +38148,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O34"/>
+  <dimension ref="A1:O35"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K39" sqref="K39"/>
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -38240,7 +38493,7 @@
       <c r="B8" s="2" t="s">
         <v>501</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="33" t="s">
         <v>505</v>
       </c>
       <c r="D8" s="2" t="s">
@@ -39384,6 +39637,47 @@
       </c>
       <c r="O34" s="2" t="s">
         <v>2630</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>2645</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35" s="33" t="s">
+        <v>505</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>2646</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>781</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>2647</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>2648</v>
+      </c>
+      <c r="L35" s="2" t="s">
+        <v>2649</v>
+      </c>
+      <c r="M35" s="4" t="s">
+        <v>2645</v>
+      </c>
+      <c r="N35" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O35" s="2" t="s">
+        <v>2644</v>
       </c>
     </row>
   </sheetData>
@@ -39972,10 +40266,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L53"/>
+  <dimension ref="A1:L58"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E61" sqref="E61"/>
+    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E58" sqref="E58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -41802,6 +42096,172 @@
         <v>2493</v>
       </c>
     </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>2651</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>2651</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>1372</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>2652</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>2653</v>
+      </c>
+      <c r="J54" s="2" t="s">
+        <v>2651</v>
+      </c>
+      <c r="K54" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L54" s="2" t="s">
+        <v>2650</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>2655</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>2655</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>2656</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="J55" s="2" t="s">
+        <v>2655</v>
+      </c>
+      <c r="K55" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L55" s="2" t="s">
+        <v>2654</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>2658</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>2658</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>2659</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I56" s="2" t="s">
+        <v>2660</v>
+      </c>
+      <c r="J56" s="2" t="s">
+        <v>2658</v>
+      </c>
+      <c r="K56" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L56" s="2" t="s">
+        <v>2657</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>2673</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>2673</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>1178</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>2674</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I57" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="J57" s="2" t="s">
+        <v>2673</v>
+      </c>
+      <c r="K57" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L57" s="2" t="s">
+        <v>2672</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>2680</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>2680</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>2678</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>2681</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I58" s="2" t="s">
+        <v>2479</v>
+      </c>
+      <c r="J58" s="2" t="s">
+        <v>2680</v>
+      </c>
+      <c r="K58" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L58" s="2" t="s">
+        <v>2679</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -41815,11 +42275,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N175"/>
+  <dimension ref="A1:N176"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A142" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E178" sqref="E178"/>
+      <selection pane="bottomLeft" activeCell="D187" sqref="D187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -47898,6 +48358,38 @@
         <v>2610</v>
       </c>
     </row>
+    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A176" s="2" t="s">
+        <v>2684</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>2683</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>2683</v>
+      </c>
+      <c r="D176" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E176" s="2" t="s">
+        <v>2685</v>
+      </c>
+      <c r="H176" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I176" s="2" t="s">
+        <v>2544</v>
+      </c>
+      <c r="J176" s="2" t="s">
+        <v>2684</v>
+      </c>
+      <c r="K176" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L176" s="2" t="s">
+        <v>2682</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -47911,11 +48403,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N68"/>
+  <dimension ref="A1:N69"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A73" sqref="A73"/>
+      <selection pane="bottomLeft" activeCell="E75" sqref="E75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -50188,6 +50680,38 @@
       </c>
       <c r="L68" s="2" t="s">
         <v>2635</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
+        <v>2676</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>2676</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>1164</v>
+      </c>
+      <c r="D69" t="s">
+        <v>100</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>2677</v>
+      </c>
+      <c r="H69" t="s">
+        <v>99</v>
+      </c>
+      <c r="I69" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="J69" s="2" t="s">
+        <v>2676</v>
+      </c>
+      <c r="K69" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L69" s="2" t="s">
+        <v>2675</v>
       </c>
     </row>
   </sheetData>

--- a/Altium/DB.xlsx
+++ b/Altium/DB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git\Titanius\Libs\Altium\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Repos\LIBS\Altium\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2028B396-07C3-4FF2-A92A-387B0BE03825}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE2BD202-186F-48EE-9C99-4EEF2C2F26BD}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21820" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="38625" windowHeight="21825" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="C" sheetId="2" r:id="rId1"/>
@@ -23,17 +23,8 @@
     <sheet name="Other" sheetId="14" r:id="rId8"/>
     <sheet name="Mech" sheetId="11" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="179021"/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
     </ext>
@@ -42,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7883" uniqueCount="2694">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7893" uniqueCount="2698">
   <si>
     <t>Part Number</t>
   </si>
@@ -8124,6 +8115,18 @@
   </si>
   <si>
     <t>L-SMT-350x320x150-180</t>
+  </si>
+  <si>
+    <t>Connector P80</t>
+  </si>
+  <si>
+    <t>CONN RCPT 80POS SMD GOLD</t>
+  </si>
+  <si>
+    <t>H11120CT-ND</t>
+  </si>
+  <si>
+    <t>DF17(4.0)-80DS-0.5V(57)</t>
   </si>
 </sst>
 </file>
@@ -26376,29 +26379,29 @@
       <selection activeCell="I106" sqref="I106"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.54296875" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.81640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.453125" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.26953125" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="56.54296875" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.54296875" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.7265625" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="56.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.7109375" style="5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.1796875" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.7265625" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.453125" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.81640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="31.453125" style="5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="30.26953125" style="16" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.81640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="31.1796875" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="31.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="30.28515625" style="16" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="31.140625" style="5" bestFit="1" customWidth="1"/>
     <col min="17" max="1026" width="9" style="20" customWidth="1"/>
-    <col min="1027" max="16384" width="8.81640625" style="20"/>
+    <col min="1027" max="16384" width="8.85546875" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="28" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" s="28" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -26448,7 +26451,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="10" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" s="10" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>653</v>
       </c>
@@ -26498,7 +26501,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>722</v>
       </c>
@@ -26548,7 +26551,7 @@
         <v>1657</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>40</v>
       </c>
@@ -26598,7 +26601,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>29</v>
       </c>
@@ -26648,7 +26651,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>36</v>
       </c>
@@ -26698,7 +26701,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>690</v>
       </c>
@@ -26748,7 +26751,7 @@
         <v>1656</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>881</v>
       </c>
@@ -26798,7 +26801,7 @@
         <v>2319</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>810</v>
       </c>
@@ -26848,7 +26851,7 @@
         <v>1655</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>687</v>
       </c>
@@ -26898,7 +26901,7 @@
         <v>1654</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>694</v>
       </c>
@@ -26948,7 +26951,7 @@
         <v>1583</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>607</v>
       </c>
@@ -26998,7 +27001,7 @@
         <v>1653</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>642</v>
       </c>
@@ -27048,7 +27051,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>425</v>
       </c>
@@ -27095,7 +27098,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>791</v>
       </c>
@@ -27142,7 +27145,7 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>337</v>
       </c>
@@ -27189,7 +27192,7 @@
         <v>1649</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>709</v>
       </c>
@@ -27236,7 +27239,7 @@
         <v>1648</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>217</v>
       </c>
@@ -27283,7 +27286,7 @@
         <v>1647</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>639</v>
       </c>
@@ -27330,7 +27333,7 @@
         <v>1646</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>398</v>
       </c>
@@ -27377,7 +27380,7 @@
         <v>1582</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>622</v>
       </c>
@@ -27424,7 +27427,7 @@
         <v>1645</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>420</v>
       </c>
@@ -27471,7 +27474,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>358</v>
       </c>
@@ -27518,7 +27521,7 @@
         <v>1644</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>315</v>
       </c>
@@ -27565,7 +27568,7 @@
         <v>1643</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>336</v>
       </c>
@@ -27612,7 +27615,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>330</v>
       </c>
@@ -27659,7 +27662,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>210</v>
       </c>
@@ -27706,7 +27709,7 @@
         <v>1640</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>215</v>
       </c>
@@ -27753,7 +27756,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>212</v>
       </c>
@@ -27800,7 +27803,7 @@
         <v>1638</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>209</v>
       </c>
@@ -27847,7 +27850,7 @@
         <v>1637</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>213</v>
       </c>
@@ -27894,7 +27897,7 @@
         <v>1636</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>211</v>
       </c>
@@ -27941,7 +27944,7 @@
         <v>1635</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>214</v>
       </c>
@@ -27988,7 +27991,7 @@
         <v>1634</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>360</v>
       </c>
@@ -28035,7 +28038,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>208</v>
       </c>
@@ -28082,7 +28085,7 @@
         <v>1633</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>679</v>
       </c>
@@ -28129,7 +28132,7 @@
         <v>1632</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>710</v>
       </c>
@@ -28176,7 +28179,7 @@
         <v>1631</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>206</v>
       </c>
@@ -28223,7 +28226,7 @@
         <v>1630</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>218</v>
       </c>
@@ -28270,7 +28273,7 @@
         <v>1629</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>207</v>
       </c>
@@ -28317,7 +28320,7 @@
         <v>1628</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="16" t="s">
         <v>769</v>
       </c>
@@ -28364,7 +28367,7 @@
         <v>1627</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>216</v>
       </c>
@@ -28411,7 +28414,7 @@
         <v>1626</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>191</v>
       </c>
@@ -28458,7 +28461,7 @@
         <v>1625</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>887</v>
       </c>
@@ -28505,7 +28508,7 @@
         <v>1624</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>900</v>
       </c>
@@ -28555,7 +28558,7 @@
         <v>1623</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>903</v>
       </c>
@@ -28605,7 +28608,7 @@
         <v>1622</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>952</v>
       </c>
@@ -28652,7 +28655,7 @@
         <v>1621</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>992</v>
       </c>
@@ -28699,7 +28702,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" s="16" t="s">
         <v>1025</v>
       </c>
@@ -28746,7 +28749,7 @@
         <v>1592</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
         <v>1029</v>
       </c>
@@ -28793,7 +28796,7 @@
         <v>1620</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>1033</v>
       </c>
@@ -28840,7 +28843,7 @@
         <v>1619</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
         <v>1038</v>
       </c>
@@ -28887,7 +28890,7 @@
         <v>1618</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
         <v>1106</v>
       </c>
@@ -28931,7 +28934,7 @@
         <v>1617</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
         <v>1127</v>
       </c>
@@ -28978,7 +28981,7 @@
         <v>1616</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
         <v>1192</v>
       </c>
@@ -29025,7 +29028,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" s="16" t="s">
         <v>1305</v>
       </c>
@@ -29072,7 +29075,7 @@
         <v>1615</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
         <v>1309</v>
       </c>
@@ -29119,7 +29122,7 @@
         <v>1614</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
         <v>1323</v>
       </c>
@@ -29166,7 +29169,7 @@
         <v>1586</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
         <v>1363</v>
       </c>
@@ -29213,7 +29216,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
         <v>1365</v>
       </c>
@@ -29260,7 +29263,7 @@
         <v>1613</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
         <v>1367</v>
       </c>
@@ -29307,7 +29310,7 @@
         <v>1589</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62" s="16" t="s">
         <v>1381</v>
       </c>
@@ -29354,7 +29357,7 @@
         <v>1612</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
         <v>1385</v>
       </c>
@@ -29401,7 +29404,7 @@
         <v>1611</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
         <v>1401</v>
       </c>
@@ -29448,7 +29451,7 @@
         <v>1610</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65" s="16" t="s">
         <v>1414</v>
       </c>
@@ -29495,7 +29498,7 @@
         <v>1609</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
         <v>1416</v>
       </c>
@@ -29542,7 +29545,7 @@
         <v>1608</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
         <v>1432</v>
       </c>
@@ -29586,7 +29589,7 @@
         <v>1607</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
         <v>1437</v>
       </c>
@@ -29633,7 +29636,7 @@
         <v>1606</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
         <v>1440</v>
       </c>
@@ -29680,7 +29683,7 @@
         <v>1596</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A70" s="16" t="s">
         <v>1442</v>
       </c>
@@ -29727,7 +29730,7 @@
         <v>1597</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A71" s="16" t="s">
         <v>1443</v>
       </c>
@@ -29774,7 +29777,7 @@
         <v>1595</v>
       </c>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A72" s="16" t="s">
         <v>1444</v>
       </c>
@@ -29821,7 +29824,7 @@
         <v>1598</v>
       </c>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A73" s="16" t="s">
         <v>1445</v>
       </c>
@@ -29868,7 +29871,7 @@
         <v>1599</v>
       </c>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A74" s="16" t="s">
         <v>1446</v>
       </c>
@@ -29915,7 +29918,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A75" s="16" t="s">
         <v>1447</v>
       </c>
@@ -29962,7 +29965,7 @@
         <v>1601</v>
       </c>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A76" s="16" t="s">
         <v>1448</v>
       </c>
@@ -30009,7 +30012,7 @@
         <v>1602</v>
       </c>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
         <v>1458</v>
       </c>
@@ -30056,7 +30059,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
         <v>1461</v>
       </c>
@@ -30097,7 +30100,7 @@
         <v>1659</v>
       </c>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
         <v>1464</v>
       </c>
@@ -30138,7 +30141,7 @@
         <v>1658</v>
       </c>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A80" s="16" t="s">
         <v>1468</v>
       </c>
@@ -30179,7 +30182,7 @@
         <v>1660</v>
       </c>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A81" s="16" t="s">
         <v>1512</v>
       </c>
@@ -30226,7 +30229,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
         <v>1515</v>
       </c>
@@ -30273,7 +30276,7 @@
         <v>1605</v>
       </c>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
         <v>1579</v>
       </c>
@@ -30320,7 +30323,7 @@
         <v>1578</v>
       </c>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>1581</v>
       </c>
@@ -30367,7 +30370,7 @@
         <v>1580</v>
       </c>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>1585</v>
       </c>
@@ -30414,7 +30417,7 @@
         <v>1584</v>
       </c>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
         <v>1588</v>
       </c>
@@ -30461,7 +30464,7 @@
         <v>1587</v>
       </c>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
         <v>1590</v>
       </c>
@@ -30508,7 +30511,7 @@
         <v>1591</v>
       </c>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A88" s="5" t="s">
         <v>1594</v>
       </c>
@@ -30555,7 +30558,7 @@
         <v>1593</v>
       </c>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
         <v>1879</v>
       </c>
@@ -30602,7 +30605,7 @@
         <v>1878</v>
       </c>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A90" s="5" t="s">
         <v>1883</v>
       </c>
@@ -30649,7 +30652,7 @@
         <v>1882</v>
       </c>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
         <v>1913</v>
       </c>
@@ -30693,7 +30696,7 @@
         <v>1911</v>
       </c>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
         <v>1917</v>
       </c>
@@ -30740,7 +30743,7 @@
         <v>1914</v>
       </c>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
         <v>1919</v>
       </c>
@@ -30787,7 +30790,7 @@
         <v>1918</v>
       </c>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A94" s="5" t="s">
         <v>1925</v>
       </c>
@@ -30834,7 +30837,7 @@
         <v>1923</v>
       </c>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
         <v>1945</v>
       </c>
@@ -30881,7 +30884,7 @@
         <v>1942</v>
       </c>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A96" s="5" t="s">
         <v>1948</v>
       </c>
@@ -30928,7 +30931,7 @@
         <v>1946</v>
       </c>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A97" s="5" t="s">
         <v>2116</v>
       </c>
@@ -30969,7 +30972,7 @@
         <v>2113</v>
       </c>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
         <v>2236</v>
       </c>
@@ -31016,7 +31019,7 @@
         <v>2235</v>
       </c>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
         <v>2468</v>
       </c>
@@ -31063,7 +31066,7 @@
         <v>2467</v>
       </c>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A100" s="5" t="s">
         <v>2566</v>
       </c>
@@ -31107,7 +31110,7 @@
         <v>2565</v>
       </c>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A101" s="5" t="s">
         <v>2597</v>
       </c>
@@ -31151,7 +31154,7 @@
         <v>2599</v>
       </c>
     </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A102" s="5" t="s">
         <v>2663</v>
       </c>
@@ -31199,7 +31202,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P43">
+  <sortState ref="A2:P43">
     <sortCondition ref="F2:F43"/>
   </sortState>
   <printOptions gridLines="1"/>
@@ -31221,27 +31224,27 @@
       <selection pane="bottomLeft" activeCell="H173" sqref="H173"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.26953125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.7265625" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.1796875" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="32.7265625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="30.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="32.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="30.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="26.26953125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="26.28515625" bestFit="1" customWidth="1"/>
     <col min="15" max="1025" width="9" style="20" customWidth="1"/>
-    <col min="1026" max="16384" width="8.81640625" style="20"/>
+    <col min="1026" max="16384" width="8.85546875" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="10" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" s="10" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -31285,7 +31288,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>54</v>
       </c>
@@ -31326,7 +31329,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>126</v>
       </c>
@@ -31367,7 +31370,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>130</v>
       </c>
@@ -31408,7 +31411,7 @@
         <v>1664</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>139</v>
       </c>
@@ -31449,7 +31452,7 @@
         <v>1665</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>140</v>
       </c>
@@ -31490,7 +31493,7 @@
         <v>1666</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>145</v>
       </c>
@@ -31531,7 +31534,7 @@
         <v>1667</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>147</v>
       </c>
@@ -31572,7 +31575,7 @@
         <v>1668</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>149</v>
       </c>
@@ -31613,7 +31616,7 @@
         <v>1669</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>151</v>
       </c>
@@ -31654,7 +31657,7 @@
         <v>1670</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>153</v>
       </c>
@@ -31695,7 +31698,7 @@
         <v>1671</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>155</v>
       </c>
@@ -31736,7 +31739,7 @@
         <v>1672</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>157</v>
       </c>
@@ -31777,7 +31780,7 @@
         <v>1673</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>159</v>
       </c>
@@ -31818,7 +31821,7 @@
         <v>1674</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>161</v>
       </c>
@@ -31859,7 +31862,7 @@
         <v>1675</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>163</v>
       </c>
@@ -31900,7 +31903,7 @@
         <v>1676</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>165</v>
       </c>
@@ -31941,7 +31944,7 @@
         <v>1677</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>167</v>
       </c>
@@ -31982,7 +31985,7 @@
         <v>1678</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>169</v>
       </c>
@@ -32023,7 +32026,7 @@
         <v>1679</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>171</v>
       </c>
@@ -32064,7 +32067,7 @@
         <v>1680</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>181</v>
       </c>
@@ -32105,7 +32108,7 @@
         <v>1681</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>186</v>
       </c>
@@ -32146,7 +32149,7 @@
         <v>1682</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>303</v>
       </c>
@@ -32187,7 +32190,7 @@
         <v>1683</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>306</v>
       </c>
@@ -32228,7 +32231,7 @@
         <v>1684</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>312</v>
       </c>
@@ -32269,7 +32272,7 @@
         <v>1685</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>320</v>
       </c>
@@ -32310,7 +32313,7 @@
         <v>1686</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>323</v>
       </c>
@@ -32351,7 +32354,7 @@
         <v>1687</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>327</v>
       </c>
@@ -32392,7 +32395,7 @@
         <v>1688</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>340</v>
       </c>
@@ -32433,7 +32436,7 @@
         <v>1689</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>355</v>
       </c>
@@ -32474,7 +32477,7 @@
         <v>1690</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>371</v>
       </c>
@@ -32515,7 +32518,7 @@
         <v>1691</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>370</v>
       </c>
@@ -32556,7 +32559,7 @@
         <v>1692</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>368</v>
       </c>
@@ -32597,7 +32600,7 @@
         <v>1693</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>365</v>
       </c>
@@ -32638,7 +32641,7 @@
         <v>1694</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>387</v>
       </c>
@@ -32679,7 +32682,7 @@
         <v>1695</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>392</v>
       </c>
@@ -32720,7 +32723,7 @@
         <v>1696</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>397</v>
       </c>
@@ -32761,7 +32764,7 @@
         <v>1697</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>407</v>
       </c>
@@ -32802,7 +32805,7 @@
         <v>1698</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>446</v>
       </c>
@@ -32843,7 +32846,7 @@
         <v>1699</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>451</v>
       </c>
@@ -32884,7 +32887,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>609</v>
       </c>
@@ -32925,7 +32928,7 @@
         <v>1701</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>613</v>
       </c>
@@ -32966,7 +32969,7 @@
         <v>1702</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>620</v>
       </c>
@@ -33007,7 +33010,7 @@
         <v>1703</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>54</v>
       </c>
@@ -33045,7 +33048,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>631</v>
       </c>
@@ -33086,7 +33089,7 @@
         <v>1704</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>637</v>
       </c>
@@ -33127,7 +33130,7 @@
         <v>1705</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>649</v>
       </c>
@@ -33168,7 +33171,7 @@
         <v>1706</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>655</v>
       </c>
@@ -33209,7 +33212,7 @@
         <v>1707</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>658</v>
       </c>
@@ -33250,7 +33253,7 @@
         <v>1708</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>663</v>
       </c>
@@ -33291,7 +33294,7 @@
         <v>1709</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>666</v>
       </c>
@@ -33332,7 +33335,7 @@
         <v>1710</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>668</v>
       </c>
@@ -33373,7 +33376,7 @@
         <v>1711</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>673</v>
       </c>
@@ -33414,7 +33417,7 @@
         <v>1712</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>676</v>
       </c>
@@ -33455,7 +33458,7 @@
         <v>1713</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>693</v>
       </c>
@@ -33496,7 +33499,7 @@
         <v>1714</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>696</v>
       </c>
@@ -33537,7 +33540,7 @@
         <v>1715</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>701</v>
       </c>
@@ -33578,7 +33581,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>702</v>
       </c>
@@ -33619,7 +33622,7 @@
         <v>1717</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>706</v>
       </c>
@@ -33660,7 +33663,7 @@
         <v>1718</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>718</v>
       </c>
@@ -33701,7 +33704,7 @@
         <v>1719</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>750</v>
       </c>
@@ -33742,7 +33745,7 @@
         <v>1720</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>613</v>
       </c>
@@ -33783,7 +33786,7 @@
         <v>1702</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>762</v>
       </c>
@@ -33824,7 +33827,7 @@
         <v>1721</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>397</v>
       </c>
@@ -33865,7 +33868,7 @@
         <v>1697</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>787</v>
       </c>
@@ -33906,7 +33909,7 @@
         <v>1722</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>807</v>
       </c>
@@ -33947,7 +33950,7 @@
         <v>1723</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>813</v>
       </c>
@@ -33988,7 +33991,7 @@
         <v>1724</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>889</v>
       </c>
@@ -34029,7 +34032,7 @@
         <v>1725</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>892</v>
       </c>
@@ -34070,7 +34073,7 @@
         <v>1726</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>894</v>
       </c>
@@ -34111,7 +34114,7 @@
         <v>1727</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>897</v>
       </c>
@@ -34152,7 +34155,7 @@
         <v>1728</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>906</v>
       </c>
@@ -34193,7 +34196,7 @@
         <v>1729</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>907</v>
       </c>
@@ -34234,7 +34237,7 @@
         <v>1730</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>910</v>
       </c>
@@ -34275,7 +34278,7 @@
         <v>1731</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>914</v>
       </c>
@@ -34316,7 +34319,7 @@
         <v>1732</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>917</v>
       </c>
@@ -34357,7 +34360,7 @@
         <v>1733</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>978</v>
       </c>
@@ -34398,7 +34401,7 @@
         <v>1734</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>981</v>
       </c>
@@ -34439,7 +34442,7 @@
         <v>1735</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>1004</v>
       </c>
@@ -34480,7 +34483,7 @@
         <v>1736</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>1007</v>
       </c>
@@ -34521,7 +34524,7 @@
         <v>1737</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>1010</v>
       </c>
@@ -34562,7 +34565,7 @@
         <v>1738</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>1031</v>
       </c>
@@ -34603,7 +34606,7 @@
         <v>1739</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>1040</v>
       </c>
@@ -34644,7 +34647,7 @@
         <v>1740</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>1043</v>
       </c>
@@ -34685,7 +34688,7 @@
         <v>1741</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>1076</v>
       </c>
@@ -34726,7 +34729,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>1079</v>
       </c>
@@ -34767,7 +34770,7 @@
         <v>1743</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>1082</v>
       </c>
@@ -34808,7 +34811,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>1083</v>
       </c>
@@ -34849,7 +34852,7 @@
         <v>1745</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>1086</v>
       </c>
@@ -34890,7 +34893,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>1089</v>
       </c>
@@ -34931,7 +34934,7 @@
         <v>1747</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>1092</v>
       </c>
@@ -34972,7 +34975,7 @@
         <v>1748</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>1124</v>
       </c>
@@ -35013,7 +35016,7 @@
         <v>1749</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>1145</v>
       </c>
@@ -35054,7 +35057,7 @@
         <v>1750</v>
       </c>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>1147</v>
       </c>
@@ -35095,7 +35098,7 @@
         <v>1751</v>
       </c>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>1182</v>
       </c>
@@ -35136,7 +35139,7 @@
         <v>1752</v>
       </c>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>1187</v>
       </c>
@@ -35177,7 +35180,7 @@
         <v>1753</v>
       </c>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>1188</v>
       </c>
@@ -35218,7 +35221,7 @@
         <v>1754</v>
       </c>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>1314</v>
       </c>
@@ -35259,7 +35262,7 @@
         <v>1755</v>
       </c>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>1316</v>
       </c>
@@ -35300,7 +35303,7 @@
         <v>1756</v>
       </c>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>1317</v>
       </c>
@@ -35341,7 +35344,7 @@
         <v>1757</v>
       </c>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>1320</v>
       </c>
@@ -35382,7 +35385,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>1342</v>
       </c>
@@ -35423,7 +35426,7 @@
         <v>1759</v>
       </c>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>1346</v>
       </c>
@@ -35464,7 +35467,7 @@
         <v>1760</v>
       </c>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>1348</v>
       </c>
@@ -35505,7 +35508,7 @@
         <v>1761</v>
       </c>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>1351</v>
       </c>
@@ -35546,7 +35549,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>1352</v>
       </c>
@@ -35587,7 +35590,7 @@
         <v>1763</v>
       </c>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>1355</v>
       </c>
@@ -35628,7 +35631,7 @@
         <v>1764</v>
       </c>
     </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>1398</v>
       </c>
@@ -35669,7 +35672,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>1403</v>
       </c>
@@ -35710,7 +35713,7 @@
         <v>1766</v>
       </c>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>1406</v>
       </c>
@@ -35751,7 +35754,7 @@
         <v>1767</v>
       </c>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>1409</v>
       </c>
@@ -35792,7 +35795,7 @@
         <v>1768</v>
       </c>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>1425</v>
       </c>
@@ -35833,7 +35836,7 @@
         <v>1769</v>
       </c>
     </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>1475</v>
       </c>
@@ -35874,7 +35877,7 @@
         <v>1770</v>
       </c>
     </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>1487</v>
       </c>
@@ -35915,7 +35918,7 @@
         <v>1771</v>
       </c>
     </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>1519</v>
       </c>
@@ -35956,7 +35959,7 @@
         <v>1772</v>
       </c>
     </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>1518</v>
       </c>
@@ -35997,7 +36000,7 @@
         <v>1773</v>
       </c>
     </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>1559</v>
       </c>
@@ -36038,7 +36041,7 @@
         <v>1558</v>
       </c>
     </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>1561</v>
       </c>
@@ -36079,7 +36082,7 @@
         <v>1560</v>
       </c>
     </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>1793</v>
       </c>
@@ -36120,7 +36123,7 @@
         <v>1794</v>
       </c>
     </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>1795</v>
       </c>
@@ -36161,7 +36164,7 @@
         <v>1797</v>
       </c>
     </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>1847</v>
       </c>
@@ -36202,7 +36205,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>1848</v>
       </c>
@@ -36243,7 +36246,7 @@
         <v>1840</v>
       </c>
     </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>1849</v>
       </c>
@@ -36284,7 +36287,7 @@
         <v>1841</v>
       </c>
     </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>1850</v>
       </c>
@@ -36325,7 +36328,7 @@
         <v>1842</v>
       </c>
     </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>1851</v>
       </c>
@@ -36366,7 +36369,7 @@
         <v>1843</v>
       </c>
     </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>1852</v>
       </c>
@@ -36407,7 +36410,7 @@
         <v>1844</v>
       </c>
     </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>1853</v>
       </c>
@@ -36448,7 +36451,7 @@
         <v>1845</v>
       </c>
     </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>1854</v>
       </c>
@@ -36489,7 +36492,7 @@
         <v>1846</v>
       </c>
     </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>1901</v>
       </c>
@@ -36527,7 +36530,7 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>1932</v>
       </c>
@@ -36568,7 +36571,7 @@
         <v>1929</v>
       </c>
     </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>1933</v>
       </c>
@@ -36609,7 +36612,7 @@
         <v>1936</v>
       </c>
     </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>1941</v>
       </c>
@@ -36650,7 +36653,7 @@
         <v>1940</v>
       </c>
     </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>1952</v>
       </c>
@@ -36691,7 +36694,7 @@
         <v>1949</v>
       </c>
     </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>1956</v>
       </c>
@@ -36732,7 +36735,7 @@
         <v>1953</v>
       </c>
     </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>1960</v>
       </c>
@@ -36773,7 +36776,7 @@
         <v>1957</v>
       </c>
     </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>1964</v>
       </c>
@@ -36814,7 +36817,7 @@
         <v>1961</v>
       </c>
     </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>1968</v>
       </c>
@@ -36855,7 +36858,7 @@
         <v>1965</v>
       </c>
     </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>2047</v>
       </c>
@@ -36896,7 +36899,7 @@
         <v>2044</v>
       </c>
     </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>2064</v>
       </c>
@@ -36937,7 +36940,7 @@
         <v>2062</v>
       </c>
     </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>2068</v>
       </c>
@@ -36978,7 +36981,7 @@
         <v>2069</v>
       </c>
     </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>2073</v>
       </c>
@@ -37019,7 +37022,7 @@
         <v>2070</v>
       </c>
     </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>2077</v>
       </c>
@@ -37060,7 +37063,7 @@
         <v>2074</v>
       </c>
     </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>2081</v>
       </c>
@@ -37101,7 +37104,7 @@
         <v>2078</v>
       </c>
     </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>2086</v>
       </c>
@@ -37142,7 +37145,7 @@
         <v>2085</v>
       </c>
     </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>2090</v>
       </c>
@@ -37183,7 +37186,7 @@
         <v>2089</v>
       </c>
     </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>2167</v>
       </c>
@@ -37224,7 +37227,7 @@
         <v>2166</v>
       </c>
     </row>
-    <row r="147" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>2174</v>
       </c>
@@ -37265,7 +37268,7 @@
         <v>2173</v>
       </c>
     </row>
-    <row r="148" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>2198</v>
       </c>
@@ -37306,7 +37309,7 @@
         <v>2197</v>
       </c>
     </row>
-    <row r="149" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>2219</v>
       </c>
@@ -37347,7 +37350,7 @@
         <v>2217</v>
       </c>
     </row>
-    <row r="150" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>2239</v>
       </c>
@@ -37388,7 +37391,7 @@
         <v>2238</v>
       </c>
     </row>
-    <row r="151" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>1352</v>
       </c>
@@ -37429,7 +37432,7 @@
         <v>1763</v>
       </c>
     </row>
-    <row r="152" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>2255</v>
       </c>
@@ -37470,7 +37473,7 @@
         <v>2254</v>
       </c>
     </row>
-    <row r="153" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>2258</v>
       </c>
@@ -37511,7 +37514,7 @@
         <v>2257</v>
       </c>
     </row>
-    <row r="154" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>2263</v>
       </c>
@@ -37552,7 +37555,7 @@
         <v>2260</v>
       </c>
     </row>
-    <row r="155" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>2379</v>
       </c>
@@ -37593,7 +37596,7 @@
         <v>2375</v>
       </c>
     </row>
-    <row r="156" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>2382</v>
       </c>
@@ -37634,7 +37637,7 @@
         <v>2380</v>
       </c>
     </row>
-    <row r="157" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>2384</v>
       </c>
@@ -37675,7 +37678,7 @@
         <v>2383</v>
       </c>
     </row>
-    <row r="158" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>2434</v>
       </c>
@@ -37716,7 +37719,7 @@
         <v>2435</v>
       </c>
     </row>
-    <row r="159" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>2438</v>
       </c>
@@ -37757,7 +37760,7 @@
         <v>2436</v>
       </c>
     </row>
-    <row r="160" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>2441</v>
       </c>
@@ -37798,7 +37801,7 @@
         <v>2442</v>
       </c>
     </row>
-    <row r="161" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>2445</v>
       </c>
@@ -37839,7 +37842,7 @@
         <v>2444</v>
       </c>
     </row>
-    <row r="162" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>2458</v>
       </c>
@@ -37880,7 +37883,7 @@
         <v>2457</v>
       </c>
     </row>
-    <row r="163" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>2461</v>
       </c>
@@ -37921,7 +37924,7 @@
         <v>2460</v>
       </c>
     </row>
-    <row r="164" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>2521</v>
       </c>
@@ -37962,7 +37965,7 @@
         <v>2522</v>
       </c>
     </row>
-    <row r="165" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>2554</v>
       </c>
@@ -38003,7 +38006,7 @@
         <v>2553</v>
       </c>
     </row>
-    <row r="166" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>2558</v>
       </c>
@@ -38044,7 +38047,7 @@
         <v>2557</v>
       </c>
     </row>
-    <row r="167" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>2642</v>
       </c>
@@ -38085,7 +38088,7 @@
         <v>2643</v>
       </c>
     </row>
-    <row r="168" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>2667</v>
       </c>
@@ -38126,7 +38129,7 @@
         <v>2665</v>
       </c>
     </row>
-    <row r="169" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>2671</v>
       </c>
@@ -38179,32 +38182,32 @@
   </sheetPr>
   <dimension ref="A1:O35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="H53" sqref="H53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="51.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.90625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.26953125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="32.453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.453125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="51.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="30.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="30.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="31.453125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="31.42578125" bestFit="1" customWidth="1"/>
     <col min="16" max="1025" width="9" style="20" customWidth="1"/>
-    <col min="1026" max="16384" width="8.81640625" style="20"/>
+    <col min="1026" max="16384" width="8.85546875" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="10" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" s="10" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -38251,7 +38254,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>44</v>
       </c>
@@ -38295,7 +38298,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>61</v>
       </c>
@@ -38339,7 +38342,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>249</v>
       </c>
@@ -38383,7 +38386,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>251</v>
       </c>
@@ -38427,7 +38430,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>252</v>
       </c>
@@ -38471,7 +38474,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>353</v>
       </c>
@@ -38515,7 +38518,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>501</v>
       </c>
@@ -38554,7 +38557,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>625</v>
       </c>
@@ -38595,7 +38598,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>681</v>
       </c>
@@ -38636,7 +38639,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>716</v>
       </c>
@@ -38680,7 +38683,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>779</v>
       </c>
@@ -38724,7 +38727,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>785</v>
       </c>
@@ -38765,7 +38768,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>984</v>
       </c>
@@ -38809,7 +38812,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>1003</v>
       </c>
@@ -38853,7 +38856,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>1118</v>
       </c>
@@ -38897,7 +38900,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>1283</v>
       </c>
@@ -38941,7 +38944,7 @@
         <v>1780</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>1284</v>
       </c>
@@ -38985,7 +38988,7 @@
         <v>1779</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>1289</v>
       </c>
@@ -39029,7 +39032,7 @@
         <v>1778</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>1295</v>
       </c>
@@ -39073,7 +39076,7 @@
         <v>1777</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>1359</v>
       </c>
@@ -39117,7 +39120,7 @@
         <v>1781</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>1507</v>
       </c>
@@ -39161,7 +39164,7 @@
         <v>1505</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>1785</v>
       </c>
@@ -39205,7 +39208,7 @@
         <v>1786</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>2226</v>
       </c>
@@ -39252,7 +39255,7 @@
         <v>2221</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>2230</v>
       </c>
@@ -39296,7 +39299,7 @@
         <v>2228</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>2428</v>
       </c>
@@ -39340,7 +39343,7 @@
         <v>2427</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>2464</v>
       </c>
@@ -39384,7 +39387,7 @@
         <v>2465</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>2516</v>
       </c>
@@ -39428,7 +39431,7 @@
         <v>2515</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>2570</v>
       </c>
@@ -39469,7 +39472,7 @@
         <v>2568</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>2586</v>
       </c>
@@ -39507,7 +39510,7 @@
         <v>2586</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>2615</v>
       </c>
@@ -39551,7 +39554,7 @@
         <v>2612</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>2619</v>
       </c>
@@ -39595,7 +39598,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>2627</v>
       </c>
@@ -39639,7 +39642,7 @@
         <v>2626</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>2631</v>
       </c>
@@ -39683,7 +39686,7 @@
         <v>2630</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>2645</v>
       </c>
@@ -39743,26 +39746,26 @@
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="45.54296875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="45.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="32" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="26.81640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="26.85546875" bestFit="1" customWidth="1"/>
     <col min="14" max="1025" width="9" style="20" customWidth="1"/>
-    <col min="1026" max="16384" width="8.81640625" style="20"/>
+    <col min="1026" max="16384" width="8.85546875" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="10" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" s="10" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -39803,7 +39806,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>413</v>
       </c>
@@ -39841,7 +39844,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>417</v>
       </c>
@@ -39879,7 +39882,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>618</v>
       </c>
@@ -39917,7 +39920,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1199</v>
       </c>
@@ -39955,7 +39958,7 @@
         <v>1198</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>1395</v>
       </c>
@@ -39993,7 +39996,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>1424</v>
       </c>
@@ -40031,7 +40034,7 @@
         <v>1820</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>1489</v>
       </c>
@@ -40069,7 +40072,7 @@
         <v>1491</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>1996</v>
       </c>
@@ -40107,7 +40110,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>2006</v>
       </c>
@@ -40145,7 +40148,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>2182</v>
       </c>
@@ -40183,7 +40186,7 @@
         <v>2179</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>2284</v>
       </c>
@@ -40221,7 +40224,7 @@
         <v>2285</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>2296</v>
       </c>
@@ -40259,7 +40262,7 @@
         <v>2295</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>2601</v>
       </c>
@@ -40316,26 +40319,26 @@
       <selection activeCell="E58" sqref="E58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="35" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.26953125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.26953125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="44.453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="30.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="44.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="30.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="31.1796875" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="8.81640625" style="20"/>
+    <col min="12" max="12" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="8.85546875" style="20"/>
     <col min="16" max="1025" width="9" style="20" customWidth="1"/>
-    <col min="1026" max="16384" width="8.81640625" style="20"/>
+    <col min="1026" max="16384" width="8.85546875" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="10" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" s="10" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -40373,7 +40376,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>253</v>
       </c>
@@ -40408,7 +40411,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>254</v>
       </c>
@@ -40443,7 +40446,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>275</v>
       </c>
@@ -40478,7 +40481,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>282</v>
       </c>
@@ -40513,7 +40516,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>285</v>
       </c>
@@ -40548,7 +40551,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>301</v>
       </c>
@@ -40583,7 +40586,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>289</v>
       </c>
@@ -40618,7 +40621,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>291</v>
       </c>
@@ -40653,7 +40656,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>345</v>
       </c>
@@ -40688,7 +40691,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>382</v>
       </c>
@@ -40723,7 +40726,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>437</v>
       </c>
@@ -40758,7 +40761,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>480</v>
       </c>
@@ -40784,7 +40787,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>484</v>
       </c>
@@ -40810,7 +40813,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>485</v>
       </c>
@@ -40836,7 +40839,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>614</v>
       </c>
@@ -40862,7 +40865,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>733</v>
       </c>
@@ -40897,7 +40900,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>738</v>
       </c>
@@ -40932,7 +40935,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>747</v>
       </c>
@@ -40967,7 +40970,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>754</v>
       </c>
@@ -41000,7 +41003,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>760</v>
       </c>
@@ -41035,7 +41038,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>806</v>
       </c>
@@ -41070,7 +41073,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>821</v>
       </c>
@@ -41105,7 +41108,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>931</v>
       </c>
@@ -41140,7 +41143,7 @@
         <v>1810</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>934</v>
       </c>
@@ -41175,7 +41178,7 @@
         <v>1811</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>948</v>
       </c>
@@ -41210,7 +41213,7 @@
         <v>1812</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>950</v>
       </c>
@@ -41245,7 +41248,7 @@
         <v>1813</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>959</v>
       </c>
@@ -41280,7 +41283,7 @@
         <v>1814</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>1134</v>
       </c>
@@ -41315,7 +41318,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>1156</v>
       </c>
@@ -41350,7 +41353,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>1176</v>
       </c>
@@ -41385,7 +41388,7 @@
         <v>1175</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>1181</v>
       </c>
@@ -41420,7 +41423,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>1224</v>
       </c>
@@ -41455,7 +41458,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>1227</v>
       </c>
@@ -41490,7 +41493,7 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>1234</v>
       </c>
@@ -41525,7 +41528,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>1331</v>
       </c>
@@ -41560,7 +41563,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>1340</v>
       </c>
@@ -41595,7 +41598,7 @@
         <v>1338</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>1371</v>
       </c>
@@ -41630,7 +41633,7 @@
         <v>1369</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>1503</v>
       </c>
@@ -41665,7 +41668,7 @@
         <v>1502</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>1565</v>
       </c>
@@ -41700,7 +41703,7 @@
         <v>1563</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>1574</v>
       </c>
@@ -41735,7 +41738,7 @@
         <v>1573</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>1663</v>
       </c>
@@ -41770,7 +41773,7 @@
         <v>1661</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>1775</v>
       </c>
@@ -41805,7 +41808,7 @@
         <v>1774</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>1788</v>
       </c>
@@ -41840,7 +41843,7 @@
         <v>1787</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>1792</v>
       </c>
@@ -41875,7 +41878,7 @@
         <v>1791</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>1829</v>
       </c>
@@ -41910,7 +41913,7 @@
         <v>1828</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>1872</v>
       </c>
@@ -41945,7 +41948,7 @@
         <v>1871</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>1874</v>
       </c>
@@ -41968,7 +41971,7 @@
         <v>1874</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>2084</v>
       </c>
@@ -42003,7 +42006,7 @@
         <v>2082</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>2137</v>
       </c>
@@ -42038,7 +42041,7 @@
         <v>2135</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>2140</v>
       </c>
@@ -42073,7 +42076,7 @@
         <v>2138</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>2477</v>
       </c>
@@ -42108,7 +42111,7 @@
         <v>2476</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>2495</v>
       </c>
@@ -42140,7 +42143,7 @@
         <v>2493</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>2651</v>
       </c>
@@ -42172,7 +42175,7 @@
         <v>2650</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>2655</v>
       </c>
@@ -42207,7 +42210,7 @@
         <v>2654</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>2658</v>
       </c>
@@ -42242,7 +42245,7 @@
         <v>2657</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>2673</v>
       </c>
@@ -42274,7 +42277,7 @@
         <v>2672</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>2680</v>
       </c>
@@ -42326,26 +42329,26 @@
       <selection pane="bottomLeft" activeCell="F180" sqref="F180"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="27.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="99" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="33.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.26953125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="47.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="30.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="47.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="30.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="29.26953125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="29.28515625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="24.7265625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="24.7109375" bestFit="1" customWidth="1"/>
     <col min="15" max="1025" width="9" style="20" customWidth="1"/>
-    <col min="1026" max="16384" width="8.81640625" style="20"/>
+    <col min="1026" max="16384" width="8.85546875" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="10" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" s="10" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -42389,7 +42392,7 @@
         <v>1831</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -42426,7 +42429,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>68</v>
       </c>
@@ -42463,7 +42466,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>74</v>
       </c>
@@ -42500,7 +42503,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>79</v>
       </c>
@@ -42537,7 +42540,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>80</v>
       </c>
@@ -42574,7 +42577,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>93</v>
       </c>
@@ -42611,7 +42614,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>95</v>
       </c>
@@ -42648,7 +42651,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>102</v>
       </c>
@@ -42684,7 +42687,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>105</v>
       </c>
@@ -42721,7 +42724,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>309</v>
       </c>
@@ -42756,7 +42759,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>318</v>
       </c>
@@ -42791,7 +42794,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>378</v>
       </c>
@@ -42826,7 +42829,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>403</v>
       </c>
@@ -42861,7 +42864,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>433</v>
       </c>
@@ -42896,7 +42899,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>442</v>
       </c>
@@ -42931,7 +42934,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>448</v>
       </c>
@@ -42966,7 +42969,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>471</v>
       </c>
@@ -43001,7 +43004,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>476</v>
       </c>
@@ -43036,7 +43039,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>489</v>
       </c>
@@ -43071,7 +43074,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>492</v>
       </c>
@@ -43106,7 +43109,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>496</v>
       </c>
@@ -43141,7 +43144,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>508</v>
       </c>
@@ -43176,7 +43179,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>511</v>
       </c>
@@ -43211,7 +43214,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>532</v>
       </c>
@@ -43246,7 +43249,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>537</v>
       </c>
@@ -43281,7 +43284,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>560</v>
       </c>
@@ -43316,7 +43319,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>540</v>
       </c>
@@ -43351,7 +43354,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>541</v>
       </c>
@@ -43386,7 +43389,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>542</v>
       </c>
@@ -43421,7 +43424,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>573</v>
       </c>
@@ -43456,7 +43459,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>577</v>
       </c>
@@ -43491,7 +43494,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>580</v>
       </c>
@@ -43526,7 +43529,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>583</v>
       </c>
@@ -43561,7 +43564,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>586</v>
       </c>
@@ -43596,7 +43599,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>590</v>
       </c>
@@ -43631,7 +43634,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>594</v>
       </c>
@@ -43666,7 +43669,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>595</v>
       </c>
@@ -43701,7 +43704,7 @@
         <v>1815</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>552</v>
       </c>
@@ -43736,7 +43739,7 @@
         <v>1816</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>599</v>
       </c>
@@ -43771,7 +43774,7 @@
         <v>1801</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>600</v>
       </c>
@@ -43806,7 +43809,7 @@
         <v>1817</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>602</v>
       </c>
@@ -43841,7 +43844,7 @@
         <v>1818</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>605</v>
       </c>
@@ -43876,7 +43879,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>635</v>
       </c>
@@ -43911,7 +43914,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>539</v>
       </c>
@@ -43946,7 +43949,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>670</v>
       </c>
@@ -43981,7 +43984,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>884</v>
       </c>
@@ -44016,7 +44019,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>901</v>
       </c>
@@ -44051,7 +44054,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>918</v>
       </c>
@@ -44086,7 +44089,7 @@
         <v>1836</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>921</v>
       </c>
@@ -44121,7 +44124,7 @@
         <v>1833</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>922</v>
       </c>
@@ -44156,7 +44159,7 @@
         <v>1834</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>923</v>
       </c>
@@ -44191,7 +44194,7 @@
         <v>1835</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>937</v>
       </c>
@@ -44226,7 +44229,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>943</v>
       </c>
@@ -44261,7 +44264,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>941</v>
       </c>
@@ -44296,7 +44299,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>1014</v>
       </c>
@@ -44331,7 +44334,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>1018</v>
       </c>
@@ -44366,7 +44369,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>1022</v>
       </c>
@@ -44401,7 +44404,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>1049</v>
       </c>
@@ -44434,7 +44437,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>1051</v>
       </c>
@@ -44469,7 +44472,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>1055</v>
       </c>
@@ -44504,7 +44507,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>1059</v>
       </c>
@@ -44539,7 +44542,7 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>1065</v>
       </c>
@@ -44574,7 +44577,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>1070</v>
       </c>
@@ -44609,7 +44612,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>1096</v>
       </c>
@@ -44644,7 +44647,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>1100</v>
       </c>
@@ -44679,7 +44682,7 @@
         <v>1098</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>1102</v>
       </c>
@@ -44714,7 +44717,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>1111</v>
       </c>
@@ -44749,7 +44752,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>1130</v>
       </c>
@@ -44784,7 +44787,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>1136</v>
       </c>
@@ -44819,7 +44822,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>1142</v>
       </c>
@@ -44854,7 +44857,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>1150</v>
       </c>
@@ -44889,7 +44892,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>1172</v>
       </c>
@@ -44924,7 +44927,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>1197</v>
       </c>
@@ -44959,7 +44962,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>1207</v>
       </c>
@@ -44994,7 +44997,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>1216</v>
       </c>
@@ -45029,7 +45032,7 @@
         <v>1215</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>1231</v>
       </c>
@@ -45064,7 +45067,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>1246</v>
       </c>
@@ -45099,7 +45102,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>1247</v>
       </c>
@@ -45134,7 +45137,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>1248</v>
       </c>
@@ -45169,7 +45172,7 @@
         <v>1248</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>1251</v>
       </c>
@@ -45204,7 +45207,7 @@
         <v>1249</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>1262</v>
       </c>
@@ -45239,7 +45242,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>1245</v>
       </c>
@@ -45280,7 +45283,7 @@
         <v>1832</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>1798</v>
       </c>
@@ -45315,7 +45318,7 @@
         <v>1799</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>1304</v>
       </c>
@@ -45350,7 +45353,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>1334</v>
       </c>
@@ -45385,7 +45388,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>1374</v>
       </c>
@@ -45420,7 +45423,7 @@
         <v>1802</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>1378</v>
       </c>
@@ -45455,7 +45458,7 @@
         <v>1822</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>1387</v>
       </c>
@@ -45490,7 +45493,7 @@
         <v>1386</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>1397</v>
       </c>
@@ -45525,7 +45528,7 @@
         <v>1823</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>1419</v>
       </c>
@@ -45560,7 +45563,7 @@
         <v>1803</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>1430</v>
       </c>
@@ -45595,7 +45598,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>1473</v>
       </c>
@@ -45630,7 +45633,7 @@
         <v>1472</v>
       </c>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>1479</v>
       </c>
@@ -45665,7 +45668,7 @@
         <v>1478</v>
       </c>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>1484</v>
       </c>
@@ -45700,7 +45703,7 @@
         <v>1482</v>
       </c>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>1500</v>
       </c>
@@ -45735,7 +45738,7 @@
         <v>1499</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>1522</v>
       </c>
@@ -45770,7 +45773,7 @@
         <v>1521</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>1528</v>
       </c>
@@ -45805,7 +45808,7 @@
         <v>1527</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>1533</v>
       </c>
@@ -45840,7 +45843,7 @@
         <v>1532</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>1538</v>
       </c>
@@ -45875,7 +45878,7 @@
         <v>1537</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>1540</v>
       </c>
@@ -45910,7 +45913,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>1545</v>
       </c>
@@ -45945,7 +45948,7 @@
         <v>1544</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>1549</v>
       </c>
@@ -45980,7 +45983,7 @@
         <v>1548</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>1553</v>
       </c>
@@ -46015,7 +46018,7 @@
         <v>1552</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>1571</v>
       </c>
@@ -46050,7 +46053,7 @@
         <v>1568</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>1804</v>
       </c>
@@ -46085,7 +46088,7 @@
         <v>1805</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>1808</v>
       </c>
@@ -46120,7 +46123,7 @@
         <v>1807</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>1877</v>
       </c>
@@ -46155,7 +46158,7 @@
         <v>1875</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>1906</v>
       </c>
@@ -46190,7 +46193,7 @@
         <v>1905</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>1910</v>
       </c>
@@ -46225,7 +46228,7 @@
         <v>1908</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>1969</v>
       </c>
@@ -46260,7 +46263,7 @@
         <v>1970</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>1974</v>
       </c>
@@ -46295,7 +46298,7 @@
         <v>1972</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>1975</v>
       </c>
@@ -46330,7 +46333,7 @@
         <v>1977</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>1979</v>
       </c>
@@ -46365,7 +46368,7 @@
         <v>1978</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>1984</v>
       </c>
@@ -46400,7 +46403,7 @@
         <v>1982</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>1988</v>
       </c>
@@ -46435,7 +46438,7 @@
         <v>1987</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>1992</v>
       </c>
@@ -46470,7 +46473,7 @@
         <v>1991</v>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>1993</v>
       </c>
@@ -46499,7 +46502,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>2003</v>
       </c>
@@ -46534,7 +46537,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>2010</v>
       </c>
@@ -46569,7 +46572,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>2023</v>
       </c>
@@ -46604,7 +46607,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>2026</v>
       </c>
@@ -46639,7 +46642,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>2031</v>
       </c>
@@ -46674,7 +46677,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>2051</v>
       </c>
@@ -46709,7 +46712,7 @@
         <v>2048</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>2055</v>
       </c>
@@ -46744,7 +46747,7 @@
         <v>2053</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>2058</v>
       </c>
@@ -46779,7 +46782,7 @@
         <v>2059</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>2095</v>
       </c>
@@ -46814,7 +46817,7 @@
         <v>2093</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>2099</v>
       </c>
@@ -46849,7 +46852,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>2104</v>
       </c>
@@ -46884,7 +46887,7 @@
         <v>2105</v>
       </c>
     </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>2108</v>
       </c>
@@ -46919,7 +46922,7 @@
         <v>2106</v>
       </c>
     </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>2120</v>
       </c>
@@ -46954,7 +46957,7 @@
         <v>2121</v>
       </c>
     </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>2124</v>
       </c>
@@ -46989,7 +46992,7 @@
         <v>2122</v>
       </c>
     </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>2128</v>
       </c>
@@ -47024,7 +47027,7 @@
         <v>2127</v>
       </c>
     </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>2130</v>
       </c>
@@ -47059,7 +47062,7 @@
         <v>2129</v>
       </c>
     </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>2145</v>
       </c>
@@ -47094,7 +47097,7 @@
         <v>2141</v>
       </c>
     </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>2150</v>
       </c>
@@ -47129,7 +47132,7 @@
         <v>2147</v>
       </c>
     </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>2157</v>
       </c>
@@ -47164,7 +47167,7 @@
         <v>2156</v>
       </c>
     </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>2163</v>
       </c>
@@ -47199,7 +47202,7 @@
         <v>2163</v>
       </c>
     </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>2170</v>
       </c>
@@ -47234,7 +47237,7 @@
         <v>2171</v>
       </c>
     </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>2177</v>
       </c>
@@ -47269,7 +47272,7 @@
         <v>2178</v>
       </c>
     </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>2196</v>
       </c>
@@ -47304,7 +47307,7 @@
         <v>2193</v>
       </c>
     </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>2202</v>
       </c>
@@ -47345,7 +47348,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>2206</v>
       </c>
@@ -47380,7 +47383,7 @@
         <v>2205</v>
       </c>
     </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>2210</v>
       </c>
@@ -47409,7 +47412,7 @@
         <v>2210</v>
       </c>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>2246</v>
       </c>
@@ -47444,7 +47447,7 @@
         <v>2243</v>
       </c>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>2249</v>
       </c>
@@ -47479,7 +47482,7 @@
         <v>2248</v>
       </c>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>2267</v>
       </c>
@@ -47514,7 +47517,7 @@
         <v>2266</v>
       </c>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>2280</v>
       </c>
@@ -47549,7 +47552,7 @@
         <v>2279</v>
       </c>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>2299</v>
       </c>
@@ -47584,7 +47587,7 @@
         <v>2300</v>
       </c>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>2306</v>
       </c>
@@ -47619,7 +47622,7 @@
         <v>2305</v>
       </c>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>2310</v>
       </c>
@@ -47654,7 +47657,7 @@
         <v>2307</v>
       </c>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>2313</v>
       </c>
@@ -47686,7 +47689,7 @@
         <v>2314</v>
       </c>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>2316</v>
       </c>
@@ -47718,7 +47721,7 @@
         <v>2315</v>
       </c>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>2369</v>
       </c>
@@ -47747,7 +47750,7 @@
         <v>2369</v>
       </c>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>2370</v>
       </c>
@@ -47776,7 +47779,7 @@
         <v>2370</v>
       </c>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>2371</v>
       </c>
@@ -47805,7 +47808,7 @@
         <v>2371</v>
       </c>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>2406</v>
       </c>
@@ -47840,7 +47843,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>2408</v>
       </c>
@@ -47875,7 +47878,7 @@
         <v>2409</v>
       </c>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>2412</v>
       </c>
@@ -47910,7 +47913,7 @@
         <v>2411</v>
       </c>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>2416</v>
       </c>
@@ -47945,7 +47948,7 @@
         <v>2418</v>
       </c>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>2421</v>
       </c>
@@ -47980,7 +47983,7 @@
         <v>2422</v>
       </c>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>2426</v>
       </c>
@@ -48015,7 +48018,7 @@
         <v>2424</v>
       </c>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>2449</v>
       </c>
@@ -48050,7 +48053,7 @@
         <v>2448</v>
       </c>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>2501</v>
       </c>
@@ -48082,7 +48085,7 @@
         <v>2502</v>
       </c>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>2504</v>
       </c>
@@ -48114,7 +48117,7 @@
         <v>2506</v>
       </c>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>2508</v>
       </c>
@@ -48149,7 +48152,7 @@
         <v>2511</v>
       </c>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>2546</v>
       </c>
@@ -48184,7 +48187,7 @@
         <v>2543</v>
       </c>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>2547</v>
       </c>
@@ -48207,7 +48210,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>2549</v>
       </c>
@@ -48230,7 +48233,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>2550</v>
       </c>
@@ -48253,7 +48256,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>2563</v>
       </c>
@@ -48285,7 +48288,7 @@
         <v>2562</v>
       </c>
     </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>2572</v>
       </c>
@@ -48320,7 +48323,7 @@
         <v>2574</v>
       </c>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>2580</v>
       </c>
@@ -48349,7 +48352,7 @@
         <v>2580</v>
       </c>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>2605</v>
       </c>
@@ -48384,7 +48387,7 @@
         <v>2603</v>
       </c>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>2608</v>
       </c>
@@ -48419,7 +48422,7 @@
         <v>2610</v>
       </c>
     </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>2684</v>
       </c>
@@ -48464,32 +48467,32 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N69"/>
+  <dimension ref="A1:N70"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E75" sqref="E75"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B70" sqref="B70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="32.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="79.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="35.26953125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.54296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="30.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="32.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="79.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="30.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="34.1796875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="34.140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="24.54296875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="24.5703125" bestFit="1" customWidth="1"/>
     <col min="15" max="1025" width="9" style="20" customWidth="1"/>
-    <col min="1026" max="16384" width="8.81640625" style="20"/>
+    <col min="1026" max="16384" width="8.85546875" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="9" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" s="9" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -48533,7 +48536,7 @@
         <v>1831</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>84</v>
       </c>
@@ -48568,7 +48571,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>122</v>
       </c>
@@ -48594,7 +48597,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>430</v>
       </c>
@@ -48629,7 +48632,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>518</v>
       </c>
@@ -48655,7 +48658,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>457</v>
       </c>
@@ -48681,7 +48684,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>463</v>
       </c>
@@ -48716,7 +48719,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>468</v>
       </c>
@@ -48751,7 +48754,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>766</v>
       </c>
@@ -48786,7 +48789,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>646</v>
       </c>
@@ -48821,7 +48824,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>741</v>
       </c>
@@ -48850,7 +48853,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>744</v>
       </c>
@@ -48885,7 +48888,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>755</v>
       </c>
@@ -48920,7 +48923,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>772</v>
       </c>
@@ -48955,7 +48958,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>796</v>
       </c>
@@ -48990,7 +48993,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>797</v>
       </c>
@@ -49025,7 +49028,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>818</v>
       </c>
@@ -49066,7 +49069,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>827</v>
       </c>
@@ -49101,7 +49104,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>828</v>
       </c>
@@ -49136,7 +49139,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>831</v>
       </c>
@@ -49171,7 +49174,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>974</v>
       </c>
@@ -49206,7 +49209,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>1165</v>
       </c>
@@ -49241,7 +49244,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>1213</v>
       </c>
@@ -49267,7 +49270,7 @@
         <v>1213</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>1214</v>
       </c>
@@ -49293,7 +49296,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>1492</v>
       </c>
@@ -49319,7 +49322,7 @@
         <v>1492</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>1266</v>
       </c>
@@ -49339,7 +49342,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>1269</v>
       </c>
@@ -49374,7 +49377,7 @@
         <v>1268</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>1274</v>
       </c>
@@ -49409,7 +49412,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>1439</v>
       </c>
@@ -49435,7 +49438,7 @@
         <v>1439</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>1494</v>
       </c>
@@ -49461,7 +49464,7 @@
         <v>1494</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>1577</v>
       </c>
@@ -49487,7 +49490,7 @@
         <v>1577</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>1824</v>
       </c>
@@ -49522,7 +49525,7 @@
         <v>1825</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>1826</v>
       </c>
@@ -49557,7 +49560,7 @@
         <v>1827</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>1926</v>
       </c>
@@ -49592,7 +49595,7 @@
         <v>1928</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>2034</v>
       </c>
@@ -49627,7 +49630,7 @@
         <v>2037</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>2040</v>
       </c>
@@ -49662,7 +49665,7 @@
         <v>2039</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>2110</v>
       </c>
@@ -49697,7 +49700,7 @@
         <v>2111</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>2154</v>
       </c>
@@ -49732,7 +49735,7 @@
         <v>2153</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>2186</v>
       </c>
@@ -49767,7 +49770,7 @@
         <v>2184</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>2190</v>
       </c>
@@ -49790,7 +49793,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>2215</v>
       </c>
@@ -49825,7 +49828,7 @@
         <v>2214</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>2272</v>
       </c>
@@ -49860,7 +49863,7 @@
         <v>2273</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>2275</v>
       </c>
@@ -49895,7 +49898,7 @@
         <v>2277</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>2292</v>
       </c>
@@ -49936,7 +49939,7 @@
         <v>2321</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>2330</v>
       </c>
@@ -49971,7 +49974,7 @@
         <v>2329</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>2327</v>
       </c>
@@ -50006,7 +50009,7 @@
         <v>2326</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>2340</v>
       </c>
@@ -50041,7 +50044,7 @@
         <v>2341</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>2346</v>
       </c>
@@ -50076,7 +50079,7 @@
         <v>2345</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>2350</v>
       </c>
@@ -50111,7 +50114,7 @@
         <v>2351</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>2354</v>
       </c>
@@ -50146,7 +50149,7 @@
         <v>2353</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>2357</v>
       </c>
@@ -50181,7 +50184,7 @@
         <v>2360</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>2363</v>
       </c>
@@ -50216,7 +50219,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>2366</v>
       </c>
@@ -50251,7 +50254,7 @@
         <v>2368</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>2374</v>
       </c>
@@ -50274,7 +50277,7 @@
         <v>2374</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>2392</v>
       </c>
@@ -50309,7 +50312,7 @@
         <v>2393</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>2395</v>
       </c>
@@ -50344,7 +50347,7 @@
         <v>2394</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>2455</v>
       </c>
@@ -50379,7 +50382,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>2474</v>
       </c>
@@ -50414,7 +50417,7 @@
         <v>2472</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>2498</v>
       </c>
@@ -50446,7 +50449,7 @@
         <v>2499</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>2523</v>
       </c>
@@ -50481,7 +50484,7 @@
         <v>2525</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>2529</v>
       </c>
@@ -50513,7 +50516,7 @@
         <v>2530</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>2533</v>
       </c>
@@ -50539,7 +50542,7 @@
         <v>2533</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>2536</v>
       </c>
@@ -50574,7 +50577,7 @@
         <v>2537</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>2576</v>
       </c>
@@ -50606,7 +50609,7 @@
         <v>2575</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>2589</v>
       </c>
@@ -50638,7 +50641,7 @@
         <v>2588</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>2593</v>
       </c>
@@ -50670,7 +50673,7 @@
         <v>2591</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>2637</v>
       </c>
@@ -50702,7 +50705,7 @@
         <v>2636</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>2640</v>
       </c>
@@ -50734,7 +50737,7 @@
         <v>2635</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>2676</v>
       </c>
@@ -50764,6 +50767,38 @@
       </c>
       <c r="L69" t="s">
         <v>2675</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>2697</v>
+      </c>
+      <c r="B70" t="s">
+        <v>2697</v>
+      </c>
+      <c r="C70" t="s">
+        <v>2694</v>
+      </c>
+      <c r="D70" t="s">
+        <v>100</v>
+      </c>
+      <c r="E70" t="s">
+        <v>2695</v>
+      </c>
+      <c r="H70" t="s">
+        <v>99</v>
+      </c>
+      <c r="I70" t="s">
+        <v>799</v>
+      </c>
+      <c r="J70" t="s">
+        <v>2697</v>
+      </c>
+      <c r="K70" t="s">
+        <v>17</v>
+      </c>
+      <c r="L70" t="s">
+        <v>2696</v>
       </c>
     </row>
   </sheetData>
@@ -50797,23 +50832,23 @@
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="49.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="49.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.26953125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="28.7265625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="49.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="49.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="24.7265625" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.81640625" style="20"/>
+    <col min="12" max="12" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.85546875" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="9" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" s="9" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -50851,7 +50886,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>71</v>
       </c>
@@ -50886,7 +50921,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>91</v>
       </c>
@@ -50921,7 +50956,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>724</v>
       </c>
@@ -50956,7 +50991,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>730</v>
       </c>
@@ -50991,7 +51026,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>803</v>
       </c>
@@ -51017,7 +51052,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>964</v>
       </c>
@@ -51052,7 +51087,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>968</v>
       </c>
@@ -51087,7 +51122,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>1159</v>
       </c>
@@ -51122,7 +51157,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>1220</v>
       </c>
@@ -51157,7 +51192,7 @@
         <v>1219</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>1328</v>
       </c>
@@ -51192,7 +51227,7 @@
         <v>1821</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>1890</v>
       </c>
@@ -51218,7 +51253,7 @@
         <v>1890</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>1894</v>
       </c>
@@ -51244,7 +51279,7 @@
         <v>1894</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>1896</v>
       </c>
@@ -51293,24 +51328,24 @@
       <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.26953125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="29.26953125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="30.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="30.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="24.7265625" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.81640625" style="20"/>
+    <col min="12" max="12" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.85546875" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="10" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" s="10" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -51348,7 +51383,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>117</v>
       </c>
@@ -51365,7 +51400,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>118</v>
       </c>
@@ -51382,7 +51417,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>119</v>
       </c>
@@ -51399,7 +51434,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>522</v>
       </c>
@@ -51434,7 +51469,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>528</v>
       </c>
@@ -51469,7 +51504,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>957</v>
       </c>
@@ -51504,7 +51539,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>1168</v>
       </c>
@@ -51539,7 +51574,7 @@
         <v>1819</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>1236</v>
       </c>
@@ -51571,7 +51606,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>1887</v>
       </c>
@@ -51606,7 +51641,7 @@
         <v>1886</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>2335</v>
       </c>
@@ -51641,7 +51676,7 @@
         <v>2336</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>2398</v>
       </c>
@@ -51676,7 +51711,7 @@
         <v>2397</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>2489</v>
       </c>
@@ -51708,7 +51743,7 @@
         <v>2490</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>2492</v>
       </c>

--- a/Altium/DB.xlsx
+++ b/Altium/DB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Repos\LIBS\Altium\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE2BD202-186F-48EE-9C99-4EEF2C2F26BD}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12F46A52-21D7-4AB5-9F1B-8AA9ADCA3AA0}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="38625" windowHeight="21825" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7893" uniqueCount="2698">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7903" uniqueCount="2702">
   <si>
     <t>Part Number</t>
   </si>
@@ -8127,6 +8127,18 @@
   </si>
   <si>
     <t>DF17(4.0)-80DS-0.5V(57)</t>
+  </si>
+  <si>
+    <t>CONN RCPT 40POS SMD GOLD</t>
+  </si>
+  <si>
+    <t>Connector P40</t>
+  </si>
+  <si>
+    <t>DF17(4.0)-40DS-0.5V(68)</t>
+  </si>
+  <si>
+    <t>DF17(4.0)-40DS-0.5V(68)-ND</t>
   </si>
 </sst>
 </file>
@@ -48467,11 +48479,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N70"/>
+  <dimension ref="A1:N71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B70" sqref="B70"/>
+      <selection pane="bottomLeft" activeCell="L71" sqref="L71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -50799,6 +50811,38 @@
       </c>
       <c r="L70" t="s">
         <v>2696</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>2700</v>
+      </c>
+      <c r="B71" t="s">
+        <v>2700</v>
+      </c>
+      <c r="C71" t="s">
+        <v>2699</v>
+      </c>
+      <c r="D71" t="s">
+        <v>100</v>
+      </c>
+      <c r="E71" t="s">
+        <v>2698</v>
+      </c>
+      <c r="H71" t="s">
+        <v>99</v>
+      </c>
+      <c r="I71" t="s">
+        <v>799</v>
+      </c>
+      <c r="J71" t="s">
+        <v>2700</v>
+      </c>
+      <c r="K71" t="s">
+        <v>17</v>
+      </c>
+      <c r="L71" t="s">
+        <v>2701</v>
       </c>
     </row>
   </sheetData>

--- a/Altium/DB.xlsx
+++ b/Altium/DB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Repos\LIBS\Altium\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12F46A52-21D7-4AB5-9F1B-8AA9ADCA3AA0}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78E5A550-E705-423B-93D1-28D277D0A41A}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="38625" windowHeight="21825" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="38625" windowHeight="21825" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="C" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7903" uniqueCount="2702">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7909" uniqueCount="2703">
   <si>
     <t>Part Number</t>
   </si>
@@ -8139,6 +8139,9 @@
   </si>
   <si>
     <t>DF17(4.0)-40DS-0.5V(68)-ND</t>
+  </si>
+  <si>
+    <t>ES8374</t>
   </si>
 </sst>
 </file>
@@ -42334,11 +42337,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N176"/>
+  <dimension ref="A1:N177"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F180" sqref="F180"/>
+      <selection pane="bottomLeft" activeCell="C181" sqref="C181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -48466,6 +48469,26 @@
         <v>2682</v>
       </c>
     </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>2702</v>
+      </c>
+      <c r="B177" t="s">
+        <v>2702</v>
+      </c>
+      <c r="C177" t="s">
+        <v>2702</v>
+      </c>
+      <c r="D177" t="s">
+        <v>19</v>
+      </c>
+      <c r="H177" t="s">
+        <v>20</v>
+      </c>
+      <c r="I177" t="s">
+        <v>2702</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -48481,7 +48504,7 @@
   </sheetPr>
   <dimension ref="A1:N71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="L71" sqref="L71"/>
     </sheetView>

--- a/Altium/DB.xlsx
+++ b/Altium/DB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Repos\LIBS\Altium\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78E5A550-E705-423B-93D1-28D277D0A41A}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{339488B4-BAD4-41E7-B1D1-61ED1BA12D82}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="38625" windowHeight="21825" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7909" uniqueCount="2703">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7914" uniqueCount="2704">
   <si>
     <t>Part Number</t>
   </si>
@@ -8142,6 +8142,9 @@
   </si>
   <si>
     <t>ES8374</t>
+  </si>
+  <si>
+    <t>CH32V303CBT6</t>
   </si>
 </sst>
 </file>
@@ -42337,11 +42340,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N177"/>
+  <dimension ref="A1:N178"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C181" sqref="C181"/>
+      <pane ySplit="1" topLeftCell="A125" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D178" sqref="D178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -48469,7 +48472,7 @@
         <v>2682</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>2702</v>
       </c>
@@ -48485,8 +48488,25 @@
       <c r="H177" t="s">
         <v>20</v>
       </c>
-      <c r="I177" t="s">
-        <v>2702</v>
+    </row>
+    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>2703</v>
+      </c>
+      <c r="B178" t="s">
+        <v>2703</v>
+      </c>
+      <c r="C178" t="s">
+        <v>2703</v>
+      </c>
+      <c r="D178" t="s">
+        <v>19</v>
+      </c>
+      <c r="H178" t="s">
+        <v>20</v>
+      </c>
+      <c r="J178" t="s">
+        <v>2703</v>
       </c>
     </row>
   </sheetData>

--- a/Altium/DB.xlsx
+++ b/Altium/DB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Repos\LIBS\Altium\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{339488B4-BAD4-41E7-B1D1-61ED1BA12D82}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE5CA4DA-1E81-4F8E-9B92-FE6898C1444B}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="38625" windowHeight="21825" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7914" uniqueCount="2704">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7931" uniqueCount="2710">
   <si>
     <t>Part Number</t>
   </si>
@@ -8145,6 +8145,24 @@
   </si>
   <si>
     <t>CH32V303CBT6</t>
+  </si>
+  <si>
+    <t>SY21612C</t>
+  </si>
+  <si>
+    <t>SY21612CQFC</t>
+  </si>
+  <si>
+    <t>MAX3221IPWR</t>
+  </si>
+  <si>
+    <t>IC TRANSCEIVER FULL 1/1 16TSSOP</t>
+  </si>
+  <si>
+    <t>MAX3221</t>
+  </si>
+  <si>
+    <t>296-9596-1-ND</t>
   </si>
 </sst>
 </file>
@@ -42340,11 +42358,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N178"/>
+  <dimension ref="A1:N180"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A125" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D178" sqref="D178"/>
+      <selection pane="bottomLeft" activeCell="C184" sqref="C184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -48472,7 +48490,7 @@
         <v>2682</v>
       </c>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>2702</v>
       </c>
@@ -48489,7 +48507,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>2703</v>
       </c>
@@ -48507,6 +48525,61 @@
       </c>
       <c r="J178" t="s">
         <v>2703</v>
+      </c>
+    </row>
+    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>2705</v>
+      </c>
+      <c r="B179" t="s">
+        <v>2704</v>
+      </c>
+      <c r="C179" t="s">
+        <v>2704</v>
+      </c>
+      <c r="D179" t="s">
+        <v>19</v>
+      </c>
+      <c r="H179" t="s">
+        <v>20</v>
+      </c>
+      <c r="I179" t="s">
+        <v>2509</v>
+      </c>
+      <c r="J179" t="s">
+        <v>2705</v>
+      </c>
+    </row>
+    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>2706</v>
+      </c>
+      <c r="B180" t="s">
+        <v>2706</v>
+      </c>
+      <c r="C180" t="s">
+        <v>2708</v>
+      </c>
+      <c r="D180" t="s">
+        <v>19</v>
+      </c>
+      <c r="E180" t="s">
+        <v>2707</v>
+      </c>
+      <c r="H180" t="s">
+        <v>20</v>
+      </c>
+      <c r="I180" t="s">
+        <v>67</v>
+      </c>
+      <c r="J180" t="s">
+        <v>2706</v>
+      </c>
+      <c r="K180" t="s">
+        <v>17</v>
+      </c>
+      <c r="L180" t="s">
+        <v>2709</v>
       </c>
     </row>
   </sheetData>

--- a/Altium/DB.xlsx
+++ b/Altium/DB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Repos\LIBS\Altium\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git\Titanius\Libs\Altium\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{339488B4-BAD4-41E7-B1D1-61ED1BA12D82}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5709DC65-78CE-474F-BADA-6D8910BB66F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="38625" windowHeight="21825" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4240" yWindow="4040" windowWidth="31520" windowHeight="16000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="C" sheetId="2" r:id="rId1"/>
@@ -23,8 +23,17 @@
     <sheet name="Other" sheetId="14" r:id="rId8"/>
     <sheet name="Mech" sheetId="11" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
     </ext>
@@ -33,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7914" uniqueCount="2704">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7994" uniqueCount="2722">
   <si>
     <t>Part Number</t>
   </si>
@@ -8145,6 +8154,60 @@
   </si>
   <si>
     <t>CH32V303CBT6</t>
+  </si>
+  <si>
+    <t>RC0201FR-071KL</t>
+  </si>
+  <si>
+    <t>311-1KMTR-ND</t>
+  </si>
+  <si>
+    <t>RES 1K OHM 1% 1/20W 0201</t>
+  </si>
+  <si>
+    <t>RC0201FR-07604RL</t>
+  </si>
+  <si>
+    <t>RES 604 OHM 1% 1/20W 0201</t>
+  </si>
+  <si>
+    <t>YAG2747TR-ND</t>
+  </si>
+  <si>
+    <t>GCM0335C1H101FA16D</t>
+  </si>
+  <si>
+    <t>490-GCM0335C1H101FA16DTR-ND</t>
+  </si>
+  <si>
+    <t>CAP CER 100PF 50V C0G/NP0 0201</t>
+  </si>
+  <si>
+    <t>RES 75 OHM 1% 1/20W 0201</t>
+  </si>
+  <si>
+    <t>RC0201FR-0775RL</t>
+  </si>
+  <si>
+    <t>YAG2289TR-ND</t>
+  </si>
+  <si>
+    <t>RC0201FR-07562RL</t>
+  </si>
+  <si>
+    <t>RES 562 OHM 1% 1/20W 0201</t>
+  </si>
+  <si>
+    <t>YAG2730TR-ND</t>
+  </si>
+  <si>
+    <t>RC0201FR-075K1L</t>
+  </si>
+  <si>
+    <t>RES 5.1K OHM 1% 1/20W 0201</t>
+  </si>
+  <si>
+    <t>YAG2741TR-ND</t>
   </si>
 </sst>
 </file>
@@ -8466,7 +8529,17 @@
     <cellStyle name="Обычный 9" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="Плохой" xfId="3" builtinId="27"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -26391,35 +26464,35 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:P102"/>
+  <dimension ref="A1:P103"/>
   <sheetViews>
-    <sheetView topLeftCell="A48" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I106" sqref="I106"/>
+    <sheetView topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E75" sqref="E75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="56.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.54296875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.81640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.453125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="56.54296875" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.54296875" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.7265625" style="5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="31.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="30.28515625" style="16" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="31.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.1796875" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.7265625" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.453125" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.81640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="31.453125" style="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="30.26953125" style="16" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.81640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="31.1796875" style="5" bestFit="1" customWidth="1"/>
     <col min="17" max="1026" width="9" style="20" customWidth="1"/>
-    <col min="1027" max="16384" width="8.85546875" style="20"/>
+    <col min="1027" max="16384" width="8.81640625" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="28" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" s="28" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -26469,7 +26542,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="10" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" s="10" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>653</v>
       </c>
@@ -26519,7 +26592,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>722</v>
       </c>
@@ -26569,7 +26642,7 @@
         <v>1657</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>40</v>
       </c>
@@ -26619,7 +26692,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>29</v>
       </c>
@@ -26669,7 +26742,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>36</v>
       </c>
@@ -26719,7 +26792,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>690</v>
       </c>
@@ -26769,7 +26842,7 @@
         <v>1656</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>881</v>
       </c>
@@ -26819,7 +26892,7 @@
         <v>2319</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>810</v>
       </c>
@@ -26869,7 +26942,7 @@
         <v>1655</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>687</v>
       </c>
@@ -26919,7 +26992,7 @@
         <v>1654</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>694</v>
       </c>
@@ -26969,7 +27042,7 @@
         <v>1583</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>607</v>
       </c>
@@ -27019,7 +27092,7 @@
         <v>1653</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>642</v>
       </c>
@@ -27069,7 +27142,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
         <v>425</v>
       </c>
@@ -27116,7 +27189,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
         <v>791</v>
       </c>
@@ -27163,7 +27236,7 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
         <v>337</v>
       </c>
@@ -27210,7 +27283,7 @@
         <v>1649</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
         <v>709</v>
       </c>
@@ -27257,7 +27330,7 @@
         <v>1648</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
         <v>217</v>
       </c>
@@ -27304,7 +27377,7 @@
         <v>1647</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
         <v>639</v>
       </c>
@@ -27351,7 +27424,7 @@
         <v>1646</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
         <v>398</v>
       </c>
@@ -27398,7 +27471,7 @@
         <v>1582</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
         <v>622</v>
       </c>
@@ -27445,7 +27518,7 @@
         <v>1645</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
         <v>420</v>
       </c>
@@ -27492,7 +27565,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
         <v>358</v>
       </c>
@@ -27539,7 +27612,7 @@
         <v>1644</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
         <v>315</v>
       </c>
@@ -27586,7 +27659,7 @@
         <v>1643</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
         <v>336</v>
       </c>
@@ -27633,7 +27706,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A26" s="5" t="s">
         <v>330</v>
       </c>
@@ -27680,7 +27753,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A27" s="5" t="s">
         <v>210</v>
       </c>
@@ -27727,7 +27800,7 @@
         <v>1640</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A28" s="5" t="s">
         <v>215</v>
       </c>
@@ -27774,7 +27847,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A29" s="5" t="s">
         <v>212</v>
       </c>
@@ -27821,7 +27894,7 @@
         <v>1638</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A30" s="5" t="s">
         <v>209</v>
       </c>
@@ -27868,7 +27941,7 @@
         <v>1637</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A31" s="5" t="s">
         <v>213</v>
       </c>
@@ -27915,7 +27988,7 @@
         <v>1636</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A32" s="5" t="s">
         <v>211</v>
       </c>
@@ -27962,7 +28035,7 @@
         <v>1635</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A33" s="5" t="s">
         <v>214</v>
       </c>
@@ -28009,7 +28082,7 @@
         <v>1634</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A34" s="5" t="s">
         <v>360</v>
       </c>
@@ -28056,7 +28129,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A35" s="5" t="s">
         <v>208</v>
       </c>
@@ -28103,7 +28176,7 @@
         <v>1633</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A36" s="5" t="s">
         <v>679</v>
       </c>
@@ -28150,7 +28223,7 @@
         <v>1632</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A37" s="5" t="s">
         <v>710</v>
       </c>
@@ -28197,7 +28270,7 @@
         <v>1631</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A38" s="5" t="s">
         <v>206</v>
       </c>
@@ -28244,7 +28317,7 @@
         <v>1630</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A39" s="5" t="s">
         <v>218</v>
       </c>
@@ -28291,7 +28364,7 @@
         <v>1629</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A40" s="5" t="s">
         <v>207</v>
       </c>
@@ -28338,7 +28411,7 @@
         <v>1628</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A41" s="16" t="s">
         <v>769</v>
       </c>
@@ -28385,7 +28458,7 @@
         <v>1627</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A42" s="5" t="s">
         <v>216</v>
       </c>
@@ -28432,7 +28505,7 @@
         <v>1626</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>191</v>
       </c>
@@ -28479,7 +28552,7 @@
         <v>1625</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A44" s="5" t="s">
         <v>887</v>
       </c>
@@ -28526,7 +28599,7 @@
         <v>1624</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A45" s="5" t="s">
         <v>900</v>
       </c>
@@ -28576,7 +28649,7 @@
         <v>1623</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A46" s="5" t="s">
         <v>903</v>
       </c>
@@ -28626,7 +28699,7 @@
         <v>1622</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A47" s="5" t="s">
         <v>952</v>
       </c>
@@ -28673,7 +28746,7 @@
         <v>1621</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A48" s="5" t="s">
         <v>992</v>
       </c>
@@ -28720,7 +28793,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A49" s="16" t="s">
         <v>1025</v>
       </c>
@@ -28767,7 +28840,7 @@
         <v>1592</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A50" s="5" t="s">
         <v>1029</v>
       </c>
@@ -28814,7 +28887,7 @@
         <v>1620</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A51" s="5" t="s">
         <v>1033</v>
       </c>
@@ -28861,7 +28934,7 @@
         <v>1619</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A52" s="5" t="s">
         <v>1038</v>
       </c>
@@ -28908,7 +28981,7 @@
         <v>1618</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A53" s="5" t="s">
         <v>1106</v>
       </c>
@@ -28952,7 +29025,7 @@
         <v>1617</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A54" s="5" t="s">
         <v>1127</v>
       </c>
@@ -28999,7 +29072,7 @@
         <v>1616</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A55" s="5" t="s">
         <v>1192</v>
       </c>
@@ -29046,7 +29119,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A56" s="16" t="s">
         <v>1305</v>
       </c>
@@ -29093,7 +29166,7 @@
         <v>1615</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A57" s="5" t="s">
         <v>1309</v>
       </c>
@@ -29140,7 +29213,7 @@
         <v>1614</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A58" s="5" t="s">
         <v>1323</v>
       </c>
@@ -29187,7 +29260,7 @@
         <v>1586</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A59" s="5" t="s">
         <v>1363</v>
       </c>
@@ -29234,7 +29307,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A60" s="5" t="s">
         <v>1365</v>
       </c>
@@ -29281,7 +29354,7 @@
         <v>1613</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A61" s="5" t="s">
         <v>1367</v>
       </c>
@@ -29328,7 +29401,7 @@
         <v>1589</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A62" s="16" t="s">
         <v>1381</v>
       </c>
@@ -29375,7 +29448,7 @@
         <v>1612</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A63" s="5" t="s">
         <v>1385</v>
       </c>
@@ -29422,7 +29495,7 @@
         <v>1611</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A64" s="5" t="s">
         <v>1401</v>
       </c>
@@ -29469,7 +29542,7 @@
         <v>1610</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A65" s="16" t="s">
         <v>1414</v>
       </c>
@@ -29516,7 +29589,7 @@
         <v>1609</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A66" s="5" t="s">
         <v>1416</v>
       </c>
@@ -29563,7 +29636,7 @@
         <v>1608</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A67" s="5" t="s">
         <v>1432</v>
       </c>
@@ -29607,7 +29680,7 @@
         <v>1607</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A68" s="5" t="s">
         <v>1437</v>
       </c>
@@ -29654,7 +29727,7 @@
         <v>1606</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A69" s="5" t="s">
         <v>1440</v>
       </c>
@@ -29701,7 +29774,7 @@
         <v>1596</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A70" s="16" t="s">
         <v>1442</v>
       </c>
@@ -29748,7 +29821,7 @@
         <v>1597</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A71" s="16" t="s">
         <v>1443</v>
       </c>
@@ -29795,7 +29868,7 @@
         <v>1595</v>
       </c>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A72" s="16" t="s">
         <v>1444</v>
       </c>
@@ -29842,7 +29915,7 @@
         <v>1598</v>
       </c>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A73" s="16" t="s">
         <v>1445</v>
       </c>
@@ -29889,7 +29962,7 @@
         <v>1599</v>
       </c>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A74" s="16" t="s">
         <v>1446</v>
       </c>
@@ -29936,7 +30009,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A75" s="16" t="s">
         <v>1447</v>
       </c>
@@ -29983,7 +30056,7 @@
         <v>1601</v>
       </c>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A76" s="16" t="s">
         <v>1448</v>
       </c>
@@ -30030,7 +30103,7 @@
         <v>1602</v>
       </c>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A77" s="5" t="s">
         <v>1458</v>
       </c>
@@ -30077,7 +30150,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A78" s="5" t="s">
         <v>1461</v>
       </c>
@@ -30118,7 +30191,7 @@
         <v>1659</v>
       </c>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A79" s="5" t="s">
         <v>1464</v>
       </c>
@@ -30159,7 +30232,7 @@
         <v>1658</v>
       </c>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A80" s="16" t="s">
         <v>1468</v>
       </c>
@@ -30200,7 +30273,7 @@
         <v>1660</v>
       </c>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A81" s="16" t="s">
         <v>1512</v>
       </c>
@@ -30247,7 +30320,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A82" s="5" t="s">
         <v>1515</v>
       </c>
@@ -30294,7 +30367,7 @@
         <v>1605</v>
       </c>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A83" s="5" t="s">
         <v>1579</v>
       </c>
@@ -30341,7 +30414,7 @@
         <v>1578</v>
       </c>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A84" s="5" t="s">
         <v>1581</v>
       </c>
@@ -30388,7 +30461,7 @@
         <v>1580</v>
       </c>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A85" s="5" t="s">
         <v>1585</v>
       </c>
@@ -30435,7 +30508,7 @@
         <v>1584</v>
       </c>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A86" s="5" t="s">
         <v>1588</v>
       </c>
@@ -30482,7 +30555,7 @@
         <v>1587</v>
       </c>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A87" s="5" t="s">
         <v>1590</v>
       </c>
@@ -30529,7 +30602,7 @@
         <v>1591</v>
       </c>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A88" s="5" t="s">
         <v>1594</v>
       </c>
@@ -30576,7 +30649,7 @@
         <v>1593</v>
       </c>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A89" s="5" t="s">
         <v>1879</v>
       </c>
@@ -30623,7 +30696,7 @@
         <v>1878</v>
       </c>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A90" s="5" t="s">
         <v>1883</v>
       </c>
@@ -30670,7 +30743,7 @@
         <v>1882</v>
       </c>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A91" s="5" t="s">
         <v>1913</v>
       </c>
@@ -30714,7 +30787,7 @@
         <v>1911</v>
       </c>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A92" s="5" t="s">
         <v>1917</v>
       </c>
@@ -30761,7 +30834,7 @@
         <v>1914</v>
       </c>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A93" s="5" t="s">
         <v>1919</v>
       </c>
@@ -30808,7 +30881,7 @@
         <v>1918</v>
       </c>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A94" s="5" t="s">
         <v>1925</v>
       </c>
@@ -30855,7 +30928,7 @@
         <v>1923</v>
       </c>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A95" s="5" t="s">
         <v>1945</v>
       </c>
@@ -30902,7 +30975,7 @@
         <v>1942</v>
       </c>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A96" s="5" t="s">
         <v>1948</v>
       </c>
@@ -30949,7 +31022,7 @@
         <v>1946</v>
       </c>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A97" s="5" t="s">
         <v>2116</v>
       </c>
@@ -30990,7 +31063,7 @@
         <v>2113</v>
       </c>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A98" s="5" t="s">
         <v>2236</v>
       </c>
@@ -31037,7 +31110,7 @@
         <v>2235</v>
       </c>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A99" s="5" t="s">
         <v>2468</v>
       </c>
@@ -31084,7 +31157,7 @@
         <v>2467</v>
       </c>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A100" s="5" t="s">
         <v>2566</v>
       </c>
@@ -31128,7 +31201,7 @@
         <v>2565</v>
       </c>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A101" s="5" t="s">
         <v>2597</v>
       </c>
@@ -31172,7 +31245,7 @@
         <v>2599</v>
       </c>
     </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A102" s="5" t="s">
         <v>2663</v>
       </c>
@@ -31219,10 +31292,60 @@
         <v>2661</v>
       </c>
     </row>
+    <row r="103" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A103" s="5" t="s">
+        <v>2710</v>
+      </c>
+      <c r="B103" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C103" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D103" s="5" t="s">
+        <v>531</v>
+      </c>
+      <c r="E103" s="5" t="s">
+        <v>2712</v>
+      </c>
+      <c r="F103" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="H103" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I103" s="5" t="s">
+        <v>879</v>
+      </c>
+      <c r="J103" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K103" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="L103" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="M103" s="5" t="s">
+        <v>503</v>
+      </c>
+      <c r="N103" s="5" t="s">
+        <v>2710</v>
+      </c>
+      <c r="O103" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="P103" s="5" t="s">
+        <v>2711</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState ref="A2:P43">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P43">
     <sortCondition ref="F2:F43"/>
   </sortState>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
+  </conditionalFormatting>
   <printOptions gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -31235,34 +31358,34 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N169"/>
+  <dimension ref="A1:N174"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A126" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H173" sqref="H173"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A138" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L178" sqref="L178"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.54296875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="32.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.7265625" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="32.7265625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="30.54296875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="26.26953125" bestFit="1" customWidth="1"/>
     <col min="15" max="1025" width="9" style="20" customWidth="1"/>
-    <col min="1026" max="16384" width="8.85546875" style="20"/>
+    <col min="1026" max="16384" width="8.81640625" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="10" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="10" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -31306,7 +31429,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>54</v>
       </c>
@@ -31347,7 +31470,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>126</v>
       </c>
@@ -31388,7 +31511,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>130</v>
       </c>
@@ -31429,7 +31552,7 @@
         <v>1664</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>139</v>
       </c>
@@ -31470,7 +31593,7 @@
         <v>1665</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>140</v>
       </c>
@@ -31511,7 +31634,7 @@
         <v>1666</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>145</v>
       </c>
@@ -31552,7 +31675,7 @@
         <v>1667</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>147</v>
       </c>
@@ -31593,7 +31716,7 @@
         <v>1668</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>149</v>
       </c>
@@ -31634,7 +31757,7 @@
         <v>1669</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>151</v>
       </c>
@@ -31675,7 +31798,7 @@
         <v>1670</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>153</v>
       </c>
@@ -31716,7 +31839,7 @@
         <v>1671</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>155</v>
       </c>
@@ -31757,7 +31880,7 @@
         <v>1672</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>157</v>
       </c>
@@ -31798,7 +31921,7 @@
         <v>1673</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>159</v>
       </c>
@@ -31839,7 +31962,7 @@
         <v>1674</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>161</v>
       </c>
@@ -31880,7 +32003,7 @@
         <v>1675</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>163</v>
       </c>
@@ -31921,7 +32044,7 @@
         <v>1676</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>165</v>
       </c>
@@ -31962,7 +32085,7 @@
         <v>1677</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>167</v>
       </c>
@@ -32003,7 +32126,7 @@
         <v>1678</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>169</v>
       </c>
@@ -32044,7 +32167,7 @@
         <v>1679</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>171</v>
       </c>
@@ -32085,7 +32208,7 @@
         <v>1680</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>181</v>
       </c>
@@ -32126,7 +32249,7 @@
         <v>1681</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>186</v>
       </c>
@@ -32167,7 +32290,7 @@
         <v>1682</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>303</v>
       </c>
@@ -32208,7 +32331,7 @@
         <v>1683</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>306</v>
       </c>
@@ -32249,7 +32372,7 @@
         <v>1684</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>312</v>
       </c>
@@ -32290,7 +32413,7 @@
         <v>1685</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>320</v>
       </c>
@@ -32331,7 +32454,7 @@
         <v>1686</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>323</v>
       </c>
@@ -32372,7 +32495,7 @@
         <v>1687</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>327</v>
       </c>
@@ -32413,7 +32536,7 @@
         <v>1688</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>340</v>
       </c>
@@ -32454,7 +32577,7 @@
         <v>1689</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>355</v>
       </c>
@@ -32495,7 +32618,7 @@
         <v>1690</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>371</v>
       </c>
@@ -32536,7 +32659,7 @@
         <v>1691</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>370</v>
       </c>
@@ -32577,7 +32700,7 @@
         <v>1692</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>368</v>
       </c>
@@ -32618,7 +32741,7 @@
         <v>1693</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>365</v>
       </c>
@@ -32659,7 +32782,7 @@
         <v>1694</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>387</v>
       </c>
@@ -32700,7 +32823,7 @@
         <v>1695</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>392</v>
       </c>
@@ -32741,7 +32864,7 @@
         <v>1696</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>397</v>
       </c>
@@ -32782,7 +32905,7 @@
         <v>1697</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>407</v>
       </c>
@@ -32823,7 +32946,7 @@
         <v>1698</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>446</v>
       </c>
@@ -32864,7 +32987,7 @@
         <v>1699</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>451</v>
       </c>
@@ -32905,7 +33028,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>609</v>
       </c>
@@ -32946,7 +33069,7 @@
         <v>1701</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>613</v>
       </c>
@@ -32987,7 +33110,7 @@
         <v>1702</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>620</v>
       </c>
@@ -33028,7 +33151,7 @@
         <v>1703</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>54</v>
       </c>
@@ -33066,7 +33189,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>631</v>
       </c>
@@ -33107,7 +33230,7 @@
         <v>1704</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>637</v>
       </c>
@@ -33148,7 +33271,7 @@
         <v>1705</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>649</v>
       </c>
@@ -33189,7 +33312,7 @@
         <v>1706</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>655</v>
       </c>
@@ -33230,7 +33353,7 @@
         <v>1707</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>658</v>
       </c>
@@ -33271,7 +33394,7 @@
         <v>1708</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>663</v>
       </c>
@@ -33312,7 +33435,7 @@
         <v>1709</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>666</v>
       </c>
@@ -33353,7 +33476,7 @@
         <v>1710</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>668</v>
       </c>
@@ -33394,7 +33517,7 @@
         <v>1711</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>673</v>
       </c>
@@ -33435,7 +33558,7 @@
         <v>1712</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>676</v>
       </c>
@@ -33476,7 +33599,7 @@
         <v>1713</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>693</v>
       </c>
@@ -33517,7 +33640,7 @@
         <v>1714</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>696</v>
       </c>
@@ -33558,7 +33681,7 @@
         <v>1715</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>701</v>
       </c>
@@ -33599,7 +33722,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>702</v>
       </c>
@@ -33640,7 +33763,7 @@
         <v>1717</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>706</v>
       </c>
@@ -33681,7 +33804,7 @@
         <v>1718</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>718</v>
       </c>
@@ -33722,7 +33845,7 @@
         <v>1719</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>750</v>
       </c>
@@ -33763,7 +33886,7 @@
         <v>1720</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>613</v>
       </c>
@@ -33804,7 +33927,7 @@
         <v>1702</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>762</v>
       </c>
@@ -33845,7 +33968,7 @@
         <v>1721</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>397</v>
       </c>
@@ -33886,7 +34009,7 @@
         <v>1697</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>787</v>
       </c>
@@ -33927,7 +34050,7 @@
         <v>1722</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>807</v>
       </c>
@@ -33968,7 +34091,7 @@
         <v>1723</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>813</v>
       </c>
@@ -34009,7 +34132,7 @@
         <v>1724</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>889</v>
       </c>
@@ -34050,7 +34173,7 @@
         <v>1725</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>892</v>
       </c>
@@ -34091,7 +34214,7 @@
         <v>1726</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>894</v>
       </c>
@@ -34132,7 +34255,7 @@
         <v>1727</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>897</v>
       </c>
@@ -34173,7 +34296,7 @@
         <v>1728</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>906</v>
       </c>
@@ -34214,7 +34337,7 @@
         <v>1729</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>907</v>
       </c>
@@ -34255,7 +34378,7 @@
         <v>1730</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>910</v>
       </c>
@@ -34296,7 +34419,7 @@
         <v>1731</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>914</v>
       </c>
@@ -34337,7 +34460,7 @@
         <v>1732</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>917</v>
       </c>
@@ -34378,7 +34501,7 @@
         <v>1733</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>978</v>
       </c>
@@ -34419,7 +34542,7 @@
         <v>1734</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>981</v>
       </c>
@@ -34460,7 +34583,7 @@
         <v>1735</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>1004</v>
       </c>
@@ -34501,7 +34624,7 @@
         <v>1736</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>1007</v>
       </c>
@@ -34542,7 +34665,7 @@
         <v>1737</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>1010</v>
       </c>
@@ -34583,7 +34706,7 @@
         <v>1738</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>1031</v>
       </c>
@@ -34624,7 +34747,7 @@
         <v>1739</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>1040</v>
       </c>
@@ -34665,7 +34788,7 @@
         <v>1740</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>1043</v>
       </c>
@@ -34706,7 +34829,7 @@
         <v>1741</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>1076</v>
       </c>
@@ -34747,7 +34870,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>1079</v>
       </c>
@@ -34788,7 +34911,7 @@
         <v>1743</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>1082</v>
       </c>
@@ -34829,7 +34952,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>1083</v>
       </c>
@@ -34870,7 +34993,7 @@
         <v>1745</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>1086</v>
       </c>
@@ -34911,7 +35034,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>1089</v>
       </c>
@@ -34952,7 +35075,7 @@
         <v>1747</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>1092</v>
       </c>
@@ -34993,7 +35116,7 @@
         <v>1748</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>1124</v>
       </c>
@@ -35034,7 +35157,7 @@
         <v>1749</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>1145</v>
       </c>
@@ -35075,7 +35198,7 @@
         <v>1750</v>
       </c>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>1147</v>
       </c>
@@ -35116,7 +35239,7 @@
         <v>1751</v>
       </c>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>1182</v>
       </c>
@@ -35157,7 +35280,7 @@
         <v>1752</v>
       </c>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>1187</v>
       </c>
@@ -35198,7 +35321,7 @@
         <v>1753</v>
       </c>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>1188</v>
       </c>
@@ -35239,7 +35362,7 @@
         <v>1754</v>
       </c>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>1314</v>
       </c>
@@ -35280,7 +35403,7 @@
         <v>1755</v>
       </c>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>1316</v>
       </c>
@@ -35321,7 +35444,7 @@
         <v>1756</v>
       </c>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>1317</v>
       </c>
@@ -35362,7 +35485,7 @@
         <v>1757</v>
       </c>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>1320</v>
       </c>
@@ -35403,7 +35526,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>1342</v>
       </c>
@@ -35444,7 +35567,7 @@
         <v>1759</v>
       </c>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>1346</v>
       </c>
@@ -35485,7 +35608,7 @@
         <v>1760</v>
       </c>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>1348</v>
       </c>
@@ -35526,7 +35649,7 @@
         <v>1761</v>
       </c>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>1351</v>
       </c>
@@ -35567,7 +35690,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>1352</v>
       </c>
@@ -35608,7 +35731,7 @@
         <v>1763</v>
       </c>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>1355</v>
       </c>
@@ -35649,7 +35772,7 @@
         <v>1764</v>
       </c>
     </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>1398</v>
       </c>
@@ -35690,7 +35813,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>1403</v>
       </c>
@@ -35731,7 +35854,7 @@
         <v>1766</v>
       </c>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>1406</v>
       </c>
@@ -35772,7 +35895,7 @@
         <v>1767</v>
       </c>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>1409</v>
       </c>
@@ -35813,7 +35936,7 @@
         <v>1768</v>
       </c>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>1425</v>
       </c>
@@ -35854,7 +35977,7 @@
         <v>1769</v>
       </c>
     </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>1475</v>
       </c>
@@ -35895,7 +36018,7 @@
         <v>1770</v>
       </c>
     </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>1487</v>
       </c>
@@ -35936,7 +36059,7 @@
         <v>1771</v>
       </c>
     </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>1519</v>
       </c>
@@ -35977,7 +36100,7 @@
         <v>1772</v>
       </c>
     </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>1518</v>
       </c>
@@ -36018,7 +36141,7 @@
         <v>1773</v>
       </c>
     </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>1559</v>
       </c>
@@ -36059,7 +36182,7 @@
         <v>1558</v>
       </c>
     </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>1561</v>
       </c>
@@ -36100,7 +36223,7 @@
         <v>1560</v>
       </c>
     </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>1793</v>
       </c>
@@ -36141,7 +36264,7 @@
         <v>1794</v>
       </c>
     </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>1795</v>
       </c>
@@ -36182,7 +36305,7 @@
         <v>1797</v>
       </c>
     </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>1847</v>
       </c>
@@ -36223,7 +36346,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>1848</v>
       </c>
@@ -36264,7 +36387,7 @@
         <v>1840</v>
       </c>
     </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>1849</v>
       </c>
@@ -36305,7 +36428,7 @@
         <v>1841</v>
       </c>
     </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>1850</v>
       </c>
@@ -36346,7 +36469,7 @@
         <v>1842</v>
       </c>
     </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>1851</v>
       </c>
@@ -36387,7 +36510,7 @@
         <v>1843</v>
       </c>
     </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>1852</v>
       </c>
@@ -36428,7 +36551,7 @@
         <v>1844</v>
       </c>
     </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>1853</v>
       </c>
@@ -36469,7 +36592,7 @@
         <v>1845</v>
       </c>
     </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>1854</v>
       </c>
@@ -36510,7 +36633,7 @@
         <v>1846</v>
       </c>
     </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>1901</v>
       </c>
@@ -36548,7 +36671,7 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>1932</v>
       </c>
@@ -36589,7 +36712,7 @@
         <v>1929</v>
       </c>
     </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>1933</v>
       </c>
@@ -36630,7 +36753,7 @@
         <v>1936</v>
       </c>
     </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>1941</v>
       </c>
@@ -36671,7 +36794,7 @@
         <v>1940</v>
       </c>
     </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>1952</v>
       </c>
@@ -36712,7 +36835,7 @@
         <v>1949</v>
       </c>
     </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>1956</v>
       </c>
@@ -36753,7 +36876,7 @@
         <v>1953</v>
       </c>
     </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>1960</v>
       </c>
@@ -36794,7 +36917,7 @@
         <v>1957</v>
       </c>
     </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>1964</v>
       </c>
@@ -36835,7 +36958,7 @@
         <v>1961</v>
       </c>
     </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>1968</v>
       </c>
@@ -36876,7 +36999,7 @@
         <v>1965</v>
       </c>
     </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>2047</v>
       </c>
@@ -36917,7 +37040,7 @@
         <v>2044</v>
       </c>
     </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>2064</v>
       </c>
@@ -36958,7 +37081,7 @@
         <v>2062</v>
       </c>
     </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>2068</v>
       </c>
@@ -36999,7 +37122,7 @@
         <v>2069</v>
       </c>
     </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>2073</v>
       </c>
@@ -37040,7 +37163,7 @@
         <v>2070</v>
       </c>
     </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>2077</v>
       </c>
@@ -37081,7 +37204,7 @@
         <v>2074</v>
       </c>
     </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>2081</v>
       </c>
@@ -37122,7 +37245,7 @@
         <v>2078</v>
       </c>
     </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>2086</v>
       </c>
@@ -37163,7 +37286,7 @@
         <v>2085</v>
       </c>
     </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>2090</v>
       </c>
@@ -37204,7 +37327,7 @@
         <v>2089</v>
       </c>
     </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>2167</v>
       </c>
@@ -37245,7 +37368,7 @@
         <v>2166</v>
       </c>
     </row>
-    <row r="147" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>2174</v>
       </c>
@@ -37286,7 +37409,7 @@
         <v>2173</v>
       </c>
     </row>
-    <row r="148" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>2198</v>
       </c>
@@ -37327,7 +37450,7 @@
         <v>2197</v>
       </c>
     </row>
-    <row r="149" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>2219</v>
       </c>
@@ -37368,7 +37491,7 @@
         <v>2217</v>
       </c>
     </row>
-    <row r="150" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>2239</v>
       </c>
@@ -37409,7 +37532,7 @@
         <v>2238</v>
       </c>
     </row>
-    <row r="151" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>1352</v>
       </c>
@@ -37450,7 +37573,7 @@
         <v>1763</v>
       </c>
     </row>
-    <row r="152" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>2255</v>
       </c>
@@ -37491,7 +37614,7 @@
         <v>2254</v>
       </c>
     </row>
-    <row r="153" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>2258</v>
       </c>
@@ -37532,7 +37655,7 @@
         <v>2257</v>
       </c>
     </row>
-    <row r="154" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>2263</v>
       </c>
@@ -37573,7 +37696,7 @@
         <v>2260</v>
       </c>
     </row>
-    <row r="155" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>2379</v>
       </c>
@@ -37614,7 +37737,7 @@
         <v>2375</v>
       </c>
     </row>
-    <row r="156" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>2382</v>
       </c>
@@ -37655,7 +37778,7 @@
         <v>2380</v>
       </c>
     </row>
-    <row r="157" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>2384</v>
       </c>
@@ -37696,7 +37819,7 @@
         <v>2383</v>
       </c>
     </row>
-    <row r="158" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>2434</v>
       </c>
@@ -37737,7 +37860,7 @@
         <v>2435</v>
       </c>
     </row>
-    <row r="159" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>2438</v>
       </c>
@@ -37778,7 +37901,7 @@
         <v>2436</v>
       </c>
     </row>
-    <row r="160" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>2441</v>
       </c>
@@ -37819,7 +37942,7 @@
         <v>2442</v>
       </c>
     </row>
-    <row r="161" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>2445</v>
       </c>
@@ -37860,7 +37983,7 @@
         <v>2444</v>
       </c>
     </row>
-    <row r="162" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>2458</v>
       </c>
@@ -37901,7 +38024,7 @@
         <v>2457</v>
       </c>
     </row>
-    <row r="163" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>2461</v>
       </c>
@@ -37942,7 +38065,7 @@
         <v>2460</v>
       </c>
     </row>
-    <row r="164" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>2521</v>
       </c>
@@ -37983,7 +38106,7 @@
         <v>2522</v>
       </c>
     </row>
-    <row r="165" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>2554</v>
       </c>
@@ -38024,7 +38147,7 @@
         <v>2553</v>
       </c>
     </row>
-    <row r="166" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>2558</v>
       </c>
@@ -38065,7 +38188,7 @@
         <v>2557</v>
       </c>
     </row>
-    <row r="167" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>2642</v>
       </c>
@@ -38106,7 +38229,7 @@
         <v>2643</v>
       </c>
     </row>
-    <row r="168" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>2667</v>
       </c>
@@ -38147,7 +38270,7 @@
         <v>2665</v>
       </c>
     </row>
-    <row r="169" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>2671</v>
       </c>
@@ -38183,6 +38306,211 @@
       </c>
       <c r="N169" t="s">
         <v>2669</v>
+      </c>
+    </row>
+    <row r="170" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A170" t="s">
+        <v>2704</v>
+      </c>
+      <c r="B170" t="s">
+        <v>11</v>
+      </c>
+      <c r="C170" t="s">
+        <v>56</v>
+      </c>
+      <c r="D170" t="s">
+        <v>531</v>
+      </c>
+      <c r="E170" t="s">
+        <v>2706</v>
+      </c>
+      <c r="F170" t="s">
+        <v>1009</v>
+      </c>
+      <c r="H170" t="s">
+        <v>20</v>
+      </c>
+      <c r="I170" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="J170" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K170" t="s">
+        <v>55</v>
+      </c>
+      <c r="L170" t="s">
+        <v>2704</v>
+      </c>
+      <c r="M170" t="s">
+        <v>17</v>
+      </c>
+      <c r="N170" t="s">
+        <v>2705</v>
+      </c>
+    </row>
+    <row r="171" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A171" t="s">
+        <v>2707</v>
+      </c>
+      <c r="B171" t="s">
+        <v>11</v>
+      </c>
+      <c r="C171" t="s">
+        <v>56</v>
+      </c>
+      <c r="D171" t="s">
+        <v>531</v>
+      </c>
+      <c r="E171" t="s">
+        <v>2708</v>
+      </c>
+      <c r="F171" t="s">
+        <v>1009</v>
+      </c>
+      <c r="H171" t="s">
+        <v>20</v>
+      </c>
+      <c r="I171" s="5" t="s">
+        <v>2556</v>
+      </c>
+      <c r="J171" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K171" t="s">
+        <v>55</v>
+      </c>
+      <c r="L171" t="s">
+        <v>2707</v>
+      </c>
+      <c r="M171" t="s">
+        <v>17</v>
+      </c>
+      <c r="N171" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="172" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A172" t="s">
+        <v>2714</v>
+      </c>
+      <c r="B172" t="s">
+        <v>11</v>
+      </c>
+      <c r="C172" t="s">
+        <v>56</v>
+      </c>
+      <c r="D172" t="s">
+        <v>531</v>
+      </c>
+      <c r="E172" t="s">
+        <v>2713</v>
+      </c>
+      <c r="F172" t="s">
+        <v>1009</v>
+      </c>
+      <c r="H172" t="s">
+        <v>20</v>
+      </c>
+      <c r="I172" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="J172" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K172" t="s">
+        <v>55</v>
+      </c>
+      <c r="L172" t="s">
+        <v>2714</v>
+      </c>
+      <c r="M172" t="s">
+        <v>17</v>
+      </c>
+      <c r="N172" t="s">
+        <v>2715</v>
+      </c>
+    </row>
+    <row r="173" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A173" t="s">
+        <v>2716</v>
+      </c>
+      <c r="B173" t="s">
+        <v>11</v>
+      </c>
+      <c r="C173" t="s">
+        <v>56</v>
+      </c>
+      <c r="D173" t="s">
+        <v>531</v>
+      </c>
+      <c r="E173" t="s">
+        <v>2717</v>
+      </c>
+      <c r="F173" t="s">
+        <v>1009</v>
+      </c>
+      <c r="H173" t="s">
+        <v>20</v>
+      </c>
+      <c r="I173" s="5" t="s">
+        <v>2559</v>
+      </c>
+      <c r="J173" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K173" t="s">
+        <v>55</v>
+      </c>
+      <c r="L173" t="s">
+        <v>2716</v>
+      </c>
+      <c r="M173" t="s">
+        <v>17</v>
+      </c>
+      <c r="N173" t="s">
+        <v>2718</v>
+      </c>
+    </row>
+    <row r="174" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A174" t="s">
+        <v>2719</v>
+      </c>
+      <c r="B174" t="s">
+        <v>11</v>
+      </c>
+      <c r="C174" t="s">
+        <v>56</v>
+      </c>
+      <c r="D174" t="s">
+        <v>531</v>
+      </c>
+      <c r="E174" t="s">
+        <v>2720</v>
+      </c>
+      <c r="F174" t="s">
+        <v>1009</v>
+      </c>
+      <c r="H174" t="s">
+        <v>20</v>
+      </c>
+      <c r="I174" s="5" t="s">
+        <v>1399</v>
+      </c>
+      <c r="J174" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K174" t="s">
+        <v>55</v>
+      </c>
+      <c r="L174" t="s">
+        <v>2719</v>
+      </c>
+      <c r="M174" t="s">
+        <v>17</v>
+      </c>
+      <c r="N174" t="s">
+        <v>2721</v>
       </c>
     </row>
   </sheetData>
@@ -38204,28 +38532,28 @@
       <selection activeCell="H53" sqref="H53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.1796875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="51.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="32.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="51.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="32.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.453125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.26953125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="30.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="30.54296875" style="3" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="31.453125" bestFit="1" customWidth="1"/>
     <col min="16" max="1025" width="9" style="20" customWidth="1"/>
-    <col min="1026" max="16384" width="8.85546875" style="20"/>
+    <col min="1026" max="16384" width="8.81640625" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="10" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" s="10" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -38272,7 +38600,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>44</v>
       </c>
@@ -38316,7 +38644,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>61</v>
       </c>
@@ -38360,7 +38688,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>249</v>
       </c>
@@ -38404,7 +38732,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>251</v>
       </c>
@@ -38448,7 +38776,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>252</v>
       </c>
@@ -38492,7 +38820,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>353</v>
       </c>
@@ -38536,7 +38864,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>501</v>
       </c>
@@ -38575,7 +38903,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>625</v>
       </c>
@@ -38616,7 +38944,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>681</v>
       </c>
@@ -38657,7 +38985,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>716</v>
       </c>
@@ -38701,7 +39029,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>779</v>
       </c>
@@ -38745,7 +39073,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>785</v>
       </c>
@@ -38786,7 +39114,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>984</v>
       </c>
@@ -38830,7 +39158,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>1003</v>
       </c>
@@ -38874,7 +39202,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>1118</v>
       </c>
@@ -38918,7 +39246,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>1283</v>
       </c>
@@ -38962,7 +39290,7 @@
         <v>1780</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>1284</v>
       </c>
@@ -39006,7 +39334,7 @@
         <v>1779</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>1289</v>
       </c>
@@ -39050,7 +39378,7 @@
         <v>1778</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>1295</v>
       </c>
@@ -39094,7 +39422,7 @@
         <v>1777</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>1359</v>
       </c>
@@ -39138,7 +39466,7 @@
         <v>1781</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>1507</v>
       </c>
@@ -39182,7 +39510,7 @@
         <v>1505</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
         <v>1785</v>
       </c>
@@ -39226,7 +39554,7 @@
         <v>1786</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>2226</v>
       </c>
@@ -39273,7 +39601,7 @@
         <v>2221</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>2230</v>
       </c>
@@ -39317,7 +39645,7 @@
         <v>2228</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>2428</v>
       </c>
@@ -39361,7 +39689,7 @@
         <v>2427</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>2464</v>
       </c>
@@ -39405,7 +39733,7 @@
         <v>2465</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>2516</v>
       </c>
@@ -39449,7 +39777,7 @@
         <v>2515</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>2570</v>
       </c>
@@ -39490,7 +39818,7 @@
         <v>2568</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>2586</v>
       </c>
@@ -39528,7 +39856,7 @@
         <v>2586</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>2615</v>
       </c>
@@ -39572,7 +39900,7 @@
         <v>2612</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>2619</v>
       </c>
@@ -39616,7 +39944,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>2627</v>
       </c>
@@ -39660,7 +39988,7 @@
         <v>2626</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>2631</v>
       </c>
@@ -39704,7 +40032,7 @@
         <v>2630</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>2645</v>
       </c>
@@ -39764,26 +40092,26 @@
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="32" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.7265625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="45.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="45.54296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7265625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="32" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="26.81640625" bestFit="1" customWidth="1"/>
     <col min="14" max="1025" width="9" style="20" customWidth="1"/>
-    <col min="1026" max="16384" width="8.85546875" style="20"/>
+    <col min="1026" max="16384" width="8.81640625" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="10" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="10" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -39824,7 +40152,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>413</v>
       </c>
@@ -39862,7 +40190,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>417</v>
       </c>
@@ -39900,7 +40228,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>618</v>
       </c>
@@ -39938,7 +40266,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>1199</v>
       </c>
@@ -39976,7 +40304,7 @@
         <v>1198</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>1395</v>
       </c>
@@ -40014,7 +40342,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>1424</v>
       </c>
@@ -40052,7 +40380,7 @@
         <v>1820</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>1489</v>
       </c>
@@ -40090,7 +40418,7 @@
         <v>1491</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>1996</v>
       </c>
@@ -40128,7 +40456,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>2006</v>
       </c>
@@ -40166,7 +40494,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>2182</v>
       </c>
@@ -40204,7 +40532,7 @@
         <v>2179</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>2284</v>
       </c>
@@ -40242,7 +40570,7 @@
         <v>2285</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>2296</v>
       </c>
@@ -40280,7 +40608,7 @@
         <v>2295</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>2601</v>
       </c>
@@ -40337,26 +40665,26 @@
       <selection activeCell="E58" sqref="E58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.26953125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="35" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="44.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="44.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="30.26953125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="31.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="8.85546875" style="20"/>
+    <col min="12" max="12" width="31.1796875" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="8.81640625" style="20"/>
     <col min="16" max="1025" width="9" style="20" customWidth="1"/>
-    <col min="1026" max="16384" width="8.85546875" style="20"/>
+    <col min="1026" max="16384" width="8.81640625" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="10" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="10" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -40394,7 +40722,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>253</v>
       </c>
@@ -40429,7 +40757,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>254</v>
       </c>
@@ -40464,7 +40792,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>275</v>
       </c>
@@ -40499,7 +40827,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>282</v>
       </c>
@@ -40534,7 +40862,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>285</v>
       </c>
@@ -40569,7 +40897,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>301</v>
       </c>
@@ -40604,7 +40932,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>289</v>
       </c>
@@ -40639,7 +40967,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>291</v>
       </c>
@@ -40674,7 +41002,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>345</v>
       </c>
@@ -40709,7 +41037,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>382</v>
       </c>
@@ -40744,7 +41072,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>437</v>
       </c>
@@ -40779,7 +41107,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>480</v>
       </c>
@@ -40805,7 +41133,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>484</v>
       </c>
@@ -40831,7 +41159,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>485</v>
       </c>
@@ -40857,7 +41185,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>614</v>
       </c>
@@ -40883,7 +41211,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>733</v>
       </c>
@@ -40918,7 +41246,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>738</v>
       </c>
@@ -40953,7 +41281,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>747</v>
       </c>
@@ -40988,7 +41316,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>754</v>
       </c>
@@ -41021,7 +41349,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>760</v>
       </c>
@@ -41056,7 +41384,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>806</v>
       </c>
@@ -41091,7 +41419,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>821</v>
       </c>
@@ -41126,7 +41454,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>931</v>
       </c>
@@ -41161,7 +41489,7 @@
         <v>1810</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>934</v>
       </c>
@@ -41196,7 +41524,7 @@
         <v>1811</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>948</v>
       </c>
@@ -41231,7 +41559,7 @@
         <v>1812</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>950</v>
       </c>
@@ -41266,7 +41594,7 @@
         <v>1813</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>959</v>
       </c>
@@ -41301,7 +41629,7 @@
         <v>1814</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>1134</v>
       </c>
@@ -41336,7 +41664,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>1156</v>
       </c>
@@ -41371,7 +41699,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>1176</v>
       </c>
@@ -41406,7 +41734,7 @@
         <v>1175</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>1181</v>
       </c>
@@ -41441,7 +41769,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>1224</v>
       </c>
@@ -41476,7 +41804,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>1227</v>
       </c>
@@ -41511,7 +41839,7 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>1234</v>
       </c>
@@ -41546,7 +41874,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>1331</v>
       </c>
@@ -41581,7 +41909,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>1340</v>
       </c>
@@ -41616,7 +41944,7 @@
         <v>1338</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>1371</v>
       </c>
@@ -41651,7 +41979,7 @@
         <v>1369</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>1503</v>
       </c>
@@ -41686,7 +42014,7 @@
         <v>1502</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>1565</v>
       </c>
@@ -41721,7 +42049,7 @@
         <v>1563</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>1574</v>
       </c>
@@ -41756,7 +42084,7 @@
         <v>1573</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>1663</v>
       </c>
@@ -41791,7 +42119,7 @@
         <v>1661</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>1775</v>
       </c>
@@ -41826,7 +42154,7 @@
         <v>1774</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>1788</v>
       </c>
@@ -41861,7 +42189,7 @@
         <v>1787</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>1792</v>
       </c>
@@ -41896,7 +42224,7 @@
         <v>1791</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>1829</v>
       </c>
@@ -41931,7 +42259,7 @@
         <v>1828</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>1872</v>
       </c>
@@ -41966,7 +42294,7 @@
         <v>1871</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>1874</v>
       </c>
@@ -41989,7 +42317,7 @@
         <v>1874</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>2084</v>
       </c>
@@ -42024,7 +42352,7 @@
         <v>2082</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>2137</v>
       </c>
@@ -42059,7 +42387,7 @@
         <v>2135</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>2140</v>
       </c>
@@ -42094,7 +42422,7 @@
         <v>2138</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>2477</v>
       </c>
@@ -42129,7 +42457,7 @@
         <v>2476</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>2495</v>
       </c>
@@ -42161,7 +42489,7 @@
         <v>2493</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>2651</v>
       </c>
@@ -42193,7 +42521,7 @@
         <v>2650</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>2655</v>
       </c>
@@ -42228,7 +42556,7 @@
         <v>2654</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>2658</v>
       </c>
@@ -42263,7 +42591,7 @@
         <v>2657</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>2673</v>
       </c>
@@ -42295,7 +42623,7 @@
         <v>2672</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>2680</v>
       </c>
@@ -42342,31 +42670,31 @@
   </sheetPr>
   <dimension ref="A1:N178"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A125" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D178" sqref="D178"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="27.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.453125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="99" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="33.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="47.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="47.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="30.54296875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="29.26953125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="24.7265625" bestFit="1" customWidth="1"/>
     <col min="15" max="1025" width="9" style="20" customWidth="1"/>
-    <col min="1026" max="16384" width="8.85546875" style="20"/>
+    <col min="1026" max="16384" width="8.81640625" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="10" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="10" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -42410,7 +42738,7 @@
         <v>1831</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -42447,7 +42775,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>68</v>
       </c>
@@ -42484,7 +42812,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>74</v>
       </c>
@@ -42521,7 +42849,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>79</v>
       </c>
@@ -42558,7 +42886,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>80</v>
       </c>
@@ -42595,7 +42923,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>93</v>
       </c>
@@ -42632,7 +42960,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>95</v>
       </c>
@@ -42669,7 +42997,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>102</v>
       </c>
@@ -42705,7 +43033,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>105</v>
       </c>
@@ -42742,7 +43070,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>309</v>
       </c>
@@ -42777,7 +43105,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>318</v>
       </c>
@@ -42812,7 +43140,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>378</v>
       </c>
@@ -42847,7 +43175,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>403</v>
       </c>
@@ -42882,7 +43210,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>433</v>
       </c>
@@ -42917,7 +43245,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>442</v>
       </c>
@@ -42952,7 +43280,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>448</v>
       </c>
@@ -42987,7 +43315,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>471</v>
       </c>
@@ -43022,7 +43350,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>476</v>
       </c>
@@ -43057,7 +43385,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>489</v>
       </c>
@@ -43092,7 +43420,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>492</v>
       </c>
@@ -43127,7 +43455,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>496</v>
       </c>
@@ -43162,7 +43490,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>508</v>
       </c>
@@ -43197,7 +43525,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>511</v>
       </c>
@@ -43232,7 +43560,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>532</v>
       </c>
@@ -43267,7 +43595,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>537</v>
       </c>
@@ -43302,7 +43630,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>560</v>
       </c>
@@ -43337,7 +43665,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>540</v>
       </c>
@@ -43372,7 +43700,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>541</v>
       </c>
@@ -43407,7 +43735,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>542</v>
       </c>
@@ -43442,7 +43770,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>573</v>
       </c>
@@ -43477,7 +43805,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>577</v>
       </c>
@@ -43512,7 +43840,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>580</v>
       </c>
@@ -43547,7 +43875,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>583</v>
       </c>
@@ -43582,7 +43910,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>586</v>
       </c>
@@ -43617,7 +43945,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>590</v>
       </c>
@@ -43652,7 +43980,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>594</v>
       </c>
@@ -43687,7 +44015,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>595</v>
       </c>
@@ -43722,7 +44050,7 @@
         <v>1815</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>552</v>
       </c>
@@ -43757,7 +44085,7 @@
         <v>1816</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>599</v>
       </c>
@@ -43792,7 +44120,7 @@
         <v>1801</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>600</v>
       </c>
@@ -43827,7 +44155,7 @@
         <v>1817</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>602</v>
       </c>
@@ -43862,7 +44190,7 @@
         <v>1818</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>605</v>
       </c>
@@ -43897,7 +44225,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>635</v>
       </c>
@@ -43932,7 +44260,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>539</v>
       </c>
@@ -43967,7 +44295,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>670</v>
       </c>
@@ -44002,7 +44330,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>884</v>
       </c>
@@ -44037,7 +44365,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>901</v>
       </c>
@@ -44072,7 +44400,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>918</v>
       </c>
@@ -44107,7 +44435,7 @@
         <v>1836</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>921</v>
       </c>
@@ -44142,7 +44470,7 @@
         <v>1833</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>922</v>
       </c>
@@ -44177,7 +44505,7 @@
         <v>1834</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>923</v>
       </c>
@@ -44212,7 +44540,7 @@
         <v>1835</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>937</v>
       </c>
@@ -44247,7 +44575,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>943</v>
       </c>
@@ -44282,7 +44610,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>941</v>
       </c>
@@ -44317,7 +44645,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>1014</v>
       </c>
@@ -44352,7 +44680,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>1018</v>
       </c>
@@ -44387,7 +44715,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>1022</v>
       </c>
@@ -44422,7 +44750,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>1049</v>
       </c>
@@ -44455,7 +44783,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>1051</v>
       </c>
@@ -44490,7 +44818,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>1055</v>
       </c>
@@ -44525,7 +44853,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>1059</v>
       </c>
@@ -44560,7 +44888,7 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>1065</v>
       </c>
@@ -44595,7 +44923,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>1070</v>
       </c>
@@ -44630,7 +44958,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>1096</v>
       </c>
@@ -44665,7 +44993,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>1100</v>
       </c>
@@ -44700,7 +45028,7 @@
         <v>1098</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>1102</v>
       </c>
@@ -44735,7 +45063,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>1111</v>
       </c>
@@ -44770,7 +45098,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>1130</v>
       </c>
@@ -44805,7 +45133,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>1136</v>
       </c>
@@ -44840,7 +45168,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>1142</v>
       </c>
@@ -44875,7 +45203,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>1150</v>
       </c>
@@ -44910,7 +45238,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>1172</v>
       </c>
@@ -44945,7 +45273,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>1197</v>
       </c>
@@ -44980,7 +45308,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>1207</v>
       </c>
@@ -45015,7 +45343,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>1216</v>
       </c>
@@ -45050,7 +45378,7 @@
         <v>1215</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>1231</v>
       </c>
@@ -45085,7 +45413,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>1246</v>
       </c>
@@ -45120,7 +45448,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>1247</v>
       </c>
@@ -45155,7 +45483,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>1248</v>
       </c>
@@ -45190,7 +45518,7 @@
         <v>1248</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>1251</v>
       </c>
@@ -45225,7 +45553,7 @@
         <v>1249</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>1262</v>
       </c>
@@ -45260,7 +45588,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>1245</v>
       </c>
@@ -45301,7 +45629,7 @@
         <v>1832</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>1798</v>
       </c>
@@ -45336,7 +45664,7 @@
         <v>1799</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>1304</v>
       </c>
@@ -45371,7 +45699,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>1334</v>
       </c>
@@ -45406,7 +45734,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>1374</v>
       </c>
@@ -45441,7 +45769,7 @@
         <v>1802</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>1378</v>
       </c>
@@ -45476,7 +45804,7 @@
         <v>1822</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>1387</v>
       </c>
@@ -45511,7 +45839,7 @@
         <v>1386</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>1397</v>
       </c>
@@ -45546,7 +45874,7 @@
         <v>1823</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>1419</v>
       </c>
@@ -45581,7 +45909,7 @@
         <v>1803</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>1430</v>
       </c>
@@ -45616,7 +45944,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>1473</v>
       </c>
@@ -45651,7 +45979,7 @@
         <v>1472</v>
       </c>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>1479</v>
       </c>
@@ -45686,7 +46014,7 @@
         <v>1478</v>
       </c>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>1484</v>
       </c>
@@ -45721,7 +46049,7 @@
         <v>1482</v>
       </c>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>1500</v>
       </c>
@@ -45756,7 +46084,7 @@
         <v>1499</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>1522</v>
       </c>
@@ -45791,7 +46119,7 @@
         <v>1521</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>1528</v>
       </c>
@@ -45826,7 +46154,7 @@
         <v>1527</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>1533</v>
       </c>
@@ -45861,7 +46189,7 @@
         <v>1532</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>1538</v>
       </c>
@@ -45896,7 +46224,7 @@
         <v>1537</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>1540</v>
       </c>
@@ -45931,7 +46259,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>1545</v>
       </c>
@@ -45966,7 +46294,7 @@
         <v>1544</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>1549</v>
       </c>
@@ -46001,7 +46329,7 @@
         <v>1548</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>1553</v>
       </c>
@@ -46036,7 +46364,7 @@
         <v>1552</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>1571</v>
       </c>
@@ -46071,7 +46399,7 @@
         <v>1568</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>1804</v>
       </c>
@@ -46106,7 +46434,7 @@
         <v>1805</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>1808</v>
       </c>
@@ -46141,7 +46469,7 @@
         <v>1807</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>1877</v>
       </c>
@@ -46176,7 +46504,7 @@
         <v>1875</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>1906</v>
       </c>
@@ -46211,7 +46539,7 @@
         <v>1905</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>1910</v>
       </c>
@@ -46246,7 +46574,7 @@
         <v>1908</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>1969</v>
       </c>
@@ -46281,7 +46609,7 @@
         <v>1970</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>1974</v>
       </c>
@@ -46316,7 +46644,7 @@
         <v>1972</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>1975</v>
       </c>
@@ -46351,7 +46679,7 @@
         <v>1977</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>1979</v>
       </c>
@@ -46386,7 +46714,7 @@
         <v>1978</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>1984</v>
       </c>
@@ -46421,7 +46749,7 @@
         <v>1982</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>1988</v>
       </c>
@@ -46456,7 +46784,7 @@
         <v>1987</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>1992</v>
       </c>
@@ -46491,7 +46819,7 @@
         <v>1991</v>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>1993</v>
       </c>
@@ -46520,7 +46848,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>2003</v>
       </c>
@@ -46555,7 +46883,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>2010</v>
       </c>
@@ -46590,7 +46918,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>2023</v>
       </c>
@@ -46625,7 +46953,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>2026</v>
       </c>
@@ -46660,7 +46988,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>2031</v>
       </c>
@@ -46695,7 +47023,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>2051</v>
       </c>
@@ -46730,7 +47058,7 @@
         <v>2048</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>2055</v>
       </c>
@@ -46765,7 +47093,7 @@
         <v>2053</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>2058</v>
       </c>
@@ -46800,7 +47128,7 @@
         <v>2059</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>2095</v>
       </c>
@@ -46835,7 +47163,7 @@
         <v>2093</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>2099</v>
       </c>
@@ -46870,7 +47198,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>2104</v>
       </c>
@@ -46905,7 +47233,7 @@
         <v>2105</v>
       </c>
     </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>2108</v>
       </c>
@@ -46940,7 +47268,7 @@
         <v>2106</v>
       </c>
     </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>2120</v>
       </c>
@@ -46975,7 +47303,7 @@
         <v>2121</v>
       </c>
     </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>2124</v>
       </c>
@@ -47010,7 +47338,7 @@
         <v>2122</v>
       </c>
     </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>2128</v>
       </c>
@@ -47045,7 +47373,7 @@
         <v>2127</v>
       </c>
     </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>2130</v>
       </c>
@@ -47080,7 +47408,7 @@
         <v>2129</v>
       </c>
     </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>2145</v>
       </c>
@@ -47115,7 +47443,7 @@
         <v>2141</v>
       </c>
     </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>2150</v>
       </c>
@@ -47150,7 +47478,7 @@
         <v>2147</v>
       </c>
     </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>2157</v>
       </c>
@@ -47185,7 +47513,7 @@
         <v>2156</v>
       </c>
     </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>2163</v>
       </c>
@@ -47220,7 +47548,7 @@
         <v>2163</v>
       </c>
     </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>2170</v>
       </c>
@@ -47255,7 +47583,7 @@
         <v>2171</v>
       </c>
     </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>2177</v>
       </c>
@@ -47290,7 +47618,7 @@
         <v>2178</v>
       </c>
     </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>2196</v>
       </c>
@@ -47325,7 +47653,7 @@
         <v>2193</v>
       </c>
     </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>2202</v>
       </c>
@@ -47366,7 +47694,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>2206</v>
       </c>
@@ -47401,7 +47729,7 @@
         <v>2205</v>
       </c>
     </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>2210</v>
       </c>
@@ -47430,7 +47758,7 @@
         <v>2210</v>
       </c>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>2246</v>
       </c>
@@ -47465,7 +47793,7 @@
         <v>2243</v>
       </c>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>2249</v>
       </c>
@@ -47500,7 +47828,7 @@
         <v>2248</v>
       </c>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>2267</v>
       </c>
@@ -47535,7 +47863,7 @@
         <v>2266</v>
       </c>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>2280</v>
       </c>
@@ -47570,7 +47898,7 @@
         <v>2279</v>
       </c>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>2299</v>
       </c>
@@ -47605,7 +47933,7 @@
         <v>2300</v>
       </c>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>2306</v>
       </c>
@@ -47640,7 +47968,7 @@
         <v>2305</v>
       </c>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>2310</v>
       </c>
@@ -47675,7 +48003,7 @@
         <v>2307</v>
       </c>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>2313</v>
       </c>
@@ -47707,7 +48035,7 @@
         <v>2314</v>
       </c>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>2316</v>
       </c>
@@ -47739,7 +48067,7 @@
         <v>2315</v>
       </c>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>2369</v>
       </c>
@@ -47768,7 +48096,7 @@
         <v>2369</v>
       </c>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>2370</v>
       </c>
@@ -47797,7 +48125,7 @@
         <v>2370</v>
       </c>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>2371</v>
       </c>
@@ -47826,7 +48154,7 @@
         <v>2371</v>
       </c>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>2406</v>
       </c>
@@ -47861,7 +48189,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>2408</v>
       </c>
@@ -47896,7 +48224,7 @@
         <v>2409</v>
       </c>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>2412</v>
       </c>
@@ -47931,7 +48259,7 @@
         <v>2411</v>
       </c>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>2416</v>
       </c>
@@ -47966,7 +48294,7 @@
         <v>2418</v>
       </c>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>2421</v>
       </c>
@@ -48001,7 +48329,7 @@
         <v>2422</v>
       </c>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>2426</v>
       </c>
@@ -48036,7 +48364,7 @@
         <v>2424</v>
       </c>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>2449</v>
       </c>
@@ -48071,7 +48399,7 @@
         <v>2448</v>
       </c>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>2501</v>
       </c>
@@ -48103,7 +48431,7 @@
         <v>2502</v>
       </c>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>2504</v>
       </c>
@@ -48135,7 +48463,7 @@
         <v>2506</v>
       </c>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>2508</v>
       </c>
@@ -48170,7 +48498,7 @@
         <v>2511</v>
       </c>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>2546</v>
       </c>
@@ -48205,7 +48533,7 @@
         <v>2543</v>
       </c>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>2547</v>
       </c>
@@ -48228,7 +48556,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>2549</v>
       </c>
@@ -48251,7 +48579,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>2550</v>
       </c>
@@ -48274,7 +48602,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>2563</v>
       </c>
@@ -48306,7 +48634,7 @@
         <v>2562</v>
       </c>
     </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>2572</v>
       </c>
@@ -48341,7 +48669,7 @@
         <v>2574</v>
       </c>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>2580</v>
       </c>
@@ -48370,7 +48698,7 @@
         <v>2580</v>
       </c>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>2605</v>
       </c>
@@ -48405,7 +48733,7 @@
         <v>2603</v>
       </c>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>2608</v>
       </c>
@@ -48440,7 +48768,7 @@
         <v>2610</v>
       </c>
     </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>2684</v>
       </c>
@@ -48472,7 +48800,7 @@
         <v>2682</v>
       </c>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>2702</v>
       </c>
@@ -48489,7 +48817,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>2703</v>
       </c>
@@ -48529,25 +48857,25 @@
       <selection pane="bottomLeft" activeCell="L71" sqref="L71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="32.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="79.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="35.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="32.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="79.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="30.26953125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="34.1796875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="24.54296875" bestFit="1" customWidth="1"/>
     <col min="15" max="1025" width="9" style="20" customWidth="1"/>
-    <col min="1026" max="16384" width="8.85546875" style="20"/>
+    <col min="1026" max="16384" width="8.81640625" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="9" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="9" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -48591,7 +48919,7 @@
         <v>1831</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>84</v>
       </c>
@@ -48626,7 +48954,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>122</v>
       </c>
@@ -48652,7 +48980,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>430</v>
       </c>
@@ -48687,7 +49015,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>518</v>
       </c>
@@ -48713,7 +49041,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>457</v>
       </c>
@@ -48739,7 +49067,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>463</v>
       </c>
@@ -48774,7 +49102,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>468</v>
       </c>
@@ -48809,7 +49137,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>766</v>
       </c>
@@ -48844,7 +49172,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>646</v>
       </c>
@@ -48879,7 +49207,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>741</v>
       </c>
@@ -48908,7 +49236,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>744</v>
       </c>
@@ -48943,7 +49271,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>755</v>
       </c>
@@ -48978,7 +49306,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>772</v>
       </c>
@@ -49013,7 +49341,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>796</v>
       </c>
@@ -49048,7 +49376,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>797</v>
       </c>
@@ -49083,7 +49411,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>818</v>
       </c>
@@ -49124,7 +49452,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>827</v>
       </c>
@@ -49159,7 +49487,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>828</v>
       </c>
@@ -49194,7 +49522,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>831</v>
       </c>
@@ -49229,7 +49557,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>974</v>
       </c>
@@ -49264,7 +49592,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>1165</v>
       </c>
@@ -49299,7 +49627,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>1213</v>
       </c>
@@ -49325,7 +49653,7 @@
         <v>1213</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>1214</v>
       </c>
@@ -49351,7 +49679,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>1492</v>
       </c>
@@ -49377,7 +49705,7 @@
         <v>1492</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>1266</v>
       </c>
@@ -49397,7 +49725,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>1269</v>
       </c>
@@ -49432,7 +49760,7 @@
         <v>1268</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>1274</v>
       </c>
@@ -49467,7 +49795,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>1439</v>
       </c>
@@ -49493,7 +49821,7 @@
         <v>1439</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>1494</v>
       </c>
@@ -49519,7 +49847,7 @@
         <v>1494</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>1577</v>
       </c>
@@ -49545,7 +49873,7 @@
         <v>1577</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>1824</v>
       </c>
@@ -49580,7 +49908,7 @@
         <v>1825</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>1826</v>
       </c>
@@ -49615,7 +49943,7 @@
         <v>1827</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>1926</v>
       </c>
@@ -49650,7 +49978,7 @@
         <v>1928</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>2034</v>
       </c>
@@ -49685,7 +50013,7 @@
         <v>2037</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>2040</v>
       </c>
@@ -49720,7 +50048,7 @@
         <v>2039</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>2110</v>
       </c>
@@ -49755,7 +50083,7 @@
         <v>2111</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>2154</v>
       </c>
@@ -49790,7 +50118,7 @@
         <v>2153</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>2186</v>
       </c>
@@ -49825,7 +50153,7 @@
         <v>2184</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>2190</v>
       </c>
@@ -49848,7 +50176,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>2215</v>
       </c>
@@ -49883,7 +50211,7 @@
         <v>2214</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>2272</v>
       </c>
@@ -49918,7 +50246,7 @@
         <v>2273</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>2275</v>
       </c>
@@ -49953,7 +50281,7 @@
         <v>2277</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>2292</v>
       </c>
@@ -49994,7 +50322,7 @@
         <v>2321</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>2330</v>
       </c>
@@ -50029,7 +50357,7 @@
         <v>2329</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>2327</v>
       </c>
@@ -50064,7 +50392,7 @@
         <v>2326</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>2340</v>
       </c>
@@ -50099,7 +50427,7 @@
         <v>2341</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>2346</v>
       </c>
@@ -50134,7 +50462,7 @@
         <v>2345</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>2350</v>
       </c>
@@ -50169,7 +50497,7 @@
         <v>2351</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>2354</v>
       </c>
@@ -50204,7 +50532,7 @@
         <v>2353</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>2357</v>
       </c>
@@ -50239,7 +50567,7 @@
         <v>2360</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>2363</v>
       </c>
@@ -50274,7 +50602,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>2366</v>
       </c>
@@ -50309,7 +50637,7 @@
         <v>2368</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>2374</v>
       </c>
@@ -50332,7 +50660,7 @@
         <v>2374</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>2392</v>
       </c>
@@ -50367,7 +50695,7 @@
         <v>2393</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>2395</v>
       </c>
@@ -50402,7 +50730,7 @@
         <v>2394</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>2455</v>
       </c>
@@ -50437,7 +50765,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>2474</v>
       </c>
@@ -50472,7 +50800,7 @@
         <v>2472</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>2498</v>
       </c>
@@ -50504,7 +50832,7 @@
         <v>2499</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>2523</v>
       </c>
@@ -50539,7 +50867,7 @@
         <v>2525</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>2529</v>
       </c>
@@ -50571,7 +50899,7 @@
         <v>2530</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>2533</v>
       </c>
@@ -50597,7 +50925,7 @@
         <v>2533</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>2536</v>
       </c>
@@ -50632,7 +50960,7 @@
         <v>2537</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>2576</v>
       </c>
@@ -50664,7 +50992,7 @@
         <v>2575</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>2589</v>
       </c>
@@ -50696,7 +51024,7 @@
         <v>2588</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>2593</v>
       </c>
@@ -50728,7 +51056,7 @@
         <v>2591</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>2637</v>
       </c>
@@ -50760,7 +51088,7 @@
         <v>2636</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>2640</v>
       </c>
@@ -50792,7 +51120,7 @@
         <v>2635</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>2676</v>
       </c>
@@ -50824,7 +51152,7 @@
         <v>2675</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>2697</v>
       </c>
@@ -50856,7 +51184,7 @@
         <v>2696</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>2700</v>
       </c>
@@ -50919,23 +51247,23 @@
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="49.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="49.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.1796875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="28.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="49.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28.7265625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="49.453125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.85546875" style="20"/>
+    <col min="12" max="12" width="24.7265625" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.81640625" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="9" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="9" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -50973,7 +51301,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>71</v>
       </c>
@@ -51008,7 +51336,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>91</v>
       </c>
@@ -51043,7 +51371,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>724</v>
       </c>
@@ -51078,7 +51406,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>730</v>
       </c>
@@ -51113,7 +51441,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>803</v>
       </c>
@@ -51139,7 +51467,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>964</v>
       </c>
@@ -51174,7 +51502,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>968</v>
       </c>
@@ -51209,7 +51537,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>1159</v>
       </c>
@@ -51244,7 +51572,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>1220</v>
       </c>
@@ -51279,7 +51607,7 @@
         <v>1219</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>1328</v>
       </c>
@@ -51314,7 +51642,7 @@
         <v>1821</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>1890</v>
       </c>
@@ -51340,7 +51668,7 @@
         <v>1890</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>1894</v>
       </c>
@@ -51366,7 +51694,7 @@
         <v>1894</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>1896</v>
       </c>
@@ -51415,24 +51743,24 @@
       <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.1796875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="29.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="30.54296875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.85546875" style="20"/>
+    <col min="12" max="12" width="24.7265625" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.81640625" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="10" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="10" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -51470,7 +51798,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>117</v>
       </c>
@@ -51487,7 +51815,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>118</v>
       </c>
@@ -51504,7 +51832,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>119</v>
       </c>
@@ -51521,7 +51849,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>522</v>
       </c>
@@ -51556,7 +51884,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>528</v>
       </c>
@@ -51591,7 +51919,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>957</v>
       </c>
@@ -51626,7 +51954,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>1168</v>
       </c>
@@ -51661,7 +51989,7 @@
         <v>1819</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>1236</v>
       </c>
@@ -51693,7 +52021,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>1887</v>
       </c>
@@ -51728,7 +52056,7 @@
         <v>1886</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>2335</v>
       </c>
@@ -51763,7 +52091,7 @@
         <v>2336</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>2398</v>
       </c>
@@ -51798,7 +52126,7 @@
         <v>2397</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>2489</v>
       </c>
@@ -51830,7 +52158,7 @@
         <v>2490</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>2492</v>
       </c>

--- a/Altium/DB.xlsx
+++ b/Altium/DB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Repos\LIBS\Altium\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE5CA4DA-1E81-4F8E-9B92-FE6898C1444B}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70794F19-61E6-4E66-A164-CF27998507B3}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="38625" windowHeight="21825" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="38625" windowHeight="21825" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="C" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7931" uniqueCount="2710">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7942" uniqueCount="2714">
   <si>
     <t>Part Number</t>
   </si>
@@ -8163,6 +8163,18 @@
   </si>
   <si>
     <t>296-9596-1-ND</t>
+  </si>
+  <si>
+    <t>CONN HEADER SMD R/A 4POS 1.5MM</t>
+  </si>
+  <si>
+    <t>WM7648CT-ND</t>
+  </si>
+  <si>
+    <t>0874380443</t>
+  </si>
+  <si>
+    <t>MOLEX_0874380443</t>
   </si>
 </sst>
 </file>
@@ -42360,7 +42372,7 @@
   </sheetPr>
   <dimension ref="A1:N180"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A125" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C184" sqref="C184"/>
     </sheetView>
@@ -48595,11 +48607,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N71"/>
+  <dimension ref="A1:N72"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L71" sqref="L71"/>
+      <selection pane="bottomLeft" activeCell="F73" sqref="F73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -50959,6 +50971,41 @@
       </c>
       <c r="L71" t="s">
         <v>2701</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>2712</v>
+      </c>
+      <c r="B72" t="s">
+        <v>2712</v>
+      </c>
+      <c r="C72" t="s">
+        <v>1164</v>
+      </c>
+      <c r="D72" t="s">
+        <v>100</v>
+      </c>
+      <c r="E72" t="s">
+        <v>2710</v>
+      </c>
+      <c r="F72" t="s">
+        <v>2713</v>
+      </c>
+      <c r="H72" t="s">
+        <v>99</v>
+      </c>
+      <c r="I72" t="s">
+        <v>454</v>
+      </c>
+      <c r="J72" t="s">
+        <v>2712</v>
+      </c>
+      <c r="K72" t="s">
+        <v>17</v>
+      </c>
+      <c r="L72" t="s">
+        <v>2711</v>
       </c>
     </row>
   </sheetData>

--- a/Altium/DB.xlsx
+++ b/Altium/DB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Repos\LIBS\Altium\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70794F19-61E6-4E66-A164-CF27998507B3}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F414871-27D9-4E4D-B4C2-83FAB4A3A7E5}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="38625" windowHeight="21825" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="38625" windowHeight="21825" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="C" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7942" uniqueCount="2714">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7943" uniqueCount="2715">
   <si>
     <t>Part Number</t>
   </si>
@@ -8175,6 +8175,9 @@
   </si>
   <si>
     <t>MOLEX_0874380443</t>
+  </si>
+  <si>
+    <t>QFN45P400X400X80_HS-29N</t>
   </si>
 </sst>
 </file>
@@ -42372,9 +42375,9 @@
   </sheetPr>
   <dimension ref="A1:N180"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A125" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C184" sqref="C184"/>
+      <selection pane="bottomLeft" activeCell="E184" sqref="E184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -48515,6 +48518,9 @@
       <c r="D177" t="s">
         <v>19</v>
       </c>
+      <c r="F177" t="s">
+        <v>2714</v>
+      </c>
       <c r="H177" t="s">
         <v>20</v>
       </c>
@@ -48609,7 +48615,7 @@
   </sheetPr>
   <dimension ref="A1:N72"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F73" sqref="F73"/>
     </sheetView>

--- a/Altium/DB.xlsx
+++ b/Altium/DB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Repos\LIBS\Altium\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F414871-27D9-4E4D-B4C2-83FAB4A3A7E5}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D10E9EB6-C57B-4366-81BE-344723B6000B}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="38625" windowHeight="21825" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="38625" windowHeight="21825" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="C" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7943" uniqueCount="2715">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7978" uniqueCount="2727">
   <si>
     <t>Part Number</t>
   </si>
@@ -8178,6 +8178,42 @@
   </si>
   <si>
     <t>QFN45P400X400X80_HS-29N</t>
+  </si>
+  <si>
+    <t>Resistor_NTC</t>
+  </si>
+  <si>
+    <t>445-2550-1-ND</t>
+  </si>
+  <si>
+    <t>NTCG103JF103FT1</t>
+  </si>
+  <si>
+    <t>THERMISTOR NTC 10KOHM 3380K 0402</t>
+  </si>
+  <si>
+    <t>10.2k</t>
+  </si>
+  <si>
+    <t>YAG2950CT-ND</t>
+  </si>
+  <si>
+    <t>RC0402FR-0710K2L</t>
+  </si>
+  <si>
+    <t>RES 10.2K OHM 1% 1/16W 0402</t>
+  </si>
+  <si>
+    <t>1740-WNSC2D06650DJCT-ND</t>
+  </si>
+  <si>
+    <t>WNSC2D06650DJ</t>
+  </si>
+  <si>
+    <t>WeEn Semiconductors</t>
+  </si>
+  <si>
+    <t>DIODE SIL CARBIDE 650V 6A DPAK</t>
   </si>
 </sst>
 </file>
@@ -31268,11 +31304,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N169"/>
+  <dimension ref="A1:N171"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A126" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H173" sqref="H173"/>
+      <selection pane="bottomLeft" activeCell="F171" sqref="F171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -38216,6 +38252,85 @@
       </c>
       <c r="N169" t="s">
         <v>2669</v>
+      </c>
+    </row>
+    <row r="170" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>2717</v>
+      </c>
+      <c r="B170" t="s">
+        <v>11</v>
+      </c>
+      <c r="C170" t="s">
+        <v>2715</v>
+      </c>
+      <c r="D170" t="s">
+        <v>531</v>
+      </c>
+      <c r="E170" t="s">
+        <v>2718</v>
+      </c>
+      <c r="H170" t="s">
+        <v>20</v>
+      </c>
+      <c r="I170" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="J170" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K170" t="s">
+        <v>190</v>
+      </c>
+      <c r="L170" t="s">
+        <v>2717</v>
+      </c>
+      <c r="M170" t="s">
+        <v>17</v>
+      </c>
+      <c r="N170" t="s">
+        <v>2716</v>
+      </c>
+    </row>
+    <row r="171" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>2721</v>
+      </c>
+      <c r="B171" t="s">
+        <v>11</v>
+      </c>
+      <c r="C171" t="s">
+        <v>56</v>
+      </c>
+      <c r="D171" t="s">
+        <v>531</v>
+      </c>
+      <c r="E171" t="s">
+        <v>2722</v>
+      </c>
+      <c r="F171" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="H171" t="s">
+        <v>20</v>
+      </c>
+      <c r="I171" s="5" t="s">
+        <v>2719</v>
+      </c>
+      <c r="J171" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K171" t="s">
+        <v>55</v>
+      </c>
+      <c r="L171" t="s">
+        <v>2721</v>
+      </c>
+      <c r="M171" t="s">
+        <v>17</v>
+      </c>
+      <c r="N171" t="s">
+        <v>2720</v>
       </c>
     </row>
   </sheetData>
@@ -40364,10 +40479,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L58"/>
+  <dimension ref="A1:L59"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E58" sqref="E58"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E62" sqref="E62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -42360,6 +42475,38 @@
         <v>2679</v>
       </c>
     </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>2724</v>
+      </c>
+      <c r="B59" t="s">
+        <v>2724</v>
+      </c>
+      <c r="C59" t="s">
+        <v>283</v>
+      </c>
+      <c r="D59" t="s">
+        <v>531</v>
+      </c>
+      <c r="E59" t="s">
+        <v>2726</v>
+      </c>
+      <c r="H59" t="s">
+        <v>20</v>
+      </c>
+      <c r="I59" t="s">
+        <v>2725</v>
+      </c>
+      <c r="J59" t="s">
+        <v>2724</v>
+      </c>
+      <c r="K59" t="s">
+        <v>17</v>
+      </c>
+      <c r="L59" t="s">
+        <v>2723</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -42375,7 +42522,7 @@
   </sheetPr>
   <dimension ref="A1:N180"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A125" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E184" sqref="E184"/>
     </sheetView>

--- a/Altium/DB.xlsx
+++ b/Altium/DB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Repos\LIBS\Altium\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D10E9EB6-C57B-4366-81BE-344723B6000B}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62A539FE-DDD5-40D9-849D-D11F3FA7B419}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="38625" windowHeight="21825" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7978" uniqueCount="2727">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7988" uniqueCount="2730">
   <si>
     <t>Part Number</t>
   </si>
@@ -8214,6 +8214,15 @@
   </si>
   <si>
     <t>DIODE SIL CARBIDE 650V 6A DPAK</t>
+  </si>
+  <si>
+    <t>1740-WNSC2D04650TJCT-ND</t>
+  </si>
+  <si>
+    <t>WNSC2D04650TJ</t>
+  </si>
+  <si>
+    <t>DIODE SIL CARBIDE 650V 4A 5DFN</t>
   </si>
 </sst>
 </file>
@@ -40479,10 +40488,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L59"/>
+  <dimension ref="A1:L60"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E62" sqref="E62"/>
+      <selection activeCell="C66" sqref="C66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -42505,6 +42514,38 @@
       </c>
       <c r="L59" t="s">
         <v>2723</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>2728</v>
+      </c>
+      <c r="B60" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C60" t="s">
+        <v>283</v>
+      </c>
+      <c r="D60" t="s">
+        <v>531</v>
+      </c>
+      <c r="E60" t="s">
+        <v>2729</v>
+      </c>
+      <c r="H60" t="s">
+        <v>20</v>
+      </c>
+      <c r="I60" t="s">
+        <v>2725</v>
+      </c>
+      <c r="J60" t="s">
+        <v>2728</v>
+      </c>
+      <c r="K60" t="s">
+        <v>17</v>
+      </c>
+      <c r="L60" t="s">
+        <v>2727</v>
       </c>
     </row>
   </sheetData>

--- a/Altium/DB.xlsx
+++ b/Altium/DB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Repos\LIBS\Altium\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git\Titanius\Libs\Altium\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D10E9EB6-C57B-4366-81BE-344723B6000B}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C31DFC4-3792-4080-A41A-A4010A511CC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="38625" windowHeight="21825" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4240" yWindow="4040" windowWidth="31520" windowHeight="16000" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="C" sheetId="2" r:id="rId1"/>
@@ -23,8 +23,17 @@
     <sheet name="Other" sheetId="14" r:id="rId8"/>
     <sheet name="Mech" sheetId="11" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
     </ext>
@@ -33,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7978" uniqueCount="2727">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7996" uniqueCount="2744">
   <si>
     <t>Part Number</t>
   </si>
@@ -8214,6 +8223,57 @@
   </si>
   <si>
     <t>DIODE SIL CARBIDE 650V 6A DPAK</t>
+  </si>
+  <si>
+    <t>Everest Semiconductor</t>
+  </si>
+  <si>
+    <t>Low Power Mono Audio CODEC</t>
+  </si>
+  <si>
+    <t>TSSOP-16-500X440X120-65</t>
+  </si>
+  <si>
+    <t>QFN-32-EP210x110-400x400x90-40p80x20</t>
+  </si>
+  <si>
+    <t>High Efficiency, 38V Maximum Input Single Inductor Synchronous Step Up/Down Regulator</t>
+  </si>
+  <si>
+    <t>LQFP-48-700x700x160-50x120x30</t>
+  </si>
+  <si>
+    <t>32-bit High-density General RISC-V MCU</t>
+  </si>
+  <si>
+    <t>DFN-8-EP130x90-200x200x100-50</t>
+  </si>
+  <si>
+    <t>RESC1206N-310x160x55-280</t>
+  </si>
+  <si>
+    <t>TO-268AA-1595x1390x510-545</t>
+  </si>
+  <si>
+    <t>DFN-8-300x300x90-65</t>
+  </si>
+  <si>
+    <t>MOLEX_430450627</t>
+  </si>
+  <si>
+    <t>MOLEX_430450427</t>
+  </si>
+  <si>
+    <t>TO-252AA-610x645x239-229</t>
+  </si>
+  <si>
+    <t>Diode Shottky (_-_-A-K)</t>
+  </si>
+  <si>
+    <t>CMC2322-588x560x380</t>
+  </si>
+  <si>
+    <t>SOT-23-3-290x130x110-95</t>
   </si>
 </sst>
 </file>
@@ -26466,29 +26526,29 @@
       <selection activeCell="I106" sqref="I106"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="56.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.54296875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.81640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.453125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="56.54296875" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.54296875" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.7265625" style="5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="31.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="30.28515625" style="16" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="31.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.1796875" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.7265625" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.453125" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.81640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="31.453125" style="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="30.26953125" style="16" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.81640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="31.1796875" style="5" bestFit="1" customWidth="1"/>
     <col min="17" max="1026" width="9" style="20" customWidth="1"/>
-    <col min="1027" max="16384" width="8.85546875" style="20"/>
+    <col min="1027" max="16384" width="8.81640625" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="28" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" s="28" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -26538,7 +26598,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="10" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" s="10" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>653</v>
       </c>
@@ -26588,7 +26648,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>722</v>
       </c>
@@ -26638,7 +26698,7 @@
         <v>1657</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>40</v>
       </c>
@@ -26688,7 +26748,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>29</v>
       </c>
@@ -26738,7 +26798,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>36</v>
       </c>
@@ -26788,7 +26848,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>690</v>
       </c>
@@ -26838,7 +26898,7 @@
         <v>1656</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>881</v>
       </c>
@@ -26888,7 +26948,7 @@
         <v>2319</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>810</v>
       </c>
@@ -26938,7 +26998,7 @@
         <v>1655</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>687</v>
       </c>
@@ -26988,7 +27048,7 @@
         <v>1654</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>694</v>
       </c>
@@ -27038,7 +27098,7 @@
         <v>1583</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>607</v>
       </c>
@@ -27088,7 +27148,7 @@
         <v>1653</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>642</v>
       </c>
@@ -27138,7 +27198,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
         <v>425</v>
       </c>
@@ -27185,7 +27245,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
         <v>791</v>
       </c>
@@ -27232,7 +27292,7 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
         <v>337</v>
       </c>
@@ -27279,7 +27339,7 @@
         <v>1649</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
         <v>709</v>
       </c>
@@ -27326,7 +27386,7 @@
         <v>1648</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
         <v>217</v>
       </c>
@@ -27373,7 +27433,7 @@
         <v>1647</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
         <v>639</v>
       </c>
@@ -27420,7 +27480,7 @@
         <v>1646</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
         <v>398</v>
       </c>
@@ -27467,7 +27527,7 @@
         <v>1582</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
         <v>622</v>
       </c>
@@ -27514,7 +27574,7 @@
         <v>1645</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
         <v>420</v>
       </c>
@@ -27561,7 +27621,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
         <v>358</v>
       </c>
@@ -27608,7 +27668,7 @@
         <v>1644</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
         <v>315</v>
       </c>
@@ -27655,7 +27715,7 @@
         <v>1643</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
         <v>336</v>
       </c>
@@ -27702,7 +27762,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A26" s="5" t="s">
         <v>330</v>
       </c>
@@ -27749,7 +27809,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A27" s="5" t="s">
         <v>210</v>
       </c>
@@ -27796,7 +27856,7 @@
         <v>1640</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A28" s="5" t="s">
         <v>215</v>
       </c>
@@ -27843,7 +27903,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A29" s="5" t="s">
         <v>212</v>
       </c>
@@ -27890,7 +27950,7 @@
         <v>1638</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A30" s="5" t="s">
         <v>209</v>
       </c>
@@ -27937,7 +27997,7 @@
         <v>1637</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A31" s="5" t="s">
         <v>213</v>
       </c>
@@ -27984,7 +28044,7 @@
         <v>1636</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A32" s="5" t="s">
         <v>211</v>
       </c>
@@ -28031,7 +28091,7 @@
         <v>1635</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A33" s="5" t="s">
         <v>214</v>
       </c>
@@ -28078,7 +28138,7 @@
         <v>1634</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A34" s="5" t="s">
         <v>360</v>
       </c>
@@ -28125,7 +28185,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A35" s="5" t="s">
         <v>208</v>
       </c>
@@ -28172,7 +28232,7 @@
         <v>1633</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A36" s="5" t="s">
         <v>679</v>
       </c>
@@ -28219,7 +28279,7 @@
         <v>1632</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A37" s="5" t="s">
         <v>710</v>
       </c>
@@ -28266,7 +28326,7 @@
         <v>1631</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A38" s="5" t="s">
         <v>206</v>
       </c>
@@ -28313,7 +28373,7 @@
         <v>1630</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A39" s="5" t="s">
         <v>218</v>
       </c>
@@ -28360,7 +28420,7 @@
         <v>1629</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A40" s="5" t="s">
         <v>207</v>
       </c>
@@ -28407,7 +28467,7 @@
         <v>1628</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A41" s="16" t="s">
         <v>769</v>
       </c>
@@ -28454,7 +28514,7 @@
         <v>1627</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A42" s="5" t="s">
         <v>216</v>
       </c>
@@ -28501,7 +28561,7 @@
         <v>1626</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>191</v>
       </c>
@@ -28548,7 +28608,7 @@
         <v>1625</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A44" s="5" t="s">
         <v>887</v>
       </c>
@@ -28595,7 +28655,7 @@
         <v>1624</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A45" s="5" t="s">
         <v>900</v>
       </c>
@@ -28645,7 +28705,7 @@
         <v>1623</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A46" s="5" t="s">
         <v>903</v>
       </c>
@@ -28695,7 +28755,7 @@
         <v>1622</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A47" s="5" t="s">
         <v>952</v>
       </c>
@@ -28742,7 +28802,7 @@
         <v>1621</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A48" s="5" t="s">
         <v>992</v>
       </c>
@@ -28789,7 +28849,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A49" s="16" t="s">
         <v>1025</v>
       </c>
@@ -28836,7 +28896,7 @@
         <v>1592</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A50" s="5" t="s">
         <v>1029</v>
       </c>
@@ -28883,7 +28943,7 @@
         <v>1620</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A51" s="5" t="s">
         <v>1033</v>
       </c>
@@ -28930,7 +28990,7 @@
         <v>1619</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A52" s="5" t="s">
         <v>1038</v>
       </c>
@@ -28977,7 +29037,7 @@
         <v>1618</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A53" s="5" t="s">
         <v>1106</v>
       </c>
@@ -29021,7 +29081,7 @@
         <v>1617</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A54" s="5" t="s">
         <v>1127</v>
       </c>
@@ -29068,7 +29128,7 @@
         <v>1616</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A55" s="5" t="s">
         <v>1192</v>
       </c>
@@ -29115,7 +29175,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A56" s="16" t="s">
         <v>1305</v>
       </c>
@@ -29162,7 +29222,7 @@
         <v>1615</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A57" s="5" t="s">
         <v>1309</v>
       </c>
@@ -29209,7 +29269,7 @@
         <v>1614</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A58" s="5" t="s">
         <v>1323</v>
       </c>
@@ -29256,7 +29316,7 @@
         <v>1586</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A59" s="5" t="s">
         <v>1363</v>
       </c>
@@ -29303,7 +29363,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A60" s="5" t="s">
         <v>1365</v>
       </c>
@@ -29350,7 +29410,7 @@
         <v>1613</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A61" s="5" t="s">
         <v>1367</v>
       </c>
@@ -29397,7 +29457,7 @@
         <v>1589</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A62" s="16" t="s">
         <v>1381</v>
       </c>
@@ -29444,7 +29504,7 @@
         <v>1612</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A63" s="5" t="s">
         <v>1385</v>
       </c>
@@ -29491,7 +29551,7 @@
         <v>1611</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A64" s="5" t="s">
         <v>1401</v>
       </c>
@@ -29538,7 +29598,7 @@
         <v>1610</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A65" s="16" t="s">
         <v>1414</v>
       </c>
@@ -29585,7 +29645,7 @@
         <v>1609</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A66" s="5" t="s">
         <v>1416</v>
       </c>
@@ -29632,7 +29692,7 @@
         <v>1608</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A67" s="5" t="s">
         <v>1432</v>
       </c>
@@ -29676,7 +29736,7 @@
         <v>1607</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A68" s="5" t="s">
         <v>1437</v>
       </c>
@@ -29723,7 +29783,7 @@
         <v>1606</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A69" s="5" t="s">
         <v>1440</v>
       </c>
@@ -29770,7 +29830,7 @@
         <v>1596</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A70" s="16" t="s">
         <v>1442</v>
       </c>
@@ -29817,7 +29877,7 @@
         <v>1597</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A71" s="16" t="s">
         <v>1443</v>
       </c>
@@ -29864,7 +29924,7 @@
         <v>1595</v>
       </c>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A72" s="16" t="s">
         <v>1444</v>
       </c>
@@ -29911,7 +29971,7 @@
         <v>1598</v>
       </c>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A73" s="16" t="s">
         <v>1445</v>
       </c>
@@ -29958,7 +30018,7 @@
         <v>1599</v>
       </c>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A74" s="16" t="s">
         <v>1446</v>
       </c>
@@ -30005,7 +30065,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A75" s="16" t="s">
         <v>1447</v>
       </c>
@@ -30052,7 +30112,7 @@
         <v>1601</v>
       </c>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A76" s="16" t="s">
         <v>1448</v>
       </c>
@@ -30099,7 +30159,7 @@
         <v>1602</v>
       </c>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A77" s="5" t="s">
         <v>1458</v>
       </c>
@@ -30146,7 +30206,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A78" s="5" t="s">
         <v>1461</v>
       </c>
@@ -30187,7 +30247,7 @@
         <v>1659</v>
       </c>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A79" s="5" t="s">
         <v>1464</v>
       </c>
@@ -30228,7 +30288,7 @@
         <v>1658</v>
       </c>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A80" s="16" t="s">
         <v>1468</v>
       </c>
@@ -30269,7 +30329,7 @@
         <v>1660</v>
       </c>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A81" s="16" t="s">
         <v>1512</v>
       </c>
@@ -30316,7 +30376,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A82" s="5" t="s">
         <v>1515</v>
       </c>
@@ -30363,7 +30423,7 @@
         <v>1605</v>
       </c>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A83" s="5" t="s">
         <v>1579</v>
       </c>
@@ -30410,7 +30470,7 @@
         <v>1578</v>
       </c>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A84" s="5" t="s">
         <v>1581</v>
       </c>
@@ -30457,7 +30517,7 @@
         <v>1580</v>
       </c>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A85" s="5" t="s">
         <v>1585</v>
       </c>
@@ -30504,7 +30564,7 @@
         <v>1584</v>
       </c>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A86" s="5" t="s">
         <v>1588</v>
       </c>
@@ -30551,7 +30611,7 @@
         <v>1587</v>
       </c>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A87" s="5" t="s">
         <v>1590</v>
       </c>
@@ -30598,7 +30658,7 @@
         <v>1591</v>
       </c>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A88" s="5" t="s">
         <v>1594</v>
       </c>
@@ -30645,7 +30705,7 @@
         <v>1593</v>
       </c>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A89" s="5" t="s">
         <v>1879</v>
       </c>
@@ -30692,7 +30752,7 @@
         <v>1878</v>
       </c>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A90" s="5" t="s">
         <v>1883</v>
       </c>
@@ -30739,7 +30799,7 @@
         <v>1882</v>
       </c>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A91" s="5" t="s">
         <v>1913</v>
       </c>
@@ -30783,7 +30843,7 @@
         <v>1911</v>
       </c>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A92" s="5" t="s">
         <v>1917</v>
       </c>
@@ -30830,7 +30890,7 @@
         <v>1914</v>
       </c>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A93" s="5" t="s">
         <v>1919</v>
       </c>
@@ -30877,7 +30937,7 @@
         <v>1918</v>
       </c>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A94" s="5" t="s">
         <v>1925</v>
       </c>
@@ -30924,7 +30984,7 @@
         <v>1923</v>
       </c>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A95" s="5" t="s">
         <v>1945</v>
       </c>
@@ -30971,7 +31031,7 @@
         <v>1942</v>
       </c>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A96" s="5" t="s">
         <v>1948</v>
       </c>
@@ -31018,7 +31078,7 @@
         <v>1946</v>
       </c>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A97" s="5" t="s">
         <v>2116</v>
       </c>
@@ -31059,7 +31119,7 @@
         <v>2113</v>
       </c>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A98" s="5" t="s">
         <v>2236</v>
       </c>
@@ -31106,7 +31166,7 @@
         <v>2235</v>
       </c>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A99" s="5" t="s">
         <v>2468</v>
       </c>
@@ -31153,7 +31213,7 @@
         <v>2467</v>
       </c>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A100" s="5" t="s">
         <v>2566</v>
       </c>
@@ -31197,7 +31257,7 @@
         <v>2565</v>
       </c>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A101" s="5" t="s">
         <v>2597</v>
       </c>
@@ -31241,7 +31301,7 @@
         <v>2599</v>
       </c>
     </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A102" s="5" t="s">
         <v>2663</v>
       </c>
@@ -31289,7 +31349,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:P43">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P43">
     <sortCondition ref="F2:F43"/>
   </sortState>
   <printOptions gridLines="1"/>
@@ -31307,31 +31367,31 @@
   <dimension ref="A1:N171"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A126" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F171" sqref="F171"/>
+      <pane ySplit="1" topLeftCell="A132" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A169" sqref="A169"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.54296875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="32.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.7265625" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="32.7265625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="30.54296875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="26.26953125" bestFit="1" customWidth="1"/>
     <col min="15" max="1025" width="9" style="20" customWidth="1"/>
-    <col min="1026" max="16384" width="8.85546875" style="20"/>
+    <col min="1026" max="16384" width="8.81640625" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="10" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="10" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -31375,7 +31435,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>54</v>
       </c>
@@ -31416,7 +31476,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>126</v>
       </c>
@@ -31457,7 +31517,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>130</v>
       </c>
@@ -31498,7 +31558,7 @@
         <v>1664</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>139</v>
       </c>
@@ -31539,7 +31599,7 @@
         <v>1665</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>140</v>
       </c>
@@ -31580,7 +31640,7 @@
         <v>1666</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>145</v>
       </c>
@@ -31621,7 +31681,7 @@
         <v>1667</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>147</v>
       </c>
@@ -31662,7 +31722,7 @@
         <v>1668</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>149</v>
       </c>
@@ -31703,7 +31763,7 @@
         <v>1669</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>151</v>
       </c>
@@ -31744,7 +31804,7 @@
         <v>1670</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>153</v>
       </c>
@@ -31785,7 +31845,7 @@
         <v>1671</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>155</v>
       </c>
@@ -31826,7 +31886,7 @@
         <v>1672</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>157</v>
       </c>
@@ -31867,7 +31927,7 @@
         <v>1673</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>159</v>
       </c>
@@ -31908,7 +31968,7 @@
         <v>1674</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>161</v>
       </c>
@@ -31949,7 +32009,7 @@
         <v>1675</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>163</v>
       </c>
@@ -31990,7 +32050,7 @@
         <v>1676</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>165</v>
       </c>
@@ -32031,7 +32091,7 @@
         <v>1677</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>167</v>
       </c>
@@ -32072,7 +32132,7 @@
         <v>1678</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>169</v>
       </c>
@@ -32113,7 +32173,7 @@
         <v>1679</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>171</v>
       </c>
@@ -32154,7 +32214,7 @@
         <v>1680</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>181</v>
       </c>
@@ -32195,7 +32255,7 @@
         <v>1681</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>186</v>
       </c>
@@ -32236,7 +32296,7 @@
         <v>1682</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>303</v>
       </c>
@@ -32277,7 +32337,7 @@
         <v>1683</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>306</v>
       </c>
@@ -32318,7 +32378,7 @@
         <v>1684</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>312</v>
       </c>
@@ -32359,7 +32419,7 @@
         <v>1685</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>320</v>
       </c>
@@ -32400,7 +32460,7 @@
         <v>1686</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>323</v>
       </c>
@@ -32441,7 +32501,7 @@
         <v>1687</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>327</v>
       </c>
@@ -32482,7 +32542,7 @@
         <v>1688</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>340</v>
       </c>
@@ -32523,7 +32583,7 @@
         <v>1689</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>355</v>
       </c>
@@ -32564,7 +32624,7 @@
         <v>1690</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>371</v>
       </c>
@@ -32605,7 +32665,7 @@
         <v>1691</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>370</v>
       </c>
@@ -32646,7 +32706,7 @@
         <v>1692</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>368</v>
       </c>
@@ -32687,7 +32747,7 @@
         <v>1693</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>365</v>
       </c>
@@ -32728,7 +32788,7 @@
         <v>1694</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>387</v>
       </c>
@@ -32769,7 +32829,7 @@
         <v>1695</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>392</v>
       </c>
@@ -32810,7 +32870,7 @@
         <v>1696</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>397</v>
       </c>
@@ -32851,7 +32911,7 @@
         <v>1697</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>407</v>
       </c>
@@ -32892,7 +32952,7 @@
         <v>1698</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>446</v>
       </c>
@@ -32933,7 +32993,7 @@
         <v>1699</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>451</v>
       </c>
@@ -32974,7 +33034,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>609</v>
       </c>
@@ -33015,7 +33075,7 @@
         <v>1701</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>613</v>
       </c>
@@ -33056,7 +33116,7 @@
         <v>1702</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>620</v>
       </c>
@@ -33097,7 +33157,7 @@
         <v>1703</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>54</v>
       </c>
@@ -33135,7 +33195,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>631</v>
       </c>
@@ -33176,7 +33236,7 @@
         <v>1704</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>637</v>
       </c>
@@ -33217,7 +33277,7 @@
         <v>1705</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>649</v>
       </c>
@@ -33258,7 +33318,7 @@
         <v>1706</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>655</v>
       </c>
@@ -33299,7 +33359,7 @@
         <v>1707</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>658</v>
       </c>
@@ -33340,7 +33400,7 @@
         <v>1708</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>663</v>
       </c>
@@ -33381,7 +33441,7 @@
         <v>1709</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>666</v>
       </c>
@@ -33422,7 +33482,7 @@
         <v>1710</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>668</v>
       </c>
@@ -33463,7 +33523,7 @@
         <v>1711</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>673</v>
       </c>
@@ -33504,7 +33564,7 @@
         <v>1712</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>676</v>
       </c>
@@ -33545,7 +33605,7 @@
         <v>1713</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>693</v>
       </c>
@@ -33586,7 +33646,7 @@
         <v>1714</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>696</v>
       </c>
@@ -33627,7 +33687,7 @@
         <v>1715</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>701</v>
       </c>
@@ -33668,7 +33728,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>702</v>
       </c>
@@ -33709,7 +33769,7 @@
         <v>1717</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>706</v>
       </c>
@@ -33750,7 +33810,7 @@
         <v>1718</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>718</v>
       </c>
@@ -33791,7 +33851,7 @@
         <v>1719</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>750</v>
       </c>
@@ -33832,7 +33892,7 @@
         <v>1720</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>613</v>
       </c>
@@ -33873,7 +33933,7 @@
         <v>1702</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>762</v>
       </c>
@@ -33914,7 +33974,7 @@
         <v>1721</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>397</v>
       </c>
@@ -33955,7 +34015,7 @@
         <v>1697</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>787</v>
       </c>
@@ -33996,7 +34056,7 @@
         <v>1722</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>807</v>
       </c>
@@ -34037,7 +34097,7 @@
         <v>1723</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>813</v>
       </c>
@@ -34078,7 +34138,7 @@
         <v>1724</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>889</v>
       </c>
@@ -34119,7 +34179,7 @@
         <v>1725</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>892</v>
       </c>
@@ -34160,7 +34220,7 @@
         <v>1726</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>894</v>
       </c>
@@ -34201,7 +34261,7 @@
         <v>1727</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>897</v>
       </c>
@@ -34242,7 +34302,7 @@
         <v>1728</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>906</v>
       </c>
@@ -34283,7 +34343,7 @@
         <v>1729</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>907</v>
       </c>
@@ -34324,7 +34384,7 @@
         <v>1730</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>910</v>
       </c>
@@ -34365,7 +34425,7 @@
         <v>1731</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>914</v>
       </c>
@@ -34406,7 +34466,7 @@
         <v>1732</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>917</v>
       </c>
@@ -34447,7 +34507,7 @@
         <v>1733</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>978</v>
       </c>
@@ -34488,7 +34548,7 @@
         <v>1734</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>981</v>
       </c>
@@ -34529,7 +34589,7 @@
         <v>1735</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>1004</v>
       </c>
@@ -34570,7 +34630,7 @@
         <v>1736</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>1007</v>
       </c>
@@ -34611,7 +34671,7 @@
         <v>1737</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>1010</v>
       </c>
@@ -34652,7 +34712,7 @@
         <v>1738</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>1031</v>
       </c>
@@ -34693,7 +34753,7 @@
         <v>1739</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>1040</v>
       </c>
@@ -34734,7 +34794,7 @@
         <v>1740</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>1043</v>
       </c>
@@ -34775,7 +34835,7 @@
         <v>1741</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>1076</v>
       </c>
@@ -34816,7 +34876,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>1079</v>
       </c>
@@ -34857,7 +34917,7 @@
         <v>1743</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>1082</v>
       </c>
@@ -34898,7 +34958,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>1083</v>
       </c>
@@ -34939,7 +34999,7 @@
         <v>1745</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>1086</v>
       </c>
@@ -34980,7 +35040,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>1089</v>
       </c>
@@ -35021,7 +35081,7 @@
         <v>1747</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>1092</v>
       </c>
@@ -35062,7 +35122,7 @@
         <v>1748</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>1124</v>
       </c>
@@ -35103,7 +35163,7 @@
         <v>1749</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>1145</v>
       </c>
@@ -35144,7 +35204,7 @@
         <v>1750</v>
       </c>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>1147</v>
       </c>
@@ -35185,7 +35245,7 @@
         <v>1751</v>
       </c>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>1182</v>
       </c>
@@ -35226,7 +35286,7 @@
         <v>1752</v>
       </c>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>1187</v>
       </c>
@@ -35267,7 +35327,7 @@
         <v>1753</v>
       </c>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>1188</v>
       </c>
@@ -35308,7 +35368,7 @@
         <v>1754</v>
       </c>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>1314</v>
       </c>
@@ -35349,7 +35409,7 @@
         <v>1755</v>
       </c>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>1316</v>
       </c>
@@ -35390,7 +35450,7 @@
         <v>1756</v>
       </c>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>1317</v>
       </c>
@@ -35431,7 +35491,7 @@
         <v>1757</v>
       </c>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>1320</v>
       </c>
@@ -35472,7 +35532,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>1342</v>
       </c>
@@ -35513,7 +35573,7 @@
         <v>1759</v>
       </c>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>1346</v>
       </c>
@@ -35554,7 +35614,7 @@
         <v>1760</v>
       </c>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>1348</v>
       </c>
@@ -35595,7 +35655,7 @@
         <v>1761</v>
       </c>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>1351</v>
       </c>
@@ -35636,7 +35696,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>1352</v>
       </c>
@@ -35677,7 +35737,7 @@
         <v>1763</v>
       </c>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>1355</v>
       </c>
@@ -35718,7 +35778,7 @@
         <v>1764</v>
       </c>
     </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>1398</v>
       </c>
@@ -35759,7 +35819,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>1403</v>
       </c>
@@ -35800,7 +35860,7 @@
         <v>1766</v>
       </c>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>1406</v>
       </c>
@@ -35841,7 +35901,7 @@
         <v>1767</v>
       </c>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>1409</v>
       </c>
@@ -35882,7 +35942,7 @@
         <v>1768</v>
       </c>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>1425</v>
       </c>
@@ -35923,7 +35983,7 @@
         <v>1769</v>
       </c>
     </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>1475</v>
       </c>
@@ -35964,7 +36024,7 @@
         <v>1770</v>
       </c>
     </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>1487</v>
       </c>
@@ -36005,7 +36065,7 @@
         <v>1771</v>
       </c>
     </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>1519</v>
       </c>
@@ -36046,7 +36106,7 @@
         <v>1772</v>
       </c>
     </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>1518</v>
       </c>
@@ -36087,7 +36147,7 @@
         <v>1773</v>
       </c>
     </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>1559</v>
       </c>
@@ -36128,7 +36188,7 @@
         <v>1558</v>
       </c>
     </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>1561</v>
       </c>
@@ -36169,7 +36229,7 @@
         <v>1560</v>
       </c>
     </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>1793</v>
       </c>
@@ -36210,7 +36270,7 @@
         <v>1794</v>
       </c>
     </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>1795</v>
       </c>
@@ -36251,7 +36311,7 @@
         <v>1797</v>
       </c>
     </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>1847</v>
       </c>
@@ -36292,7 +36352,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>1848</v>
       </c>
@@ -36333,7 +36393,7 @@
         <v>1840</v>
       </c>
     </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>1849</v>
       </c>
@@ -36374,7 +36434,7 @@
         <v>1841</v>
       </c>
     </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>1850</v>
       </c>
@@ -36415,7 +36475,7 @@
         <v>1842</v>
       </c>
     </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>1851</v>
       </c>
@@ -36456,7 +36516,7 @@
         <v>1843</v>
       </c>
     </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>1852</v>
       </c>
@@ -36497,7 +36557,7 @@
         <v>1844</v>
       </c>
     </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>1853</v>
       </c>
@@ -36538,7 +36598,7 @@
         <v>1845</v>
       </c>
     </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>1854</v>
       </c>
@@ -36579,7 +36639,7 @@
         <v>1846</v>
       </c>
     </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>1901</v>
       </c>
@@ -36617,7 +36677,7 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>1932</v>
       </c>
@@ -36658,7 +36718,7 @@
         <v>1929</v>
       </c>
     </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>1933</v>
       </c>
@@ -36699,7 +36759,7 @@
         <v>1936</v>
       </c>
     </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>1941</v>
       </c>
@@ -36740,7 +36800,7 @@
         <v>1940</v>
       </c>
     </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>1952</v>
       </c>
@@ -36781,7 +36841,7 @@
         <v>1949</v>
       </c>
     </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>1956</v>
       </c>
@@ -36822,7 +36882,7 @@
         <v>1953</v>
       </c>
     </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>1960</v>
       </c>
@@ -36863,7 +36923,7 @@
         <v>1957</v>
       </c>
     </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>1964</v>
       </c>
@@ -36904,7 +36964,7 @@
         <v>1961</v>
       </c>
     </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>1968</v>
       </c>
@@ -36945,7 +37005,7 @@
         <v>1965</v>
       </c>
     </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>2047</v>
       </c>
@@ -36986,7 +37046,7 @@
         <v>2044</v>
       </c>
     </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>2064</v>
       </c>
@@ -37027,7 +37087,7 @@
         <v>2062</v>
       </c>
     </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>2068</v>
       </c>
@@ -37068,7 +37128,7 @@
         <v>2069</v>
       </c>
     </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>2073</v>
       </c>
@@ -37109,7 +37169,7 @@
         <v>2070</v>
       </c>
     </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>2077</v>
       </c>
@@ -37150,7 +37210,7 @@
         <v>2074</v>
       </c>
     </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>2081</v>
       </c>
@@ -37191,7 +37251,7 @@
         <v>2078</v>
       </c>
     </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>2086</v>
       </c>
@@ -37232,7 +37292,7 @@
         <v>2085</v>
       </c>
     </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>2090</v>
       </c>
@@ -37273,7 +37333,7 @@
         <v>2089</v>
       </c>
     </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>2167</v>
       </c>
@@ -37314,7 +37374,7 @@
         <v>2166</v>
       </c>
     </row>
-    <row r="147" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>2174</v>
       </c>
@@ -37355,7 +37415,7 @@
         <v>2173</v>
       </c>
     </row>
-    <row r="148" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>2198</v>
       </c>
@@ -37396,7 +37456,7 @@
         <v>2197</v>
       </c>
     </row>
-    <row r="149" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>2219</v>
       </c>
@@ -37437,7 +37497,7 @@
         <v>2217</v>
       </c>
     </row>
-    <row r="150" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>2239</v>
       </c>
@@ -37478,7 +37538,7 @@
         <v>2238</v>
       </c>
     </row>
-    <row r="151" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>1352</v>
       </c>
@@ -37519,7 +37579,7 @@
         <v>1763</v>
       </c>
     </row>
-    <row r="152" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>2255</v>
       </c>
@@ -37560,7 +37620,7 @@
         <v>2254</v>
       </c>
     </row>
-    <row r="153" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>2258</v>
       </c>
@@ -37601,7 +37661,7 @@
         <v>2257</v>
       </c>
     </row>
-    <row r="154" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>2263</v>
       </c>
@@ -37642,7 +37702,7 @@
         <v>2260</v>
       </c>
     </row>
-    <row r="155" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>2379</v>
       </c>
@@ -37683,7 +37743,7 @@
         <v>2375</v>
       </c>
     </row>
-    <row r="156" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>2382</v>
       </c>
@@ -37724,7 +37784,7 @@
         <v>2380</v>
       </c>
     </row>
-    <row r="157" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>2384</v>
       </c>
@@ -37765,7 +37825,7 @@
         <v>2383</v>
       </c>
     </row>
-    <row r="158" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>2434</v>
       </c>
@@ -37806,7 +37866,7 @@
         <v>2435</v>
       </c>
     </row>
-    <row r="159" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>2438</v>
       </c>
@@ -37847,7 +37907,7 @@
         <v>2436</v>
       </c>
     </row>
-    <row r="160" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>2441</v>
       </c>
@@ -37888,7 +37948,7 @@
         <v>2442</v>
       </c>
     </row>
-    <row r="161" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>2445</v>
       </c>
@@ -37929,7 +37989,7 @@
         <v>2444</v>
       </c>
     </row>
-    <row r="162" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>2458</v>
       </c>
@@ -37970,7 +38030,7 @@
         <v>2457</v>
       </c>
     </row>
-    <row r="163" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>2461</v>
       </c>
@@ -38011,7 +38071,7 @@
         <v>2460</v>
       </c>
     </row>
-    <row r="164" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>2521</v>
       </c>
@@ -38052,7 +38112,7 @@
         <v>2522</v>
       </c>
     </row>
-    <row r="165" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>2554</v>
       </c>
@@ -38093,7 +38153,7 @@
         <v>2553</v>
       </c>
     </row>
-    <row r="166" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>2558</v>
       </c>
@@ -38134,7 +38194,7 @@
         <v>2557</v>
       </c>
     </row>
-    <row r="167" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>2642</v>
       </c>
@@ -38175,7 +38235,7 @@
         <v>2643</v>
       </c>
     </row>
-    <row r="168" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>2667</v>
       </c>
@@ -38216,7 +38276,7 @@
         <v>2665</v>
       </c>
     </row>
-    <row r="169" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>2671</v>
       </c>
@@ -38232,6 +38292,9 @@
       <c r="E169" t="s">
         <v>2670</v>
       </c>
+      <c r="F169" t="s">
+        <v>2735</v>
+      </c>
       <c r="H169" t="s">
         <v>20</v>
       </c>
@@ -38254,7 +38317,7 @@
         <v>2669</v>
       </c>
     </row>
-    <row r="170" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>2717</v>
       </c>
@@ -38270,6 +38333,9 @@
       <c r="E170" t="s">
         <v>2718</v>
       </c>
+      <c r="F170" s="17" t="s">
+        <v>59</v>
+      </c>
       <c r="H170" t="s">
         <v>20</v>
       </c>
@@ -38292,7 +38358,7 @@
         <v>2716</v>
       </c>
     </row>
-    <row r="171" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>2721</v>
       </c>
@@ -38349,31 +38415,31 @@
   <dimension ref="A1:O35"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H53" sqref="H53"/>
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.1796875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="51.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="32.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="51.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="32.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.453125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.26953125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="30.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="30.54296875" style="3" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="31.453125" bestFit="1" customWidth="1"/>
     <col min="16" max="1025" width="9" style="20" customWidth="1"/>
-    <col min="1026" max="16384" width="8.85546875" style="20"/>
+    <col min="1026" max="16384" width="8.81640625" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="10" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" s="10" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -38420,7 +38486,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>44</v>
       </c>
@@ -38464,7 +38530,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>61</v>
       </c>
@@ -38508,7 +38574,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>249</v>
       </c>
@@ -38552,7 +38618,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>251</v>
       </c>
@@ -38596,7 +38662,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>252</v>
       </c>
@@ -38640,7 +38706,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>353</v>
       </c>
@@ -38684,7 +38750,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>501</v>
       </c>
@@ -38723,7 +38789,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>625</v>
       </c>
@@ -38764,7 +38830,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>681</v>
       </c>
@@ -38805,7 +38871,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>716</v>
       </c>
@@ -38849,7 +38915,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>779</v>
       </c>
@@ -38893,7 +38959,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>785</v>
       </c>
@@ -38934,7 +39000,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>984</v>
       </c>
@@ -38978,7 +39044,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>1003</v>
       </c>
@@ -39022,7 +39088,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>1118</v>
       </c>
@@ -39066,7 +39132,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>1283</v>
       </c>
@@ -39110,7 +39176,7 @@
         <v>1780</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>1284</v>
       </c>
@@ -39154,7 +39220,7 @@
         <v>1779</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>1289</v>
       </c>
@@ -39198,7 +39264,7 @@
         <v>1778</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>1295</v>
       </c>
@@ -39242,7 +39308,7 @@
         <v>1777</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>1359</v>
       </c>
@@ -39286,7 +39352,7 @@
         <v>1781</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>1507</v>
       </c>
@@ -39330,7 +39396,7 @@
         <v>1505</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
         <v>1785</v>
       </c>
@@ -39374,7 +39440,7 @@
         <v>1786</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>2226</v>
       </c>
@@ -39421,7 +39487,7 @@
         <v>2221</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>2230</v>
       </c>
@@ -39465,7 +39531,7 @@
         <v>2228</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>2428</v>
       </c>
@@ -39509,7 +39575,7 @@
         <v>2427</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>2464</v>
       </c>
@@ -39553,7 +39619,7 @@
         <v>2465</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>2516</v>
       </c>
@@ -39597,7 +39663,7 @@
         <v>2515</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>2570</v>
       </c>
@@ -39638,7 +39704,7 @@
         <v>2568</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>2586</v>
       </c>
@@ -39676,7 +39742,7 @@
         <v>2586</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>2615</v>
       </c>
@@ -39720,7 +39786,7 @@
         <v>2612</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>2619</v>
       </c>
@@ -39764,7 +39830,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>2627</v>
       </c>
@@ -39808,7 +39874,7 @@
         <v>2626</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>2631</v>
       </c>
@@ -39852,7 +39918,7 @@
         <v>2630</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>2645</v>
       </c>
@@ -39867,6 +39933,9 @@
       </c>
       <c r="E35" t="s">
         <v>2646</v>
+      </c>
+      <c r="F35" t="s">
+        <v>2742</v>
       </c>
       <c r="H35" t="s">
         <v>20</v>
@@ -39912,26 +39981,26 @@
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="32" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.7265625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="45.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="45.54296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7265625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="32" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="26.81640625" bestFit="1" customWidth="1"/>
     <col min="14" max="1025" width="9" style="20" customWidth="1"/>
-    <col min="1026" max="16384" width="8.85546875" style="20"/>
+    <col min="1026" max="16384" width="8.81640625" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="10" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="10" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -39972,7 +40041,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>413</v>
       </c>
@@ -40010,7 +40079,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>417</v>
       </c>
@@ -40048,7 +40117,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>618</v>
       </c>
@@ -40086,7 +40155,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>1199</v>
       </c>
@@ -40124,7 +40193,7 @@
         <v>1198</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>1395</v>
       </c>
@@ -40162,7 +40231,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>1424</v>
       </c>
@@ -40200,7 +40269,7 @@
         <v>1820</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>1489</v>
       </c>
@@ -40238,7 +40307,7 @@
         <v>1491</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>1996</v>
       </c>
@@ -40276,7 +40345,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>2006</v>
       </c>
@@ -40314,7 +40383,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>2182</v>
       </c>
@@ -40352,7 +40421,7 @@
         <v>2179</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>2284</v>
       </c>
@@ -40390,7 +40459,7 @@
         <v>2285</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>2296</v>
       </c>
@@ -40428,7 +40497,7 @@
         <v>2295</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>2601</v>
       </c>
@@ -40481,30 +40550,30 @@
   </sheetPr>
   <dimension ref="A1:L59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E62" sqref="E62"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C64" sqref="C64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.26953125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="35" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="44.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="44.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="30.26953125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="31.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="8.85546875" style="20"/>
+    <col min="12" max="12" width="31.1796875" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="8.81640625" style="20"/>
     <col min="16" max="1025" width="9" style="20" customWidth="1"/>
-    <col min="1026" max="16384" width="8.85546875" style="20"/>
+    <col min="1026" max="16384" width="8.81640625" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="10" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="10" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -40542,7 +40611,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>253</v>
       </c>
@@ -40577,7 +40646,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>254</v>
       </c>
@@ -40612,7 +40681,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>275</v>
       </c>
@@ -40647,7 +40716,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>282</v>
       </c>
@@ -40682,7 +40751,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>285</v>
       </c>
@@ -40717,7 +40786,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>301</v>
       </c>
@@ -40752,7 +40821,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>289</v>
       </c>
@@ -40787,7 +40856,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>291</v>
       </c>
@@ -40822,7 +40891,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>345</v>
       </c>
@@ -40857,7 +40926,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>382</v>
       </c>
@@ -40892,7 +40961,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>437</v>
       </c>
@@ -40927,7 +40996,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>480</v>
       </c>
@@ -40953,7 +41022,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>484</v>
       </c>
@@ -40979,7 +41048,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>485</v>
       </c>
@@ -41005,7 +41074,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>614</v>
       </c>
@@ -41031,7 +41100,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>733</v>
       </c>
@@ -41066,7 +41135,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>738</v>
       </c>
@@ -41101,7 +41170,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>747</v>
       </c>
@@ -41136,7 +41205,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>754</v>
       </c>
@@ -41169,7 +41238,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>760</v>
       </c>
@@ -41204,7 +41273,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>806</v>
       </c>
@@ -41239,7 +41308,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>821</v>
       </c>
@@ -41274,7 +41343,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>931</v>
       </c>
@@ -41309,7 +41378,7 @@
         <v>1810</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>934</v>
       </c>
@@ -41344,7 +41413,7 @@
         <v>1811</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>948</v>
       </c>
@@ -41379,7 +41448,7 @@
         <v>1812</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>950</v>
       </c>
@@ -41414,7 +41483,7 @@
         <v>1813</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>959</v>
       </c>
@@ -41449,7 +41518,7 @@
         <v>1814</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>1134</v>
       </c>
@@ -41484,7 +41553,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>1156</v>
       </c>
@@ -41519,7 +41588,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>1176</v>
       </c>
@@ -41554,7 +41623,7 @@
         <v>1175</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>1181</v>
       </c>
@@ -41589,7 +41658,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>1224</v>
       </c>
@@ -41624,7 +41693,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>1227</v>
       </c>
@@ -41659,7 +41728,7 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>1234</v>
       </c>
@@ -41694,7 +41763,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>1331</v>
       </c>
@@ -41729,7 +41798,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>1340</v>
       </c>
@@ -41764,7 +41833,7 @@
         <v>1338</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>1371</v>
       </c>
@@ -41799,7 +41868,7 @@
         <v>1369</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>1503</v>
       </c>
@@ -41834,7 +41903,7 @@
         <v>1502</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>1565</v>
       </c>
@@ -41869,7 +41938,7 @@
         <v>1563</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>1574</v>
       </c>
@@ -41904,7 +41973,7 @@
         <v>1573</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>1663</v>
       </c>
@@ -41939,7 +42008,7 @@
         <v>1661</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>1775</v>
       </c>
@@ -41974,7 +42043,7 @@
         <v>1774</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>1788</v>
       </c>
@@ -42009,7 +42078,7 @@
         <v>1787</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>1792</v>
       </c>
@@ -42044,7 +42113,7 @@
         <v>1791</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>1829</v>
       </c>
@@ -42079,7 +42148,7 @@
         <v>1828</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>1872</v>
       </c>
@@ -42114,7 +42183,7 @@
         <v>1871</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>1874</v>
       </c>
@@ -42137,7 +42206,7 @@
         <v>1874</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>2084</v>
       </c>
@@ -42172,7 +42241,7 @@
         <v>2082</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>2137</v>
       </c>
@@ -42207,7 +42276,7 @@
         <v>2135</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>2140</v>
       </c>
@@ -42242,7 +42311,7 @@
         <v>2138</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>2477</v>
       </c>
@@ -42277,7 +42346,7 @@
         <v>2476</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>2495</v>
       </c>
@@ -42309,7 +42378,7 @@
         <v>2493</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>2651</v>
       </c>
@@ -42325,6 +42394,9 @@
       <c r="E54" t="s">
         <v>2652</v>
       </c>
+      <c r="F54" t="s">
+        <v>2736</v>
+      </c>
       <c r="H54" t="s">
         <v>20</v>
       </c>
@@ -42341,7 +42413,7 @@
         <v>2650</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>2655</v>
       </c>
@@ -42376,7 +42448,7 @@
         <v>2654</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>2658</v>
       </c>
@@ -42411,7 +42483,7 @@
         <v>2657</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>2673</v>
       </c>
@@ -42427,6 +42499,9 @@
       <c r="E57" t="s">
         <v>2674</v>
       </c>
+      <c r="F57" t="s">
+        <v>2743</v>
+      </c>
       <c r="H57" t="s">
         <v>20</v>
       </c>
@@ -42443,7 +42518,7 @@
         <v>2672</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>2680</v>
       </c>
@@ -42459,6 +42534,9 @@
       <c r="E58" t="s">
         <v>2681</v>
       </c>
+      <c r="F58" t="s">
+        <v>2737</v>
+      </c>
       <c r="H58" t="s">
         <v>20</v>
       </c>
@@ -42475,7 +42553,7 @@
         <v>2679</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>2724</v>
       </c>
@@ -42483,13 +42561,16 @@
         <v>2724</v>
       </c>
       <c r="C59" t="s">
-        <v>283</v>
+        <v>2741</v>
       </c>
       <c r="D59" t="s">
         <v>531</v>
       </c>
       <c r="E59" t="s">
         <v>2726</v>
+      </c>
+      <c r="F59" t="s">
+        <v>2740</v>
       </c>
       <c r="H59" t="s">
         <v>20</v>
@@ -42523,30 +42604,30 @@
   <dimension ref="A1:N180"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A125" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E184" sqref="E184"/>
+      <pane ySplit="1" topLeftCell="A143" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F184" sqref="F184"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="99" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="33.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="47.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="27.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="92.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="47.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="30.54296875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="29.26953125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="24.7265625" bestFit="1" customWidth="1"/>
     <col min="15" max="1025" width="9" style="20" customWidth="1"/>
-    <col min="1026" max="16384" width="8.85546875" style="20"/>
+    <col min="1026" max="16384" width="8.81640625" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="10" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="10" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -42590,7 +42671,7 @@
         <v>1831</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -42627,7 +42708,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>68</v>
       </c>
@@ -42664,7 +42745,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>74</v>
       </c>
@@ -42701,7 +42782,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>79</v>
       </c>
@@ -42738,7 +42819,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>80</v>
       </c>
@@ -42775,7 +42856,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>93</v>
       </c>
@@ -42812,7 +42893,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>95</v>
       </c>
@@ -42849,7 +42930,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>102</v>
       </c>
@@ -42885,7 +42966,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>105</v>
       </c>
@@ -42922,7 +43003,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>309</v>
       </c>
@@ -42957,7 +43038,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>318</v>
       </c>
@@ -42992,7 +43073,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>378</v>
       </c>
@@ -43027,7 +43108,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>403</v>
       </c>
@@ -43062,7 +43143,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>433</v>
       </c>
@@ -43097,7 +43178,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>442</v>
       </c>
@@ -43132,7 +43213,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>448</v>
       </c>
@@ -43167,7 +43248,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>471</v>
       </c>
@@ -43202,7 +43283,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>476</v>
       </c>
@@ -43237,7 +43318,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>489</v>
       </c>
@@ -43272,7 +43353,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>492</v>
       </c>
@@ -43307,7 +43388,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>496</v>
       </c>
@@ -43342,7 +43423,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>508</v>
       </c>
@@ -43377,7 +43458,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>511</v>
       </c>
@@ -43412,7 +43493,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>532</v>
       </c>
@@ -43447,7 +43528,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>537</v>
       </c>
@@ -43482,7 +43563,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>560</v>
       </c>
@@ -43517,7 +43598,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>540</v>
       </c>
@@ -43552,7 +43633,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>541</v>
       </c>
@@ -43587,7 +43668,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>542</v>
       </c>
@@ -43622,7 +43703,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>573</v>
       </c>
@@ -43657,7 +43738,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>577</v>
       </c>
@@ -43692,7 +43773,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>580</v>
       </c>
@@ -43727,7 +43808,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>583</v>
       </c>
@@ -43762,7 +43843,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>586</v>
       </c>
@@ -43797,7 +43878,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>590</v>
       </c>
@@ -43832,7 +43913,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>594</v>
       </c>
@@ -43867,7 +43948,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>595</v>
       </c>
@@ -43902,7 +43983,7 @@
         <v>1815</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>552</v>
       </c>
@@ -43937,7 +44018,7 @@
         <v>1816</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>599</v>
       </c>
@@ -43972,7 +44053,7 @@
         <v>1801</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>600</v>
       </c>
@@ -44007,7 +44088,7 @@
         <v>1817</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>602</v>
       </c>
@@ -44042,7 +44123,7 @@
         <v>1818</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>605</v>
       </c>
@@ -44077,7 +44158,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>635</v>
       </c>
@@ -44112,7 +44193,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>539</v>
       </c>
@@ -44147,7 +44228,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>670</v>
       </c>
@@ -44182,7 +44263,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>884</v>
       </c>
@@ -44217,7 +44298,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>901</v>
       </c>
@@ -44252,7 +44333,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>918</v>
       </c>
@@ -44287,7 +44368,7 @@
         <v>1836</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>921</v>
       </c>
@@ -44322,7 +44403,7 @@
         <v>1833</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>922</v>
       </c>
@@ -44357,7 +44438,7 @@
         <v>1834</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>923</v>
       </c>
@@ -44392,7 +44473,7 @@
         <v>1835</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>937</v>
       </c>
@@ -44427,7 +44508,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>943</v>
       </c>
@@ -44462,7 +44543,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>941</v>
       </c>
@@ -44497,7 +44578,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>1014</v>
       </c>
@@ -44532,7 +44613,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>1018</v>
       </c>
@@ -44567,7 +44648,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>1022</v>
       </c>
@@ -44602,7 +44683,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>1049</v>
       </c>
@@ -44635,7 +44716,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>1051</v>
       </c>
@@ -44670,7 +44751,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>1055</v>
       </c>
@@ -44705,7 +44786,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>1059</v>
       </c>
@@ -44740,7 +44821,7 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>1065</v>
       </c>
@@ -44775,7 +44856,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>1070</v>
       </c>
@@ -44810,7 +44891,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>1096</v>
       </c>
@@ -44845,7 +44926,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>1100</v>
       </c>
@@ -44880,7 +44961,7 @@
         <v>1098</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>1102</v>
       </c>
@@ -44915,7 +44996,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>1111</v>
       </c>
@@ -44950,7 +45031,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>1130</v>
       </c>
@@ -44985,7 +45066,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>1136</v>
       </c>
@@ -45020,7 +45101,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>1142</v>
       </c>
@@ -45055,7 +45136,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>1150</v>
       </c>
@@ -45090,7 +45171,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>1172</v>
       </c>
@@ -45125,7 +45206,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>1197</v>
       </c>
@@ -45160,7 +45241,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>1207</v>
       </c>
@@ -45195,7 +45276,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>1216</v>
       </c>
@@ -45230,7 +45311,7 @@
         <v>1215</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>1231</v>
       </c>
@@ -45265,7 +45346,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>1246</v>
       </c>
@@ -45300,7 +45381,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>1247</v>
       </c>
@@ -45335,7 +45416,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>1248</v>
       </c>
@@ -45370,7 +45451,7 @@
         <v>1248</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>1251</v>
       </c>
@@ -45405,7 +45486,7 @@
         <v>1249</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>1262</v>
       </c>
@@ -45440,7 +45521,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>1245</v>
       </c>
@@ -45481,7 +45562,7 @@
         <v>1832</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>1798</v>
       </c>
@@ -45516,7 +45597,7 @@
         <v>1799</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>1304</v>
       </c>
@@ -45551,7 +45632,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>1334</v>
       </c>
@@ -45586,7 +45667,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>1374</v>
       </c>
@@ -45621,7 +45702,7 @@
         <v>1802</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>1378</v>
       </c>
@@ -45656,7 +45737,7 @@
         <v>1822</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>1387</v>
       </c>
@@ -45691,7 +45772,7 @@
         <v>1386</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>1397</v>
       </c>
@@ -45726,7 +45807,7 @@
         <v>1823</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>1419</v>
       </c>
@@ -45761,7 +45842,7 @@
         <v>1803</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>1430</v>
       </c>
@@ -45796,7 +45877,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>1473</v>
       </c>
@@ -45831,7 +45912,7 @@
         <v>1472</v>
       </c>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>1479</v>
       </c>
@@ -45866,7 +45947,7 @@
         <v>1478</v>
       </c>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>1484</v>
       </c>
@@ -45901,7 +45982,7 @@
         <v>1482</v>
       </c>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>1500</v>
       </c>
@@ -45936,7 +46017,7 @@
         <v>1499</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>1522</v>
       </c>
@@ -45971,7 +46052,7 @@
         <v>1521</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>1528</v>
       </c>
@@ -46006,7 +46087,7 @@
         <v>1527</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>1533</v>
       </c>
@@ -46041,7 +46122,7 @@
         <v>1532</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>1538</v>
       </c>
@@ -46076,7 +46157,7 @@
         <v>1537</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>1540</v>
       </c>
@@ -46111,7 +46192,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>1545</v>
       </c>
@@ -46146,7 +46227,7 @@
         <v>1544</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>1549</v>
       </c>
@@ -46181,7 +46262,7 @@
         <v>1548</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>1553</v>
       </c>
@@ -46216,7 +46297,7 @@
         <v>1552</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>1571</v>
       </c>
@@ -46251,7 +46332,7 @@
         <v>1568</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>1804</v>
       </c>
@@ -46286,7 +46367,7 @@
         <v>1805</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>1808</v>
       </c>
@@ -46321,7 +46402,7 @@
         <v>1807</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>1877</v>
       </c>
@@ -46356,7 +46437,7 @@
         <v>1875</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>1906</v>
       </c>
@@ -46391,7 +46472,7 @@
         <v>1905</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>1910</v>
       </c>
@@ -46426,7 +46507,7 @@
         <v>1908</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>1969</v>
       </c>
@@ -46461,7 +46542,7 @@
         <v>1970</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>1974</v>
       </c>
@@ -46496,7 +46577,7 @@
         <v>1972</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>1975</v>
       </c>
@@ -46531,7 +46612,7 @@
         <v>1977</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>1979</v>
       </c>
@@ -46566,7 +46647,7 @@
         <v>1978</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>1984</v>
       </c>
@@ -46601,7 +46682,7 @@
         <v>1982</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>1988</v>
       </c>
@@ -46636,7 +46717,7 @@
         <v>1987</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>1992</v>
       </c>
@@ -46671,7 +46752,7 @@
         <v>1991</v>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>1993</v>
       </c>
@@ -46700,7 +46781,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>2003</v>
       </c>
@@ -46735,7 +46816,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>2010</v>
       </c>
@@ -46770,7 +46851,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>2023</v>
       </c>
@@ -46805,7 +46886,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>2026</v>
       </c>
@@ -46840,7 +46921,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>2031</v>
       </c>
@@ -46875,7 +46956,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>2051</v>
       </c>
@@ -46910,7 +46991,7 @@
         <v>2048</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>2055</v>
       </c>
@@ -46945,7 +47026,7 @@
         <v>2053</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>2058</v>
       </c>
@@ -46980,7 +47061,7 @@
         <v>2059</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>2095</v>
       </c>
@@ -47015,7 +47096,7 @@
         <v>2093</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>2099</v>
       </c>
@@ -47050,7 +47131,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>2104</v>
       </c>
@@ -47085,7 +47166,7 @@
         <v>2105</v>
       </c>
     </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>2108</v>
       </c>
@@ -47120,7 +47201,7 @@
         <v>2106</v>
       </c>
     </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>2120</v>
       </c>
@@ -47155,7 +47236,7 @@
         <v>2121</v>
       </c>
     </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>2124</v>
       </c>
@@ -47190,7 +47271,7 @@
         <v>2122</v>
       </c>
     </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>2128</v>
       </c>
@@ -47225,7 +47306,7 @@
         <v>2127</v>
       </c>
     </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>2130</v>
       </c>
@@ -47260,7 +47341,7 @@
         <v>2129</v>
       </c>
     </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>2145</v>
       </c>
@@ -47295,7 +47376,7 @@
         <v>2141</v>
       </c>
     </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>2150</v>
       </c>
@@ -47330,7 +47411,7 @@
         <v>2147</v>
       </c>
     </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>2157</v>
       </c>
@@ -47365,7 +47446,7 @@
         <v>2156</v>
       </c>
     </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>2163</v>
       </c>
@@ -47400,7 +47481,7 @@
         <v>2163</v>
       </c>
     </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>2170</v>
       </c>
@@ -47435,7 +47516,7 @@
         <v>2171</v>
       </c>
     </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>2177</v>
       </c>
@@ -47470,7 +47551,7 @@
         <v>2178</v>
       </c>
     </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>2196</v>
       </c>
@@ -47505,7 +47586,7 @@
         <v>2193</v>
       </c>
     </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>2202</v>
       </c>
@@ -47546,7 +47627,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>2206</v>
       </c>
@@ -47581,7 +47662,7 @@
         <v>2205</v>
       </c>
     </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>2210</v>
       </c>
@@ -47610,7 +47691,7 @@
         <v>2210</v>
       </c>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>2246</v>
       </c>
@@ -47645,7 +47726,7 @@
         <v>2243</v>
       </c>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>2249</v>
       </c>
@@ -47680,7 +47761,7 @@
         <v>2248</v>
       </c>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>2267</v>
       </c>
@@ -47715,7 +47796,7 @@
         <v>2266</v>
       </c>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>2280</v>
       </c>
@@ -47750,7 +47831,7 @@
         <v>2279</v>
       </c>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>2299</v>
       </c>
@@ -47785,7 +47866,7 @@
         <v>2300</v>
       </c>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>2306</v>
       </c>
@@ -47820,7 +47901,7 @@
         <v>2305</v>
       </c>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>2310</v>
       </c>
@@ -47855,7 +47936,7 @@
         <v>2307</v>
       </c>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>2313</v>
       </c>
@@ -47887,7 +47968,7 @@
         <v>2314</v>
       </c>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>2316</v>
       </c>
@@ -47919,7 +48000,7 @@
         <v>2315</v>
       </c>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>2369</v>
       </c>
@@ -47948,7 +48029,7 @@
         <v>2369</v>
       </c>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>2370</v>
       </c>
@@ -47977,7 +48058,7 @@
         <v>2370</v>
       </c>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>2371</v>
       </c>
@@ -48006,7 +48087,7 @@
         <v>2371</v>
       </c>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>2406</v>
       </c>
@@ -48041,7 +48122,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>2408</v>
       </c>
@@ -48076,7 +48157,7 @@
         <v>2409</v>
       </c>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>2412</v>
       </c>
@@ -48111,7 +48192,7 @@
         <v>2411</v>
       </c>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>2416</v>
       </c>
@@ -48146,7 +48227,7 @@
         <v>2418</v>
       </c>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>2421</v>
       </c>
@@ -48181,7 +48262,7 @@
         <v>2422</v>
       </c>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>2426</v>
       </c>
@@ -48216,7 +48297,7 @@
         <v>2424</v>
       </c>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>2449</v>
       </c>
@@ -48251,7 +48332,7 @@
         <v>2448</v>
       </c>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>2501</v>
       </c>
@@ -48283,7 +48364,7 @@
         <v>2502</v>
       </c>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>2504</v>
       </c>
@@ -48315,7 +48396,7 @@
         <v>2506</v>
       </c>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>2508</v>
       </c>
@@ -48350,7 +48431,7 @@
         <v>2511</v>
       </c>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>2546</v>
       </c>
@@ -48385,7 +48466,7 @@
         <v>2543</v>
       </c>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>2547</v>
       </c>
@@ -48408,7 +48489,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>2549</v>
       </c>
@@ -48431,7 +48512,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>2550</v>
       </c>
@@ -48454,7 +48535,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>2563</v>
       </c>
@@ -48486,7 +48567,7 @@
         <v>2562</v>
       </c>
     </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>2572</v>
       </c>
@@ -48521,7 +48602,7 @@
         <v>2574</v>
       </c>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>2580</v>
       </c>
@@ -48550,7 +48631,7 @@
         <v>2580</v>
       </c>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>2605</v>
       </c>
@@ -48585,7 +48666,7 @@
         <v>2603</v>
       </c>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>2608</v>
       </c>
@@ -48620,7 +48701,7 @@
         <v>2610</v>
       </c>
     </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>2684</v>
       </c>
@@ -48636,6 +48717,9 @@
       <c r="E176" t="s">
         <v>2685</v>
       </c>
+      <c r="F176" t="s">
+        <v>2734</v>
+      </c>
       <c r="H176" t="s">
         <v>20</v>
       </c>
@@ -48652,7 +48736,7 @@
         <v>2682</v>
       </c>
     </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>2702</v>
       </c>
@@ -48665,14 +48749,23 @@
       <c r="D177" t="s">
         <v>19</v>
       </c>
+      <c r="E177" t="s">
+        <v>2728</v>
+      </c>
       <c r="F177" t="s">
         <v>2714</v>
       </c>
       <c r="H177" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I177" t="s">
+        <v>2727</v>
+      </c>
+      <c r="J177" t="s">
+        <v>2702</v>
+      </c>
+    </row>
+    <row r="178" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>2703</v>
       </c>
@@ -48685,6 +48778,12 @@
       <c r="D178" t="s">
         <v>19</v>
       </c>
+      <c r="E178" t="s">
+        <v>2733</v>
+      </c>
+      <c r="F178" t="s">
+        <v>2732</v>
+      </c>
       <c r="H178" t="s">
         <v>20</v>
       </c>
@@ -48692,7 +48791,7 @@
         <v>2703</v>
       </c>
     </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>2705</v>
       </c>
@@ -48705,6 +48804,12 @@
       <c r="D179" t="s">
         <v>19</v>
       </c>
+      <c r="E179" t="s">
+        <v>2731</v>
+      </c>
+      <c r="F179" t="s">
+        <v>2730</v>
+      </c>
       <c r="H179" t="s">
         <v>20</v>
       </c>
@@ -48715,7 +48820,7 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>2706</v>
       </c>
@@ -48730,6 +48835,9 @@
       </c>
       <c r="E180" t="s">
         <v>2707</v>
+      </c>
+      <c r="F180" t="s">
+        <v>2729</v>
       </c>
       <c r="H180" t="s">
         <v>20</v>
@@ -48763,29 +48871,29 @@
   <dimension ref="A1:N72"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F73" sqref="F73"/>
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E68" sqref="E68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="32.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="79.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="35.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="32.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="79.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="30.26953125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="34.1796875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="24.54296875" bestFit="1" customWidth="1"/>
     <col min="15" max="1025" width="9" style="20" customWidth="1"/>
-    <col min="1026" max="16384" width="8.85546875" style="20"/>
+    <col min="1026" max="16384" width="8.81640625" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="9" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="9" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -48829,7 +48937,7 @@
         <v>1831</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>84</v>
       </c>
@@ -48864,7 +48972,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>122</v>
       </c>
@@ -48890,7 +48998,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>430</v>
       </c>
@@ -48925,7 +49033,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>518</v>
       </c>
@@ -48951,7 +49059,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>457</v>
       </c>
@@ -48977,7 +49085,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>463</v>
       </c>
@@ -49012,7 +49120,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>468</v>
       </c>
@@ -49047,7 +49155,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>766</v>
       </c>
@@ -49082,7 +49190,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>646</v>
       </c>
@@ -49117,7 +49225,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>741</v>
       </c>
@@ -49146,7 +49254,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>744</v>
       </c>
@@ -49181,7 +49289,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>755</v>
       </c>
@@ -49216,7 +49324,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>772</v>
       </c>
@@ -49251,7 +49359,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>796</v>
       </c>
@@ -49286,7 +49394,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>797</v>
       </c>
@@ -49321,7 +49429,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>818</v>
       </c>
@@ -49362,7 +49470,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>827</v>
       </c>
@@ -49397,7 +49505,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>828</v>
       </c>
@@ -49432,7 +49540,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>831</v>
       </c>
@@ -49467,7 +49575,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>974</v>
       </c>
@@ -49502,7 +49610,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>1165</v>
       </c>
@@ -49537,7 +49645,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>1213</v>
       </c>
@@ -49563,7 +49671,7 @@
         <v>1213</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>1214</v>
       </c>
@@ -49589,7 +49697,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>1492</v>
       </c>
@@ -49615,7 +49723,7 @@
         <v>1492</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>1266</v>
       </c>
@@ -49635,7 +49743,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>1269</v>
       </c>
@@ -49670,7 +49778,7 @@
         <v>1268</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>1274</v>
       </c>
@@ -49705,7 +49813,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>1439</v>
       </c>
@@ -49731,7 +49839,7 @@
         <v>1439</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>1494</v>
       </c>
@@ -49757,7 +49865,7 @@
         <v>1494</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>1577</v>
       </c>
@@ -49783,7 +49891,7 @@
         <v>1577</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>1824</v>
       </c>
@@ -49818,7 +49926,7 @@
         <v>1825</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>1826</v>
       </c>
@@ -49853,7 +49961,7 @@
         <v>1827</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>1926</v>
       </c>
@@ -49888,7 +49996,7 @@
         <v>1928</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>2034</v>
       </c>
@@ -49923,7 +50031,7 @@
         <v>2037</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>2040</v>
       </c>
@@ -49958,7 +50066,7 @@
         <v>2039</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>2110</v>
       </c>
@@ -49993,7 +50101,7 @@
         <v>2111</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>2154</v>
       </c>
@@ -50028,7 +50136,7 @@
         <v>2153</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>2186</v>
       </c>
@@ -50063,7 +50171,7 @@
         <v>2184</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>2190</v>
       </c>
@@ -50086,7 +50194,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>2215</v>
       </c>
@@ -50121,7 +50229,7 @@
         <v>2214</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>2272</v>
       </c>
@@ -50156,7 +50264,7 @@
         <v>2273</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>2275</v>
       </c>
@@ -50191,7 +50299,7 @@
         <v>2277</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>2292</v>
       </c>
@@ -50232,7 +50340,7 @@
         <v>2321</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>2330</v>
       </c>
@@ -50267,7 +50375,7 @@
         <v>2329</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>2327</v>
       </c>
@@ -50302,7 +50410,7 @@
         <v>2326</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>2340</v>
       </c>
@@ -50337,7 +50445,7 @@
         <v>2341</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>2346</v>
       </c>
@@ -50372,7 +50480,7 @@
         <v>2345</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>2350</v>
       </c>
@@ -50407,7 +50515,7 @@
         <v>2351</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>2354</v>
       </c>
@@ -50442,7 +50550,7 @@
         <v>2353</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>2357</v>
       </c>
@@ -50477,7 +50585,7 @@
         <v>2360</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>2363</v>
       </c>
@@ -50512,7 +50620,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>2366</v>
       </c>
@@ -50547,7 +50655,7 @@
         <v>2368</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>2374</v>
       </c>
@@ -50570,7 +50678,7 @@
         <v>2374</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>2392</v>
       </c>
@@ -50605,7 +50713,7 @@
         <v>2393</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>2395</v>
       </c>
@@ -50640,7 +50748,7 @@
         <v>2394</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>2455</v>
       </c>
@@ -50675,7 +50783,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>2474</v>
       </c>
@@ -50710,7 +50818,7 @@
         <v>2472</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>2498</v>
       </c>
@@ -50742,7 +50850,7 @@
         <v>2499</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>2523</v>
       </c>
@@ -50777,7 +50885,7 @@
         <v>2525</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>2529</v>
       </c>
@@ -50809,7 +50917,7 @@
         <v>2530</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>2533</v>
       </c>
@@ -50835,7 +50943,7 @@
         <v>2533</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>2536</v>
       </c>
@@ -50870,7 +50978,7 @@
         <v>2537</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>2576</v>
       </c>
@@ -50902,7 +51010,7 @@
         <v>2575</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>2589</v>
       </c>
@@ -50934,7 +51042,7 @@
         <v>2588</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>2593</v>
       </c>
@@ -50966,7 +51074,7 @@
         <v>2591</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>2637</v>
       </c>
@@ -50982,6 +51090,9 @@
       <c r="E67" t="s">
         <v>2638</v>
       </c>
+      <c r="F67" t="s">
+        <v>2739</v>
+      </c>
       <c r="H67" t="s">
         <v>99</v>
       </c>
@@ -50998,7 +51109,7 @@
         <v>2636</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>2640</v>
       </c>
@@ -51014,6 +51125,9 @@
       <c r="E68" t="s">
         <v>2639</v>
       </c>
+      <c r="F68" t="s">
+        <v>2738</v>
+      </c>
       <c r="H68" t="s">
         <v>99</v>
       </c>
@@ -51030,7 +51144,7 @@
         <v>2635</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>2676</v>
       </c>
@@ -51062,7 +51176,7 @@
         <v>2675</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>2697</v>
       </c>
@@ -51094,7 +51208,7 @@
         <v>2696</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>2700</v>
       </c>
@@ -51126,7 +51240,7 @@
         <v>2701</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>2712</v>
       </c>
@@ -51192,23 +51306,23 @@
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="49.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="49.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.1796875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="28.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="49.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28.7265625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="49.453125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.85546875" style="20"/>
+    <col min="12" max="12" width="24.7265625" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.81640625" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="9" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="9" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -51246,7 +51360,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>71</v>
       </c>
@@ -51281,7 +51395,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>91</v>
       </c>
@@ -51316,7 +51430,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>724</v>
       </c>
@@ -51351,7 +51465,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>730</v>
       </c>
@@ -51386,7 +51500,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>803</v>
       </c>
@@ -51412,7 +51526,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>964</v>
       </c>
@@ -51447,7 +51561,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>968</v>
       </c>
@@ -51482,7 +51596,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>1159</v>
       </c>
@@ -51517,7 +51631,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>1220</v>
       </c>
@@ -51552,7 +51666,7 @@
         <v>1219</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>1328</v>
       </c>
@@ -51587,7 +51701,7 @@
         <v>1821</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>1890</v>
       </c>
@@ -51613,7 +51727,7 @@
         <v>1890</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>1894</v>
       </c>
@@ -51639,7 +51753,7 @@
         <v>1894</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>1896</v>
       </c>
@@ -51688,24 +51802,24 @@
       <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.1796875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="29.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="30.54296875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.85546875" style="20"/>
+    <col min="12" max="12" width="24.7265625" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.81640625" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="10" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="10" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -51743,7 +51857,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>117</v>
       </c>
@@ -51760,7 +51874,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>118</v>
       </c>
@@ -51777,7 +51891,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>119</v>
       </c>
@@ -51794,7 +51908,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>522</v>
       </c>
@@ -51829,7 +51943,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>528</v>
       </c>
@@ -51864,7 +51978,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>957</v>
       </c>
@@ -51899,7 +52013,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>1168</v>
       </c>
@@ -51934,7 +52048,7 @@
         <v>1819</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>1236</v>
       </c>
@@ -51966,7 +52080,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>1887</v>
       </c>
@@ -52001,7 +52115,7 @@
         <v>1886</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>2335</v>
       </c>
@@ -52036,7 +52150,7 @@
         <v>2336</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>2398</v>
       </c>
@@ -52071,7 +52185,7 @@
         <v>2397</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>2489</v>
       </c>
@@ -52103,7 +52217,7 @@
         <v>2490</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>2492</v>
       </c>

--- a/Altium/DB.xlsx
+++ b/Altium/DB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git\Titanius\Libs\Altium\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Repos\LIBS\Altium\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C31DFC4-3792-4080-A41A-A4010A511CC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3453C3F8-8B6D-416C-9589-96A4B6B33525}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4240" yWindow="4040" windowWidth="31520" windowHeight="16000" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4245" yWindow="4035" windowWidth="31515" windowHeight="16005" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="C" sheetId="2" r:id="rId1"/>
@@ -23,17 +23,8 @@
     <sheet name="Other" sheetId="14" r:id="rId8"/>
     <sheet name="Mech" sheetId="11" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="179021"/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
     </ext>
@@ -42,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7996" uniqueCount="2744">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8006" uniqueCount="2747">
   <si>
     <t>Part Number</t>
   </si>
@@ -8274,6 +8265,15 @@
   </si>
   <si>
     <t>SOT-23-3-290x130x110-95</t>
+  </si>
+  <si>
+    <t>1740-WNSC2D04650TJCT-ND</t>
+  </si>
+  <si>
+    <t>WNSC2D04650TJ</t>
+  </si>
+  <si>
+    <t>DIODE SIL CARBIDE 650V 4A 5DFN</t>
   </si>
 </sst>
 </file>
@@ -26526,29 +26526,29 @@
       <selection activeCell="I106" sqref="I106"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.54296875" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.81640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.453125" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.26953125" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="56.54296875" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.54296875" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.7265625" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="56.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.7109375" style="5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.1796875" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.7265625" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.453125" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.81640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="31.453125" style="5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="30.26953125" style="16" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.81640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="31.1796875" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="31.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="30.28515625" style="16" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="31.140625" style="5" bestFit="1" customWidth="1"/>
     <col min="17" max="1026" width="9" style="20" customWidth="1"/>
-    <col min="1027" max="16384" width="8.81640625" style="20"/>
+    <col min="1027" max="16384" width="8.85546875" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="28" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" s="28" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -26598,7 +26598,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="10" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" s="10" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>653</v>
       </c>
@@ -26648,7 +26648,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>722</v>
       </c>
@@ -26698,7 +26698,7 @@
         <v>1657</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>40</v>
       </c>
@@ -26748,7 +26748,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>29</v>
       </c>
@@ -26798,7 +26798,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>36</v>
       </c>
@@ -26848,7 +26848,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>690</v>
       </c>
@@ -26898,7 +26898,7 @@
         <v>1656</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>881</v>
       </c>
@@ -26948,7 +26948,7 @@
         <v>2319</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>810</v>
       </c>
@@ -26998,7 +26998,7 @@
         <v>1655</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>687</v>
       </c>
@@ -27048,7 +27048,7 @@
         <v>1654</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>694</v>
       </c>
@@ -27098,7 +27098,7 @@
         <v>1583</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>607</v>
       </c>
@@ -27148,7 +27148,7 @@
         <v>1653</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>642</v>
       </c>
@@ -27198,7 +27198,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>425</v>
       </c>
@@ -27245,7 +27245,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>791</v>
       </c>
@@ -27292,7 +27292,7 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>337</v>
       </c>
@@ -27339,7 +27339,7 @@
         <v>1649</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>709</v>
       </c>
@@ -27386,7 +27386,7 @@
         <v>1648</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>217</v>
       </c>
@@ -27433,7 +27433,7 @@
         <v>1647</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>639</v>
       </c>
@@ -27480,7 +27480,7 @@
         <v>1646</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>398</v>
       </c>
@@ -27527,7 +27527,7 @@
         <v>1582</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>622</v>
       </c>
@@ -27574,7 +27574,7 @@
         <v>1645</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>420</v>
       </c>
@@ -27621,7 +27621,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>358</v>
       </c>
@@ -27668,7 +27668,7 @@
         <v>1644</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>315</v>
       </c>
@@ -27715,7 +27715,7 @@
         <v>1643</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>336</v>
       </c>
@@ -27762,7 +27762,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>330</v>
       </c>
@@ -27809,7 +27809,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>210</v>
       </c>
@@ -27856,7 +27856,7 @@
         <v>1640</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>215</v>
       </c>
@@ -27903,7 +27903,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>212</v>
       </c>
@@ -27950,7 +27950,7 @@
         <v>1638</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>209</v>
       </c>
@@ -27997,7 +27997,7 @@
         <v>1637</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>213</v>
       </c>
@@ -28044,7 +28044,7 @@
         <v>1636</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>211</v>
       </c>
@@ -28091,7 +28091,7 @@
         <v>1635</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>214</v>
       </c>
@@ -28138,7 +28138,7 @@
         <v>1634</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>360</v>
       </c>
@@ -28185,7 +28185,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>208</v>
       </c>
@@ -28232,7 +28232,7 @@
         <v>1633</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>679</v>
       </c>
@@ -28279,7 +28279,7 @@
         <v>1632</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>710</v>
       </c>
@@ -28326,7 +28326,7 @@
         <v>1631</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>206</v>
       </c>
@@ -28373,7 +28373,7 @@
         <v>1630</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>218</v>
       </c>
@@ -28420,7 +28420,7 @@
         <v>1629</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>207</v>
       </c>
@@ -28467,7 +28467,7 @@
         <v>1628</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="16" t="s">
         <v>769</v>
       </c>
@@ -28514,7 +28514,7 @@
         <v>1627</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>216</v>
       </c>
@@ -28561,7 +28561,7 @@
         <v>1626</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>191</v>
       </c>
@@ -28608,7 +28608,7 @@
         <v>1625</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>887</v>
       </c>
@@ -28655,7 +28655,7 @@
         <v>1624</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>900</v>
       </c>
@@ -28705,7 +28705,7 @@
         <v>1623</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>903</v>
       </c>
@@ -28755,7 +28755,7 @@
         <v>1622</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>952</v>
       </c>
@@ -28802,7 +28802,7 @@
         <v>1621</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>992</v>
       </c>
@@ -28849,7 +28849,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" s="16" t="s">
         <v>1025</v>
       </c>
@@ -28896,7 +28896,7 @@
         <v>1592</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
         <v>1029</v>
       </c>
@@ -28943,7 +28943,7 @@
         <v>1620</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>1033</v>
       </c>
@@ -28990,7 +28990,7 @@
         <v>1619</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
         <v>1038</v>
       </c>
@@ -29037,7 +29037,7 @@
         <v>1618</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
         <v>1106</v>
       </c>
@@ -29081,7 +29081,7 @@
         <v>1617</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
         <v>1127</v>
       </c>
@@ -29128,7 +29128,7 @@
         <v>1616</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
         <v>1192</v>
       </c>
@@ -29175,7 +29175,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" s="16" t="s">
         <v>1305</v>
       </c>
@@ -29222,7 +29222,7 @@
         <v>1615</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
         <v>1309</v>
       </c>
@@ -29269,7 +29269,7 @@
         <v>1614</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
         <v>1323</v>
       </c>
@@ -29316,7 +29316,7 @@
         <v>1586</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
         <v>1363</v>
       </c>
@@ -29363,7 +29363,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
         <v>1365</v>
       </c>
@@ -29410,7 +29410,7 @@
         <v>1613</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
         <v>1367</v>
       </c>
@@ -29457,7 +29457,7 @@
         <v>1589</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62" s="16" t="s">
         <v>1381</v>
       </c>
@@ -29504,7 +29504,7 @@
         <v>1612</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
         <v>1385</v>
       </c>
@@ -29551,7 +29551,7 @@
         <v>1611</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
         <v>1401</v>
       </c>
@@ -29598,7 +29598,7 @@
         <v>1610</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65" s="16" t="s">
         <v>1414</v>
       </c>
@@ -29645,7 +29645,7 @@
         <v>1609</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
         <v>1416</v>
       </c>
@@ -29692,7 +29692,7 @@
         <v>1608</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
         <v>1432</v>
       </c>
@@ -29736,7 +29736,7 @@
         <v>1607</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
         <v>1437</v>
       </c>
@@ -29783,7 +29783,7 @@
         <v>1606</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
         <v>1440</v>
       </c>
@@ -29830,7 +29830,7 @@
         <v>1596</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A70" s="16" t="s">
         <v>1442</v>
       </c>
@@ -29877,7 +29877,7 @@
         <v>1597</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A71" s="16" t="s">
         <v>1443</v>
       </c>
@@ -29924,7 +29924,7 @@
         <v>1595</v>
       </c>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A72" s="16" t="s">
         <v>1444</v>
       </c>
@@ -29971,7 +29971,7 @@
         <v>1598</v>
       </c>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A73" s="16" t="s">
         <v>1445</v>
       </c>
@@ -30018,7 +30018,7 @@
         <v>1599</v>
       </c>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A74" s="16" t="s">
         <v>1446</v>
       </c>
@@ -30065,7 +30065,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A75" s="16" t="s">
         <v>1447</v>
       </c>
@@ -30112,7 +30112,7 @@
         <v>1601</v>
       </c>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A76" s="16" t="s">
         <v>1448</v>
       </c>
@@ -30159,7 +30159,7 @@
         <v>1602</v>
       </c>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
         <v>1458</v>
       </c>
@@ -30206,7 +30206,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
         <v>1461</v>
       </c>
@@ -30247,7 +30247,7 @@
         <v>1659</v>
       </c>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
         <v>1464</v>
       </c>
@@ -30288,7 +30288,7 @@
         <v>1658</v>
       </c>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A80" s="16" t="s">
         <v>1468</v>
       </c>
@@ -30329,7 +30329,7 @@
         <v>1660</v>
       </c>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A81" s="16" t="s">
         <v>1512</v>
       </c>
@@ -30376,7 +30376,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
         <v>1515</v>
       </c>
@@ -30423,7 +30423,7 @@
         <v>1605</v>
       </c>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
         <v>1579</v>
       </c>
@@ -30470,7 +30470,7 @@
         <v>1578</v>
       </c>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>1581</v>
       </c>
@@ -30517,7 +30517,7 @@
         <v>1580</v>
       </c>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>1585</v>
       </c>
@@ -30564,7 +30564,7 @@
         <v>1584</v>
       </c>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
         <v>1588</v>
       </c>
@@ -30611,7 +30611,7 @@
         <v>1587</v>
       </c>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
         <v>1590</v>
       </c>
@@ -30658,7 +30658,7 @@
         <v>1591</v>
       </c>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A88" s="5" t="s">
         <v>1594</v>
       </c>
@@ -30705,7 +30705,7 @@
         <v>1593</v>
       </c>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
         <v>1879</v>
       </c>
@@ -30752,7 +30752,7 @@
         <v>1878</v>
       </c>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A90" s="5" t="s">
         <v>1883</v>
       </c>
@@ -30799,7 +30799,7 @@
         <v>1882</v>
       </c>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
         <v>1913</v>
       </c>
@@ -30843,7 +30843,7 @@
         <v>1911</v>
       </c>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
         <v>1917</v>
       </c>
@@ -30890,7 +30890,7 @@
         <v>1914</v>
       </c>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
         <v>1919</v>
       </c>
@@ -30937,7 +30937,7 @@
         <v>1918</v>
       </c>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A94" s="5" t="s">
         <v>1925</v>
       </c>
@@ -30984,7 +30984,7 @@
         <v>1923</v>
       </c>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
         <v>1945</v>
       </c>
@@ -31031,7 +31031,7 @@
         <v>1942</v>
       </c>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A96" s="5" t="s">
         <v>1948</v>
       </c>
@@ -31078,7 +31078,7 @@
         <v>1946</v>
       </c>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A97" s="5" t="s">
         <v>2116</v>
       </c>
@@ -31119,7 +31119,7 @@
         <v>2113</v>
       </c>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
         <v>2236</v>
       </c>
@@ -31166,7 +31166,7 @@
         <v>2235</v>
       </c>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
         <v>2468</v>
       </c>
@@ -31213,7 +31213,7 @@
         <v>2467</v>
       </c>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A100" s="5" t="s">
         <v>2566</v>
       </c>
@@ -31257,7 +31257,7 @@
         <v>2565</v>
       </c>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A101" s="5" t="s">
         <v>2597</v>
       </c>
@@ -31301,7 +31301,7 @@
         <v>2599</v>
       </c>
     </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A102" s="5" t="s">
         <v>2663</v>
       </c>
@@ -31349,7 +31349,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P43">
+  <sortState ref="A2:P43">
     <sortCondition ref="F2:F43"/>
   </sortState>
   <printOptions gridLines="1"/>
@@ -31371,27 +31371,27 @@
       <selection pane="bottomLeft" activeCell="A169" sqref="A169"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.26953125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.7265625" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.1796875" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="32.7265625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="30.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="32.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="30.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="26.26953125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="26.28515625" bestFit="1" customWidth="1"/>
     <col min="15" max="1025" width="9" style="20" customWidth="1"/>
-    <col min="1026" max="16384" width="8.81640625" style="20"/>
+    <col min="1026" max="16384" width="8.85546875" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="10" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" s="10" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -31435,7 +31435,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>54</v>
       </c>
@@ -31476,7 +31476,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>126</v>
       </c>
@@ -31517,7 +31517,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>130</v>
       </c>
@@ -31558,7 +31558,7 @@
         <v>1664</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>139</v>
       </c>
@@ -31599,7 +31599,7 @@
         <v>1665</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>140</v>
       </c>
@@ -31640,7 +31640,7 @@
         <v>1666</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>145</v>
       </c>
@@ -31681,7 +31681,7 @@
         <v>1667</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>147</v>
       </c>
@@ -31722,7 +31722,7 @@
         <v>1668</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>149</v>
       </c>
@@ -31763,7 +31763,7 @@
         <v>1669</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>151</v>
       </c>
@@ -31804,7 +31804,7 @@
         <v>1670</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>153</v>
       </c>
@@ -31845,7 +31845,7 @@
         <v>1671</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>155</v>
       </c>
@@ -31886,7 +31886,7 @@
         <v>1672</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>157</v>
       </c>
@@ -31927,7 +31927,7 @@
         <v>1673</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>159</v>
       </c>
@@ -31968,7 +31968,7 @@
         <v>1674</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>161</v>
       </c>
@@ -32009,7 +32009,7 @@
         <v>1675</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>163</v>
       </c>
@@ -32050,7 +32050,7 @@
         <v>1676</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>165</v>
       </c>
@@ -32091,7 +32091,7 @@
         <v>1677</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>167</v>
       </c>
@@ -32132,7 +32132,7 @@
         <v>1678</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>169</v>
       </c>
@@ -32173,7 +32173,7 @@
         <v>1679</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>171</v>
       </c>
@@ -32214,7 +32214,7 @@
         <v>1680</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>181</v>
       </c>
@@ -32255,7 +32255,7 @@
         <v>1681</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>186</v>
       </c>
@@ -32296,7 +32296,7 @@
         <v>1682</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>303</v>
       </c>
@@ -32337,7 +32337,7 @@
         <v>1683</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>306</v>
       </c>
@@ -32378,7 +32378,7 @@
         <v>1684</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>312</v>
       </c>
@@ -32419,7 +32419,7 @@
         <v>1685</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>320</v>
       </c>
@@ -32460,7 +32460,7 @@
         <v>1686</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>323</v>
       </c>
@@ -32501,7 +32501,7 @@
         <v>1687</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>327</v>
       </c>
@@ -32542,7 +32542,7 @@
         <v>1688</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>340</v>
       </c>
@@ -32583,7 +32583,7 @@
         <v>1689</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>355</v>
       </c>
@@ -32624,7 +32624,7 @@
         <v>1690</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>371</v>
       </c>
@@ -32665,7 +32665,7 @@
         <v>1691</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>370</v>
       </c>
@@ -32706,7 +32706,7 @@
         <v>1692</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>368</v>
       </c>
@@ -32747,7 +32747,7 @@
         <v>1693</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>365</v>
       </c>
@@ -32788,7 +32788,7 @@
         <v>1694</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>387</v>
       </c>
@@ -32829,7 +32829,7 @@
         <v>1695</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>392</v>
       </c>
@@ -32870,7 +32870,7 @@
         <v>1696</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>397</v>
       </c>
@@ -32911,7 +32911,7 @@
         <v>1697</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>407</v>
       </c>
@@ -32952,7 +32952,7 @@
         <v>1698</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>446</v>
       </c>
@@ -32993,7 +32993,7 @@
         <v>1699</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>451</v>
       </c>
@@ -33034,7 +33034,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>609</v>
       </c>
@@ -33075,7 +33075,7 @@
         <v>1701</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>613</v>
       </c>
@@ -33116,7 +33116,7 @@
         <v>1702</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>620</v>
       </c>
@@ -33157,7 +33157,7 @@
         <v>1703</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>54</v>
       </c>
@@ -33195,7 +33195,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>631</v>
       </c>
@@ -33236,7 +33236,7 @@
         <v>1704</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>637</v>
       </c>
@@ -33277,7 +33277,7 @@
         <v>1705</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>649</v>
       </c>
@@ -33318,7 +33318,7 @@
         <v>1706</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>655</v>
       </c>
@@ -33359,7 +33359,7 @@
         <v>1707</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>658</v>
       </c>
@@ -33400,7 +33400,7 @@
         <v>1708</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>663</v>
       </c>
@@ -33441,7 +33441,7 @@
         <v>1709</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>666</v>
       </c>
@@ -33482,7 +33482,7 @@
         <v>1710</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>668</v>
       </c>
@@ -33523,7 +33523,7 @@
         <v>1711</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>673</v>
       </c>
@@ -33564,7 +33564,7 @@
         <v>1712</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>676</v>
       </c>
@@ -33605,7 +33605,7 @@
         <v>1713</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>693</v>
       </c>
@@ -33646,7 +33646,7 @@
         <v>1714</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>696</v>
       </c>
@@ -33687,7 +33687,7 @@
         <v>1715</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>701</v>
       </c>
@@ -33728,7 +33728,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>702</v>
       </c>
@@ -33769,7 +33769,7 @@
         <v>1717</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>706</v>
       </c>
@@ -33810,7 +33810,7 @@
         <v>1718</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>718</v>
       </c>
@@ -33851,7 +33851,7 @@
         <v>1719</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>750</v>
       </c>
@@ -33892,7 +33892,7 @@
         <v>1720</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>613</v>
       </c>
@@ -33933,7 +33933,7 @@
         <v>1702</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>762</v>
       </c>
@@ -33974,7 +33974,7 @@
         <v>1721</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>397</v>
       </c>
@@ -34015,7 +34015,7 @@
         <v>1697</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>787</v>
       </c>
@@ -34056,7 +34056,7 @@
         <v>1722</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>807</v>
       </c>
@@ -34097,7 +34097,7 @@
         <v>1723</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>813</v>
       </c>
@@ -34138,7 +34138,7 @@
         <v>1724</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>889</v>
       </c>
@@ -34179,7 +34179,7 @@
         <v>1725</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>892</v>
       </c>
@@ -34220,7 +34220,7 @@
         <v>1726</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>894</v>
       </c>
@@ -34261,7 +34261,7 @@
         <v>1727</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>897</v>
       </c>
@@ -34302,7 +34302,7 @@
         <v>1728</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>906</v>
       </c>
@@ -34343,7 +34343,7 @@
         <v>1729</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>907</v>
       </c>
@@ -34384,7 +34384,7 @@
         <v>1730</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>910</v>
       </c>
@@ -34425,7 +34425,7 @@
         <v>1731</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>914</v>
       </c>
@@ -34466,7 +34466,7 @@
         <v>1732</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>917</v>
       </c>
@@ -34507,7 +34507,7 @@
         <v>1733</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>978</v>
       </c>
@@ -34548,7 +34548,7 @@
         <v>1734</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>981</v>
       </c>
@@ -34589,7 +34589,7 @@
         <v>1735</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>1004</v>
       </c>
@@ -34630,7 +34630,7 @@
         <v>1736</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>1007</v>
       </c>
@@ -34671,7 +34671,7 @@
         <v>1737</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>1010</v>
       </c>
@@ -34712,7 +34712,7 @@
         <v>1738</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>1031</v>
       </c>
@@ -34753,7 +34753,7 @@
         <v>1739</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>1040</v>
       </c>
@@ -34794,7 +34794,7 @@
         <v>1740</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>1043</v>
       </c>
@@ -34835,7 +34835,7 @@
         <v>1741</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>1076</v>
       </c>
@@ -34876,7 +34876,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>1079</v>
       </c>
@@ -34917,7 +34917,7 @@
         <v>1743</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>1082</v>
       </c>
@@ -34958,7 +34958,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>1083</v>
       </c>
@@ -34999,7 +34999,7 @@
         <v>1745</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>1086</v>
       </c>
@@ -35040,7 +35040,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>1089</v>
       </c>
@@ -35081,7 +35081,7 @@
         <v>1747</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>1092</v>
       </c>
@@ -35122,7 +35122,7 @@
         <v>1748</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>1124</v>
       </c>
@@ -35163,7 +35163,7 @@
         <v>1749</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>1145</v>
       </c>
@@ -35204,7 +35204,7 @@
         <v>1750</v>
       </c>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>1147</v>
       </c>
@@ -35245,7 +35245,7 @@
         <v>1751</v>
       </c>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>1182</v>
       </c>
@@ -35286,7 +35286,7 @@
         <v>1752</v>
       </c>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>1187</v>
       </c>
@@ -35327,7 +35327,7 @@
         <v>1753</v>
       </c>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>1188</v>
       </c>
@@ -35368,7 +35368,7 @@
         <v>1754</v>
       </c>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>1314</v>
       </c>
@@ -35409,7 +35409,7 @@
         <v>1755</v>
       </c>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>1316</v>
       </c>
@@ -35450,7 +35450,7 @@
         <v>1756</v>
       </c>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>1317</v>
       </c>
@@ -35491,7 +35491,7 @@
         <v>1757</v>
       </c>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>1320</v>
       </c>
@@ -35532,7 +35532,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>1342</v>
       </c>
@@ -35573,7 +35573,7 @@
         <v>1759</v>
       </c>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>1346</v>
       </c>
@@ -35614,7 +35614,7 @@
         <v>1760</v>
       </c>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>1348</v>
       </c>
@@ -35655,7 +35655,7 @@
         <v>1761</v>
       </c>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>1351</v>
       </c>
@@ -35696,7 +35696,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>1352</v>
       </c>
@@ -35737,7 +35737,7 @@
         <v>1763</v>
       </c>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>1355</v>
       </c>
@@ -35778,7 +35778,7 @@
         <v>1764</v>
       </c>
     </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>1398</v>
       </c>
@@ -35819,7 +35819,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>1403</v>
       </c>
@@ -35860,7 +35860,7 @@
         <v>1766</v>
       </c>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>1406</v>
       </c>
@@ -35901,7 +35901,7 @@
         <v>1767</v>
       </c>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>1409</v>
       </c>
@@ -35942,7 +35942,7 @@
         <v>1768</v>
       </c>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>1425</v>
       </c>
@@ -35983,7 +35983,7 @@
         <v>1769</v>
       </c>
     </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>1475</v>
       </c>
@@ -36024,7 +36024,7 @@
         <v>1770</v>
       </c>
     </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>1487</v>
       </c>
@@ -36065,7 +36065,7 @@
         <v>1771</v>
       </c>
     </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>1519</v>
       </c>
@@ -36106,7 +36106,7 @@
         <v>1772</v>
       </c>
     </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>1518</v>
       </c>
@@ -36147,7 +36147,7 @@
         <v>1773</v>
       </c>
     </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>1559</v>
       </c>
@@ -36188,7 +36188,7 @@
         <v>1558</v>
       </c>
     </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>1561</v>
       </c>
@@ -36229,7 +36229,7 @@
         <v>1560</v>
       </c>
     </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>1793</v>
       </c>
@@ -36270,7 +36270,7 @@
         <v>1794</v>
       </c>
     </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>1795</v>
       </c>
@@ -36311,7 +36311,7 @@
         <v>1797</v>
       </c>
     </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>1847</v>
       </c>
@@ -36352,7 +36352,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>1848</v>
       </c>
@@ -36393,7 +36393,7 @@
         <v>1840</v>
       </c>
     </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>1849</v>
       </c>
@@ -36434,7 +36434,7 @@
         <v>1841</v>
       </c>
     </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>1850</v>
       </c>
@@ -36475,7 +36475,7 @@
         <v>1842</v>
       </c>
     </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>1851</v>
       </c>
@@ -36516,7 +36516,7 @@
         <v>1843</v>
       </c>
     </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>1852</v>
       </c>
@@ -36557,7 +36557,7 @@
         <v>1844</v>
       </c>
     </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>1853</v>
       </c>
@@ -36598,7 +36598,7 @@
         <v>1845</v>
       </c>
     </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>1854</v>
       </c>
@@ -36639,7 +36639,7 @@
         <v>1846</v>
       </c>
     </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>1901</v>
       </c>
@@ -36677,7 +36677,7 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>1932</v>
       </c>
@@ -36718,7 +36718,7 @@
         <v>1929</v>
       </c>
     </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>1933</v>
       </c>
@@ -36759,7 +36759,7 @@
         <v>1936</v>
       </c>
     </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>1941</v>
       </c>
@@ -36800,7 +36800,7 @@
         <v>1940</v>
       </c>
     </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>1952</v>
       </c>
@@ -36841,7 +36841,7 @@
         <v>1949</v>
       </c>
     </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>1956</v>
       </c>
@@ -36882,7 +36882,7 @@
         <v>1953</v>
       </c>
     </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>1960</v>
       </c>
@@ -36923,7 +36923,7 @@
         <v>1957</v>
       </c>
     </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>1964</v>
       </c>
@@ -36964,7 +36964,7 @@
         <v>1961</v>
       </c>
     </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>1968</v>
       </c>
@@ -37005,7 +37005,7 @@
         <v>1965</v>
       </c>
     </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>2047</v>
       </c>
@@ -37046,7 +37046,7 @@
         <v>2044</v>
       </c>
     </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>2064</v>
       </c>
@@ -37087,7 +37087,7 @@
         <v>2062</v>
       </c>
     </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>2068</v>
       </c>
@@ -37128,7 +37128,7 @@
         <v>2069</v>
       </c>
     </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>2073</v>
       </c>
@@ -37169,7 +37169,7 @@
         <v>2070</v>
       </c>
     </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>2077</v>
       </c>
@@ -37210,7 +37210,7 @@
         <v>2074</v>
       </c>
     </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>2081</v>
       </c>
@@ -37251,7 +37251,7 @@
         <v>2078</v>
       </c>
     </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>2086</v>
       </c>
@@ -37292,7 +37292,7 @@
         <v>2085</v>
       </c>
     </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>2090</v>
       </c>
@@ -37333,7 +37333,7 @@
         <v>2089</v>
       </c>
     </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>2167</v>
       </c>
@@ -37374,7 +37374,7 @@
         <v>2166</v>
       </c>
     </row>
-    <row r="147" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>2174</v>
       </c>
@@ -37415,7 +37415,7 @@
         <v>2173</v>
       </c>
     </row>
-    <row r="148" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>2198</v>
       </c>
@@ -37456,7 +37456,7 @@
         <v>2197</v>
       </c>
     </row>
-    <row r="149" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>2219</v>
       </c>
@@ -37497,7 +37497,7 @@
         <v>2217</v>
       </c>
     </row>
-    <row r="150" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>2239</v>
       </c>
@@ -37538,7 +37538,7 @@
         <v>2238</v>
       </c>
     </row>
-    <row r="151" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>1352</v>
       </c>
@@ -37579,7 +37579,7 @@
         <v>1763</v>
       </c>
     </row>
-    <row r="152" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>2255</v>
       </c>
@@ -37620,7 +37620,7 @@
         <v>2254</v>
       </c>
     </row>
-    <row r="153" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>2258</v>
       </c>
@@ -37661,7 +37661,7 @@
         <v>2257</v>
       </c>
     </row>
-    <row r="154" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>2263</v>
       </c>
@@ -37702,7 +37702,7 @@
         <v>2260</v>
       </c>
     </row>
-    <row r="155" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>2379</v>
       </c>
@@ -37743,7 +37743,7 @@
         <v>2375</v>
       </c>
     </row>
-    <row r="156" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>2382</v>
       </c>
@@ -37784,7 +37784,7 @@
         <v>2380</v>
       </c>
     </row>
-    <row r="157" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>2384</v>
       </c>
@@ -37825,7 +37825,7 @@
         <v>2383</v>
       </c>
     </row>
-    <row r="158" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>2434</v>
       </c>
@@ -37866,7 +37866,7 @@
         <v>2435</v>
       </c>
     </row>
-    <row r="159" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>2438</v>
       </c>
@@ -37907,7 +37907,7 @@
         <v>2436</v>
       </c>
     </row>
-    <row r="160" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>2441</v>
       </c>
@@ -37948,7 +37948,7 @@
         <v>2442</v>
       </c>
     </row>
-    <row r="161" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>2445</v>
       </c>
@@ -37989,7 +37989,7 @@
         <v>2444</v>
       </c>
     </row>
-    <row r="162" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>2458</v>
       </c>
@@ -38030,7 +38030,7 @@
         <v>2457</v>
       </c>
     </row>
-    <row r="163" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>2461</v>
       </c>
@@ -38071,7 +38071,7 @@
         <v>2460</v>
       </c>
     </row>
-    <row r="164" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>2521</v>
       </c>
@@ -38112,7 +38112,7 @@
         <v>2522</v>
       </c>
     </row>
-    <row r="165" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>2554</v>
       </c>
@@ -38153,7 +38153,7 @@
         <v>2553</v>
       </c>
     </row>
-    <row r="166" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>2558</v>
       </c>
@@ -38194,7 +38194,7 @@
         <v>2557</v>
       </c>
     </row>
-    <row r="167" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>2642</v>
       </c>
@@ -38235,7 +38235,7 @@
         <v>2643</v>
       </c>
     </row>
-    <row r="168" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>2667</v>
       </c>
@@ -38276,7 +38276,7 @@
         <v>2665</v>
       </c>
     </row>
-    <row r="169" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>2671</v>
       </c>
@@ -38317,7 +38317,7 @@
         <v>2669</v>
       </c>
     </row>
-    <row r="170" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>2717</v>
       </c>
@@ -38358,7 +38358,7 @@
         <v>2716</v>
       </c>
     </row>
-    <row r="171" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>2721</v>
       </c>
@@ -38418,28 +38418,28 @@
       <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="51.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.26953125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="32.453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.453125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="51.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="30.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="30.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="31.453125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="31.42578125" bestFit="1" customWidth="1"/>
     <col min="16" max="1025" width="9" style="20" customWidth="1"/>
-    <col min="1026" max="16384" width="8.81640625" style="20"/>
+    <col min="1026" max="16384" width="8.85546875" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="10" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" s="10" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -38486,7 +38486,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>44</v>
       </c>
@@ -38530,7 +38530,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>61</v>
       </c>
@@ -38574,7 +38574,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>249</v>
       </c>
@@ -38618,7 +38618,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>251</v>
       </c>
@@ -38662,7 +38662,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>252</v>
       </c>
@@ -38706,7 +38706,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>353</v>
       </c>
@@ -38750,7 +38750,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>501</v>
       </c>
@@ -38789,7 +38789,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>625</v>
       </c>
@@ -38830,7 +38830,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>681</v>
       </c>
@@ -38871,7 +38871,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>716</v>
       </c>
@@ -38915,7 +38915,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>779</v>
       </c>
@@ -38959,7 +38959,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>785</v>
       </c>
@@ -39000,7 +39000,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>984</v>
       </c>
@@ -39044,7 +39044,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>1003</v>
       </c>
@@ -39088,7 +39088,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>1118</v>
       </c>
@@ -39132,7 +39132,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>1283</v>
       </c>
@@ -39176,7 +39176,7 @@
         <v>1780</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>1284</v>
       </c>
@@ -39220,7 +39220,7 @@
         <v>1779</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>1289</v>
       </c>
@@ -39264,7 +39264,7 @@
         <v>1778</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>1295</v>
       </c>
@@ -39308,7 +39308,7 @@
         <v>1777</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>1359</v>
       </c>
@@ -39352,7 +39352,7 @@
         <v>1781</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>1507</v>
       </c>
@@ -39396,7 +39396,7 @@
         <v>1505</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>1785</v>
       </c>
@@ -39440,7 +39440,7 @@
         <v>1786</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>2226</v>
       </c>
@@ -39487,7 +39487,7 @@
         <v>2221</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>2230</v>
       </c>
@@ -39531,7 +39531,7 @@
         <v>2228</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>2428</v>
       </c>
@@ -39575,7 +39575,7 @@
         <v>2427</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>2464</v>
       </c>
@@ -39619,7 +39619,7 @@
         <v>2465</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>2516</v>
       </c>
@@ -39663,7 +39663,7 @@
         <v>2515</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>2570</v>
       </c>
@@ -39704,7 +39704,7 @@
         <v>2568</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>2586</v>
       </c>
@@ -39742,7 +39742,7 @@
         <v>2586</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>2615</v>
       </c>
@@ -39786,7 +39786,7 @@
         <v>2612</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>2619</v>
       </c>
@@ -39830,7 +39830,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>2627</v>
       </c>
@@ -39874,7 +39874,7 @@
         <v>2626</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>2631</v>
       </c>
@@ -39918,7 +39918,7 @@
         <v>2630</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>2645</v>
       </c>
@@ -39981,26 +39981,26 @@
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="45.54296875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="45.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="32" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="26.81640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="26.85546875" bestFit="1" customWidth="1"/>
     <col min="14" max="1025" width="9" style="20" customWidth="1"/>
-    <col min="1026" max="16384" width="8.81640625" style="20"/>
+    <col min="1026" max="16384" width="8.85546875" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="10" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" s="10" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -40041,7 +40041,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>413</v>
       </c>
@@ -40079,7 +40079,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>417</v>
       </c>
@@ -40117,7 +40117,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>618</v>
       </c>
@@ -40155,7 +40155,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1199</v>
       </c>
@@ -40193,7 +40193,7 @@
         <v>1198</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>1395</v>
       </c>
@@ -40231,7 +40231,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>1424</v>
       </c>
@@ -40269,7 +40269,7 @@
         <v>1820</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>1489</v>
       </c>
@@ -40307,7 +40307,7 @@
         <v>1491</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>1996</v>
       </c>
@@ -40345,7 +40345,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>2006</v>
       </c>
@@ -40383,7 +40383,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>2182</v>
       </c>
@@ -40421,7 +40421,7 @@
         <v>2179</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>2284</v>
       </c>
@@ -40459,7 +40459,7 @@
         <v>2285</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>2296</v>
       </c>
@@ -40497,7 +40497,7 @@
         <v>2295</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>2601</v>
       </c>
@@ -40548,32 +40548,32 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L59"/>
+  <dimension ref="A1:L60"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C64" sqref="C64"/>
+      <selection activeCell="E66" sqref="E66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="35" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.26953125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.26953125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="44.453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="30.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="44.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="30.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="31.1796875" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="8.81640625" style="20"/>
+    <col min="12" max="12" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="8.85546875" style="20"/>
     <col min="16" max="1025" width="9" style="20" customWidth="1"/>
-    <col min="1026" max="16384" width="8.81640625" style="20"/>
+    <col min="1026" max="16384" width="8.85546875" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="10" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" s="10" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -40611,7 +40611,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>253</v>
       </c>
@@ -40646,7 +40646,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>254</v>
       </c>
@@ -40681,7 +40681,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>275</v>
       </c>
@@ -40716,7 +40716,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>282</v>
       </c>
@@ -40751,7 +40751,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>285</v>
       </c>
@@ -40786,7 +40786,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>301</v>
       </c>
@@ -40821,7 +40821,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>289</v>
       </c>
@@ -40856,7 +40856,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>291</v>
       </c>
@@ -40891,7 +40891,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>345</v>
       </c>
@@ -40926,7 +40926,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>382</v>
       </c>
@@ -40961,7 +40961,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>437</v>
       </c>
@@ -40996,7 +40996,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>480</v>
       </c>
@@ -41022,7 +41022,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>484</v>
       </c>
@@ -41048,7 +41048,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>485</v>
       </c>
@@ -41074,7 +41074,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>614</v>
       </c>
@@ -41100,7 +41100,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>733</v>
       </c>
@@ -41135,7 +41135,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>738</v>
       </c>
@@ -41170,7 +41170,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>747</v>
       </c>
@@ -41205,7 +41205,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>754</v>
       </c>
@@ -41238,7 +41238,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>760</v>
       </c>
@@ -41273,7 +41273,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>806</v>
       </c>
@@ -41308,7 +41308,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>821</v>
       </c>
@@ -41343,7 +41343,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>931</v>
       </c>
@@ -41378,7 +41378,7 @@
         <v>1810</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>934</v>
       </c>
@@ -41413,7 +41413,7 @@
         <v>1811</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>948</v>
       </c>
@@ -41448,7 +41448,7 @@
         <v>1812</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>950</v>
       </c>
@@ -41483,7 +41483,7 @@
         <v>1813</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>959</v>
       </c>
@@ -41518,7 +41518,7 @@
         <v>1814</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>1134</v>
       </c>
@@ -41553,7 +41553,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>1156</v>
       </c>
@@ -41588,7 +41588,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>1176</v>
       </c>
@@ -41623,7 +41623,7 @@
         <v>1175</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>1181</v>
       </c>
@@ -41658,7 +41658,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>1224</v>
       </c>
@@ -41693,7 +41693,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>1227</v>
       </c>
@@ -41728,7 +41728,7 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>1234</v>
       </c>
@@ -41763,7 +41763,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>1331</v>
       </c>
@@ -41798,7 +41798,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>1340</v>
       </c>
@@ -41833,7 +41833,7 @@
         <v>1338</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>1371</v>
       </c>
@@ -41868,7 +41868,7 @@
         <v>1369</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>1503</v>
       </c>
@@ -41903,7 +41903,7 @@
         <v>1502</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>1565</v>
       </c>
@@ -41938,7 +41938,7 @@
         <v>1563</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>1574</v>
       </c>
@@ -41973,7 +41973,7 @@
         <v>1573</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>1663</v>
       </c>
@@ -42008,7 +42008,7 @@
         <v>1661</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>1775</v>
       </c>
@@ -42043,7 +42043,7 @@
         <v>1774</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>1788</v>
       </c>
@@ -42078,7 +42078,7 @@
         <v>1787</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>1792</v>
       </c>
@@ -42113,7 +42113,7 @@
         <v>1791</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>1829</v>
       </c>
@@ -42148,7 +42148,7 @@
         <v>1828</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>1872</v>
       </c>
@@ -42183,7 +42183,7 @@
         <v>1871</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>1874</v>
       </c>
@@ -42206,7 +42206,7 @@
         <v>1874</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>2084</v>
       </c>
@@ -42241,7 +42241,7 @@
         <v>2082</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>2137</v>
       </c>
@@ -42276,7 +42276,7 @@
         <v>2135</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>2140</v>
       </c>
@@ -42311,7 +42311,7 @@
         <v>2138</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>2477</v>
       </c>
@@ -42346,7 +42346,7 @@
         <v>2476</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>2495</v>
       </c>
@@ -42378,7 +42378,7 @@
         <v>2493</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>2651</v>
       </c>
@@ -42413,7 +42413,7 @@
         <v>2650</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>2655</v>
       </c>
@@ -42448,7 +42448,7 @@
         <v>2654</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>2658</v>
       </c>
@@ -42483,7 +42483,7 @@
         <v>2657</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>2673</v>
       </c>
@@ -42518,7 +42518,7 @@
         <v>2672</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>2680</v>
       </c>
@@ -42553,7 +42553,7 @@
         <v>2679</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>2724</v>
       </c>
@@ -42586,6 +42586,38 @@
       </c>
       <c r="L59" t="s">
         <v>2723</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>2745</v>
+      </c>
+      <c r="B60" t="s">
+        <v>2745</v>
+      </c>
+      <c r="C60" t="s">
+        <v>283</v>
+      </c>
+      <c r="D60" t="s">
+        <v>531</v>
+      </c>
+      <c r="E60" t="s">
+        <v>2746</v>
+      </c>
+      <c r="H60" t="s">
+        <v>20</v>
+      </c>
+      <c r="I60" t="s">
+        <v>2725</v>
+      </c>
+      <c r="J60" t="s">
+        <v>2745</v>
+      </c>
+      <c r="K60" t="s">
+        <v>17</v>
+      </c>
+      <c r="L60" t="s">
+        <v>2744</v>
       </c>
     </row>
   </sheetData>
@@ -42608,26 +42640,26 @@
       <selection pane="bottomLeft" activeCell="F184" sqref="F184"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="27.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="92.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="33.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.26953125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="47.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="30.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="92.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="47.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="30.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="29.26953125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="29.28515625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="24.7265625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="24.7109375" bestFit="1" customWidth="1"/>
     <col min="15" max="1025" width="9" style="20" customWidth="1"/>
-    <col min="1026" max="16384" width="8.81640625" style="20"/>
+    <col min="1026" max="16384" width="8.85546875" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="10" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" s="10" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -42671,7 +42703,7 @@
         <v>1831</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -42708,7 +42740,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>68</v>
       </c>
@@ -42745,7 +42777,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>74</v>
       </c>
@@ -42782,7 +42814,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>79</v>
       </c>
@@ -42819,7 +42851,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>80</v>
       </c>
@@ -42856,7 +42888,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>93</v>
       </c>
@@ -42893,7 +42925,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>95</v>
       </c>
@@ -42930,7 +42962,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>102</v>
       </c>
@@ -42966,7 +42998,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>105</v>
       </c>
@@ -43003,7 +43035,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>309</v>
       </c>
@@ -43038,7 +43070,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>318</v>
       </c>
@@ -43073,7 +43105,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>378</v>
       </c>
@@ -43108,7 +43140,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>403</v>
       </c>
@@ -43143,7 +43175,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>433</v>
       </c>
@@ -43178,7 +43210,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>442</v>
       </c>
@@ -43213,7 +43245,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>448</v>
       </c>
@@ -43248,7 +43280,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>471</v>
       </c>
@@ -43283,7 +43315,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>476</v>
       </c>
@@ -43318,7 +43350,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>489</v>
       </c>
@@ -43353,7 +43385,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>492</v>
       </c>
@@ -43388,7 +43420,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>496</v>
       </c>
@@ -43423,7 +43455,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>508</v>
       </c>
@@ -43458,7 +43490,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>511</v>
       </c>
@@ -43493,7 +43525,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>532</v>
       </c>
@@ -43528,7 +43560,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>537</v>
       </c>
@@ -43563,7 +43595,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>560</v>
       </c>
@@ -43598,7 +43630,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>540</v>
       </c>
@@ -43633,7 +43665,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>541</v>
       </c>
@@ -43668,7 +43700,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>542</v>
       </c>
@@ -43703,7 +43735,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>573</v>
       </c>
@@ -43738,7 +43770,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>577</v>
       </c>
@@ -43773,7 +43805,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>580</v>
       </c>
@@ -43808,7 +43840,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>583</v>
       </c>
@@ -43843,7 +43875,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>586</v>
       </c>
@@ -43878,7 +43910,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>590</v>
       </c>
@@ -43913,7 +43945,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>594</v>
       </c>
@@ -43948,7 +43980,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>595</v>
       </c>
@@ -43983,7 +44015,7 @@
         <v>1815</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>552</v>
       </c>
@@ -44018,7 +44050,7 @@
         <v>1816</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>599</v>
       </c>
@@ -44053,7 +44085,7 @@
         <v>1801</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>600</v>
       </c>
@@ -44088,7 +44120,7 @@
         <v>1817</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>602</v>
       </c>
@@ -44123,7 +44155,7 @@
         <v>1818</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>605</v>
       </c>
@@ -44158,7 +44190,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>635</v>
       </c>
@@ -44193,7 +44225,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>539</v>
       </c>
@@ -44228,7 +44260,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>670</v>
       </c>
@@ -44263,7 +44295,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>884</v>
       </c>
@@ -44298,7 +44330,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>901</v>
       </c>
@@ -44333,7 +44365,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>918</v>
       </c>
@@ -44368,7 +44400,7 @@
         <v>1836</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>921</v>
       </c>
@@ -44403,7 +44435,7 @@
         <v>1833</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>922</v>
       </c>
@@ -44438,7 +44470,7 @@
         <v>1834</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>923</v>
       </c>
@@ -44473,7 +44505,7 @@
         <v>1835</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>937</v>
       </c>
@@ -44508,7 +44540,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>943</v>
       </c>
@@ -44543,7 +44575,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>941</v>
       </c>
@@ -44578,7 +44610,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>1014</v>
       </c>
@@ -44613,7 +44645,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>1018</v>
       </c>
@@ -44648,7 +44680,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>1022</v>
       </c>
@@ -44683,7 +44715,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>1049</v>
       </c>
@@ -44716,7 +44748,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>1051</v>
       </c>
@@ -44751,7 +44783,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>1055</v>
       </c>
@@ -44786,7 +44818,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>1059</v>
       </c>
@@ -44821,7 +44853,7 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>1065</v>
       </c>
@@ -44856,7 +44888,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>1070</v>
       </c>
@@ -44891,7 +44923,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>1096</v>
       </c>
@@ -44926,7 +44958,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>1100</v>
       </c>
@@ -44961,7 +44993,7 @@
         <v>1098</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>1102</v>
       </c>
@@ -44996,7 +45028,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>1111</v>
       </c>
@@ -45031,7 +45063,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>1130</v>
       </c>
@@ -45066,7 +45098,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>1136</v>
       </c>
@@ -45101,7 +45133,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>1142</v>
       </c>
@@ -45136,7 +45168,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>1150</v>
       </c>
@@ -45171,7 +45203,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>1172</v>
       </c>
@@ -45206,7 +45238,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>1197</v>
       </c>
@@ -45241,7 +45273,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>1207</v>
       </c>
@@ -45276,7 +45308,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>1216</v>
       </c>
@@ -45311,7 +45343,7 @@
         <v>1215</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>1231</v>
       </c>
@@ -45346,7 +45378,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>1246</v>
       </c>
@@ -45381,7 +45413,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>1247</v>
       </c>
@@ -45416,7 +45448,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>1248</v>
       </c>
@@ -45451,7 +45483,7 @@
         <v>1248</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>1251</v>
       </c>
@@ -45486,7 +45518,7 @@
         <v>1249</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>1262</v>
       </c>
@@ -45521,7 +45553,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>1245</v>
       </c>
@@ -45562,7 +45594,7 @@
         <v>1832</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>1798</v>
       </c>
@@ -45597,7 +45629,7 @@
         <v>1799</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>1304</v>
       </c>
@@ -45632,7 +45664,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>1334</v>
       </c>
@@ -45667,7 +45699,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>1374</v>
       </c>
@@ -45702,7 +45734,7 @@
         <v>1802</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>1378</v>
       </c>
@@ -45737,7 +45769,7 @@
         <v>1822</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>1387</v>
       </c>
@@ -45772,7 +45804,7 @@
         <v>1386</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>1397</v>
       </c>
@@ -45807,7 +45839,7 @@
         <v>1823</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>1419</v>
       </c>
@@ -45842,7 +45874,7 @@
         <v>1803</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>1430</v>
       </c>
@@ -45877,7 +45909,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>1473</v>
       </c>
@@ -45912,7 +45944,7 @@
         <v>1472</v>
       </c>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>1479</v>
       </c>
@@ -45947,7 +45979,7 @@
         <v>1478</v>
       </c>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>1484</v>
       </c>
@@ -45982,7 +46014,7 @@
         <v>1482</v>
       </c>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>1500</v>
       </c>
@@ -46017,7 +46049,7 @@
         <v>1499</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>1522</v>
       </c>
@@ -46052,7 +46084,7 @@
         <v>1521</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>1528</v>
       </c>
@@ -46087,7 +46119,7 @@
         <v>1527</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>1533</v>
       </c>
@@ -46122,7 +46154,7 @@
         <v>1532</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>1538</v>
       </c>
@@ -46157,7 +46189,7 @@
         <v>1537</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>1540</v>
       </c>
@@ -46192,7 +46224,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>1545</v>
       </c>
@@ -46227,7 +46259,7 @@
         <v>1544</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>1549</v>
       </c>
@@ -46262,7 +46294,7 @@
         <v>1548</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>1553</v>
       </c>
@@ -46297,7 +46329,7 @@
         <v>1552</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>1571</v>
       </c>
@@ -46332,7 +46364,7 @@
         <v>1568</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>1804</v>
       </c>
@@ -46367,7 +46399,7 @@
         <v>1805</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>1808</v>
       </c>
@@ -46402,7 +46434,7 @@
         <v>1807</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>1877</v>
       </c>
@@ -46437,7 +46469,7 @@
         <v>1875</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>1906</v>
       </c>
@@ -46472,7 +46504,7 @@
         <v>1905</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>1910</v>
       </c>
@@ -46507,7 +46539,7 @@
         <v>1908</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>1969</v>
       </c>
@@ -46542,7 +46574,7 @@
         <v>1970</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>1974</v>
       </c>
@@ -46577,7 +46609,7 @@
         <v>1972</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>1975</v>
       </c>
@@ -46612,7 +46644,7 @@
         <v>1977</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>1979</v>
       </c>
@@ -46647,7 +46679,7 @@
         <v>1978</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>1984</v>
       </c>
@@ -46682,7 +46714,7 @@
         <v>1982</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>1988</v>
       </c>
@@ -46717,7 +46749,7 @@
         <v>1987</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>1992</v>
       </c>
@@ -46752,7 +46784,7 @@
         <v>1991</v>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>1993</v>
       </c>
@@ -46781,7 +46813,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>2003</v>
       </c>
@@ -46816,7 +46848,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>2010</v>
       </c>
@@ -46851,7 +46883,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>2023</v>
       </c>
@@ -46886,7 +46918,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>2026</v>
       </c>
@@ -46921,7 +46953,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>2031</v>
       </c>
@@ -46956,7 +46988,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>2051</v>
       </c>
@@ -46991,7 +47023,7 @@
         <v>2048</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>2055</v>
       </c>
@@ -47026,7 +47058,7 @@
         <v>2053</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>2058</v>
       </c>
@@ -47061,7 +47093,7 @@
         <v>2059</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>2095</v>
       </c>
@@ -47096,7 +47128,7 @@
         <v>2093</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>2099</v>
       </c>
@@ -47131,7 +47163,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>2104</v>
       </c>
@@ -47166,7 +47198,7 @@
         <v>2105</v>
       </c>
     </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>2108</v>
       </c>
@@ -47201,7 +47233,7 @@
         <v>2106</v>
       </c>
     </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>2120</v>
       </c>
@@ -47236,7 +47268,7 @@
         <v>2121</v>
       </c>
     </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>2124</v>
       </c>
@@ -47271,7 +47303,7 @@
         <v>2122</v>
       </c>
     </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>2128</v>
       </c>
@@ -47306,7 +47338,7 @@
         <v>2127</v>
       </c>
     </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>2130</v>
       </c>
@@ -47341,7 +47373,7 @@
         <v>2129</v>
       </c>
     </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>2145</v>
       </c>
@@ -47376,7 +47408,7 @@
         <v>2141</v>
       </c>
     </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>2150</v>
       </c>
@@ -47411,7 +47443,7 @@
         <v>2147</v>
       </c>
     </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>2157</v>
       </c>
@@ -47446,7 +47478,7 @@
         <v>2156</v>
       </c>
     </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>2163</v>
       </c>
@@ -47481,7 +47513,7 @@
         <v>2163</v>
       </c>
     </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>2170</v>
       </c>
@@ -47516,7 +47548,7 @@
         <v>2171</v>
       </c>
     </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>2177</v>
       </c>
@@ -47551,7 +47583,7 @@
         <v>2178</v>
       </c>
     </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>2196</v>
       </c>
@@ -47586,7 +47618,7 @@
         <v>2193</v>
       </c>
     </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>2202</v>
       </c>
@@ -47627,7 +47659,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>2206</v>
       </c>
@@ -47662,7 +47694,7 @@
         <v>2205</v>
       </c>
     </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>2210</v>
       </c>
@@ -47691,7 +47723,7 @@
         <v>2210</v>
       </c>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>2246</v>
       </c>
@@ -47726,7 +47758,7 @@
         <v>2243</v>
       </c>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>2249</v>
       </c>
@@ -47761,7 +47793,7 @@
         <v>2248</v>
       </c>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>2267</v>
       </c>
@@ -47796,7 +47828,7 @@
         <v>2266</v>
       </c>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>2280</v>
       </c>
@@ -47831,7 +47863,7 @@
         <v>2279</v>
       </c>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>2299</v>
       </c>
@@ -47866,7 +47898,7 @@
         <v>2300</v>
       </c>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>2306</v>
       </c>
@@ -47901,7 +47933,7 @@
         <v>2305</v>
       </c>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>2310</v>
       </c>
@@ -47936,7 +47968,7 @@
         <v>2307</v>
       </c>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>2313</v>
       </c>
@@ -47968,7 +48000,7 @@
         <v>2314</v>
       </c>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>2316</v>
       </c>
@@ -48000,7 +48032,7 @@
         <v>2315</v>
       </c>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>2369</v>
       </c>
@@ -48029,7 +48061,7 @@
         <v>2369</v>
       </c>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>2370</v>
       </c>
@@ -48058,7 +48090,7 @@
         <v>2370</v>
       </c>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>2371</v>
       </c>
@@ -48087,7 +48119,7 @@
         <v>2371</v>
       </c>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>2406</v>
       </c>
@@ -48122,7 +48154,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>2408</v>
       </c>
@@ -48157,7 +48189,7 @@
         <v>2409</v>
       </c>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>2412</v>
       </c>
@@ -48192,7 +48224,7 @@
         <v>2411</v>
       </c>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>2416</v>
       </c>
@@ -48227,7 +48259,7 @@
         <v>2418</v>
       </c>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>2421</v>
       </c>
@@ -48262,7 +48294,7 @@
         <v>2422</v>
       </c>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>2426</v>
       </c>
@@ -48297,7 +48329,7 @@
         <v>2424</v>
       </c>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>2449</v>
       </c>
@@ -48332,7 +48364,7 @@
         <v>2448</v>
       </c>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>2501</v>
       </c>
@@ -48364,7 +48396,7 @@
         <v>2502</v>
       </c>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>2504</v>
       </c>
@@ -48396,7 +48428,7 @@
         <v>2506</v>
       </c>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>2508</v>
       </c>
@@ -48431,7 +48463,7 @@
         <v>2511</v>
       </c>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>2546</v>
       </c>
@@ -48466,7 +48498,7 @@
         <v>2543</v>
       </c>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>2547</v>
       </c>
@@ -48489,7 +48521,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>2549</v>
       </c>
@@ -48512,7 +48544,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>2550</v>
       </c>
@@ -48535,7 +48567,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>2563</v>
       </c>
@@ -48567,7 +48599,7 @@
         <v>2562</v>
       </c>
     </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>2572</v>
       </c>
@@ -48602,7 +48634,7 @@
         <v>2574</v>
       </c>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>2580</v>
       </c>
@@ -48631,7 +48663,7 @@
         <v>2580</v>
       </c>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>2605</v>
       </c>
@@ -48666,7 +48698,7 @@
         <v>2603</v>
       </c>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>2608</v>
       </c>
@@ -48701,7 +48733,7 @@
         <v>2610</v>
       </c>
     </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>2684</v>
       </c>
@@ -48736,7 +48768,7 @@
         <v>2682</v>
       </c>
     </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>2702</v>
       </c>
@@ -48765,7 +48797,7 @@
         <v>2702</v>
       </c>
     </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>2703</v>
       </c>
@@ -48791,7 +48823,7 @@
         <v>2703</v>
       </c>
     </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>2705</v>
       </c>
@@ -48820,7 +48852,7 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>2706</v>
       </c>
@@ -48875,25 +48907,25 @@
       <selection pane="bottomLeft" activeCell="E68" sqref="E68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="32.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="79.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="35.26953125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.54296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="30.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="32.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="79.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="30.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="34.1796875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="34.140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="24.54296875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="24.5703125" bestFit="1" customWidth="1"/>
     <col min="15" max="1025" width="9" style="20" customWidth="1"/>
-    <col min="1026" max="16384" width="8.81640625" style="20"/>
+    <col min="1026" max="16384" width="8.85546875" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="9" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" s="9" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -48937,7 +48969,7 @@
         <v>1831</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>84</v>
       </c>
@@ -48972,7 +49004,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>122</v>
       </c>
@@ -48998,7 +49030,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>430</v>
       </c>
@@ -49033,7 +49065,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>518</v>
       </c>
@@ -49059,7 +49091,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>457</v>
       </c>
@@ -49085,7 +49117,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>463</v>
       </c>
@@ -49120,7 +49152,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>468</v>
       </c>
@@ -49155,7 +49187,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>766</v>
       </c>
@@ -49190,7 +49222,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>646</v>
       </c>
@@ -49225,7 +49257,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>741</v>
       </c>
@@ -49254,7 +49286,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>744</v>
       </c>
@@ -49289,7 +49321,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>755</v>
       </c>
@@ -49324,7 +49356,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>772</v>
       </c>
@@ -49359,7 +49391,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>796</v>
       </c>
@@ -49394,7 +49426,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>797</v>
       </c>
@@ -49429,7 +49461,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>818</v>
       </c>
@@ -49470,7 +49502,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>827</v>
       </c>
@@ -49505,7 +49537,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>828</v>
       </c>
@@ -49540,7 +49572,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>831</v>
       </c>
@@ -49575,7 +49607,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>974</v>
       </c>
@@ -49610,7 +49642,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>1165</v>
       </c>
@@ -49645,7 +49677,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>1213</v>
       </c>
@@ -49671,7 +49703,7 @@
         <v>1213</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>1214</v>
       </c>
@@ -49697,7 +49729,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>1492</v>
       </c>
@@ -49723,7 +49755,7 @@
         <v>1492</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>1266</v>
       </c>
@@ -49743,7 +49775,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>1269</v>
       </c>
@@ -49778,7 +49810,7 @@
         <v>1268</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>1274</v>
       </c>
@@ -49813,7 +49845,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>1439</v>
       </c>
@@ -49839,7 +49871,7 @@
         <v>1439</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>1494</v>
       </c>
@@ -49865,7 +49897,7 @@
         <v>1494</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>1577</v>
       </c>
@@ -49891,7 +49923,7 @@
         <v>1577</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>1824</v>
       </c>
@@ -49926,7 +49958,7 @@
         <v>1825</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>1826</v>
       </c>
@@ -49961,7 +49993,7 @@
         <v>1827</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>1926</v>
       </c>
@@ -49996,7 +50028,7 @@
         <v>1928</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>2034</v>
       </c>
@@ -50031,7 +50063,7 @@
         <v>2037</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>2040</v>
       </c>
@@ -50066,7 +50098,7 @@
         <v>2039</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>2110</v>
       </c>
@@ -50101,7 +50133,7 @@
         <v>2111</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>2154</v>
       </c>
@@ -50136,7 +50168,7 @@
         <v>2153</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>2186</v>
       </c>
@@ -50171,7 +50203,7 @@
         <v>2184</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>2190</v>
       </c>
@@ -50194,7 +50226,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>2215</v>
       </c>
@@ -50229,7 +50261,7 @@
         <v>2214</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>2272</v>
       </c>
@@ -50264,7 +50296,7 @@
         <v>2273</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>2275</v>
       </c>
@@ -50299,7 +50331,7 @@
         <v>2277</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>2292</v>
       </c>
@@ -50340,7 +50372,7 @@
         <v>2321</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>2330</v>
       </c>
@@ -50375,7 +50407,7 @@
         <v>2329</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>2327</v>
       </c>
@@ -50410,7 +50442,7 @@
         <v>2326</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>2340</v>
       </c>
@@ -50445,7 +50477,7 @@
         <v>2341</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>2346</v>
       </c>
@@ -50480,7 +50512,7 @@
         <v>2345</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>2350</v>
       </c>
@@ -50515,7 +50547,7 @@
         <v>2351</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>2354</v>
       </c>
@@ -50550,7 +50582,7 @@
         <v>2353</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>2357</v>
       </c>
@@ -50585,7 +50617,7 @@
         <v>2360</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>2363</v>
       </c>
@@ -50620,7 +50652,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>2366</v>
       </c>
@@ -50655,7 +50687,7 @@
         <v>2368</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>2374</v>
       </c>
@@ -50678,7 +50710,7 @@
         <v>2374</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>2392</v>
       </c>
@@ -50713,7 +50745,7 @@
         <v>2393</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>2395</v>
       </c>
@@ -50748,7 +50780,7 @@
         <v>2394</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>2455</v>
       </c>
@@ -50783,7 +50815,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>2474</v>
       </c>
@@ -50818,7 +50850,7 @@
         <v>2472</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>2498</v>
       </c>
@@ -50850,7 +50882,7 @@
         <v>2499</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>2523</v>
       </c>
@@ -50885,7 +50917,7 @@
         <v>2525</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>2529</v>
       </c>
@@ -50917,7 +50949,7 @@
         <v>2530</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>2533</v>
       </c>
@@ -50943,7 +50975,7 @@
         <v>2533</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>2536</v>
       </c>
@@ -50978,7 +51010,7 @@
         <v>2537</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>2576</v>
       </c>
@@ -51010,7 +51042,7 @@
         <v>2575</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>2589</v>
       </c>
@@ -51042,7 +51074,7 @@
         <v>2588</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>2593</v>
       </c>
@@ -51074,7 +51106,7 @@
         <v>2591</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>2637</v>
       </c>
@@ -51109,7 +51141,7 @@
         <v>2636</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>2640</v>
       </c>
@@ -51144,7 +51176,7 @@
         <v>2635</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>2676</v>
       </c>
@@ -51176,7 +51208,7 @@
         <v>2675</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>2697</v>
       </c>
@@ -51208,7 +51240,7 @@
         <v>2696</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>2700</v>
       </c>
@@ -51240,7 +51272,7 @@
         <v>2701</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>2712</v>
       </c>
@@ -51306,23 +51338,23 @@
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="49.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="49.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.26953125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="28.7265625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="49.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="49.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="24.7265625" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.81640625" style="20"/>
+    <col min="12" max="12" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.85546875" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="9" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" s="9" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -51360,7 +51392,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>71</v>
       </c>
@@ -51395,7 +51427,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>91</v>
       </c>
@@ -51430,7 +51462,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>724</v>
       </c>
@@ -51465,7 +51497,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>730</v>
       </c>
@@ -51500,7 +51532,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>803</v>
       </c>
@@ -51526,7 +51558,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>964</v>
       </c>
@@ -51561,7 +51593,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>968</v>
       </c>
@@ -51596,7 +51628,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>1159</v>
       </c>
@@ -51631,7 +51663,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>1220</v>
       </c>
@@ -51666,7 +51698,7 @@
         <v>1219</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>1328</v>
       </c>
@@ -51701,7 +51733,7 @@
         <v>1821</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>1890</v>
       </c>
@@ -51727,7 +51759,7 @@
         <v>1890</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>1894</v>
       </c>
@@ -51753,7 +51785,7 @@
         <v>1894</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>1896</v>
       </c>
@@ -51802,24 +51834,24 @@
       <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.26953125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="29.26953125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="30.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="30.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="24.7265625" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.81640625" style="20"/>
+    <col min="12" max="12" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.85546875" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="10" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" s="10" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -51857,7 +51889,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>117</v>
       </c>
@@ -51874,7 +51906,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>118</v>
       </c>
@@ -51891,7 +51923,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>119</v>
       </c>
@@ -51908,7 +51940,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>522</v>
       </c>
@@ -51943,7 +51975,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>528</v>
       </c>
@@ -51978,7 +52010,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>957</v>
       </c>
@@ -52013,7 +52045,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>1168</v>
       </c>
@@ -52048,7 +52080,7 @@
         <v>1819</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>1236</v>
       </c>
@@ -52080,7 +52112,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>1887</v>
       </c>
@@ -52115,7 +52147,7 @@
         <v>1886</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>2335</v>
       </c>
@@ -52150,7 +52182,7 @@
         <v>2336</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>2398</v>
       </c>
@@ -52185,7 +52217,7 @@
         <v>2397</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>2489</v>
       </c>
@@ -52217,7 +52249,7 @@
         <v>2490</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>2492</v>
       </c>

--- a/Altium/DB.xlsx
+++ b/Altium/DB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Repos\LIBS\Altium\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3453C3F8-8B6D-416C-9589-96A4B6B33525}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{822C35F6-1226-4312-A47C-A646DAD2817A}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4245" yWindow="4035" windowWidth="31515" windowHeight="16005" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4245" yWindow="4035" windowWidth="31515" windowHeight="16005" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="C" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8006" uniqueCount="2747">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8019" uniqueCount="2753">
   <si>
     <t>Part Number</t>
   </si>
@@ -8274,6 +8274,24 @@
   </si>
   <si>
     <t>DIODE SIL CARBIDE 650V 4A 5DFN</t>
+  </si>
+  <si>
+    <t>ACM2012H-900-2P-T05</t>
+  </si>
+  <si>
+    <t>CMC 300MA 2LN 90 OHM SMD</t>
+  </si>
+  <si>
+    <t>445-175042-1-ND</t>
+  </si>
+  <si>
+    <t>90 Ohms @ 100 MHz</t>
+  </si>
+  <si>
+    <t>300mA</t>
+  </si>
+  <si>
+    <t>300mOhm</t>
   </si>
 </sst>
 </file>
@@ -38412,10 +38430,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O35"/>
+  <dimension ref="A1:O36"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -39960,6 +39978,47 @@
       </c>
       <c r="O35" t="s">
         <v>2644</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>2747</v>
+      </c>
+      <c r="B36" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36" s="29" t="s">
+        <v>505</v>
+      </c>
+      <c r="D36" t="s">
+        <v>531</v>
+      </c>
+      <c r="E36" t="s">
+        <v>2748</v>
+      </c>
+      <c r="H36" t="s">
+        <v>20</v>
+      </c>
+      <c r="I36" t="s">
+        <v>190</v>
+      </c>
+      <c r="J36" t="s">
+        <v>2750</v>
+      </c>
+      <c r="K36" t="s">
+        <v>2752</v>
+      </c>
+      <c r="L36" t="s">
+        <v>2751</v>
+      </c>
+      <c r="M36" s="3" t="s">
+        <v>2747</v>
+      </c>
+      <c r="N36" t="s">
+        <v>17</v>
+      </c>
+      <c r="O36" t="s">
+        <v>2749</v>
       </c>
     </row>
   </sheetData>
@@ -40550,7 +40609,7 @@
   </sheetPr>
   <dimension ref="A1:L60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="E66" sqref="E66"/>
     </sheetView>
   </sheetViews>

--- a/Altium/DB.xlsx
+++ b/Altium/DB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Repos\LIBS\Altium\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{822C35F6-1226-4312-A47C-A646DAD2817A}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0485560-B9FA-468A-A018-3B72744C4ABC}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4245" yWindow="4035" windowWidth="31515" windowHeight="16005" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4245" yWindow="4035" windowWidth="31515" windowHeight="16005" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="C" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8019" uniqueCount="2753">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8029" uniqueCount="2757">
   <si>
     <t>Part Number</t>
   </si>
@@ -8292,6 +8292,18 @@
   </si>
   <si>
     <t>300mOhm</t>
+  </si>
+  <si>
+    <t>XFMR_ALANC10001</t>
+  </si>
+  <si>
+    <t>ALANC10001-CDB3DT</t>
+  </si>
+  <si>
+    <t>535-15131-1-ND</t>
+  </si>
+  <si>
+    <t>LAN SGL XFMR 8PIN</t>
   </si>
 </sst>
 </file>
@@ -38432,7 +38444,7 @@
   </sheetPr>
   <dimension ref="A1:O36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
@@ -51391,10 +51403,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C27D7CC1-13F7-4412-A8F6-6AC235ABFCA9}">
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -51877,6 +51889,38 @@
       </c>
       <c r="L14" t="s">
         <v>1895</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>2754</v>
+      </c>
+      <c r="B15" t="s">
+        <v>2754</v>
+      </c>
+      <c r="C15" t="s">
+        <v>2753</v>
+      </c>
+      <c r="D15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" t="s">
+        <v>2756</v>
+      </c>
+      <c r="H15" t="s">
+        <v>20</v>
+      </c>
+      <c r="I15" t="s">
+        <v>563</v>
+      </c>
+      <c r="J15" t="s">
+        <v>2754</v>
+      </c>
+      <c r="K15" t="s">
+        <v>17</v>
+      </c>
+      <c r="L15" t="s">
+        <v>2755</v>
       </c>
     </row>
   </sheetData>

--- a/Altium/DB.xlsx
+++ b/Altium/DB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Repos\LIBS\Altium\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git\Titanius\Libs\Altium\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0485560-B9FA-468A-A018-3B72744C4ABC}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6E96D1B-9065-4B83-A92D-D26AC9791F22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4245" yWindow="4035" windowWidth="31515" windowHeight="16005" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4240" yWindow="4040" windowWidth="31520" windowHeight="16000" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="C" sheetId="2" r:id="rId1"/>
@@ -23,8 +23,17 @@
     <sheet name="Other" sheetId="14" r:id="rId8"/>
     <sheet name="Mech" sheetId="11" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
     </ext>
@@ -33,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8029" uniqueCount="2757">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8031" uniqueCount="2759">
   <si>
     <t>Part Number</t>
   </si>
@@ -8304,6 +8313,12 @@
   </si>
   <si>
     <t>LAN SGL XFMR 8PIN</t>
+  </si>
+  <si>
+    <t>CMC2012-200x120x120-80</t>
+  </si>
+  <si>
+    <t>TR8-450x320x350x-90</t>
   </si>
 </sst>
 </file>
@@ -26556,29 +26571,29 @@
       <selection activeCell="I106" sqref="I106"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="56.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.54296875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.81640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.453125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="56.54296875" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.54296875" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.7265625" style="5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="31.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="30.28515625" style="16" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="31.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.1796875" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.7265625" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.453125" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.81640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="31.453125" style="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="30.26953125" style="16" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.81640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="31.1796875" style="5" bestFit="1" customWidth="1"/>
     <col min="17" max="1026" width="9" style="20" customWidth="1"/>
-    <col min="1027" max="16384" width="8.85546875" style="20"/>
+    <col min="1027" max="16384" width="8.81640625" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="28" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" s="28" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -26628,7 +26643,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="10" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" s="10" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>653</v>
       </c>
@@ -26678,7 +26693,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>722</v>
       </c>
@@ -26728,7 +26743,7 @@
         <v>1657</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>40</v>
       </c>
@@ -26778,7 +26793,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>29</v>
       </c>
@@ -26828,7 +26843,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>36</v>
       </c>
@@ -26878,7 +26893,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>690</v>
       </c>
@@ -26928,7 +26943,7 @@
         <v>1656</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>881</v>
       </c>
@@ -26978,7 +26993,7 @@
         <v>2319</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>810</v>
       </c>
@@ -27028,7 +27043,7 @@
         <v>1655</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>687</v>
       </c>
@@ -27078,7 +27093,7 @@
         <v>1654</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>694</v>
       </c>
@@ -27128,7 +27143,7 @@
         <v>1583</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>607</v>
       </c>
@@ -27178,7 +27193,7 @@
         <v>1653</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>642</v>
       </c>
@@ -27228,7 +27243,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
         <v>425</v>
       </c>
@@ -27275,7 +27290,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
         <v>791</v>
       </c>
@@ -27322,7 +27337,7 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
         <v>337</v>
       </c>
@@ -27369,7 +27384,7 @@
         <v>1649</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
         <v>709</v>
       </c>
@@ -27416,7 +27431,7 @@
         <v>1648</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
         <v>217</v>
       </c>
@@ -27463,7 +27478,7 @@
         <v>1647</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
         <v>639</v>
       </c>
@@ -27510,7 +27525,7 @@
         <v>1646</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
         <v>398</v>
       </c>
@@ -27557,7 +27572,7 @@
         <v>1582</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
         <v>622</v>
       </c>
@@ -27604,7 +27619,7 @@
         <v>1645</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
         <v>420</v>
       </c>
@@ -27651,7 +27666,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
         <v>358</v>
       </c>
@@ -27698,7 +27713,7 @@
         <v>1644</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
         <v>315</v>
       </c>
@@ -27745,7 +27760,7 @@
         <v>1643</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
         <v>336</v>
       </c>
@@ -27792,7 +27807,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A26" s="5" t="s">
         <v>330</v>
       </c>
@@ -27839,7 +27854,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A27" s="5" t="s">
         <v>210</v>
       </c>
@@ -27886,7 +27901,7 @@
         <v>1640</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A28" s="5" t="s">
         <v>215</v>
       </c>
@@ -27933,7 +27948,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A29" s="5" t="s">
         <v>212</v>
       </c>
@@ -27980,7 +27995,7 @@
         <v>1638</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A30" s="5" t="s">
         <v>209</v>
       </c>
@@ -28027,7 +28042,7 @@
         <v>1637</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A31" s="5" t="s">
         <v>213</v>
       </c>
@@ -28074,7 +28089,7 @@
         <v>1636</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A32" s="5" t="s">
         <v>211</v>
       </c>
@@ -28121,7 +28136,7 @@
         <v>1635</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A33" s="5" t="s">
         <v>214</v>
       </c>
@@ -28168,7 +28183,7 @@
         <v>1634</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A34" s="5" t="s">
         <v>360</v>
       </c>
@@ -28215,7 +28230,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A35" s="5" t="s">
         <v>208</v>
       </c>
@@ -28262,7 +28277,7 @@
         <v>1633</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A36" s="5" t="s">
         <v>679</v>
       </c>
@@ -28309,7 +28324,7 @@
         <v>1632</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A37" s="5" t="s">
         <v>710</v>
       </c>
@@ -28356,7 +28371,7 @@
         <v>1631</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A38" s="5" t="s">
         <v>206</v>
       </c>
@@ -28403,7 +28418,7 @@
         <v>1630</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A39" s="5" t="s">
         <v>218</v>
       </c>
@@ -28450,7 +28465,7 @@
         <v>1629</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A40" s="5" t="s">
         <v>207</v>
       </c>
@@ -28497,7 +28512,7 @@
         <v>1628</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A41" s="16" t="s">
         <v>769</v>
       </c>
@@ -28544,7 +28559,7 @@
         <v>1627</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A42" s="5" t="s">
         <v>216</v>
       </c>
@@ -28591,7 +28606,7 @@
         <v>1626</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>191</v>
       </c>
@@ -28638,7 +28653,7 @@
         <v>1625</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A44" s="5" t="s">
         <v>887</v>
       </c>
@@ -28685,7 +28700,7 @@
         <v>1624</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A45" s="5" t="s">
         <v>900</v>
       </c>
@@ -28735,7 +28750,7 @@
         <v>1623</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A46" s="5" t="s">
         <v>903</v>
       </c>
@@ -28785,7 +28800,7 @@
         <v>1622</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A47" s="5" t="s">
         <v>952</v>
       </c>
@@ -28832,7 +28847,7 @@
         <v>1621</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A48" s="5" t="s">
         <v>992</v>
       </c>
@@ -28879,7 +28894,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A49" s="16" t="s">
         <v>1025</v>
       </c>
@@ -28926,7 +28941,7 @@
         <v>1592</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A50" s="5" t="s">
         <v>1029</v>
       </c>
@@ -28973,7 +28988,7 @@
         <v>1620</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A51" s="5" t="s">
         <v>1033</v>
       </c>
@@ -29020,7 +29035,7 @@
         <v>1619</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A52" s="5" t="s">
         <v>1038</v>
       </c>
@@ -29067,7 +29082,7 @@
         <v>1618</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A53" s="5" t="s">
         <v>1106</v>
       </c>
@@ -29111,7 +29126,7 @@
         <v>1617</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A54" s="5" t="s">
         <v>1127</v>
       </c>
@@ -29158,7 +29173,7 @@
         <v>1616</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A55" s="5" t="s">
         <v>1192</v>
       </c>
@@ -29205,7 +29220,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A56" s="16" t="s">
         <v>1305</v>
       </c>
@@ -29252,7 +29267,7 @@
         <v>1615</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A57" s="5" t="s">
         <v>1309</v>
       </c>
@@ -29299,7 +29314,7 @@
         <v>1614</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A58" s="5" t="s">
         <v>1323</v>
       </c>
@@ -29346,7 +29361,7 @@
         <v>1586</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A59" s="5" t="s">
         <v>1363</v>
       </c>
@@ -29393,7 +29408,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A60" s="5" t="s">
         <v>1365</v>
       </c>
@@ -29440,7 +29455,7 @@
         <v>1613</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A61" s="5" t="s">
         <v>1367</v>
       </c>
@@ -29487,7 +29502,7 @@
         <v>1589</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A62" s="16" t="s">
         <v>1381</v>
       </c>
@@ -29534,7 +29549,7 @@
         <v>1612</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A63" s="5" t="s">
         <v>1385</v>
       </c>
@@ -29581,7 +29596,7 @@
         <v>1611</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A64" s="5" t="s">
         <v>1401</v>
       </c>
@@ -29628,7 +29643,7 @@
         <v>1610</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A65" s="16" t="s">
         <v>1414</v>
       </c>
@@ -29675,7 +29690,7 @@
         <v>1609</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A66" s="5" t="s">
         <v>1416</v>
       </c>
@@ -29722,7 +29737,7 @@
         <v>1608</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A67" s="5" t="s">
         <v>1432</v>
       </c>
@@ -29766,7 +29781,7 @@
         <v>1607</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A68" s="5" t="s">
         <v>1437</v>
       </c>
@@ -29813,7 +29828,7 @@
         <v>1606</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A69" s="5" t="s">
         <v>1440</v>
       </c>
@@ -29860,7 +29875,7 @@
         <v>1596</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A70" s="16" t="s">
         <v>1442</v>
       </c>
@@ -29907,7 +29922,7 @@
         <v>1597</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A71" s="16" t="s">
         <v>1443</v>
       </c>
@@ -29954,7 +29969,7 @@
         <v>1595</v>
       </c>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A72" s="16" t="s">
         <v>1444</v>
       </c>
@@ -30001,7 +30016,7 @@
         <v>1598</v>
       </c>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A73" s="16" t="s">
         <v>1445</v>
       </c>
@@ -30048,7 +30063,7 @@
         <v>1599</v>
       </c>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A74" s="16" t="s">
         <v>1446</v>
       </c>
@@ -30095,7 +30110,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A75" s="16" t="s">
         <v>1447</v>
       </c>
@@ -30142,7 +30157,7 @@
         <v>1601</v>
       </c>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A76" s="16" t="s">
         <v>1448</v>
       </c>
@@ -30189,7 +30204,7 @@
         <v>1602</v>
       </c>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A77" s="5" t="s">
         <v>1458</v>
       </c>
@@ -30236,7 +30251,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A78" s="5" t="s">
         <v>1461</v>
       </c>
@@ -30277,7 +30292,7 @@
         <v>1659</v>
       </c>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A79" s="5" t="s">
         <v>1464</v>
       </c>
@@ -30318,7 +30333,7 @@
         <v>1658</v>
       </c>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A80" s="16" t="s">
         <v>1468</v>
       </c>
@@ -30359,7 +30374,7 @@
         <v>1660</v>
       </c>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A81" s="16" t="s">
         <v>1512</v>
       </c>
@@ -30406,7 +30421,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A82" s="5" t="s">
         <v>1515</v>
       </c>
@@ -30453,7 +30468,7 @@
         <v>1605</v>
       </c>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A83" s="5" t="s">
         <v>1579</v>
       </c>
@@ -30500,7 +30515,7 @@
         <v>1578</v>
       </c>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A84" s="5" t="s">
         <v>1581</v>
       </c>
@@ -30547,7 +30562,7 @@
         <v>1580</v>
       </c>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A85" s="5" t="s">
         <v>1585</v>
       </c>
@@ -30594,7 +30609,7 @@
         <v>1584</v>
       </c>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A86" s="5" t="s">
         <v>1588</v>
       </c>
@@ -30641,7 +30656,7 @@
         <v>1587</v>
       </c>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A87" s="5" t="s">
         <v>1590</v>
       </c>
@@ -30688,7 +30703,7 @@
         <v>1591</v>
       </c>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A88" s="5" t="s">
         <v>1594</v>
       </c>
@@ -30735,7 +30750,7 @@
         <v>1593</v>
       </c>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A89" s="5" t="s">
         <v>1879</v>
       </c>
@@ -30782,7 +30797,7 @@
         <v>1878</v>
       </c>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A90" s="5" t="s">
         <v>1883</v>
       </c>
@@ -30829,7 +30844,7 @@
         <v>1882</v>
       </c>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A91" s="5" t="s">
         <v>1913</v>
       </c>
@@ -30873,7 +30888,7 @@
         <v>1911</v>
       </c>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A92" s="5" t="s">
         <v>1917</v>
       </c>
@@ -30920,7 +30935,7 @@
         <v>1914</v>
       </c>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A93" s="5" t="s">
         <v>1919</v>
       </c>
@@ -30967,7 +30982,7 @@
         <v>1918</v>
       </c>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A94" s="5" t="s">
         <v>1925</v>
       </c>
@@ -31014,7 +31029,7 @@
         <v>1923</v>
       </c>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A95" s="5" t="s">
         <v>1945</v>
       </c>
@@ -31061,7 +31076,7 @@
         <v>1942</v>
       </c>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A96" s="5" t="s">
         <v>1948</v>
       </c>
@@ -31108,7 +31123,7 @@
         <v>1946</v>
       </c>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A97" s="5" t="s">
         <v>2116</v>
       </c>
@@ -31149,7 +31164,7 @@
         <v>2113</v>
       </c>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A98" s="5" t="s">
         <v>2236</v>
       </c>
@@ -31196,7 +31211,7 @@
         <v>2235</v>
       </c>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A99" s="5" t="s">
         <v>2468</v>
       </c>
@@ -31243,7 +31258,7 @@
         <v>2467</v>
       </c>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A100" s="5" t="s">
         <v>2566</v>
       </c>
@@ -31287,7 +31302,7 @@
         <v>2565</v>
       </c>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A101" s="5" t="s">
         <v>2597</v>
       </c>
@@ -31331,7 +31346,7 @@
         <v>2599</v>
       </c>
     </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A102" s="5" t="s">
         <v>2663</v>
       </c>
@@ -31379,7 +31394,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:P43">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P43">
     <sortCondition ref="F2:F43"/>
   </sortState>
   <printOptions gridLines="1"/>
@@ -31401,27 +31416,27 @@
       <selection pane="bottomLeft" activeCell="A169" sqref="A169"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.54296875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="32.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.7265625" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="32.7265625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="30.54296875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="26.26953125" bestFit="1" customWidth="1"/>
     <col min="15" max="1025" width="9" style="20" customWidth="1"/>
-    <col min="1026" max="16384" width="8.85546875" style="20"/>
+    <col min="1026" max="16384" width="8.81640625" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="10" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="10" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -31465,7 +31480,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>54</v>
       </c>
@@ -31506,7 +31521,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>126</v>
       </c>
@@ -31547,7 +31562,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>130</v>
       </c>
@@ -31588,7 +31603,7 @@
         <v>1664</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>139</v>
       </c>
@@ -31629,7 +31644,7 @@
         <v>1665</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>140</v>
       </c>
@@ -31670,7 +31685,7 @@
         <v>1666</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>145</v>
       </c>
@@ -31711,7 +31726,7 @@
         <v>1667</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>147</v>
       </c>
@@ -31752,7 +31767,7 @@
         <v>1668</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>149</v>
       </c>
@@ -31793,7 +31808,7 @@
         <v>1669</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>151</v>
       </c>
@@ -31834,7 +31849,7 @@
         <v>1670</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>153</v>
       </c>
@@ -31875,7 +31890,7 @@
         <v>1671</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>155</v>
       </c>
@@ -31916,7 +31931,7 @@
         <v>1672</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>157</v>
       </c>
@@ -31957,7 +31972,7 @@
         <v>1673</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>159</v>
       </c>
@@ -31998,7 +32013,7 @@
         <v>1674</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>161</v>
       </c>
@@ -32039,7 +32054,7 @@
         <v>1675</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>163</v>
       </c>
@@ -32080,7 +32095,7 @@
         <v>1676</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>165</v>
       </c>
@@ -32121,7 +32136,7 @@
         <v>1677</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>167</v>
       </c>
@@ -32162,7 +32177,7 @@
         <v>1678</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>169</v>
       </c>
@@ -32203,7 +32218,7 @@
         <v>1679</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>171</v>
       </c>
@@ -32244,7 +32259,7 @@
         <v>1680</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>181</v>
       </c>
@@ -32285,7 +32300,7 @@
         <v>1681</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>186</v>
       </c>
@@ -32326,7 +32341,7 @@
         <v>1682</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>303</v>
       </c>
@@ -32367,7 +32382,7 @@
         <v>1683</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>306</v>
       </c>
@@ -32408,7 +32423,7 @@
         <v>1684</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>312</v>
       </c>
@@ -32449,7 +32464,7 @@
         <v>1685</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>320</v>
       </c>
@@ -32490,7 +32505,7 @@
         <v>1686</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>323</v>
       </c>
@@ -32531,7 +32546,7 @@
         <v>1687</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>327</v>
       </c>
@@ -32572,7 +32587,7 @@
         <v>1688</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>340</v>
       </c>
@@ -32613,7 +32628,7 @@
         <v>1689</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>355</v>
       </c>
@@ -32654,7 +32669,7 @@
         <v>1690</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>371</v>
       </c>
@@ -32695,7 +32710,7 @@
         <v>1691</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>370</v>
       </c>
@@ -32736,7 +32751,7 @@
         <v>1692</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>368</v>
       </c>
@@ -32777,7 +32792,7 @@
         <v>1693</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>365</v>
       </c>
@@ -32818,7 +32833,7 @@
         <v>1694</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>387</v>
       </c>
@@ -32859,7 +32874,7 @@
         <v>1695</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>392</v>
       </c>
@@ -32900,7 +32915,7 @@
         <v>1696</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>397</v>
       </c>
@@ -32941,7 +32956,7 @@
         <v>1697</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>407</v>
       </c>
@@ -32982,7 +32997,7 @@
         <v>1698</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>446</v>
       </c>
@@ -33023,7 +33038,7 @@
         <v>1699</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>451</v>
       </c>
@@ -33064,7 +33079,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>609</v>
       </c>
@@ -33105,7 +33120,7 @@
         <v>1701</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>613</v>
       </c>
@@ -33146,7 +33161,7 @@
         <v>1702</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>620</v>
       </c>
@@ -33187,7 +33202,7 @@
         <v>1703</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>54</v>
       </c>
@@ -33225,7 +33240,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>631</v>
       </c>
@@ -33266,7 +33281,7 @@
         <v>1704</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>637</v>
       </c>
@@ -33307,7 +33322,7 @@
         <v>1705</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>649</v>
       </c>
@@ -33348,7 +33363,7 @@
         <v>1706</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>655</v>
       </c>
@@ -33389,7 +33404,7 @@
         <v>1707</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>658</v>
       </c>
@@ -33430,7 +33445,7 @@
         <v>1708</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>663</v>
       </c>
@@ -33471,7 +33486,7 @@
         <v>1709</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>666</v>
       </c>
@@ -33512,7 +33527,7 @@
         <v>1710</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>668</v>
       </c>
@@ -33553,7 +33568,7 @@
         <v>1711</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>673</v>
       </c>
@@ -33594,7 +33609,7 @@
         <v>1712</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>676</v>
       </c>
@@ -33635,7 +33650,7 @@
         <v>1713</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>693</v>
       </c>
@@ -33676,7 +33691,7 @@
         <v>1714</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>696</v>
       </c>
@@ -33717,7 +33732,7 @@
         <v>1715</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>701</v>
       </c>
@@ -33758,7 +33773,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>702</v>
       </c>
@@ -33799,7 +33814,7 @@
         <v>1717</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>706</v>
       </c>
@@ -33840,7 +33855,7 @@
         <v>1718</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>718</v>
       </c>
@@ -33881,7 +33896,7 @@
         <v>1719</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>750</v>
       </c>
@@ -33922,7 +33937,7 @@
         <v>1720</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>613</v>
       </c>
@@ -33963,7 +33978,7 @@
         <v>1702</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>762</v>
       </c>
@@ -34004,7 +34019,7 @@
         <v>1721</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>397</v>
       </c>
@@ -34045,7 +34060,7 @@
         <v>1697</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>787</v>
       </c>
@@ -34086,7 +34101,7 @@
         <v>1722</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>807</v>
       </c>
@@ -34127,7 +34142,7 @@
         <v>1723</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>813</v>
       </c>
@@ -34168,7 +34183,7 @@
         <v>1724</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>889</v>
       </c>
@@ -34209,7 +34224,7 @@
         <v>1725</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>892</v>
       </c>
@@ -34250,7 +34265,7 @@
         <v>1726</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>894</v>
       </c>
@@ -34291,7 +34306,7 @@
         <v>1727</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>897</v>
       </c>
@@ -34332,7 +34347,7 @@
         <v>1728</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>906</v>
       </c>
@@ -34373,7 +34388,7 @@
         <v>1729</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>907</v>
       </c>
@@ -34414,7 +34429,7 @@
         <v>1730</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>910</v>
       </c>
@@ -34455,7 +34470,7 @@
         <v>1731</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>914</v>
       </c>
@@ -34496,7 +34511,7 @@
         <v>1732</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>917</v>
       </c>
@@ -34537,7 +34552,7 @@
         <v>1733</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>978</v>
       </c>
@@ -34578,7 +34593,7 @@
         <v>1734</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>981</v>
       </c>
@@ -34619,7 +34634,7 @@
         <v>1735</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>1004</v>
       </c>
@@ -34660,7 +34675,7 @@
         <v>1736</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>1007</v>
       </c>
@@ -34701,7 +34716,7 @@
         <v>1737</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>1010</v>
       </c>
@@ -34742,7 +34757,7 @@
         <v>1738</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>1031</v>
       </c>
@@ -34783,7 +34798,7 @@
         <v>1739</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>1040</v>
       </c>
@@ -34824,7 +34839,7 @@
         <v>1740</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>1043</v>
       </c>
@@ -34865,7 +34880,7 @@
         <v>1741</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>1076</v>
       </c>
@@ -34906,7 +34921,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>1079</v>
       </c>
@@ -34947,7 +34962,7 @@
         <v>1743</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>1082</v>
       </c>
@@ -34988,7 +35003,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>1083</v>
       </c>
@@ -35029,7 +35044,7 @@
         <v>1745</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>1086</v>
       </c>
@@ -35070,7 +35085,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>1089</v>
       </c>
@@ -35111,7 +35126,7 @@
         <v>1747</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>1092</v>
       </c>
@@ -35152,7 +35167,7 @@
         <v>1748</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>1124</v>
       </c>
@@ -35193,7 +35208,7 @@
         <v>1749</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>1145</v>
       </c>
@@ -35234,7 +35249,7 @@
         <v>1750</v>
       </c>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>1147</v>
       </c>
@@ -35275,7 +35290,7 @@
         <v>1751</v>
       </c>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>1182</v>
       </c>
@@ -35316,7 +35331,7 @@
         <v>1752</v>
       </c>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>1187</v>
       </c>
@@ -35357,7 +35372,7 @@
         <v>1753</v>
       </c>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>1188</v>
       </c>
@@ -35398,7 +35413,7 @@
         <v>1754</v>
       </c>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>1314</v>
       </c>
@@ -35439,7 +35454,7 @@
         <v>1755</v>
       </c>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>1316</v>
       </c>
@@ -35480,7 +35495,7 @@
         <v>1756</v>
       </c>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>1317</v>
       </c>
@@ -35521,7 +35536,7 @@
         <v>1757</v>
       </c>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>1320</v>
       </c>
@@ -35562,7 +35577,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>1342</v>
       </c>
@@ -35603,7 +35618,7 @@
         <v>1759</v>
       </c>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>1346</v>
       </c>
@@ -35644,7 +35659,7 @@
         <v>1760</v>
       </c>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>1348</v>
       </c>
@@ -35685,7 +35700,7 @@
         <v>1761</v>
       </c>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>1351</v>
       </c>
@@ -35726,7 +35741,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>1352</v>
       </c>
@@ -35767,7 +35782,7 @@
         <v>1763</v>
       </c>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>1355</v>
       </c>
@@ -35808,7 +35823,7 @@
         <v>1764</v>
       </c>
     </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>1398</v>
       </c>
@@ -35849,7 +35864,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>1403</v>
       </c>
@@ -35890,7 +35905,7 @@
         <v>1766</v>
       </c>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>1406</v>
       </c>
@@ -35931,7 +35946,7 @@
         <v>1767</v>
       </c>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>1409</v>
       </c>
@@ -35972,7 +35987,7 @@
         <v>1768</v>
       </c>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>1425</v>
       </c>
@@ -36013,7 +36028,7 @@
         <v>1769</v>
       </c>
     </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>1475</v>
       </c>
@@ -36054,7 +36069,7 @@
         <v>1770</v>
       </c>
     </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>1487</v>
       </c>
@@ -36095,7 +36110,7 @@
         <v>1771</v>
       </c>
     </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>1519</v>
       </c>
@@ -36136,7 +36151,7 @@
         <v>1772</v>
       </c>
     </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>1518</v>
       </c>
@@ -36177,7 +36192,7 @@
         <v>1773</v>
       </c>
     </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>1559</v>
       </c>
@@ -36218,7 +36233,7 @@
         <v>1558</v>
       </c>
     </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>1561</v>
       </c>
@@ -36259,7 +36274,7 @@
         <v>1560</v>
       </c>
     </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>1793</v>
       </c>
@@ -36300,7 +36315,7 @@
         <v>1794</v>
       </c>
     </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>1795</v>
       </c>
@@ -36341,7 +36356,7 @@
         <v>1797</v>
       </c>
     </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>1847</v>
       </c>
@@ -36382,7 +36397,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>1848</v>
       </c>
@@ -36423,7 +36438,7 @@
         <v>1840</v>
       </c>
     </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>1849</v>
       </c>
@@ -36464,7 +36479,7 @@
         <v>1841</v>
       </c>
     </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>1850</v>
       </c>
@@ -36505,7 +36520,7 @@
         <v>1842</v>
       </c>
     </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>1851</v>
       </c>
@@ -36546,7 +36561,7 @@
         <v>1843</v>
       </c>
     </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>1852</v>
       </c>
@@ -36587,7 +36602,7 @@
         <v>1844</v>
       </c>
     </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>1853</v>
       </c>
@@ -36628,7 +36643,7 @@
         <v>1845</v>
       </c>
     </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>1854</v>
       </c>
@@ -36669,7 +36684,7 @@
         <v>1846</v>
       </c>
     </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>1901</v>
       </c>
@@ -36707,7 +36722,7 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>1932</v>
       </c>
@@ -36748,7 +36763,7 @@
         <v>1929</v>
       </c>
     </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>1933</v>
       </c>
@@ -36789,7 +36804,7 @@
         <v>1936</v>
       </c>
     </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>1941</v>
       </c>
@@ -36830,7 +36845,7 @@
         <v>1940</v>
       </c>
     </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>1952</v>
       </c>
@@ -36871,7 +36886,7 @@
         <v>1949</v>
       </c>
     </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>1956</v>
       </c>
@@ -36912,7 +36927,7 @@
         <v>1953</v>
       </c>
     </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>1960</v>
       </c>
@@ -36953,7 +36968,7 @@
         <v>1957</v>
       </c>
     </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>1964</v>
       </c>
@@ -36994,7 +37009,7 @@
         <v>1961</v>
       </c>
     </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>1968</v>
       </c>
@@ -37035,7 +37050,7 @@
         <v>1965</v>
       </c>
     </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>2047</v>
       </c>
@@ -37076,7 +37091,7 @@
         <v>2044</v>
       </c>
     </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>2064</v>
       </c>
@@ -37117,7 +37132,7 @@
         <v>2062</v>
       </c>
     </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>2068</v>
       </c>
@@ -37158,7 +37173,7 @@
         <v>2069</v>
       </c>
     </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>2073</v>
       </c>
@@ -37199,7 +37214,7 @@
         <v>2070</v>
       </c>
     </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>2077</v>
       </c>
@@ -37240,7 +37255,7 @@
         <v>2074</v>
       </c>
     </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>2081</v>
       </c>
@@ -37281,7 +37296,7 @@
         <v>2078</v>
       </c>
     </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>2086</v>
       </c>
@@ -37322,7 +37337,7 @@
         <v>2085</v>
       </c>
     </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>2090</v>
       </c>
@@ -37363,7 +37378,7 @@
         <v>2089</v>
       </c>
     </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>2167</v>
       </c>
@@ -37404,7 +37419,7 @@
         <v>2166</v>
       </c>
     </row>
-    <row r="147" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>2174</v>
       </c>
@@ -37445,7 +37460,7 @@
         <v>2173</v>
       </c>
     </row>
-    <row r="148" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>2198</v>
       </c>
@@ -37486,7 +37501,7 @@
         <v>2197</v>
       </c>
     </row>
-    <row r="149" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>2219</v>
       </c>
@@ -37527,7 +37542,7 @@
         <v>2217</v>
       </c>
     </row>
-    <row r="150" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>2239</v>
       </c>
@@ -37568,7 +37583,7 @@
         <v>2238</v>
       </c>
     </row>
-    <row r="151" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>1352</v>
       </c>
@@ -37609,7 +37624,7 @@
         <v>1763</v>
       </c>
     </row>
-    <row r="152" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>2255</v>
       </c>
@@ -37650,7 +37665,7 @@
         <v>2254</v>
       </c>
     </row>
-    <row r="153" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>2258</v>
       </c>
@@ -37691,7 +37706,7 @@
         <v>2257</v>
       </c>
     </row>
-    <row r="154" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>2263</v>
       </c>
@@ -37732,7 +37747,7 @@
         <v>2260</v>
       </c>
     </row>
-    <row r="155" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>2379</v>
       </c>
@@ -37773,7 +37788,7 @@
         <v>2375</v>
       </c>
     </row>
-    <row r="156" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>2382</v>
       </c>
@@ -37814,7 +37829,7 @@
         <v>2380</v>
       </c>
     </row>
-    <row r="157" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>2384</v>
       </c>
@@ -37855,7 +37870,7 @@
         <v>2383</v>
       </c>
     </row>
-    <row r="158" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>2434</v>
       </c>
@@ -37896,7 +37911,7 @@
         <v>2435</v>
       </c>
     </row>
-    <row r="159" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>2438</v>
       </c>
@@ -37937,7 +37952,7 @@
         <v>2436</v>
       </c>
     </row>
-    <row r="160" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>2441</v>
       </c>
@@ -37978,7 +37993,7 @@
         <v>2442</v>
       </c>
     </row>
-    <row r="161" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>2445</v>
       </c>
@@ -38019,7 +38034,7 @@
         <v>2444</v>
       </c>
     </row>
-    <row r="162" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>2458</v>
       </c>
@@ -38060,7 +38075,7 @@
         <v>2457</v>
       </c>
     </row>
-    <row r="163" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>2461</v>
       </c>
@@ -38101,7 +38116,7 @@
         <v>2460</v>
       </c>
     </row>
-    <row r="164" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>2521</v>
       </c>
@@ -38142,7 +38157,7 @@
         <v>2522</v>
       </c>
     </row>
-    <row r="165" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>2554</v>
       </c>
@@ -38183,7 +38198,7 @@
         <v>2553</v>
       </c>
     </row>
-    <row r="166" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>2558</v>
       </c>
@@ -38224,7 +38239,7 @@
         <v>2557</v>
       </c>
     </row>
-    <row r="167" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>2642</v>
       </c>
@@ -38265,7 +38280,7 @@
         <v>2643</v>
       </c>
     </row>
-    <row r="168" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>2667</v>
       </c>
@@ -38306,7 +38321,7 @@
         <v>2665</v>
       </c>
     </row>
-    <row r="169" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>2671</v>
       </c>
@@ -38347,7 +38362,7 @@
         <v>2669</v>
       </c>
     </row>
-    <row r="170" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>2717</v>
       </c>
@@ -38388,7 +38403,7 @@
         <v>2716</v>
       </c>
     </row>
-    <row r="171" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>2721</v>
       </c>
@@ -38445,31 +38460,31 @@
   <dimension ref="A1:O36"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+      <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.1796875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="51.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="32.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="51.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="32.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.453125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.26953125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="30.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="30.54296875" style="3" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="31.453125" bestFit="1" customWidth="1"/>
     <col min="16" max="1025" width="9" style="20" customWidth="1"/>
-    <col min="1026" max="16384" width="8.85546875" style="20"/>
+    <col min="1026" max="16384" width="8.81640625" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="10" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" s="10" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -38516,7 +38531,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>44</v>
       </c>
@@ -38560,7 +38575,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>61</v>
       </c>
@@ -38604,7 +38619,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>249</v>
       </c>
@@ -38648,7 +38663,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>251</v>
       </c>
@@ -38692,7 +38707,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>252</v>
       </c>
@@ -38736,7 +38751,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>353</v>
       </c>
@@ -38780,7 +38795,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>501</v>
       </c>
@@ -38819,7 +38834,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>625</v>
       </c>
@@ -38860,7 +38875,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>681</v>
       </c>
@@ -38901,7 +38916,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>716</v>
       </c>
@@ -38945,7 +38960,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>779</v>
       </c>
@@ -38989,7 +39004,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>785</v>
       </c>
@@ -39030,7 +39045,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>984</v>
       </c>
@@ -39074,7 +39089,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>1003</v>
       </c>
@@ -39118,7 +39133,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>1118</v>
       </c>
@@ -39162,7 +39177,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>1283</v>
       </c>
@@ -39206,7 +39221,7 @@
         <v>1780</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>1284</v>
       </c>
@@ -39250,7 +39265,7 @@
         <v>1779</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>1289</v>
       </c>
@@ -39294,7 +39309,7 @@
         <v>1778</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>1295</v>
       </c>
@@ -39338,7 +39353,7 @@
         <v>1777</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>1359</v>
       </c>
@@ -39382,7 +39397,7 @@
         <v>1781</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>1507</v>
       </c>
@@ -39426,7 +39441,7 @@
         <v>1505</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
         <v>1785</v>
       </c>
@@ -39470,7 +39485,7 @@
         <v>1786</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>2226</v>
       </c>
@@ -39517,7 +39532,7 @@
         <v>2221</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>2230</v>
       </c>
@@ -39561,7 +39576,7 @@
         <v>2228</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>2428</v>
       </c>
@@ -39605,7 +39620,7 @@
         <v>2427</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>2464</v>
       </c>
@@ -39649,7 +39664,7 @@
         <v>2465</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>2516</v>
       </c>
@@ -39693,7 +39708,7 @@
         <v>2515</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>2570</v>
       </c>
@@ -39734,7 +39749,7 @@
         <v>2568</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>2586</v>
       </c>
@@ -39772,7 +39787,7 @@
         <v>2586</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>2615</v>
       </c>
@@ -39816,7 +39831,7 @@
         <v>2612</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>2619</v>
       </c>
@@ -39860,7 +39875,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>2627</v>
       </c>
@@ -39904,7 +39919,7 @@
         <v>2626</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>2631</v>
       </c>
@@ -39948,7 +39963,7 @@
         <v>2630</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>2645</v>
       </c>
@@ -39992,7 +40007,7 @@
         <v>2644</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>2747</v>
       </c>
@@ -40007,6 +40022,9 @@
       </c>
       <c r="E36" t="s">
         <v>2748</v>
+      </c>
+      <c r="F36" t="s">
+        <v>2757</v>
       </c>
       <c r="H36" t="s">
         <v>20</v>
@@ -40052,26 +40070,26 @@
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="32" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.7265625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="45.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="45.54296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7265625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="32" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="26.81640625" bestFit="1" customWidth="1"/>
     <col min="14" max="1025" width="9" style="20" customWidth="1"/>
-    <col min="1026" max="16384" width="8.85546875" style="20"/>
+    <col min="1026" max="16384" width="8.81640625" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="10" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="10" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -40112,7 +40130,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>413</v>
       </c>
@@ -40150,7 +40168,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>417</v>
       </c>
@@ -40188,7 +40206,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>618</v>
       </c>
@@ -40226,7 +40244,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>1199</v>
       </c>
@@ -40264,7 +40282,7 @@
         <v>1198</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>1395</v>
       </c>
@@ -40302,7 +40320,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>1424</v>
       </c>
@@ -40340,7 +40358,7 @@
         <v>1820</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>1489</v>
       </c>
@@ -40378,7 +40396,7 @@
         <v>1491</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>1996</v>
       </c>
@@ -40416,7 +40434,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>2006</v>
       </c>
@@ -40454,7 +40472,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>2182</v>
       </c>
@@ -40492,7 +40510,7 @@
         <v>2179</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>2284</v>
       </c>
@@ -40530,7 +40548,7 @@
         <v>2285</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>2296</v>
       </c>
@@ -40568,7 +40586,7 @@
         <v>2295</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>2601</v>
       </c>
@@ -40625,26 +40643,26 @@
       <selection activeCell="E66" sqref="E66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.26953125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="35" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="44.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="44.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="30.26953125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="31.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="8.85546875" style="20"/>
+    <col min="12" max="12" width="31.1796875" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="8.81640625" style="20"/>
     <col min="16" max="1025" width="9" style="20" customWidth="1"/>
-    <col min="1026" max="16384" width="8.85546875" style="20"/>
+    <col min="1026" max="16384" width="8.81640625" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="10" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="10" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -40682,7 +40700,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>253</v>
       </c>
@@ -40717,7 +40735,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>254</v>
       </c>
@@ -40752,7 +40770,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>275</v>
       </c>
@@ -40787,7 +40805,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>282</v>
       </c>
@@ -40822,7 +40840,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>285</v>
       </c>
@@ -40857,7 +40875,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>301</v>
       </c>
@@ -40892,7 +40910,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>289</v>
       </c>
@@ -40927,7 +40945,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>291</v>
       </c>
@@ -40962,7 +40980,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>345</v>
       </c>
@@ -40997,7 +41015,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>382</v>
       </c>
@@ -41032,7 +41050,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>437</v>
       </c>
@@ -41067,7 +41085,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>480</v>
       </c>
@@ -41093,7 +41111,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>484</v>
       </c>
@@ -41119,7 +41137,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>485</v>
       </c>
@@ -41145,7 +41163,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>614</v>
       </c>
@@ -41171,7 +41189,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>733</v>
       </c>
@@ -41206,7 +41224,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>738</v>
       </c>
@@ -41241,7 +41259,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>747</v>
       </c>
@@ -41276,7 +41294,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>754</v>
       </c>
@@ -41309,7 +41327,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>760</v>
       </c>
@@ -41344,7 +41362,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>806</v>
       </c>
@@ -41379,7 +41397,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>821</v>
       </c>
@@ -41414,7 +41432,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>931</v>
       </c>
@@ -41449,7 +41467,7 @@
         <v>1810</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>934</v>
       </c>
@@ -41484,7 +41502,7 @@
         <v>1811</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>948</v>
       </c>
@@ -41519,7 +41537,7 @@
         <v>1812</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>950</v>
       </c>
@@ -41554,7 +41572,7 @@
         <v>1813</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>959</v>
       </c>
@@ -41589,7 +41607,7 @@
         <v>1814</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>1134</v>
       </c>
@@ -41624,7 +41642,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>1156</v>
       </c>
@@ -41659,7 +41677,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>1176</v>
       </c>
@@ -41694,7 +41712,7 @@
         <v>1175</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>1181</v>
       </c>
@@ -41729,7 +41747,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>1224</v>
       </c>
@@ -41764,7 +41782,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>1227</v>
       </c>
@@ -41799,7 +41817,7 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>1234</v>
       </c>
@@ -41834,7 +41852,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>1331</v>
       </c>
@@ -41869,7 +41887,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>1340</v>
       </c>
@@ -41904,7 +41922,7 @@
         <v>1338</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>1371</v>
       </c>
@@ -41939,7 +41957,7 @@
         <v>1369</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>1503</v>
       </c>
@@ -41974,7 +41992,7 @@
         <v>1502</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>1565</v>
       </c>
@@ -42009,7 +42027,7 @@
         <v>1563</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>1574</v>
       </c>
@@ -42044,7 +42062,7 @@
         <v>1573</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>1663</v>
       </c>
@@ -42079,7 +42097,7 @@
         <v>1661</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>1775</v>
       </c>
@@ -42114,7 +42132,7 @@
         <v>1774</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>1788</v>
       </c>
@@ -42149,7 +42167,7 @@
         <v>1787</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>1792</v>
       </c>
@@ -42184,7 +42202,7 @@
         <v>1791</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>1829</v>
       </c>
@@ -42219,7 +42237,7 @@
         <v>1828</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>1872</v>
       </c>
@@ -42254,7 +42272,7 @@
         <v>1871</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>1874</v>
       </c>
@@ -42277,7 +42295,7 @@
         <v>1874</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>2084</v>
       </c>
@@ -42312,7 +42330,7 @@
         <v>2082</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>2137</v>
       </c>
@@ -42347,7 +42365,7 @@
         <v>2135</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>2140</v>
       </c>
@@ -42382,7 +42400,7 @@
         <v>2138</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>2477</v>
       </c>
@@ -42417,7 +42435,7 @@
         <v>2476</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>2495</v>
       </c>
@@ -42449,7 +42467,7 @@
         <v>2493</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>2651</v>
       </c>
@@ -42484,7 +42502,7 @@
         <v>2650</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>2655</v>
       </c>
@@ -42519,7 +42537,7 @@
         <v>2654</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>2658</v>
       </c>
@@ -42554,7 +42572,7 @@
         <v>2657</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>2673</v>
       </c>
@@ -42589,7 +42607,7 @@
         <v>2672</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>2680</v>
       </c>
@@ -42624,7 +42642,7 @@
         <v>2679</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>2724</v>
       </c>
@@ -42659,7 +42677,7 @@
         <v>2723</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>2745</v>
       </c>
@@ -42711,26 +42729,26 @@
       <selection pane="bottomLeft" activeCell="F184" sqref="F184"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="92.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="33.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="47.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="27.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="92.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="47.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="30.54296875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="29.26953125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="24.7265625" bestFit="1" customWidth="1"/>
     <col min="15" max="1025" width="9" style="20" customWidth="1"/>
-    <col min="1026" max="16384" width="8.85546875" style="20"/>
+    <col min="1026" max="16384" width="8.81640625" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="10" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="10" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -42774,7 +42792,7 @@
         <v>1831</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -42811,7 +42829,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>68</v>
       </c>
@@ -42848,7 +42866,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>74</v>
       </c>
@@ -42885,7 +42903,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>79</v>
       </c>
@@ -42922,7 +42940,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>80</v>
       </c>
@@ -42959,7 +42977,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>93</v>
       </c>
@@ -42996,7 +43014,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>95</v>
       </c>
@@ -43033,7 +43051,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>102</v>
       </c>
@@ -43069,7 +43087,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>105</v>
       </c>
@@ -43106,7 +43124,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>309</v>
       </c>
@@ -43141,7 +43159,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>318</v>
       </c>
@@ -43176,7 +43194,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>378</v>
       </c>
@@ -43211,7 +43229,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>403</v>
       </c>
@@ -43246,7 +43264,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>433</v>
       </c>
@@ -43281,7 +43299,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>442</v>
       </c>
@@ -43316,7 +43334,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>448</v>
       </c>
@@ -43351,7 +43369,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>471</v>
       </c>
@@ -43386,7 +43404,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>476</v>
       </c>
@@ -43421,7 +43439,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>489</v>
       </c>
@@ -43456,7 +43474,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>492</v>
       </c>
@@ -43491,7 +43509,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>496</v>
       </c>
@@ -43526,7 +43544,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>508</v>
       </c>
@@ -43561,7 +43579,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>511</v>
       </c>
@@ -43596,7 +43614,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>532</v>
       </c>
@@ -43631,7 +43649,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>537</v>
       </c>
@@ -43666,7 +43684,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>560</v>
       </c>
@@ -43701,7 +43719,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>540</v>
       </c>
@@ -43736,7 +43754,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>541</v>
       </c>
@@ -43771,7 +43789,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>542</v>
       </c>
@@ -43806,7 +43824,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>573</v>
       </c>
@@ -43841,7 +43859,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>577</v>
       </c>
@@ -43876,7 +43894,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>580</v>
       </c>
@@ -43911,7 +43929,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>583</v>
       </c>
@@ -43946,7 +43964,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>586</v>
       </c>
@@ -43981,7 +43999,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>590</v>
       </c>
@@ -44016,7 +44034,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>594</v>
       </c>
@@ -44051,7 +44069,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>595</v>
       </c>
@@ -44086,7 +44104,7 @@
         <v>1815</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>552</v>
       </c>
@@ -44121,7 +44139,7 @@
         <v>1816</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>599</v>
       </c>
@@ -44156,7 +44174,7 @@
         <v>1801</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>600</v>
       </c>
@@ -44191,7 +44209,7 @@
         <v>1817</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>602</v>
       </c>
@@ -44226,7 +44244,7 @@
         <v>1818</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>605</v>
       </c>
@@ -44261,7 +44279,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>635</v>
       </c>
@@ -44296,7 +44314,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>539</v>
       </c>
@@ -44331,7 +44349,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>670</v>
       </c>
@@ -44366,7 +44384,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>884</v>
       </c>
@@ -44401,7 +44419,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>901</v>
       </c>
@@ -44436,7 +44454,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>918</v>
       </c>
@@ -44471,7 +44489,7 @@
         <v>1836</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>921</v>
       </c>
@@ -44506,7 +44524,7 @@
         <v>1833</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>922</v>
       </c>
@@ -44541,7 +44559,7 @@
         <v>1834</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>923</v>
       </c>
@@ -44576,7 +44594,7 @@
         <v>1835</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>937</v>
       </c>
@@ -44611,7 +44629,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>943</v>
       </c>
@@ -44646,7 +44664,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>941</v>
       </c>
@@ -44681,7 +44699,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>1014</v>
       </c>
@@ -44716,7 +44734,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>1018</v>
       </c>
@@ -44751,7 +44769,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>1022</v>
       </c>
@@ -44786,7 +44804,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>1049</v>
       </c>
@@ -44819,7 +44837,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>1051</v>
       </c>
@@ -44854,7 +44872,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>1055</v>
       </c>
@@ -44889,7 +44907,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>1059</v>
       </c>
@@ -44924,7 +44942,7 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>1065</v>
       </c>
@@ -44959,7 +44977,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>1070</v>
       </c>
@@ -44994,7 +45012,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>1096</v>
       </c>
@@ -45029,7 +45047,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>1100</v>
       </c>
@@ -45064,7 +45082,7 @@
         <v>1098</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>1102</v>
       </c>
@@ -45099,7 +45117,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>1111</v>
       </c>
@@ -45134,7 +45152,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>1130</v>
       </c>
@@ -45169,7 +45187,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>1136</v>
       </c>
@@ -45204,7 +45222,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>1142</v>
       </c>
@@ -45239,7 +45257,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>1150</v>
       </c>
@@ -45274,7 +45292,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>1172</v>
       </c>
@@ -45309,7 +45327,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>1197</v>
       </c>
@@ -45344,7 +45362,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>1207</v>
       </c>
@@ -45379,7 +45397,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>1216</v>
       </c>
@@ -45414,7 +45432,7 @@
         <v>1215</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>1231</v>
       </c>
@@ -45449,7 +45467,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>1246</v>
       </c>
@@ -45484,7 +45502,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>1247</v>
       </c>
@@ -45519,7 +45537,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>1248</v>
       </c>
@@ -45554,7 +45572,7 @@
         <v>1248</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>1251</v>
       </c>
@@ -45589,7 +45607,7 @@
         <v>1249</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>1262</v>
       </c>
@@ -45624,7 +45642,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>1245</v>
       </c>
@@ -45665,7 +45683,7 @@
         <v>1832</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>1798</v>
       </c>
@@ -45700,7 +45718,7 @@
         <v>1799</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>1304</v>
       </c>
@@ -45735,7 +45753,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>1334</v>
       </c>
@@ -45770,7 +45788,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>1374</v>
       </c>
@@ -45805,7 +45823,7 @@
         <v>1802</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>1378</v>
       </c>
@@ -45840,7 +45858,7 @@
         <v>1822</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>1387</v>
       </c>
@@ -45875,7 +45893,7 @@
         <v>1386</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>1397</v>
       </c>
@@ -45910,7 +45928,7 @@
         <v>1823</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>1419</v>
       </c>
@@ -45945,7 +45963,7 @@
         <v>1803</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>1430</v>
       </c>
@@ -45980,7 +45998,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>1473</v>
       </c>
@@ -46015,7 +46033,7 @@
         <v>1472</v>
       </c>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>1479</v>
       </c>
@@ -46050,7 +46068,7 @@
         <v>1478</v>
       </c>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>1484</v>
       </c>
@@ -46085,7 +46103,7 @@
         <v>1482</v>
       </c>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>1500</v>
       </c>
@@ -46120,7 +46138,7 @@
         <v>1499</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>1522</v>
       </c>
@@ -46155,7 +46173,7 @@
         <v>1521</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>1528</v>
       </c>
@@ -46190,7 +46208,7 @@
         <v>1527</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>1533</v>
       </c>
@@ -46225,7 +46243,7 @@
         <v>1532</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>1538</v>
       </c>
@@ -46260,7 +46278,7 @@
         <v>1537</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>1540</v>
       </c>
@@ -46295,7 +46313,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>1545</v>
       </c>
@@ -46330,7 +46348,7 @@
         <v>1544</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>1549</v>
       </c>
@@ -46365,7 +46383,7 @@
         <v>1548</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>1553</v>
       </c>
@@ -46400,7 +46418,7 @@
         <v>1552</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>1571</v>
       </c>
@@ -46435,7 +46453,7 @@
         <v>1568</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>1804</v>
       </c>
@@ -46470,7 +46488,7 @@
         <v>1805</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>1808</v>
       </c>
@@ -46505,7 +46523,7 @@
         <v>1807</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>1877</v>
       </c>
@@ -46540,7 +46558,7 @@
         <v>1875</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>1906</v>
       </c>
@@ -46575,7 +46593,7 @@
         <v>1905</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>1910</v>
       </c>
@@ -46610,7 +46628,7 @@
         <v>1908</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>1969</v>
       </c>
@@ -46645,7 +46663,7 @@
         <v>1970</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>1974</v>
       </c>
@@ -46680,7 +46698,7 @@
         <v>1972</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>1975</v>
       </c>
@@ -46715,7 +46733,7 @@
         <v>1977</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>1979</v>
       </c>
@@ -46750,7 +46768,7 @@
         <v>1978</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>1984</v>
       </c>
@@ -46785,7 +46803,7 @@
         <v>1982</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>1988</v>
       </c>
@@ -46820,7 +46838,7 @@
         <v>1987</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>1992</v>
       </c>
@@ -46855,7 +46873,7 @@
         <v>1991</v>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>1993</v>
       </c>
@@ -46884,7 +46902,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>2003</v>
       </c>
@@ -46919,7 +46937,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>2010</v>
       </c>
@@ -46954,7 +46972,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>2023</v>
       </c>
@@ -46989,7 +47007,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>2026</v>
       </c>
@@ -47024,7 +47042,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>2031</v>
       </c>
@@ -47059,7 +47077,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>2051</v>
       </c>
@@ -47094,7 +47112,7 @@
         <v>2048</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>2055</v>
       </c>
@@ -47129,7 +47147,7 @@
         <v>2053</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>2058</v>
       </c>
@@ -47164,7 +47182,7 @@
         <v>2059</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>2095</v>
       </c>
@@ -47199,7 +47217,7 @@
         <v>2093</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>2099</v>
       </c>
@@ -47234,7 +47252,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>2104</v>
       </c>
@@ -47269,7 +47287,7 @@
         <v>2105</v>
       </c>
     </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>2108</v>
       </c>
@@ -47304,7 +47322,7 @@
         <v>2106</v>
       </c>
     </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>2120</v>
       </c>
@@ -47339,7 +47357,7 @@
         <v>2121</v>
       </c>
     </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>2124</v>
       </c>
@@ -47374,7 +47392,7 @@
         <v>2122</v>
       </c>
     </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>2128</v>
       </c>
@@ -47409,7 +47427,7 @@
         <v>2127</v>
       </c>
     </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>2130</v>
       </c>
@@ -47444,7 +47462,7 @@
         <v>2129</v>
       </c>
     </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>2145</v>
       </c>
@@ -47479,7 +47497,7 @@
         <v>2141</v>
       </c>
     </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>2150</v>
       </c>
@@ -47514,7 +47532,7 @@
         <v>2147</v>
       </c>
     </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>2157</v>
       </c>
@@ -47549,7 +47567,7 @@
         <v>2156</v>
       </c>
     </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>2163</v>
       </c>
@@ -47584,7 +47602,7 @@
         <v>2163</v>
       </c>
     </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>2170</v>
       </c>
@@ -47619,7 +47637,7 @@
         <v>2171</v>
       </c>
     </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>2177</v>
       </c>
@@ -47654,7 +47672,7 @@
         <v>2178</v>
       </c>
     </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>2196</v>
       </c>
@@ -47689,7 +47707,7 @@
         <v>2193</v>
       </c>
     </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>2202</v>
       </c>
@@ -47730,7 +47748,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>2206</v>
       </c>
@@ -47765,7 +47783,7 @@
         <v>2205</v>
       </c>
     </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>2210</v>
       </c>
@@ -47794,7 +47812,7 @@
         <v>2210</v>
       </c>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>2246</v>
       </c>
@@ -47829,7 +47847,7 @@
         <v>2243</v>
       </c>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>2249</v>
       </c>
@@ -47864,7 +47882,7 @@
         <v>2248</v>
       </c>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>2267</v>
       </c>
@@ -47899,7 +47917,7 @@
         <v>2266</v>
       </c>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>2280</v>
       </c>
@@ -47934,7 +47952,7 @@
         <v>2279</v>
       </c>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>2299</v>
       </c>
@@ -47969,7 +47987,7 @@
         <v>2300</v>
       </c>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>2306</v>
       </c>
@@ -48004,7 +48022,7 @@
         <v>2305</v>
       </c>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>2310</v>
       </c>
@@ -48039,7 +48057,7 @@
         <v>2307</v>
       </c>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>2313</v>
       </c>
@@ -48071,7 +48089,7 @@
         <v>2314</v>
       </c>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>2316</v>
       </c>
@@ -48103,7 +48121,7 @@
         <v>2315</v>
       </c>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>2369</v>
       </c>
@@ -48132,7 +48150,7 @@
         <v>2369</v>
       </c>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>2370</v>
       </c>
@@ -48161,7 +48179,7 @@
         <v>2370</v>
       </c>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>2371</v>
       </c>
@@ -48190,7 +48208,7 @@
         <v>2371</v>
       </c>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>2406</v>
       </c>
@@ -48225,7 +48243,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>2408</v>
       </c>
@@ -48260,7 +48278,7 @@
         <v>2409</v>
       </c>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>2412</v>
       </c>
@@ -48295,7 +48313,7 @@
         <v>2411</v>
       </c>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>2416</v>
       </c>
@@ -48330,7 +48348,7 @@
         <v>2418</v>
       </c>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>2421</v>
       </c>
@@ -48365,7 +48383,7 @@
         <v>2422</v>
       </c>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>2426</v>
       </c>
@@ -48400,7 +48418,7 @@
         <v>2424</v>
       </c>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>2449</v>
       </c>
@@ -48435,7 +48453,7 @@
         <v>2448</v>
       </c>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>2501</v>
       </c>
@@ -48467,7 +48485,7 @@
         <v>2502</v>
       </c>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>2504</v>
       </c>
@@ -48499,7 +48517,7 @@
         <v>2506</v>
       </c>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>2508</v>
       </c>
@@ -48534,7 +48552,7 @@
         <v>2511</v>
       </c>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>2546</v>
       </c>
@@ -48569,7 +48587,7 @@
         <v>2543</v>
       </c>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>2547</v>
       </c>
@@ -48592,7 +48610,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>2549</v>
       </c>
@@ -48615,7 +48633,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>2550</v>
       </c>
@@ -48638,7 +48656,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>2563</v>
       </c>
@@ -48670,7 +48688,7 @@
         <v>2562</v>
       </c>
     </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>2572</v>
       </c>
@@ -48705,7 +48723,7 @@
         <v>2574</v>
       </c>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>2580</v>
       </c>
@@ -48734,7 +48752,7 @@
         <v>2580</v>
       </c>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>2605</v>
       </c>
@@ -48769,7 +48787,7 @@
         <v>2603</v>
       </c>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>2608</v>
       </c>
@@ -48804,7 +48822,7 @@
         <v>2610</v>
       </c>
     </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>2684</v>
       </c>
@@ -48839,7 +48857,7 @@
         <v>2682</v>
       </c>
     </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>2702</v>
       </c>
@@ -48868,7 +48886,7 @@
         <v>2702</v>
       </c>
     </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>2703</v>
       </c>
@@ -48894,7 +48912,7 @@
         <v>2703</v>
       </c>
     </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>2705</v>
       </c>
@@ -48923,7 +48941,7 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>2706</v>
       </c>
@@ -48978,25 +48996,25 @@
       <selection pane="bottomLeft" activeCell="E68" sqref="E68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="32.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="79.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="35.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="32.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="79.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="30.26953125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="34.1796875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="24.54296875" bestFit="1" customWidth="1"/>
     <col min="15" max="1025" width="9" style="20" customWidth="1"/>
-    <col min="1026" max="16384" width="8.85546875" style="20"/>
+    <col min="1026" max="16384" width="8.81640625" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="9" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="9" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -49040,7 +49058,7 @@
         <v>1831</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>84</v>
       </c>
@@ -49075,7 +49093,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>122</v>
       </c>
@@ -49101,7 +49119,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>430</v>
       </c>
@@ -49136,7 +49154,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>518</v>
       </c>
@@ -49162,7 +49180,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>457</v>
       </c>
@@ -49188,7 +49206,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>463</v>
       </c>
@@ -49223,7 +49241,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>468</v>
       </c>
@@ -49258,7 +49276,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>766</v>
       </c>
@@ -49293,7 +49311,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>646</v>
       </c>
@@ -49328,7 +49346,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>741</v>
       </c>
@@ -49357,7 +49375,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>744</v>
       </c>
@@ -49392,7 +49410,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>755</v>
       </c>
@@ -49427,7 +49445,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>772</v>
       </c>
@@ -49462,7 +49480,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>796</v>
       </c>
@@ -49497,7 +49515,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>797</v>
       </c>
@@ -49532,7 +49550,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>818</v>
       </c>
@@ -49573,7 +49591,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>827</v>
       </c>
@@ -49608,7 +49626,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>828</v>
       </c>
@@ -49643,7 +49661,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>831</v>
       </c>
@@ -49678,7 +49696,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>974</v>
       </c>
@@ -49713,7 +49731,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>1165</v>
       </c>
@@ -49748,7 +49766,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>1213</v>
       </c>
@@ -49774,7 +49792,7 @@
         <v>1213</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>1214</v>
       </c>
@@ -49800,7 +49818,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>1492</v>
       </c>
@@ -49826,7 +49844,7 @@
         <v>1492</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>1266</v>
       </c>
@@ -49846,7 +49864,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>1269</v>
       </c>
@@ -49881,7 +49899,7 @@
         <v>1268</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>1274</v>
       </c>
@@ -49916,7 +49934,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>1439</v>
       </c>
@@ -49942,7 +49960,7 @@
         <v>1439</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>1494</v>
       </c>
@@ -49968,7 +49986,7 @@
         <v>1494</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>1577</v>
       </c>
@@ -49994,7 +50012,7 @@
         <v>1577</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>1824</v>
       </c>
@@ -50029,7 +50047,7 @@
         <v>1825</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>1826</v>
       </c>
@@ -50064,7 +50082,7 @@
         <v>1827</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>1926</v>
       </c>
@@ -50099,7 +50117,7 @@
         <v>1928</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>2034</v>
       </c>
@@ -50134,7 +50152,7 @@
         <v>2037</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>2040</v>
       </c>
@@ -50169,7 +50187,7 @@
         <v>2039</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>2110</v>
       </c>
@@ -50204,7 +50222,7 @@
         <v>2111</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>2154</v>
       </c>
@@ -50239,7 +50257,7 @@
         <v>2153</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>2186</v>
       </c>
@@ -50274,7 +50292,7 @@
         <v>2184</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>2190</v>
       </c>
@@ -50297,7 +50315,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>2215</v>
       </c>
@@ -50332,7 +50350,7 @@
         <v>2214</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>2272</v>
       </c>
@@ -50367,7 +50385,7 @@
         <v>2273</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>2275</v>
       </c>
@@ -50402,7 +50420,7 @@
         <v>2277</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>2292</v>
       </c>
@@ -50443,7 +50461,7 @@
         <v>2321</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>2330</v>
       </c>
@@ -50478,7 +50496,7 @@
         <v>2329</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>2327</v>
       </c>
@@ -50513,7 +50531,7 @@
         <v>2326</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>2340</v>
       </c>
@@ -50548,7 +50566,7 @@
         <v>2341</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>2346</v>
       </c>
@@ -50583,7 +50601,7 @@
         <v>2345</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>2350</v>
       </c>
@@ -50618,7 +50636,7 @@
         <v>2351</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>2354</v>
       </c>
@@ -50653,7 +50671,7 @@
         <v>2353</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>2357</v>
       </c>
@@ -50688,7 +50706,7 @@
         <v>2360</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>2363</v>
       </c>
@@ -50723,7 +50741,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>2366</v>
       </c>
@@ -50758,7 +50776,7 @@
         <v>2368</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>2374</v>
       </c>
@@ -50781,7 +50799,7 @@
         <v>2374</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>2392</v>
       </c>
@@ -50816,7 +50834,7 @@
         <v>2393</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>2395</v>
       </c>
@@ -50851,7 +50869,7 @@
         <v>2394</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>2455</v>
       </c>
@@ -50886,7 +50904,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>2474</v>
       </c>
@@ -50921,7 +50939,7 @@
         <v>2472</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>2498</v>
       </c>
@@ -50953,7 +50971,7 @@
         <v>2499</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>2523</v>
       </c>
@@ -50988,7 +51006,7 @@
         <v>2525</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>2529</v>
       </c>
@@ -51020,7 +51038,7 @@
         <v>2530</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>2533</v>
       </c>
@@ -51046,7 +51064,7 @@
         <v>2533</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>2536</v>
       </c>
@@ -51081,7 +51099,7 @@
         <v>2537</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>2576</v>
       </c>
@@ -51113,7 +51131,7 @@
         <v>2575</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>2589</v>
       </c>
@@ -51145,7 +51163,7 @@
         <v>2588</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>2593</v>
       </c>
@@ -51177,7 +51195,7 @@
         <v>2591</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>2637</v>
       </c>
@@ -51212,7 +51230,7 @@
         <v>2636</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>2640</v>
       </c>
@@ -51247,7 +51265,7 @@
         <v>2635</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>2676</v>
       </c>
@@ -51279,7 +51297,7 @@
         <v>2675</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>2697</v>
       </c>
@@ -51311,7 +51329,7 @@
         <v>2696</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>2700</v>
       </c>
@@ -51343,7 +51361,7 @@
         <v>2701</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>2712</v>
       </c>
@@ -51406,26 +51424,26 @@
   <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="49.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="49.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.1796875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="28.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="49.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28.7265625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="49.453125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.85546875" style="20"/>
+    <col min="12" max="12" width="24.7265625" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.81640625" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="9" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="9" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -51463,7 +51481,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>71</v>
       </c>
@@ -51498,7 +51516,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>91</v>
       </c>
@@ -51533,7 +51551,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>724</v>
       </c>
@@ -51568,7 +51586,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>730</v>
       </c>
@@ -51603,7 +51621,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>803</v>
       </c>
@@ -51629,7 +51647,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>964</v>
       </c>
@@ -51664,7 +51682,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>968</v>
       </c>
@@ -51699,7 +51717,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>1159</v>
       </c>
@@ -51734,7 +51752,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>1220</v>
       </c>
@@ -51769,7 +51787,7 @@
         <v>1219</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>1328</v>
       </c>
@@ -51804,7 +51822,7 @@
         <v>1821</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>1890</v>
       </c>
@@ -51830,7 +51848,7 @@
         <v>1890</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>1894</v>
       </c>
@@ -51856,7 +51874,7 @@
         <v>1894</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>1896</v>
       </c>
@@ -51891,7 +51909,7 @@
         <v>1895</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>2754</v>
       </c>
@@ -51906,6 +51924,9 @@
       </c>
       <c r="E15" t="s">
         <v>2756</v>
+      </c>
+      <c r="F15" t="s">
+        <v>2758</v>
       </c>
       <c r="H15" t="s">
         <v>20</v>
@@ -51937,24 +51958,24 @@
       <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.1796875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="29.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="30.54296875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.85546875" style="20"/>
+    <col min="12" max="12" width="24.7265625" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.81640625" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="10" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="10" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -51992,7 +52013,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>117</v>
       </c>
@@ -52009,7 +52030,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>118</v>
       </c>
@@ -52026,7 +52047,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>119</v>
       </c>
@@ -52043,7 +52064,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>522</v>
       </c>
@@ -52078,7 +52099,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>528</v>
       </c>
@@ -52113,7 +52134,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>957</v>
       </c>
@@ -52148,7 +52169,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>1168</v>
       </c>
@@ -52183,7 +52204,7 @@
         <v>1819</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>1236</v>
       </c>
@@ -52215,7 +52236,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>1887</v>
       </c>
@@ -52250,7 +52271,7 @@
         <v>1886</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>2335</v>
       </c>
@@ -52285,7 +52306,7 @@
         <v>2336</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>2398</v>
       </c>
@@ -52320,7 +52341,7 @@
         <v>2397</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>2489</v>
       </c>
@@ -52352,7 +52373,7 @@
         <v>2490</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>2492</v>
       </c>

--- a/Altium/DB.xlsx
+++ b/Altium/DB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git\Titanius\Libs\Altium\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6E96D1B-9065-4B83-A92D-D26AC9791F22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A6D02FF-70D2-4346-9DD1-8A2F712210BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4240" yWindow="4040" windowWidth="31520" windowHeight="16000" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4240" yWindow="4040" windowWidth="31520" windowHeight="16000" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="C" sheetId="2" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8031" uniqueCount="2759">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8032" uniqueCount="2760">
   <si>
     <t>Part Number</t>
   </si>
@@ -8319,6 +8319,9 @@
   </si>
   <si>
     <t>TR8-450x320x350x-90</t>
+  </si>
+  <si>
+    <t>WCH</t>
   </si>
 </sst>
 </file>
@@ -42724,9 +42727,9 @@
   </sheetPr>
   <dimension ref="A1:N180"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A143" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F184" sqref="F184"/>
+      <selection pane="bottomLeft" activeCell="H189" sqref="H189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -48907,6 +48910,9 @@
       </c>
       <c r="H178" t="s">
         <v>20</v>
+      </c>
+      <c r="I178" t="s">
+        <v>2759</v>
       </c>
       <c r="J178" t="s">
         <v>2703</v>
@@ -51423,7 +51429,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C27D7CC1-13F7-4412-A8F6-6AC235ABFCA9}">
   <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>

--- a/Altium/DB.xlsx
+++ b/Altium/DB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git\Titanius\Libs\Altium\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A6D02FF-70D2-4346-9DD1-8A2F712210BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85D540FF-52A3-42A1-9A77-1BB1EBB2352B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4240" yWindow="4040" windowWidth="31520" windowHeight="16000" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4560" yWindow="4560" windowWidth="31520" windowHeight="16000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="C" sheetId="2" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8032" uniqueCount="2760">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8045" uniqueCount="2763">
   <si>
     <t>Part Number</t>
   </si>
@@ -8322,6 +8322,15 @@
   </si>
   <si>
     <t>WCH</t>
+  </si>
+  <si>
+    <t>RC0201FR-07240RL</t>
+  </si>
+  <si>
+    <t>RES SMD 240 OHM 1% 1/16W 0201</t>
+  </si>
+  <si>
+    <t>YAG2528TR-ND</t>
   </si>
 </sst>
 </file>
@@ -31412,11 +31421,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N171"/>
+  <dimension ref="A1:N172"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A132" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A169" sqref="A169"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A151" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N172" sqref="N172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -38445,6 +38454,47 @@
       </c>
       <c r="N171" t="s">
         <v>2720</v>
+      </c>
+    </row>
+    <row r="172" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A172" t="s">
+        <v>2760</v>
+      </c>
+      <c r="B172" t="s">
+        <v>11</v>
+      </c>
+      <c r="C172" t="s">
+        <v>56</v>
+      </c>
+      <c r="D172" t="s">
+        <v>531</v>
+      </c>
+      <c r="E172" t="s">
+        <v>2761</v>
+      </c>
+      <c r="F172" t="s">
+        <v>1009</v>
+      </c>
+      <c r="H172" t="s">
+        <v>20</v>
+      </c>
+      <c r="I172" s="5" t="s">
+        <v>650</v>
+      </c>
+      <c r="J172" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K172" t="s">
+        <v>55</v>
+      </c>
+      <c r="L172" t="s">
+        <v>2760</v>
+      </c>
+      <c r="M172" t="s">
+        <v>17</v>
+      </c>
+      <c r="N172" t="s">
+        <v>2762</v>
       </c>
     </row>
   </sheetData>
@@ -42727,7 +42777,7 @@
   </sheetPr>
   <dimension ref="A1:N180"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A143" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H189" sqref="H189"/>
     </sheetView>

--- a/Altium/DB.xlsx
+++ b/Altium/DB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git\Titanius\Libs\Altium\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Repos\LIBS\Altium\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85D540FF-52A3-42A1-9A77-1BB1EBB2352B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55EA8000-6898-4DF0-9817-89B29A2B056B}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4560" yWindow="4560" windowWidth="31520" windowHeight="16000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4560" yWindow="4560" windowWidth="31515" windowHeight="16005" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="C" sheetId="2" r:id="rId1"/>
@@ -23,17 +23,8 @@
     <sheet name="Other" sheetId="14" r:id="rId8"/>
     <sheet name="Mech" sheetId="11" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="179021"/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
     </ext>
@@ -42,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8045" uniqueCount="2763">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8069" uniqueCount="2772">
   <si>
     <t>Part Number</t>
   </si>
@@ -8331,6 +8322,33 @@
   </si>
   <si>
     <t>YAG2528TR-ND</t>
+  </si>
+  <si>
+    <t>CPC1008N</t>
+  </si>
+  <si>
+    <t>CLA216CT-ND</t>
+  </si>
+  <si>
+    <t>IXYS Integrated Circuits Division</t>
+  </si>
+  <si>
+    <t>SSR RELAY SPST-NO 150MA 0-100V</t>
+  </si>
+  <si>
+    <t>CPC1008NTR</t>
+  </si>
+  <si>
+    <t>Awinic Technology</t>
+  </si>
+  <si>
+    <t>AW87359FCR</t>
+  </si>
+  <si>
+    <t>AW87359</t>
+  </si>
+  <si>
+    <t>ES7149</t>
   </si>
 </sst>
 </file>
@@ -26583,29 +26601,29 @@
       <selection activeCell="I106" sqref="I106"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.54296875" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.81640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.453125" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.26953125" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="56.54296875" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.54296875" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.7265625" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="56.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.7109375" style="5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.1796875" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.7265625" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.453125" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.81640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="31.453125" style="5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="30.26953125" style="16" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.81640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="31.1796875" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="31.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="30.28515625" style="16" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="31.140625" style="5" bestFit="1" customWidth="1"/>
     <col min="17" max="1026" width="9" style="20" customWidth="1"/>
-    <col min="1027" max="16384" width="8.81640625" style="20"/>
+    <col min="1027" max="16384" width="8.85546875" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="28" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" s="28" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -26655,7 +26673,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="10" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" s="10" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>653</v>
       </c>
@@ -26705,7 +26723,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>722</v>
       </c>
@@ -26755,7 +26773,7 @@
         <v>1657</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>40</v>
       </c>
@@ -26805,7 +26823,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>29</v>
       </c>
@@ -26855,7 +26873,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>36</v>
       </c>
@@ -26905,7 +26923,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>690</v>
       </c>
@@ -26955,7 +26973,7 @@
         <v>1656</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>881</v>
       </c>
@@ -27005,7 +27023,7 @@
         <v>2319</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>810</v>
       </c>
@@ -27055,7 +27073,7 @@
         <v>1655</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>687</v>
       </c>
@@ -27105,7 +27123,7 @@
         <v>1654</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>694</v>
       </c>
@@ -27155,7 +27173,7 @@
         <v>1583</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>607</v>
       </c>
@@ -27205,7 +27223,7 @@
         <v>1653</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>642</v>
       </c>
@@ -27255,7 +27273,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>425</v>
       </c>
@@ -27302,7 +27320,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>791</v>
       </c>
@@ -27349,7 +27367,7 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>337</v>
       </c>
@@ -27396,7 +27414,7 @@
         <v>1649</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>709</v>
       </c>
@@ -27443,7 +27461,7 @@
         <v>1648</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>217</v>
       </c>
@@ -27490,7 +27508,7 @@
         <v>1647</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>639</v>
       </c>
@@ -27537,7 +27555,7 @@
         <v>1646</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>398</v>
       </c>
@@ -27584,7 +27602,7 @@
         <v>1582</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>622</v>
       </c>
@@ -27631,7 +27649,7 @@
         <v>1645</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>420</v>
       </c>
@@ -27678,7 +27696,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>358</v>
       </c>
@@ -27725,7 +27743,7 @@
         <v>1644</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>315</v>
       </c>
@@ -27772,7 +27790,7 @@
         <v>1643</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>336</v>
       </c>
@@ -27819,7 +27837,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>330</v>
       </c>
@@ -27866,7 +27884,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>210</v>
       </c>
@@ -27913,7 +27931,7 @@
         <v>1640</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>215</v>
       </c>
@@ -27960,7 +27978,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>212</v>
       </c>
@@ -28007,7 +28025,7 @@
         <v>1638</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>209</v>
       </c>
@@ -28054,7 +28072,7 @@
         <v>1637</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>213</v>
       </c>
@@ -28101,7 +28119,7 @@
         <v>1636</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>211</v>
       </c>
@@ -28148,7 +28166,7 @@
         <v>1635</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>214</v>
       </c>
@@ -28195,7 +28213,7 @@
         <v>1634</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>360</v>
       </c>
@@ -28242,7 +28260,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>208</v>
       </c>
@@ -28289,7 +28307,7 @@
         <v>1633</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>679</v>
       </c>
@@ -28336,7 +28354,7 @@
         <v>1632</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>710</v>
       </c>
@@ -28383,7 +28401,7 @@
         <v>1631</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>206</v>
       </c>
@@ -28430,7 +28448,7 @@
         <v>1630</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>218</v>
       </c>
@@ -28477,7 +28495,7 @@
         <v>1629</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>207</v>
       </c>
@@ -28524,7 +28542,7 @@
         <v>1628</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="16" t="s">
         <v>769</v>
       </c>
@@ -28571,7 +28589,7 @@
         <v>1627</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>216</v>
       </c>
@@ -28618,7 +28636,7 @@
         <v>1626</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>191</v>
       </c>
@@ -28665,7 +28683,7 @@
         <v>1625</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>887</v>
       </c>
@@ -28712,7 +28730,7 @@
         <v>1624</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>900</v>
       </c>
@@ -28762,7 +28780,7 @@
         <v>1623</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>903</v>
       </c>
@@ -28812,7 +28830,7 @@
         <v>1622</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>952</v>
       </c>
@@ -28859,7 +28877,7 @@
         <v>1621</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>992</v>
       </c>
@@ -28906,7 +28924,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" s="16" t="s">
         <v>1025</v>
       </c>
@@ -28953,7 +28971,7 @@
         <v>1592</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
         <v>1029</v>
       </c>
@@ -29000,7 +29018,7 @@
         <v>1620</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>1033</v>
       </c>
@@ -29047,7 +29065,7 @@
         <v>1619</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
         <v>1038</v>
       </c>
@@ -29094,7 +29112,7 @@
         <v>1618</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
         <v>1106</v>
       </c>
@@ -29138,7 +29156,7 @@
         <v>1617</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
         <v>1127</v>
       </c>
@@ -29185,7 +29203,7 @@
         <v>1616</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
         <v>1192</v>
       </c>
@@ -29232,7 +29250,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" s="16" t="s">
         <v>1305</v>
       </c>
@@ -29279,7 +29297,7 @@
         <v>1615</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
         <v>1309</v>
       </c>
@@ -29326,7 +29344,7 @@
         <v>1614</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
         <v>1323</v>
       </c>
@@ -29373,7 +29391,7 @@
         <v>1586</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
         <v>1363</v>
       </c>
@@ -29420,7 +29438,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
         <v>1365</v>
       </c>
@@ -29467,7 +29485,7 @@
         <v>1613</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
         <v>1367</v>
       </c>
@@ -29514,7 +29532,7 @@
         <v>1589</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62" s="16" t="s">
         <v>1381</v>
       </c>
@@ -29561,7 +29579,7 @@
         <v>1612</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
         <v>1385</v>
       </c>
@@ -29608,7 +29626,7 @@
         <v>1611</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
         <v>1401</v>
       </c>
@@ -29655,7 +29673,7 @@
         <v>1610</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65" s="16" t="s">
         <v>1414</v>
       </c>
@@ -29702,7 +29720,7 @@
         <v>1609</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
         <v>1416</v>
       </c>
@@ -29749,7 +29767,7 @@
         <v>1608</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
         <v>1432</v>
       </c>
@@ -29793,7 +29811,7 @@
         <v>1607</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
         <v>1437</v>
       </c>
@@ -29840,7 +29858,7 @@
         <v>1606</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
         <v>1440</v>
       </c>
@@ -29887,7 +29905,7 @@
         <v>1596</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A70" s="16" t="s">
         <v>1442</v>
       </c>
@@ -29934,7 +29952,7 @@
         <v>1597</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A71" s="16" t="s">
         <v>1443</v>
       </c>
@@ -29981,7 +29999,7 @@
         <v>1595</v>
       </c>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A72" s="16" t="s">
         <v>1444</v>
       </c>
@@ -30028,7 +30046,7 @@
         <v>1598</v>
       </c>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A73" s="16" t="s">
         <v>1445</v>
       </c>
@@ -30075,7 +30093,7 @@
         <v>1599</v>
       </c>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A74" s="16" t="s">
         <v>1446</v>
       </c>
@@ -30122,7 +30140,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A75" s="16" t="s">
         <v>1447</v>
       </c>
@@ -30169,7 +30187,7 @@
         <v>1601</v>
       </c>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A76" s="16" t="s">
         <v>1448</v>
       </c>
@@ -30216,7 +30234,7 @@
         <v>1602</v>
       </c>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
         <v>1458</v>
       </c>
@@ -30263,7 +30281,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
         <v>1461</v>
       </c>
@@ -30304,7 +30322,7 @@
         <v>1659</v>
       </c>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
         <v>1464</v>
       </c>
@@ -30345,7 +30363,7 @@
         <v>1658</v>
       </c>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A80" s="16" t="s">
         <v>1468</v>
       </c>
@@ -30386,7 +30404,7 @@
         <v>1660</v>
       </c>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A81" s="16" t="s">
         <v>1512</v>
       </c>
@@ -30433,7 +30451,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
         <v>1515</v>
       </c>
@@ -30480,7 +30498,7 @@
         <v>1605</v>
       </c>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
         <v>1579</v>
       </c>
@@ -30527,7 +30545,7 @@
         <v>1578</v>
       </c>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>1581</v>
       </c>
@@ -30574,7 +30592,7 @@
         <v>1580</v>
       </c>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>1585</v>
       </c>
@@ -30621,7 +30639,7 @@
         <v>1584</v>
       </c>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
         <v>1588</v>
       </c>
@@ -30668,7 +30686,7 @@
         <v>1587</v>
       </c>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
         <v>1590</v>
       </c>
@@ -30715,7 +30733,7 @@
         <v>1591</v>
       </c>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A88" s="5" t="s">
         <v>1594</v>
       </c>
@@ -30762,7 +30780,7 @@
         <v>1593</v>
       </c>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
         <v>1879</v>
       </c>
@@ -30809,7 +30827,7 @@
         <v>1878</v>
       </c>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A90" s="5" t="s">
         <v>1883</v>
       </c>
@@ -30856,7 +30874,7 @@
         <v>1882</v>
       </c>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
         <v>1913</v>
       </c>
@@ -30900,7 +30918,7 @@
         <v>1911</v>
       </c>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
         <v>1917</v>
       </c>
@@ -30947,7 +30965,7 @@
         <v>1914</v>
       </c>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
         <v>1919</v>
       </c>
@@ -30994,7 +31012,7 @@
         <v>1918</v>
       </c>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A94" s="5" t="s">
         <v>1925</v>
       </c>
@@ -31041,7 +31059,7 @@
         <v>1923</v>
       </c>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
         <v>1945</v>
       </c>
@@ -31088,7 +31106,7 @@
         <v>1942</v>
       </c>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A96" s="5" t="s">
         <v>1948</v>
       </c>
@@ -31135,7 +31153,7 @@
         <v>1946</v>
       </c>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A97" s="5" t="s">
         <v>2116</v>
       </c>
@@ -31176,7 +31194,7 @@
         <v>2113</v>
       </c>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
         <v>2236</v>
       </c>
@@ -31223,7 +31241,7 @@
         <v>2235</v>
       </c>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
         <v>2468</v>
       </c>
@@ -31270,7 +31288,7 @@
         <v>2467</v>
       </c>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A100" s="5" t="s">
         <v>2566</v>
       </c>
@@ -31314,7 +31332,7 @@
         <v>2565</v>
       </c>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A101" s="5" t="s">
         <v>2597</v>
       </c>
@@ -31358,7 +31376,7 @@
         <v>2599</v>
       </c>
     </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A102" s="5" t="s">
         <v>2663</v>
       </c>
@@ -31406,7 +31424,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P43">
+  <sortState ref="A2:P43">
     <sortCondition ref="F2:F43"/>
   </sortState>
   <printOptions gridLines="1"/>
@@ -31423,32 +31441,32 @@
   </sheetPr>
   <dimension ref="A1:N172"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A151" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="N172" sqref="N172"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.26953125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.7265625" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.1796875" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="32.7265625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="30.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="32.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="30.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="26.26953125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="26.28515625" bestFit="1" customWidth="1"/>
     <col min="15" max="1025" width="9" style="20" customWidth="1"/>
-    <col min="1026" max="16384" width="8.81640625" style="20"/>
+    <col min="1026" max="16384" width="8.85546875" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="10" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" s="10" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -31492,7 +31510,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>54</v>
       </c>
@@ -31533,7 +31551,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>126</v>
       </c>
@@ -31574,7 +31592,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>130</v>
       </c>
@@ -31615,7 +31633,7 @@
         <v>1664</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>139</v>
       </c>
@@ -31656,7 +31674,7 @@
         <v>1665</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>140</v>
       </c>
@@ -31697,7 +31715,7 @@
         <v>1666</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>145</v>
       </c>
@@ -31738,7 +31756,7 @@
         <v>1667</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>147</v>
       </c>
@@ -31779,7 +31797,7 @@
         <v>1668</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>149</v>
       </c>
@@ -31820,7 +31838,7 @@
         <v>1669</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>151</v>
       </c>
@@ -31861,7 +31879,7 @@
         <v>1670</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>153</v>
       </c>
@@ -31902,7 +31920,7 @@
         <v>1671</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>155</v>
       </c>
@@ -31943,7 +31961,7 @@
         <v>1672</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>157</v>
       </c>
@@ -31984,7 +32002,7 @@
         <v>1673</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>159</v>
       </c>
@@ -32025,7 +32043,7 @@
         <v>1674</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>161</v>
       </c>
@@ -32066,7 +32084,7 @@
         <v>1675</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>163</v>
       </c>
@@ -32107,7 +32125,7 @@
         <v>1676</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>165</v>
       </c>
@@ -32148,7 +32166,7 @@
         <v>1677</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>167</v>
       </c>
@@ -32189,7 +32207,7 @@
         <v>1678</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>169</v>
       </c>
@@ -32230,7 +32248,7 @@
         <v>1679</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>171</v>
       </c>
@@ -32271,7 +32289,7 @@
         <v>1680</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>181</v>
       </c>
@@ -32312,7 +32330,7 @@
         <v>1681</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>186</v>
       </c>
@@ -32353,7 +32371,7 @@
         <v>1682</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>303</v>
       </c>
@@ -32394,7 +32412,7 @@
         <v>1683</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>306</v>
       </c>
@@ -32435,7 +32453,7 @@
         <v>1684</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>312</v>
       </c>
@@ -32476,7 +32494,7 @@
         <v>1685</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>320</v>
       </c>
@@ -32517,7 +32535,7 @@
         <v>1686</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>323</v>
       </c>
@@ -32558,7 +32576,7 @@
         <v>1687</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>327</v>
       </c>
@@ -32599,7 +32617,7 @@
         <v>1688</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>340</v>
       </c>
@@ -32640,7 +32658,7 @@
         <v>1689</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>355</v>
       </c>
@@ -32681,7 +32699,7 @@
         <v>1690</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>371</v>
       </c>
@@ -32722,7 +32740,7 @@
         <v>1691</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>370</v>
       </c>
@@ -32763,7 +32781,7 @@
         <v>1692</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>368</v>
       </c>
@@ -32804,7 +32822,7 @@
         <v>1693</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>365</v>
       </c>
@@ -32845,7 +32863,7 @@
         <v>1694</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>387</v>
       </c>
@@ -32886,7 +32904,7 @@
         <v>1695</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>392</v>
       </c>
@@ -32927,7 +32945,7 @@
         <v>1696</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>397</v>
       </c>
@@ -32968,7 +32986,7 @@
         <v>1697</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>407</v>
       </c>
@@ -33009,7 +33027,7 @@
         <v>1698</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>446</v>
       </c>
@@ -33050,7 +33068,7 @@
         <v>1699</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>451</v>
       </c>
@@ -33091,7 +33109,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>609</v>
       </c>
@@ -33132,7 +33150,7 @@
         <v>1701</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>613</v>
       </c>
@@ -33173,7 +33191,7 @@
         <v>1702</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>620</v>
       </c>
@@ -33214,7 +33232,7 @@
         <v>1703</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>54</v>
       </c>
@@ -33252,7 +33270,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>631</v>
       </c>
@@ -33293,7 +33311,7 @@
         <v>1704</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>637</v>
       </c>
@@ -33334,7 +33352,7 @@
         <v>1705</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>649</v>
       </c>
@@ -33375,7 +33393,7 @@
         <v>1706</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>655</v>
       </c>
@@ -33416,7 +33434,7 @@
         <v>1707</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>658</v>
       </c>
@@ -33457,7 +33475,7 @@
         <v>1708</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>663</v>
       </c>
@@ -33498,7 +33516,7 @@
         <v>1709</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>666</v>
       </c>
@@ -33539,7 +33557,7 @@
         <v>1710</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>668</v>
       </c>
@@ -33580,7 +33598,7 @@
         <v>1711</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>673</v>
       </c>
@@ -33621,7 +33639,7 @@
         <v>1712</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>676</v>
       </c>
@@ -33662,7 +33680,7 @@
         <v>1713</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>693</v>
       </c>
@@ -33703,7 +33721,7 @@
         <v>1714</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>696</v>
       </c>
@@ -33744,7 +33762,7 @@
         <v>1715</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>701</v>
       </c>
@@ -33785,7 +33803,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>702</v>
       </c>
@@ -33826,7 +33844,7 @@
         <v>1717</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>706</v>
       </c>
@@ -33867,7 +33885,7 @@
         <v>1718</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>718</v>
       </c>
@@ -33908,7 +33926,7 @@
         <v>1719</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>750</v>
       </c>
@@ -33949,7 +33967,7 @@
         <v>1720</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>613</v>
       </c>
@@ -33990,7 +34008,7 @@
         <v>1702</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>762</v>
       </c>
@@ -34031,7 +34049,7 @@
         <v>1721</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>397</v>
       </c>
@@ -34072,7 +34090,7 @@
         <v>1697</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>787</v>
       </c>
@@ -34113,7 +34131,7 @@
         <v>1722</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>807</v>
       </c>
@@ -34154,7 +34172,7 @@
         <v>1723</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>813</v>
       </c>
@@ -34195,7 +34213,7 @@
         <v>1724</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>889</v>
       </c>
@@ -34236,7 +34254,7 @@
         <v>1725</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>892</v>
       </c>
@@ -34277,7 +34295,7 @@
         <v>1726</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>894</v>
       </c>
@@ -34318,7 +34336,7 @@
         <v>1727</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>897</v>
       </c>
@@ -34359,7 +34377,7 @@
         <v>1728</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>906</v>
       </c>
@@ -34400,7 +34418,7 @@
         <v>1729</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>907</v>
       </c>
@@ -34441,7 +34459,7 @@
         <v>1730</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>910</v>
       </c>
@@ -34482,7 +34500,7 @@
         <v>1731</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>914</v>
       </c>
@@ -34523,7 +34541,7 @@
         <v>1732</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>917</v>
       </c>
@@ -34564,7 +34582,7 @@
         <v>1733</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>978</v>
       </c>
@@ -34605,7 +34623,7 @@
         <v>1734</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>981</v>
       </c>
@@ -34646,7 +34664,7 @@
         <v>1735</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>1004</v>
       </c>
@@ -34687,7 +34705,7 @@
         <v>1736</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>1007</v>
       </c>
@@ -34728,7 +34746,7 @@
         <v>1737</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>1010</v>
       </c>
@@ -34769,7 +34787,7 @@
         <v>1738</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>1031</v>
       </c>
@@ -34810,7 +34828,7 @@
         <v>1739</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>1040</v>
       </c>
@@ -34851,7 +34869,7 @@
         <v>1740</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>1043</v>
       </c>
@@ -34892,7 +34910,7 @@
         <v>1741</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>1076</v>
       </c>
@@ -34933,7 +34951,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>1079</v>
       </c>
@@ -34974,7 +34992,7 @@
         <v>1743</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>1082</v>
       </c>
@@ -35015,7 +35033,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>1083</v>
       </c>
@@ -35056,7 +35074,7 @@
         <v>1745</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>1086</v>
       </c>
@@ -35097,7 +35115,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>1089</v>
       </c>
@@ -35138,7 +35156,7 @@
         <v>1747</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>1092</v>
       </c>
@@ -35179,7 +35197,7 @@
         <v>1748</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>1124</v>
       </c>
@@ -35220,7 +35238,7 @@
         <v>1749</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>1145</v>
       </c>
@@ -35261,7 +35279,7 @@
         <v>1750</v>
       </c>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>1147</v>
       </c>
@@ -35302,7 +35320,7 @@
         <v>1751</v>
       </c>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>1182</v>
       </c>
@@ -35343,7 +35361,7 @@
         <v>1752</v>
       </c>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>1187</v>
       </c>
@@ -35384,7 +35402,7 @@
         <v>1753</v>
       </c>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>1188</v>
       </c>
@@ -35425,7 +35443,7 @@
         <v>1754</v>
       </c>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>1314</v>
       </c>
@@ -35466,7 +35484,7 @@
         <v>1755</v>
       </c>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>1316</v>
       </c>
@@ -35507,7 +35525,7 @@
         <v>1756</v>
       </c>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>1317</v>
       </c>
@@ -35548,7 +35566,7 @@
         <v>1757</v>
       </c>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>1320</v>
       </c>
@@ -35589,7 +35607,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>1342</v>
       </c>
@@ -35630,7 +35648,7 @@
         <v>1759</v>
       </c>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>1346</v>
       </c>
@@ -35671,7 +35689,7 @@
         <v>1760</v>
       </c>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>1348</v>
       </c>
@@ -35712,7 +35730,7 @@
         <v>1761</v>
       </c>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>1351</v>
       </c>
@@ -35753,7 +35771,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>1352</v>
       </c>
@@ -35794,7 +35812,7 @@
         <v>1763</v>
       </c>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>1355</v>
       </c>
@@ -35835,7 +35853,7 @@
         <v>1764</v>
       </c>
     </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>1398</v>
       </c>
@@ -35876,7 +35894,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>1403</v>
       </c>
@@ -35917,7 +35935,7 @@
         <v>1766</v>
       </c>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>1406</v>
       </c>
@@ -35958,7 +35976,7 @@
         <v>1767</v>
       </c>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>1409</v>
       </c>
@@ -35999,7 +36017,7 @@
         <v>1768</v>
       </c>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>1425</v>
       </c>
@@ -36040,7 +36058,7 @@
         <v>1769</v>
       </c>
     </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>1475</v>
       </c>
@@ -36081,7 +36099,7 @@
         <v>1770</v>
       </c>
     </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>1487</v>
       </c>
@@ -36122,7 +36140,7 @@
         <v>1771</v>
       </c>
     </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>1519</v>
       </c>
@@ -36163,7 +36181,7 @@
         <v>1772</v>
       </c>
     </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>1518</v>
       </c>
@@ -36204,7 +36222,7 @@
         <v>1773</v>
       </c>
     </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>1559</v>
       </c>
@@ -36245,7 +36263,7 @@
         <v>1558</v>
       </c>
     </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>1561</v>
       </c>
@@ -36286,7 +36304,7 @@
         <v>1560</v>
       </c>
     </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>1793</v>
       </c>
@@ -36327,7 +36345,7 @@
         <v>1794</v>
       </c>
     </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>1795</v>
       </c>
@@ -36368,7 +36386,7 @@
         <v>1797</v>
       </c>
     </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>1847</v>
       </c>
@@ -36409,7 +36427,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>1848</v>
       </c>
@@ -36450,7 +36468,7 @@
         <v>1840</v>
       </c>
     </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>1849</v>
       </c>
@@ -36491,7 +36509,7 @@
         <v>1841</v>
       </c>
     </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>1850</v>
       </c>
@@ -36532,7 +36550,7 @@
         <v>1842</v>
       </c>
     </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>1851</v>
       </c>
@@ -36573,7 +36591,7 @@
         <v>1843</v>
       </c>
     </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>1852</v>
       </c>
@@ -36614,7 +36632,7 @@
         <v>1844</v>
       </c>
     </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>1853</v>
       </c>
@@ -36655,7 +36673,7 @@
         <v>1845</v>
       </c>
     </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>1854</v>
       </c>
@@ -36696,7 +36714,7 @@
         <v>1846</v>
       </c>
     </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>1901</v>
       </c>
@@ -36734,7 +36752,7 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>1932</v>
       </c>
@@ -36775,7 +36793,7 @@
         <v>1929</v>
       </c>
     </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>1933</v>
       </c>
@@ -36816,7 +36834,7 @@
         <v>1936</v>
       </c>
     </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>1941</v>
       </c>
@@ -36857,7 +36875,7 @@
         <v>1940</v>
       </c>
     </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>1952</v>
       </c>
@@ -36898,7 +36916,7 @@
         <v>1949</v>
       </c>
     </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>1956</v>
       </c>
@@ -36939,7 +36957,7 @@
         <v>1953</v>
       </c>
     </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>1960</v>
       </c>
@@ -36980,7 +36998,7 @@
         <v>1957</v>
       </c>
     </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>1964</v>
       </c>
@@ -37021,7 +37039,7 @@
         <v>1961</v>
       </c>
     </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>1968</v>
       </c>
@@ -37062,7 +37080,7 @@
         <v>1965</v>
       </c>
     </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>2047</v>
       </c>
@@ -37103,7 +37121,7 @@
         <v>2044</v>
       </c>
     </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>2064</v>
       </c>
@@ -37144,7 +37162,7 @@
         <v>2062</v>
       </c>
     </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>2068</v>
       </c>
@@ -37185,7 +37203,7 @@
         <v>2069</v>
       </c>
     </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>2073</v>
       </c>
@@ -37226,7 +37244,7 @@
         <v>2070</v>
       </c>
     </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>2077</v>
       </c>
@@ -37267,7 +37285,7 @@
         <v>2074</v>
       </c>
     </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>2081</v>
       </c>
@@ -37308,7 +37326,7 @@
         <v>2078</v>
       </c>
     </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>2086</v>
       </c>
@@ -37349,7 +37367,7 @@
         <v>2085</v>
       </c>
     </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>2090</v>
       </c>
@@ -37390,7 +37408,7 @@
         <v>2089</v>
       </c>
     </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>2167</v>
       </c>
@@ -37431,7 +37449,7 @@
         <v>2166</v>
       </c>
     </row>
-    <row r="147" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>2174</v>
       </c>
@@ -37472,7 +37490,7 @@
         <v>2173</v>
       </c>
     </row>
-    <row r="148" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>2198</v>
       </c>
@@ -37513,7 +37531,7 @@
         <v>2197</v>
       </c>
     </row>
-    <row r="149" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>2219</v>
       </c>
@@ -37554,7 +37572,7 @@
         <v>2217</v>
       </c>
     </row>
-    <row r="150" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>2239</v>
       </c>
@@ -37595,7 +37613,7 @@
         <v>2238</v>
       </c>
     </row>
-    <row r="151" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>1352</v>
       </c>
@@ -37636,7 +37654,7 @@
         <v>1763</v>
       </c>
     </row>
-    <row r="152" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>2255</v>
       </c>
@@ -37677,7 +37695,7 @@
         <v>2254</v>
       </c>
     </row>
-    <row r="153" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>2258</v>
       </c>
@@ -37718,7 +37736,7 @@
         <v>2257</v>
       </c>
     </row>
-    <row r="154" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>2263</v>
       </c>
@@ -37759,7 +37777,7 @@
         <v>2260</v>
       </c>
     </row>
-    <row r="155" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>2379</v>
       </c>
@@ -37800,7 +37818,7 @@
         <v>2375</v>
       </c>
     </row>
-    <row r="156" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>2382</v>
       </c>
@@ -37841,7 +37859,7 @@
         <v>2380</v>
       </c>
     </row>
-    <row r="157" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>2384</v>
       </c>
@@ -37882,7 +37900,7 @@
         <v>2383</v>
       </c>
     </row>
-    <row r="158" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>2434</v>
       </c>
@@ -37923,7 +37941,7 @@
         <v>2435</v>
       </c>
     </row>
-    <row r="159" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>2438</v>
       </c>
@@ -37964,7 +37982,7 @@
         <v>2436</v>
       </c>
     </row>
-    <row r="160" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>2441</v>
       </c>
@@ -38005,7 +38023,7 @@
         <v>2442</v>
       </c>
     </row>
-    <row r="161" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>2445</v>
       </c>
@@ -38046,7 +38064,7 @@
         <v>2444</v>
       </c>
     </row>
-    <row r="162" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>2458</v>
       </c>
@@ -38087,7 +38105,7 @@
         <v>2457</v>
       </c>
     </row>
-    <row r="163" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>2461</v>
       </c>
@@ -38128,7 +38146,7 @@
         <v>2460</v>
       </c>
     </row>
-    <row r="164" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>2521</v>
       </c>
@@ -38169,7 +38187,7 @@
         <v>2522</v>
       </c>
     </row>
-    <row r="165" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>2554</v>
       </c>
@@ -38210,7 +38228,7 @@
         <v>2553</v>
       </c>
     </row>
-    <row r="166" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>2558</v>
       </c>
@@ -38251,7 +38269,7 @@
         <v>2557</v>
       </c>
     </row>
-    <row r="167" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>2642</v>
       </c>
@@ -38292,7 +38310,7 @@
         <v>2643</v>
       </c>
     </row>
-    <row r="168" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>2667</v>
       </c>
@@ -38333,7 +38351,7 @@
         <v>2665</v>
       </c>
     </row>
-    <row r="169" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>2671</v>
       </c>
@@ -38374,7 +38392,7 @@
         <v>2669</v>
       </c>
     </row>
-    <row r="170" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>2717</v>
       </c>
@@ -38415,7 +38433,7 @@
         <v>2716</v>
       </c>
     </row>
-    <row r="171" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>2721</v>
       </c>
@@ -38456,7 +38474,7 @@
         <v>2720</v>
       </c>
     </row>
-    <row r="172" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>2760</v>
       </c>
@@ -38516,28 +38534,28 @@
       <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="51.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.26953125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="32.453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.453125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="51.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="30.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="30.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="31.453125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="31.42578125" bestFit="1" customWidth="1"/>
     <col min="16" max="1025" width="9" style="20" customWidth="1"/>
-    <col min="1026" max="16384" width="8.81640625" style="20"/>
+    <col min="1026" max="16384" width="8.85546875" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="10" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" s="10" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -38584,7 +38602,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>44</v>
       </c>
@@ -38628,7 +38646,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>61</v>
       </c>
@@ -38672,7 +38690,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>249</v>
       </c>
@@ -38716,7 +38734,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>251</v>
       </c>
@@ -38760,7 +38778,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>252</v>
       </c>
@@ -38804,7 +38822,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>353</v>
       </c>
@@ -38848,7 +38866,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>501</v>
       </c>
@@ -38887,7 +38905,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>625</v>
       </c>
@@ -38928,7 +38946,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>681</v>
       </c>
@@ -38969,7 +38987,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>716</v>
       </c>
@@ -39013,7 +39031,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>779</v>
       </c>
@@ -39057,7 +39075,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>785</v>
       </c>
@@ -39098,7 +39116,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>984</v>
       </c>
@@ -39142,7 +39160,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>1003</v>
       </c>
@@ -39186,7 +39204,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>1118</v>
       </c>
@@ -39230,7 +39248,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>1283</v>
       </c>
@@ -39274,7 +39292,7 @@
         <v>1780</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>1284</v>
       </c>
@@ -39318,7 +39336,7 @@
         <v>1779</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>1289</v>
       </c>
@@ -39362,7 +39380,7 @@
         <v>1778</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>1295</v>
       </c>
@@ -39406,7 +39424,7 @@
         <v>1777</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>1359</v>
       </c>
@@ -39450,7 +39468,7 @@
         <v>1781</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>1507</v>
       </c>
@@ -39494,7 +39512,7 @@
         <v>1505</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>1785</v>
       </c>
@@ -39538,7 +39556,7 @@
         <v>1786</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>2226</v>
       </c>
@@ -39585,7 +39603,7 @@
         <v>2221</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>2230</v>
       </c>
@@ -39629,7 +39647,7 @@
         <v>2228</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>2428</v>
       </c>
@@ -39673,7 +39691,7 @@
         <v>2427</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>2464</v>
       </c>
@@ -39717,7 +39735,7 @@
         <v>2465</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>2516</v>
       </c>
@@ -39761,7 +39779,7 @@
         <v>2515</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>2570</v>
       </c>
@@ -39802,7 +39820,7 @@
         <v>2568</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>2586</v>
       </c>
@@ -39840,7 +39858,7 @@
         <v>2586</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>2615</v>
       </c>
@@ -39884,7 +39902,7 @@
         <v>2612</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>2619</v>
       </c>
@@ -39928,7 +39946,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>2627</v>
       </c>
@@ -39972,7 +39990,7 @@
         <v>2626</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>2631</v>
       </c>
@@ -40016,7 +40034,7 @@
         <v>2630</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>2645</v>
       </c>
@@ -40060,7 +40078,7 @@
         <v>2644</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>2747</v>
       </c>
@@ -40123,26 +40141,26 @@
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="45.54296875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="45.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="32" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="26.81640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="26.85546875" bestFit="1" customWidth="1"/>
     <col min="14" max="1025" width="9" style="20" customWidth="1"/>
-    <col min="1026" max="16384" width="8.81640625" style="20"/>
+    <col min="1026" max="16384" width="8.85546875" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="10" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" s="10" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -40183,7 +40201,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>413</v>
       </c>
@@ -40221,7 +40239,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>417</v>
       </c>
@@ -40259,7 +40277,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>618</v>
       </c>
@@ -40297,7 +40315,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1199</v>
       </c>
@@ -40335,7 +40353,7 @@
         <v>1198</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>1395</v>
       </c>
@@ -40373,7 +40391,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>1424</v>
       </c>
@@ -40411,7 +40429,7 @@
         <v>1820</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>1489</v>
       </c>
@@ -40449,7 +40467,7 @@
         <v>1491</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>1996</v>
       </c>
@@ -40487,7 +40505,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>2006</v>
       </c>
@@ -40525,7 +40543,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>2182</v>
       </c>
@@ -40563,7 +40581,7 @@
         <v>2179</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>2284</v>
       </c>
@@ -40601,7 +40619,7 @@
         <v>2285</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>2296</v>
       </c>
@@ -40639,7 +40657,7 @@
         <v>2295</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>2601</v>
       </c>
@@ -40696,26 +40714,26 @@
       <selection activeCell="E66" sqref="E66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="35" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.26953125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.26953125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="44.453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="30.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="44.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="30.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="31.1796875" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="8.81640625" style="20"/>
+    <col min="12" max="12" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="8.85546875" style="20"/>
     <col min="16" max="1025" width="9" style="20" customWidth="1"/>
-    <col min="1026" max="16384" width="8.81640625" style="20"/>
+    <col min="1026" max="16384" width="8.85546875" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="10" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" s="10" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -40753,7 +40771,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>253</v>
       </c>
@@ -40788,7 +40806,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>254</v>
       </c>
@@ -40823,7 +40841,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>275</v>
       </c>
@@ -40858,7 +40876,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>282</v>
       </c>
@@ -40893,7 +40911,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>285</v>
       </c>
@@ -40928,7 +40946,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>301</v>
       </c>
@@ -40963,7 +40981,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>289</v>
       </c>
@@ -40998,7 +41016,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>291</v>
       </c>
@@ -41033,7 +41051,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>345</v>
       </c>
@@ -41068,7 +41086,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>382</v>
       </c>
@@ -41103,7 +41121,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>437</v>
       </c>
@@ -41138,7 +41156,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>480</v>
       </c>
@@ -41164,7 +41182,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>484</v>
       </c>
@@ -41190,7 +41208,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>485</v>
       </c>
@@ -41216,7 +41234,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>614</v>
       </c>
@@ -41242,7 +41260,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>733</v>
       </c>
@@ -41277,7 +41295,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>738</v>
       </c>
@@ -41312,7 +41330,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>747</v>
       </c>
@@ -41347,7 +41365,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>754</v>
       </c>
@@ -41380,7 +41398,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>760</v>
       </c>
@@ -41415,7 +41433,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>806</v>
       </c>
@@ -41450,7 +41468,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>821</v>
       </c>
@@ -41485,7 +41503,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>931</v>
       </c>
@@ -41520,7 +41538,7 @@
         <v>1810</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>934</v>
       </c>
@@ -41555,7 +41573,7 @@
         <v>1811</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>948</v>
       </c>
@@ -41590,7 +41608,7 @@
         <v>1812</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>950</v>
       </c>
@@ -41625,7 +41643,7 @@
         <v>1813</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>959</v>
       </c>
@@ -41660,7 +41678,7 @@
         <v>1814</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>1134</v>
       </c>
@@ -41695,7 +41713,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>1156</v>
       </c>
@@ -41730,7 +41748,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>1176</v>
       </c>
@@ -41765,7 +41783,7 @@
         <v>1175</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>1181</v>
       </c>
@@ -41800,7 +41818,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>1224</v>
       </c>
@@ -41835,7 +41853,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>1227</v>
       </c>
@@ -41870,7 +41888,7 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>1234</v>
       </c>
@@ -41905,7 +41923,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>1331</v>
       </c>
@@ -41940,7 +41958,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>1340</v>
       </c>
@@ -41975,7 +41993,7 @@
         <v>1338</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>1371</v>
       </c>
@@ -42010,7 +42028,7 @@
         <v>1369</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>1503</v>
       </c>
@@ -42045,7 +42063,7 @@
         <v>1502</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>1565</v>
       </c>
@@ -42080,7 +42098,7 @@
         <v>1563</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>1574</v>
       </c>
@@ -42115,7 +42133,7 @@
         <v>1573</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>1663</v>
       </c>
@@ -42150,7 +42168,7 @@
         <v>1661</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>1775</v>
       </c>
@@ -42185,7 +42203,7 @@
         <v>1774</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>1788</v>
       </c>
@@ -42220,7 +42238,7 @@
         <v>1787</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>1792</v>
       </c>
@@ -42255,7 +42273,7 @@
         <v>1791</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>1829</v>
       </c>
@@ -42290,7 +42308,7 @@
         <v>1828</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>1872</v>
       </c>
@@ -42325,7 +42343,7 @@
         <v>1871</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>1874</v>
       </c>
@@ -42348,7 +42366,7 @@
         <v>1874</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>2084</v>
       </c>
@@ -42383,7 +42401,7 @@
         <v>2082</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>2137</v>
       </c>
@@ -42418,7 +42436,7 @@
         <v>2135</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>2140</v>
       </c>
@@ -42453,7 +42471,7 @@
         <v>2138</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>2477</v>
       </c>
@@ -42488,7 +42506,7 @@
         <v>2476</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>2495</v>
       </c>
@@ -42520,7 +42538,7 @@
         <v>2493</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>2651</v>
       </c>
@@ -42555,7 +42573,7 @@
         <v>2650</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>2655</v>
       </c>
@@ -42590,7 +42608,7 @@
         <v>2654</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>2658</v>
       </c>
@@ -42625,7 +42643,7 @@
         <v>2657</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>2673</v>
       </c>
@@ -42660,7 +42678,7 @@
         <v>2672</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>2680</v>
       </c>
@@ -42695,7 +42713,7 @@
         <v>2679</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>2724</v>
       </c>
@@ -42730,7 +42748,7 @@
         <v>2723</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>2745</v>
       </c>
@@ -42775,33 +42793,33 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N180"/>
+  <dimension ref="A1:N183"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A143" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H189" sqref="H189"/>
+      <selection pane="bottomLeft" activeCell="J183" sqref="J183"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="27.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="92.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="33.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.26953125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="47.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="30.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="97.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="38" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="45.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="30.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="29.26953125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="29.28515625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="24.7265625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="24.5703125" bestFit="1" customWidth="1"/>
     <col min="15" max="1025" width="9" style="20" customWidth="1"/>
-    <col min="1026" max="16384" width="8.81640625" style="20"/>
+    <col min="1026" max="16384" width="8.85546875" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="10" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" s="10" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -42845,7 +42863,7 @@
         <v>1831</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -42882,7 +42900,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>68</v>
       </c>
@@ -42919,7 +42937,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>74</v>
       </c>
@@ -42956,7 +42974,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>79</v>
       </c>
@@ -42993,7 +43011,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>80</v>
       </c>
@@ -43030,7 +43048,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>93</v>
       </c>
@@ -43067,7 +43085,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>95</v>
       </c>
@@ -43104,7 +43122,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>102</v>
       </c>
@@ -43140,7 +43158,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>105</v>
       </c>
@@ -43177,7 +43195,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>309</v>
       </c>
@@ -43212,7 +43230,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>318</v>
       </c>
@@ -43247,7 +43265,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>378</v>
       </c>
@@ -43282,7 +43300,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>403</v>
       </c>
@@ -43317,7 +43335,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>433</v>
       </c>
@@ -43352,7 +43370,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>442</v>
       </c>
@@ -43387,7 +43405,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>448</v>
       </c>
@@ -43422,7 +43440,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>471</v>
       </c>
@@ -43457,7 +43475,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>476</v>
       </c>
@@ -43492,7 +43510,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>489</v>
       </c>
@@ -43527,7 +43545,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>492</v>
       </c>
@@ -43562,7 +43580,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>496</v>
       </c>
@@ -43597,7 +43615,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>508</v>
       </c>
@@ -43632,7 +43650,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>511</v>
       </c>
@@ -43667,7 +43685,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>532</v>
       </c>
@@ -43702,7 +43720,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>537</v>
       </c>
@@ -43737,7 +43755,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>560</v>
       </c>
@@ -43772,7 +43790,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>540</v>
       </c>
@@ -43807,7 +43825,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>541</v>
       </c>
@@ -43842,7 +43860,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>542</v>
       </c>
@@ -43877,7 +43895,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>573</v>
       </c>
@@ -43912,7 +43930,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>577</v>
       </c>
@@ -43947,7 +43965,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>580</v>
       </c>
@@ -43982,7 +44000,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>583</v>
       </c>
@@ -44017,7 +44035,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>586</v>
       </c>
@@ -44052,7 +44070,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>590</v>
       </c>
@@ -44087,7 +44105,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>594</v>
       </c>
@@ -44122,7 +44140,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>595</v>
       </c>
@@ -44157,7 +44175,7 @@
         <v>1815</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>552</v>
       </c>
@@ -44192,7 +44210,7 @@
         <v>1816</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>599</v>
       </c>
@@ -44227,7 +44245,7 @@
         <v>1801</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>600</v>
       </c>
@@ -44262,7 +44280,7 @@
         <v>1817</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>602</v>
       </c>
@@ -44297,7 +44315,7 @@
         <v>1818</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>605</v>
       </c>
@@ -44332,7 +44350,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>635</v>
       </c>
@@ -44367,7 +44385,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>539</v>
       </c>
@@ -44402,7 +44420,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>670</v>
       </c>
@@ -44437,7 +44455,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>884</v>
       </c>
@@ -44472,7 +44490,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>901</v>
       </c>
@@ -44507,7 +44525,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>918</v>
       </c>
@@ -44542,7 +44560,7 @@
         <v>1836</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>921</v>
       </c>
@@ -44577,7 +44595,7 @@
         <v>1833</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>922</v>
       </c>
@@ -44612,7 +44630,7 @@
         <v>1834</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>923</v>
       </c>
@@ -44647,7 +44665,7 @@
         <v>1835</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>937</v>
       </c>
@@ -44682,7 +44700,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>943</v>
       </c>
@@ -44717,7 +44735,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>941</v>
       </c>
@@ -44752,7 +44770,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>1014</v>
       </c>
@@ -44787,7 +44805,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>1018</v>
       </c>
@@ -44822,7 +44840,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>1022</v>
       </c>
@@ -44857,7 +44875,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>1049</v>
       </c>
@@ -44890,7 +44908,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>1051</v>
       </c>
@@ -44925,7 +44943,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>1055</v>
       </c>
@@ -44960,7 +44978,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>1059</v>
       </c>
@@ -44995,7 +45013,7 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>1065</v>
       </c>
@@ -45030,7 +45048,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>1070</v>
       </c>
@@ -45065,7 +45083,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>1096</v>
       </c>
@@ -45100,7 +45118,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>1100</v>
       </c>
@@ -45135,7 +45153,7 @@
         <v>1098</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>1102</v>
       </c>
@@ -45170,7 +45188,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>1111</v>
       </c>
@@ -45205,7 +45223,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>1130</v>
       </c>
@@ -45240,7 +45258,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>1136</v>
       </c>
@@ -45275,7 +45293,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>1142</v>
       </c>
@@ -45310,7 +45328,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>1150</v>
       </c>
@@ -45345,7 +45363,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>1172</v>
       </c>
@@ -45380,7 +45398,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>1197</v>
       </c>
@@ -45415,7 +45433,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>1207</v>
       </c>
@@ -45450,7 +45468,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>1216</v>
       </c>
@@ -45485,7 +45503,7 @@
         <v>1215</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>1231</v>
       </c>
@@ -45520,7 +45538,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>1246</v>
       </c>
@@ -45555,7 +45573,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>1247</v>
       </c>
@@ -45590,7 +45608,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>1248</v>
       </c>
@@ -45625,7 +45643,7 @@
         <v>1248</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>1251</v>
       </c>
@@ -45660,7 +45678,7 @@
         <v>1249</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>1262</v>
       </c>
@@ -45695,7 +45713,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>1245</v>
       </c>
@@ -45736,7 +45754,7 @@
         <v>1832</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>1798</v>
       </c>
@@ -45771,7 +45789,7 @@
         <v>1799</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>1304</v>
       </c>
@@ -45806,7 +45824,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>1334</v>
       </c>
@@ -45841,7 +45859,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>1374</v>
       </c>
@@ -45876,7 +45894,7 @@
         <v>1802</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>1378</v>
       </c>
@@ -45911,7 +45929,7 @@
         <v>1822</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>1387</v>
       </c>
@@ -45946,7 +45964,7 @@
         <v>1386</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>1397</v>
       </c>
@@ -45981,7 +45999,7 @@
         <v>1823</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>1419</v>
       </c>
@@ -46016,7 +46034,7 @@
         <v>1803</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>1430</v>
       </c>
@@ -46051,7 +46069,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>1473</v>
       </c>
@@ -46086,7 +46104,7 @@
         <v>1472</v>
       </c>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>1479</v>
       </c>
@@ -46121,7 +46139,7 @@
         <v>1478</v>
       </c>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>1484</v>
       </c>
@@ -46156,7 +46174,7 @@
         <v>1482</v>
       </c>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>1500</v>
       </c>
@@ -46191,7 +46209,7 @@
         <v>1499</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>1522</v>
       </c>
@@ -46226,7 +46244,7 @@
         <v>1521</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>1528</v>
       </c>
@@ -46261,7 +46279,7 @@
         <v>1527</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>1533</v>
       </c>
@@ -46296,7 +46314,7 @@
         <v>1532</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>1538</v>
       </c>
@@ -46331,7 +46349,7 @@
         <v>1537</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>1540</v>
       </c>
@@ -46366,7 +46384,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>1545</v>
       </c>
@@ -46401,7 +46419,7 @@
         <v>1544</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>1549</v>
       </c>
@@ -46436,7 +46454,7 @@
         <v>1548</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>1553</v>
       </c>
@@ -46471,7 +46489,7 @@
         <v>1552</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>1571</v>
       </c>
@@ -46506,7 +46524,7 @@
         <v>1568</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>1804</v>
       </c>
@@ -46541,7 +46559,7 @@
         <v>1805</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>1808</v>
       </c>
@@ -46576,7 +46594,7 @@
         <v>1807</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>1877</v>
       </c>
@@ -46611,7 +46629,7 @@
         <v>1875</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>1906</v>
       </c>
@@ -46646,7 +46664,7 @@
         <v>1905</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>1910</v>
       </c>
@@ -46681,7 +46699,7 @@
         <v>1908</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>1969</v>
       </c>
@@ -46716,7 +46734,7 @@
         <v>1970</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>1974</v>
       </c>
@@ -46751,7 +46769,7 @@
         <v>1972</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>1975</v>
       </c>
@@ -46786,7 +46804,7 @@
         <v>1977</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>1979</v>
       </c>
@@ -46821,7 +46839,7 @@
         <v>1978</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>1984</v>
       </c>
@@ -46856,7 +46874,7 @@
         <v>1982</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>1988</v>
       </c>
@@ -46891,7 +46909,7 @@
         <v>1987</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>1992</v>
       </c>
@@ -46926,7 +46944,7 @@
         <v>1991</v>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>1993</v>
       </c>
@@ -46955,7 +46973,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>2003</v>
       </c>
@@ -46990,7 +47008,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>2010</v>
       </c>
@@ -47025,7 +47043,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>2023</v>
       </c>
@@ -47060,7 +47078,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>2026</v>
       </c>
@@ -47095,7 +47113,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>2031</v>
       </c>
@@ -47130,7 +47148,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>2051</v>
       </c>
@@ -47165,7 +47183,7 @@
         <v>2048</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>2055</v>
       </c>
@@ -47200,7 +47218,7 @@
         <v>2053</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>2058</v>
       </c>
@@ -47235,7 +47253,7 @@
         <v>2059</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>2095</v>
       </c>
@@ -47270,7 +47288,7 @@
         <v>2093</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>2099</v>
       </c>
@@ -47305,7 +47323,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>2104</v>
       </c>
@@ -47340,7 +47358,7 @@
         <v>2105</v>
       </c>
     </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>2108</v>
       </c>
@@ -47375,7 +47393,7 @@
         <v>2106</v>
       </c>
     </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>2120</v>
       </c>
@@ -47410,7 +47428,7 @@
         <v>2121</v>
       </c>
     </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>2124</v>
       </c>
@@ -47445,7 +47463,7 @@
         <v>2122</v>
       </c>
     </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>2128</v>
       </c>
@@ -47480,7 +47498,7 @@
         <v>2127</v>
       </c>
     </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>2130</v>
       </c>
@@ -47515,7 +47533,7 @@
         <v>2129</v>
       </c>
     </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>2145</v>
       </c>
@@ -47550,7 +47568,7 @@
         <v>2141</v>
       </c>
     </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>2150</v>
       </c>
@@ -47585,7 +47603,7 @@
         <v>2147</v>
       </c>
     </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>2157</v>
       </c>
@@ -47620,7 +47638,7 @@
         <v>2156</v>
       </c>
     </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>2163</v>
       </c>
@@ -47655,7 +47673,7 @@
         <v>2163</v>
       </c>
     </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>2170</v>
       </c>
@@ -47690,7 +47708,7 @@
         <v>2171</v>
       </c>
     </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>2177</v>
       </c>
@@ -47725,7 +47743,7 @@
         <v>2178</v>
       </c>
     </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>2196</v>
       </c>
@@ -47760,7 +47778,7 @@
         <v>2193</v>
       </c>
     </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>2202</v>
       </c>
@@ -47801,7 +47819,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>2206</v>
       </c>
@@ -47836,7 +47854,7 @@
         <v>2205</v>
       </c>
     </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>2210</v>
       </c>
@@ -47865,7 +47883,7 @@
         <v>2210</v>
       </c>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>2246</v>
       </c>
@@ -47900,7 +47918,7 @@
         <v>2243</v>
       </c>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>2249</v>
       </c>
@@ -47935,7 +47953,7 @@
         <v>2248</v>
       </c>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>2267</v>
       </c>
@@ -47970,7 +47988,7 @@
         <v>2266</v>
       </c>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>2280</v>
       </c>
@@ -48005,7 +48023,7 @@
         <v>2279</v>
       </c>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>2299</v>
       </c>
@@ -48040,7 +48058,7 @@
         <v>2300</v>
       </c>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>2306</v>
       </c>
@@ -48075,7 +48093,7 @@
         <v>2305</v>
       </c>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>2310</v>
       </c>
@@ -48110,7 +48128,7 @@
         <v>2307</v>
       </c>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>2313</v>
       </c>
@@ -48142,7 +48160,7 @@
         <v>2314</v>
       </c>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>2316</v>
       </c>
@@ -48174,7 +48192,7 @@
         <v>2315</v>
       </c>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>2369</v>
       </c>
@@ -48203,7 +48221,7 @@
         <v>2369</v>
       </c>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>2370</v>
       </c>
@@ -48232,7 +48250,7 @@
         <v>2370</v>
       </c>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>2371</v>
       </c>
@@ -48261,7 +48279,7 @@
         <v>2371</v>
       </c>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>2406</v>
       </c>
@@ -48296,7 +48314,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>2408</v>
       </c>
@@ -48331,7 +48349,7 @@
         <v>2409</v>
       </c>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>2412</v>
       </c>
@@ -48366,7 +48384,7 @@
         <v>2411</v>
       </c>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>2416</v>
       </c>
@@ -48401,7 +48419,7 @@
         <v>2418</v>
       </c>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>2421</v>
       </c>
@@ -48436,7 +48454,7 @@
         <v>2422</v>
       </c>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>2426</v>
       </c>
@@ -48471,7 +48489,7 @@
         <v>2424</v>
       </c>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>2449</v>
       </c>
@@ -48506,7 +48524,7 @@
         <v>2448</v>
       </c>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>2501</v>
       </c>
@@ -48538,7 +48556,7 @@
         <v>2502</v>
       </c>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>2504</v>
       </c>
@@ -48570,7 +48588,7 @@
         <v>2506</v>
       </c>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>2508</v>
       </c>
@@ -48605,7 +48623,7 @@
         <v>2511</v>
       </c>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>2546</v>
       </c>
@@ -48640,7 +48658,7 @@
         <v>2543</v>
       </c>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>2547</v>
       </c>
@@ -48663,7 +48681,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>2549</v>
       </c>
@@ -48686,7 +48704,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>2550</v>
       </c>
@@ -48709,7 +48727,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>2563</v>
       </c>
@@ -48741,7 +48759,7 @@
         <v>2562</v>
       </c>
     </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>2572</v>
       </c>
@@ -48776,7 +48794,7 @@
         <v>2574</v>
       </c>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>2580</v>
       </c>
@@ -48805,7 +48823,7 @@
         <v>2580</v>
       </c>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>2605</v>
       </c>
@@ -48840,7 +48858,7 @@
         <v>2603</v>
       </c>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>2608</v>
       </c>
@@ -48875,7 +48893,7 @@
         <v>2610</v>
       </c>
     </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>2684</v>
       </c>
@@ -48910,7 +48928,7 @@
         <v>2682</v>
       </c>
     </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>2702</v>
       </c>
@@ -48939,7 +48957,7 @@
         <v>2702</v>
       </c>
     </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>2703</v>
       </c>
@@ -48968,7 +48986,7 @@
         <v>2703</v>
       </c>
     </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>2705</v>
       </c>
@@ -48997,7 +49015,7 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>2706</v>
       </c>
@@ -49030,6 +49048,84 @@
       </c>
       <c r="L180" t="s">
         <v>2709</v>
+      </c>
+    </row>
+    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>2767</v>
+      </c>
+      <c r="B181" t="s">
+        <v>2767</v>
+      </c>
+      <c r="C181" t="s">
+        <v>2763</v>
+      </c>
+      <c r="D181" t="s">
+        <v>19</v>
+      </c>
+      <c r="E181" t="s">
+        <v>2766</v>
+      </c>
+      <c r="H181" t="s">
+        <v>20</v>
+      </c>
+      <c r="I181" t="s">
+        <v>2765</v>
+      </c>
+      <c r="J181" t="s">
+        <v>2767</v>
+      </c>
+      <c r="K181" t="s">
+        <v>17</v>
+      </c>
+      <c r="L181" t="s">
+        <v>2764</v>
+      </c>
+    </row>
+    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>2769</v>
+      </c>
+      <c r="B182" t="s">
+        <v>2769</v>
+      </c>
+      <c r="C182" t="s">
+        <v>2770</v>
+      </c>
+      <c r="D182" t="s">
+        <v>19</v>
+      </c>
+      <c r="H182" t="s">
+        <v>20</v>
+      </c>
+      <c r="I182" t="s">
+        <v>2768</v>
+      </c>
+      <c r="J182" t="s">
+        <v>2769</v>
+      </c>
+    </row>
+    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>2771</v>
+      </c>
+      <c r="B183" t="s">
+        <v>2771</v>
+      </c>
+      <c r="C183" t="s">
+        <v>2771</v>
+      </c>
+      <c r="D183" t="s">
+        <v>19</v>
+      </c>
+      <c r="H183" t="s">
+        <v>20</v>
+      </c>
+      <c r="I183" t="s">
+        <v>2727</v>
+      </c>
+      <c r="J183" t="s">
+        <v>2771</v>
       </c>
     </row>
   </sheetData>
@@ -49052,25 +49148,25 @@
       <selection pane="bottomLeft" activeCell="E68" sqref="E68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="32.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="79.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="35.26953125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.54296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="30.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="32.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="79.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="30.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="34.1796875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="34.140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="24.54296875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="24.5703125" bestFit="1" customWidth="1"/>
     <col min="15" max="1025" width="9" style="20" customWidth="1"/>
-    <col min="1026" max="16384" width="8.81640625" style="20"/>
+    <col min="1026" max="16384" width="8.85546875" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="9" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" s="9" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -49114,7 +49210,7 @@
         <v>1831</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>84</v>
       </c>
@@ -49149,7 +49245,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>122</v>
       </c>
@@ -49175,7 +49271,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>430</v>
       </c>
@@ -49210,7 +49306,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>518</v>
       </c>
@@ -49236,7 +49332,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>457</v>
       </c>
@@ -49262,7 +49358,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>463</v>
       </c>
@@ -49297,7 +49393,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>468</v>
       </c>
@@ -49332,7 +49428,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>766</v>
       </c>
@@ -49367,7 +49463,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>646</v>
       </c>
@@ -49402,7 +49498,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>741</v>
       </c>
@@ -49431,7 +49527,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>744</v>
       </c>
@@ -49466,7 +49562,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>755</v>
       </c>
@@ -49501,7 +49597,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>772</v>
       </c>
@@ -49536,7 +49632,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>796</v>
       </c>
@@ -49571,7 +49667,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>797</v>
       </c>
@@ -49606,7 +49702,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>818</v>
       </c>
@@ -49647,7 +49743,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>827</v>
       </c>
@@ -49682,7 +49778,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>828</v>
       </c>
@@ -49717,7 +49813,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>831</v>
       </c>
@@ -49752,7 +49848,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>974</v>
       </c>
@@ -49787,7 +49883,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>1165</v>
       </c>
@@ -49822,7 +49918,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>1213</v>
       </c>
@@ -49848,7 +49944,7 @@
         <v>1213</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>1214</v>
       </c>
@@ -49874,7 +49970,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>1492</v>
       </c>
@@ -49900,7 +49996,7 @@
         <v>1492</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>1266</v>
       </c>
@@ -49920,7 +50016,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>1269</v>
       </c>
@@ -49955,7 +50051,7 @@
         <v>1268</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>1274</v>
       </c>
@@ -49990,7 +50086,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>1439</v>
       </c>
@@ -50016,7 +50112,7 @@
         <v>1439</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>1494</v>
       </c>
@@ -50042,7 +50138,7 @@
         <v>1494</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>1577</v>
       </c>
@@ -50068,7 +50164,7 @@
         <v>1577</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>1824</v>
       </c>
@@ -50103,7 +50199,7 @@
         <v>1825</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>1826</v>
       </c>
@@ -50138,7 +50234,7 @@
         <v>1827</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>1926</v>
       </c>
@@ -50173,7 +50269,7 @@
         <v>1928</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>2034</v>
       </c>
@@ -50208,7 +50304,7 @@
         <v>2037</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>2040</v>
       </c>
@@ -50243,7 +50339,7 @@
         <v>2039</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>2110</v>
       </c>
@@ -50278,7 +50374,7 @@
         <v>2111</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>2154</v>
       </c>
@@ -50313,7 +50409,7 @@
         <v>2153</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>2186</v>
       </c>
@@ -50348,7 +50444,7 @@
         <v>2184</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>2190</v>
       </c>
@@ -50371,7 +50467,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>2215</v>
       </c>
@@ -50406,7 +50502,7 @@
         <v>2214</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>2272</v>
       </c>
@@ -50441,7 +50537,7 @@
         <v>2273</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>2275</v>
       </c>
@@ -50476,7 +50572,7 @@
         <v>2277</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>2292</v>
       </c>
@@ -50517,7 +50613,7 @@
         <v>2321</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>2330</v>
       </c>
@@ -50552,7 +50648,7 @@
         <v>2329</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>2327</v>
       </c>
@@ -50587,7 +50683,7 @@
         <v>2326</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>2340</v>
       </c>
@@ -50622,7 +50718,7 @@
         <v>2341</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>2346</v>
       </c>
@@ -50657,7 +50753,7 @@
         <v>2345</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>2350</v>
       </c>
@@ -50692,7 +50788,7 @@
         <v>2351</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>2354</v>
       </c>
@@ -50727,7 +50823,7 @@
         <v>2353</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>2357</v>
       </c>
@@ -50762,7 +50858,7 @@
         <v>2360</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>2363</v>
       </c>
@@ -50797,7 +50893,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>2366</v>
       </c>
@@ -50832,7 +50928,7 @@
         <v>2368</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>2374</v>
       </c>
@@ -50855,7 +50951,7 @@
         <v>2374</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>2392</v>
       </c>
@@ -50890,7 +50986,7 @@
         <v>2393</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>2395</v>
       </c>
@@ -50925,7 +51021,7 @@
         <v>2394</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>2455</v>
       </c>
@@ -50960,7 +51056,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>2474</v>
       </c>
@@ -50995,7 +51091,7 @@
         <v>2472</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>2498</v>
       </c>
@@ -51027,7 +51123,7 @@
         <v>2499</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>2523</v>
       </c>
@@ -51062,7 +51158,7 @@
         <v>2525</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>2529</v>
       </c>
@@ -51094,7 +51190,7 @@
         <v>2530</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>2533</v>
       </c>
@@ -51120,7 +51216,7 @@
         <v>2533</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>2536</v>
       </c>
@@ -51155,7 +51251,7 @@
         <v>2537</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>2576</v>
       </c>
@@ -51187,7 +51283,7 @@
         <v>2575</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>2589</v>
       </c>
@@ -51219,7 +51315,7 @@
         <v>2588</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>2593</v>
       </c>
@@ -51251,7 +51347,7 @@
         <v>2591</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>2637</v>
       </c>
@@ -51286,7 +51382,7 @@
         <v>2636</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>2640</v>
       </c>
@@ -51321,7 +51417,7 @@
         <v>2635</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>2676</v>
       </c>
@@ -51353,7 +51449,7 @@
         <v>2675</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>2697</v>
       </c>
@@ -51385,7 +51481,7 @@
         <v>2696</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>2700</v>
       </c>
@@ -51417,7 +51513,7 @@
         <v>2701</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>2712</v>
       </c>
@@ -51483,23 +51579,23 @@
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="49.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="49.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.26953125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="28.7265625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="49.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="49.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="24.7265625" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.81640625" style="20"/>
+    <col min="12" max="12" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.85546875" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="9" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" s="9" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -51537,7 +51633,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>71</v>
       </c>
@@ -51572,7 +51668,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>91</v>
       </c>
@@ -51607,7 +51703,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>724</v>
       </c>
@@ -51642,7 +51738,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>730</v>
       </c>
@@ -51677,7 +51773,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>803</v>
       </c>
@@ -51703,7 +51799,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>964</v>
       </c>
@@ -51738,7 +51834,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>968</v>
       </c>
@@ -51773,7 +51869,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>1159</v>
       </c>
@@ -51808,7 +51904,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>1220</v>
       </c>
@@ -51843,7 +51939,7 @@
         <v>1219</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>1328</v>
       </c>
@@ -51878,7 +51974,7 @@
         <v>1821</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>1890</v>
       </c>
@@ -51904,7 +52000,7 @@
         <v>1890</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>1894</v>
       </c>
@@ -51930,7 +52026,7 @@
         <v>1894</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>1896</v>
       </c>
@@ -51965,7 +52061,7 @@
         <v>1895</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>2754</v>
       </c>
@@ -52014,24 +52110,24 @@
       <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.26953125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="29.26953125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="30.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="30.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="24.7265625" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.81640625" style="20"/>
+    <col min="12" max="12" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.85546875" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="10" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" s="10" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -52069,7 +52165,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>117</v>
       </c>
@@ -52086,7 +52182,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>118</v>
       </c>
@@ -52103,7 +52199,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>119</v>
       </c>
@@ -52120,7 +52216,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>522</v>
       </c>
@@ -52155,7 +52251,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>528</v>
       </c>
@@ -52190,7 +52286,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>957</v>
       </c>
@@ -52225,7 +52321,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>1168</v>
       </c>
@@ -52260,7 +52356,7 @@
         <v>1819</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>1236</v>
       </c>
@@ -52292,7 +52388,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>1887</v>
       </c>
@@ -52327,7 +52423,7 @@
         <v>1886</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>2335</v>
       </c>
@@ -52362,7 +52458,7 @@
         <v>2336</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>2398</v>
       </c>
@@ -52397,7 +52493,7 @@
         <v>2397</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>2489</v>
       </c>
@@ -52429,7 +52525,7 @@
         <v>2490</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>2492</v>
       </c>

--- a/Altium/DB.xlsx
+++ b/Altium/DB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Repos\LIBS\Altium\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55EA8000-6898-4DF0-9817-89B29A2B056B}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF259C25-5DBE-4975-9C9C-45B940ECA80E}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4560" yWindow="4560" windowWidth="31515" windowHeight="16005" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4560" yWindow="4560" windowWidth="31515" windowHeight="16005" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="C" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8069" uniqueCount="2772">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8079" uniqueCount="2775">
   <si>
     <t>Part Number</t>
   </si>
@@ -8349,6 +8349,15 @@
   </si>
   <si>
     <t>ES7149</t>
+  </si>
+  <si>
+    <t>BUZZER PIEZO 1.5V 22MM TH</t>
+  </si>
+  <si>
+    <t>490-7032-ND</t>
+  </si>
+  <si>
+    <t>PKM22EPPH4012-B0</t>
   </si>
 </sst>
 </file>
@@ -42795,7 +42804,7 @@
   </sheetPr>
   <dimension ref="A1:N183"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A143" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="J183" sqref="J183"/>
     </sheetView>
@@ -51573,25 +51582,25 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C27D7CC1-13F7-4412-A8F6-6AC235ABFCA9}">
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="49.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="28.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="49.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="49.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="49.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="8.85546875" style="20"/>
   </cols>
   <sheetData>
@@ -52094,6 +52103,38 @@
       </c>
       <c r="L15" t="s">
         <v>2755</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>2774</v>
+      </c>
+      <c r="B16" t="s">
+        <v>2774</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1897</v>
+      </c>
+      <c r="D16" t="s">
+        <v>531</v>
+      </c>
+      <c r="E16" t="s">
+        <v>2772</v>
+      </c>
+      <c r="H16" t="s">
+        <v>20</v>
+      </c>
+      <c r="I16" t="s">
+        <v>503</v>
+      </c>
+      <c r="J16" t="s">
+        <v>2774</v>
+      </c>
+      <c r="K16" t="s">
+        <v>17</v>
+      </c>
+      <c r="L16" t="s">
+        <v>2773</v>
       </c>
     </row>
   </sheetData>

--- a/Altium/DB.xlsx
+++ b/Altium/DB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Repos\LIBS\Altium\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF259C25-5DBE-4975-9C9C-45B940ECA80E}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9CF250A-8B0A-4915-9BA3-B3A0E83DB1EA}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4560" yWindow="4560" windowWidth="31515" windowHeight="16005" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8079" uniqueCount="2775">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8099" uniqueCount="2783">
   <si>
     <t>Part Number</t>
   </si>
@@ -8358,6 +8358,30 @@
   </si>
   <si>
     <t>PKM22EPPH4012-B0</t>
+  </si>
+  <si>
+    <t>495-2401-ND</t>
+  </si>
+  <si>
+    <t>EPCOS - TDK Electronics</t>
+  </si>
+  <si>
+    <t>B72214S0300K101</t>
+  </si>
+  <si>
+    <t>VARISTOR 47V 1KA DISC 14MM</t>
+  </si>
+  <si>
+    <t>Resistor_VAR</t>
+  </si>
+  <si>
+    <t>36-3557-2-ND</t>
+  </si>
+  <si>
+    <t>FUSE BLOCK BLADE 500V 30A PCB</t>
+  </si>
+  <si>
+    <t>3557-2</t>
   </si>
 </sst>
 </file>
@@ -51582,10 +51606,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C27D7CC1-13F7-4412-A8F6-6AC235ABFCA9}">
-  <dimension ref="A1:L16"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -52135,6 +52159,70 @@
       </c>
       <c r="L16" t="s">
         <v>2773</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>2777</v>
+      </c>
+      <c r="B17" t="s">
+        <v>2777</v>
+      </c>
+      <c r="C17" t="s">
+        <v>2779</v>
+      </c>
+      <c r="D17" t="s">
+        <v>531</v>
+      </c>
+      <c r="E17" t="s">
+        <v>2778</v>
+      </c>
+      <c r="H17" t="s">
+        <v>20</v>
+      </c>
+      <c r="I17" t="s">
+        <v>2776</v>
+      </c>
+      <c r="J17" t="s">
+        <v>2777</v>
+      </c>
+      <c r="K17" t="s">
+        <v>17</v>
+      </c>
+      <c r="L17" t="s">
+        <v>2775</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>2782</v>
+      </c>
+      <c r="B18" t="s">
+        <v>2782</v>
+      </c>
+      <c r="C18" t="s">
+        <v>729</v>
+      </c>
+      <c r="D18" t="s">
+        <v>531</v>
+      </c>
+      <c r="E18" t="s">
+        <v>2781</v>
+      </c>
+      <c r="H18" t="s">
+        <v>20</v>
+      </c>
+      <c r="I18" t="s">
+        <v>1238</v>
+      </c>
+      <c r="J18" t="s">
+        <v>2782</v>
+      </c>
+      <c r="K18" t="s">
+        <v>17</v>
+      </c>
+      <c r="L18" t="s">
+        <v>2780</v>
       </c>
     </row>
   </sheetData>

--- a/Altium/DB.xlsx
+++ b/Altium/DB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Repos\LIBS\Altium\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9CF250A-8B0A-4915-9BA3-B3A0E83DB1EA}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74B5407A-73CE-4247-94F4-218BB5128CF6}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4560" yWindow="4560" windowWidth="31515" windowHeight="16005" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4560" yWindow="4560" windowWidth="31515" windowHeight="16005" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="C" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8099" uniqueCount="2783">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8105" uniqueCount="2785">
   <si>
     <t>Part Number</t>
   </si>
@@ -8382,6 +8382,12 @@
   </si>
   <si>
     <t>3557-2</t>
+  </si>
+  <si>
+    <t>SC8001QDER</t>
+  </si>
+  <si>
+    <t>SC8001</t>
   </si>
 </sst>
 </file>
@@ -42826,11 +42832,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N183"/>
+  <dimension ref="A1:N184"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A143" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J183" sqref="J183"/>
+      <selection pane="bottomLeft" activeCell="C194" sqref="C194"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -49159,6 +49165,26 @@
       </c>
       <c r="J183" t="s">
         <v>2771</v>
+      </c>
+    </row>
+    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>2783</v>
+      </c>
+      <c r="B184" t="s">
+        <v>2784</v>
+      </c>
+      <c r="C184" t="s">
+        <v>2784</v>
+      </c>
+      <c r="D184" t="s">
+        <v>19</v>
+      </c>
+      <c r="H184" t="s">
+        <v>20</v>
+      </c>
+      <c r="J184" t="s">
+        <v>2783</v>
       </c>
     </row>
   </sheetData>
@@ -51608,7 +51634,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C27D7CC1-13F7-4412-A8F6-6AC235ABFCA9}">
   <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>

--- a/Altium/DB.xlsx
+++ b/Altium/DB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Repos\LIBS\Altium\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74B5407A-73CE-4247-94F4-218BB5128CF6}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDBB7001-1245-4869-93F6-5BCD8A948CC0}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4560" yWindow="4560" windowWidth="31515" windowHeight="16005" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8105" uniqueCount="2785">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8115" uniqueCount="2789">
   <si>
     <t>Part Number</t>
   </si>
@@ -8388,6 +8388,18 @@
   </si>
   <si>
     <t>SC8001</t>
+  </si>
+  <si>
+    <t>296-TPS3899DL15DSERCT-ND</t>
+  </si>
+  <si>
+    <t>TPS3899DL15DSER</t>
+  </si>
+  <si>
+    <t>TPS3899</t>
+  </si>
+  <si>
+    <t>NANOPOWER SUPERVISOR WITH PROGRA</t>
   </si>
 </sst>
 </file>
@@ -42832,11 +42844,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N184"/>
+  <dimension ref="A1:N185"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A143" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C194" sqref="C194"/>
+      <pane ySplit="1" topLeftCell="A167" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J185" sqref="J185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -49185,6 +49197,38 @@
       </c>
       <c r="J184" t="s">
         <v>2783</v>
+      </c>
+    </row>
+    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>2786</v>
+      </c>
+      <c r="B185" t="s">
+        <v>2786</v>
+      </c>
+      <c r="C185" t="s">
+        <v>2787</v>
+      </c>
+      <c r="D185" t="s">
+        <v>19</v>
+      </c>
+      <c r="E185" t="s">
+        <v>2788</v>
+      </c>
+      <c r="H185" t="s">
+        <v>20</v>
+      </c>
+      <c r="I185" t="s">
+        <v>67</v>
+      </c>
+      <c r="J185" t="s">
+        <v>2786</v>
+      </c>
+      <c r="K185" t="s">
+        <v>17</v>
+      </c>
+      <c r="L185" t="s">
+        <v>2785</v>
       </c>
     </row>
   </sheetData>

--- a/Altium/DB.xlsx
+++ b/Altium/DB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Repos\LIBS\Altium\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDBB7001-1245-4869-93F6-5BCD8A948CC0}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C25DA75-3623-4815-90DB-D14C58562BBD}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4560" yWindow="4560" windowWidth="31515" windowHeight="16005" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8115" uniqueCount="2789">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8175" uniqueCount="2810">
   <si>
     <t>Part Number</t>
   </si>
@@ -8400,6 +8400,69 @@
   </si>
   <si>
     <t>NANOPOWER SUPERVISOR WITH PROGRA</t>
+  </si>
+  <si>
+    <t>NCV8170</t>
+  </si>
+  <si>
+    <t>T85F324Cx</t>
+  </si>
+  <si>
+    <t>W25Q02JVTBIM</t>
+  </si>
+  <si>
+    <t>W25Q128JVSIQ</t>
+  </si>
+  <si>
+    <t>W25Q128JVSIQ-ND</t>
+  </si>
+  <si>
+    <t>IC FLASH 128MBIT SPI/QUAD 8SOIC</t>
+  </si>
+  <si>
+    <t>IC FLASH 2GBIT SPI/QUAD 24TFBGA</t>
+  </si>
+  <si>
+    <t>256-W25Q02JVTBIM-ND</t>
+  </si>
+  <si>
+    <t>2134-T85F324C3-ND</t>
+  </si>
+  <si>
+    <t>T85F324C3</t>
+  </si>
+  <si>
+    <t>IC FPGA 130 I/O 324FBGA</t>
+  </si>
+  <si>
+    <t>488-NCV8170BXV180T2GCT-ND</t>
+  </si>
+  <si>
+    <t>IC REG LIN 1.8V 150MA SOT563-6</t>
+  </si>
+  <si>
+    <t>NCV8170BXV180T2G</t>
+  </si>
+  <si>
+    <t>488-NCV8170BXV250T2GCT-ND</t>
+  </si>
+  <si>
+    <t>NCV8170BXV250T2G</t>
+  </si>
+  <si>
+    <t>IC REG LIN 2.5V 150MA SOT563-6</t>
+  </si>
+  <si>
+    <t>MP2316</t>
+  </si>
+  <si>
+    <t>IC REG BUCK ADJUSTABLE 3A 14QFN</t>
+  </si>
+  <si>
+    <t>MP2316GD-Z</t>
+  </si>
+  <si>
+    <t>1589-1579-1-ND</t>
   </si>
 </sst>
 </file>
@@ -42844,11 +42907,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N185"/>
+  <dimension ref="A1:N191"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A167" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J185" sqref="J185"/>
+      <pane ySplit="1" topLeftCell="A161" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B197" sqref="B197"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -49229,6 +49292,198 @@
       </c>
       <c r="L185" t="s">
         <v>2785</v>
+      </c>
+    </row>
+    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>2802</v>
+      </c>
+      <c r="B186" t="s">
+        <v>2802</v>
+      </c>
+      <c r="C186" t="s">
+        <v>2789</v>
+      </c>
+      <c r="D186" t="s">
+        <v>19</v>
+      </c>
+      <c r="E186" t="s">
+        <v>2801</v>
+      </c>
+      <c r="H186" t="s">
+        <v>20</v>
+      </c>
+      <c r="I186" t="s">
+        <v>2544</v>
+      </c>
+      <c r="J186" t="s">
+        <v>2802</v>
+      </c>
+      <c r="K186" t="s">
+        <v>17</v>
+      </c>
+      <c r="L186" t="s">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>2804</v>
+      </c>
+      <c r="B187" t="s">
+        <v>2804</v>
+      </c>
+      <c r="C187" t="s">
+        <v>2789</v>
+      </c>
+      <c r="D187" t="s">
+        <v>19</v>
+      </c>
+      <c r="E187" t="s">
+        <v>2805</v>
+      </c>
+      <c r="H187" t="s">
+        <v>20</v>
+      </c>
+      <c r="I187" t="s">
+        <v>2544</v>
+      </c>
+      <c r="J187" t="s">
+        <v>2804</v>
+      </c>
+      <c r="K187" t="s">
+        <v>17</v>
+      </c>
+      <c r="L187" t="s">
+        <v>2803</v>
+      </c>
+    </row>
+    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>2798</v>
+      </c>
+      <c r="B188" t="s">
+        <v>2798</v>
+      </c>
+      <c r="C188" t="s">
+        <v>2790</v>
+      </c>
+      <c r="D188" t="s">
+        <v>19</v>
+      </c>
+      <c r="E188" t="s">
+        <v>2799</v>
+      </c>
+      <c r="H188" t="s">
+        <v>20</v>
+      </c>
+      <c r="I188" t="s">
+        <v>2192</v>
+      </c>
+      <c r="J188" t="s">
+        <v>2798</v>
+      </c>
+      <c r="K188" t="s">
+        <v>17</v>
+      </c>
+      <c r="L188" t="s">
+        <v>2797</v>
+      </c>
+    </row>
+    <row r="189" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>2791</v>
+      </c>
+      <c r="B189" t="s">
+        <v>2791</v>
+      </c>
+      <c r="C189" t="s">
+        <v>2791</v>
+      </c>
+      <c r="D189" t="s">
+        <v>19</v>
+      </c>
+      <c r="E189" t="s">
+        <v>2795</v>
+      </c>
+      <c r="H189" t="s">
+        <v>20</v>
+      </c>
+      <c r="I189" t="s">
+        <v>2201</v>
+      </c>
+      <c r="J189" t="s">
+        <v>2791</v>
+      </c>
+      <c r="K189" t="s">
+        <v>17</v>
+      </c>
+      <c r="L189" t="s">
+        <v>2796</v>
+      </c>
+    </row>
+    <row r="190" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>2792</v>
+      </c>
+      <c r="B190" t="s">
+        <v>2792</v>
+      </c>
+      <c r="C190" t="s">
+        <v>2792</v>
+      </c>
+      <c r="D190" t="s">
+        <v>19</v>
+      </c>
+      <c r="E190" t="s">
+        <v>2794</v>
+      </c>
+      <c r="H190" t="s">
+        <v>20</v>
+      </c>
+      <c r="I190" t="s">
+        <v>2201</v>
+      </c>
+      <c r="J190" t="s">
+        <v>2792</v>
+      </c>
+      <c r="K190" t="s">
+        <v>17</v>
+      </c>
+      <c r="L190" t="s">
+        <v>2793</v>
+      </c>
+    </row>
+    <row r="191" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>2808</v>
+      </c>
+      <c r="B191" t="s">
+        <v>2808</v>
+      </c>
+      <c r="C191" t="s">
+        <v>2806</v>
+      </c>
+      <c r="D191" t="s">
+        <v>19</v>
+      </c>
+      <c r="E191" t="s">
+        <v>2807</v>
+      </c>
+      <c r="H191" t="s">
+        <v>20</v>
+      </c>
+      <c r="I191" t="s">
+        <v>2049</v>
+      </c>
+      <c r="J191" t="s">
+        <v>2808</v>
+      </c>
+      <c r="K191" t="s">
+        <v>17</v>
+      </c>
+      <c r="L191" t="s">
+        <v>2809</v>
       </c>
     </row>
   </sheetData>

--- a/Altium/DB.xlsx
+++ b/Altium/DB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Repos\LIBS\Altium\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C25DA75-3623-4815-90DB-D14C58562BBD}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A93C061D-83EF-4290-918F-B368AA557745}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4560" yWindow="4560" windowWidth="31515" windowHeight="16005" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4560" yWindow="4560" windowWidth="31515" windowHeight="16005" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="C" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8175" uniqueCount="2810">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8344" uniqueCount="2863">
   <si>
     <t>Part Number</t>
   </si>
@@ -8463,6 +8463,165 @@
   </si>
   <si>
     <t>1589-1579-1-ND</t>
+  </si>
+  <si>
+    <t>785-1581-1-ND</t>
+  </si>
+  <si>
+    <t>AON7410</t>
+  </si>
+  <si>
+    <t>MOSFET N-CH 30V 9.5A/24A 8DFN</t>
+  </si>
+  <si>
+    <t>TPS6267x</t>
+  </si>
+  <si>
+    <t>296-52810-1-ND</t>
+  </si>
+  <si>
+    <t>TPS62671YFDR</t>
+  </si>
+  <si>
+    <t>IC REG BUCK 1.8V 500MA 6DSBGA</t>
+  </si>
+  <si>
+    <t>587-MCHK1608TR47MKNCT-ND</t>
+  </si>
+  <si>
+    <t>MCHK1608TR47MKN</t>
+  </si>
+  <si>
+    <t>FIXED IND 470NH 2.7A 43MOHM SMD</t>
+  </si>
+  <si>
+    <t>43mOhm</t>
+  </si>
+  <si>
+    <t>W978H6KBVX2E</t>
+  </si>
+  <si>
+    <t>W978H6KBVX2E-ND</t>
+  </si>
+  <si>
+    <t>IC DRAM 256MBIT PAR 134VFBGA</t>
+  </si>
+  <si>
+    <t>5P49V5901</t>
+  </si>
+  <si>
+    <t>800-3412-ND</t>
+  </si>
+  <si>
+    <t>5P49V5901B000NLGI</t>
+  </si>
+  <si>
+    <t>IC CLOCK GENERATOR 24VFQFPN</t>
+  </si>
+  <si>
+    <t>296-49511-1-ND</t>
+  </si>
+  <si>
+    <t>TPS62148RGXT</t>
+  </si>
+  <si>
+    <t>IC REG BUCK ADJUSTABLE 2A 11VQFN</t>
+  </si>
+  <si>
+    <t>TPS62148</t>
+  </si>
+  <si>
+    <t>490-LQW32FT2R2M0HLCT-ND</t>
+  </si>
+  <si>
+    <t>190mOhm</t>
+  </si>
+  <si>
+    <t>FIXED IND 2.2UH 1000MA 1210 20%</t>
+  </si>
+  <si>
+    <t>LQW32FT2R2M0HL</t>
+  </si>
+  <si>
+    <t>1.6Ohm</t>
+  </si>
+  <si>
+    <t>150mA</t>
+  </si>
+  <si>
+    <t>490-5626-1-ND</t>
+  </si>
+  <si>
+    <t>BLM03HG601SN1D</t>
+  </si>
+  <si>
+    <t>FERRITE BEAD 600 OHM 0201 1LN</t>
+  </si>
+  <si>
+    <t>600 Ohms @ 100 MHz</t>
+  </si>
+  <si>
+    <t>311-33.0MCT-ND</t>
+  </si>
+  <si>
+    <t>RC0201FR-0733RL</t>
+  </si>
+  <si>
+    <t>RES 33 OHM 1% 1/20W 0201</t>
+  </si>
+  <si>
+    <t>XC3065CT-ND</t>
+  </si>
+  <si>
+    <t>ECS-250-10-37B-CTN-TR</t>
+  </si>
+  <si>
+    <t>CRYSTAL 25.0000MHZ 10PF SMD</t>
+  </si>
+  <si>
+    <t>90.9k</t>
+  </si>
+  <si>
+    <t>311-12.0KMCT-ND</t>
+  </si>
+  <si>
+    <t>RES 12K OHM 1% 1/20W 0201</t>
+  </si>
+  <si>
+    <t>RC0201FR-0712KL</t>
+  </si>
+  <si>
+    <t>RES 90.9K OHM 1% 1/20W 0201</t>
+  </si>
+  <si>
+    <t>YAG2838CT-ND</t>
+  </si>
+  <si>
+    <t>RC0201FR-0790K9L</t>
+  </si>
+  <si>
+    <t>Connector P60</t>
+  </si>
+  <si>
+    <t>H11130CT-ND</t>
+  </si>
+  <si>
+    <t>DF17(2.0)-40DP-0.5V(57)</t>
+  </si>
+  <si>
+    <t>DF17(4.0)-50DS-0.5V(57)</t>
+  </si>
+  <si>
+    <t>H11117CT-ND</t>
+  </si>
+  <si>
+    <t>CONN RCPT 60POS SMD GOLD</t>
+  </si>
+  <si>
+    <t>DF17(4.0)-60DS-0.5V(57)</t>
+  </si>
+  <si>
+    <t>H11118CT-ND</t>
   </si>
 </sst>
 </file>
@@ -31553,11 +31712,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N172"/>
+  <dimension ref="A1:N175"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A151" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N172" sqref="N172"/>
+      <pane ySplit="1" topLeftCell="A136" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J185" sqref="J185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31566,8 +31725,8 @@
     <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="6.7109375" style="5" bestFit="1" customWidth="1"/>
@@ -38629,6 +38788,129 @@
         <v>2762</v>
       </c>
     </row>
+    <row r="173" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>2843</v>
+      </c>
+      <c r="B173" t="s">
+        <v>11</v>
+      </c>
+      <c r="C173" t="s">
+        <v>56</v>
+      </c>
+      <c r="D173" t="s">
+        <v>531</v>
+      </c>
+      <c r="E173" t="s">
+        <v>2844</v>
+      </c>
+      <c r="F173" t="s">
+        <v>1009</v>
+      </c>
+      <c r="H173" t="s">
+        <v>20</v>
+      </c>
+      <c r="I173" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="J173" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K173" t="s">
+        <v>55</v>
+      </c>
+      <c r="L173" t="s">
+        <v>2843</v>
+      </c>
+      <c r="M173" t="s">
+        <v>17</v>
+      </c>
+      <c r="N173" t="s">
+        <v>2842</v>
+      </c>
+    </row>
+    <row r="174" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>2854</v>
+      </c>
+      <c r="B174" t="s">
+        <v>11</v>
+      </c>
+      <c r="C174" t="s">
+        <v>56</v>
+      </c>
+      <c r="D174" t="s">
+        <v>531</v>
+      </c>
+      <c r="E174" t="s">
+        <v>2852</v>
+      </c>
+      <c r="F174" t="s">
+        <v>1009</v>
+      </c>
+      <c r="H174" t="s">
+        <v>20</v>
+      </c>
+      <c r="I174" s="5" t="s">
+        <v>2848</v>
+      </c>
+      <c r="J174" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K174" t="s">
+        <v>55</v>
+      </c>
+      <c r="L174" t="s">
+        <v>2854</v>
+      </c>
+      <c r="M174" t="s">
+        <v>17</v>
+      </c>
+      <c r="N174" t="s">
+        <v>2853</v>
+      </c>
+    </row>
+    <row r="175" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>2851</v>
+      </c>
+      <c r="B175" t="s">
+        <v>11</v>
+      </c>
+      <c r="C175" t="s">
+        <v>56</v>
+      </c>
+      <c r="D175" t="s">
+        <v>531</v>
+      </c>
+      <c r="E175" t="s">
+        <v>2850</v>
+      </c>
+      <c r="F175" t="s">
+        <v>1009</v>
+      </c>
+      <c r="H175" t="s">
+        <v>20</v>
+      </c>
+      <c r="I175" s="5" t="s">
+        <v>1486</v>
+      </c>
+      <c r="J175" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K175" t="s">
+        <v>55</v>
+      </c>
+      <c r="L175" t="s">
+        <v>2851</v>
+      </c>
+      <c r="M175" t="s">
+        <v>17</v>
+      </c>
+      <c r="N175" t="s">
+        <v>2849</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -38642,10 +38924,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O36"/>
+  <dimension ref="A1:O39"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F42" sqref="F42"/>
+      <selection activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -40236,6 +40518,129 @@
         <v>2749</v>
       </c>
     </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>2818</v>
+      </c>
+      <c r="B37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37" t="s">
+        <v>50</v>
+      </c>
+      <c r="D37" t="s">
+        <v>531</v>
+      </c>
+      <c r="E37" t="s">
+        <v>2819</v>
+      </c>
+      <c r="H37" t="s">
+        <v>20</v>
+      </c>
+      <c r="I37" t="s">
+        <v>1028</v>
+      </c>
+      <c r="J37" t="s">
+        <v>60</v>
+      </c>
+      <c r="K37" t="s">
+        <v>2820</v>
+      </c>
+      <c r="L37" t="s">
+        <v>2625</v>
+      </c>
+      <c r="M37" s="3" t="s">
+        <v>2818</v>
+      </c>
+      <c r="N37" t="s">
+        <v>17</v>
+      </c>
+      <c r="O37" t="s">
+        <v>2817</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>2835</v>
+      </c>
+      <c r="B38" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38" t="s">
+        <v>50</v>
+      </c>
+      <c r="D38" t="s">
+        <v>531</v>
+      </c>
+      <c r="E38" t="s">
+        <v>2834</v>
+      </c>
+      <c r="H38" t="s">
+        <v>20</v>
+      </c>
+      <c r="I38" t="s">
+        <v>503</v>
+      </c>
+      <c r="J38" t="s">
+        <v>1285</v>
+      </c>
+      <c r="K38" t="s">
+        <v>2833</v>
+      </c>
+      <c r="L38" t="s">
+        <v>784</v>
+      </c>
+      <c r="M38" s="3" t="s">
+        <v>2835</v>
+      </c>
+      <c r="N38" t="s">
+        <v>17</v>
+      </c>
+      <c r="O38" t="s">
+        <v>2832</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>2839</v>
+      </c>
+      <c r="B39" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39" t="s">
+        <v>2224</v>
+      </c>
+      <c r="D39" t="s">
+        <v>531</v>
+      </c>
+      <c r="E39" t="s">
+        <v>2840</v>
+      </c>
+      <c r="H39" t="s">
+        <v>20</v>
+      </c>
+      <c r="I39" t="s">
+        <v>503</v>
+      </c>
+      <c r="J39" t="s">
+        <v>2841</v>
+      </c>
+      <c r="K39" t="s">
+        <v>2836</v>
+      </c>
+      <c r="L39" t="s">
+        <v>2837</v>
+      </c>
+      <c r="M39" s="3" t="s">
+        <v>2839</v>
+      </c>
+      <c r="N39" t="s">
+        <v>17</v>
+      </c>
+      <c r="O39" t="s">
+        <v>2838</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -40249,10 +40654,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M14"/>
+  <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -40809,6 +41214,41 @@
         <v>2600</v>
       </c>
     </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>2846</v>
+      </c>
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" t="s">
+        <v>415</v>
+      </c>
+      <c r="D15" t="s">
+        <v>531</v>
+      </c>
+      <c r="E15" t="s">
+        <v>2847</v>
+      </c>
+      <c r="H15" t="s">
+        <v>20</v>
+      </c>
+      <c r="I15" t="s">
+        <v>2286</v>
+      </c>
+      <c r="J15" t="s">
+        <v>419</v>
+      </c>
+      <c r="K15" t="s">
+        <v>2846</v>
+      </c>
+      <c r="L15" t="s">
+        <v>17</v>
+      </c>
+      <c r="M15" t="s">
+        <v>2845</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -40822,10 +41262,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L60"/>
+  <dimension ref="A1:L61"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E66" sqref="E66"/>
+    <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A62" sqref="A62:L62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -42894,6 +43334,38 @@
         <v>2744</v>
       </c>
     </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>2811</v>
+      </c>
+      <c r="B61" t="s">
+        <v>2811</v>
+      </c>
+      <c r="C61" t="s">
+        <v>2678</v>
+      </c>
+      <c r="D61" t="s">
+        <v>531</v>
+      </c>
+      <c r="E61" t="s">
+        <v>2812</v>
+      </c>
+      <c r="H61" t="s">
+        <v>20</v>
+      </c>
+      <c r="I61" t="s">
+        <v>2479</v>
+      </c>
+      <c r="J61" t="s">
+        <v>2811</v>
+      </c>
+      <c r="K61" t="s">
+        <v>17</v>
+      </c>
+      <c r="L61" t="s">
+        <v>2810</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -42907,11 +43379,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N191"/>
+  <dimension ref="A1:N195"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A161" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B197" sqref="B197"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A151" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C203" sqref="C203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -49486,6 +49958,134 @@
         <v>2809</v>
       </c>
     </row>
+    <row r="192" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>2815</v>
+      </c>
+      <c r="B192" t="s">
+        <v>2815</v>
+      </c>
+      <c r="C192" t="s">
+        <v>2813</v>
+      </c>
+      <c r="D192" t="s">
+        <v>19</v>
+      </c>
+      <c r="E192" t="s">
+        <v>2816</v>
+      </c>
+      <c r="H192" t="s">
+        <v>20</v>
+      </c>
+      <c r="I192" t="s">
+        <v>67</v>
+      </c>
+      <c r="J192" t="s">
+        <v>2815</v>
+      </c>
+      <c r="K192" t="s">
+        <v>17</v>
+      </c>
+      <c r="L192" t="s">
+        <v>2814</v>
+      </c>
+    </row>
+    <row r="193" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>2821</v>
+      </c>
+      <c r="B193" t="s">
+        <v>2821</v>
+      </c>
+      <c r="C193" t="s">
+        <v>2821</v>
+      </c>
+      <c r="D193" t="s">
+        <v>19</v>
+      </c>
+      <c r="E193" t="s">
+        <v>2823</v>
+      </c>
+      <c r="H193" t="s">
+        <v>20</v>
+      </c>
+      <c r="I193" t="s">
+        <v>2201</v>
+      </c>
+      <c r="J193" t="s">
+        <v>2821</v>
+      </c>
+      <c r="K193" t="s">
+        <v>17</v>
+      </c>
+      <c r="L193" t="s">
+        <v>2822</v>
+      </c>
+    </row>
+    <row r="194" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>2826</v>
+      </c>
+      <c r="B194" t="s">
+        <v>2826</v>
+      </c>
+      <c r="C194" t="s">
+        <v>2824</v>
+      </c>
+      <c r="D194" t="s">
+        <v>19</v>
+      </c>
+      <c r="E194" t="s">
+        <v>2827</v>
+      </c>
+      <c r="H194" t="s">
+        <v>20</v>
+      </c>
+      <c r="I194" t="s">
+        <v>2148</v>
+      </c>
+      <c r="J194" t="s">
+        <v>2826</v>
+      </c>
+      <c r="K194" t="s">
+        <v>17</v>
+      </c>
+      <c r="L194" t="s">
+        <v>2825</v>
+      </c>
+    </row>
+    <row r="195" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>2829</v>
+      </c>
+      <c r="B195" t="s">
+        <v>2829</v>
+      </c>
+      <c r="C195" t="s">
+        <v>2831</v>
+      </c>
+      <c r="D195" t="s">
+        <v>19</v>
+      </c>
+      <c r="E195" t="s">
+        <v>2830</v>
+      </c>
+      <c r="H195" t="s">
+        <v>20</v>
+      </c>
+      <c r="I195" t="s">
+        <v>67</v>
+      </c>
+      <c r="J195" t="s">
+        <v>2829</v>
+      </c>
+      <c r="K195" t="s">
+        <v>17</v>
+      </c>
+      <c r="L195" t="s">
+        <v>2828</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -49499,11 +50099,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N72"/>
+  <dimension ref="A1:N75"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E68" sqref="E68"/>
+      <selection pane="bottomLeft" activeCell="K83" sqref="K83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -51904,6 +52504,102 @@
       </c>
       <c r="L72" t="s">
         <v>2711</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>2857</v>
+      </c>
+      <c r="B73" t="s">
+        <v>2857</v>
+      </c>
+      <c r="C73" t="s">
+        <v>2699</v>
+      </c>
+      <c r="D73" t="s">
+        <v>100</v>
+      </c>
+      <c r="E73" t="s">
+        <v>2390</v>
+      </c>
+      <c r="H73" t="s">
+        <v>99</v>
+      </c>
+      <c r="I73" t="s">
+        <v>799</v>
+      </c>
+      <c r="J73" t="s">
+        <v>2857</v>
+      </c>
+      <c r="K73" t="s">
+        <v>17</v>
+      </c>
+      <c r="L73" t="s">
+        <v>2856</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>2858</v>
+      </c>
+      <c r="B74" t="s">
+        <v>2858</v>
+      </c>
+      <c r="C74" t="s">
+        <v>2352</v>
+      </c>
+      <c r="D74" t="s">
+        <v>100</v>
+      </c>
+      <c r="E74" t="s">
+        <v>2358</v>
+      </c>
+      <c r="H74" t="s">
+        <v>99</v>
+      </c>
+      <c r="I74" t="s">
+        <v>799</v>
+      </c>
+      <c r="J74" t="s">
+        <v>2858</v>
+      </c>
+      <c r="K74" t="s">
+        <v>17</v>
+      </c>
+      <c r="L74" t="s">
+        <v>2859</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>2861</v>
+      </c>
+      <c r="B75" t="s">
+        <v>2861</v>
+      </c>
+      <c r="C75" t="s">
+        <v>2855</v>
+      </c>
+      <c r="D75" t="s">
+        <v>100</v>
+      </c>
+      <c r="E75" t="s">
+        <v>2860</v>
+      </c>
+      <c r="H75" t="s">
+        <v>99</v>
+      </c>
+      <c r="I75" t="s">
+        <v>799</v>
+      </c>
+      <c r="J75" t="s">
+        <v>2861</v>
+      </c>
+      <c r="K75" t="s">
+        <v>17</v>
+      </c>
+      <c r="L75" t="s">
+        <v>2862</v>
       </c>
     </row>
   </sheetData>

--- a/Altium/DB.xlsx
+++ b/Altium/DB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git\Titanius\Libs\Altium\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Repos\LIBS\Altium\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C518338B-0244-46B1-94B1-2251F9DBDCC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{809407DD-B886-4589-B9B7-E61B3B9C7470}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="500" yWindow="2830" windowWidth="31520" windowHeight="15890" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="495" yWindow="2835" windowWidth="31515" windowHeight="15885" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="C" sheetId="2" r:id="rId1"/>
@@ -23,17 +23,8 @@
     <sheet name="Other" sheetId="14" r:id="rId8"/>
     <sheet name="Mech" sheetId="11" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="179021"/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
     </ext>
@@ -42,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8358" uniqueCount="2874">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8368" uniqueCount="2878">
   <si>
     <t>Part Number</t>
   </si>
@@ -8664,6 +8655,18 @@
   </si>
   <si>
     <t>Q2016-4-200x160x50-135x105</t>
+  </si>
+  <si>
+    <t>JEDEC_DDR3_96_PIN</t>
+  </si>
+  <si>
+    <t>256-W632GG6NB-12CT-ND</t>
+  </si>
+  <si>
+    <t>IC DRAM 2GBIT SSTL 15 96VFBGA</t>
+  </si>
+  <si>
+    <t>W632GG6NB-12 TR</t>
   </si>
 </sst>
 </file>
@@ -26916,29 +26919,29 @@
       <selection activeCell="I106" sqref="I106"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.54296875" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.81640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.453125" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.26953125" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="56.54296875" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.54296875" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.7265625" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="56.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.7109375" style="5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.1796875" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.7265625" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.453125" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.81640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="31.453125" style="5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="30.26953125" style="16" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.81640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="31.1796875" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="31.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="30.28515625" style="16" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="31.140625" style="5" bestFit="1" customWidth="1"/>
     <col min="17" max="1026" width="9" style="20" customWidth="1"/>
-    <col min="1027" max="16384" width="8.81640625" style="20"/>
+    <col min="1027" max="16384" width="8.85546875" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="28" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" s="28" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -26988,7 +26991,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="10" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" s="10" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>653</v>
       </c>
@@ -27038,7 +27041,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>722</v>
       </c>
@@ -27088,7 +27091,7 @@
         <v>1657</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>40</v>
       </c>
@@ -27138,7 +27141,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>29</v>
       </c>
@@ -27188,7 +27191,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>36</v>
       </c>
@@ -27238,7 +27241,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>690</v>
       </c>
@@ -27288,7 +27291,7 @@
         <v>1656</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>881</v>
       </c>
@@ -27338,7 +27341,7 @@
         <v>2318</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>810</v>
       </c>
@@ -27388,7 +27391,7 @@
         <v>1655</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>687</v>
       </c>
@@ -27438,7 +27441,7 @@
         <v>1654</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>694</v>
       </c>
@@ -27488,7 +27491,7 @@
         <v>1583</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>607</v>
       </c>
@@ -27538,7 +27541,7 @@
         <v>1653</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>642</v>
       </c>
@@ -27588,7 +27591,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>425</v>
       </c>
@@ -27635,7 +27638,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>791</v>
       </c>
@@ -27682,7 +27685,7 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>337</v>
       </c>
@@ -27729,7 +27732,7 @@
         <v>1649</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>709</v>
       </c>
@@ -27776,7 +27779,7 @@
         <v>1648</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>217</v>
       </c>
@@ -27823,7 +27826,7 @@
         <v>1647</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>639</v>
       </c>
@@ -27870,7 +27873,7 @@
         <v>1646</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>398</v>
       </c>
@@ -27917,7 +27920,7 @@
         <v>1582</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>622</v>
       </c>
@@ -27964,7 +27967,7 @@
         <v>1645</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>420</v>
       </c>
@@ -28011,7 +28014,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>358</v>
       </c>
@@ -28058,7 +28061,7 @@
         <v>1644</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>315</v>
       </c>
@@ -28105,7 +28108,7 @@
         <v>1643</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>336</v>
       </c>
@@ -28152,7 +28155,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>330</v>
       </c>
@@ -28199,7 +28202,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>210</v>
       </c>
@@ -28246,7 +28249,7 @@
         <v>1640</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>215</v>
       </c>
@@ -28293,7 +28296,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>212</v>
       </c>
@@ -28340,7 +28343,7 @@
         <v>1638</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>209</v>
       </c>
@@ -28387,7 +28390,7 @@
         <v>1637</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>213</v>
       </c>
@@ -28434,7 +28437,7 @@
         <v>1636</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>211</v>
       </c>
@@ -28481,7 +28484,7 @@
         <v>1635</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>214</v>
       </c>
@@ -28528,7 +28531,7 @@
         <v>1634</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>360</v>
       </c>
@@ -28575,7 +28578,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>208</v>
       </c>
@@ -28622,7 +28625,7 @@
         <v>1633</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>679</v>
       </c>
@@ -28669,7 +28672,7 @@
         <v>1632</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>710</v>
       </c>
@@ -28716,7 +28719,7 @@
         <v>1631</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>206</v>
       </c>
@@ -28763,7 +28766,7 @@
         <v>1630</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>218</v>
       </c>
@@ -28810,7 +28813,7 @@
         <v>1629</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>207</v>
       </c>
@@ -28857,7 +28860,7 @@
         <v>1628</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="16" t="s">
         <v>769</v>
       </c>
@@ -28904,7 +28907,7 @@
         <v>1627</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>216</v>
       </c>
@@ -28951,7 +28954,7 @@
         <v>1626</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>191</v>
       </c>
@@ -28998,7 +29001,7 @@
         <v>1625</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>887</v>
       </c>
@@ -29045,7 +29048,7 @@
         <v>1624</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>900</v>
       </c>
@@ -29095,7 +29098,7 @@
         <v>1623</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>903</v>
       </c>
@@ -29145,7 +29148,7 @@
         <v>1622</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>952</v>
       </c>
@@ -29192,7 +29195,7 @@
         <v>1621</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>992</v>
       </c>
@@ -29239,7 +29242,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" s="16" t="s">
         <v>1025</v>
       </c>
@@ -29286,7 +29289,7 @@
         <v>1592</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
         <v>1029</v>
       </c>
@@ -29333,7 +29336,7 @@
         <v>1620</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>1033</v>
       </c>
@@ -29380,7 +29383,7 @@
         <v>1619</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
         <v>1038</v>
       </c>
@@ -29427,7 +29430,7 @@
         <v>1618</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
         <v>1106</v>
       </c>
@@ -29471,7 +29474,7 @@
         <v>1617</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
         <v>1127</v>
       </c>
@@ -29518,7 +29521,7 @@
         <v>1616</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
         <v>1192</v>
       </c>
@@ -29565,7 +29568,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" s="16" t="s">
         <v>1305</v>
       </c>
@@ -29612,7 +29615,7 @@
         <v>1615</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
         <v>1309</v>
       </c>
@@ -29659,7 +29662,7 @@
         <v>1614</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
         <v>1323</v>
       </c>
@@ -29706,7 +29709,7 @@
         <v>1586</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
         <v>1363</v>
       </c>
@@ -29753,7 +29756,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
         <v>1365</v>
       </c>
@@ -29800,7 +29803,7 @@
         <v>1613</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
         <v>1367</v>
       </c>
@@ -29847,7 +29850,7 @@
         <v>1589</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62" s="16" t="s">
         <v>1381</v>
       </c>
@@ -29894,7 +29897,7 @@
         <v>1612</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
         <v>1385</v>
       </c>
@@ -29941,7 +29944,7 @@
         <v>1611</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
         <v>1401</v>
       </c>
@@ -29988,7 +29991,7 @@
         <v>1610</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65" s="16" t="s">
         <v>1414</v>
       </c>
@@ -30035,7 +30038,7 @@
         <v>1609</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
         <v>1416</v>
       </c>
@@ -30082,7 +30085,7 @@
         <v>1608</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
         <v>1432</v>
       </c>
@@ -30126,7 +30129,7 @@
         <v>1607</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
         <v>1437</v>
       </c>
@@ -30173,7 +30176,7 @@
         <v>1606</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
         <v>1440</v>
       </c>
@@ -30220,7 +30223,7 @@
         <v>1596</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A70" s="16" t="s">
         <v>1442</v>
       </c>
@@ -30267,7 +30270,7 @@
         <v>1597</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A71" s="16" t="s">
         <v>1443</v>
       </c>
@@ -30314,7 +30317,7 @@
         <v>1595</v>
       </c>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A72" s="16" t="s">
         <v>1444</v>
       </c>
@@ -30361,7 +30364,7 @@
         <v>1598</v>
       </c>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A73" s="16" t="s">
         <v>1445</v>
       </c>
@@ -30408,7 +30411,7 @@
         <v>1599</v>
       </c>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A74" s="16" t="s">
         <v>1446</v>
       </c>
@@ -30455,7 +30458,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A75" s="16" t="s">
         <v>1447</v>
       </c>
@@ -30502,7 +30505,7 @@
         <v>1601</v>
       </c>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A76" s="16" t="s">
         <v>1448</v>
       </c>
@@ -30549,7 +30552,7 @@
         <v>1602</v>
       </c>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
         <v>1458</v>
       </c>
@@ -30596,7 +30599,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
         <v>1461</v>
       </c>
@@ -30637,7 +30640,7 @@
         <v>1659</v>
       </c>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
         <v>1464</v>
       </c>
@@ -30678,7 +30681,7 @@
         <v>1658</v>
       </c>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A80" s="16" t="s">
         <v>1468</v>
       </c>
@@ -30719,7 +30722,7 @@
         <v>1660</v>
       </c>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A81" s="16" t="s">
         <v>1512</v>
       </c>
@@ -30766,7 +30769,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
         <v>1515</v>
       </c>
@@ -30813,7 +30816,7 @@
         <v>1605</v>
       </c>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
         <v>1579</v>
       </c>
@@ -30860,7 +30863,7 @@
         <v>1578</v>
       </c>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>1581</v>
       </c>
@@ -30907,7 +30910,7 @@
         <v>1580</v>
       </c>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>1585</v>
       </c>
@@ -30954,7 +30957,7 @@
         <v>1584</v>
       </c>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
         <v>1588</v>
       </c>
@@ -31001,7 +31004,7 @@
         <v>1587</v>
       </c>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
         <v>1590</v>
       </c>
@@ -31048,7 +31051,7 @@
         <v>1591</v>
       </c>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A88" s="5" t="s">
         <v>1594</v>
       </c>
@@ -31095,7 +31098,7 @@
         <v>1593</v>
       </c>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
         <v>1879</v>
       </c>
@@ -31142,7 +31145,7 @@
         <v>1878</v>
       </c>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A90" s="5" t="s">
         <v>1883</v>
       </c>
@@ -31189,7 +31192,7 @@
         <v>1882</v>
       </c>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
         <v>1913</v>
       </c>
@@ -31233,7 +31236,7 @@
         <v>1911</v>
       </c>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
         <v>1917</v>
       </c>
@@ -31280,7 +31283,7 @@
         <v>1914</v>
       </c>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
         <v>1919</v>
       </c>
@@ -31327,7 +31330,7 @@
         <v>1918</v>
       </c>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A94" s="5" t="s">
         <v>1925</v>
       </c>
@@ -31374,7 +31377,7 @@
         <v>1923</v>
       </c>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
         <v>1945</v>
       </c>
@@ -31421,7 +31424,7 @@
         <v>1942</v>
       </c>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A96" s="5" t="s">
         <v>1948</v>
       </c>
@@ -31468,7 +31471,7 @@
         <v>1946</v>
       </c>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A97" s="5" t="s">
         <v>2116</v>
       </c>
@@ -31509,7 +31512,7 @@
         <v>2113</v>
       </c>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
         <v>2235</v>
       </c>
@@ -31556,7 +31559,7 @@
         <v>2234</v>
       </c>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
         <v>2467</v>
       </c>
@@ -31603,7 +31606,7 @@
         <v>2466</v>
       </c>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A100" s="5" t="s">
         <v>2565</v>
       </c>
@@ -31647,7 +31650,7 @@
         <v>2564</v>
       </c>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A101" s="5" t="s">
         <v>2596</v>
       </c>
@@ -31691,7 +31694,7 @@
         <v>2598</v>
       </c>
     </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A102" s="5" t="s">
         <v>2662</v>
       </c>
@@ -31739,7 +31742,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P43">
+  <sortState ref="A2:P43">
     <sortCondition ref="F2:F43"/>
   </sortState>
   <printOptions gridLines="1"/>
@@ -31761,27 +31764,27 @@
       <selection pane="bottomLeft" activeCell="J185" sqref="J185"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.7265625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.26953125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.7265625" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.1796875" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="32.7265625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="30.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="32.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="30.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="26.26953125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="26.28515625" bestFit="1" customWidth="1"/>
     <col min="15" max="1025" width="9" style="20" customWidth="1"/>
-    <col min="1026" max="16384" width="8.81640625" style="20"/>
+    <col min="1026" max="16384" width="8.85546875" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="10" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" s="10" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -31825,7 +31828,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>54</v>
       </c>
@@ -31866,7 +31869,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>126</v>
       </c>
@@ -31907,7 +31910,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>130</v>
       </c>
@@ -31948,7 +31951,7 @@
         <v>1664</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>139</v>
       </c>
@@ -31989,7 +31992,7 @@
         <v>1665</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>140</v>
       </c>
@@ -32030,7 +32033,7 @@
         <v>1666</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>145</v>
       </c>
@@ -32071,7 +32074,7 @@
         <v>1667</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>147</v>
       </c>
@@ -32112,7 +32115,7 @@
         <v>1668</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>149</v>
       </c>
@@ -32153,7 +32156,7 @@
         <v>1669</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>151</v>
       </c>
@@ -32194,7 +32197,7 @@
         <v>1670</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>153</v>
       </c>
@@ -32235,7 +32238,7 @@
         <v>1671</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>155</v>
       </c>
@@ -32276,7 +32279,7 @@
         <v>1672</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>157</v>
       </c>
@@ -32317,7 +32320,7 @@
         <v>1673</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>159</v>
       </c>
@@ -32358,7 +32361,7 @@
         <v>1674</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>161</v>
       </c>
@@ -32399,7 +32402,7 @@
         <v>1675</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>163</v>
       </c>
@@ -32440,7 +32443,7 @@
         <v>1676</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>165</v>
       </c>
@@ -32481,7 +32484,7 @@
         <v>1677</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>167</v>
       </c>
@@ -32522,7 +32525,7 @@
         <v>1678</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>169</v>
       </c>
@@ -32563,7 +32566,7 @@
         <v>1679</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>171</v>
       </c>
@@ -32604,7 +32607,7 @@
         <v>1680</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>181</v>
       </c>
@@ -32645,7 +32648,7 @@
         <v>1681</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>186</v>
       </c>
@@ -32686,7 +32689,7 @@
         <v>1682</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>303</v>
       </c>
@@ -32727,7 +32730,7 @@
         <v>1683</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>306</v>
       </c>
@@ -32768,7 +32771,7 @@
         <v>1684</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>312</v>
       </c>
@@ -32809,7 +32812,7 @@
         <v>1685</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>320</v>
       </c>
@@ -32850,7 +32853,7 @@
         <v>1686</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>323</v>
       </c>
@@ -32891,7 +32894,7 @@
         <v>1687</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>327</v>
       </c>
@@ -32932,7 +32935,7 @@
         <v>1688</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>340</v>
       </c>
@@ -32973,7 +32976,7 @@
         <v>1689</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>355</v>
       </c>
@@ -33014,7 +33017,7 @@
         <v>1690</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>371</v>
       </c>
@@ -33055,7 +33058,7 @@
         <v>1691</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>370</v>
       </c>
@@ -33096,7 +33099,7 @@
         <v>1692</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>368</v>
       </c>
@@ -33137,7 +33140,7 @@
         <v>1693</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>365</v>
       </c>
@@ -33178,7 +33181,7 @@
         <v>1694</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>387</v>
       </c>
@@ -33219,7 +33222,7 @@
         <v>1695</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>392</v>
       </c>
@@ -33260,7 +33263,7 @@
         <v>1696</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>397</v>
       </c>
@@ -33301,7 +33304,7 @@
         <v>1697</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>407</v>
       </c>
@@ -33342,7 +33345,7 @@
         <v>1698</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>446</v>
       </c>
@@ -33383,7 +33386,7 @@
         <v>1699</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>451</v>
       </c>
@@ -33424,7 +33427,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>609</v>
       </c>
@@ -33465,7 +33468,7 @@
         <v>1701</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>613</v>
       </c>
@@ -33506,7 +33509,7 @@
         <v>1702</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>620</v>
       </c>
@@ -33547,7 +33550,7 @@
         <v>1703</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>54</v>
       </c>
@@ -33585,7 +33588,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>631</v>
       </c>
@@ -33626,7 +33629,7 @@
         <v>1704</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>637</v>
       </c>
@@ -33667,7 +33670,7 @@
         <v>1705</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>649</v>
       </c>
@@ -33708,7 +33711,7 @@
         <v>1706</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>655</v>
       </c>
@@ -33749,7 +33752,7 @@
         <v>1707</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>658</v>
       </c>
@@ -33790,7 +33793,7 @@
         <v>1708</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>663</v>
       </c>
@@ -33831,7 +33834,7 @@
         <v>1709</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>666</v>
       </c>
@@ -33872,7 +33875,7 @@
         <v>1710</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>668</v>
       </c>
@@ -33913,7 +33916,7 @@
         <v>1711</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>673</v>
       </c>
@@ -33954,7 +33957,7 @@
         <v>1712</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>676</v>
       </c>
@@ -33995,7 +33998,7 @@
         <v>1713</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>693</v>
       </c>
@@ -34036,7 +34039,7 @@
         <v>1714</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>696</v>
       </c>
@@ -34077,7 +34080,7 @@
         <v>1715</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>701</v>
       </c>
@@ -34118,7 +34121,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>702</v>
       </c>
@@ -34159,7 +34162,7 @@
         <v>1717</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>706</v>
       </c>
@@ -34200,7 +34203,7 @@
         <v>1718</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>718</v>
       </c>
@@ -34241,7 +34244,7 @@
         <v>1719</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>750</v>
       </c>
@@ -34282,7 +34285,7 @@
         <v>1720</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>613</v>
       </c>
@@ -34323,7 +34326,7 @@
         <v>1702</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>762</v>
       </c>
@@ -34364,7 +34367,7 @@
         <v>1721</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>397</v>
       </c>
@@ -34405,7 +34408,7 @@
         <v>1697</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>787</v>
       </c>
@@ -34446,7 +34449,7 @@
         <v>1722</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>807</v>
       </c>
@@ -34487,7 +34490,7 @@
         <v>1723</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>813</v>
       </c>
@@ -34528,7 +34531,7 @@
         <v>1724</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>889</v>
       </c>
@@ -34569,7 +34572,7 @@
         <v>1725</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>892</v>
       </c>
@@ -34610,7 +34613,7 @@
         <v>1726</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>894</v>
       </c>
@@ -34651,7 +34654,7 @@
         <v>1727</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>897</v>
       </c>
@@ -34692,7 +34695,7 @@
         <v>1728</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>906</v>
       </c>
@@ -34733,7 +34736,7 @@
         <v>1729</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>907</v>
       </c>
@@ -34774,7 +34777,7 @@
         <v>1730</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>910</v>
       </c>
@@ -34815,7 +34818,7 @@
         <v>1731</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>914</v>
       </c>
@@ -34856,7 +34859,7 @@
         <v>1732</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>917</v>
       </c>
@@ -34897,7 +34900,7 @@
         <v>1733</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>978</v>
       </c>
@@ -34938,7 +34941,7 @@
         <v>1734</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>981</v>
       </c>
@@ -34979,7 +34982,7 @@
         <v>1735</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>1004</v>
       </c>
@@ -35020,7 +35023,7 @@
         <v>1736</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>1007</v>
       </c>
@@ -35061,7 +35064,7 @@
         <v>1737</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>1010</v>
       </c>
@@ -35102,7 +35105,7 @@
         <v>1738</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>1031</v>
       </c>
@@ -35143,7 +35146,7 @@
         <v>1739</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>1040</v>
       </c>
@@ -35184,7 +35187,7 @@
         <v>1740</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>1043</v>
       </c>
@@ -35225,7 +35228,7 @@
         <v>1741</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>1076</v>
       </c>
@@ -35266,7 +35269,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>1079</v>
       </c>
@@ -35307,7 +35310,7 @@
         <v>1743</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>1082</v>
       </c>
@@ -35348,7 +35351,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>1083</v>
       </c>
@@ -35389,7 +35392,7 @@
         <v>1745</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>1086</v>
       </c>
@@ -35430,7 +35433,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>1089</v>
       </c>
@@ -35471,7 +35474,7 @@
         <v>1747</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>1092</v>
       </c>
@@ -35512,7 +35515,7 @@
         <v>1748</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>1124</v>
       </c>
@@ -35553,7 +35556,7 @@
         <v>1749</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>1145</v>
       </c>
@@ -35594,7 +35597,7 @@
         <v>1750</v>
       </c>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>1147</v>
       </c>
@@ -35635,7 +35638,7 @@
         <v>1751</v>
       </c>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>1182</v>
       </c>
@@ -35676,7 +35679,7 @@
         <v>1752</v>
       </c>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>1187</v>
       </c>
@@ -35717,7 +35720,7 @@
         <v>1753</v>
       </c>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>1188</v>
       </c>
@@ -35758,7 +35761,7 @@
         <v>1754</v>
       </c>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>1314</v>
       </c>
@@ -35799,7 +35802,7 @@
         <v>1755</v>
       </c>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>1316</v>
       </c>
@@ -35840,7 +35843,7 @@
         <v>1756</v>
       </c>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>1317</v>
       </c>
@@ -35881,7 +35884,7 @@
         <v>1757</v>
       </c>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>1320</v>
       </c>
@@ -35922,7 +35925,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>1342</v>
       </c>
@@ -35963,7 +35966,7 @@
         <v>1759</v>
       </c>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>1346</v>
       </c>
@@ -36004,7 +36007,7 @@
         <v>1760</v>
       </c>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>1348</v>
       </c>
@@ -36045,7 +36048,7 @@
         <v>1761</v>
       </c>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>1351</v>
       </c>
@@ -36086,7 +36089,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>1352</v>
       </c>
@@ -36127,7 +36130,7 @@
         <v>1763</v>
       </c>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>1355</v>
       </c>
@@ -36168,7 +36171,7 @@
         <v>1764</v>
       </c>
     </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>1398</v>
       </c>
@@ -36209,7 +36212,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>1403</v>
       </c>
@@ -36250,7 +36253,7 @@
         <v>1766</v>
       </c>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>1406</v>
       </c>
@@ -36291,7 +36294,7 @@
         <v>1767</v>
       </c>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>1409</v>
       </c>
@@ -36332,7 +36335,7 @@
         <v>1768</v>
       </c>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>1425</v>
       </c>
@@ -36373,7 +36376,7 @@
         <v>1769</v>
       </c>
     </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>1475</v>
       </c>
@@ -36414,7 +36417,7 @@
         <v>1770</v>
       </c>
     </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>1487</v>
       </c>
@@ -36455,7 +36458,7 @@
         <v>1771</v>
       </c>
     </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>1519</v>
       </c>
@@ -36496,7 +36499,7 @@
         <v>1772</v>
       </c>
     </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>1518</v>
       </c>
@@ -36537,7 +36540,7 @@
         <v>1773</v>
       </c>
     </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>1559</v>
       </c>
@@ -36578,7 +36581,7 @@
         <v>1558</v>
       </c>
     </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>1561</v>
       </c>
@@ -36619,7 +36622,7 @@
         <v>1560</v>
       </c>
     </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>1793</v>
       </c>
@@ -36660,7 +36663,7 @@
         <v>1794</v>
       </c>
     </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>1795</v>
       </c>
@@ -36701,7 +36704,7 @@
         <v>1797</v>
       </c>
     </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>1847</v>
       </c>
@@ -36742,7 +36745,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>1848</v>
       </c>
@@ -36783,7 +36786,7 @@
         <v>1840</v>
       </c>
     </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>1849</v>
       </c>
@@ -36824,7 +36827,7 @@
         <v>1841</v>
       </c>
     </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>1850</v>
       </c>
@@ -36865,7 +36868,7 @@
         <v>1842</v>
       </c>
     </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>1851</v>
       </c>
@@ -36906,7 +36909,7 @@
         <v>1843</v>
       </c>
     </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>1852</v>
       </c>
@@ -36947,7 +36950,7 @@
         <v>1844</v>
       </c>
     </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>1853</v>
       </c>
@@ -36988,7 +36991,7 @@
         <v>1845</v>
       </c>
     </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>1854</v>
       </c>
@@ -37029,7 +37032,7 @@
         <v>1846</v>
       </c>
     </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>1901</v>
       </c>
@@ -37067,7 +37070,7 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>1932</v>
       </c>
@@ -37108,7 +37111,7 @@
         <v>1929</v>
       </c>
     </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>1933</v>
       </c>
@@ -37149,7 +37152,7 @@
         <v>1936</v>
       </c>
     </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>1941</v>
       </c>
@@ -37190,7 +37193,7 @@
         <v>1940</v>
       </c>
     </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>1952</v>
       </c>
@@ -37231,7 +37234,7 @@
         <v>1949</v>
       </c>
     </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>1956</v>
       </c>
@@ -37272,7 +37275,7 @@
         <v>1953</v>
       </c>
     </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>1960</v>
       </c>
@@ -37313,7 +37316,7 @@
         <v>1957</v>
       </c>
     </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>1964</v>
       </c>
@@ -37354,7 +37357,7 @@
         <v>1961</v>
       </c>
     </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>1968</v>
       </c>
@@ -37395,7 +37398,7 @@
         <v>1965</v>
       </c>
     </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>2047</v>
       </c>
@@ -37436,7 +37439,7 @@
         <v>2044</v>
       </c>
     </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>2064</v>
       </c>
@@ -37477,7 +37480,7 @@
         <v>2062</v>
       </c>
     </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>2068</v>
       </c>
@@ -37518,7 +37521,7 @@
         <v>2069</v>
       </c>
     </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>2073</v>
       </c>
@@ -37559,7 +37562,7 @@
         <v>2070</v>
       </c>
     </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>2077</v>
       </c>
@@ -37600,7 +37603,7 @@
         <v>2074</v>
       </c>
     </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>2081</v>
       </c>
@@ -37641,7 +37644,7 @@
         <v>2078</v>
       </c>
     </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>2086</v>
       </c>
@@ -37682,7 +37685,7 @@
         <v>2085</v>
       </c>
     </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>2090</v>
       </c>
@@ -37723,7 +37726,7 @@
         <v>2089</v>
       </c>
     </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>2167</v>
       </c>
@@ -37764,7 +37767,7 @@
         <v>2166</v>
       </c>
     </row>
-    <row r="147" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>2174</v>
       </c>
@@ -37805,7 +37808,7 @@
         <v>2173</v>
       </c>
     </row>
-    <row r="148" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>2198</v>
       </c>
@@ -37846,7 +37849,7 @@
         <v>2197</v>
       </c>
     </row>
-    <row r="149" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>2218</v>
       </c>
@@ -37887,7 +37890,7 @@
         <v>2216</v>
       </c>
     </row>
-    <row r="150" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>2238</v>
       </c>
@@ -37928,7 +37931,7 @@
         <v>2237</v>
       </c>
     </row>
-    <row r="151" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>1352</v>
       </c>
@@ -37969,7 +37972,7 @@
         <v>1763</v>
       </c>
     </row>
-    <row r="152" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>2254</v>
       </c>
@@ -38010,7 +38013,7 @@
         <v>2253</v>
       </c>
     </row>
-    <row r="153" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>2257</v>
       </c>
@@ -38051,7 +38054,7 @@
         <v>2256</v>
       </c>
     </row>
-    <row r="154" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>2262</v>
       </c>
@@ -38092,7 +38095,7 @@
         <v>2259</v>
       </c>
     </row>
-    <row r="155" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>2378</v>
       </c>
@@ -38133,7 +38136,7 @@
         <v>2374</v>
       </c>
     </row>
-    <row r="156" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>2381</v>
       </c>
@@ -38174,7 +38177,7 @@
         <v>2379</v>
       </c>
     </row>
-    <row r="157" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>2383</v>
       </c>
@@ -38215,7 +38218,7 @@
         <v>2382</v>
       </c>
     </row>
-    <row r="158" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>2433</v>
       </c>
@@ -38256,7 +38259,7 @@
         <v>2434</v>
       </c>
     </row>
-    <row r="159" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>2437</v>
       </c>
@@ -38297,7 +38300,7 @@
         <v>2435</v>
       </c>
     </row>
-    <row r="160" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>2440</v>
       </c>
@@ -38338,7 +38341,7 @@
         <v>2441</v>
       </c>
     </row>
-    <row r="161" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>2444</v>
       </c>
@@ -38379,7 +38382,7 @@
         <v>2443</v>
       </c>
     </row>
-    <row r="162" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>2457</v>
       </c>
@@ -38420,7 +38423,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="163" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>2460</v>
       </c>
@@ -38461,7 +38464,7 @@
         <v>2459</v>
       </c>
     </row>
-    <row r="164" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>2520</v>
       </c>
@@ -38502,7 +38505,7 @@
         <v>2521</v>
       </c>
     </row>
-    <row r="165" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>2553</v>
       </c>
@@ -38543,7 +38546,7 @@
         <v>2552</v>
       </c>
     </row>
-    <row r="166" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>2557</v>
       </c>
@@ -38584,7 +38587,7 @@
         <v>2556</v>
       </c>
     </row>
-    <row r="167" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>2641</v>
       </c>
@@ -38625,7 +38628,7 @@
         <v>2642</v>
       </c>
     </row>
-    <row r="168" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>2666</v>
       </c>
@@ -38666,7 +38669,7 @@
         <v>2664</v>
       </c>
     </row>
-    <row r="169" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>2670</v>
       </c>
@@ -38707,7 +38710,7 @@
         <v>2668</v>
       </c>
     </row>
-    <row r="170" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>2716</v>
       </c>
@@ -38748,7 +38751,7 @@
         <v>2715</v>
       </c>
     </row>
-    <row r="171" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>2720</v>
       </c>
@@ -38789,7 +38792,7 @@
         <v>2719</v>
       </c>
     </row>
-    <row r="172" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>2759</v>
       </c>
@@ -38830,7 +38833,7 @@
         <v>2761</v>
       </c>
     </row>
-    <row r="173" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>2842</v>
       </c>
@@ -38871,7 +38874,7 @@
         <v>2841</v>
       </c>
     </row>
-    <row r="174" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>2853</v>
       </c>
@@ -38912,7 +38915,7 @@
         <v>2852</v>
       </c>
     </row>
-    <row r="175" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>2850</v>
       </c>
@@ -38972,28 +38975,28 @@
       <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="51.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.26953125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="32.453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.453125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="51.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="30.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="30.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="31.453125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="31.42578125" bestFit="1" customWidth="1"/>
     <col min="16" max="1025" width="9" style="20" customWidth="1"/>
-    <col min="1026" max="16384" width="8.81640625" style="20"/>
+    <col min="1026" max="16384" width="8.85546875" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="10" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" s="10" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -39040,7 +39043,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>44</v>
       </c>
@@ -39084,7 +39087,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>61</v>
       </c>
@@ -39128,7 +39131,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>249</v>
       </c>
@@ -39172,7 +39175,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>251</v>
       </c>
@@ -39216,7 +39219,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>252</v>
       </c>
@@ -39260,7 +39263,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>353</v>
       </c>
@@ -39304,7 +39307,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>501</v>
       </c>
@@ -39343,7 +39346,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>625</v>
       </c>
@@ -39384,7 +39387,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>681</v>
       </c>
@@ -39425,7 +39428,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>716</v>
       </c>
@@ -39469,7 +39472,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>779</v>
       </c>
@@ -39513,7 +39516,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>785</v>
       </c>
@@ -39554,7 +39557,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>984</v>
       </c>
@@ -39598,7 +39601,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>1003</v>
       </c>
@@ -39642,7 +39645,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>1118</v>
       </c>
@@ -39686,7 +39689,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>1283</v>
       </c>
@@ -39730,7 +39733,7 @@
         <v>1780</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>1284</v>
       </c>
@@ -39774,7 +39777,7 @@
         <v>1779</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>1289</v>
       </c>
@@ -39818,7 +39821,7 @@
         <v>1778</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>1295</v>
       </c>
@@ -39862,7 +39865,7 @@
         <v>1777</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>1359</v>
       </c>
@@ -39906,7 +39909,7 @@
         <v>1781</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>1507</v>
       </c>
@@ -39950,7 +39953,7 @@
         <v>1505</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>1785</v>
       </c>
@@ -39994,7 +39997,7 @@
         <v>1786</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>2225</v>
       </c>
@@ -40041,7 +40044,7 @@
         <v>2220</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>2229</v>
       </c>
@@ -40085,7 +40088,7 @@
         <v>2227</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>2427</v>
       </c>
@@ -40129,7 +40132,7 @@
         <v>2426</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>2463</v>
       </c>
@@ -40173,7 +40176,7 @@
         <v>2464</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>2515</v>
       </c>
@@ -40217,7 +40220,7 @@
         <v>2514</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>2569</v>
       </c>
@@ -40258,7 +40261,7 @@
         <v>2567</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>2585</v>
       </c>
@@ -40296,7 +40299,7 @@
         <v>2585</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>2614</v>
       </c>
@@ -40340,7 +40343,7 @@
         <v>2611</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>2618</v>
       </c>
@@ -40384,7 +40387,7 @@
         <v>2617</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>2626</v>
       </c>
@@ -40428,7 +40431,7 @@
         <v>2625</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>2630</v>
       </c>
@@ -40472,7 +40475,7 @@
         <v>2629</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>2644</v>
       </c>
@@ -40516,7 +40519,7 @@
         <v>2643</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>2746</v>
       </c>
@@ -40560,7 +40563,7 @@
         <v>2748</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>2817</v>
       </c>
@@ -40604,7 +40607,7 @@
         <v>2816</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>2834</v>
       </c>
@@ -40648,7 +40651,7 @@
         <v>2831</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>2838</v>
       </c>
@@ -40711,26 +40714,26 @@
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32.6328125" customWidth="1"/>
-    <col min="7" max="7" width="17.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.5703125" customWidth="1"/>
+    <col min="7" max="7" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="45.54296875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="45.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="32" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="26.81640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="26.85546875" bestFit="1" customWidth="1"/>
     <col min="14" max="1025" width="9" style="20" customWidth="1"/>
-    <col min="1026" max="16384" width="8.81640625" style="20"/>
+    <col min="1026" max="16384" width="8.85546875" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="10" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" s="10" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -40771,7 +40774,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>413</v>
       </c>
@@ -40809,7 +40812,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>417</v>
       </c>
@@ -40847,7 +40850,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>618</v>
       </c>
@@ -40885,7 +40888,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1199</v>
       </c>
@@ -40923,7 +40926,7 @@
         <v>1198</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>1395</v>
       </c>
@@ -40961,7 +40964,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>1424</v>
       </c>
@@ -40999,7 +41002,7 @@
         <v>1820</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>1489</v>
       </c>
@@ -41037,7 +41040,7 @@
         <v>1491</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>1996</v>
       </c>
@@ -41075,7 +41078,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>2006</v>
       </c>
@@ -41113,7 +41116,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>2182</v>
       </c>
@@ -41151,7 +41154,7 @@
         <v>2179</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>2283</v>
       </c>
@@ -41189,7 +41192,7 @@
         <v>2284</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>2295</v>
       </c>
@@ -41227,7 +41230,7 @@
         <v>2294</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>2600</v>
       </c>
@@ -41265,7 +41268,7 @@
         <v>2599</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>2845</v>
       </c>
@@ -41322,26 +41325,26 @@
       <selection activeCell="A62" sqref="A62:L62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="35" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.26953125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.26953125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="44.453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="30.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="44.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="30.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="31.1796875" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="8.81640625" style="20"/>
+    <col min="12" max="12" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="8.85546875" style="20"/>
     <col min="16" max="1025" width="9" style="20" customWidth="1"/>
-    <col min="1026" max="16384" width="8.81640625" style="20"/>
+    <col min="1026" max="16384" width="8.85546875" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="10" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" s="10" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -41379,7 +41382,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>253</v>
       </c>
@@ -41414,7 +41417,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>254</v>
       </c>
@@ -41449,7 +41452,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>275</v>
       </c>
@@ -41484,7 +41487,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>282</v>
       </c>
@@ -41519,7 +41522,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>285</v>
       </c>
@@ -41554,7 +41557,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>301</v>
       </c>
@@ -41589,7 +41592,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>289</v>
       </c>
@@ -41624,7 +41627,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>291</v>
       </c>
@@ -41659,7 +41662,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>345</v>
       </c>
@@ -41694,7 +41697,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>382</v>
       </c>
@@ -41729,7 +41732,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>437</v>
       </c>
@@ -41764,7 +41767,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>480</v>
       </c>
@@ -41790,7 +41793,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>484</v>
       </c>
@@ -41816,7 +41819,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>485</v>
       </c>
@@ -41842,7 +41845,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>614</v>
       </c>
@@ -41868,7 +41871,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>733</v>
       </c>
@@ -41903,7 +41906,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>738</v>
       </c>
@@ -41938,7 +41941,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>747</v>
       </c>
@@ -41973,7 +41976,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>754</v>
       </c>
@@ -42006,7 +42009,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>760</v>
       </c>
@@ -42041,7 +42044,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>806</v>
       </c>
@@ -42076,7 +42079,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>821</v>
       </c>
@@ -42111,7 +42114,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>931</v>
       </c>
@@ -42146,7 +42149,7 @@
         <v>1810</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>934</v>
       </c>
@@ -42181,7 +42184,7 @@
         <v>1811</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>948</v>
       </c>
@@ -42216,7 +42219,7 @@
         <v>1812</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>950</v>
       </c>
@@ -42251,7 +42254,7 @@
         <v>1813</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>959</v>
       </c>
@@ -42286,7 +42289,7 @@
         <v>1814</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>1134</v>
       </c>
@@ -42321,7 +42324,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>1156</v>
       </c>
@@ -42356,7 +42359,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>1176</v>
       </c>
@@ -42391,7 +42394,7 @@
         <v>1175</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>1181</v>
       </c>
@@ -42426,7 +42429,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>1224</v>
       </c>
@@ -42461,7 +42464,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>1227</v>
       </c>
@@ -42496,7 +42499,7 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>1234</v>
       </c>
@@ -42531,7 +42534,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>1331</v>
       </c>
@@ -42566,7 +42569,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>1340</v>
       </c>
@@ -42601,7 +42604,7 @@
         <v>1338</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>1371</v>
       </c>
@@ -42636,7 +42639,7 @@
         <v>1369</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>1503</v>
       </c>
@@ -42671,7 +42674,7 @@
         <v>1502</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>1565</v>
       </c>
@@ -42706,7 +42709,7 @@
         <v>1563</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>1574</v>
       </c>
@@ -42741,7 +42744,7 @@
         <v>1573</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>1663</v>
       </c>
@@ -42776,7 +42779,7 @@
         <v>1661</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>1775</v>
       </c>
@@ -42811,7 +42814,7 @@
         <v>1774</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>1788</v>
       </c>
@@ -42846,7 +42849,7 @@
         <v>1787</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>1792</v>
       </c>
@@ -42881,7 +42884,7 @@
         <v>1791</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>1829</v>
       </c>
@@ -42916,7 +42919,7 @@
         <v>1828</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>1872</v>
       </c>
@@ -42951,7 +42954,7 @@
         <v>1871</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>1874</v>
       </c>
@@ -42974,7 +42977,7 @@
         <v>1874</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>2084</v>
       </c>
@@ -43009,7 +43012,7 @@
         <v>2082</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>2137</v>
       </c>
@@ -43044,7 +43047,7 @@
         <v>2135</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>2140</v>
       </c>
@@ -43079,7 +43082,7 @@
         <v>2138</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>2476</v>
       </c>
@@ -43114,7 +43117,7 @@
         <v>2475</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>2494</v>
       </c>
@@ -43146,7 +43149,7 @@
         <v>2492</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>2650</v>
       </c>
@@ -43181,7 +43184,7 @@
         <v>2649</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>2654</v>
       </c>
@@ -43216,7 +43219,7 @@
         <v>2653</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>2657</v>
       </c>
@@ -43251,7 +43254,7 @@
         <v>2656</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>2672</v>
       </c>
@@ -43286,7 +43289,7 @@
         <v>2671</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>2679</v>
       </c>
@@ -43321,7 +43324,7 @@
         <v>2678</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>2723</v>
       </c>
@@ -43356,7 +43359,7 @@
         <v>2722</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>2744</v>
       </c>
@@ -43388,7 +43391,7 @@
         <v>2743</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>2810</v>
       </c>
@@ -43433,33 +43436,33 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N195"/>
+  <dimension ref="A1:N196"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A133" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F150" sqref="F150"/>
+      <pane ySplit="1" topLeftCell="A142" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I196" sqref="I196"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="27.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="27.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="97.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="97.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="38" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.26953125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="45.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="30.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="45.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="30.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="29.26953125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="29.28515625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="24.54296875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="24.5703125" bestFit="1" customWidth="1"/>
     <col min="15" max="1025" width="9" style="20" customWidth="1"/>
-    <col min="1026" max="16384" width="8.81640625" style="20"/>
+    <col min="1026" max="16384" width="8.85546875" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="10" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" s="10" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -43503,7 +43506,7 @@
         <v>1831</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -43540,7 +43543,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>68</v>
       </c>
@@ -43577,7 +43580,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>74</v>
       </c>
@@ -43614,7 +43617,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>79</v>
       </c>
@@ -43651,7 +43654,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>80</v>
       </c>
@@ -43688,7 +43691,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>93</v>
       </c>
@@ -43725,7 +43728,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>95</v>
       </c>
@@ -43762,7 +43765,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>102</v>
       </c>
@@ -43798,7 +43801,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>105</v>
       </c>
@@ -43835,7 +43838,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>309</v>
       </c>
@@ -43870,7 +43873,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>318</v>
       </c>
@@ -43905,7 +43908,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>378</v>
       </c>
@@ -43940,7 +43943,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>403</v>
       </c>
@@ -43975,7 +43978,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>433</v>
       </c>
@@ -44010,7 +44013,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>442</v>
       </c>
@@ -44045,7 +44048,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>448</v>
       </c>
@@ -44080,7 +44083,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>471</v>
       </c>
@@ -44115,7 +44118,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>476</v>
       </c>
@@ -44150,7 +44153,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>489</v>
       </c>
@@ -44185,7 +44188,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>492</v>
       </c>
@@ -44220,7 +44223,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>496</v>
       </c>
@@ -44255,7 +44258,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>508</v>
       </c>
@@ -44290,7 +44293,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>511</v>
       </c>
@@ -44325,7 +44328,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>532</v>
       </c>
@@ -44360,7 +44363,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>537</v>
       </c>
@@ -44395,7 +44398,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>560</v>
       </c>
@@ -44430,7 +44433,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>540</v>
       </c>
@@ -44465,7 +44468,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>541</v>
       </c>
@@ -44500,7 +44503,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>542</v>
       </c>
@@ -44535,7 +44538,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>573</v>
       </c>
@@ -44570,7 +44573,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>577</v>
       </c>
@@ -44605,7 +44608,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>580</v>
       </c>
@@ -44640,7 +44643,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>583</v>
       </c>
@@ -44675,7 +44678,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>586</v>
       </c>
@@ -44710,7 +44713,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>590</v>
       </c>
@@ -44745,7 +44748,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>594</v>
       </c>
@@ -44780,7 +44783,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>595</v>
       </c>
@@ -44815,7 +44818,7 @@
         <v>1815</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>552</v>
       </c>
@@ -44850,7 +44853,7 @@
         <v>1816</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>599</v>
       </c>
@@ -44885,7 +44888,7 @@
         <v>1801</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>600</v>
       </c>
@@ -44920,7 +44923,7 @@
         <v>1817</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>602</v>
       </c>
@@ -44955,7 +44958,7 @@
         <v>1818</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>605</v>
       </c>
@@ -44990,7 +44993,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>635</v>
       </c>
@@ -45025,7 +45028,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>539</v>
       </c>
@@ -45060,7 +45063,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>670</v>
       </c>
@@ -45095,7 +45098,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>884</v>
       </c>
@@ -45130,7 +45133,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>901</v>
       </c>
@@ -45165,7 +45168,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>918</v>
       </c>
@@ -45200,7 +45203,7 @@
         <v>1836</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>921</v>
       </c>
@@ -45235,7 +45238,7 @@
         <v>1833</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>922</v>
       </c>
@@ -45270,7 +45273,7 @@
         <v>1834</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>923</v>
       </c>
@@ -45305,7 +45308,7 @@
         <v>1835</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>937</v>
       </c>
@@ -45340,7 +45343,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>943</v>
       </c>
@@ -45375,7 +45378,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>941</v>
       </c>
@@ -45410,7 +45413,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>1014</v>
       </c>
@@ -45445,7 +45448,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>1018</v>
       </c>
@@ -45480,7 +45483,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>1022</v>
       </c>
@@ -45515,7 +45518,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>1049</v>
       </c>
@@ -45548,7 +45551,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>1051</v>
       </c>
@@ -45583,7 +45586,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>1055</v>
       </c>
@@ -45618,7 +45621,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>1059</v>
       </c>
@@ -45653,7 +45656,7 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>1065</v>
       </c>
@@ -45688,7 +45691,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>1070</v>
       </c>
@@ -45723,7 +45726,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>1096</v>
       </c>
@@ -45758,7 +45761,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>1100</v>
       </c>
@@ -45793,7 +45796,7 @@
         <v>1098</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>1102</v>
       </c>
@@ -45828,7 +45831,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>1111</v>
       </c>
@@ -45863,7 +45866,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>1130</v>
       </c>
@@ -45898,7 +45901,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>1136</v>
       </c>
@@ -45933,7 +45936,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>1142</v>
       </c>
@@ -45968,7 +45971,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>1150</v>
       </c>
@@ -46003,7 +46006,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>1172</v>
       </c>
@@ -46038,7 +46041,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>1197</v>
       </c>
@@ -46073,7 +46076,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>1207</v>
       </c>
@@ -46108,7 +46111,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>1216</v>
       </c>
@@ -46143,7 +46146,7 @@
         <v>1215</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>1231</v>
       </c>
@@ -46178,7 +46181,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>1246</v>
       </c>
@@ -46213,7 +46216,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>1247</v>
       </c>
@@ -46248,7 +46251,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>1248</v>
       </c>
@@ -46283,7 +46286,7 @@
         <v>1248</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>1251</v>
       </c>
@@ -46318,7 +46321,7 @@
         <v>1249</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>1262</v>
       </c>
@@ -46353,7 +46356,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>1245</v>
       </c>
@@ -46394,7 +46397,7 @@
         <v>1832</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>1798</v>
       </c>
@@ -46429,7 +46432,7 @@
         <v>1799</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>1304</v>
       </c>
@@ -46464,7 +46467,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>1334</v>
       </c>
@@ -46499,7 +46502,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>1374</v>
       </c>
@@ -46534,7 +46537,7 @@
         <v>1802</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>1378</v>
       </c>
@@ -46569,7 +46572,7 @@
         <v>1822</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>1387</v>
       </c>
@@ -46604,7 +46607,7 @@
         <v>1386</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>1397</v>
       </c>
@@ -46639,7 +46642,7 @@
         <v>1823</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>1419</v>
       </c>
@@ -46674,7 +46677,7 @@
         <v>1803</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>1430</v>
       </c>
@@ -46709,7 +46712,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>1473</v>
       </c>
@@ -46744,7 +46747,7 @@
         <v>1472</v>
       </c>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>1479</v>
       </c>
@@ -46779,7 +46782,7 @@
         <v>1478</v>
       </c>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>1484</v>
       </c>
@@ -46814,7 +46817,7 @@
         <v>1482</v>
       </c>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>1500</v>
       </c>
@@ -46849,7 +46852,7 @@
         <v>1499</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>1522</v>
       </c>
@@ -46884,7 +46887,7 @@
         <v>1521</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>1528</v>
       </c>
@@ -46919,7 +46922,7 @@
         <v>1527</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>1533</v>
       </c>
@@ -46954,7 +46957,7 @@
         <v>1532</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>1538</v>
       </c>
@@ -46989,7 +46992,7 @@
         <v>1537</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>1540</v>
       </c>
@@ -47024,7 +47027,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>1545</v>
       </c>
@@ -47059,7 +47062,7 @@
         <v>1544</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>1549</v>
       </c>
@@ -47094,7 +47097,7 @@
         <v>1548</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>1553</v>
       </c>
@@ -47129,7 +47132,7 @@
         <v>1552</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>1571</v>
       </c>
@@ -47164,7 +47167,7 @@
         <v>1568</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>1804</v>
       </c>
@@ -47199,7 +47202,7 @@
         <v>1805</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>1808</v>
       </c>
@@ -47234,7 +47237,7 @@
         <v>1807</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>1877</v>
       </c>
@@ -47269,7 +47272,7 @@
         <v>1875</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>1906</v>
       </c>
@@ -47304,7 +47307,7 @@
         <v>1905</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>1910</v>
       </c>
@@ -47339,7 +47342,7 @@
         <v>1908</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>1969</v>
       </c>
@@ -47374,7 +47377,7 @@
         <v>1970</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>1974</v>
       </c>
@@ -47409,7 +47412,7 @@
         <v>1972</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>1975</v>
       </c>
@@ -47444,7 +47447,7 @@
         <v>1977</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>1979</v>
       </c>
@@ -47479,7 +47482,7 @@
         <v>1978</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>1984</v>
       </c>
@@ -47514,7 +47517,7 @@
         <v>1982</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>1988</v>
       </c>
@@ -47549,7 +47552,7 @@
         <v>1987</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>1992</v>
       </c>
@@ -47584,7 +47587,7 @@
         <v>1991</v>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>1993</v>
       </c>
@@ -47613,7 +47616,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>2003</v>
       </c>
@@ -47648,7 +47651,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>2010</v>
       </c>
@@ -47683,7 +47686,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>2023</v>
       </c>
@@ -47718,7 +47721,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>2026</v>
       </c>
@@ -47753,7 +47756,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>2031</v>
       </c>
@@ -47788,7 +47791,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>2051</v>
       </c>
@@ -47823,7 +47826,7 @@
         <v>2048</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>2055</v>
       </c>
@@ -47858,7 +47861,7 @@
         <v>2053</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>2058</v>
       </c>
@@ -47893,7 +47896,7 @@
         <v>2059</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>2095</v>
       </c>
@@ -47928,7 +47931,7 @@
         <v>2093</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>2099</v>
       </c>
@@ -47963,7 +47966,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>2104</v>
       </c>
@@ -47998,7 +48001,7 @@
         <v>2105</v>
       </c>
     </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>2108</v>
       </c>
@@ -48033,7 +48036,7 @@
         <v>2106</v>
       </c>
     </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>2120</v>
       </c>
@@ -48068,7 +48071,7 @@
         <v>2121</v>
       </c>
     </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>2124</v>
       </c>
@@ -48103,7 +48106,7 @@
         <v>2122</v>
       </c>
     </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>2128</v>
       </c>
@@ -48138,7 +48141,7 @@
         <v>2127</v>
       </c>
     </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>2130</v>
       </c>
@@ -48173,7 +48176,7 @@
         <v>2129</v>
       </c>
     </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>2145</v>
       </c>
@@ -48208,7 +48211,7 @@
         <v>2141</v>
       </c>
     </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>2150</v>
       </c>
@@ -48243,7 +48246,7 @@
         <v>2147</v>
       </c>
     </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>2157</v>
       </c>
@@ -48278,7 +48281,7 @@
         <v>2156</v>
       </c>
     </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>2163</v>
       </c>
@@ -48313,7 +48316,7 @@
         <v>2163</v>
       </c>
     </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>2170</v>
       </c>
@@ -48348,7 +48351,7 @@
         <v>2171</v>
       </c>
     </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>2177</v>
       </c>
@@ -48383,7 +48386,7 @@
         <v>2178</v>
       </c>
     </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>2196</v>
       </c>
@@ -48418,7 +48421,7 @@
         <v>2193</v>
       </c>
     </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>2202</v>
       </c>
@@ -48459,7 +48462,7 @@
         <v>2321</v>
       </c>
     </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>2206</v>
       </c>
@@ -48494,7 +48497,7 @@
         <v>2205</v>
       </c>
     </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>2209</v>
       </c>
@@ -48523,7 +48526,7 @@
         <v>2209</v>
       </c>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>2245</v>
       </c>
@@ -48558,7 +48561,7 @@
         <v>2242</v>
       </c>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>2248</v>
       </c>
@@ -48593,7 +48596,7 @@
         <v>2247</v>
       </c>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>2266</v>
       </c>
@@ -48628,7 +48631,7 @@
         <v>2265</v>
       </c>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>2279</v>
       </c>
@@ -48663,7 +48666,7 @@
         <v>2278</v>
       </c>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>2298</v>
       </c>
@@ -48698,7 +48701,7 @@
         <v>2299</v>
       </c>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>2305</v>
       </c>
@@ -48733,7 +48736,7 @@
         <v>2304</v>
       </c>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>2309</v>
       </c>
@@ -48768,7 +48771,7 @@
         <v>2306</v>
       </c>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>2312</v>
       </c>
@@ -48800,7 +48803,7 @@
         <v>2313</v>
       </c>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>2315</v>
       </c>
@@ -48832,7 +48835,7 @@
         <v>2314</v>
       </c>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>2368</v>
       </c>
@@ -48861,7 +48864,7 @@
         <v>2368</v>
       </c>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>2369</v>
       </c>
@@ -48890,7 +48893,7 @@
         <v>2369</v>
       </c>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>2370</v>
       </c>
@@ -48919,7 +48922,7 @@
         <v>2370</v>
       </c>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>2405</v>
       </c>
@@ -48954,7 +48957,7 @@
         <v>2402</v>
       </c>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>2407</v>
       </c>
@@ -48989,7 +48992,7 @@
         <v>2408</v>
       </c>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>2411</v>
       </c>
@@ -49024,7 +49027,7 @@
         <v>2410</v>
       </c>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>2415</v>
       </c>
@@ -49059,7 +49062,7 @@
         <v>2417</v>
       </c>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>2420</v>
       </c>
@@ -49094,7 +49097,7 @@
         <v>2421</v>
       </c>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>2425</v>
       </c>
@@ -49129,7 +49132,7 @@
         <v>2423</v>
       </c>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>2448</v>
       </c>
@@ -49164,7 +49167,7 @@
         <v>2447</v>
       </c>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>2500</v>
       </c>
@@ -49196,7 +49199,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>2503</v>
       </c>
@@ -49228,7 +49231,7 @@
         <v>2505</v>
       </c>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>2507</v>
       </c>
@@ -49263,7 +49266,7 @@
         <v>2510</v>
       </c>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>2545</v>
       </c>
@@ -49298,7 +49301,7 @@
         <v>2542</v>
       </c>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>2546</v>
       </c>
@@ -49321,7 +49324,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>2548</v>
       </c>
@@ -49344,7 +49347,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>2549</v>
       </c>
@@ -49367,7 +49370,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>2562</v>
       </c>
@@ -49399,7 +49402,7 @@
         <v>2561</v>
       </c>
     </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>2571</v>
       </c>
@@ -49434,7 +49437,7 @@
         <v>2573</v>
       </c>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>2579</v>
       </c>
@@ -49463,7 +49466,7 @@
         <v>2579</v>
       </c>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>2604</v>
       </c>
@@ -49498,7 +49501,7 @@
         <v>2602</v>
       </c>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>2607</v>
       </c>
@@ -49533,7 +49536,7 @@
         <v>2609</v>
       </c>
     </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>2683</v>
       </c>
@@ -49568,7 +49571,7 @@
         <v>2681</v>
       </c>
     </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>2701</v>
       </c>
@@ -49597,7 +49600,7 @@
         <v>2701</v>
       </c>
     </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>2702</v>
       </c>
@@ -49626,7 +49629,7 @@
         <v>2702</v>
       </c>
     </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>2704</v>
       </c>
@@ -49655,7 +49658,7 @@
         <v>2704</v>
       </c>
     </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>2705</v>
       </c>
@@ -49690,7 +49693,7 @@
         <v>2708</v>
       </c>
     </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>2766</v>
       </c>
@@ -49722,7 +49725,7 @@
         <v>2763</v>
       </c>
     </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>2768</v>
       </c>
@@ -49745,7 +49748,7 @@
         <v>2768</v>
       </c>
     </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>2770</v>
       </c>
@@ -49768,7 +49771,7 @@
         <v>2770</v>
       </c>
     </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>2782</v>
       </c>
@@ -49788,7 +49791,7 @@
         <v>2782</v>
       </c>
     </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>2785</v>
       </c>
@@ -49823,7 +49826,7 @@
         <v>2784</v>
       </c>
     </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>2801</v>
       </c>
@@ -49855,7 +49858,7 @@
         <v>2799</v>
       </c>
     </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>2803</v>
       </c>
@@ -49887,7 +49890,7 @@
         <v>2802</v>
       </c>
     </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>2797</v>
       </c>
@@ -49922,7 +49925,7 @@
         <v>2796</v>
       </c>
     </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>2790</v>
       </c>
@@ -49957,7 +49960,7 @@
         <v>2795</v>
       </c>
     </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>2791</v>
       </c>
@@ -49992,7 +49995,7 @@
         <v>2792</v>
       </c>
     </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>2807</v>
       </c>
@@ -50024,7 +50027,7 @@
         <v>2808</v>
       </c>
     </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>2814</v>
       </c>
@@ -50059,7 +50062,7 @@
         <v>2813</v>
       </c>
     </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>2820</v>
       </c>
@@ -50094,7 +50097,7 @@
         <v>2821</v>
       </c>
     </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>2825</v>
       </c>
@@ -50129,7 +50132,7 @@
         <v>2824</v>
       </c>
     </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>2828</v>
       </c>
@@ -50162,6 +50165,38 @@
       </c>
       <c r="L195" t="s">
         <v>2827</v>
+      </c>
+    </row>
+    <row r="196" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>2877</v>
+      </c>
+      <c r="B196" t="s">
+        <v>2877</v>
+      </c>
+      <c r="C196" t="s">
+        <v>2874</v>
+      </c>
+      <c r="D196" t="s">
+        <v>19</v>
+      </c>
+      <c r="E196" t="s">
+        <v>2876</v>
+      </c>
+      <c r="H196" t="s">
+        <v>20</v>
+      </c>
+      <c r="I196" t="s">
+        <v>2201</v>
+      </c>
+      <c r="J196" t="s">
+        <v>2877</v>
+      </c>
+      <c r="K196" t="s">
+        <v>17</v>
+      </c>
+      <c r="L196" t="s">
+        <v>2875</v>
       </c>
     </row>
   </sheetData>
@@ -50184,25 +50219,25 @@
       <selection pane="bottomLeft" activeCell="E84" sqref="E84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="32.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="79.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="35.26953125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.54296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="30.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="32.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="79.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="30.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="34.1796875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="34.140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="24.54296875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="24.5703125" bestFit="1" customWidth="1"/>
     <col min="15" max="1025" width="9" style="20" customWidth="1"/>
-    <col min="1026" max="16384" width="8.81640625" style="20"/>
+    <col min="1026" max="16384" width="8.85546875" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="9" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" s="9" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -50246,7 +50281,7 @@
         <v>1831</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>84</v>
       </c>
@@ -50281,7 +50316,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>122</v>
       </c>
@@ -50307,7 +50342,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>430</v>
       </c>
@@ -50342,7 +50377,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>518</v>
       </c>
@@ -50368,7 +50403,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>457</v>
       </c>
@@ -50394,7 +50429,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>463</v>
       </c>
@@ -50429,7 +50464,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>468</v>
       </c>
@@ -50464,7 +50499,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>766</v>
       </c>
@@ -50499,7 +50534,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>646</v>
       </c>
@@ -50534,7 +50569,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>741</v>
       </c>
@@ -50563,7 +50598,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>744</v>
       </c>
@@ -50598,7 +50633,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>755</v>
       </c>
@@ -50633,7 +50668,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>772</v>
       </c>
@@ -50668,7 +50703,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>796</v>
       </c>
@@ -50703,7 +50738,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>797</v>
       </c>
@@ -50738,7 +50773,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>818</v>
       </c>
@@ -50779,7 +50814,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>827</v>
       </c>
@@ -50814,7 +50849,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>828</v>
       </c>
@@ -50849,7 +50884,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>831</v>
       </c>
@@ -50884,7 +50919,7 @@
         <v>2319</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>974</v>
       </c>
@@ -50919,7 +50954,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>1165</v>
       </c>
@@ -50954,7 +50989,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>1213</v>
       </c>
@@ -50980,7 +51015,7 @@
         <v>1213</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>1214</v>
       </c>
@@ -51006,7 +51041,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>1492</v>
       </c>
@@ -51032,7 +51067,7 @@
         <v>1492</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>1266</v>
       </c>
@@ -51052,7 +51087,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>1269</v>
       </c>
@@ -51087,7 +51122,7 @@
         <v>1268</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>1274</v>
       </c>
@@ -51122,7 +51157,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>1439</v>
       </c>
@@ -51148,7 +51183,7 @@
         <v>1439</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>1494</v>
       </c>
@@ -51174,7 +51209,7 @@
         <v>1494</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>1577</v>
       </c>
@@ -51200,7 +51235,7 @@
         <v>1577</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>1824</v>
       </c>
@@ -51235,7 +51270,7 @@
         <v>1825</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>1826</v>
       </c>
@@ -51270,7 +51305,7 @@
         <v>1827</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>1926</v>
       </c>
@@ -51305,7 +51340,7 @@
         <v>1928</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>2034</v>
       </c>
@@ -51340,7 +51375,7 @@
         <v>2037</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>2040</v>
       </c>
@@ -51375,7 +51410,7 @@
         <v>2039</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>2110</v>
       </c>
@@ -51410,7 +51445,7 @@
         <v>2111</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>2154</v>
       </c>
@@ -51445,7 +51480,7 @@
         <v>2153</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>2186</v>
       </c>
@@ -51480,7 +51515,7 @@
         <v>2184</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>2190</v>
       </c>
@@ -51503,7 +51538,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>2214</v>
       </c>
@@ -51538,7 +51573,7 @@
         <v>2213</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>2271</v>
       </c>
@@ -51573,7 +51608,7 @@
         <v>2272</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>2274</v>
       </c>
@@ -51608,7 +51643,7 @@
         <v>2276</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>2291</v>
       </c>
@@ -51649,7 +51684,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>2329</v>
       </c>
@@ -51684,7 +51719,7 @@
         <v>2328</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>2326</v>
       </c>
@@ -51719,7 +51754,7 @@
         <v>2325</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>2339</v>
       </c>
@@ -51754,7 +51789,7 @@
         <v>2340</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>2345</v>
       </c>
@@ -51789,7 +51824,7 @@
         <v>2344</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>2349</v>
       </c>
@@ -51824,7 +51859,7 @@
         <v>2350</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>2353</v>
       </c>
@@ -51859,7 +51894,7 @@
         <v>2352</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>2356</v>
       </c>
@@ -51894,7 +51929,7 @@
         <v>2359</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>2362</v>
       </c>
@@ -51929,7 +51964,7 @@
         <v>2361</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>2365</v>
       </c>
@@ -51964,7 +51999,7 @@
         <v>2367</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>2373</v>
       </c>
@@ -51987,7 +52022,7 @@
         <v>2373</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>2391</v>
       </c>
@@ -52022,7 +52057,7 @@
         <v>2392</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>2394</v>
       </c>
@@ -52057,7 +52092,7 @@
         <v>2393</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>2454</v>
       </c>
@@ -52092,7 +52127,7 @@
         <v>2453</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>2473</v>
       </c>
@@ -52127,7 +52162,7 @@
         <v>2471</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>2497</v>
       </c>
@@ -52159,7 +52194,7 @@
         <v>2498</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>2522</v>
       </c>
@@ -52194,7 +52229,7 @@
         <v>2524</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>2528</v>
       </c>
@@ -52226,7 +52261,7 @@
         <v>2529</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>2532</v>
       </c>
@@ -52252,7 +52287,7 @@
         <v>2532</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>2535</v>
       </c>
@@ -52287,7 +52322,7 @@
         <v>2536</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>2575</v>
       </c>
@@ -52319,7 +52354,7 @@
         <v>2574</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>2588</v>
       </c>
@@ -52351,7 +52386,7 @@
         <v>2587</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>2592</v>
       </c>
@@ -52383,7 +52418,7 @@
         <v>2590</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>2636</v>
       </c>
@@ -52418,7 +52453,7 @@
         <v>2635</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>2639</v>
       </c>
@@ -52453,7 +52488,7 @@
         <v>2634</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>2675</v>
       </c>
@@ -52485,7 +52520,7 @@
         <v>2674</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>2696</v>
       </c>
@@ -52517,7 +52552,7 @@
         <v>2695</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>2699</v>
       </c>
@@ -52549,7 +52584,7 @@
         <v>2700</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>2711</v>
       </c>
@@ -52584,7 +52619,7 @@
         <v>2710</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>2856</v>
       </c>
@@ -52619,7 +52654,7 @@
         <v>2855</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>2857</v>
       </c>
@@ -52651,7 +52686,7 @@
         <v>2858</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>2860</v>
       </c>
@@ -52717,23 +52752,23 @@
       <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="49.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.26953125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.26953125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="28.1796875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="49.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="49.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="49.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="24.54296875" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.81640625" style="20"/>
+    <col min="12" max="12" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.85546875" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="9" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" s="9" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -52771,7 +52806,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>71</v>
       </c>
@@ -52806,7 +52841,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>91</v>
       </c>
@@ -52841,7 +52876,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>724</v>
       </c>
@@ -52876,7 +52911,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>730</v>
       </c>
@@ -52911,7 +52946,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>803</v>
       </c>
@@ -52937,7 +52972,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>964</v>
       </c>
@@ -52972,7 +53007,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>968</v>
       </c>
@@ -53007,7 +53042,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>1159</v>
       </c>
@@ -53042,7 +53077,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>1220</v>
       </c>
@@ -53077,7 +53112,7 @@
         <v>1219</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>1328</v>
       </c>
@@ -53112,7 +53147,7 @@
         <v>1821</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>1890</v>
       </c>
@@ -53138,7 +53173,7 @@
         <v>1890</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>1894</v>
       </c>
@@ -53164,7 +53199,7 @@
         <v>1894</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>1896</v>
       </c>
@@ -53199,7 +53234,7 @@
         <v>1895</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>2753</v>
       </c>
@@ -53234,7 +53269,7 @@
         <v>2754</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>2773</v>
       </c>
@@ -53266,7 +53301,7 @@
         <v>2772</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>2776</v>
       </c>
@@ -53298,7 +53333,7 @@
         <v>2774</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>2781</v>
       </c>
@@ -53344,24 +53379,24 @@
       <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.26953125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="29.26953125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="30.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="30.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="24.7265625" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.81640625" style="20"/>
+    <col min="12" max="12" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.85546875" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="10" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" s="10" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -53399,7 +53434,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>117</v>
       </c>
@@ -53416,7 +53451,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>118</v>
       </c>
@@ -53433,7 +53468,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>119</v>
       </c>
@@ -53450,7 +53485,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>522</v>
       </c>
@@ -53485,7 +53520,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>528</v>
       </c>
@@ -53520,7 +53555,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>957</v>
       </c>
@@ -53555,7 +53590,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>1168</v>
       </c>
@@ -53590,7 +53625,7 @@
         <v>1819</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>1236</v>
       </c>
@@ -53622,7 +53657,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>1887</v>
       </c>
@@ -53657,7 +53692,7 @@
         <v>1886</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>2334</v>
       </c>
@@ -53692,7 +53727,7 @@
         <v>2335</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>2397</v>
       </c>
@@ -53727,7 +53762,7 @@
         <v>2396</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>2488</v>
       </c>
@@ -53759,7 +53794,7 @@
         <v>2489</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>2491</v>
       </c>

--- a/Altium/DB.xlsx
+++ b/Altium/DB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Repos\LIBS\Altium\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{809407DD-B886-4589-B9B7-E61B3B9C7470}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AA3181A-07BA-47DE-829A-3398B979DC4F}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="495" yWindow="2835" windowWidth="31515" windowHeight="15885" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43439,8 +43439,8 @@
   <dimension ref="A1:N196"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A142" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I196" sqref="I196"/>
+      <pane ySplit="1" topLeftCell="A163" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D198" sqref="D198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -50178,7 +50178,7 @@
         <v>2874</v>
       </c>
       <c r="D196" t="s">
-        <v>19</v>
+        <v>531</v>
       </c>
       <c r="E196" t="s">
         <v>2876</v>

--- a/Altium/DB.xlsx
+++ b/Altium/DB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git\Titanius\Libs\Altium\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C518338B-0244-46B1-94B1-2251F9DBDCC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1E3006E-2CC2-467A-B389-05B5C22ADA62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="500" yWindow="2830" windowWidth="31520" windowHeight="15890" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="500" yWindow="2830" windowWidth="31520" windowHeight="15890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="C" sheetId="2" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8358" uniqueCount="2874">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8386" uniqueCount="2879">
   <si>
     <t>Part Number</t>
   </si>
@@ -8664,6 +8664,21 @@
   </si>
   <si>
     <t>Q2016-4-200x160x50-135x105</t>
+  </si>
+  <si>
+    <t>RC0201FR-071KL</t>
+  </si>
+  <si>
+    <t>311-1KMTR-ND</t>
+  </si>
+  <si>
+    <t>RES 1K OHM 1% 1/20W 0201</t>
+  </si>
+  <si>
+    <t>CL03A474KQ3NNNC</t>
+  </si>
+  <si>
+    <t>1276-1337-2-ND</t>
   </si>
 </sst>
 </file>
@@ -26910,10 +26925,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:P102"/>
+  <dimension ref="A1:P103"/>
   <sheetViews>
-    <sheetView topLeftCell="A48" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I106" sqref="I106"/>
+    <sheetView tabSelected="1" topLeftCell="A66" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="S106" sqref="S106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -31738,6 +31753,53 @@
         <v>2660</v>
       </c>
     </row>
+    <row r="103" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A103" s="16" t="s">
+        <v>2877</v>
+      </c>
+      <c r="B103" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C103" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D103" s="5" t="s">
+        <v>531</v>
+      </c>
+      <c r="E103" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F103" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="H103" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I103" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J103" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="K103" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L103" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="M103" s="5" t="s">
+        <v>1916</v>
+      </c>
+      <c r="N103" s="16" t="s">
+        <v>2877</v>
+      </c>
+      <c r="O103" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="P103" s="5" t="s">
+        <v>2878</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P43">
     <sortCondition ref="F2:F43"/>
@@ -31754,11 +31816,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N175"/>
+  <dimension ref="A1:N176"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A136" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J185" sqref="J185"/>
+      <pane ySplit="1" topLeftCell="A148" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C182" sqref="C182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -38951,6 +39013,47 @@
       </c>
       <c r="N175" t="s">
         <v>2848</v>
+      </c>
+    </row>
+    <row r="176" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A176" t="s">
+        <v>2874</v>
+      </c>
+      <c r="B176" t="s">
+        <v>11</v>
+      </c>
+      <c r="C176" t="s">
+        <v>56</v>
+      </c>
+      <c r="D176" t="s">
+        <v>531</v>
+      </c>
+      <c r="E176" t="s">
+        <v>2876</v>
+      </c>
+      <c r="F176" t="s">
+        <v>1009</v>
+      </c>
+      <c r="H176" t="s">
+        <v>20</v>
+      </c>
+      <c r="I176" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="J176" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K176" t="s">
+        <v>55</v>
+      </c>
+      <c r="L176" t="s">
+        <v>2874</v>
+      </c>
+      <c r="M176" t="s">
+        <v>17</v>
+      </c>
+      <c r="N176" t="s">
+        <v>2875</v>
       </c>
     </row>
   </sheetData>
@@ -43435,7 +43538,7 @@
   </sheetPr>
   <dimension ref="A1:N195"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A133" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F150" sqref="F150"/>
     </sheetView>

--- a/Altium/DB.xlsx
+++ b/Altium/DB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git\Titanius\Libs\Altium\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Repos\LIBS\Altium\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1E3006E-2CC2-467A-B389-05B5C22ADA62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC98D260-77F5-4599-9CF3-2473C016A2DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="500" yWindow="2830" windowWidth="31520" windowHeight="15890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="C" sheetId="2" r:id="rId1"/>
@@ -23,17 +23,11 @@
     <sheet name="Other" sheetId="14" r:id="rId8"/>
     <sheet name="Mech" sheetId="11" r:id="rId9"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Discrete Semiconductors'!$A$1:$AMK$61</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
     </ext>
@@ -42,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8386" uniqueCount="2879">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8642" uniqueCount="2972">
   <si>
     <t>Part Number</t>
   </si>
@@ -8679,6 +8673,285 @@
   </si>
   <si>
     <t>1276-1337-2-ND</t>
+  </si>
+  <si>
+    <t>SiR690DP-T1-GE3</t>
+  </si>
+  <si>
+    <t>SiR690DP</t>
+  </si>
+  <si>
+    <t>DGD21844MS14-13</t>
+  </si>
+  <si>
+    <t>SOIC127P600X173-14N</t>
+  </si>
+  <si>
+    <t>DGD21844M</t>
+  </si>
+  <si>
+    <t>IC GATE DRVR HALF-BRIDGE 14SO</t>
+  </si>
+  <si>
+    <t>31-DGD21844MS14-13CT-ND</t>
+  </si>
+  <si>
+    <t>DFLU1200-7</t>
+  </si>
+  <si>
+    <t>DIODE GP 200V 1A POWERDI123</t>
+  </si>
+  <si>
+    <t>SODFL370X100-2N</t>
+  </si>
+  <si>
+    <t>DFLU1200-7DICT-ND</t>
+  </si>
+  <si>
+    <t>MOSFET N-CH 200V 34.4A PPAK SO-8</t>
+  </si>
+  <si>
+    <t>SIR690DP-T1-GE3</t>
+  </si>
+  <si>
+    <t>SIR690DP-T1-GE3CT-ND</t>
+  </si>
+  <si>
+    <t>478-3984-1-ND</t>
+  </si>
+  <si>
+    <t>CAP CER 0.22UF 250V X7R 1808</t>
+  </si>
+  <si>
+    <t>1808PC224KAT1A</t>
+  </si>
+  <si>
+    <t>KYOCERA AVX</t>
+  </si>
+  <si>
+    <t>CAPC4620X18N</t>
+  </si>
+  <si>
+    <t>4713-RM12F47R5CT-ND</t>
+  </si>
+  <si>
+    <t>RM12F47R5CT</t>
+  </si>
+  <si>
+    <t>RES1206 1% 47.5 OHM</t>
+  </si>
+  <si>
+    <t>47.5</t>
+  </si>
+  <si>
+    <t>RESC3115X06N</t>
+  </si>
+  <si>
+    <t>445-2325-1-ND</t>
+  </si>
+  <si>
+    <t>C2012C0G2E102J085AA</t>
+  </si>
+  <si>
+    <t>CAP CER 1000PF 250V C0G 0805</t>
+  </si>
+  <si>
+    <t>MC33272ADR2G</t>
+  </si>
+  <si>
+    <t>MC33272A</t>
+  </si>
+  <si>
+    <t>MC33272ADR2GOSCT-ND</t>
+  </si>
+  <si>
+    <t>IC OPAMP GP 2 CIRCUIT 8SOIC</t>
+  </si>
+  <si>
+    <t>WSLF-.02CT-ND</t>
+  </si>
+  <si>
+    <t>WSL2010R0200FEA18</t>
+  </si>
+  <si>
+    <t>RES 0.02 OHM 1% 1W 2010</t>
+  </si>
+  <si>
+    <t>20m</t>
+  </si>
+  <si>
+    <t>UUJ2C470MNJ6MS</t>
+  </si>
+  <si>
+    <t>CAP ALUM 47UF 20% 160V SMD</t>
+  </si>
+  <si>
+    <t>160V</t>
+  </si>
+  <si>
+    <t>Nichicon</t>
+  </si>
+  <si>
+    <t>493-UUJ2C470MNJ6MSCT-ND</t>
+  </si>
+  <si>
+    <t>CAPAE148136X211M</t>
+  </si>
+  <si>
+    <t>TMP1075DR</t>
+  </si>
+  <si>
+    <t>DIGITAL TEMP SENSOR W/ 2-WIRE IN</t>
+  </si>
+  <si>
+    <t>296-51833-1-ND</t>
+  </si>
+  <si>
+    <t>TMP1075D</t>
+  </si>
+  <si>
+    <t>REF35102QDBVR</t>
+  </si>
+  <si>
+    <t>296-REF35102QDBVRCT-ND</t>
+  </si>
+  <si>
+    <t>650-NA QUIESCENT CURRENT, 12-PPM</t>
+  </si>
+  <si>
+    <t>REF35102Q</t>
+  </si>
+  <si>
+    <t>MP2393GTL-Z</t>
+  </si>
+  <si>
+    <t>MP2393GTL</t>
+  </si>
+  <si>
+    <t>IC REG BUCK ADJ 3A SOT583</t>
+  </si>
+  <si>
+    <t>1589-MP2393GTL-ZCT-ND</t>
+  </si>
+  <si>
+    <t>ST1S10PHR</t>
+  </si>
+  <si>
+    <t>IC REG BUCK ADJ 3A POWERSO-8</t>
+  </si>
+  <si>
+    <t>497-6904-1-ND</t>
+  </si>
+  <si>
+    <t>ST1S10</t>
+  </si>
+  <si>
+    <t>SOIC127P600X170_HS-9N</t>
+  </si>
+  <si>
+    <t>RC0402FR-0731K6L</t>
+  </si>
+  <si>
+    <t>RES 31.6K OHM 1% 1/16W 0402</t>
+  </si>
+  <si>
+    <t>YAGEO</t>
+  </si>
+  <si>
+    <t>YAG3115CT-ND</t>
+  </si>
+  <si>
+    <t>31.6k</t>
+  </si>
+  <si>
+    <t>1698982</t>
+  </si>
+  <si>
+    <t>Farnell</t>
+  </si>
+  <si>
+    <t>Multicomp</t>
+  </si>
+  <si>
+    <t>MULTICOMP_ 24_243_1</t>
+  </si>
+  <si>
+    <t>Banana Test Connector, 4mm, Socket, PCB Mount, 24 A, 60 VDC, Silver Plated Contacts, Red</t>
+  </si>
+  <si>
+    <t>MULTICOMP_ 24_243_2</t>
+  </si>
+  <si>
+    <t>1698983</t>
+  </si>
+  <si>
+    <t>Banana Test Connector, 4mm, Socket, PCB Mount, 24 A, 60 VDC, Silver Plated Contacts, Black</t>
+  </si>
+  <si>
+    <t>24.243.2</t>
+  </si>
+  <si>
+    <t>24.243.1</t>
+  </si>
+  <si>
+    <t>IRFR6215TRLPBFCT-ND</t>
+  </si>
+  <si>
+    <t>IRFR6215TRLPBF</t>
+  </si>
+  <si>
+    <t>MOSFET P-CH 150V 13A DPAK</t>
+  </si>
+  <si>
+    <t>YAG2992CT-ND</t>
+  </si>
+  <si>
+    <t>RC0402FR-0715K4L</t>
+  </si>
+  <si>
+    <t>RES 15.4K OHM 1% 1/16W 0402</t>
+  </si>
+  <si>
+    <t>15.4k</t>
+  </si>
+  <si>
+    <t>RESC1005X04N</t>
+  </si>
+  <si>
+    <t>RC0402FR-0735K7L</t>
+  </si>
+  <si>
+    <t>35.7k</t>
+  </si>
+  <si>
+    <t>311-35.7KLRDKR-ND</t>
+  </si>
+  <si>
+    <t>RES 35.7K OHM 1% 1/16W 0402</t>
+  </si>
+  <si>
+    <t>MMBT5550LT3GOSCT-ND</t>
+  </si>
+  <si>
+    <t>MMBT5550LT3G</t>
+  </si>
+  <si>
+    <t>TRANS NPN 140V 0.6A SOT23-3</t>
+  </si>
+  <si>
+    <t>KLS_L-KLS1-B0210-835M64-T3R</t>
+  </si>
+  <si>
+    <t>L-KLS1-B0210-835M64-T3R</t>
+  </si>
+  <si>
+    <t>Connector P64</t>
+  </si>
+  <si>
+    <t>KLS_L-KLS1-B0210-530F64-T3R</t>
+  </si>
+  <si>
+    <t>L-KLS1-B0210-530F64-T3R</t>
   </si>
 </sst>
 </file>
@@ -8815,7 +9088,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8848,6 +9121,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -8918,7 +9197,7 @@
     <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="33">
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -8993,6 +9272,11 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="49" fontId="12" fillId="6" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Нейтральный" xfId="2" builtinId="28"/>
@@ -26925,35 +27209,35 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:P103"/>
+  <dimension ref="A1:P106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="S106" sqref="S106"/>
+    <sheetView topLeftCell="A70" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F122" sqref="F122"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.54296875" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.81640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.453125" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.26953125" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="56.54296875" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.54296875" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.7265625" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="56.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.7109375" style="5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.1796875" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.7265625" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.453125" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.81640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="31.453125" style="5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="30.26953125" style="16" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.81640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="31.1796875" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="31.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="30.28515625" style="16" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="31.140625" style="5" bestFit="1" customWidth="1"/>
     <col min="17" max="1026" width="9" style="20" customWidth="1"/>
-    <col min="1027" max="16384" width="8.81640625" style="20"/>
+    <col min="1027" max="16384" width="8.85546875" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="28" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" s="28" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -27003,7 +27287,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="10" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" s="10" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>653</v>
       </c>
@@ -27053,7 +27337,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>722</v>
       </c>
@@ -27103,7 +27387,7 @@
         <v>1657</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>40</v>
       </c>
@@ -27153,7 +27437,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>29</v>
       </c>
@@ -27203,7 +27487,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>36</v>
       </c>
@@ -27253,7 +27537,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>690</v>
       </c>
@@ -27303,7 +27587,7 @@
         <v>1656</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>881</v>
       </c>
@@ -27353,7 +27637,7 @@
         <v>2318</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>810</v>
       </c>
@@ -27403,7 +27687,7 @@
         <v>1655</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>687</v>
       </c>
@@ -27453,7 +27737,7 @@
         <v>1654</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>694</v>
       </c>
@@ -27503,7 +27787,7 @@
         <v>1583</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>607</v>
       </c>
@@ -27553,7 +27837,7 @@
         <v>1653</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>642</v>
       </c>
@@ -27603,7 +27887,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>425</v>
       </c>
@@ -27650,7 +27934,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>791</v>
       </c>
@@ -27697,7 +27981,7 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>337</v>
       </c>
@@ -27744,7 +28028,7 @@
         <v>1649</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>709</v>
       </c>
@@ -27791,7 +28075,7 @@
         <v>1648</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>217</v>
       </c>
@@ -27838,7 +28122,7 @@
         <v>1647</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>639</v>
       </c>
@@ -27885,7 +28169,7 @@
         <v>1646</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>398</v>
       </c>
@@ -27932,7 +28216,7 @@
         <v>1582</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>622</v>
       </c>
@@ -27979,7 +28263,7 @@
         <v>1645</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>420</v>
       </c>
@@ -28026,7 +28310,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>358</v>
       </c>
@@ -28073,7 +28357,7 @@
         <v>1644</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>315</v>
       </c>
@@ -28120,7 +28404,7 @@
         <v>1643</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>336</v>
       </c>
@@ -28167,7 +28451,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>330</v>
       </c>
@@ -28214,7 +28498,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>210</v>
       </c>
@@ -28261,7 +28545,7 @@
         <v>1640</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>215</v>
       </c>
@@ -28308,7 +28592,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>212</v>
       </c>
@@ -28355,7 +28639,7 @@
         <v>1638</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>209</v>
       </c>
@@ -28402,7 +28686,7 @@
         <v>1637</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>213</v>
       </c>
@@ -28449,7 +28733,7 @@
         <v>1636</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>211</v>
       </c>
@@ -28496,7 +28780,7 @@
         <v>1635</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>214</v>
       </c>
@@ -28543,7 +28827,7 @@
         <v>1634</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>360</v>
       </c>
@@ -28590,7 +28874,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>208</v>
       </c>
@@ -28637,7 +28921,7 @@
         <v>1633</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>679</v>
       </c>
@@ -28684,7 +28968,7 @@
         <v>1632</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>710</v>
       </c>
@@ -28731,7 +29015,7 @@
         <v>1631</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>206</v>
       </c>
@@ -28778,7 +29062,7 @@
         <v>1630</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>218</v>
       </c>
@@ -28825,7 +29109,7 @@
         <v>1629</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>207</v>
       </c>
@@ -28872,7 +29156,7 @@
         <v>1628</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="16" t="s">
         <v>769</v>
       </c>
@@ -28919,7 +29203,7 @@
         <v>1627</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>216</v>
       </c>
@@ -28966,7 +29250,7 @@
         <v>1626</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>191</v>
       </c>
@@ -29013,7 +29297,7 @@
         <v>1625</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>887</v>
       </c>
@@ -29060,7 +29344,7 @@
         <v>1624</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>900</v>
       </c>
@@ -29110,7 +29394,7 @@
         <v>1623</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>903</v>
       </c>
@@ -29160,7 +29444,7 @@
         <v>1622</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>952</v>
       </c>
@@ -29207,7 +29491,7 @@
         <v>1621</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>992</v>
       </c>
@@ -29254,7 +29538,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" s="16" t="s">
         <v>1025</v>
       </c>
@@ -29301,7 +29585,7 @@
         <v>1592</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
         <v>1029</v>
       </c>
@@ -29348,7 +29632,7 @@
         <v>1620</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>1033</v>
       </c>
@@ -29395,7 +29679,7 @@
         <v>1619</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
         <v>1038</v>
       </c>
@@ -29442,7 +29726,7 @@
         <v>1618</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
         <v>1106</v>
       </c>
@@ -29486,7 +29770,7 @@
         <v>1617</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
         <v>1127</v>
       </c>
@@ -29533,7 +29817,7 @@
         <v>1616</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
         <v>1192</v>
       </c>
@@ -29580,7 +29864,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" s="16" t="s">
         <v>1305</v>
       </c>
@@ -29627,7 +29911,7 @@
         <v>1615</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
         <v>1309</v>
       </c>
@@ -29674,7 +29958,7 @@
         <v>1614</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
         <v>1323</v>
       </c>
@@ -29721,7 +30005,7 @@
         <v>1586</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
         <v>1363</v>
       </c>
@@ -29768,7 +30052,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
         <v>1365</v>
       </c>
@@ -29815,7 +30099,7 @@
         <v>1613</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
         <v>1367</v>
       </c>
@@ -29862,7 +30146,7 @@
         <v>1589</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62" s="16" t="s">
         <v>1381</v>
       </c>
@@ -29909,7 +30193,7 @@
         <v>1612</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
         <v>1385</v>
       </c>
@@ -29956,7 +30240,7 @@
         <v>1611</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
         <v>1401</v>
       </c>
@@ -30003,7 +30287,7 @@
         <v>1610</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65" s="16" t="s">
         <v>1414</v>
       </c>
@@ -30050,7 +30334,7 @@
         <v>1609</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
         <v>1416</v>
       </c>
@@ -30097,7 +30381,7 @@
         <v>1608</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
         <v>1432</v>
       </c>
@@ -30141,7 +30425,7 @@
         <v>1607</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
         <v>1437</v>
       </c>
@@ -30188,7 +30472,7 @@
         <v>1606</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
         <v>1440</v>
       </c>
@@ -30235,7 +30519,7 @@
         <v>1596</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A70" s="16" t="s">
         <v>1442</v>
       </c>
@@ -30282,7 +30566,7 @@
         <v>1597</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A71" s="16" t="s">
         <v>1443</v>
       </c>
@@ -30329,7 +30613,7 @@
         <v>1595</v>
       </c>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A72" s="16" t="s">
         <v>1444</v>
       </c>
@@ -30376,7 +30660,7 @@
         <v>1598</v>
       </c>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A73" s="16" t="s">
         <v>1445</v>
       </c>
@@ -30423,7 +30707,7 @@
         <v>1599</v>
       </c>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A74" s="16" t="s">
         <v>1446</v>
       </c>
@@ -30470,7 +30754,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A75" s="16" t="s">
         <v>1447</v>
       </c>
@@ -30517,7 +30801,7 @@
         <v>1601</v>
       </c>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A76" s="16" t="s">
         <v>1448</v>
       </c>
@@ -30564,7 +30848,7 @@
         <v>1602</v>
       </c>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
         <v>1458</v>
       </c>
@@ -30611,7 +30895,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
         <v>1461</v>
       </c>
@@ -30652,7 +30936,7 @@
         <v>1659</v>
       </c>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
         <v>1464</v>
       </c>
@@ -30693,7 +30977,7 @@
         <v>1658</v>
       </c>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A80" s="16" t="s">
         <v>1468</v>
       </c>
@@ -30734,7 +31018,7 @@
         <v>1660</v>
       </c>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A81" s="16" t="s">
         <v>1512</v>
       </c>
@@ -30781,7 +31065,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
         <v>1515</v>
       </c>
@@ -30828,7 +31112,7 @@
         <v>1605</v>
       </c>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
         <v>1579</v>
       </c>
@@ -30875,7 +31159,7 @@
         <v>1578</v>
       </c>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>1581</v>
       </c>
@@ -30922,7 +31206,7 @@
         <v>1580</v>
       </c>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>1585</v>
       </c>
@@ -30969,7 +31253,7 @@
         <v>1584</v>
       </c>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
         <v>1588</v>
       </c>
@@ -31016,7 +31300,7 @@
         <v>1587</v>
       </c>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
         <v>1590</v>
       </c>
@@ -31063,7 +31347,7 @@
         <v>1591</v>
       </c>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A88" s="5" t="s">
         <v>1594</v>
       </c>
@@ -31110,7 +31394,7 @@
         <v>1593</v>
       </c>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
         <v>1879</v>
       </c>
@@ -31157,7 +31441,7 @@
         <v>1878</v>
       </c>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A90" s="5" t="s">
         <v>1883</v>
       </c>
@@ -31204,7 +31488,7 @@
         <v>1882</v>
       </c>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
         <v>1913</v>
       </c>
@@ -31248,7 +31532,7 @@
         <v>1911</v>
       </c>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
         <v>1917</v>
       </c>
@@ -31295,7 +31579,7 @@
         <v>1914</v>
       </c>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
         <v>1919</v>
       </c>
@@ -31342,7 +31626,7 @@
         <v>1918</v>
       </c>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A94" s="5" t="s">
         <v>1925</v>
       </c>
@@ -31389,7 +31673,7 @@
         <v>1923</v>
       </c>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
         <v>1945</v>
       </c>
@@ -31436,7 +31720,7 @@
         <v>1942</v>
       </c>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A96" s="5" t="s">
         <v>1948</v>
       </c>
@@ -31483,7 +31767,7 @@
         <v>1946</v>
       </c>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A97" s="5" t="s">
         <v>2116</v>
       </c>
@@ -31524,7 +31808,7 @@
         <v>2113</v>
       </c>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
         <v>2235</v>
       </c>
@@ -31571,7 +31855,7 @@
         <v>2234</v>
       </c>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
         <v>2467</v>
       </c>
@@ -31618,7 +31902,7 @@
         <v>2466</v>
       </c>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A100" s="5" t="s">
         <v>2565</v>
       </c>
@@ -31662,7 +31946,7 @@
         <v>2564</v>
       </c>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A101" s="5" t="s">
         <v>2596</v>
       </c>
@@ -31706,7 +31990,7 @@
         <v>2598</v>
       </c>
     </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A102" s="5" t="s">
         <v>2662</v>
       </c>
@@ -31753,7 +32037,7 @@
         <v>2660</v>
       </c>
     </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A103" s="16" t="s">
         <v>2877</v>
       </c>
@@ -31798,6 +32082,144 @@
       </c>
       <c r="P103" s="5" t="s">
         <v>2878</v>
+      </c>
+    </row>
+    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A104" s="5" t="s">
+        <v>2895</v>
+      </c>
+      <c r="B104" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C104" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D104" s="5" t="s">
+        <v>531</v>
+      </c>
+      <c r="E104" s="5" t="s">
+        <v>2894</v>
+      </c>
+      <c r="F104" s="30" t="s">
+        <v>2897</v>
+      </c>
+      <c r="H104" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I104" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="J104" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="K104" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="L104" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="M104" s="5" t="s">
+        <v>2896</v>
+      </c>
+      <c r="N104" s="16" t="s">
+        <v>2895</v>
+      </c>
+      <c r="O104" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="P104" s="5" t="s">
+        <v>2893</v>
+      </c>
+    </row>
+    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A105" s="5" t="s">
+        <v>2904</v>
+      </c>
+      <c r="B105" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C105" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D105" s="5" t="s">
+        <v>531</v>
+      </c>
+      <c r="E105" s="5" t="s">
+        <v>2905</v>
+      </c>
+      <c r="F105" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="H105" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I105" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="J105" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="K105" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="L105" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="M105" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="N105" s="16" t="s">
+        <v>2904</v>
+      </c>
+      <c r="O105" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="P105" s="5" t="s">
+        <v>2903</v>
+      </c>
+    </row>
+    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>2914</v>
+      </c>
+      <c r="B106" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C106" s="5" t="s">
+        <v>1460</v>
+      </c>
+      <c r="D106" s="5" t="s">
+        <v>531</v>
+      </c>
+      <c r="E106" s="5" t="s">
+        <v>2915</v>
+      </c>
+      <c r="F106" s="5" t="s">
+        <v>2919</v>
+      </c>
+      <c r="H106" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I106" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="J106" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K106" s="5" t="s">
+        <v>2916</v>
+      </c>
+      <c r="M106" s="5" t="s">
+        <v>2917</v>
+      </c>
+      <c r="N106" t="s">
+        <v>2914</v>
+      </c>
+      <c r="O106" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="P106" s="5" t="s">
+        <v>2918</v>
       </c>
     </row>
   </sheetData>
@@ -31816,34 +32238,34 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N176"/>
+  <dimension ref="A1:N181"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A148" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C182" sqref="C182"/>
+      <pane ySplit="1" topLeftCell="A143" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E187" sqref="E187"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.7265625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.26953125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.7265625" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.1796875" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="32.7265625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="30.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="32.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="30.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="26.26953125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="26.28515625" bestFit="1" customWidth="1"/>
     <col min="15" max="1025" width="9" style="20" customWidth="1"/>
-    <col min="1026" max="16384" width="8.81640625" style="20"/>
+    <col min="1026" max="16384" width="8.85546875" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="10" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" s="10" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -31887,7 +32309,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>54</v>
       </c>
@@ -31928,7 +32350,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>126</v>
       </c>
@@ -31969,7 +32391,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>130</v>
       </c>
@@ -32010,7 +32432,7 @@
         <v>1664</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>139</v>
       </c>
@@ -32051,7 +32473,7 @@
         <v>1665</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>140</v>
       </c>
@@ -32092,7 +32514,7 @@
         <v>1666</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>145</v>
       </c>
@@ -32133,7 +32555,7 @@
         <v>1667</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>147</v>
       </c>
@@ -32174,7 +32596,7 @@
         <v>1668</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>149</v>
       </c>
@@ -32215,7 +32637,7 @@
         <v>1669</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>151</v>
       </c>
@@ -32256,7 +32678,7 @@
         <v>1670</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>153</v>
       </c>
@@ -32297,7 +32719,7 @@
         <v>1671</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>155</v>
       </c>
@@ -32338,7 +32760,7 @@
         <v>1672</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>157</v>
       </c>
@@ -32379,7 +32801,7 @@
         <v>1673</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>159</v>
       </c>
@@ -32420,7 +32842,7 @@
         <v>1674</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>161</v>
       </c>
@@ -32461,7 +32883,7 @@
         <v>1675</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>163</v>
       </c>
@@ -32502,7 +32924,7 @@
         <v>1676</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>165</v>
       </c>
@@ -32543,7 +32965,7 @@
         <v>1677</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>167</v>
       </c>
@@ -32584,7 +33006,7 @@
         <v>1678</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>169</v>
       </c>
@@ -32625,7 +33047,7 @@
         <v>1679</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>171</v>
       </c>
@@ -32666,7 +33088,7 @@
         <v>1680</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>181</v>
       </c>
@@ -32707,7 +33129,7 @@
         <v>1681</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>186</v>
       </c>
@@ -32748,7 +33170,7 @@
         <v>1682</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>303</v>
       </c>
@@ -32789,7 +33211,7 @@
         <v>1683</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>306</v>
       </c>
@@ -32830,7 +33252,7 @@
         <v>1684</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>312</v>
       </c>
@@ -32871,7 +33293,7 @@
         <v>1685</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>320</v>
       </c>
@@ -32912,7 +33334,7 @@
         <v>1686</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>323</v>
       </c>
@@ -32953,7 +33375,7 @@
         <v>1687</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>327</v>
       </c>
@@ -32994,7 +33416,7 @@
         <v>1688</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>340</v>
       </c>
@@ -33035,7 +33457,7 @@
         <v>1689</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>355</v>
       </c>
@@ -33076,7 +33498,7 @@
         <v>1690</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>371</v>
       </c>
@@ -33117,7 +33539,7 @@
         <v>1691</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>370</v>
       </c>
@@ -33158,7 +33580,7 @@
         <v>1692</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>368</v>
       </c>
@@ -33199,7 +33621,7 @@
         <v>1693</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>365</v>
       </c>
@@ -33240,7 +33662,7 @@
         <v>1694</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>387</v>
       </c>
@@ -33281,7 +33703,7 @@
         <v>1695</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>392</v>
       </c>
@@ -33322,7 +33744,7 @@
         <v>1696</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>397</v>
       </c>
@@ -33363,7 +33785,7 @@
         <v>1697</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>407</v>
       </c>
@@ -33404,7 +33826,7 @@
         <v>1698</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>446</v>
       </c>
@@ -33445,7 +33867,7 @@
         <v>1699</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>451</v>
       </c>
@@ -33486,7 +33908,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>609</v>
       </c>
@@ -33527,7 +33949,7 @@
         <v>1701</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>613</v>
       </c>
@@ -33568,7 +33990,7 @@
         <v>1702</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>620</v>
       </c>
@@ -33609,7 +34031,7 @@
         <v>1703</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>54</v>
       </c>
@@ -33647,7 +34069,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>631</v>
       </c>
@@ -33688,7 +34110,7 @@
         <v>1704</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>637</v>
       </c>
@@ -33729,7 +34151,7 @@
         <v>1705</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>649</v>
       </c>
@@ -33770,7 +34192,7 @@
         <v>1706</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>655</v>
       </c>
@@ -33811,7 +34233,7 @@
         <v>1707</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>658</v>
       </c>
@@ -33852,7 +34274,7 @@
         <v>1708</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>663</v>
       </c>
@@ -33893,7 +34315,7 @@
         <v>1709</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>666</v>
       </c>
@@ -33934,7 +34356,7 @@
         <v>1710</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>668</v>
       </c>
@@ -33975,7 +34397,7 @@
         <v>1711</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>673</v>
       </c>
@@ -34016,7 +34438,7 @@
         <v>1712</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>676</v>
       </c>
@@ -34057,7 +34479,7 @@
         <v>1713</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>693</v>
       </c>
@@ -34098,7 +34520,7 @@
         <v>1714</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>696</v>
       </c>
@@ -34139,7 +34561,7 @@
         <v>1715</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>701</v>
       </c>
@@ -34180,7 +34602,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>702</v>
       </c>
@@ -34221,7 +34643,7 @@
         <v>1717</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>706</v>
       </c>
@@ -34262,7 +34684,7 @@
         <v>1718</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>718</v>
       </c>
@@ -34303,7 +34725,7 @@
         <v>1719</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>750</v>
       </c>
@@ -34344,7 +34766,7 @@
         <v>1720</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>613</v>
       </c>
@@ -34385,7 +34807,7 @@
         <v>1702</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>762</v>
       </c>
@@ -34426,7 +34848,7 @@
         <v>1721</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>397</v>
       </c>
@@ -34467,7 +34889,7 @@
         <v>1697</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>787</v>
       </c>
@@ -34508,7 +34930,7 @@
         <v>1722</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>807</v>
       </c>
@@ -34549,7 +34971,7 @@
         <v>1723</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>813</v>
       </c>
@@ -34590,7 +35012,7 @@
         <v>1724</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>889</v>
       </c>
@@ -34631,7 +35053,7 @@
         <v>1725</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>892</v>
       </c>
@@ -34672,7 +35094,7 @@
         <v>1726</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>894</v>
       </c>
@@ -34713,7 +35135,7 @@
         <v>1727</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>897</v>
       </c>
@@ -34754,7 +35176,7 @@
         <v>1728</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>906</v>
       </c>
@@ -34795,7 +35217,7 @@
         <v>1729</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>907</v>
       </c>
@@ -34836,7 +35258,7 @@
         <v>1730</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>910</v>
       </c>
@@ -34877,7 +35299,7 @@
         <v>1731</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>914</v>
       </c>
@@ -34918,7 +35340,7 @@
         <v>1732</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>917</v>
       </c>
@@ -34959,7 +35381,7 @@
         <v>1733</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>978</v>
       </c>
@@ -35000,7 +35422,7 @@
         <v>1734</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>981</v>
       </c>
@@ -35041,7 +35463,7 @@
         <v>1735</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>1004</v>
       </c>
@@ -35082,7 +35504,7 @@
         <v>1736</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>1007</v>
       </c>
@@ -35123,7 +35545,7 @@
         <v>1737</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>1010</v>
       </c>
@@ -35164,7 +35586,7 @@
         <v>1738</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>1031</v>
       </c>
@@ -35205,7 +35627,7 @@
         <v>1739</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>1040</v>
       </c>
@@ -35246,7 +35668,7 @@
         <v>1740</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>1043</v>
       </c>
@@ -35287,7 +35709,7 @@
         <v>1741</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>1076</v>
       </c>
@@ -35328,7 +35750,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>1079</v>
       </c>
@@ -35369,7 +35791,7 @@
         <v>1743</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>1082</v>
       </c>
@@ -35410,7 +35832,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>1083</v>
       </c>
@@ -35451,7 +35873,7 @@
         <v>1745</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>1086</v>
       </c>
@@ -35492,7 +35914,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>1089</v>
       </c>
@@ -35533,7 +35955,7 @@
         <v>1747</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>1092</v>
       </c>
@@ -35574,7 +35996,7 @@
         <v>1748</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>1124</v>
       </c>
@@ -35615,7 +36037,7 @@
         <v>1749</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>1145</v>
       </c>
@@ -35656,7 +36078,7 @@
         <v>1750</v>
       </c>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>1147</v>
       </c>
@@ -35697,7 +36119,7 @@
         <v>1751</v>
       </c>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>1182</v>
       </c>
@@ -35738,7 +36160,7 @@
         <v>1752</v>
       </c>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>1187</v>
       </c>
@@ -35779,7 +36201,7 @@
         <v>1753</v>
       </c>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>1188</v>
       </c>
@@ -35820,7 +36242,7 @@
         <v>1754</v>
       </c>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>1314</v>
       </c>
@@ -35861,7 +36283,7 @@
         <v>1755</v>
       </c>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>1316</v>
       </c>
@@ -35902,7 +36324,7 @@
         <v>1756</v>
       </c>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>1317</v>
       </c>
@@ -35943,7 +36365,7 @@
         <v>1757</v>
       </c>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>1320</v>
       </c>
@@ -35984,7 +36406,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>1342</v>
       </c>
@@ -36025,7 +36447,7 @@
         <v>1759</v>
       </c>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>1346</v>
       </c>
@@ -36066,7 +36488,7 @@
         <v>1760</v>
       </c>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>1348</v>
       </c>
@@ -36107,7 +36529,7 @@
         <v>1761</v>
       </c>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>1351</v>
       </c>
@@ -36148,7 +36570,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>1352</v>
       </c>
@@ -36189,7 +36611,7 @@
         <v>1763</v>
       </c>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>1355</v>
       </c>
@@ -36230,7 +36652,7 @@
         <v>1764</v>
       </c>
     </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>1398</v>
       </c>
@@ -36271,7 +36693,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>1403</v>
       </c>
@@ -36312,7 +36734,7 @@
         <v>1766</v>
       </c>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>1406</v>
       </c>
@@ -36353,7 +36775,7 @@
         <v>1767</v>
       </c>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>1409</v>
       </c>
@@ -36394,7 +36816,7 @@
         <v>1768</v>
       </c>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>1425</v>
       </c>
@@ -36435,7 +36857,7 @@
         <v>1769</v>
       </c>
     </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>1475</v>
       </c>
@@ -36476,7 +36898,7 @@
         <v>1770</v>
       </c>
     </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>1487</v>
       </c>
@@ -36517,7 +36939,7 @@
         <v>1771</v>
       </c>
     </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>1519</v>
       </c>
@@ -36558,7 +36980,7 @@
         <v>1772</v>
       </c>
     </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>1518</v>
       </c>
@@ -36599,7 +37021,7 @@
         <v>1773</v>
       </c>
     </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>1559</v>
       </c>
@@ -36640,7 +37062,7 @@
         <v>1558</v>
       </c>
     </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>1561</v>
       </c>
@@ -36681,7 +37103,7 @@
         <v>1560</v>
       </c>
     </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>1793</v>
       </c>
@@ -36722,7 +37144,7 @@
         <v>1794</v>
       </c>
     </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>1795</v>
       </c>
@@ -36763,7 +37185,7 @@
         <v>1797</v>
       </c>
     </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>1847</v>
       </c>
@@ -36804,7 +37226,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>1848</v>
       </c>
@@ -36845,7 +37267,7 @@
         <v>1840</v>
       </c>
     </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>1849</v>
       </c>
@@ -36886,7 +37308,7 @@
         <v>1841</v>
       </c>
     </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>1850</v>
       </c>
@@ -36927,7 +37349,7 @@
         <v>1842</v>
       </c>
     </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>1851</v>
       </c>
@@ -36968,7 +37390,7 @@
         <v>1843</v>
       </c>
     </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>1852</v>
       </c>
@@ -37009,7 +37431,7 @@
         <v>1844</v>
       </c>
     </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>1853</v>
       </c>
@@ -37050,7 +37472,7 @@
         <v>1845</v>
       </c>
     </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>1854</v>
       </c>
@@ -37091,7 +37513,7 @@
         <v>1846</v>
       </c>
     </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>1901</v>
       </c>
@@ -37129,7 +37551,7 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>1932</v>
       </c>
@@ -37170,7 +37592,7 @@
         <v>1929</v>
       </c>
     </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>1933</v>
       </c>
@@ -37211,7 +37633,7 @@
         <v>1936</v>
       </c>
     </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>1941</v>
       </c>
@@ -37252,7 +37674,7 @@
         <v>1940</v>
       </c>
     </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>1952</v>
       </c>
@@ -37293,7 +37715,7 @@
         <v>1949</v>
       </c>
     </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>1956</v>
       </c>
@@ -37334,7 +37756,7 @@
         <v>1953</v>
       </c>
     </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>1960</v>
       </c>
@@ -37375,7 +37797,7 @@
         <v>1957</v>
       </c>
     </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>1964</v>
       </c>
@@ -37416,7 +37838,7 @@
         <v>1961</v>
       </c>
     </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>1968</v>
       </c>
@@ -37457,7 +37879,7 @@
         <v>1965</v>
       </c>
     </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>2047</v>
       </c>
@@ -37498,7 +37920,7 @@
         <v>2044</v>
       </c>
     </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>2064</v>
       </c>
@@ -37539,7 +37961,7 @@
         <v>2062</v>
       </c>
     </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>2068</v>
       </c>
@@ -37580,7 +38002,7 @@
         <v>2069</v>
       </c>
     </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>2073</v>
       </c>
@@ -37621,7 +38043,7 @@
         <v>2070</v>
       </c>
     </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>2077</v>
       </c>
@@ -37662,7 +38084,7 @@
         <v>2074</v>
       </c>
     </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>2081</v>
       </c>
@@ -37703,7 +38125,7 @@
         <v>2078</v>
       </c>
     </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>2086</v>
       </c>
@@ -37744,7 +38166,7 @@
         <v>2085</v>
       </c>
     </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>2090</v>
       </c>
@@ -37785,7 +38207,7 @@
         <v>2089</v>
       </c>
     </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>2167</v>
       </c>
@@ -37826,7 +38248,7 @@
         <v>2166</v>
       </c>
     </row>
-    <row r="147" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>2174</v>
       </c>
@@ -37867,7 +38289,7 @@
         <v>2173</v>
       </c>
     </row>
-    <row r="148" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>2198</v>
       </c>
@@ -37908,7 +38330,7 @@
         <v>2197</v>
       </c>
     </row>
-    <row r="149" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>2218</v>
       </c>
@@ -37949,7 +38371,7 @@
         <v>2216</v>
       </c>
     </row>
-    <row r="150" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>2238</v>
       </c>
@@ -37990,7 +38412,7 @@
         <v>2237</v>
       </c>
     </row>
-    <row r="151" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>1352</v>
       </c>
@@ -38031,7 +38453,7 @@
         <v>1763</v>
       </c>
     </row>
-    <row r="152" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>2254</v>
       </c>
@@ -38072,7 +38494,7 @@
         <v>2253</v>
       </c>
     </row>
-    <row r="153" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>2257</v>
       </c>
@@ -38113,7 +38535,7 @@
         <v>2256</v>
       </c>
     </row>
-    <row r="154" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>2262</v>
       </c>
@@ -38154,7 +38576,7 @@
         <v>2259</v>
       </c>
     </row>
-    <row r="155" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>2378</v>
       </c>
@@ -38195,7 +38617,7 @@
         <v>2374</v>
       </c>
     </row>
-    <row r="156" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>2381</v>
       </c>
@@ -38236,7 +38658,7 @@
         <v>2379</v>
       </c>
     </row>
-    <row r="157" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>2383</v>
       </c>
@@ -38277,7 +38699,7 @@
         <v>2382</v>
       </c>
     </row>
-    <row r="158" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>2433</v>
       </c>
@@ -38318,7 +38740,7 @@
         <v>2434</v>
       </c>
     </row>
-    <row r="159" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>2437</v>
       </c>
@@ -38359,7 +38781,7 @@
         <v>2435</v>
       </c>
     </row>
-    <row r="160" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>2440</v>
       </c>
@@ -38400,7 +38822,7 @@
         <v>2441</v>
       </c>
     </row>
-    <row r="161" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>2444</v>
       </c>
@@ -38441,7 +38863,7 @@
         <v>2443</v>
       </c>
     </row>
-    <row r="162" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>2457</v>
       </c>
@@ -38482,7 +38904,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="163" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>2460</v>
       </c>
@@ -38523,7 +38945,7 @@
         <v>2459</v>
       </c>
     </row>
-    <row r="164" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>2520</v>
       </c>
@@ -38564,7 +38986,7 @@
         <v>2521</v>
       </c>
     </row>
-    <row r="165" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>2553</v>
       </c>
@@ -38605,7 +39027,7 @@
         <v>2552</v>
       </c>
     </row>
-    <row r="166" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>2557</v>
       </c>
@@ -38646,7 +39068,7 @@
         <v>2556</v>
       </c>
     </row>
-    <row r="167" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>2641</v>
       </c>
@@ -38687,7 +39109,7 @@
         <v>2642</v>
       </c>
     </row>
-    <row r="168" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>2666</v>
       </c>
@@ -38728,7 +39150,7 @@
         <v>2664</v>
       </c>
     </row>
-    <row r="169" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>2670</v>
       </c>
@@ -38769,7 +39191,7 @@
         <v>2668</v>
       </c>
     </row>
-    <row r="170" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>2716</v>
       </c>
@@ -38810,7 +39232,7 @@
         <v>2715</v>
       </c>
     </row>
-    <row r="171" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>2720</v>
       </c>
@@ -38851,7 +39273,7 @@
         <v>2719</v>
       </c>
     </row>
-    <row r="172" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>2759</v>
       </c>
@@ -38892,7 +39314,7 @@
         <v>2761</v>
       </c>
     </row>
-    <row r="173" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>2842</v>
       </c>
@@ -38933,7 +39355,7 @@
         <v>2841</v>
       </c>
     </row>
-    <row r="174" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>2853</v>
       </c>
@@ -38974,7 +39396,7 @@
         <v>2852</v>
       </c>
     </row>
-    <row r="175" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>2850</v>
       </c>
@@ -39015,9 +39437,9 @@
         <v>2848</v>
       </c>
     </row>
-    <row r="176" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>2874</v>
+        <v>2850</v>
       </c>
       <c r="B176" t="s">
         <v>11</v>
@@ -39054,6 +39476,211 @@
       </c>
       <c r="N176" t="s">
         <v>2875</v>
+      </c>
+    </row>
+    <row r="177" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>2899</v>
+      </c>
+      <c r="B177" t="s">
+        <v>11</v>
+      </c>
+      <c r="C177" t="s">
+        <v>56</v>
+      </c>
+      <c r="D177" t="s">
+        <v>531</v>
+      </c>
+      <c r="E177" t="s">
+        <v>2900</v>
+      </c>
+      <c r="F177" t="s">
+        <v>2902</v>
+      </c>
+      <c r="H177" t="s">
+        <v>20</v>
+      </c>
+      <c r="I177" s="5" t="s">
+        <v>2901</v>
+      </c>
+      <c r="J177" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K177" t="s">
+        <v>2667</v>
+      </c>
+      <c r="L177" t="s">
+        <v>2899</v>
+      </c>
+      <c r="M177" t="s">
+        <v>17</v>
+      </c>
+      <c r="N177" t="s">
+        <v>2898</v>
+      </c>
+    </row>
+    <row r="178" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>2911</v>
+      </c>
+      <c r="B178" t="s">
+        <v>11</v>
+      </c>
+      <c r="C178" t="s">
+        <v>56</v>
+      </c>
+      <c r="D178" t="s">
+        <v>531</v>
+      </c>
+      <c r="E178" t="s">
+        <v>2912</v>
+      </c>
+      <c r="F178" t="s">
+        <v>189</v>
+      </c>
+      <c r="H178" t="s">
+        <v>20</v>
+      </c>
+      <c r="I178" s="5" t="s">
+        <v>2913</v>
+      </c>
+      <c r="J178" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K178" t="s">
+        <v>183</v>
+      </c>
+      <c r="L178" t="s">
+        <v>2911</v>
+      </c>
+      <c r="M178" t="s">
+        <v>17</v>
+      </c>
+      <c r="N178" t="s">
+        <v>2910</v>
+      </c>
+    </row>
+    <row r="179" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>2937</v>
+      </c>
+      <c r="B179" t="s">
+        <v>11</v>
+      </c>
+      <c r="C179" t="s">
+        <v>56</v>
+      </c>
+      <c r="D179" t="s">
+        <v>531</v>
+      </c>
+      <c r="E179" t="s">
+        <v>2938</v>
+      </c>
+      <c r="F179" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="H179" t="s">
+        <v>20</v>
+      </c>
+      <c r="I179" s="5" t="s">
+        <v>2941</v>
+      </c>
+      <c r="J179" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K179" t="s">
+        <v>2939</v>
+      </c>
+      <c r="L179" t="s">
+        <v>2937</v>
+      </c>
+      <c r="M179" t="s">
+        <v>17</v>
+      </c>
+      <c r="N179" t="s">
+        <v>2940</v>
+      </c>
+    </row>
+    <row r="180" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>2956</v>
+      </c>
+      <c r="B180" t="s">
+        <v>11</v>
+      </c>
+      <c r="C180" t="s">
+        <v>56</v>
+      </c>
+      <c r="D180" t="s">
+        <v>531</v>
+      </c>
+      <c r="E180" t="s">
+        <v>2957</v>
+      </c>
+      <c r="F180" t="s">
+        <v>2959</v>
+      </c>
+      <c r="H180" t="s">
+        <v>20</v>
+      </c>
+      <c r="I180" s="5" t="s">
+        <v>2958</v>
+      </c>
+      <c r="J180" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K180" t="s">
+        <v>2939</v>
+      </c>
+      <c r="L180" t="s">
+        <v>2956</v>
+      </c>
+      <c r="M180" t="s">
+        <v>17</v>
+      </c>
+      <c r="N180" t="s">
+        <v>2955</v>
+      </c>
+    </row>
+    <row r="181" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>2960</v>
+      </c>
+      <c r="B181" t="s">
+        <v>11</v>
+      </c>
+      <c r="C181" t="s">
+        <v>56</v>
+      </c>
+      <c r="D181" t="s">
+        <v>531</v>
+      </c>
+      <c r="E181" t="s">
+        <v>2963</v>
+      </c>
+      <c r="F181" t="s">
+        <v>2959</v>
+      </c>
+      <c r="H181" t="s">
+        <v>20</v>
+      </c>
+      <c r="I181" s="5" t="s">
+        <v>2961</v>
+      </c>
+      <c r="J181" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K181" t="s">
+        <v>2939</v>
+      </c>
+      <c r="L181" t="s">
+        <v>2960</v>
+      </c>
+      <c r="M181" t="s">
+        <v>17</v>
+      </c>
+      <c r="N181" t="s">
+        <v>2962</v>
       </c>
     </row>
   </sheetData>
@@ -39075,28 +39702,28 @@
       <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="51.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.26953125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="32.453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.453125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="51.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="30.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="30.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="31.453125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="31.42578125" bestFit="1" customWidth="1"/>
     <col min="16" max="1025" width="9" style="20" customWidth="1"/>
-    <col min="1026" max="16384" width="8.81640625" style="20"/>
+    <col min="1026" max="16384" width="8.85546875" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="10" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" s="10" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -39143,7 +39770,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>44</v>
       </c>
@@ -39187,7 +39814,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>61</v>
       </c>
@@ -39231,7 +39858,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>249</v>
       </c>
@@ -39275,7 +39902,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>251</v>
       </c>
@@ -39319,7 +39946,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>252</v>
       </c>
@@ -39363,7 +39990,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>353</v>
       </c>
@@ -39407,7 +40034,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>501</v>
       </c>
@@ -39446,7 +40073,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>625</v>
       </c>
@@ -39487,7 +40114,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>681</v>
       </c>
@@ -39528,7 +40155,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>716</v>
       </c>
@@ -39572,7 +40199,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>779</v>
       </c>
@@ -39616,7 +40243,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>785</v>
       </c>
@@ -39657,7 +40284,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>984</v>
       </c>
@@ -39701,7 +40328,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>1003</v>
       </c>
@@ -39745,7 +40372,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>1118</v>
       </c>
@@ -39789,7 +40416,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>1283</v>
       </c>
@@ -39833,7 +40460,7 @@
         <v>1780</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>1284</v>
       </c>
@@ -39877,7 +40504,7 @@
         <v>1779</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>1289</v>
       </c>
@@ -39921,7 +40548,7 @@
         <v>1778</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>1295</v>
       </c>
@@ -39965,7 +40592,7 @@
         <v>1777</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>1359</v>
       </c>
@@ -40009,7 +40636,7 @@
         <v>1781</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>1507</v>
       </c>
@@ -40053,7 +40680,7 @@
         <v>1505</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>1785</v>
       </c>
@@ -40097,7 +40724,7 @@
         <v>1786</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>2225</v>
       </c>
@@ -40144,7 +40771,7 @@
         <v>2220</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>2229</v>
       </c>
@@ -40188,7 +40815,7 @@
         <v>2227</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>2427</v>
       </c>
@@ -40232,7 +40859,7 @@
         <v>2426</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>2463</v>
       </c>
@@ -40276,7 +40903,7 @@
         <v>2464</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>2515</v>
       </c>
@@ -40320,7 +40947,7 @@
         <v>2514</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>2569</v>
       </c>
@@ -40361,7 +40988,7 @@
         <v>2567</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>2585</v>
       </c>
@@ -40399,7 +41026,7 @@
         <v>2585</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>2614</v>
       </c>
@@ -40443,7 +41070,7 @@
         <v>2611</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>2618</v>
       </c>
@@ -40487,7 +41114,7 @@
         <v>2617</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>2626</v>
       </c>
@@ -40531,7 +41158,7 @@
         <v>2625</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>2630</v>
       </c>
@@ -40575,7 +41202,7 @@
         <v>2629</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>2644</v>
       </c>
@@ -40619,7 +41246,7 @@
         <v>2643</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>2746</v>
       </c>
@@ -40663,7 +41290,7 @@
         <v>2748</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>2817</v>
       </c>
@@ -40707,7 +41334,7 @@
         <v>2816</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>2834</v>
       </c>
@@ -40751,7 +41378,7 @@
         <v>2831</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>2838</v>
       </c>
@@ -40814,26 +41441,26 @@
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32.6328125" customWidth="1"/>
-    <col min="7" max="7" width="17.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.5703125" customWidth="1"/>
+    <col min="7" max="7" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="45.54296875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="45.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="32" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="26.81640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="26.85546875" bestFit="1" customWidth="1"/>
     <col min="14" max="1025" width="9" style="20" customWidth="1"/>
-    <col min="1026" max="16384" width="8.81640625" style="20"/>
+    <col min="1026" max="16384" width="8.85546875" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="10" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" s="10" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -40874,7 +41501,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>413</v>
       </c>
@@ -40912,7 +41539,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>417</v>
       </c>
@@ -40950,7 +41577,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>618</v>
       </c>
@@ -40988,7 +41615,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1199</v>
       </c>
@@ -41026,7 +41653,7 @@
         <v>1198</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>1395</v>
       </c>
@@ -41064,7 +41691,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>1424</v>
       </c>
@@ -41102,7 +41729,7 @@
         <v>1820</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>1489</v>
       </c>
@@ -41140,7 +41767,7 @@
         <v>1491</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>1996</v>
       </c>
@@ -41178,7 +41805,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>2006</v>
       </c>
@@ -41216,7 +41843,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>2182</v>
       </c>
@@ -41254,7 +41881,7 @@
         <v>2179</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>2283</v>
       </c>
@@ -41292,7 +41919,7 @@
         <v>2284</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>2295</v>
       </c>
@@ -41330,7 +41957,7 @@
         <v>2294</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>2600</v>
       </c>
@@ -41368,7 +41995,7 @@
         <v>2599</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>2845</v>
       </c>
@@ -41419,32 +42046,32 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L61"/>
+  <dimension ref="A1:L65"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A62" sqref="A62:L62"/>
+    <sheetView topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I69" sqref="I69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="35" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.26953125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.26953125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="44.453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="30.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="44.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="30.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="31.1796875" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="8.81640625" style="20"/>
+    <col min="12" max="12" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="8.85546875" style="20"/>
     <col min="16" max="1025" width="9" style="20" customWidth="1"/>
-    <col min="1026" max="16384" width="8.81640625" style="20"/>
+    <col min="1026" max="16384" width="8.85546875" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="10" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" s="10" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -41482,7 +42109,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>253</v>
       </c>
@@ -41517,7 +42144,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>254</v>
       </c>
@@ -41552,7 +42179,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>275</v>
       </c>
@@ -41587,7 +42214,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>282</v>
       </c>
@@ -41622,7 +42249,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>285</v>
       </c>
@@ -41657,7 +42284,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>301</v>
       </c>
@@ -41692,7 +42319,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>289</v>
       </c>
@@ -41727,7 +42354,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>291</v>
       </c>
@@ -41762,7 +42389,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>345</v>
       </c>
@@ -41797,7 +42424,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>382</v>
       </c>
@@ -41832,7 +42459,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>437</v>
       </c>
@@ -41867,7 +42494,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>480</v>
       </c>
@@ -41893,7 +42520,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>484</v>
       </c>
@@ -41919,7 +42546,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>485</v>
       </c>
@@ -41945,7 +42572,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>614</v>
       </c>
@@ -41971,7 +42598,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>733</v>
       </c>
@@ -42006,7 +42633,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>738</v>
       </c>
@@ -42041,7 +42668,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>747</v>
       </c>
@@ -42076,7 +42703,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>754</v>
       </c>
@@ -42109,7 +42736,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>760</v>
       </c>
@@ -42144,7 +42771,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>806</v>
       </c>
@@ -42179,7 +42806,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>821</v>
       </c>
@@ -42214,7 +42841,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>931</v>
       </c>
@@ -42249,7 +42876,7 @@
         <v>1810</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>934</v>
       </c>
@@ -42284,7 +42911,7 @@
         <v>1811</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>948</v>
       </c>
@@ -42319,7 +42946,7 @@
         <v>1812</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>950</v>
       </c>
@@ -42354,7 +42981,7 @@
         <v>1813</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>959</v>
       </c>
@@ -42389,7 +43016,7 @@
         <v>1814</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>1134</v>
       </c>
@@ -42424,7 +43051,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>1156</v>
       </c>
@@ -42459,7 +43086,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>1176</v>
       </c>
@@ -42494,7 +43121,7 @@
         <v>1175</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>1181</v>
       </c>
@@ -42529,7 +43156,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>1224</v>
       </c>
@@ -42564,7 +43191,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>1227</v>
       </c>
@@ -42599,7 +43226,7 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>1234</v>
       </c>
@@ -42634,7 +43261,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>1331</v>
       </c>
@@ -42669,7 +43296,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>1340</v>
       </c>
@@ -42704,7 +43331,7 @@
         <v>1338</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>1371</v>
       </c>
@@ -42739,7 +43366,7 @@
         <v>1369</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>1503</v>
       </c>
@@ -42774,7 +43401,7 @@
         <v>1502</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>1565</v>
       </c>
@@ -42809,7 +43436,7 @@
         <v>1563</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>1574</v>
       </c>
@@ -42844,7 +43471,7 @@
         <v>1573</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>1663</v>
       </c>
@@ -42879,7 +43506,7 @@
         <v>1661</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>1775</v>
       </c>
@@ -42914,7 +43541,7 @@
         <v>1774</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>1788</v>
       </c>
@@ -42949,7 +43576,7 @@
         <v>1787</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>1792</v>
       </c>
@@ -42984,7 +43611,7 @@
         <v>1791</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>1829</v>
       </c>
@@ -43019,7 +43646,7 @@
         <v>1828</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>1872</v>
       </c>
@@ -43054,7 +43681,7 @@
         <v>1871</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>1874</v>
       </c>
@@ -43077,7 +43704,7 @@
         <v>1874</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>2084</v>
       </c>
@@ -43112,7 +43739,7 @@
         <v>2082</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>2137</v>
       </c>
@@ -43147,7 +43774,7 @@
         <v>2135</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>2140</v>
       </c>
@@ -43182,7 +43809,7 @@
         <v>2138</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>2476</v>
       </c>
@@ -43217,7 +43844,7 @@
         <v>2475</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>2494</v>
       </c>
@@ -43249,7 +43876,7 @@
         <v>2492</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>2650</v>
       </c>
@@ -43284,7 +43911,7 @@
         <v>2649</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>2654</v>
       </c>
@@ -43319,7 +43946,7 @@
         <v>2653</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>2657</v>
       </c>
@@ -43354,7 +43981,7 @@
         <v>2656</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>2672</v>
       </c>
@@ -43389,7 +44016,7 @@
         <v>2671</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>2679</v>
       </c>
@@ -43424,7 +44051,7 @@
         <v>2678</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>2723</v>
       </c>
@@ -43459,7 +44086,7 @@
         <v>2722</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>2744</v>
       </c>
@@ -43491,7 +44118,7 @@
         <v>2743</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>2810</v>
       </c>
@@ -43521,6 +44148,146 @@
       </c>
       <c r="L61" t="s">
         <v>2809</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>2879</v>
+      </c>
+      <c r="B62" t="s">
+        <v>2880</v>
+      </c>
+      <c r="C62" t="s">
+        <v>272</v>
+      </c>
+      <c r="D62" t="s">
+        <v>531</v>
+      </c>
+      <c r="E62" t="s">
+        <v>2890</v>
+      </c>
+      <c r="F62" t="s">
+        <v>273</v>
+      </c>
+      <c r="H62" t="s">
+        <v>20</v>
+      </c>
+      <c r="I62" t="s">
+        <v>1566</v>
+      </c>
+      <c r="J62" t="s">
+        <v>2891</v>
+      </c>
+      <c r="K62" t="s">
+        <v>17</v>
+      </c>
+      <c r="L62" t="s">
+        <v>2892</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>2886</v>
+      </c>
+      <c r="B63" t="s">
+        <v>2886</v>
+      </c>
+      <c r="C63" t="s">
+        <v>296</v>
+      </c>
+      <c r="D63" t="s">
+        <v>531</v>
+      </c>
+      <c r="E63" t="s">
+        <v>2887</v>
+      </c>
+      <c r="F63" t="s">
+        <v>2888</v>
+      </c>
+      <c r="H63" t="s">
+        <v>20</v>
+      </c>
+      <c r="I63" t="s">
+        <v>278</v>
+      </c>
+      <c r="J63" t="s">
+        <v>2886</v>
+      </c>
+      <c r="K63" t="s">
+        <v>17</v>
+      </c>
+      <c r="L63" t="s">
+        <v>2889</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>2953</v>
+      </c>
+      <c r="B64" t="s">
+        <v>2953</v>
+      </c>
+      <c r="C64" t="s">
+        <v>1372</v>
+      </c>
+      <c r="D64" t="s">
+        <v>531</v>
+      </c>
+      <c r="E64" t="s">
+        <v>2954</v>
+      </c>
+      <c r="F64" t="s">
+        <v>1341</v>
+      </c>
+      <c r="H64" t="s">
+        <v>20</v>
+      </c>
+      <c r="I64" t="s">
+        <v>267</v>
+      </c>
+      <c r="J64" t="s">
+        <v>2953</v>
+      </c>
+      <c r="K64" t="s">
+        <v>17</v>
+      </c>
+      <c r="L64" t="s">
+        <v>2952</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>2965</v>
+      </c>
+      <c r="B65" t="s">
+        <v>2965</v>
+      </c>
+      <c r="C65" t="s">
+        <v>1154</v>
+      </c>
+      <c r="D65" t="s">
+        <v>531</v>
+      </c>
+      <c r="E65" t="s">
+        <v>2966</v>
+      </c>
+      <c r="F65" t="s">
+        <v>380</v>
+      </c>
+      <c r="H65" t="s">
+        <v>20</v>
+      </c>
+      <c r="I65" t="s">
+        <v>2543</v>
+      </c>
+      <c r="J65" t="s">
+        <v>2965</v>
+      </c>
+      <c r="K65" t="s">
+        <v>17</v>
+      </c>
+      <c r="L65" t="s">
+        <v>2964</v>
       </c>
     </row>
   </sheetData>
@@ -43536,33 +44303,33 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N195"/>
+  <dimension ref="A1:N201"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A133" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F150" sqref="F150"/>
+    <sheetView zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A182" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G209" sqref="G209"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="27.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="27.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="97.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="97.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="38" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.26953125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="45.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="30.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="45.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="30.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="29.26953125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="29.28515625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="24.54296875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="24.5703125" bestFit="1" customWidth="1"/>
     <col min="15" max="1025" width="9" style="20" customWidth="1"/>
-    <col min="1026" max="16384" width="8.81640625" style="20"/>
+    <col min="1026" max="16384" width="8.85546875" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="10" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" s="10" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -43606,7 +44373,7 @@
         <v>1831</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -43643,7 +44410,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>68</v>
       </c>
@@ -43680,7 +44447,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>74</v>
       </c>
@@ -43717,7 +44484,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>79</v>
       </c>
@@ -43754,7 +44521,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>80</v>
       </c>
@@ -43791,7 +44558,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>93</v>
       </c>
@@ -43828,7 +44595,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>95</v>
       </c>
@@ -43865,7 +44632,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>102</v>
       </c>
@@ -43901,7 +44668,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>105</v>
       </c>
@@ -43938,7 +44705,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>309</v>
       </c>
@@ -43973,7 +44740,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>318</v>
       </c>
@@ -44008,7 +44775,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>378</v>
       </c>
@@ -44043,7 +44810,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>403</v>
       </c>
@@ -44078,7 +44845,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>433</v>
       </c>
@@ -44113,7 +44880,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>442</v>
       </c>
@@ -44148,7 +44915,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>448</v>
       </c>
@@ -44183,7 +44950,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>471</v>
       </c>
@@ -44218,7 +44985,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>476</v>
       </c>
@@ -44253,7 +45020,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>489</v>
       </c>
@@ -44288,7 +45055,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>492</v>
       </c>
@@ -44323,7 +45090,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>496</v>
       </c>
@@ -44358,7 +45125,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>508</v>
       </c>
@@ -44393,7 +45160,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>511</v>
       </c>
@@ -44428,7 +45195,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>532</v>
       </c>
@@ -44463,7 +45230,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>537</v>
       </c>
@@ -44498,7 +45265,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>560</v>
       </c>
@@ -44533,7 +45300,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>540</v>
       </c>
@@ -44568,7 +45335,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>541</v>
       </c>
@@ -44603,7 +45370,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>542</v>
       </c>
@@ -44638,7 +45405,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>573</v>
       </c>
@@ -44673,7 +45440,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>577</v>
       </c>
@@ -44708,7 +45475,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>580</v>
       </c>
@@ -44743,7 +45510,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>583</v>
       </c>
@@ -44778,7 +45545,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>586</v>
       </c>
@@ -44813,7 +45580,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>590</v>
       </c>
@@ -44848,7 +45615,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>594</v>
       </c>
@@ -44883,7 +45650,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>595</v>
       </c>
@@ -44918,7 +45685,7 @@
         <v>1815</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>552</v>
       </c>
@@ -44953,7 +45720,7 @@
         <v>1816</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>599</v>
       </c>
@@ -44988,7 +45755,7 @@
         <v>1801</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>600</v>
       </c>
@@ -45023,7 +45790,7 @@
         <v>1817</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>602</v>
       </c>
@@ -45058,7 +45825,7 @@
         <v>1818</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>605</v>
       </c>
@@ -45093,7 +45860,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>635</v>
       </c>
@@ -45128,7 +45895,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>539</v>
       </c>
@@ -45163,7 +45930,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>670</v>
       </c>
@@ -45198,7 +45965,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>884</v>
       </c>
@@ -45233,7 +46000,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>901</v>
       </c>
@@ -45268,7 +46035,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>918</v>
       </c>
@@ -45303,7 +46070,7 @@
         <v>1836</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>921</v>
       </c>
@@ -45338,7 +46105,7 @@
         <v>1833</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>922</v>
       </c>
@@ -45373,7 +46140,7 @@
         <v>1834</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>923</v>
       </c>
@@ -45408,7 +46175,7 @@
         <v>1835</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>937</v>
       </c>
@@ -45443,7 +46210,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>943</v>
       </c>
@@ -45478,7 +46245,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>941</v>
       </c>
@@ -45513,7 +46280,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>1014</v>
       </c>
@@ -45548,7 +46315,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>1018</v>
       </c>
@@ -45583,7 +46350,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>1022</v>
       </c>
@@ -45618,7 +46385,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>1049</v>
       </c>
@@ -45651,7 +46418,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>1051</v>
       </c>
@@ -45686,7 +46453,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>1055</v>
       </c>
@@ -45721,7 +46488,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>1059</v>
       </c>
@@ -45756,7 +46523,7 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>1065</v>
       </c>
@@ -45791,7 +46558,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>1070</v>
       </c>
@@ -45826,7 +46593,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:12" x14ac:dyDescent="0